--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB562C51-A4A0-4070-8B5E-49FBA6C18796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1D615C-C3CA-4CE2-AD8F-3C14074BF6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
+    <workbookView xWindow="3690" yWindow="2258" windowWidth="20303" windowHeight="11834" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hyperparameter Optimization" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="114">
   <si>
     <t>Results</t>
   </si>
@@ -332,6 +332,42 @@
   </si>
   <si>
     <t>60</t>
+  </si>
+  <si>
+    <t>0.0587754720033505</t>
+  </si>
+  <si>
+    <t>0.409175183451883</t>
+  </si>
+  <si>
+    <t>0.0178677763789892</t>
+  </si>
+  <si>
+    <t>0.0000338238819543987</t>
+  </si>
+  <si>
+    <t>[0.017858009785413742, 0.017843207344412804, 0.017848338931798935, 0.01793464832007885, 0.017854677513241768]</t>
+  </si>
+  <si>
+    <t>Individual RMSE values for all folds</t>
+  </si>
+  <si>
+    <t>[0.017895381897687912, 0.018102500587701797, 0.01785821095108986, 0.018226653337478638, 0.017841143533587456]</t>
+  </si>
+  <si>
+    <t>0.00015297321821523206</t>
+  </si>
+  <si>
+    <t>[0.015873435884714127, 0.0156111354008317, 0.014798673801124096, 0.014219251461327076, 0.015119682997465134]</t>
+  </si>
+  <si>
+    <t>0.0005870910975945289</t>
+  </si>
+  <si>
+    <t>[0.029867349192500114, 0.026746543124318123, 0.02821287326514721, 0.030593710020184517, 0.030361896380782127]</t>
+  </si>
+  <si>
+    <t>0.00146438951140037</t>
   </si>
 </sst>
 </file>
@@ -370,7 +406,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -391,17 +427,6 @@
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -458,9 +483,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -469,6 +497,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -481,26 +510,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -509,19 +538,28 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -840,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E205C6-75C9-4A48-9727-53AED497EF04}">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -857,2113 +895,2209 @@
     <col min="10" max="10" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="101.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="103.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="5"/>
+      <c r="A2" s="7"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="7" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="24" t="s">
         <v>81</v>
       </c>
+      <c r="N7" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="N12" s="27" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="22"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="27"/>
     </row>
     <row r="14" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="22"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="27"/>
     </row>
     <row r="15" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="22"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="27"/>
     </row>
     <row r="16" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="22"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="27"/>
     </row>
     <row r="17" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="22"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="27"/>
     </row>
     <row r="18" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="22"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="27"/>
     </row>
     <row r="19" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="22"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="27"/>
     </row>
     <row r="20" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="22"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="27"/>
     </row>
     <row r="21" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="22"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="27"/>
     </row>
     <row r="22" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="22"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="27"/>
     </row>
     <row r="23" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="22"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="27"/>
     </row>
     <row r="24" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="22"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="27"/>
     </row>
     <row r="25" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="22"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="27"/>
     </row>
     <row r="26" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="22"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="27"/>
     </row>
     <row r="27" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="22"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="27"/>
     </row>
     <row r="28" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="3">
+        <v>256</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="K28" s="3">
+        <v>41</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="M28" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="29" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="5"/>
     </row>
     <row r="30" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M30" s="3"/>
+      <c r="M30" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="5"/>
     </row>
     <row r="32" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="5"/>
     </row>
     <row r="33" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="5"/>
     </row>
     <row r="34" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="5"/>
     </row>
     <row r="35" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="5"/>
     </row>
     <row r="40" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="5"/>
     </row>
     <row r="42" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="5"/>
     </row>
     <row r="43" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="5"/>
     </row>
     <row r="44" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="5"/>
     </row>
     <row r="45" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="4">
         <v>60</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="4">
         <v>256</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="M45" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="N45" s="21" t="s">
+      <c r="N45" s="23" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="5"/>
     </row>
     <row r="47" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="5"/>
     </row>
     <row r="48" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="5"/>
     </row>
     <row r="49" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="5"/>
     </row>
     <row r="50" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="5"/>
     </row>
     <row r="51" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="5"/>
     </row>
     <row r="52" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="L52" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="M52" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="N52" s="21" t="s">
+      <c r="N52" s="23" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="5"/>
     </row>
     <row r="54" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="5"/>
     </row>
     <row r="55" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="5"/>
     </row>
     <row r="56" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="5"/>
     </row>
     <row r="57" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="5"/>
     </row>
     <row r="58" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="5"/>
     </row>
     <row r="59" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="5"/>
     </row>
     <row r="60" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="5"/>
     </row>
     <row r="61" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="5"/>
     </row>
     <row r="62" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="5"/>
     </row>
     <row r="63" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="5"/>
     </row>
     <row r="64" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-    </row>
-    <row r="65" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="3" t="s">
+      <c r="E64" s="4"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="5"/>
+    </row>
+    <row r="65" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-    </row>
-    <row r="66" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="3" t="s">
+      <c r="E65" s="4"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="5"/>
+    </row>
+    <row r="66" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-    </row>
-    <row r="67" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A67" s="3" t="s">
+      <c r="E66" s="4"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="5"/>
+    </row>
+    <row r="67" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-    </row>
-    <row r="68" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A68" s="3" t="s">
+      <c r="E67" s="4"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="5"/>
+    </row>
+    <row r="68" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A68" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-    </row>
-    <row r="69" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="3" t="s">
+      <c r="E68" s="4"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="5"/>
+    </row>
+    <row r="69" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A69" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-    </row>
-    <row r="70" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="3" t="s">
+      <c r="E69" s="4"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="5"/>
+    </row>
+    <row r="70" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="G70" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="H70" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="I70" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="J70" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K70" s="3" t="s">
+      <c r="K70" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L70" s="3" t="s">
+      <c r="L70" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="3" t="s">
+      <c r="M70" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-    </row>
-    <row r="72" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="3" t="s">
+      <c r="E71" s="4"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="5"/>
+    </row>
+    <row r="72" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A72" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-    </row>
-    <row r="73" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="3" t="s">
+      <c r="E72" s="4"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="5"/>
+    </row>
+    <row r="73" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A73" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A74" s="3" t="s">
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="5"/>
+    </row>
+    <row r="74" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A74" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="3" t="s">
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="5"/>
+    </row>
+    <row r="75" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A75" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A76" s="3" t="s">
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="5"/>
+    </row>
+    <row r="76" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A76" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-    </row>
-    <row r="77" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A77" s="3" t="s">
+      <c r="E76" s="4"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="5"/>
+    </row>
+    <row r="77" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A77" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="78" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="3" t="s">
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="5"/>
+    </row>
+    <row r="78" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A78" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-    </row>
-    <row r="79" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A79" s="3" t="s">
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="5"/>
+    </row>
+    <row r="79" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A79" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-    </row>
-    <row r="80" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A80" s="3" t="s">
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="5"/>
+    </row>
+    <row r="80" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A80" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-    </row>
-    <row r="81" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A81" s="3" t="s">
+      <c r="E80" s="4"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="5"/>
+    </row>
+    <row r="81" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A81" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A82" s="3" t="s">
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="5"/>
+    </row>
+    <row r="82" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A82" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A83" s="3" t="s">
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="5"/>
+    </row>
+    <row r="83" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A83" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A84" s="3" t="s">
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="5"/>
+    </row>
+    <row r="84" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A84" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-    </row>
-    <row r="85" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A85" s="3" t="s">
+      <c r="E84" s="4"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="5"/>
+    </row>
+    <row r="85" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A85" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="4">
         <v>60</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="4">
         <v>512</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G85" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="H85" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="I85" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="J85" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K85" s="3" t="s">
+      <c r="K85" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L85" s="3" t="s">
+      <c r="L85" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A86" s="3" t="s">
+      <c r="M85" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N85" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A86" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="4">
         <v>60</v>
       </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A87" s="3" t="s">
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="5"/>
+    </row>
+    <row r="87" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A87" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="4">
         <v>60</v>
       </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="1:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="5"/>
+    </row>
+    <row r="88" spans="1:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2974,7 +3108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3967D1F-1468-4EA7-B0FA-5BF136463A67}">
   <dimension ref="A1:AD75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2991,4522 +3125,4522 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="13" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="13" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="13" t="s">
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="13" t="s">
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="15"/>
-      <c r="AA2" s="13" t="s">
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="17"/>
+      <c r="AA2" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="15"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="17"/>
     </row>
     <row r="3" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Y3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AA3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AB3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AC3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AD3" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="10">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="12">
         <v>1.081142</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="13">
         <v>0.84667499999999996</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="13">
         <v>0.106765</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="13">
         <v>0.81308999999999998</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="12">
         <v>1.020721</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="13">
         <v>0.921018</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="14">
         <v>0.10212400000000001</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="14">
         <v>0.77927900000000005</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="12">
         <v>0.91559599999999997</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="13">
         <v>0.82422300000000004</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="14">
         <v>0.123407</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="14">
         <v>0.95146299999999995</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="12">
         <v>1.4416059999999999</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="13">
         <v>1.1738420000000001</v>
       </c>
-      <c r="T4" s="12">
+      <c r="T4" s="14">
         <v>0.190389</v>
       </c>
-      <c r="U4" s="12">
+      <c r="U4" s="14">
         <v>0.95067800000000002</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="12">
         <v>0.95800600000000002</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="13">
         <v>0.74749900000000002</v>
       </c>
-      <c r="X4" s="12">
+      <c r="X4" s="14">
         <v>0.11792800000000001</v>
       </c>
-      <c r="Y4" s="12">
+      <c r="Y4" s="14">
         <v>0.895451</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="Z4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AA4" s="12">
         <f>AVERAGE(V4, R4, N4, K4, G4)</f>
         <v>1.0165801999999999</v>
       </c>
-      <c r="AB4" s="10">
+      <c r="AB4" s="12">
         <f>AVERAGE(W4, S4, O4, L4, H4)</f>
         <v>0.59089060000000004</v>
       </c>
-      <c r="AC4" s="10">
+      <c r="AC4" s="12">
         <f>AVERAGE(X4, T4, P4, M4, I4)</f>
         <v>0.40481860000000003</v>
       </c>
-      <c r="AD4" s="10">
+      <c r="AD4" s="12">
         <f>AVERAGE(Y4, U4, Q4, N4, J4)</f>
         <v>0.9467817999999999</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="2" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="13">
         <v>2.8629760000000002</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="13">
         <v>2.3603550000000002</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="13">
         <v>0.33469599999999999</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="13">
         <v>0.25328099999999998</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="13">
         <v>2.7784620000000002</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="13">
         <v>2.2886820000000001</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="14">
         <v>0.38076900000000002</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="14">
         <v>7.5435000000000002E-2</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="13">
         <v>3.8509540000000002</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="13">
         <v>3.135745</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="14">
         <v>0.50277499999999997</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="14">
         <v>0.14546100000000001</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="13">
         <v>2.4273220000000002</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="13">
         <v>2.2097690000000001</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="14">
         <v>0.66618999999999995</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="14">
         <v>0.90671599999999997</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="13">
         <v>3.4780859999999998</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="13">
         <v>2.8056199999999998</v>
       </c>
-      <c r="X5" s="12">
+      <c r="X5" s="14">
         <v>0.50839199999999996</v>
       </c>
-      <c r="Y5" s="12">
+      <c r="Y5" s="14">
         <v>0.21245600000000001</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="Z5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AA5" s="12">
         <f>AVERAGE(V5, R5, N5, K5, G5)</f>
         <v>2.8810797999999997</v>
       </c>
-      <c r="AB5" s="10">
+      <c r="AB5" s="12">
         <f>AVERAGE(W5, S5, O5, L5, H5)</f>
         <v>1.7733197999999999</v>
       </c>
-      <c r="AC5" s="10">
+      <c r="AC5" s="12">
         <f>AVERAGE(X5, T5, P5, M5, I5)</f>
         <v>0.40121459999999998</v>
       </c>
-      <c r="AD5" s="10">
+      <c r="AD5" s="12">
         <f>AVERAGE(Y5, U5, Q5, N5, J5)</f>
         <v>1.5788098000000002</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="2" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="13">
         <v>1.0374369999999999</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="13">
         <v>0.78710199999999997</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="13">
         <v>4.7308999999999997E-2</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="13">
         <v>0.85626100000000005</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="13">
         <v>1.2807360000000001</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="13">
         <v>1.09057</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="14">
         <v>6.5799999999999997E-2</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="14">
         <v>0.79933299999999996</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="13">
         <v>1.1278189999999999</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="13">
         <v>0.90169200000000005</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="14">
         <v>5.6690999999999998E-2</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="14">
         <v>0.94496000000000002</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="13">
         <v>1.20384</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="13">
         <v>0.99324000000000001</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="14">
         <v>0.14882200000000001</v>
       </c>
-      <c r="U6" s="12">
+      <c r="U6" s="14">
         <v>0.96165699999999998</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="13">
         <v>1.5793699999999999</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W6" s="13">
         <v>1.447146</v>
       </c>
-      <c r="X6" s="12">
+      <c r="X6" s="14">
         <v>9.6213000000000007E-2</v>
       </c>
-      <c r="Y6" s="12">
+      <c r="Y6" s="14">
         <v>0.75835399999999997</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="Z6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AA6" s="12">
         <f>AVERAGE(V6, R6, N6, K6, G6)</f>
         <v>1.1577402000000001</v>
       </c>
-      <c r="AB6" s="10">
+      <c r="AB6" s="12">
         <f>AVERAGE(W6, S6, O6, L6, H6)</f>
         <v>0.69103740000000002</v>
       </c>
-      <c r="AC6" s="10">
+      <c r="AC6" s="12">
         <f>AVERAGE(X6, T6, P6, M6, I6)</f>
         <v>0.39146400000000003</v>
       </c>
-      <c r="AD6" s="10">
+      <c r="AD6" s="12">
         <f>AVERAGE(Y6, U6, Q6, N6, J6)</f>
         <v>1.0147052000000001</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="F7" s="13" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="F7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="13" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="13" t="s">
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="13" t="s">
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="13" t="s">
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="15"/>
-      <c r="AA7" s="7" t="s">
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="17"/>
+      <c r="AA7" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="20">
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="22">
         <f>AVERAGE(I73, M73, Q73, U73, Y73)</f>
         <v>1.5016363636363637</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="S8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="T8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="U8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="V8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W8" s="2" t="s">
+      <c r="W8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X8" s="2" t="s">
+      <c r="X8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="Y8" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="19">
         <v>7.99</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="19">
         <v>7.49</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="19">
         <f>G9-F9</f>
         <v>-0.5</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="19">
         <f>ABS(H9)</f>
         <v>0.5</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="19">
         <v>8.26</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="19">
         <v>9.0299999999999994</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="19">
         <f>K9-J9</f>
         <v>0.76999999999999957</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="19">
         <f>ABS(L9)</f>
         <v>0.76999999999999957</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="19">
         <v>11.28</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="19">
         <v>11.83</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="19">
         <f>O9-N9</f>
         <v>0.55000000000000071</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="19">
         <f>ABS(P9)</f>
         <v>0.55000000000000071</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="19">
         <v>-9.1</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="19">
         <v>-10.09</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="19">
         <f>S9-R9</f>
         <v>-0.99000000000000021</v>
       </c>
-      <c r="U9" s="17">
+      <c r="U9" s="19">
         <f>ABS(T9)</f>
         <v>0.99000000000000021</v>
       </c>
-      <c r="V9" s="17">
+      <c r="V9" s="19">
         <v>8.4600000000000009</v>
       </c>
-      <c r="W9" s="17">
+      <c r="W9" s="19">
         <v>8.18</v>
       </c>
-      <c r="X9" s="17">
+      <c r="X9" s="19">
         <f>W9-V9</f>
         <v>-0.28000000000000114</v>
       </c>
-      <c r="Y9" s="17">
+      <c r="Y9" s="19">
         <f>ABS(X9)</f>
         <v>0.28000000000000114</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="19">
         <v>4.6399999999999997</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="19">
         <v>5.19</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="19">
         <f t="shared" ref="H10:H11" si="0">G10-F10</f>
         <v>0.55000000000000071</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="19">
         <f t="shared" ref="I10:I11" si="1">ABS(H10)</f>
         <v>0.55000000000000071</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="19">
         <v>4.91</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="19">
         <v>8.34</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="19">
         <f t="shared" ref="L10:L11" si="2">K10-J10</f>
         <v>3.4299999999999997</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="19">
         <f t="shared" ref="M10:M11" si="3">ABS(L10)</f>
         <v>3.4299999999999997</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="19">
         <v>7.93</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="19">
         <v>7.01</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="19">
         <f t="shared" ref="P10:P11" si="4">O10-N10</f>
         <v>-0.91999999999999993</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="19">
         <f t="shared" ref="Q10:Q11" si="5">ABS(P10)</f>
         <v>0.91999999999999993</v>
       </c>
-      <c r="R10" s="17">
+      <c r="R10" s="19">
         <v>-12.45</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="19">
         <v>-10.25</v>
       </c>
-      <c r="T10" s="17">
+      <c r="T10" s="19">
         <f t="shared" ref="T10:T11" si="6">S10-R10</f>
         <v>2.1999999999999993</v>
       </c>
-      <c r="U10" s="17">
+      <c r="U10" s="19">
         <f t="shared" ref="U10:U11" si="7">ABS(T10)</f>
         <v>2.1999999999999993</v>
       </c>
-      <c r="V10" s="17">
+      <c r="V10" s="19">
         <v>5.1100000000000003</v>
       </c>
-      <c r="W10" s="17">
+      <c r="W10" s="19">
         <v>4.6900000000000004</v>
       </c>
-      <c r="X10" s="17">
+      <c r="X10" s="19">
         <f t="shared" ref="X10:X11" si="8">W10-V10</f>
         <v>-0.41999999999999993</v>
       </c>
-      <c r="Y10" s="17">
+      <c r="Y10" s="19">
         <f t="shared" ref="Y10:Y11" si="9">ABS(X10)</f>
         <v>0.41999999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="19">
         <v>15.71</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="19">
         <v>15.32</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="19">
         <f t="shared" si="0"/>
         <v>-0.39000000000000057</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="19">
         <f t="shared" si="1"/>
         <v>0.39000000000000057</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="19">
         <v>15.98</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="19">
         <v>14.7</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="19">
         <f t="shared" si="2"/>
         <v>-1.2800000000000011</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="19">
         <f t="shared" si="3"/>
         <v>1.2800000000000011</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="19">
         <v>19</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="19">
         <v>18.02</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="19">
         <f t="shared" si="4"/>
         <v>-0.98000000000000043</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="19">
         <f t="shared" si="5"/>
         <v>0.98000000000000043</v>
       </c>
-      <c r="R11" s="17">
+      <c r="R11" s="19">
         <v>-1.38</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S11" s="19">
         <v>-2.5299999999999998</v>
       </c>
-      <c r="T11" s="17">
+      <c r="T11" s="19">
         <f t="shared" si="6"/>
         <v>-1.1499999999999999</v>
       </c>
-      <c r="U11" s="17">
+      <c r="U11" s="19">
         <f t="shared" si="7"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="V11" s="17">
+      <c r="V11" s="19">
         <v>16.18</v>
       </c>
-      <c r="W11" s="17">
+      <c r="W11" s="19">
         <v>14.46</v>
       </c>
-      <c r="X11" s="17">
+      <c r="X11" s="19">
         <f t="shared" si="8"/>
         <v>-1.7199999999999989</v>
       </c>
-      <c r="Y11" s="17">
+      <c r="Y11" s="19">
         <f t="shared" si="9"/>
         <v>1.7199999999999989</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E12" s="16"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="2" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="19">
         <f>AVERAGE(I9:I11)</f>
         <v>0.48000000000000043</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="2" t="s">
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="19">
         <f>AVERAGE(M9:M11)</f>
         <v>1.8266666666666669</v>
       </c>
-      <c r="N12" s="18"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="2" t="s">
+      <c r="N12" s="20"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="19">
         <f>AVERAGE(Q9:Q11)</f>
         <v>0.81666666666666698</v>
       </c>
-      <c r="R12" s="18"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="2" t="s">
+      <c r="R12" s="20"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="U12" s="17">
+      <c r="U12" s="19">
         <f>AVERAGE(U9:U11)</f>
         <v>1.4466666666666665</v>
       </c>
-      <c r="V12" s="18"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="2" t="s">
+      <c r="V12" s="20"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Y12" s="17">
+      <c r="Y12" s="19">
         <f>AVERAGE(Y9:Y11)</f>
         <v>0.80666666666666664</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E13" s="16"/>
-      <c r="F13" s="13" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="13" t="s">
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="13" t="s">
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="13" t="s">
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="13" t="s">
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="15"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="17"/>
     </row>
     <row r="14" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Q14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="R14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="S14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="T14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="U14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V14" s="2" t="s">
+      <c r="V14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W14" s="2" t="s">
+      <c r="W14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X14" s="2" t="s">
+      <c r="X14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y14" s="2" t="s">
+      <c r="Y14" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="19">
         <v>8.5299999999999994</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="19">
         <v>6.51</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="19">
         <f>G15-F15</f>
         <v>-2.0199999999999996</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="19">
         <f>ABS(H15)</f>
         <v>2.0199999999999996</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="19">
         <v>8.35</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="19">
         <v>7.6</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="19">
         <f>K15-J15</f>
         <v>-0.75</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="19">
         <f>ABS(L15)</f>
         <v>0.75</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="19">
         <v>7.43</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O15" s="19">
         <v>6.46</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="19">
         <f>O15-N15</f>
         <v>-0.96999999999999975</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="19">
         <f>ABS(P15)</f>
         <v>0.96999999999999975</v>
       </c>
-      <c r="R15" s="17">
+      <c r="R15" s="19">
         <v>10.23</v>
       </c>
-      <c r="S15" s="17">
+      <c r="S15" s="19">
         <v>7.72</v>
       </c>
-      <c r="T15" s="17">
+      <c r="T15" s="19">
         <f>S15-R15</f>
         <v>-2.5100000000000007</v>
       </c>
-      <c r="U15" s="17">
+      <c r="U15" s="19">
         <f>ABS(T15)</f>
         <v>2.5100000000000007</v>
       </c>
-      <c r="V15" s="17">
+      <c r="V15" s="19">
         <v>8.3000000000000007</v>
       </c>
-      <c r="W15" s="17">
+      <c r="W15" s="19">
         <v>6.5</v>
       </c>
-      <c r="X15" s="17">
+      <c r="X15" s="19">
         <f>W15-V15</f>
         <v>-1.8000000000000007</v>
       </c>
-      <c r="Y15" s="17">
+      <c r="Y15" s="19">
         <f>ABS(X15)</f>
         <v>1.8000000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="19">
         <v>8.44</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="19">
         <v>4.21</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="19">
         <f t="shared" ref="H16:H17" si="10">G16-F16</f>
         <v>-4.2299999999999995</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="19">
         <f t="shared" ref="I16:I17" si="11">ABS(H16)</f>
         <v>4.2299999999999995</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="19">
         <v>8.26</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="19">
         <v>6.91</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="19">
         <f t="shared" ref="L16:L17" si="12">K16-J16</f>
         <v>-1.3499999999999996</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="19">
         <f t="shared" ref="M16:M17" si="13">ABS(L16)</f>
         <v>1.3499999999999996</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="19">
         <v>7.34</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="19">
         <v>1.64</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16" s="19">
         <f t="shared" ref="P16:P17" si="14">O16-N16</f>
         <v>-5.7</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="19">
         <f t="shared" ref="Q16:Q17" si="15">ABS(P16)</f>
         <v>5.7</v>
       </c>
-      <c r="R16" s="17">
+      <c r="R16" s="19">
         <v>10.14</v>
       </c>
-      <c r="S16" s="17">
+      <c r="S16" s="19">
         <v>7.56</v>
       </c>
-      <c r="T16" s="17">
+      <c r="T16" s="19">
         <f t="shared" ref="T16:T17" si="16">S16-R16</f>
         <v>-2.580000000000001</v>
       </c>
-      <c r="U16" s="17">
+      <c r="U16" s="19">
         <f t="shared" ref="U16:U17" si="17">ABS(T16)</f>
         <v>2.580000000000001</v>
       </c>
-      <c r="V16" s="17">
+      <c r="V16" s="19">
         <v>8.2100000000000009</v>
       </c>
-      <c r="W16" s="17">
+      <c r="W16" s="19">
         <v>3.01</v>
       </c>
-      <c r="X16" s="17">
+      <c r="X16" s="19">
         <f t="shared" ref="X16:X17" si="18">W16-V16</f>
         <v>-5.2000000000000011</v>
       </c>
-      <c r="Y16" s="17">
+      <c r="Y16" s="19">
         <f t="shared" ref="Y16:Y17" si="19">ABS(X16)</f>
         <v>5.2000000000000011</v>
       </c>
     </row>
     <row r="17" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="19">
         <v>13.5</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="19">
         <v>14.34</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="19">
         <f t="shared" si="10"/>
         <v>0.83999999999999986</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="19">
         <f t="shared" si="11"/>
         <v>0.83999999999999986</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="19">
         <v>13.32</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="19">
         <v>13.27</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="19">
         <f t="shared" si="12"/>
         <v>-5.0000000000000711E-2</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="19">
         <f t="shared" si="13"/>
         <v>5.0000000000000711E-2</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="19">
         <v>12.4</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="19">
         <v>12.65</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P17" s="19">
         <f t="shared" si="14"/>
         <v>0.25</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="19">
         <f t="shared" si="15"/>
         <v>0.25</v>
       </c>
-      <c r="R17" s="17">
+      <c r="R17" s="19">
         <v>15.2</v>
       </c>
-      <c r="S17" s="17">
+      <c r="S17" s="19">
         <v>15.28</v>
       </c>
-      <c r="T17" s="17">
+      <c r="T17" s="19">
         <f t="shared" si="16"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="U17" s="17">
+      <c r="U17" s="19">
         <f t="shared" si="17"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="V17" s="17">
+      <c r="V17" s="19">
         <v>13.27</v>
       </c>
-      <c r="W17" s="17">
+      <c r="W17" s="19">
         <v>12.78</v>
       </c>
-      <c r="X17" s="17">
+      <c r="X17" s="19">
         <f t="shared" si="18"/>
         <v>-0.49000000000000021</v>
       </c>
-      <c r="Y17" s="17">
+      <c r="Y17" s="19">
         <f t="shared" si="19"/>
         <v>0.49000000000000021</v>
       </c>
     </row>
     <row r="18" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="2" t="s">
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="19">
         <f>AVERAGE(I15:I17)</f>
         <v>2.3633333333333328</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="2" t="s">
+      <c r="J18" s="20"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="19">
         <f>AVERAGE(M15:M17)</f>
         <v>0.71666666666666679</v>
       </c>
-      <c r="N18" s="18"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="2" t="s">
+      <c r="N18" s="20"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="Q18" s="19">
         <f>AVERAGE(Q15:Q17)</f>
         <v>2.3066666666666666</v>
       </c>
-      <c r="R18" s="18"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="2" t="s">
+      <c r="R18" s="20"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="U18" s="17">
+      <c r="U18" s="19">
         <f>AVERAGE(U15:U17)</f>
         <v>1.7233333333333338</v>
       </c>
-      <c r="V18" s="18"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="2" t="s">
+      <c r="V18" s="20"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Y18" s="17">
+      <c r="Y18" s="19">
         <f>AVERAGE(Y15:Y17)</f>
         <v>2.4966666666666675</v>
       </c>
     </row>
     <row r="19" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="13" t="s">
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="13" t="s">
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="13" t="s">
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="13" t="s">
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="15"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="17"/>
     </row>
     <row r="20" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="O20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="P20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="Q20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="R20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="S20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="T20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="U20" s="2" t="s">
+      <c r="U20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V20" s="2" t="s">
+      <c r="V20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W20" s="2" t="s">
+      <c r="W20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X20" s="2" t="s">
+      <c r="X20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y20" s="2" t="s">
+      <c r="Y20" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="19">
         <v>7.31</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="19">
         <v>5.13</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="19">
         <f>G21-F21</f>
         <v>-2.1799999999999997</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="19">
         <f>ABS(H21)</f>
         <v>2.1799999999999997</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="19">
         <v>9.75</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="19">
         <v>8.84</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="19">
         <f>K21-J21</f>
         <v>-0.91000000000000014</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="19">
         <f>ABS(L21)</f>
         <v>0.91000000000000014</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="19">
         <v>12.86</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="19">
         <v>11.73</v>
       </c>
-      <c r="P21" s="17">
+      <c r="P21" s="19">
         <f>O21-N21</f>
         <v>-1.129999999999999</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="Q21" s="19">
         <f>ABS(P21)</f>
         <v>1.129999999999999</v>
       </c>
-      <c r="R21" s="17">
+      <c r="R21" s="19">
         <v>9.86</v>
       </c>
-      <c r="S21" s="17">
+      <c r="S21" s="19">
         <v>7.19</v>
       </c>
-      <c r="T21" s="17">
+      <c r="T21" s="19">
         <f>S21-R21</f>
         <v>-2.669999999999999</v>
       </c>
-      <c r="U21" s="17">
+      <c r="U21" s="19">
         <f>ABS(T21)</f>
         <v>2.669999999999999</v>
       </c>
-      <c r="V21" s="17">
+      <c r="V21" s="19">
         <v>5.08</v>
       </c>
-      <c r="W21" s="17">
+      <c r="W21" s="19">
         <v>3.12</v>
       </c>
-      <c r="X21" s="17">
+      <c r="X21" s="19">
         <f>W21-V21</f>
         <v>-1.96</v>
       </c>
-      <c r="Y21" s="17">
+      <c r="Y21" s="19">
         <f>ABS(X21)</f>
         <v>1.96</v>
       </c>
     </row>
     <row r="22" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="19">
         <v>8.17</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="19">
         <v>2.83</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="19">
         <f t="shared" ref="H22:H23" si="20">G22-F22</f>
         <v>-5.34</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="19">
         <f t="shared" ref="I22:I23" si="21">ABS(H22)</f>
         <v>5.34</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="19">
         <v>10.61</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="19">
         <v>8.15</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="19">
         <f t="shared" ref="L22:L23" si="22">K22-J22</f>
         <v>-2.4599999999999991</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="19">
         <f t="shared" ref="M22:M23" si="23">ABS(L22)</f>
         <v>2.4599999999999991</v>
       </c>
-      <c r="N22" s="17">
+      <c r="N22" s="19">
         <v>13.72</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O22" s="19">
         <v>6.91</v>
       </c>
-      <c r="P22" s="17">
+      <c r="P22" s="19">
         <f t="shared" ref="P22:P23" si="24">O22-N22</f>
         <v>-6.8100000000000005</v>
       </c>
-      <c r="Q22" s="17">
+      <c r="Q22" s="19">
         <f t="shared" ref="Q22:Q23" si="25">ABS(P22)</f>
         <v>6.8100000000000005</v>
       </c>
-      <c r="R22" s="17">
+      <c r="R22" s="19">
         <v>10.72</v>
       </c>
-      <c r="S22" s="17">
+      <c r="S22" s="19">
         <v>7.03</v>
       </c>
-      <c r="T22" s="17">
+      <c r="T22" s="19">
         <f t="shared" ref="T22:T23" si="26">S22-R22</f>
         <v>-3.6900000000000004</v>
       </c>
-      <c r="U22" s="17">
+      <c r="U22" s="19">
         <f t="shared" ref="U22:U23" si="27">ABS(T22)</f>
         <v>3.6900000000000004</v>
       </c>
-      <c r="V22" s="17">
+      <c r="V22" s="19">
         <v>5.94</v>
       </c>
-      <c r="W22" s="17">
+      <c r="W22" s="19">
         <v>-0.37</v>
       </c>
-      <c r="X22" s="17">
+      <c r="X22" s="19">
         <f t="shared" ref="X22:X23" si="28">W22-V22</f>
         <v>-6.3100000000000005</v>
       </c>
-      <c r="Y22" s="17">
+      <c r="Y22" s="19">
         <f t="shared" ref="Y22:Y23" si="29">ABS(X22)</f>
         <v>6.3100000000000005</v>
       </c>
     </row>
     <row r="23" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="19">
         <v>14.15</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="19">
         <v>12.96</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="19">
         <f t="shared" si="20"/>
         <v>-1.1899999999999995</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="19">
         <f t="shared" si="21"/>
         <v>1.1899999999999995</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="19">
         <v>16.59</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="19">
         <v>14.51</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="19">
         <f t="shared" si="22"/>
         <v>-2.08</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="19">
         <f t="shared" si="23"/>
         <v>2.08</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N23" s="19">
         <v>19.7</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O23" s="19">
         <v>17.920000000000002</v>
       </c>
-      <c r="P23" s="17">
+      <c r="P23" s="19">
         <f t="shared" si="24"/>
         <v>-1.7799999999999976</v>
       </c>
-      <c r="Q23" s="17">
+      <c r="Q23" s="19">
         <f t="shared" si="25"/>
         <v>1.7799999999999976</v>
       </c>
-      <c r="R23" s="17">
+      <c r="R23" s="19">
         <v>16.7</v>
       </c>
-      <c r="S23" s="17">
+      <c r="S23" s="19">
         <v>14.75</v>
       </c>
-      <c r="T23" s="17">
+      <c r="T23" s="19">
         <f t="shared" si="26"/>
         <v>-1.9499999999999993</v>
       </c>
-      <c r="U23" s="17">
+      <c r="U23" s="19">
         <f t="shared" si="27"/>
         <v>1.9499999999999993</v>
       </c>
-      <c r="V23" s="17">
+      <c r="V23" s="19">
         <v>11.92</v>
       </c>
-      <c r="W23" s="17">
+      <c r="W23" s="19">
         <v>9.4</v>
       </c>
-      <c r="X23" s="17">
+      <c r="X23" s="19">
         <f t="shared" si="28"/>
         <v>-2.5199999999999996</v>
       </c>
-      <c r="Y23" s="17">
+      <c r="Y23" s="19">
         <f t="shared" si="29"/>
         <v>2.5199999999999996</v>
       </c>
     </row>
     <row r="24" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="2" t="s">
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="19">
         <f>AVERAGE(I21:I23)</f>
         <v>2.9033333333333329</v>
       </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="2" t="s">
+      <c r="J24" s="20"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M24" s="19">
         <f>AVERAGE(M21:M23)</f>
         <v>1.8166666666666664</v>
       </c>
-      <c r="N24" s="18"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="2" t="s">
+      <c r="N24" s="20"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q24" s="17">
+      <c r="Q24" s="19">
         <f>AVERAGE(Q21:Q23)</f>
         <v>3.2399999999999989</v>
       </c>
-      <c r="R24" s="18"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="2" t="s">
+      <c r="R24" s="20"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="U24" s="17">
+      <c r="U24" s="19">
         <f>AVERAGE(U21:U23)</f>
         <v>2.7699999999999996</v>
       </c>
-      <c r="V24" s="18"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="2" t="s">
+      <c r="V24" s="20"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Y24" s="17">
+      <c r="Y24" s="19">
         <f>AVERAGE(Y21:Y23)</f>
         <v>3.5966666666666662</v>
       </c>
     </row>
     <row r="25" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="13" t="s">
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="13" t="s">
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="13" t="s">
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="13" t="s">
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="15"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="17"/>
     </row>
     <row r="26" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="N26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="P26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="Q26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="R26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="S26" s="2" t="s">
+      <c r="S26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="T26" s="2" t="s">
+      <c r="T26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="U26" s="2" t="s">
+      <c r="U26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V26" s="2" t="s">
+      <c r="V26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W26" s="2" t="s">
+      <c r="W26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X26" s="2" t="s">
+      <c r="X26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y26" s="2" t="s">
+      <c r="Y26" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="19">
         <v>5.38</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="19">
         <v>3.93</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="19">
         <f>G27-F27</f>
         <v>-1.4499999999999997</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="19">
         <f>ABS(H27)</f>
         <v>1.4499999999999997</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="19">
         <v>8.0500000000000007</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="19">
         <v>7.87</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="19">
         <f>K27-J27</f>
         <v>-0.1800000000000006</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M27" s="19">
         <f>ABS(L27)</f>
         <v>0.1800000000000006</v>
       </c>
-      <c r="N27" s="17">
+      <c r="N27" s="19">
         <v>8.66</v>
       </c>
-      <c r="O27" s="17">
+      <c r="O27" s="19">
         <v>8.26</v>
       </c>
-      <c r="P27" s="17">
+      <c r="P27" s="19">
         <f>O27-N27</f>
         <v>-0.40000000000000036</v>
       </c>
-      <c r="Q27" s="17">
+      <c r="Q27" s="19">
         <f>ABS(P27)</f>
         <v>0.40000000000000036</v>
       </c>
-      <c r="R27" s="17">
+      <c r="R27" s="19">
         <v>3.29</v>
       </c>
-      <c r="S27" s="17">
+      <c r="S27" s="19">
         <v>1.35</v>
       </c>
-      <c r="T27" s="17">
+      <c r="T27" s="19">
         <f>S27-R27</f>
         <v>-1.94</v>
       </c>
-      <c r="U27" s="17">
+      <c r="U27" s="19">
         <f>ABS(T27)</f>
         <v>1.94</v>
       </c>
-      <c r="V27" s="17">
+      <c r="V27" s="19">
         <v>3.71</v>
       </c>
-      <c r="W27" s="17">
+      <c r="W27" s="19">
         <v>2.48</v>
       </c>
-      <c r="X27" s="17">
+      <c r="X27" s="19">
         <f>W27-V27</f>
         <v>-1.23</v>
       </c>
-      <c r="Y27" s="17">
+      <c r="Y27" s="19">
         <f>ABS(X27)</f>
         <v>1.23</v>
       </c>
     </row>
     <row r="28" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="19">
         <v>3.81</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="19">
         <v>1.63</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="19">
         <f t="shared" ref="H28:H29" si="30">G28-F28</f>
         <v>-2.1800000000000002</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="19">
         <f t="shared" ref="I28:I29" si="31">ABS(H28)</f>
         <v>2.1800000000000002</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="19">
         <v>6.48</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="19">
         <v>7.18</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="19">
         <f t="shared" ref="L28:L29" si="32">K28-J28</f>
         <v>0.69999999999999929</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M28" s="19">
         <f t="shared" ref="M28:M29" si="33">ABS(L28)</f>
         <v>0.69999999999999929</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N28" s="19">
         <v>7.09</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O28" s="19">
         <v>3.44</v>
       </c>
-      <c r="P28" s="17">
+      <c r="P28" s="19">
         <f t="shared" ref="P28:P29" si="34">O28-N28</f>
         <v>-3.65</v>
       </c>
-      <c r="Q28" s="17">
+      <c r="Q28" s="19">
         <f t="shared" ref="Q28:Q29" si="35">ABS(P28)</f>
         <v>3.65</v>
       </c>
-      <c r="R28" s="17">
+      <c r="R28" s="19">
         <v>1.72</v>
       </c>
-      <c r="S28" s="17">
+      <c r="S28" s="19">
         <v>1.19</v>
       </c>
-      <c r="T28" s="17">
+      <c r="T28" s="19">
         <f t="shared" ref="T28:T29" si="36">S28-R28</f>
         <v>-0.53</v>
       </c>
-      <c r="U28" s="17">
+      <c r="U28" s="19">
         <f t="shared" ref="U28:U29" si="37">ABS(T28)</f>
         <v>0.53</v>
       </c>
-      <c r="V28" s="17">
+      <c r="V28" s="19">
         <v>2.14</v>
       </c>
-      <c r="W28" s="17">
+      <c r="W28" s="19">
         <v>-1.01</v>
       </c>
-      <c r="X28" s="17">
+      <c r="X28" s="19">
         <f t="shared" ref="X28:X29" si="38">W28-V28</f>
         <v>-3.1500000000000004</v>
       </c>
-      <c r="Y28" s="17">
+      <c r="Y28" s="19">
         <f t="shared" ref="Y28:Y29" si="39">ABS(X28)</f>
         <v>3.1500000000000004</v>
       </c>
     </row>
     <row r="29" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="19">
         <v>11.72</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="19">
         <v>11.76</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="19">
         <f t="shared" si="30"/>
         <v>3.9999999999999147E-2</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="19">
         <f t="shared" si="31"/>
         <v>3.9999999999999147E-2</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="19">
         <v>14.39</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="19">
         <v>13.54</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L29" s="19">
         <f t="shared" si="32"/>
         <v>-0.85000000000000142</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="19">
         <f t="shared" si="33"/>
         <v>0.85000000000000142</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N29" s="19">
         <v>15</v>
       </c>
-      <c r="O29" s="17">
+      <c r="O29" s="19">
         <v>14.45</v>
       </c>
-      <c r="P29" s="17">
+      <c r="P29" s="19">
         <f t="shared" si="34"/>
         <v>-0.55000000000000071</v>
       </c>
-      <c r="Q29" s="17">
+      <c r="Q29" s="19">
         <f t="shared" si="35"/>
         <v>0.55000000000000071</v>
       </c>
-      <c r="R29" s="17">
+      <c r="R29" s="19">
         <v>9.6300000000000008</v>
       </c>
-      <c r="S29" s="17">
+      <c r="S29" s="19">
         <v>8.91</v>
       </c>
-      <c r="T29" s="17">
+      <c r="T29" s="19">
         <f t="shared" si="36"/>
         <v>-0.72000000000000064</v>
       </c>
-      <c r="U29" s="17">
+      <c r="U29" s="19">
         <f t="shared" si="37"/>
         <v>0.72000000000000064</v>
       </c>
-      <c r="V29" s="17">
+      <c r="V29" s="19">
         <v>10.050000000000001</v>
       </c>
-      <c r="W29" s="17">
+      <c r="W29" s="19">
         <v>8.76</v>
       </c>
-      <c r="X29" s="17">
+      <c r="X29" s="19">
         <f t="shared" si="38"/>
         <v>-1.2900000000000009</v>
       </c>
-      <c r="Y29" s="17">
+      <c r="Y29" s="19">
         <f t="shared" si="39"/>
         <v>1.2900000000000009</v>
       </c>
     </row>
     <row r="30" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="2" t="s">
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="19">
         <f>AVERAGE(I27:I29)</f>
         <v>1.2233333333333329</v>
       </c>
-      <c r="J30" s="18"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="2" t="s">
+      <c r="J30" s="20"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M30" s="17">
+      <c r="M30" s="19">
         <f>AVERAGE(M27:M29)</f>
         <v>0.5766666666666671</v>
       </c>
-      <c r="N30" s="18"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="2" t="s">
+      <c r="N30" s="20"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q30" s="17">
+      <c r="Q30" s="19">
         <f>AVERAGE(Q27:Q29)</f>
         <v>1.5333333333333339</v>
       </c>
-      <c r="R30" s="18"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="2" t="s">
+      <c r="R30" s="20"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="U30" s="17">
+      <c r="U30" s="19">
         <f>AVERAGE(U27:U29)</f>
         <v>1.0633333333333335</v>
       </c>
-      <c r="V30" s="18" t="s">
+      <c r="V30" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="W30" s="19"/>
-      <c r="X30" s="2" t="s">
+      <c r="W30" s="21"/>
+      <c r="X30" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Y30" s="17">
+      <c r="Y30" s="19">
         <f>AVERAGE(Y27:Y29)</f>
         <v>1.8900000000000006</v>
       </c>
     </row>
     <row r="31" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="13" t="s">
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="13" t="s">
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="13" t="s">
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="13" t="s">
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="15"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="17"/>
     </row>
     <row r="32" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="N32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="O32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P32" s="2" t="s">
+      <c r="P32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="Q32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="R32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="S32" s="2" t="s">
+      <c r="S32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="T32" s="2" t="s">
+      <c r="T32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="U32" s="2" t="s">
+      <c r="U32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V32" s="2" t="s">
+      <c r="V32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W32" s="2" t="s">
+      <c r="W32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X32" s="2" t="s">
+      <c r="X32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y32" s="2" t="s">
+      <c r="Y32" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="33" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="19">
         <v>11.33</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="19">
         <v>10.85</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="19">
         <f>G33-F33</f>
         <v>-0.48000000000000043</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="19">
         <f>ABS(H33)</f>
         <v>0.48000000000000043</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="19">
         <v>11.32</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="19">
         <v>12.11</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="19">
         <f>K33-J33</f>
         <v>0.78999999999999915</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M33" s="19">
         <f>ABS(L33)</f>
         <v>0.78999999999999915</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N33" s="19">
         <v>7.73</v>
       </c>
-      <c r="O33" s="17">
+      <c r="O33" s="19">
         <v>8.3000000000000007</v>
       </c>
-      <c r="P33" s="17">
+      <c r="P33" s="19">
         <f>O33-N33</f>
         <v>0.57000000000000028</v>
       </c>
-      <c r="Q33" s="17">
+      <c r="Q33" s="19">
         <f>ABS(P33)</f>
         <v>0.57000000000000028</v>
       </c>
-      <c r="R33" s="17">
+      <c r="R33" s="19">
         <v>8.02</v>
       </c>
-      <c r="S33" s="17">
+      <c r="S33" s="19">
         <v>7.05</v>
       </c>
-      <c r="T33" s="17">
+      <c r="T33" s="19">
         <f>S33-R33</f>
         <v>-0.96999999999999975</v>
       </c>
-      <c r="U33" s="17">
+      <c r="U33" s="19">
         <f>ABS(T33)</f>
         <v>0.96999999999999975</v>
       </c>
-      <c r="V33" s="17">
+      <c r="V33" s="19">
         <v>4.01</v>
       </c>
-      <c r="W33" s="17">
+      <c r="W33" s="19">
         <v>3.75</v>
       </c>
-      <c r="X33" s="17">
+      <c r="X33" s="19">
         <f>W33-V33</f>
         <v>-0.25999999999999979</v>
       </c>
-      <c r="Y33" s="17">
+      <c r="Y33" s="19">
         <f>ABS(X33)</f>
         <v>0.25999999999999979</v>
       </c>
     </row>
     <row r="34" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="19">
         <v>8.24</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="19">
         <v>8.5500000000000007</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="19">
         <f t="shared" ref="H34:H35" si="40">G34-F34</f>
         <v>0.3100000000000005</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="19">
         <f t="shared" ref="I34:I35" si="41">ABS(H34)</f>
         <v>0.3100000000000005</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="19">
         <v>8.23</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="19">
         <v>11.42</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="19">
         <f t="shared" ref="L34:L35" si="42">K34-J34</f>
         <v>3.1899999999999995</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="19">
         <f t="shared" ref="M34:M35" si="43">ABS(L34)</f>
         <v>3.1899999999999995</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N34" s="19">
         <v>4.6399999999999997</v>
       </c>
-      <c r="O34" s="17">
+      <c r="O34" s="19">
         <v>3.48</v>
       </c>
-      <c r="P34" s="17">
+      <c r="P34" s="19">
         <f t="shared" ref="P34:P35" si="44">O34-N34</f>
         <v>-1.1599999999999997</v>
       </c>
-      <c r="Q34" s="17">
+      <c r="Q34" s="19">
         <f t="shared" ref="Q34:Q35" si="45">ABS(P34)</f>
         <v>1.1599999999999997</v>
       </c>
-      <c r="R34" s="17">
+      <c r="R34" s="19">
         <v>4.93</v>
       </c>
-      <c r="S34" s="17">
+      <c r="S34" s="19">
         <v>6.89</v>
       </c>
-      <c r="T34" s="17">
+      <c r="T34" s="19">
         <f t="shared" ref="T34:T35" si="46">S34-R34</f>
         <v>1.96</v>
       </c>
-      <c r="U34" s="17">
+      <c r="U34" s="19">
         <f t="shared" ref="U34:U35" si="47">ABS(T34)</f>
         <v>1.96</v>
       </c>
-      <c r="V34" s="17">
+      <c r="V34" s="19">
         <v>0.92</v>
       </c>
-      <c r="W34" s="17">
+      <c r="W34" s="19">
         <v>0.26</v>
       </c>
-      <c r="X34" s="17">
+      <c r="X34" s="19">
         <f t="shared" ref="X34:X35" si="48">W34-V34</f>
         <v>-0.66</v>
       </c>
-      <c r="Y34" s="17">
+      <c r="Y34" s="19">
         <f t="shared" ref="Y34:Y35" si="49">ABS(X34)</f>
         <v>0.66</v>
       </c>
     </row>
     <row r="35" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="19">
         <v>18.14</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="19">
         <v>18.68</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="19">
         <f t="shared" si="40"/>
         <v>0.53999999999999915</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="19">
         <f t="shared" si="41"/>
         <v>0.53999999999999915</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J35" s="19">
         <v>18.13</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="19">
         <v>17.78</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="19">
         <f t="shared" si="42"/>
         <v>-0.34999999999999787</v>
       </c>
-      <c r="M35" s="17">
+      <c r="M35" s="19">
         <f t="shared" si="43"/>
         <v>0.34999999999999787</v>
       </c>
-      <c r="N35" s="17">
+      <c r="N35" s="19">
         <v>14.54</v>
       </c>
-      <c r="O35" s="17">
+      <c r="O35" s="19">
         <v>14.49</v>
       </c>
-      <c r="P35" s="17">
+      <c r="P35" s="19">
         <f t="shared" si="44"/>
         <v>-4.9999999999998934E-2</v>
       </c>
-      <c r="Q35" s="17">
+      <c r="Q35" s="19">
         <f t="shared" si="45"/>
         <v>4.9999999999998934E-2</v>
       </c>
-      <c r="R35" s="17">
+      <c r="R35" s="19">
         <v>14.83</v>
       </c>
-      <c r="S35" s="17">
+      <c r="S35" s="19">
         <v>14.61</v>
       </c>
-      <c r="T35" s="17">
+      <c r="T35" s="19">
         <f t="shared" si="46"/>
         <v>-0.22000000000000064</v>
       </c>
-      <c r="U35" s="17">
+      <c r="U35" s="19">
         <f t="shared" si="47"/>
         <v>0.22000000000000064</v>
       </c>
-      <c r="V35" s="17">
+      <c r="V35" s="19">
         <v>10.82</v>
       </c>
-      <c r="W35" s="17">
+      <c r="W35" s="19">
         <v>10.029999999999999</v>
       </c>
-      <c r="X35" s="17">
+      <c r="X35" s="19">
         <f t="shared" si="48"/>
         <v>-0.79000000000000092</v>
       </c>
-      <c r="Y35" s="17">
+      <c r="Y35" s="19">
         <f t="shared" si="49"/>
         <v>0.79000000000000092</v>
       </c>
     </row>
     <row r="36" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F36" s="18"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="2" t="s">
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="19">
         <f>AVERAGE(I33:I35)</f>
         <v>0.44333333333333336</v>
       </c>
-      <c r="J36" s="18"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="2" t="s">
+      <c r="J36" s="20"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M36" s="19">
         <f>AVERAGE(M33:M35)</f>
         <v>1.4433333333333322</v>
       </c>
-      <c r="N36" s="18"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="2" t="s">
+      <c r="N36" s="20"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q36" s="17">
+      <c r="Q36" s="19">
         <f>AVERAGE(Q33:Q35)</f>
         <v>0.59333333333333294</v>
       </c>
-      <c r="R36" s="18"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="2" t="s">
+      <c r="R36" s="20"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="U36" s="17">
+      <c r="U36" s="19">
         <f>AVERAGE(U33:U35)</f>
         <v>1.05</v>
       </c>
-      <c r="V36" s="18"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="2" t="s">
+      <c r="V36" s="20"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Y36" s="17">
+      <c r="Y36" s="19">
         <f>AVERAGE(Y33:Y35)</f>
         <v>0.57000000000000028</v>
       </c>
     </row>
     <row r="37" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="13" t="s">
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="13" t="s">
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="13" t="s">
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="13" t="s">
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="15"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="17"/>
     </row>
     <row r="38" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="K38" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="N38" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="O38" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="P38" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="Q38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R38" s="2" t="s">
+      <c r="R38" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="S38" s="2" t="s">
+      <c r="S38" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="T38" s="2" t="s">
+      <c r="T38" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="U38" s="2" t="s">
+      <c r="U38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V38" s="2" t="s">
+      <c r="V38" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W38" s="2" t="s">
+      <c r="W38" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X38" s="2" t="s">
+      <c r="X38" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y38" s="2" t="s">
+      <c r="Y38" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="39" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="19">
         <v>12.74</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="19">
         <v>13.16</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="19">
         <f>G39-F39</f>
         <v>0.41999999999999993</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="19">
         <f>ABS(H39)</f>
         <v>0.41999999999999993</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J39" s="19">
         <v>6.57</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K39" s="19">
         <v>8.26</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="19">
         <f>K39-J39</f>
         <v>1.6899999999999995</v>
       </c>
-      <c r="M39" s="17">
+      <c r="M39" s="19">
         <f>ABS(L39)</f>
         <v>1.6899999999999995</v>
       </c>
-      <c r="N39" s="17">
+      <c r="N39" s="19">
         <v>4.5</v>
       </c>
-      <c r="O39" s="17">
+      <c r="O39" s="19">
         <v>5.97</v>
       </c>
-      <c r="P39" s="17">
+      <c r="P39" s="19">
         <f>O39-N39</f>
         <v>1.4699999999999998</v>
       </c>
-      <c r="Q39" s="17">
+      <c r="Q39" s="19">
         <f>ABS(P39)</f>
         <v>1.4699999999999998</v>
       </c>
-      <c r="R39" s="17">
+      <c r="R39" s="19">
         <v>5.24</v>
       </c>
-      <c r="S39" s="17">
+      <c r="S39" s="19">
         <v>5.17</v>
       </c>
-      <c r="T39" s="17">
+      <c r="T39" s="19">
         <f>S39-R39</f>
         <v>-7.0000000000000284E-2</v>
       </c>
-      <c r="U39" s="17">
+      <c r="U39" s="19">
         <f>ABS(T39)</f>
         <v>7.0000000000000284E-2</v>
       </c>
-      <c r="V39" s="17">
+      <c r="V39" s="19">
         <v>13.6</v>
       </c>
-      <c r="W39" s="17">
+      <c r="W39" s="19">
         <v>14.24</v>
       </c>
-      <c r="X39" s="17">
+      <c r="X39" s="19">
         <f>W39-V39</f>
         <v>0.64000000000000057</v>
       </c>
-      <c r="Y39" s="17">
+      <c r="Y39" s="19">
         <f>ABS(X39)</f>
         <v>0.64000000000000057</v>
       </c>
     </row>
     <row r="40" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="19">
         <v>13.39</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="19">
         <v>10.86</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="19">
         <f t="shared" ref="H40:H41" si="50">G40-F40</f>
         <v>-2.5300000000000011</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="19">
         <f t="shared" ref="I40:I41" si="51">ABS(H40)</f>
         <v>2.5300000000000011</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J40" s="19">
         <v>7.22</v>
       </c>
-      <c r="K40" s="17">
+      <c r="K40" s="19">
         <v>7.57</v>
       </c>
-      <c r="L40" s="17">
+      <c r="L40" s="19">
         <f t="shared" ref="L40:L41" si="52">K40-J40</f>
         <v>0.35000000000000053</v>
       </c>
-      <c r="M40" s="17">
+      <c r="M40" s="19">
         <f t="shared" ref="M40:M41" si="53">ABS(L40)</f>
         <v>0.35000000000000053</v>
       </c>
-      <c r="N40" s="17">
+      <c r="N40" s="19">
         <v>5.15</v>
       </c>
-      <c r="O40" s="17">
+      <c r="O40" s="19">
         <v>1.1499999999999999</v>
       </c>
-      <c r="P40" s="17">
+      <c r="P40" s="19">
         <f t="shared" ref="P40:P41" si="54">O40-N40</f>
         <v>-4</v>
       </c>
-      <c r="Q40" s="17">
+      <c r="Q40" s="19">
         <f t="shared" ref="Q40:Q41" si="55">ABS(P40)</f>
         <v>4</v>
       </c>
-      <c r="R40" s="17">
+      <c r="R40" s="19">
         <v>5.89</v>
       </c>
-      <c r="S40" s="17">
+      <c r="S40" s="19">
         <v>5.01</v>
       </c>
-      <c r="T40" s="17">
+      <c r="T40" s="19">
         <f t="shared" ref="T40:T41" si="56">S40-R40</f>
         <v>-0.87999999999999989</v>
       </c>
-      <c r="U40" s="17">
+      <c r="U40" s="19">
         <f t="shared" ref="U40:U41" si="57">ABS(T40)</f>
         <v>0.87999999999999989</v>
       </c>
-      <c r="V40" s="17">
+      <c r="V40" s="19">
         <v>14.25</v>
       </c>
-      <c r="W40" s="17">
+      <c r="W40" s="19">
         <v>10.75</v>
       </c>
-      <c r="X40" s="17">
+      <c r="X40" s="19">
         <f t="shared" ref="X40:X41" si="58">W40-V40</f>
         <v>-3.5</v>
       </c>
-      <c r="Y40" s="17">
+      <c r="Y40" s="19">
         <f t="shared" ref="Y40:Y41" si="59">ABS(X40)</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="41" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="19">
         <v>18.29</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G41" s="19">
         <v>20.99</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="19">
         <f t="shared" si="50"/>
         <v>2.6999999999999993</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="19">
         <f t="shared" si="51"/>
         <v>2.6999999999999993</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J41" s="19">
         <v>12.12</v>
       </c>
-      <c r="K41" s="17">
+      <c r="K41" s="19">
         <v>13.93</v>
       </c>
-      <c r="L41" s="17">
+      <c r="L41" s="19">
         <f t="shared" si="52"/>
         <v>1.8100000000000005</v>
       </c>
-      <c r="M41" s="17">
+      <c r="M41" s="19">
         <f t="shared" si="53"/>
         <v>1.8100000000000005</v>
       </c>
-      <c r="N41" s="17">
+      <c r="N41" s="19">
         <v>10.050000000000001</v>
       </c>
-      <c r="O41" s="17">
+      <c r="O41" s="19">
         <v>12.16</v>
       </c>
-      <c r="P41" s="17">
+      <c r="P41" s="19">
         <f t="shared" si="54"/>
         <v>2.1099999999999994</v>
       </c>
-      <c r="Q41" s="17">
+      <c r="Q41" s="19">
         <f t="shared" si="55"/>
         <v>2.1099999999999994</v>
       </c>
-      <c r="R41" s="17">
+      <c r="R41" s="19">
         <v>10.79</v>
       </c>
-      <c r="S41" s="17">
+      <c r="S41" s="19">
         <v>12.73</v>
       </c>
-      <c r="T41" s="17">
+      <c r="T41" s="19">
         <f t="shared" si="56"/>
         <v>1.9400000000000013</v>
       </c>
-      <c r="U41" s="17">
+      <c r="U41" s="19">
         <f t="shared" si="57"/>
         <v>1.9400000000000013</v>
       </c>
-      <c r="V41" s="17">
+      <c r="V41" s="19">
         <v>19.149999999999999</v>
       </c>
-      <c r="W41" s="17">
+      <c r="W41" s="19">
         <v>20.52</v>
       </c>
-      <c r="X41" s="17">
+      <c r="X41" s="19">
         <f t="shared" si="58"/>
         <v>1.370000000000001</v>
       </c>
-      <c r="Y41" s="17">
+      <c r="Y41" s="19">
         <f t="shared" si="59"/>
         <v>1.370000000000001</v>
       </c>
     </row>
     <row r="42" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F42" s="18"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="2" t="s">
+      <c r="F42" s="20"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="19">
         <f>AVERAGE(I39:I41)</f>
         <v>1.8833333333333335</v>
       </c>
-      <c r="J42" s="18"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="2" t="s">
+      <c r="J42" s="20"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M42" s="19">
         <f>AVERAGE(M39:M41)</f>
         <v>1.2833333333333334</v>
       </c>
-      <c r="N42" s="18"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="2" t="s">
+      <c r="N42" s="20"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q42" s="17">
+      <c r="Q42" s="19">
         <f>AVERAGE(Q39:Q41)</f>
         <v>2.5266666666666664</v>
       </c>
-      <c r="R42" s="18"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="2" t="s">
+      <c r="R42" s="20"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="U42" s="17">
+      <c r="U42" s="19">
         <f>AVERAGE(U39:U41)</f>
         <v>0.96333333333333382</v>
       </c>
-      <c r="V42" s="18"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="2" t="s">
+      <c r="V42" s="20"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Y42" s="17">
+      <c r="Y42" s="19">
         <f>AVERAGE(Y39:Y41)</f>
         <v>1.8366666666666671</v>
       </c>
     </row>
     <row r="43" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="13" t="s">
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="13" t="s">
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="13" t="s">
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="13" t="s">
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="W43" s="14"/>
-      <c r="X43" s="14"/>
-      <c r="Y43" s="15"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="17"/>
     </row>
     <row r="44" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K44" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L44" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N44" s="2" t="s">
+      <c r="N44" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="O44" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P44" s="2" t="s">
+      <c r="P44" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q44" s="2" t="s">
+      <c r="Q44" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R44" s="2" t="s">
+      <c r="R44" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="S44" s="2" t="s">
+      <c r="S44" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="T44" s="2" t="s">
+      <c r="T44" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="U44" s="2" t="s">
+      <c r="U44" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V44" s="2" t="s">
+      <c r="V44" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W44" s="2" t="s">
+      <c r="W44" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X44" s="2" t="s">
+      <c r="X44" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y44" s="2" t="s">
+      <c r="Y44" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="45" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="19">
         <v>8.33</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="19">
         <v>7.55</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="19">
         <f>G45-F45</f>
         <v>-0.78000000000000025</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="19">
         <f>ABS(H45)</f>
         <v>0.78000000000000025</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="19">
         <v>10.24</v>
       </c>
-      <c r="K45" s="17">
+      <c r="K45" s="19">
         <v>10.73</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L45" s="19">
         <f>K45-J45</f>
         <v>0.49000000000000021</v>
       </c>
-      <c r="M45" s="17">
+      <c r="M45" s="19">
         <f>ABS(L45)</f>
         <v>0.49000000000000021</v>
       </c>
-      <c r="N45" s="17">
+      <c r="N45" s="19">
         <v>17.239999999999998</v>
       </c>
-      <c r="O45" s="17">
+      <c r="O45" s="19">
         <v>17.510000000000002</v>
       </c>
-      <c r="P45" s="17">
+      <c r="P45" s="19">
         <f>O45-N45</f>
         <v>0.27000000000000313</v>
       </c>
-      <c r="Q45" s="17">
+      <c r="Q45" s="19">
         <f>ABS(P45)</f>
         <v>0.27000000000000313</v>
       </c>
-      <c r="R45" s="17">
+      <c r="R45" s="19">
         <v>7.07</v>
       </c>
-      <c r="S45" s="17">
+      <c r="S45" s="19">
         <v>5.8</v>
       </c>
-      <c r="T45" s="17">
+      <c r="T45" s="19">
         <f>S45-R45</f>
         <v>-1.2700000000000005</v>
       </c>
-      <c r="U45" s="17">
+      <c r="U45" s="19">
         <f>ABS(T45)</f>
         <v>1.2700000000000005</v>
       </c>
-      <c r="V45" s="17">
+      <c r="V45" s="19">
         <v>10.91</v>
       </c>
-      <c r="W45" s="17">
+      <c r="W45" s="19">
         <v>10.35</v>
       </c>
-      <c r="X45" s="17">
+      <c r="X45" s="19">
         <f>W45-V45</f>
         <v>-0.5600000000000005</v>
       </c>
-      <c r="Y45" s="17">
+      <c r="Y45" s="19">
         <f>ABS(X45)</f>
         <v>0.5600000000000005</v>
       </c>
     </row>
     <row r="46" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="19">
         <v>8.9700000000000006</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="19">
         <v>5.25</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="19">
         <f t="shared" ref="H46:H47" si="60">G46-F46</f>
         <v>-3.7200000000000006</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="19">
         <f t="shared" ref="I46:I47" si="61">ABS(H46)</f>
         <v>3.7200000000000006</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J46" s="19">
         <v>10.88</v>
       </c>
-      <c r="K46" s="17">
+      <c r="K46" s="19">
         <v>10.039999999999999</v>
       </c>
-      <c r="L46" s="17">
+      <c r="L46" s="19">
         <f t="shared" ref="L46:L47" si="62">K46-J46</f>
         <v>-0.84000000000000163</v>
       </c>
-      <c r="M46" s="17">
+      <c r="M46" s="19">
         <f t="shared" ref="M46:M47" si="63">ABS(L46)</f>
         <v>0.84000000000000163</v>
       </c>
-      <c r="N46" s="17">
+      <c r="N46" s="19">
         <v>17.88</v>
       </c>
-      <c r="O46" s="17">
+      <c r="O46" s="19">
         <v>12.69</v>
       </c>
-      <c r="P46" s="17">
+      <c r="P46" s="19">
         <f t="shared" ref="P46:P47" si="64">O46-N46</f>
         <v>-5.1899999999999995</v>
       </c>
-      <c r="Q46" s="17">
+      <c r="Q46" s="19">
         <f t="shared" ref="Q46:Q47" si="65">ABS(P46)</f>
         <v>5.1899999999999995</v>
       </c>
-      <c r="R46" s="17">
+      <c r="R46" s="19">
         <v>7.71</v>
       </c>
-      <c r="S46" s="17">
+      <c r="S46" s="19">
         <v>5.64</v>
       </c>
-      <c r="T46" s="17">
+      <c r="T46" s="19">
         <f t="shared" ref="T46:T47" si="66">S46-R46</f>
         <v>-2.0700000000000003</v>
       </c>
-      <c r="U46" s="17">
+      <c r="U46" s="19">
         <f t="shared" ref="U46:U47" si="67">ABS(T46)</f>
         <v>2.0700000000000003</v>
       </c>
-      <c r="V46" s="17">
+      <c r="V46" s="19">
         <v>11.55</v>
       </c>
-      <c r="W46" s="17">
+      <c r="W46" s="19">
         <v>6.86</v>
       </c>
-      <c r="X46" s="17">
+      <c r="X46" s="19">
         <f t="shared" ref="X46:X47" si="68">W46-V46</f>
         <v>-4.6900000000000004</v>
       </c>
-      <c r="Y46" s="17">
+      <c r="Y46" s="19">
         <f t="shared" ref="Y46:Y47" si="69">ABS(X46)</f>
         <v>4.6900000000000004</v>
       </c>
     </row>
     <row r="47" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="19">
         <v>15.95</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="19">
         <v>15.38</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="19">
         <f t="shared" si="60"/>
         <v>-0.56999999999999851</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="19">
         <f t="shared" si="61"/>
         <v>0.56999999999999851</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J47" s="19">
         <v>17.86</v>
       </c>
-      <c r="K47" s="17">
+      <c r="K47" s="19">
         <v>16.399999999999999</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L47" s="19">
         <f t="shared" si="62"/>
         <v>-1.4600000000000009</v>
       </c>
-      <c r="M47" s="17">
+      <c r="M47" s="19">
         <f t="shared" si="63"/>
         <v>1.4600000000000009</v>
       </c>
-      <c r="N47" s="17">
+      <c r="N47" s="19">
         <v>24.86</v>
       </c>
-      <c r="O47" s="17">
+      <c r="O47" s="19">
         <v>23.7</v>
       </c>
-      <c r="P47" s="17">
+      <c r="P47" s="19">
         <f t="shared" si="64"/>
         <v>-1.1600000000000001</v>
       </c>
-      <c r="Q47" s="17">
+      <c r="Q47" s="19">
         <f t="shared" si="65"/>
         <v>1.1600000000000001</v>
       </c>
-      <c r="R47" s="17">
+      <c r="R47" s="19">
         <v>14.69</v>
       </c>
-      <c r="S47" s="17">
+      <c r="S47" s="19">
         <v>13.36</v>
       </c>
-      <c r="T47" s="17">
+      <c r="T47" s="19">
         <f t="shared" si="66"/>
         <v>-1.33</v>
       </c>
-      <c r="U47" s="17">
+      <c r="U47" s="19">
         <f t="shared" si="67"/>
         <v>1.33</v>
       </c>
-      <c r="V47" s="17">
+      <c r="V47" s="19">
         <v>18.53</v>
       </c>
-      <c r="W47" s="17">
+      <c r="W47" s="19">
         <v>16.63</v>
       </c>
-      <c r="X47" s="17">
+      <c r="X47" s="19">
         <f t="shared" si="68"/>
         <v>-1.9000000000000021</v>
       </c>
-      <c r="Y47" s="17">
+      <c r="Y47" s="19">
         <f t="shared" si="69"/>
         <v>1.9000000000000021</v>
       </c>
     </row>
     <row r="48" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F48" s="18"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="2" t="s">
+      <c r="F48" s="20"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="19">
         <f>AVERAGE(I45:I47)</f>
         <v>1.6899999999999997</v>
       </c>
-      <c r="J48" s="18"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="2" t="s">
+      <c r="J48" s="20"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M48" s="19">
         <f>AVERAGE(M45:M47)</f>
         <v>0.93000000000000094</v>
       </c>
-      <c r="N48" s="18"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="2" t="s">
+      <c r="N48" s="20"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q48" s="17">
+      <c r="Q48" s="19">
         <f>AVERAGE(Q45:Q47)</f>
         <v>2.2066666666666674</v>
       </c>
-      <c r="R48" s="18"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="2" t="s">
+      <c r="R48" s="20"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="U48" s="17">
+      <c r="U48" s="19">
         <f>AVERAGE(U45:U47)</f>
         <v>1.5566666666666669</v>
       </c>
-      <c r="V48" s="18"/>
-      <c r="W48" s="19"/>
-      <c r="X48" s="2" t="s">
+      <c r="V48" s="20"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Y48" s="17">
+      <c r="Y48" s="19">
         <f>AVERAGE(Y45:Y47)</f>
         <v>2.3833333333333342</v>
       </c>
     </row>
     <row r="49" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="13" t="s">
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="13" t="s">
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="13" t="s">
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="15"/>
-      <c r="V49" s="13" t="s">
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="W49" s="14"/>
-      <c r="X49" s="14"/>
-      <c r="Y49" s="15"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="17"/>
     </row>
     <row r="50" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J50" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K50" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="L50" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N50" s="2" t="s">
+      <c r="N50" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O50" s="2" t="s">
+      <c r="O50" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P50" s="2" t="s">
+      <c r="P50" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q50" s="2" t="s">
+      <c r="Q50" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R50" s="2" t="s">
+      <c r="R50" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="S50" s="2" t="s">
+      <c r="S50" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="T50" s="2" t="s">
+      <c r="T50" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="U50" s="2" t="s">
+      <c r="U50" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V50" s="2" t="s">
+      <c r="V50" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W50" s="2" t="s">
+      <c r="W50" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X50" s="2" t="s">
+      <c r="X50" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y50" s="2" t="s">
+      <c r="Y50" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="51" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="19">
         <v>13.29</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="19">
         <v>12.87</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="19">
         <f>G51-F51</f>
         <v>-0.41999999999999993</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="19">
         <f>ABS(H51)</f>
         <v>0.41999999999999993</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="19">
         <v>13.77</v>
       </c>
-      <c r="K51" s="17">
+      <c r="K51" s="19">
         <v>14.62</v>
       </c>
-      <c r="L51" s="17">
+      <c r="L51" s="19">
         <f>K51-J51</f>
         <v>0.84999999999999964</v>
       </c>
-      <c r="M51" s="17">
+      <c r="M51" s="19">
         <f>ABS(L51)</f>
         <v>0.84999999999999964</v>
       </c>
-      <c r="N51" s="17">
+      <c r="N51" s="19">
         <v>1.74</v>
       </c>
-      <c r="O51" s="17">
+      <c r="O51" s="19">
         <v>2.37</v>
       </c>
-      <c r="P51" s="17">
+      <c r="P51" s="19">
         <f>O51-N51</f>
         <v>0.63000000000000012</v>
       </c>
-      <c r="Q51" s="17">
+      <c r="Q51" s="19">
         <f>ABS(P51)</f>
         <v>0.63000000000000012</v>
       </c>
-      <c r="R51" s="17">
+      <c r="R51" s="19">
         <v>5.63</v>
       </c>
-      <c r="S51" s="17">
+      <c r="S51" s="19">
         <v>4.72</v>
       </c>
-      <c r="T51" s="17">
+      <c r="T51" s="19">
         <f>S51-R51</f>
         <v>-0.91000000000000014</v>
       </c>
-      <c r="U51" s="17">
+      <c r="U51" s="19">
         <f>ABS(T51)</f>
         <v>0.91000000000000014</v>
       </c>
-      <c r="V51" s="17">
+      <c r="V51" s="19">
         <v>10.37</v>
       </c>
-      <c r="W51" s="17">
+      <c r="W51" s="19">
         <v>10.17</v>
       </c>
-      <c r="X51" s="17">
+      <c r="X51" s="19">
         <f>W51-V51</f>
         <v>-0.19999999999999929</v>
       </c>
-      <c r="Y51" s="17">
+      <c r="Y51" s="19">
         <f>ABS(X51)</f>
         <v>0.19999999999999929</v>
       </c>
     </row>
     <row r="52" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="19">
         <v>13.91</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="19">
         <v>10.57</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="19">
         <f t="shared" ref="H52:H53" si="70">G52-F52</f>
         <v>-3.34</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="19">
         <f t="shared" ref="I52:I53" si="71">ABS(H52)</f>
         <v>3.34</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J52" s="19">
         <v>14.39</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K52" s="19">
         <v>13.93</v>
       </c>
-      <c r="L52" s="17">
+      <c r="L52" s="19">
         <f t="shared" ref="L52:L53" si="72">K52-J52</f>
         <v>-0.46000000000000085</v>
       </c>
-      <c r="M52" s="17">
+      <c r="M52" s="19">
         <f t="shared" ref="M52:M53" si="73">ABS(L52)</f>
         <v>0.46000000000000085</v>
       </c>
-      <c r="N52" s="17">
+      <c r="N52" s="19">
         <v>2.36</v>
       </c>
-      <c r="O52" s="17">
+      <c r="O52" s="19">
         <v>-2.4500000000000002</v>
       </c>
-      <c r="P52" s="17">
+      <c r="P52" s="19">
         <f t="shared" ref="P52:P53" si="74">O52-N52</f>
         <v>-4.8100000000000005</v>
       </c>
-      <c r="Q52" s="17">
+      <c r="Q52" s="19">
         <f t="shared" ref="Q52:Q53" si="75">ABS(P52)</f>
         <v>4.8100000000000005</v>
       </c>
-      <c r="R52" s="17">
+      <c r="R52" s="19">
         <v>6.25</v>
       </c>
-      <c r="S52" s="17">
+      <c r="S52" s="19">
         <v>4.5599999999999996</v>
       </c>
-      <c r="T52" s="17">
+      <c r="T52" s="19">
         <f t="shared" ref="T52:T53" si="76">S52-R52</f>
         <v>-1.6900000000000004</v>
       </c>
-      <c r="U52" s="17">
+      <c r="U52" s="19">
         <f t="shared" ref="U52:U53" si="77">ABS(T52)</f>
         <v>1.6900000000000004</v>
       </c>
-      <c r="V52" s="17">
+      <c r="V52" s="19">
         <v>10.99</v>
       </c>
-      <c r="W52" s="17">
+      <c r="W52" s="19">
         <v>6.68</v>
       </c>
-      <c r="X52" s="17">
+      <c r="X52" s="19">
         <f t="shared" ref="X52:X53" si="78">W52-V52</f>
         <v>-4.3100000000000005</v>
       </c>
-      <c r="Y52" s="17">
+      <c r="Y52" s="19">
         <f t="shared" ref="Y52:Y53" si="79">ABS(X52)</f>
         <v>4.3100000000000005</v>
       </c>
     </row>
     <row r="53" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="19">
         <v>20.43</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="19">
         <v>20.7</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="19">
         <f t="shared" si="70"/>
         <v>0.26999999999999957</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="19">
         <f t="shared" si="71"/>
         <v>0.26999999999999957</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J53" s="19">
         <v>20.91</v>
       </c>
-      <c r="K53" s="17">
+      <c r="K53" s="19">
         <v>20.29</v>
       </c>
-      <c r="L53" s="17">
+      <c r="L53" s="19">
         <f t="shared" si="72"/>
         <v>-0.62000000000000099</v>
       </c>
-      <c r="M53" s="17">
+      <c r="M53" s="19">
         <f t="shared" si="73"/>
         <v>0.62000000000000099</v>
       </c>
-      <c r="N53" s="17">
+      <c r="N53" s="19">
         <v>8.8800000000000008</v>
       </c>
-      <c r="O53" s="17">
+      <c r="O53" s="19">
         <v>8.56</v>
       </c>
-      <c r="P53" s="17">
+      <c r="P53" s="19">
         <f t="shared" si="74"/>
         <v>-0.32000000000000028</v>
       </c>
-      <c r="Q53" s="17">
+      <c r="Q53" s="19">
         <f t="shared" si="75"/>
         <v>0.32000000000000028</v>
       </c>
-      <c r="R53" s="17">
+      <c r="R53" s="19">
         <v>12.77</v>
       </c>
-      <c r="S53" s="17">
+      <c r="S53" s="19">
         <v>12.28</v>
       </c>
-      <c r="T53" s="17">
+      <c r="T53" s="19">
         <f t="shared" si="76"/>
         <v>-0.49000000000000021</v>
       </c>
-      <c r="U53" s="17">
+      <c r="U53" s="19">
         <f t="shared" si="77"/>
         <v>0.49000000000000021</v>
       </c>
-      <c r="V53" s="17">
+      <c r="V53" s="19">
         <v>17.510000000000002</v>
       </c>
-      <c r="W53" s="17">
+      <c r="W53" s="19">
         <v>16.45</v>
       </c>
-      <c r="X53" s="17">
+      <c r="X53" s="19">
         <f t="shared" si="78"/>
         <v>-1.0600000000000023</v>
       </c>
-      <c r="Y53" s="17">
+      <c r="Y53" s="19">
         <f t="shared" si="79"/>
         <v>1.0600000000000023</v>
       </c>
     </row>
     <row r="54" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F54" s="18"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="2" t="s">
+      <c r="F54" s="20"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="19">
         <f>AVERAGE(I51:I53)</f>
         <v>1.343333333333333</v>
       </c>
-      <c r="J54" s="18"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="2" t="s">
+      <c r="J54" s="20"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M54" s="19">
         <f>AVERAGE(M51:M53)</f>
         <v>0.64333333333333387</v>
       </c>
-      <c r="N54" s="18"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="2" t="s">
+      <c r="N54" s="20"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q54" s="17">
+      <c r="Q54" s="19">
         <f>AVERAGE(Q51:Q53)</f>
         <v>1.9200000000000002</v>
       </c>
-      <c r="R54" s="18"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="2" t="s">
+      <c r="R54" s="20"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="U54" s="17">
+      <c r="U54" s="19">
         <f>AVERAGE(U51:U53)</f>
         <v>1.0300000000000002</v>
       </c>
-      <c r="V54" s="18"/>
-      <c r="W54" s="19"/>
-      <c r="X54" s="2" t="s">
+      <c r="V54" s="20"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Y54" s="17">
+      <c r="Y54" s="19">
         <f>AVERAGE(Y51:Y53)</f>
         <v>1.8566666666666674</v>
       </c>
     </row>
     <row r="55" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="13" t="s">
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="13" t="s">
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="13" t="s">
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="S55" s="14"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="15"/>
-      <c r="V55" s="13" t="s">
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="W55" s="14"/>
-      <c r="X55" s="14"/>
-      <c r="Y55" s="15"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
+      <c r="Y55" s="17"/>
     </row>
     <row r="56" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J56" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L56" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N56" s="2" t="s">
+      <c r="N56" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O56" s="2" t="s">
+      <c r="O56" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P56" s="2" t="s">
+      <c r="P56" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q56" s="2" t="s">
+      <c r="Q56" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R56" s="2" t="s">
+      <c r="R56" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="S56" s="2" t="s">
+      <c r="S56" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="T56" s="2" t="s">
+      <c r="T56" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="U56" s="2" t="s">
+      <c r="U56" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V56" s="2" t="s">
+      <c r="V56" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W56" s="2" t="s">
+      <c r="W56" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X56" s="2" t="s">
+      <c r="X56" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y56" s="2" t="s">
+      <c r="Y56" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="57" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="19">
         <v>12.51</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G57" s="19">
         <v>11.94</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="19">
         <f>G57-F57</f>
         <v>-0.57000000000000028</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="19">
         <f>ABS(H57)</f>
         <v>0.57000000000000028</v>
       </c>
-      <c r="J57" s="17">
+      <c r="J57" s="19">
         <v>12.63</v>
       </c>
-      <c r="K57" s="17">
+      <c r="K57" s="19">
         <v>13.33</v>
       </c>
-      <c r="L57" s="17">
+      <c r="L57" s="19">
         <f>K57-J57</f>
         <v>0.69999999999999929</v>
       </c>
-      <c r="M57" s="17">
+      <c r="M57" s="19">
         <f>ABS(L57)</f>
         <v>0.69999999999999929</v>
       </c>
-      <c r="N57" s="17">
+      <c r="N57" s="19">
         <v>13.15</v>
       </c>
-      <c r="O57" s="17">
+      <c r="O57" s="19">
         <v>13.63</v>
       </c>
-      <c r="P57" s="17">
+      <c r="P57" s="19">
         <f>O57-N57</f>
         <v>0.48000000000000043</v>
       </c>
-      <c r="Q57" s="17">
+      <c r="Q57" s="19">
         <f>ABS(P57)</f>
         <v>0.48000000000000043</v>
       </c>
-      <c r="R57" s="17">
+      <c r="R57" s="19">
         <v>3.46</v>
       </c>
-      <c r="S57" s="17">
+      <c r="S57" s="19">
         <v>2.4</v>
       </c>
-      <c r="T57" s="17">
+      <c r="T57" s="19">
         <f>S57-R57</f>
         <v>-1.06</v>
       </c>
-      <c r="U57" s="17">
+      <c r="U57" s="19">
         <f>ABS(T57)</f>
         <v>1.06</v>
       </c>
-      <c r="V57" s="17">
+      <c r="V57" s="19">
         <v>10.9</v>
       </c>
-      <c r="W57" s="17">
+      <c r="W57" s="19">
         <v>10.55</v>
       </c>
-      <c r="X57" s="17">
+      <c r="X57" s="19">
         <f>W57-V57</f>
         <v>-0.34999999999999964</v>
       </c>
-      <c r="Y57" s="17">
+      <c r="Y57" s="19">
         <f>ABS(X57)</f>
         <v>0.34999999999999964</v>
       </c>
     </row>
     <row r="58" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="19">
         <v>8.24</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="19">
         <v>9.64</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="19">
         <f t="shared" ref="H58:H59" si="80">G58-F58</f>
         <v>1.4000000000000004</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="19">
         <f t="shared" ref="I58:I59" si="81">ABS(H58)</f>
         <v>1.4000000000000004</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J58" s="19">
         <v>8.36</v>
       </c>
-      <c r="K58" s="17">
+      <c r="K58" s="19">
         <v>12.64</v>
       </c>
-      <c r="L58" s="17">
+      <c r="L58" s="19">
         <f t="shared" ref="L58:L59" si="82">K58-J58</f>
         <v>4.2800000000000011</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M58" s="19">
         <f t="shared" ref="M58:M59" si="83">ABS(L58)</f>
         <v>4.2800000000000011</v>
       </c>
-      <c r="N58" s="17">
+      <c r="N58" s="19">
         <v>8.8800000000000008</v>
       </c>
-      <c r="O58" s="17">
+      <c r="O58" s="19">
         <v>8.81</v>
       </c>
-      <c r="P58" s="17">
+      <c r="P58" s="19">
         <f t="shared" ref="P58:P59" si="84">O58-N58</f>
         <v>-7.0000000000000284E-2</v>
       </c>
-      <c r="Q58" s="17">
+      <c r="Q58" s="19">
         <f t="shared" ref="Q58:Q59" si="85">ABS(P58)</f>
         <v>7.0000000000000284E-2</v>
       </c>
-      <c r="R58" s="17">
+      <c r="R58" s="19">
         <v>-0.81</v>
       </c>
-      <c r="S58" s="17">
+      <c r="S58" s="19">
         <v>2.2400000000000002</v>
       </c>
-      <c r="T58" s="17">
+      <c r="T58" s="19">
         <f t="shared" ref="T58:T59" si="86">S58-R58</f>
         <v>3.0500000000000003</v>
       </c>
-      <c r="U58" s="17">
+      <c r="U58" s="19">
         <f t="shared" ref="U58:U59" si="87">ABS(T58)</f>
         <v>3.0500000000000003</v>
       </c>
-      <c r="V58" s="17">
+      <c r="V58" s="19">
         <v>6.63</v>
       </c>
-      <c r="W58" s="17">
+      <c r="W58" s="19">
         <v>7.06</v>
       </c>
-      <c r="X58" s="17">
+      <c r="X58" s="19">
         <f t="shared" ref="X58:X59" si="88">W58-V58</f>
         <v>0.42999999999999972</v>
       </c>
-      <c r="Y58" s="17">
+      <c r="Y58" s="19">
         <f t="shared" ref="Y58:Y59" si="89">ABS(X58)</f>
         <v>0.42999999999999972</v>
       </c>
     </row>
     <row r="59" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="19">
         <v>20.71</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G59" s="19">
         <v>19.77</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H59" s="19">
         <f t="shared" si="80"/>
         <v>-0.94000000000000128</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="19">
         <f t="shared" si="81"/>
         <v>0.94000000000000128</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J59" s="19">
         <v>20.83</v>
       </c>
-      <c r="K59" s="17">
+      <c r="K59" s="19">
         <v>19</v>
       </c>
-      <c r="L59" s="17">
+      <c r="L59" s="19">
         <f t="shared" si="82"/>
         <v>-1.8299999999999983</v>
       </c>
-      <c r="M59" s="17">
+      <c r="M59" s="19">
         <f t="shared" si="83"/>
         <v>1.8299999999999983</v>
       </c>
-      <c r="N59" s="17">
+      <c r="N59" s="19">
         <v>21.35</v>
       </c>
-      <c r="O59" s="17">
+      <c r="O59" s="19">
         <v>19.82</v>
       </c>
-      <c r="P59" s="17">
+      <c r="P59" s="19">
         <f t="shared" si="84"/>
         <v>-1.5300000000000011</v>
       </c>
-      <c r="Q59" s="17">
+      <c r="Q59" s="19">
         <f t="shared" si="85"/>
         <v>1.5300000000000011</v>
       </c>
-      <c r="R59" s="17">
+      <c r="R59" s="19">
         <v>11.66</v>
       </c>
-      <c r="S59" s="17">
+      <c r="S59" s="19">
         <v>9.9600000000000009</v>
       </c>
-      <c r="T59" s="17">
+      <c r="T59" s="19">
         <f t="shared" si="86"/>
         <v>-1.6999999999999993</v>
       </c>
-      <c r="U59" s="17">
+      <c r="U59" s="19">
         <f t="shared" si="87"/>
         <v>1.6999999999999993</v>
       </c>
-      <c r="V59" s="17">
+      <c r="V59" s="19">
         <v>19.100000000000001</v>
       </c>
-      <c r="W59" s="17">
+      <c r="W59" s="19">
         <v>16.829999999999998</v>
       </c>
-      <c r="X59" s="17">
+      <c r="X59" s="19">
         <f t="shared" si="88"/>
         <v>-2.2700000000000031</v>
       </c>
-      <c r="Y59" s="17">
+      <c r="Y59" s="19">
         <f t="shared" si="89"/>
         <v>2.2700000000000031</v>
       </c>
     </row>
     <row r="60" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F60" s="18"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="2" t="s">
+      <c r="F60" s="20"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="19">
         <f>AVERAGE(I57:I59)</f>
         <v>0.97000000000000064</v>
       </c>
-      <c r="J60" s="18"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="2" t="s">
+      <c r="J60" s="20"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M60" s="17">
+      <c r="M60" s="19">
         <f>AVERAGE(M57:M59)</f>
         <v>2.2699999999999996</v>
       </c>
-      <c r="N60" s="18"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="2" t="s">
+      <c r="N60" s="20"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q60" s="17">
+      <c r="Q60" s="19">
         <f>AVERAGE(Q57:Q59)</f>
         <v>0.69333333333333391</v>
       </c>
-      <c r="R60" s="18"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="2" t="s">
+      <c r="R60" s="20"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="U60" s="17">
+      <c r="U60" s="19">
         <f>AVERAGE(U57:U59)</f>
         <v>1.9366666666666665</v>
       </c>
-      <c r="V60" s="18"/>
-      <c r="W60" s="19"/>
-      <c r="X60" s="2" t="s">
+      <c r="V60" s="20"/>
+      <c r="W60" s="21"/>
+      <c r="X60" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Y60" s="17">
+      <c r="Y60" s="19">
         <f>AVERAGE(Y57:Y59)</f>
         <v>1.0166666666666675</v>
       </c>
     </row>
     <row r="61" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="13" t="s">
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="13" t="s">
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="13" t="s">
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="S61" s="14"/>
-      <c r="T61" s="14"/>
-      <c r="U61" s="15"/>
-      <c r="V61" s="13" t="s">
+      <c r="S61" s="16"/>
+      <c r="T61" s="16"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="W61" s="14"/>
-      <c r="X61" s="14"/>
-      <c r="Y61" s="15"/>
+      <c r="W61" s="16"/>
+      <c r="X61" s="16"/>
+      <c r="Y61" s="17"/>
     </row>
     <row r="62" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J62" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="K62" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="L62" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N62" s="2" t="s">
+      <c r="N62" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O62" s="2" t="s">
+      <c r="O62" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P62" s="2" t="s">
+      <c r="P62" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q62" s="2" t="s">
+      <c r="Q62" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R62" s="2" t="s">
+      <c r="R62" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="S62" s="2" t="s">
+      <c r="S62" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="T62" s="2" t="s">
+      <c r="T62" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="U62" s="2" t="s">
+      <c r="U62" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V62" s="2" t="s">
+      <c r="V62" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W62" s="2" t="s">
+      <c r="W62" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X62" s="2" t="s">
+      <c r="X62" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y62" s="2" t="s">
+      <c r="Y62" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="63" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="19">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G63" s="19">
         <v>9.43</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H63" s="19">
         <f>G63-F63</f>
         <v>0.23000000000000043</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I63" s="19">
         <f>ABS(H63)</f>
         <v>0.23000000000000043</v>
       </c>
-      <c r="J63" s="17">
+      <c r="J63" s="19">
         <v>11.36</v>
       </c>
-      <c r="K63" s="17">
+      <c r="K63" s="19">
         <v>12.86</v>
       </c>
-      <c r="L63" s="17">
+      <c r="L63" s="19">
         <f>K63-J63</f>
         <v>1.5</v>
       </c>
-      <c r="M63" s="17">
+      <c r="M63" s="19">
         <f>ABS(L63)</f>
         <v>1.5</v>
       </c>
-      <c r="N63" s="17">
+      <c r="N63" s="19">
         <v>12.46</v>
       </c>
-      <c r="O63" s="17">
+      <c r="O63" s="19">
         <v>13.74</v>
       </c>
-      <c r="P63" s="17">
+      <c r="P63" s="19">
         <f>O63-N63</f>
         <v>1.2799999999999994</v>
       </c>
-      <c r="Q63" s="17">
+      <c r="Q63" s="19">
         <f>ABS(P63)</f>
         <v>1.2799999999999994</v>
       </c>
-      <c r="R63" s="17">
+      <c r="R63" s="19">
         <v>3.74</v>
       </c>
-      <c r="S63" s="17">
+      <c r="S63" s="19">
         <v>3.48</v>
       </c>
-      <c r="T63" s="17">
+      <c r="T63" s="19">
         <f>S63-R63</f>
         <v>-0.26000000000000023</v>
       </c>
-      <c r="U63" s="17">
+      <c r="U63" s="19">
         <f>ABS(T63)</f>
         <v>0.26000000000000023</v>
       </c>
-      <c r="V63" s="17">
+      <c r="V63" s="19">
         <v>8.9700000000000006</v>
       </c>
-      <c r="W63" s="17">
+      <c r="W63" s="19">
         <v>9.42</v>
       </c>
-      <c r="X63" s="17">
+      <c r="X63" s="19">
         <f>W63-V63</f>
         <v>0.44999999999999929</v>
       </c>
-      <c r="Y63" s="17">
+      <c r="Y63" s="19">
         <f>ABS(X63)</f>
         <v>0.44999999999999929</v>
       </c>
     </row>
     <row r="64" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="19">
         <v>7.03</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G64" s="19">
         <v>7.13</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H64" s="19">
         <f t="shared" ref="H64:H65" si="90">G64-F64</f>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I64" s="19">
         <f t="shared" ref="I64:I65" si="91">ABS(H64)</f>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="J64" s="17">
+      <c r="J64" s="19">
         <v>9.19</v>
       </c>
-      <c r="K64" s="17">
+      <c r="K64" s="19">
         <v>12.17</v>
       </c>
-      <c r="L64" s="17">
+      <c r="L64" s="19">
         <f t="shared" ref="L64:L65" si="92">K64-J64</f>
         <v>2.9800000000000004</v>
       </c>
-      <c r="M64" s="17">
+      <c r="M64" s="19">
         <f t="shared" ref="M64:M65" si="93">ABS(L64)</f>
         <v>2.9800000000000004</v>
       </c>
-      <c r="N64" s="17">
+      <c r="N64" s="19">
         <v>10.29</v>
       </c>
-      <c r="O64" s="17">
+      <c r="O64" s="19">
         <v>8.92</v>
       </c>
-      <c r="P64" s="17">
+      <c r="P64" s="19">
         <f t="shared" ref="P64:P65" si="94">O64-N64</f>
         <v>-1.3699999999999992</v>
       </c>
-      <c r="Q64" s="17">
+      <c r="Q64" s="19">
         <f t="shared" ref="Q64:Q65" si="95">ABS(P64)</f>
         <v>1.3699999999999992</v>
       </c>
-      <c r="R64" s="17">
+      <c r="R64" s="19">
         <v>1.57</v>
       </c>
-      <c r="S64" s="17">
+      <c r="S64" s="19">
         <v>3.32</v>
       </c>
-      <c r="T64" s="17">
+      <c r="T64" s="19">
         <f t="shared" ref="T64:T65" si="96">S64-R64</f>
         <v>1.7499999999999998</v>
       </c>
-      <c r="U64" s="17">
+      <c r="U64" s="19">
         <f t="shared" ref="U64:U65" si="97">ABS(T64)</f>
         <v>1.7499999999999998</v>
       </c>
-      <c r="V64" s="17">
+      <c r="V64" s="19">
         <v>6.8</v>
       </c>
-      <c r="W64" s="17">
+      <c r="W64" s="19">
         <v>5.93</v>
       </c>
-      <c r="X64" s="17">
+      <c r="X64" s="19">
         <f t="shared" ref="X64:X65" si="98">W64-V64</f>
         <v>-0.87000000000000011</v>
       </c>
-      <c r="Y64" s="17">
+      <c r="Y64" s="19">
         <f t="shared" ref="Y64:Y65" si="99">ABS(X64)</f>
         <v>0.87000000000000011</v>
       </c>
     </row>
     <row r="65" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="19">
         <v>17.78</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G65" s="19">
         <v>17.260000000000002</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H65" s="19">
         <f t="shared" si="90"/>
         <v>-0.51999999999999957</v>
       </c>
-      <c r="I65" s="17">
+      <c r="I65" s="19">
         <f t="shared" si="91"/>
         <v>0.51999999999999957</v>
       </c>
-      <c r="J65" s="17">
+      <c r="J65" s="19">
         <v>19.940000000000001</v>
       </c>
-      <c r="K65" s="17">
+      <c r="K65" s="19">
         <v>18.53</v>
       </c>
-      <c r="L65" s="17">
+      <c r="L65" s="19">
         <f t="shared" si="92"/>
         <v>-1.4100000000000001</v>
       </c>
-      <c r="M65" s="17">
+      <c r="M65" s="19">
         <f t="shared" si="93"/>
         <v>1.4100000000000001</v>
       </c>
-      <c r="N65" s="17">
+      <c r="N65" s="19">
         <v>21.04</v>
       </c>
-      <c r="O65" s="17">
+      <c r="O65" s="19">
         <v>19.93</v>
       </c>
-      <c r="P65" s="17">
+      <c r="P65" s="19">
         <f t="shared" si="94"/>
         <v>-1.1099999999999994</v>
       </c>
-      <c r="Q65" s="17">
+      <c r="Q65" s="19">
         <f t="shared" si="95"/>
         <v>1.1099999999999994</v>
       </c>
-      <c r="R65" s="17">
+      <c r="R65" s="19">
         <v>12.32</v>
       </c>
-      <c r="S65" s="17">
+      <c r="S65" s="19">
         <v>11.04</v>
       </c>
-      <c r="T65" s="17">
+      <c r="T65" s="19">
         <f t="shared" si="96"/>
         <v>-1.2800000000000011</v>
       </c>
-      <c r="U65" s="17">
+      <c r="U65" s="19">
         <f t="shared" si="97"/>
         <v>1.2800000000000011</v>
       </c>
-      <c r="V65" s="17">
+      <c r="V65" s="19">
         <v>17.55</v>
       </c>
-      <c r="W65" s="17">
+      <c r="W65" s="19">
         <v>15.7</v>
       </c>
-      <c r="X65" s="17">
+      <c r="X65" s="19">
         <f t="shared" si="98"/>
         <v>-1.8500000000000014</v>
       </c>
-      <c r="Y65" s="17">
+      <c r="Y65" s="19">
         <f t="shared" si="99"/>
         <v>1.8500000000000014</v>
       </c>
     </row>
     <row r="66" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F66" s="18"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="2" t="s">
+      <c r="F66" s="20"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I66" s="17">
+      <c r="I66" s="19">
         <f>AVERAGE(I63:I65)</f>
         <v>0.28333333333333321</v>
       </c>
-      <c r="J66" s="18"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="2" t="s">
+      <c r="J66" s="20"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M66" s="17">
+      <c r="M66" s="19">
         <f>AVERAGE(M63:M65)</f>
         <v>1.9633333333333336</v>
       </c>
-      <c r="N66" s="18"/>
-      <c r="O66" s="19"/>
-      <c r="P66" s="2" t="s">
+      <c r="N66" s="20"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q66" s="17">
+      <c r="Q66" s="19">
         <f>AVERAGE(Q63:Q65)</f>
         <v>1.2533333333333327</v>
       </c>
-      <c r="R66" s="18"/>
-      <c r="S66" s="19"/>
-      <c r="T66" s="2" t="s">
+      <c r="R66" s="20"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="U66" s="17">
+      <c r="U66" s="19">
         <f>AVERAGE(U63:U65)</f>
         <v>1.0966666666666669</v>
       </c>
-      <c r="V66" s="18"/>
-      <c r="W66" s="19"/>
-      <c r="X66" s="2" t="s">
+      <c r="V66" s="20"/>
+      <c r="W66" s="21"/>
+      <c r="X66" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Y66" s="17">
+      <c r="Y66" s="19">
         <f>AVERAGE(Y63:Y65)</f>
         <v>1.0566666666666669</v>
       </c>
     </row>
     <row r="67" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="13" t="s">
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="13" t="s">
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="O67" s="14"/>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="13" t="s">
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="S67" s="14"/>
-      <c r="T67" s="14"/>
-      <c r="U67" s="15"/>
-      <c r="V67" s="13" t="s">
+      <c r="S67" s="16"/>
+      <c r="T67" s="16"/>
+      <c r="U67" s="17"/>
+      <c r="V67" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="W67" s="14"/>
-      <c r="X67" s="14"/>
-      <c r="Y67" s="15"/>
+      <c r="W67" s="16"/>
+      <c r="X67" s="16"/>
+      <c r="Y67" s="17"/>
     </row>
     <row r="68" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I68" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="J68" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="K68" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="L68" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N68" s="2" t="s">
+      <c r="N68" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O68" s="2" t="s">
+      <c r="O68" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P68" s="2" t="s">
+      <c r="P68" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q68" s="2" t="s">
+      <c r="Q68" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="R68" s="2" t="s">
+      <c r="R68" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="S68" s="2" t="s">
+      <c r="S68" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="T68" s="2" t="s">
+      <c r="T68" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="U68" s="2" t="s">
+      <c r="U68" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V68" s="2" t="s">
+      <c r="V68" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W68" s="2" t="s">
+      <c r="W68" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X68" s="2" t="s">
+      <c r="X68" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y68" s="2" t="s">
+      <c r="Y68" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="69" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="19">
         <v>7.24</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G69" s="19">
         <v>7.49</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H69" s="19">
         <f>G69-F69</f>
         <v>0.25</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I69" s="19">
         <f>ABS(H69)</f>
         <v>0.25</v>
       </c>
-      <c r="J69" s="17">
+      <c r="J69" s="19">
         <v>7.51</v>
       </c>
-      <c r="K69" s="17">
+      <c r="K69" s="19">
         <v>9.0299999999999994</v>
       </c>
-      <c r="L69" s="17">
+      <c r="L69" s="19">
         <f>K69-J69</f>
         <v>1.5199999999999996</v>
       </c>
-      <c r="M69" s="17">
+      <c r="M69" s="19">
         <f>ABS(L69)</f>
         <v>1.5199999999999996</v>
       </c>
-      <c r="N69" s="17">
+      <c r="N69" s="19">
         <v>10.53</v>
       </c>
-      <c r="O69" s="17">
+      <c r="O69" s="19">
         <v>11.83</v>
       </c>
-      <c r="P69" s="17">
+      <c r="P69" s="19">
         <f>O69-N69</f>
         <v>1.3000000000000007</v>
       </c>
-      <c r="Q69" s="17">
+      <c r="Q69" s="19">
         <f>ABS(P69)</f>
         <v>1.3000000000000007</v>
       </c>
-      <c r="R69" s="17">
+      <c r="R69" s="19">
         <v>-9.85</v>
       </c>
-      <c r="S69" s="17">
+      <c r="S69" s="19">
         <v>-10.09</v>
       </c>
-      <c r="T69" s="17">
+      <c r="T69" s="19">
         <f>S69-R69</f>
         <v>-0.24000000000000021</v>
       </c>
-      <c r="U69" s="17">
+      <c r="U69" s="19">
         <f>ABS(T69)</f>
         <v>0.24000000000000021</v>
       </c>
-      <c r="V69" s="17">
+      <c r="V69" s="19">
         <v>7.71</v>
       </c>
-      <c r="W69" s="17">
+      <c r="W69" s="19">
         <v>8.18</v>
       </c>
-      <c r="X69" s="17">
+      <c r="X69" s="19">
         <f>W69-V69</f>
         <v>0.46999999999999975</v>
       </c>
-      <c r="Y69" s="17">
+      <c r="Y69" s="19">
         <f>ABS(X69)</f>
         <v>0.46999999999999975</v>
       </c>
     </row>
     <row r="70" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F70" s="19">
         <v>2.93</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G70" s="19">
         <v>5.19</v>
       </c>
-      <c r="H70" s="17">
+      <c r="H70" s="19">
         <f t="shared" ref="H70:H71" si="100">G70-F70</f>
         <v>2.2600000000000002</v>
       </c>
-      <c r="I70" s="17">
+      <c r="I70" s="19">
         <f t="shared" ref="I70:I71" si="101">ABS(H70)</f>
         <v>2.2600000000000002</v>
       </c>
-      <c r="J70" s="17">
+      <c r="J70" s="19">
         <v>3.2</v>
       </c>
-      <c r="K70" s="17">
+      <c r="K70" s="19">
         <v>8.34</v>
       </c>
-      <c r="L70" s="17">
+      <c r="L70" s="19">
         <f t="shared" ref="L70:L71" si="102">K70-J70</f>
         <v>5.14</v>
       </c>
-      <c r="M70" s="17">
+      <c r="M70" s="19">
         <f t="shared" ref="M70:M71" si="103">ABS(L70)</f>
         <v>5.14</v>
       </c>
-      <c r="N70" s="17">
+      <c r="N70" s="19">
         <v>6.22</v>
       </c>
-      <c r="O70" s="17">
+      <c r="O70" s="19">
         <v>7.01</v>
       </c>
-      <c r="P70" s="17">
+      <c r="P70" s="19">
         <f t="shared" ref="P70:P71" si="104">O70-N70</f>
         <v>0.79</v>
       </c>
-      <c r="Q70" s="17">
+      <c r="Q70" s="19">
         <f t="shared" ref="Q70:Q71" si="105">ABS(P70)</f>
         <v>0.79</v>
       </c>
-      <c r="R70" s="17">
+      <c r="R70" s="19">
         <v>-14.16</v>
       </c>
-      <c r="S70" s="17">
+      <c r="S70" s="19">
         <v>-10.25</v>
       </c>
-      <c r="T70" s="17">
+      <c r="T70" s="19">
         <f t="shared" ref="T70:T71" si="106">S70-R70</f>
         <v>3.91</v>
       </c>
-      <c r="U70" s="17">
+      <c r="U70" s="19">
         <f t="shared" ref="U70:U71" si="107">ABS(T70)</f>
         <v>3.91</v>
       </c>
-      <c r="V70" s="17">
+      <c r="V70" s="19">
         <v>3.4</v>
       </c>
-      <c r="W70" s="17">
+      <c r="W70" s="19">
         <v>4.6900000000000004</v>
       </c>
-      <c r="X70" s="17">
+      <c r="X70" s="19">
         <f t="shared" ref="X70:X71" si="108">W70-V70</f>
         <v>1.2900000000000005</v>
       </c>
-      <c r="Y70" s="17">
+      <c r="Y70" s="19">
         <f t="shared" ref="Y70:Y71" si="109">ABS(X70)</f>
         <v>1.2900000000000005</v>
       </c>
     </row>
     <row r="71" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="19">
         <v>14.66</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G71" s="19">
         <v>15.32</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H71" s="19">
         <f t="shared" si="100"/>
         <v>0.66000000000000014</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I71" s="19">
         <f t="shared" si="101"/>
         <v>0.66000000000000014</v>
       </c>
-      <c r="J71" s="17">
+      <c r="J71" s="19">
         <v>14.93</v>
       </c>
-      <c r="K71" s="17">
+      <c r="K71" s="19">
         <v>14.7</v>
       </c>
-      <c r="L71" s="17">
+      <c r="L71" s="19">
         <f t="shared" si="102"/>
         <v>-0.23000000000000043</v>
       </c>
-      <c r="M71" s="17">
+      <c r="M71" s="19">
         <f t="shared" si="103"/>
         <v>0.23000000000000043</v>
       </c>
-      <c r="N71" s="17">
+      <c r="N71" s="19">
         <v>17.95</v>
       </c>
-      <c r="O71" s="17">
+      <c r="O71" s="19">
         <v>18.02</v>
       </c>
-      <c r="P71" s="17">
+      <c r="P71" s="19">
         <f t="shared" si="104"/>
         <v>7.0000000000000284E-2</v>
       </c>
-      <c r="Q71" s="17">
+      <c r="Q71" s="19">
         <f t="shared" si="105"/>
         <v>7.0000000000000284E-2</v>
       </c>
-      <c r="R71" s="17">
+      <c r="R71" s="19">
         <v>-2.4300000000000002</v>
       </c>
-      <c r="S71" s="17">
+      <c r="S71" s="19">
         <v>-2.5299999999999998</v>
       </c>
-      <c r="T71" s="17">
+      <c r="T71" s="19">
         <f t="shared" si="106"/>
         <v>-9.9999999999999645E-2</v>
       </c>
-      <c r="U71" s="17">
+      <c r="U71" s="19">
         <f t="shared" si="107"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="V71" s="17">
+      <c r="V71" s="19">
         <v>15.13</v>
       </c>
-      <c r="W71" s="17">
+      <c r="W71" s="19">
         <v>14.46</v>
       </c>
-      <c r="X71" s="17">
+      <c r="X71" s="19">
         <f t="shared" si="108"/>
         <v>-0.66999999999999993</v>
       </c>
-      <c r="Y71" s="17">
+      <c r="Y71" s="19">
         <f t="shared" si="109"/>
         <v>0.66999999999999993</v>
       </c>
     </row>
     <row r="72" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H72" s="2" t="s">
+      <c r="H72" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I72" s="17">
+      <c r="I72" s="19">
         <f>AVERAGE(I69:I71)</f>
         <v>1.0566666666666669</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
-      <c r="L72" s="2" t="s">
+      <c r="L72" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M72" s="17">
+      <c r="M72" s="19">
         <f>AVERAGE(M69:M71)</f>
         <v>2.2966666666666664</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
-      <c r="P72" s="2" t="s">
+      <c r="P72" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q72" s="17">
+      <c r="Q72" s="19">
         <f>AVERAGE(Q69:Q71)</f>
         <v>0.72000000000000031</v>
       </c>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
-      <c r="T72" s="2" t="s">
+      <c r="T72" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="U72" s="17">
+      <c r="U72" s="19">
         <f>AVERAGE(U69:U71)</f>
         <v>1.4166666666666667</v>
       </c>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
-      <c r="X72" s="2" t="s">
+      <c r="X72" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Y72" s="17">
+      <c r="Y72" s="19">
         <f>AVERAGE(Y69:Y71)</f>
         <v>0.81</v>
       </c>
     </row>
     <row r="73" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I73" s="17">
+      <c r="I73" s="19">
         <f>AVERAGE(I12,I18, I24,I30,I36,I42,I48,I54,I60,I66,I72)</f>
         <v>1.3309090909090908</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-      <c r="L73" s="2" t="s">
+      <c r="L73" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M73" s="17">
+      <c r="M73" s="19">
         <f>AVERAGE(M12,M18, M24,M30,M36,M42,M48,M54,M60,M66,M72)</f>
         <v>1.4333333333333333</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
-      <c r="P73" s="2" t="s">
+      <c r="P73" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Q73" s="17">
+      <c r="Q73" s="19">
         <f>AVERAGE(Q12,Q18, Q24,Q30,Q36,Q42,Q48,Q54,Q60,Q66,Q72)</f>
         <v>1.6190909090909089</v>
       </c>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
-      <c r="T73" s="2" t="s">
+      <c r="T73" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="U73" s="17">
+      <c r="U73" s="19">
         <f>AVERAGE(U12,U18, U24,U30,U36,U42,U48,U54,U60,U66,U72)</f>
         <v>1.4593939393939395</v>
       </c>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
-      <c r="X73" s="2" t="s">
+      <c r="X73" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Y73" s="17">
+      <c r="Y73" s="19">
         <f>AVERAGE(Y12,Y18, Y24,Y30,Y36,Y42,Y48,Y54,Y60,Y66,Y72)</f>
         <v>1.6654545454545462</v>
       </c>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6259A4-6359-4602-9BCC-F5DA4DF783BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC1668F-5ED2-401B-990D-D1489E79C1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="101">
   <si>
     <t>Results</t>
   </si>
@@ -315,6 +315,21 @@
   </si>
   <si>
     <t>[0.01811363361775875, 0.024592144414782524, 0.02883552759885788, 0.03319515287876129, 0.019392821937799454]</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>[0.054280176758766174, 0.059719398617744446, 0.07351742684841156, 0.07260225713253021, 0.05932998284697533]</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>[0.05794515833258629, 0.06154700368642807, 0.07128743827342987, 0.07135432213544846, 0.05880168452858925]</t>
+  </si>
+  <si>
+    <t>[0.05725911632180214, 0.05964706838130951, 0.07230478525161743, 0.07220066338777542, 0.05942148342728615]</t>
   </si>
 </sst>
 </file>
@@ -323,7 +338,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -662,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -701,24 +716,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -737,37 +734,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -783,8 +771,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -795,8 +795,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,107 +1137,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="17">
         <v>0</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="18">
         <v>1</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="18">
         <v>2</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="20">
+      <c r="A4" s="14">
         <v>0</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="20">
         <v>3.9116441017830302E-2</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="21">
         <v>7.4504630461442498E-2</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="21">
         <v>9.3588633216393102E-2</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="33">
         <v>0.10827131442016</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="21">
+      <c r="A5" s="15">
         <v>1</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="22">
         <v>0.146261033833057</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="23">
         <v>0.15291525321188701</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="23">
         <v>0.149170475438725</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="24">
         <v>0.14960847451728601</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="21">
+      <c r="A6" s="15">
         <v>2</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="22">
         <v>0.15724085264622001</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="23">
         <v>0.15940083918357401</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="23">
         <v>0.22948193672372899</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="24">
         <v>0.13524118291558199</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="22">
+      <c r="A7" s="16">
         <v>3</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="25">
         <v>0.123917589304434</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="26">
         <v>0.14607097813683101</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="26">
         <v>0.18413363870190499</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="27">
         <v>0.11836194833661</v>
       </c>
     </row>
@@ -1243,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E205C6-75C9-4A48-9727-53AED497EF04}">
   <dimension ref="A1:S88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1259,42 +1271,42 @@
     <col min="9" max="9" width="9.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1328125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="12.1328125" style="40" customWidth="1"/>
-    <col min="16" max="16" width="8.73046875" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.19921875" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.1328125" style="31" customWidth="1"/>
+    <col min="16" max="16" width="8.73046875" style="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.19921875" style="31" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="103.53125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.06640625" style="38"/>
+    <col min="20" max="16384" width="9.06640625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A2" s="37"/>
+      <c r="A2" s="28"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A4" s="37"/>
+      <c r="A4" s="28"/>
     </row>
     <row r="5" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="28" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="45"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="40"/>
     </row>
     <row r="7" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
@@ -1333,22 +1345,22 @@
       <c r="L7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="41" t="s">
+      <c r="N7" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="41" t="s">
+      <c r="O7" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="P7" s="41" t="s">
+      <c r="P7" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" s="41" t="s">
+      <c r="Q7" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="R7" s="41" t="s">
+      <c r="R7" s="32" t="s">
         <v>79</v>
       </c>
       <c r="S7" s="4" t="s">
@@ -1392,18 +1404,18 @@
       <c r="L8" s="8">
         <v>3.0230338498949998E-2</v>
       </c>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41">
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32">
         <v>6.6611281040656698E-3</v>
       </c>
-      <c r="Q8" s="41">
-        <f>IF(OR(L8="",P8=""),"",L8-2*P8)</f>
+      <c r="Q8" s="32">
+        <f t="shared" ref="Q8:Q39" si="0">IF(OR(L8="",P8=""),"",L8-2*P8)</f>
         <v>1.6908082290818659E-2</v>
       </c>
-      <c r="R8" s="41">
-        <f>IF(OR(L8="",P8=""),"",L8+2*P8)</f>
+      <c r="R8" s="32">
+        <f t="shared" ref="R8:R39" si="1">IF(OR(L8="",P8=""),"",L8+2*P8)</f>
         <v>4.3552594707081338E-2</v>
       </c>
       <c r="S8" s="4" t="s">
@@ -1433,16 +1445,16 @@
       <c r="J9" s="8"/>
       <c r="K9" s="4"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41" t="str">
-        <f>IF(OR(L9="",P9=""),"",L9-2*P9)</f>
-        <v/>
-      </c>
-      <c r="R9" s="41" t="str">
-        <f>IF(OR(L9="",P9=""),"",L9+2*P9)</f>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R9" s="32" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S9" s="4"/>
@@ -1470,16 +1482,16 @@
       <c r="J10" s="8"/>
       <c r="K10" s="4"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41" t="str">
-        <f>IF(OR(L10="",P10=""),"",L10-2*P10)</f>
-        <v/>
-      </c>
-      <c r="R10" s="41" t="str">
-        <f>IF(OR(L10="",P10=""),"",L10+2*P10)</f>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R10" s="32" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S10" s="4"/>
@@ -1507,16 +1519,16 @@
       <c r="J11" s="8"/>
       <c r="K11" s="4"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41" t="str">
-        <f>IF(OR(L11="",P11=""),"",L11-2*P11)</f>
-        <v/>
-      </c>
-      <c r="R11" s="41" t="str">
-        <f>IF(OR(L11="",P11=""),"",L11+2*P11)</f>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R11" s="32" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S11" s="4"/>
@@ -1544,19 +1556,19 @@
       <c r="J12" s="8"/>
       <c r="K12" s="4"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41" t="str">
-        <f>IF(OR(L12="",P12=""),"",L12-2*P12)</f>
-        <v/>
-      </c>
-      <c r="R12" s="41" t="str">
-        <f>IF(OR(L12="",P12=""),"",L12+2*P12)</f>
-        <v/>
-      </c>
-      <c r="S12" s="39"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R12" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S12" s="30"/>
     </row>
     <row r="13" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
@@ -1581,19 +1593,19 @@
       <c r="J13" s="8"/>
       <c r="K13" s="4"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41" t="str">
-        <f>IF(OR(L13="",P13=""),"",L13-2*P13)</f>
-        <v/>
-      </c>
-      <c r="R13" s="41" t="str">
-        <f>IF(OR(L13="",P13=""),"",L13+2*P13)</f>
-        <v/>
-      </c>
-      <c r="S13" s="39"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R13" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S13" s="30"/>
     </row>
     <row r="14" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
@@ -1618,19 +1630,19 @@
       <c r="J14" s="8"/>
       <c r="K14" s="4"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41" t="str">
-        <f>IF(OR(L14="",P14=""),"",L14-2*P14)</f>
-        <v/>
-      </c>
-      <c r="R14" s="41" t="str">
-        <f>IF(OR(L14="",P14=""),"",L14+2*P14)</f>
-        <v/>
-      </c>
-      <c r="S14" s="39"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R14" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S14" s="30"/>
     </row>
     <row r="15" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
@@ -1655,19 +1667,19 @@
       <c r="J15" s="8"/>
       <c r="K15" s="4"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41" t="str">
-        <f>IF(OR(L15="",P15=""),"",L15-2*P15)</f>
-        <v/>
-      </c>
-      <c r="R15" s="41" t="str">
-        <f>IF(OR(L15="",P15=""),"",L15+2*P15)</f>
-        <v/>
-      </c>
-      <c r="S15" s="39"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R15" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S15" s="30"/>
     </row>
     <row r="16" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
@@ -1692,19 +1704,19 @@
       <c r="J16" s="8"/>
       <c r="K16" s="4"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41" t="str">
-        <f>IF(OR(L16="",P16=""),"",L16-2*P16)</f>
-        <v/>
-      </c>
-      <c r="R16" s="41" t="str">
-        <f>IF(OR(L16="",P16=""),"",L16+2*P16)</f>
-        <v/>
-      </c>
-      <c r="S16" s="39"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R16" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S16" s="30"/>
     </row>
     <row r="17" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
@@ -1729,19 +1741,19 @@
       <c r="J17" s="8"/>
       <c r="K17" s="4"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41" t="str">
-        <f>IF(OR(L17="",P17=""),"",L17-2*P17)</f>
-        <v/>
-      </c>
-      <c r="R17" s="41" t="str">
-        <f>IF(OR(L17="",P17=""),"",L17+2*P17)</f>
-        <v/>
-      </c>
-      <c r="S17" s="39"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R17" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S17" s="30"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
@@ -1766,19 +1778,19 @@
       <c r="J18" s="8"/>
       <c r="K18" s="4"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41" t="str">
-        <f>IF(OR(L18="",P18=""),"",L18-2*P18)</f>
-        <v/>
-      </c>
-      <c r="R18" s="41" t="str">
-        <f>IF(OR(L18="",P18=""),"",L18+2*P18)</f>
-        <v/>
-      </c>
-      <c r="S18" s="39"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R18" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S18" s="30"/>
     </row>
     <row r="19" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
@@ -1803,19 +1815,19 @@
       <c r="J19" s="8"/>
       <c r="K19" s="4"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41" t="str">
-        <f>IF(OR(L19="",P19=""),"",L19-2*P19)</f>
-        <v/>
-      </c>
-      <c r="R19" s="41" t="str">
-        <f>IF(OR(L19="",P19=""),"",L19+2*P19)</f>
-        <v/>
-      </c>
-      <c r="S19" s="39"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R19" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S19" s="30"/>
     </row>
     <row r="20" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
@@ -1840,19 +1852,19 @@
       <c r="J20" s="8"/>
       <c r="K20" s="4"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41" t="str">
-        <f>IF(OR(L20="",P20=""),"",L20-2*P20)</f>
-        <v/>
-      </c>
-      <c r="R20" s="41" t="str">
-        <f>IF(OR(L20="",P20=""),"",L20+2*P20)</f>
-        <v/>
-      </c>
-      <c r="S20" s="39"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R20" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S20" s="30"/>
     </row>
     <row r="21" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
@@ -1877,19 +1889,19 @@
       <c r="J21" s="8"/>
       <c r="K21" s="4"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41" t="str">
-        <f>IF(OR(L21="",P21=""),"",L21-2*P21)</f>
-        <v/>
-      </c>
-      <c r="R21" s="41" t="str">
-        <f>IF(OR(L21="",P21=""),"",L21+2*P21)</f>
-        <v/>
-      </c>
-      <c r="S21" s="39"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R21" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S21" s="30"/>
     </row>
     <row r="22" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
@@ -1914,19 +1926,19 @@
       <c r="J22" s="8"/>
       <c r="K22" s="4"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41" t="str">
-        <f>IF(OR(L22="",P22=""),"",L22-2*P22)</f>
-        <v/>
-      </c>
-      <c r="R22" s="41" t="str">
-        <f>IF(OR(L22="",P22=""),"",L22+2*P22)</f>
-        <v/>
-      </c>
-      <c r="S22" s="39"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R22" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S22" s="30"/>
     </row>
     <row r="23" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
@@ -1951,19 +1963,19 @@
       <c r="J23" s="8"/>
       <c r="K23" s="4"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41" t="str">
-        <f>IF(OR(L23="",P23=""),"",L23-2*P23)</f>
-        <v/>
-      </c>
-      <c r="R23" s="41" t="str">
-        <f>IF(OR(L23="",P23=""),"",L23+2*P23)</f>
-        <v/>
-      </c>
-      <c r="S23" s="39"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R23" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S23" s="30"/>
     </row>
     <row r="24" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="4" t="s">
@@ -1988,19 +2000,19 @@
       <c r="J24" s="8"/>
       <c r="K24" s="4"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41" t="str">
-        <f>IF(OR(L24="",P24=""),"",L24-2*P24)</f>
-        <v/>
-      </c>
-      <c r="R24" s="41" t="str">
-        <f>IF(OR(L24="",P24=""),"",L24+2*P24)</f>
-        <v/>
-      </c>
-      <c r="S24" s="39"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R24" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S24" s="30"/>
     </row>
     <row r="25" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
@@ -2025,19 +2037,19 @@
       <c r="J25" s="8"/>
       <c r="K25" s="4"/>
       <c r="L25" s="8"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41" t="str">
-        <f>IF(OR(L25="",P25=""),"",L25-2*P25)</f>
-        <v/>
-      </c>
-      <c r="R25" s="41" t="str">
-        <f>IF(OR(L25="",P25=""),"",L25+2*P25)</f>
-        <v/>
-      </c>
-      <c r="S25" s="39"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R25" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S25" s="30"/>
     </row>
     <row r="26" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
@@ -2062,19 +2074,19 @@
       <c r="J26" s="8"/>
       <c r="K26" s="4"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41" t="str">
-        <f>IF(OR(L26="",P26=""),"",L26-2*P26)</f>
-        <v/>
-      </c>
-      <c r="R26" s="41" t="str">
-        <f>IF(OR(L26="",P26=""),"",L26+2*P26)</f>
-        <v/>
-      </c>
-      <c r="S26" s="39"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R26" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S26" s="30"/>
     </row>
     <row r="27" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
@@ -2099,19 +2111,19 @@
       <c r="J27" s="8"/>
       <c r="K27" s="4"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41" t="str">
-        <f>IF(OR(L27="",P27=""),"",L27-2*P27)</f>
-        <v/>
-      </c>
-      <c r="R27" s="41" t="str">
-        <f>IF(OR(L27="",P27=""),"",L27+2*P27)</f>
-        <v/>
-      </c>
-      <c r="S27" s="39"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R27" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S27" s="30"/>
     </row>
     <row r="28" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
@@ -2150,18 +2162,18 @@
       <c r="L28" s="8">
         <v>2.48258560895919E-2</v>
       </c>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41">
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32">
         <v>5.6700794722876202E-3</v>
       </c>
-      <c r="Q28" s="41">
-        <f>IF(OR(L28="",P28=""),"",L28-2*P28)</f>
+      <c r="Q28" s="32">
+        <f t="shared" si="0"/>
         <v>1.348569714501666E-2</v>
       </c>
-      <c r="R28" s="41">
-        <f>IF(OR(L28="",P28=""),"",L28+2*P28)</f>
+      <c r="R28" s="32">
+        <f t="shared" si="1"/>
         <v>3.6166015034167137E-2</v>
       </c>
       <c r="S28" s="4" t="s">
@@ -2205,18 +2217,18 @@
       <c r="L29" s="8">
         <v>2.5252476707100801E-2</v>
       </c>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41">
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32">
         <v>5.38631197626749E-3</v>
       </c>
-      <c r="Q29" s="41">
-        <f>IF(OR(L29="",P29=""),"",L29-2*P29)</f>
+      <c r="Q29" s="32">
+        <f t="shared" si="0"/>
         <v>1.4479852754565821E-2</v>
       </c>
-      <c r="R29" s="41">
-        <f>IF(OR(L29="",P29=""),"",L29+2*P29)</f>
+      <c r="R29" s="32">
+        <f t="shared" si="1"/>
         <v>3.6025100659635781E-2</v>
       </c>
       <c r="S29" s="4" t="s">
@@ -2260,18 +2272,18 @@
       <c r="L30" s="8">
         <v>2.4648037180304502E-2</v>
       </c>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41">
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32">
         <v>5.9781332722895304E-3</v>
       </c>
-      <c r="Q30" s="41">
-        <f>IF(OR(L30="",P30=""),"",L30-2*P30)</f>
+      <c r="Q30" s="32">
+        <f t="shared" si="0"/>
         <v>1.2691770635725441E-2</v>
       </c>
-      <c r="R30" s="41">
-        <f>IF(OR(L30="",P30=""),"",L30+2*P30)</f>
+      <c r="R30" s="32">
+        <f t="shared" si="1"/>
         <v>3.6604303724883561E-2</v>
       </c>
       <c r="S30" s="4" t="s">
@@ -2301,16 +2313,16 @@
       <c r="J31" s="8"/>
       <c r="K31" s="4"/>
       <c r="L31" s="8"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41" t="str">
-        <f>IF(OR(L31="",P31=""),"",L31-2*P31)</f>
-        <v/>
-      </c>
-      <c r="R31" s="41" t="str">
-        <f>IF(OR(L31="",P31=""),"",L31+2*P31)</f>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R31" s="32" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S31" s="4"/>
@@ -2338,16 +2350,16 @@
       <c r="J32" s="8"/>
       <c r="K32" s="4"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41" t="str">
-        <f>IF(OR(L32="",P32=""),"",L32-2*P32)</f>
-        <v/>
-      </c>
-      <c r="R32" s="41" t="str">
-        <f>IF(OR(L32="",P32=""),"",L32+2*P32)</f>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R32" s="32" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S32" s="4"/>
@@ -2375,16 +2387,16 @@
       <c r="J33" s="8"/>
       <c r="K33" s="4"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41" t="str">
-        <f>IF(OR(L33="",P33=""),"",L33-2*P33)</f>
-        <v/>
-      </c>
-      <c r="R33" s="41" t="str">
-        <f>IF(OR(L33="",P33=""),"",L33+2*P33)</f>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R33" s="32" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S33" s="4"/>
@@ -2412,16 +2424,16 @@
       <c r="J34" s="8"/>
       <c r="K34" s="4"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41" t="str">
-        <f>IF(OR(L34="",P34=""),"",L34-2*P34)</f>
-        <v/>
-      </c>
-      <c r="R34" s="41" t="str">
-        <f>IF(OR(L34="",P34=""),"",L34+2*P34)</f>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R34" s="32" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S34" s="4"/>
@@ -2449,16 +2461,16 @@
       <c r="J35" s="8"/>
       <c r="K35" s="4"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41" t="str">
-        <f>IF(OR(L35="",P35=""),"",L35-2*P35)</f>
-        <v/>
-      </c>
-      <c r="R35" s="41" t="str">
-        <f>IF(OR(L35="",P35=""),"",L35+2*P35)</f>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R35" s="32" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S35" s="4"/>
@@ -2486,16 +2498,16 @@
       <c r="J36" s="8"/>
       <c r="K36" s="4"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41" t="str">
-        <f>IF(OR(L36="",P36=""),"",L36-2*P36)</f>
-        <v/>
-      </c>
-      <c r="R36" s="41" t="str">
-        <f>IF(OR(L36="",P36=""),"",L36+2*P36)</f>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R36" s="32" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S36" s="4"/>
@@ -2523,16 +2535,16 @@
       <c r="J37" s="8"/>
       <c r="K37" s="4"/>
       <c r="L37" s="8"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41" t="str">
-        <f>IF(OR(L37="",P37=""),"",L37-2*P37)</f>
-        <v/>
-      </c>
-      <c r="R37" s="41" t="str">
-        <f>IF(OR(L37="",P37=""),"",L37+2*P37)</f>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R37" s="32" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S37" s="4"/>
@@ -2560,16 +2572,16 @@
       <c r="J38" s="8"/>
       <c r="K38" s="4"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41" t="str">
-        <f>IF(OR(L38="",P38=""),"",L38-2*P38)</f>
-        <v/>
-      </c>
-      <c r="R38" s="41" t="str">
-        <f>IF(OR(L38="",P38=""),"",L38+2*P38)</f>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R38" s="32" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S38" s="4"/>
@@ -2597,16 +2609,16 @@
       <c r="J39" s="8"/>
       <c r="K39" s="4"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41" t="str">
-        <f>IF(OR(L39="",P39=""),"",L39-2*P39)</f>
-        <v/>
-      </c>
-      <c r="R39" s="41" t="str">
-        <f>IF(OR(L39="",P39=""),"",L39+2*P39)</f>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R39" s="32" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="S39" s="4"/>
@@ -2634,16 +2646,16 @@
       <c r="J40" s="8"/>
       <c r="K40" s="4"/>
       <c r="L40" s="8"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41" t="str">
-        <f>IF(OR(L40="",P40=""),"",L40-2*P40)</f>
-        <v/>
-      </c>
-      <c r="R40" s="41" t="str">
-        <f>IF(OR(L40="",P40=""),"",L40+2*P40)</f>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32" t="str">
+        <f t="shared" ref="Q40:Q71" si="2">IF(OR(L40="",P40=""),"",L40-2*P40)</f>
+        <v/>
+      </c>
+      <c r="R40" s="32" t="str">
+        <f t="shared" ref="R40:R71" si="3">IF(OR(L40="",P40=""),"",L40+2*P40)</f>
         <v/>
       </c>
       <c r="S40" s="4"/>
@@ -2671,16 +2683,16 @@
       <c r="J41" s="8"/>
       <c r="K41" s="4"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41" t="str">
-        <f>IF(OR(L41="",P41=""),"",L41-2*P41)</f>
-        <v/>
-      </c>
-      <c r="R41" s="41" t="str">
-        <f>IF(OR(L41="",P41=""),"",L41+2*P41)</f>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R41" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S41" s="4"/>
@@ -2708,16 +2720,16 @@
       <c r="J42" s="8"/>
       <c r="K42" s="4"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41" t="str">
-        <f>IF(OR(L42="",P42=""),"",L42-2*P42)</f>
-        <v/>
-      </c>
-      <c r="R42" s="41" t="str">
-        <f>IF(OR(L42="",P42=""),"",L42+2*P42)</f>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R42" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S42" s="4"/>
@@ -2745,16 +2757,16 @@
       <c r="J43" s="8"/>
       <c r="K43" s="4"/>
       <c r="L43" s="8"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41" t="str">
-        <f>IF(OR(L43="",P43=""),"",L43-2*P43)</f>
-        <v/>
-      </c>
-      <c r="R43" s="41" t="str">
-        <f>IF(OR(L43="",P43=""),"",L43+2*P43)</f>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R43" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S43" s="4"/>
@@ -2775,26 +2787,44 @@
       <c r="E44" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41" t="str">
-        <f>IF(OR(L44="",P44=""),"",L44-2*P44)</f>
-        <v/>
-      </c>
-      <c r="R44" s="41" t="str">
-        <f>IF(OR(L44="",P44=""),"",L44+2*P44)</f>
-        <v/>
-      </c>
-      <c r="S44" s="4"/>
+      <c r="F44" s="8">
+        <v>7.5347879655024699E-3</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="8">
+        <v>0.43153400757767202</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L44" s="8">
+        <v>6.3889848440885494E-2</v>
+      </c>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32">
+        <v>7.7346900002947397E-3</v>
+      </c>
+      <c r="Q44" s="32">
+        <f t="shared" si="2"/>
+        <v>4.8420468440296016E-2</v>
+      </c>
+      <c r="R44" s="32">
+        <f t="shared" si="3"/>
+        <v>7.9359228441474972E-2</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="45" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
@@ -2812,26 +2842,44 @@
       <c r="E45" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="41" t="str">
-        <f>IF(OR(L45="",P45=""),"",L45-2*P45)</f>
-        <v/>
-      </c>
-      <c r="R45" s="41" t="str">
-        <f>IF(OR(L45="",P45=""),"",L45+2*P45)</f>
-        <v/>
-      </c>
-      <c r="S45" s="4"/>
+      <c r="F45" s="8">
+        <v>5.2404657286634203E-2</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J45" s="8">
+        <v>0.45234894910170698</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L45" s="8">
+        <v>6.4166623353958105E-2</v>
+      </c>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32">
+        <v>6.6548007004157E-3</v>
+      </c>
+      <c r="Q45" s="32">
+        <f t="shared" si="2"/>
+        <v>5.0857021953126705E-2</v>
+      </c>
+      <c r="R45" s="32">
+        <f t="shared" si="3"/>
+        <v>7.7476224754789505E-2</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="46" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="4" t="s">
@@ -2849,26 +2897,44 @@
       <c r="E46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="41" t="str">
-        <f>IF(OR(L46="",P46=""),"",L46-2*P46)</f>
-        <v/>
-      </c>
-      <c r="R46" s="41" t="str">
-        <f>IF(OR(L46="",P46=""),"",L46+2*P46)</f>
-        <v/>
-      </c>
-      <c r="S46" s="4"/>
+      <c r="F46" s="8">
+        <v>6.1597989345380903E-2</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="8">
+        <v>0.33005465858705701</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L46" s="8">
+        <v>6.4187121391296301E-2</v>
+      </c>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32">
+        <v>5.9450571209661096E-3</v>
+      </c>
+      <c r="Q46" s="32">
+        <f t="shared" si="2"/>
+        <v>5.2297007149364083E-2</v>
+      </c>
+      <c r="R46" s="32">
+        <f t="shared" si="3"/>
+        <v>7.6077235633228518E-2</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="47" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
@@ -2893,16 +2959,16 @@
       <c r="J47" s="8"/>
       <c r="K47" s="4"/>
       <c r="L47" s="8"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41" t="str">
-        <f>IF(OR(L47="",P47=""),"",L47-2*P47)</f>
-        <v/>
-      </c>
-      <c r="R47" s="41" t="str">
-        <f>IF(OR(L47="",P47=""),"",L47+2*P47)</f>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R47" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S47" s="4"/>
@@ -2944,18 +3010,18 @@
       <c r="L48" s="8">
         <v>1.7400306090712501E-2</v>
       </c>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41">
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32">
         <v>1.5858265028333299E-3</v>
       </c>
-      <c r="Q48" s="41">
-        <f>IF(OR(L48="",P48=""),"",L48-2*P48)</f>
+      <c r="Q48" s="32">
+        <f t="shared" si="2"/>
         <v>1.4228653085045841E-2</v>
       </c>
-      <c r="R48" s="41">
-        <f>IF(OR(L48="",P48=""),"",L48+2*P48)</f>
+      <c r="R48" s="32">
+        <f t="shared" si="3"/>
         <v>2.0571959096379162E-2</v>
       </c>
       <c r="S48" s="4" t="s">
@@ -2983,16 +3049,16 @@
       <c r="J49" s="8"/>
       <c r="K49" s="4"/>
       <c r="L49" s="8"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41" t="str">
-        <f>IF(OR(L49="",P49=""),"",L49-2*P49)</f>
-        <v/>
-      </c>
-      <c r="R49" s="41" t="str">
-        <f>IF(OR(L49="",P49=""),"",L49+2*P49)</f>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R49" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S49" s="4"/>
@@ -3018,16 +3084,16 @@
       <c r="J50" s="8"/>
       <c r="K50" s="4"/>
       <c r="L50" s="8"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="41"/>
-      <c r="O50" s="41"/>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="41" t="str">
-        <f>IF(OR(L50="",P50=""),"",L50-2*P50)</f>
-        <v/>
-      </c>
-      <c r="R50" s="41" t="str">
-        <f>IF(OR(L50="",P50=""),"",L50+2*P50)</f>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R50" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S50" s="4"/>
@@ -3053,16 +3119,16 @@
       <c r="J51" s="8"/>
       <c r="K51" s="4"/>
       <c r="L51" s="8"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41" t="str">
-        <f>IF(OR(L51="",P51=""),"",L51-2*P51)</f>
-        <v/>
-      </c>
-      <c r="R51" s="41" t="str">
-        <f>IF(OR(L51="",P51=""),"",L51+2*P51)</f>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R51" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S51" s="4"/>
@@ -3088,16 +3154,16 @@
       <c r="J52" s="8"/>
       <c r="K52" s="4"/>
       <c r="L52" s="8"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41" t="str">
-        <f>IF(OR(L52="",P52=""),"",L52-2*P52)</f>
-        <v/>
-      </c>
-      <c r="R52" s="41" t="str">
-        <f>IF(OR(L52="",P52=""),"",L52+2*P52)</f>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R52" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S52" s="4"/>
@@ -3123,16 +3189,16 @@
       <c r="J53" s="8"/>
       <c r="K53" s="4"/>
       <c r="L53" s="8"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="41" t="str">
-        <f>IF(OR(L53="",P53=""),"",L53-2*P53)</f>
-        <v/>
-      </c>
-      <c r="R53" s="41" t="str">
-        <f>IF(OR(L53="",P53=""),"",L53+2*P53)</f>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R53" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S53" s="4"/>
@@ -3158,16 +3224,16 @@
       <c r="J54" s="8"/>
       <c r="K54" s="4"/>
       <c r="L54" s="8"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="41"/>
-      <c r="O54" s="41"/>
-      <c r="P54" s="41"/>
-      <c r="Q54" s="41" t="str">
-        <f>IF(OR(L54="",P54=""),"",L54-2*P54)</f>
-        <v/>
-      </c>
-      <c r="R54" s="41" t="str">
-        <f>IF(OR(L54="",P54=""),"",L54+2*P54)</f>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R54" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S54" s="4"/>
@@ -3193,16 +3259,16 @@
       <c r="J55" s="8"/>
       <c r="K55" s="4"/>
       <c r="L55" s="8"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="41"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="41" t="str">
-        <f>IF(OR(L55="",P55=""),"",L55-2*P55)</f>
-        <v/>
-      </c>
-      <c r="R55" s="41" t="str">
-        <f>IF(OR(L55="",P55=""),"",L55+2*P55)</f>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R55" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S55" s="4"/>
@@ -3228,16 +3294,16 @@
       <c r="J56" s="8"/>
       <c r="K56" s="4"/>
       <c r="L56" s="8"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="41"/>
-      <c r="O56" s="41"/>
-      <c r="P56" s="41"/>
-      <c r="Q56" s="41" t="str">
-        <f>IF(OR(L56="",P56=""),"",L56-2*P56)</f>
-        <v/>
-      </c>
-      <c r="R56" s="41" t="str">
-        <f>IF(OR(L56="",P56=""),"",L56+2*P56)</f>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R56" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S56" s="4"/>
@@ -3263,16 +3329,16 @@
       <c r="J57" s="8"/>
       <c r="K57" s="4"/>
       <c r="L57" s="8"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="41"/>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="41" t="str">
-        <f>IF(OR(L57="",P57=""),"",L57-2*P57)</f>
-        <v/>
-      </c>
-      <c r="R57" s="41" t="str">
-        <f>IF(OR(L57="",P57=""),"",L57+2*P57)</f>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R57" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S57" s="4"/>
@@ -3298,16 +3364,16 @@
       <c r="J58" s="8"/>
       <c r="K58" s="4"/>
       <c r="L58" s="8"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="41"/>
-      <c r="O58" s="41"/>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="41" t="str">
-        <f>IF(OR(L58="",P58=""),"",L58-2*P58)</f>
-        <v/>
-      </c>
-      <c r="R58" s="41" t="str">
-        <f>IF(OR(L58="",P58=""),"",L58+2*P58)</f>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
+      <c r="Q58" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R58" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S58" s="4"/>
@@ -3333,16 +3399,16 @@
       <c r="J59" s="8"/>
       <c r="K59" s="4"/>
       <c r="L59" s="8"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="41"/>
-      <c r="P59" s="41"/>
-      <c r="Q59" s="41" t="str">
-        <f>IF(OR(L59="",P59=""),"",L59-2*P59)</f>
-        <v/>
-      </c>
-      <c r="R59" s="41" t="str">
-        <f>IF(OR(L59="",P59=""),"",L59+2*P59)</f>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R59" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S59" s="4"/>
@@ -3368,16 +3434,16 @@
       <c r="J60" s="8"/>
       <c r="K60" s="4"/>
       <c r="L60" s="8"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41" t="str">
-        <f>IF(OR(L60="",P60=""),"",L60-2*P60)</f>
-        <v/>
-      </c>
-      <c r="R60" s="41" t="str">
-        <f>IF(OR(L60="",P60=""),"",L60+2*P60)</f>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R60" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S60" s="4"/>
@@ -3403,16 +3469,16 @@
       <c r="J61" s="8"/>
       <c r="K61" s="4"/>
       <c r="L61" s="8"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="41"/>
-      <c r="P61" s="41"/>
-      <c r="Q61" s="41" t="str">
-        <f>IF(OR(L61="",P61=""),"",L61-2*P61)</f>
-        <v/>
-      </c>
-      <c r="R61" s="41" t="str">
-        <f>IF(OR(L61="",P61=""),"",L61+2*P61)</f>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R61" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S61" s="4"/>
@@ -3438,16 +3504,16 @@
       <c r="J62" s="8"/>
       <c r="K62" s="4"/>
       <c r="L62" s="8"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="41"/>
-      <c r="P62" s="41"/>
-      <c r="Q62" s="41" t="str">
-        <f>IF(OR(L62="",P62=""),"",L62-2*P62)</f>
-        <v/>
-      </c>
-      <c r="R62" s="41" t="str">
-        <f>IF(OR(L62="",P62=""),"",L62+2*P62)</f>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R62" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S62" s="4"/>
@@ -3473,16 +3539,16 @@
       <c r="J63" s="8"/>
       <c r="K63" s="4"/>
       <c r="L63" s="8"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="41"/>
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
-      <c r="Q63" s="41" t="str">
-        <f>IF(OR(L63="",P63=""),"",L63-2*P63)</f>
-        <v/>
-      </c>
-      <c r="R63" s="41" t="str">
-        <f>IF(OR(L63="",P63=""),"",L63+2*P63)</f>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R63" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S63" s="4"/>
@@ -3508,16 +3574,16 @@
       <c r="J64" s="8"/>
       <c r="K64" s="4"/>
       <c r="L64" s="8"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="41"/>
-      <c r="O64" s="41"/>
-      <c r="P64" s="41"/>
-      <c r="Q64" s="41" t="str">
-        <f>IF(OR(L64="",P64=""),"",L64-2*P64)</f>
-        <v/>
-      </c>
-      <c r="R64" s="41" t="str">
-        <f>IF(OR(L64="",P64=""),"",L64+2*P64)</f>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R64" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S64" s="4"/>
@@ -3543,16 +3609,16 @@
       <c r="J65" s="8"/>
       <c r="K65" s="4"/>
       <c r="L65" s="8"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="41"/>
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
-      <c r="Q65" s="41" t="str">
-        <f>IF(OR(L65="",P65=""),"",L65-2*P65)</f>
-        <v/>
-      </c>
-      <c r="R65" s="41" t="str">
-        <f>IF(OR(L65="",P65=""),"",L65+2*P65)</f>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R65" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S65" s="4"/>
@@ -3578,16 +3644,16 @@
       <c r="J66" s="8"/>
       <c r="K66" s="4"/>
       <c r="L66" s="8"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="41"/>
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
-      <c r="Q66" s="41" t="str">
-        <f>IF(OR(L66="",P66=""),"",L66-2*P66)</f>
-        <v/>
-      </c>
-      <c r="R66" s="41" t="str">
-        <f>IF(OR(L66="",P66=""),"",L66+2*P66)</f>
+      <c r="M66" s="32"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="32"/>
+      <c r="P66" s="32"/>
+      <c r="Q66" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R66" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S66" s="4"/>
@@ -3613,16 +3679,16 @@
       <c r="J67" s="8"/>
       <c r="K67" s="4"/>
       <c r="L67" s="8"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="41" t="str">
-        <f>IF(OR(L67="",P67=""),"",L67-2*P67)</f>
-        <v/>
-      </c>
-      <c r="R67" s="41" t="str">
-        <f>IF(OR(L67="",P67=""),"",L67+2*P67)</f>
+      <c r="M67" s="32"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R67" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S67" s="4"/>
@@ -3664,18 +3730,18 @@
       <c r="L68" s="8">
         <v>2.33405344188213E-2</v>
       </c>
-      <c r="M68" s="41"/>
-      <c r="N68" s="41"/>
-      <c r="O68" s="41"/>
-      <c r="P68" s="41">
+      <c r="M68" s="32"/>
+      <c r="N68" s="32"/>
+      <c r="O68" s="32"/>
+      <c r="P68" s="32">
         <v>5.6762783643436801E-3</v>
       </c>
-      <c r="Q68" s="41">
-        <f>IF(OR(L68="",P68=""),"",L68-2*P68)</f>
+      <c r="Q68" s="32">
+        <f t="shared" si="2"/>
         <v>1.198797769013394E-2</v>
       </c>
-      <c r="R68" s="41">
-        <f>IF(OR(L68="",P68=""),"",L68+2*P68)</f>
+      <c r="R68" s="32">
+        <f t="shared" si="3"/>
         <v>3.469309114750866E-2</v>
       </c>
       <c r="S68" s="4" t="s">
@@ -3719,18 +3785,18 @@
       <c r="L69" s="8">
         <v>1.5211693756282301E-2</v>
       </c>
-      <c r="M69" s="41"/>
-      <c r="N69" s="41"/>
-      <c r="O69" s="41"/>
-      <c r="P69" s="41">
+      <c r="M69" s="32"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="32"/>
+      <c r="P69" s="32">
         <v>2.45734843548837E-3</v>
       </c>
-      <c r="Q69" s="41">
-        <f>IF(OR(L69="",P69=""),"",L69-2*P69)</f>
+      <c r="Q69" s="32">
+        <f t="shared" si="2"/>
         <v>1.0296996885305561E-2</v>
       </c>
-      <c r="R69" s="41">
-        <f>IF(OR(L69="",P69=""),"",L69+2*P69)</f>
+      <c r="R69" s="32">
+        <f t="shared" si="3"/>
         <v>2.0126390627259041E-2</v>
       </c>
       <c r="S69" s="4" t="s">
@@ -3774,18 +3840,18 @@
       <c r="L70" s="8">
         <v>2.2255120053887301E-2</v>
       </c>
-      <c r="M70" s="41"/>
-      <c r="N70" s="41"/>
-      <c r="O70" s="41"/>
-      <c r="P70" s="41">
+      <c r="M70" s="32"/>
+      <c r="N70" s="32"/>
+      <c r="O70" s="32"/>
+      <c r="P70" s="32">
         <v>5.5587759654508696E-3</v>
       </c>
-      <c r="Q70" s="41">
-        <f>IF(OR(L70="",P70=""),"",L70-2*P70)</f>
+      <c r="Q70" s="32">
+        <f t="shared" si="2"/>
         <v>1.1137568122985561E-2</v>
       </c>
-      <c r="R70" s="41">
-        <f>IF(OR(L70="",P70=""),"",L70+2*P70)</f>
+      <c r="R70" s="32">
+        <f t="shared" si="3"/>
         <v>3.3372671984789042E-2</v>
       </c>
       <c r="S70" s="4" t="s">
@@ -3813,16 +3879,16 @@
       <c r="J71" s="8"/>
       <c r="K71" s="4"/>
       <c r="L71" s="8"/>
-      <c r="M71" s="41"/>
-      <c r="N71" s="41"/>
-      <c r="O71" s="41"/>
-      <c r="P71" s="41"/>
-      <c r="Q71" s="41" t="str">
-        <f>IF(OR(L71="",P71=""),"",L71-2*P71)</f>
-        <v/>
-      </c>
-      <c r="R71" s="41" t="str">
-        <f>IF(OR(L71="",P71=""),"",L71+2*P71)</f>
+      <c r="M71" s="32"/>
+      <c r="N71" s="32"/>
+      <c r="O71" s="32"/>
+      <c r="P71" s="32"/>
+      <c r="Q71" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R71" s="32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S71" s="4"/>
@@ -3848,16 +3914,16 @@
       <c r="J72" s="8"/>
       <c r="K72" s="4"/>
       <c r="L72" s="8"/>
-      <c r="M72" s="41"/>
-      <c r="N72" s="41"/>
-      <c r="O72" s="41"/>
-      <c r="P72" s="41"/>
-      <c r="Q72" s="41" t="str">
-        <f>IF(OR(L72="",P72=""),"",L72-2*P72)</f>
-        <v/>
-      </c>
-      <c r="R72" s="41" t="str">
-        <f>IF(OR(L72="",P72=""),"",L72+2*P72)</f>
+      <c r="M72" s="32"/>
+      <c r="N72" s="32"/>
+      <c r="O72" s="32"/>
+      <c r="P72" s="32"/>
+      <c r="Q72" s="32" t="str">
+        <f t="shared" ref="Q72:Q103" si="4">IF(OR(L72="",P72=""),"",L72-2*P72)</f>
+        <v/>
+      </c>
+      <c r="R72" s="32" t="str">
+        <f t="shared" ref="R72:R87" si="5">IF(OR(L72="",P72=""),"",L72+2*P72)</f>
         <v/>
       </c>
       <c r="S72" s="4"/>
@@ -3883,16 +3949,16 @@
       <c r="J73" s="8"/>
       <c r="K73" s="4"/>
       <c r="L73" s="8"/>
-      <c r="M73" s="41"/>
-      <c r="N73" s="41"/>
-      <c r="O73" s="41"/>
-      <c r="P73" s="41"/>
-      <c r="Q73" s="41" t="str">
-        <f>IF(OR(L73="",P73=""),"",L73-2*P73)</f>
-        <v/>
-      </c>
-      <c r="R73" s="41" t="str">
-        <f>IF(OR(L73="",P73=""),"",L73+2*P73)</f>
+      <c r="M73" s="32"/>
+      <c r="N73" s="32"/>
+      <c r="O73" s="32"/>
+      <c r="P73" s="32"/>
+      <c r="Q73" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R73" s="32" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S73" s="4"/>
@@ -3918,16 +3984,16 @@
       <c r="J74" s="8"/>
       <c r="K74" s="4"/>
       <c r="L74" s="8"/>
-      <c r="M74" s="41"/>
-      <c r="N74" s="41"/>
-      <c r="O74" s="41"/>
-      <c r="P74" s="41"/>
-      <c r="Q74" s="41" t="str">
-        <f>IF(OR(L74="",P74=""),"",L74-2*P74)</f>
-        <v/>
-      </c>
-      <c r="R74" s="41" t="str">
-        <f>IF(OR(L74="",P74=""),"",L74+2*P74)</f>
+      <c r="M74" s="32"/>
+      <c r="N74" s="32"/>
+      <c r="O74" s="32"/>
+      <c r="P74" s="32"/>
+      <c r="Q74" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R74" s="32" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S74" s="4"/>
@@ -3953,16 +4019,16 @@
       <c r="J75" s="8"/>
       <c r="K75" s="4"/>
       <c r="L75" s="8"/>
-      <c r="M75" s="41"/>
-      <c r="N75" s="41"/>
-      <c r="O75" s="41"/>
-      <c r="P75" s="41"/>
-      <c r="Q75" s="41" t="str">
-        <f>IF(OR(L75="",P75=""),"",L75-2*P75)</f>
-        <v/>
-      </c>
-      <c r="R75" s="41" t="str">
-        <f>IF(OR(L75="",P75=""),"",L75+2*P75)</f>
+      <c r="M75" s="32"/>
+      <c r="N75" s="32"/>
+      <c r="O75" s="32"/>
+      <c r="P75" s="32"/>
+      <c r="Q75" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R75" s="32" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S75" s="4"/>
@@ -3988,16 +4054,16 @@
       <c r="J76" s="8"/>
       <c r="K76" s="4"/>
       <c r="L76" s="8"/>
-      <c r="M76" s="41"/>
-      <c r="N76" s="41"/>
-      <c r="O76" s="41"/>
-      <c r="P76" s="41"/>
-      <c r="Q76" s="41" t="str">
-        <f>IF(OR(L76="",P76=""),"",L76-2*P76)</f>
-        <v/>
-      </c>
-      <c r="R76" s="41" t="str">
-        <f>IF(OR(L76="",P76=""),"",L76+2*P76)</f>
+      <c r="M76" s="32"/>
+      <c r="N76" s="32"/>
+      <c r="O76" s="32"/>
+      <c r="P76" s="32"/>
+      <c r="Q76" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R76" s="32" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S76" s="4"/>
@@ -4023,16 +4089,16 @@
       <c r="J77" s="8"/>
       <c r="K77" s="4"/>
       <c r="L77" s="8"/>
-      <c r="M77" s="41"/>
-      <c r="N77" s="41"/>
-      <c r="O77" s="41"/>
-      <c r="P77" s="41"/>
-      <c r="Q77" s="41" t="str">
-        <f>IF(OR(L77="",P77=""),"",L77-2*P77)</f>
-        <v/>
-      </c>
-      <c r="R77" s="41" t="str">
-        <f>IF(OR(L77="",P77=""),"",L77+2*P77)</f>
+      <c r="M77" s="32"/>
+      <c r="N77" s="32"/>
+      <c r="O77" s="32"/>
+      <c r="P77" s="32"/>
+      <c r="Q77" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R77" s="32" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S77" s="4"/>
@@ -4058,16 +4124,16 @@
       <c r="J78" s="8"/>
       <c r="K78" s="4"/>
       <c r="L78" s="8"/>
-      <c r="M78" s="41"/>
-      <c r="N78" s="41"/>
-      <c r="O78" s="41"/>
-      <c r="P78" s="41"/>
-      <c r="Q78" s="41" t="str">
-        <f>IF(OR(L78="",P78=""),"",L78-2*P78)</f>
-        <v/>
-      </c>
-      <c r="R78" s="41" t="str">
-        <f>IF(OR(L78="",P78=""),"",L78+2*P78)</f>
+      <c r="M78" s="32"/>
+      <c r="N78" s="32"/>
+      <c r="O78" s="32"/>
+      <c r="P78" s="32"/>
+      <c r="Q78" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R78" s="32" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S78" s="4"/>
@@ -4093,16 +4159,16 @@
       <c r="J79" s="8"/>
       <c r="K79" s="4"/>
       <c r="L79" s="8"/>
-      <c r="M79" s="41"/>
-      <c r="N79" s="41"/>
-      <c r="O79" s="41"/>
-      <c r="P79" s="41"/>
-      <c r="Q79" s="41" t="str">
-        <f>IF(OR(L79="",P79=""),"",L79-2*P79)</f>
-        <v/>
-      </c>
-      <c r="R79" s="41" t="str">
-        <f>IF(OR(L79="",P79=""),"",L79+2*P79)</f>
+      <c r="M79" s="32"/>
+      <c r="N79" s="32"/>
+      <c r="O79" s="32"/>
+      <c r="P79" s="32"/>
+      <c r="Q79" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R79" s="32" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S79" s="4"/>
@@ -4128,16 +4194,16 @@
       <c r="J80" s="8"/>
       <c r="K80" s="4"/>
       <c r="L80" s="8"/>
-      <c r="M80" s="41"/>
-      <c r="N80" s="41"/>
-      <c r="O80" s="41"/>
-      <c r="P80" s="41"/>
-      <c r="Q80" s="41" t="str">
-        <f>IF(OR(L80="",P80=""),"",L80-2*P80)</f>
-        <v/>
-      </c>
-      <c r="R80" s="41" t="str">
-        <f>IF(OR(L80="",P80=""),"",L80+2*P80)</f>
+      <c r="M80" s="32"/>
+      <c r="N80" s="32"/>
+      <c r="O80" s="32"/>
+      <c r="P80" s="32"/>
+      <c r="Q80" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R80" s="32" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S80" s="4"/>
@@ -4163,16 +4229,16 @@
       <c r="J81" s="8"/>
       <c r="K81" s="4"/>
       <c r="L81" s="8"/>
-      <c r="M81" s="41"/>
-      <c r="N81" s="41"/>
-      <c r="O81" s="41"/>
-      <c r="P81" s="41"/>
-      <c r="Q81" s="41" t="str">
-        <f>IF(OR(L81="",P81=""),"",L81-2*P81)</f>
-        <v/>
-      </c>
-      <c r="R81" s="41" t="str">
-        <f>IF(OR(L81="",P81=""),"",L81+2*P81)</f>
+      <c r="M81" s="32"/>
+      <c r="N81" s="32"/>
+      <c r="O81" s="32"/>
+      <c r="P81" s="32"/>
+      <c r="Q81" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R81" s="32" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S81" s="4"/>
@@ -4198,16 +4264,16 @@
       <c r="J82" s="8"/>
       <c r="K82" s="4"/>
       <c r="L82" s="8"/>
-      <c r="M82" s="41"/>
-      <c r="N82" s="41"/>
-      <c r="O82" s="41"/>
-      <c r="P82" s="41"/>
-      <c r="Q82" s="41" t="str">
-        <f>IF(OR(L82="",P82=""),"",L82-2*P82)</f>
-        <v/>
-      </c>
-      <c r="R82" s="41" t="str">
-        <f>IF(OR(L82="",P82=""),"",L82+2*P82)</f>
+      <c r="M82" s="32"/>
+      <c r="N82" s="32"/>
+      <c r="O82" s="32"/>
+      <c r="P82" s="32"/>
+      <c r="Q82" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R82" s="32" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S82" s="4"/>
@@ -4233,16 +4299,16 @@
       <c r="J83" s="8"/>
       <c r="K83" s="4"/>
       <c r="L83" s="8"/>
-      <c r="M83" s="41"/>
-      <c r="N83" s="41"/>
-      <c r="O83" s="41"/>
-      <c r="P83" s="41"/>
-      <c r="Q83" s="41" t="str">
-        <f>IF(OR(L83="",P83=""),"",L83-2*P83)</f>
-        <v/>
-      </c>
-      <c r="R83" s="41" t="str">
-        <f>IF(OR(L83="",P83=""),"",L83+2*P83)</f>
+      <c r="M83" s="32"/>
+      <c r="N83" s="32"/>
+      <c r="O83" s="32"/>
+      <c r="P83" s="32"/>
+      <c r="Q83" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R83" s="32" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S83" s="4"/>
@@ -4268,16 +4334,16 @@
       <c r="J84" s="8"/>
       <c r="K84" s="4"/>
       <c r="L84" s="8"/>
-      <c r="M84" s="41"/>
-      <c r="N84" s="41"/>
-      <c r="O84" s="41"/>
-      <c r="P84" s="41"/>
-      <c r="Q84" s="41" t="str">
-        <f>IF(OR(L84="",P84=""),"",L84-2*P84)</f>
-        <v/>
-      </c>
-      <c r="R84" s="41" t="str">
-        <f>IF(OR(L84="",P84=""),"",L84+2*P84)</f>
+      <c r="M84" s="32"/>
+      <c r="N84" s="32"/>
+      <c r="O84" s="32"/>
+      <c r="P84" s="32"/>
+      <c r="Q84" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R84" s="32" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S84" s="4"/>
@@ -4303,15 +4369,12 @@
       <c r="J85" s="8"/>
       <c r="K85" s="4"/>
       <c r="L85" s="8"/>
-      <c r="M85" s="42"/>
-      <c r="N85" s="42"/>
-      <c r="O85" s="42"/>
-      <c r="Q85" s="41" t="str">
-        <f>IF(OR(L85="",P85=""),"",L85-2*P85)</f>
-        <v/>
-      </c>
-      <c r="R85" s="41" t="str">
-        <f>IF(OR(L85="",P85=""),"",L85+2*P85)</f>
+      <c r="Q85" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R85" s="32" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S85" s="4"/>
@@ -4337,16 +4400,16 @@
       <c r="J86" s="8"/>
       <c r="K86" s="4"/>
       <c r="L86" s="8"/>
-      <c r="M86" s="41"/>
-      <c r="N86" s="41"/>
-      <c r="O86" s="41"/>
-      <c r="P86" s="41"/>
-      <c r="Q86" s="41" t="str">
-        <f>IF(OR(L86="",P86=""),"",L86-2*P86)</f>
-        <v/>
-      </c>
-      <c r="R86" s="41" t="str">
-        <f>IF(OR(L86="",P86=""),"",L86+2*P86)</f>
+      <c r="M86" s="32"/>
+      <c r="N86" s="32"/>
+      <c r="O86" s="32"/>
+      <c r="P86" s="32"/>
+      <c r="Q86" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R86" s="32" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S86" s="4"/>
@@ -4372,16 +4435,16 @@
       <c r="J87" s="8"/>
       <c r="K87" s="4"/>
       <c r="L87" s="8"/>
-      <c r="M87" s="41"/>
-      <c r="N87" s="41"/>
-      <c r="O87" s="41"/>
-      <c r="P87" s="41"/>
-      <c r="Q87" s="41" t="str">
-        <f>IF(OR(L87="",P87=""),"",L87-2*P87)</f>
-        <v/>
-      </c>
-      <c r="R87" s="41" t="str">
-        <f>IF(OR(L87="",P87=""),"",L87+2*P87)</f>
+      <c r="M87" s="32"/>
+      <c r="N87" s="32"/>
+      <c r="O87" s="32"/>
+      <c r="P87" s="32"/>
+      <c r="Q87" s="32" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R87" s="32" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S87" s="4"/>
@@ -4417,42 +4480,42 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="14" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="14" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="14" t="s">
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="14" t="s">
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="16"/>
-      <c r="AA2" s="14" t="s">
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="45"/>
+      <c r="AA2" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="16"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="45"/>
     </row>
     <row r="3" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
@@ -4547,16 +4610,16 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="41">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -4643,10 +4706,10 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
@@ -4731,10 +4794,10 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
@@ -4823,41 +4886,41 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="14" t="s">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="14" t="s">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="14" t="s">
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="14" t="s">
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="16"/>
-      <c r="AA7" s="17" t="s">
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="45"/>
+      <c r="AA7" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
       <c r="AD7" s="13">
         <f>AVERAGE(I73, M73, Q73, U73, Y73)</f>
         <v>1.5016363636363637</v>
@@ -5201,36 +5264,36 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="14" t="s">
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="14" t="s">
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="14" t="s">
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="14" t="s">
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="16"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="45"/>
     </row>
     <row r="14" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E14" s="3" t="s">
@@ -5570,36 +5633,36 @@
       </c>
     </row>
     <row r="19" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="14" t="s">
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="14" t="s">
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="14" t="s">
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="14" t="s">
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="16"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="45"/>
     </row>
     <row r="20" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E20" s="3" t="s">
@@ -5939,36 +6002,36 @@
       </c>
     </row>
     <row r="25" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="14" t="s">
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="14" t="s">
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="14" t="s">
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="14" t="s">
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="16"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="45"/>
     </row>
     <row r="26" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E26" s="3" t="s">
@@ -6310,36 +6373,36 @@
       </c>
     </row>
     <row r="31" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="14" t="s">
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="14" t="s">
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="14" t="s">
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="14" t="s">
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="16"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="45"/>
     </row>
     <row r="32" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E32" s="3" t="s">
@@ -6679,36 +6742,36 @@
       </c>
     </row>
     <row r="37" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="14" t="s">
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="14" t="s">
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="14" t="s">
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="14" t="s">
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="W37" s="15"/>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="16"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="45"/>
     </row>
     <row r="38" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E38" s="3" t="s">
@@ -7048,36 +7111,36 @@
       </c>
     </row>
     <row r="43" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="14" t="s">
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="14" t="s">
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="14" t="s">
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="14" t="s">
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="W43" s="15"/>
-      <c r="X43" s="15"/>
-      <c r="Y43" s="16"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="45"/>
     </row>
     <row r="44" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E44" s="3" t="s">
@@ -7417,36 +7480,36 @@
       </c>
     </row>
     <row r="49" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="14" t="s">
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="14" t="s">
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="14" t="s">
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="S49" s="15"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="16"/>
-      <c r="V49" s="14" t="s">
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="W49" s="15"/>
-      <c r="X49" s="15"/>
-      <c r="Y49" s="16"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="44"/>
+      <c r="Y49" s="45"/>
     </row>
     <row r="50" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E50" s="3" t="s">
@@ -7786,36 +7849,36 @@
       </c>
     </row>
     <row r="55" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F55" s="14" t="s">
+      <c r="F55" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="14" t="s">
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="14" t="s">
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="14" t="s">
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="45"/>
+      <c r="R55" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="S55" s="15"/>
-      <c r="T55" s="15"/>
-      <c r="U55" s="16"/>
-      <c r="V55" s="14" t="s">
+      <c r="S55" s="44"/>
+      <c r="T55" s="44"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="W55" s="15"/>
-      <c r="X55" s="15"/>
-      <c r="Y55" s="16"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="44"/>
+      <c r="Y55" s="45"/>
     </row>
     <row r="56" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E56" s="3" t="s">
@@ -8155,36 +8218,36 @@
       </c>
     </row>
     <row r="61" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F61" s="14" t="s">
+      <c r="F61" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="14" t="s">
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="14" t="s">
+      <c r="K61" s="44"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="14" t="s">
+      <c r="O61" s="44"/>
+      <c r="P61" s="44"/>
+      <c r="Q61" s="45"/>
+      <c r="R61" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="S61" s="15"/>
-      <c r="T61" s="15"/>
-      <c r="U61" s="16"/>
-      <c r="V61" s="14" t="s">
+      <c r="S61" s="44"/>
+      <c r="T61" s="44"/>
+      <c r="U61" s="45"/>
+      <c r="V61" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="W61" s="15"/>
-      <c r="X61" s="15"/>
-      <c r="Y61" s="16"/>
+      <c r="W61" s="44"/>
+      <c r="X61" s="44"/>
+      <c r="Y61" s="45"/>
     </row>
     <row r="62" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E62" s="3" t="s">
@@ -8524,36 +8587,36 @@
       </c>
     </row>
     <row r="67" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F67" s="14" t="s">
+      <c r="F67" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="14" t="s">
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="14" t="s">
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="45"/>
+      <c r="N67" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="14" t="s">
+      <c r="O67" s="44"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="45"/>
+      <c r="R67" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="S67" s="15"/>
-      <c r="T67" s="15"/>
-      <c r="U67" s="16"/>
-      <c r="V67" s="14" t="s">
+      <c r="S67" s="44"/>
+      <c r="T67" s="44"/>
+      <c r="U67" s="45"/>
+      <c r="V67" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="15"/>
-      <c r="X67" s="15"/>
-      <c r="Y67" s="16"/>
+      <c r="W67" s="44"/>
+      <c r="X67" s="44"/>
+      <c r="Y67" s="45"/>
     </row>
     <row r="68" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E68" s="3" t="s">
@@ -8973,16 +9036,36 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="V55:Y55"/>
+    <mergeCell ref="V61:Y61"/>
+    <mergeCell ref="V67:Y67"/>
+    <mergeCell ref="R43:U43"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="R61:U61"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N55:Q55"/>
     <mergeCell ref="F55:I55"/>
     <mergeCell ref="F61:I61"/>
     <mergeCell ref="F67:I67"/>
@@ -8998,47 +9081,27 @@
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="F37:I37"/>
     <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="F49:I49"/>
     <mergeCell ref="N7:Q7"/>
     <mergeCell ref="N13:Q13"/>
     <mergeCell ref="N19:Q19"/>
     <mergeCell ref="N25:Q25"/>
     <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J67:M67"/>
     <mergeCell ref="R37:U37"/>
     <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N55:Q55"/>
     <mergeCell ref="R7:U7"/>
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="R25:U25"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="V55:Y55"/>
-    <mergeCell ref="V61:Y61"/>
-    <mergeCell ref="V67:Y67"/>
-    <mergeCell ref="R43:U43"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="R61:U61"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC1668F-5ED2-401B-990D-D1489E79C1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB88D80-5688-4DF4-AC3F-9F8E9ACFB006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="111">
   <si>
     <t>Results</t>
   </si>
@@ -330,6 +330,36 @@
   </si>
   <si>
     <t>[0.05725911632180214, 0.05964706838130951, 0.07230478525161743, 0.07220066338777542, 0.05942148342728615]</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>[0.05505802482366562, 0.05934920534491539, 0.06947251409292221, 0.06619785726070404, 0.05632748454809189]</t>
+  </si>
+  <si>
+    <t>[0.05669056996703148, 0.05820545181632042, 0.07106347382068634, 0.06844878941774368, 0.057772889733314514]</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>[0.05110745504498482, 0.059719596058130264, 0.06309927254915237, 0.07233674824237823, 0.05436030402779579]</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>[0.04081575199961662, 0.0424196831882, 0.052468132227659225, 0.06192908436059952, 0.04526304081082344]</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>[0.03847917914390564, 0.043218716979026794, 0.055227283388376236, 0.06213202327489853, 0.04800330102443695]</t>
   </si>
 </sst>
 </file>
@@ -795,12 +825,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -808,6 +832,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1255,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E205C6-75C9-4A48-9727-53AED497EF04}">
   <dimension ref="A1:S88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1993,26 +2023,44 @@
       <c r="E24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="8"/>
+      <c r="F24" s="8">
+        <v>5.7985701700996803E-2</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.23046020141211099</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L24" s="8">
+        <v>4.9412100762128798E-2</v>
+      </c>
       <c r="M24" s="32"/>
       <c r="N24" s="32"/>
       <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32" t="str">
+      <c r="P24" s="32">
+        <v>8.4318950681729794E-3</v>
+      </c>
+      <c r="Q24" s="32">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R24" s="32" t="str">
+        <v>3.2548310625782839E-2</v>
+      </c>
+      <c r="R24" s="32">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S24" s="30"/>
+        <v>6.6275890898474757E-2</v>
+      </c>
+      <c r="S24" s="30" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="25" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
@@ -3566,27 +3614,47 @@
       <c r="D64" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="8"/>
+      <c r="E64" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="8">
+        <v>0.19234474220376699</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" s="8">
+        <v>0.38382301488750498</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L64" s="8">
+        <v>4.8579138517379702E-2</v>
+      </c>
       <c r="M64" s="32"/>
       <c r="N64" s="32"/>
       <c r="O64" s="32"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="32" t="str">
+      <c r="P64" s="32">
+        <v>7.7788288356444597E-3</v>
+      </c>
+      <c r="Q64" s="32">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R64" s="32" t="str">
+        <v>3.3021480846090787E-2</v>
+      </c>
+      <c r="R64" s="32">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S64" s="4"/>
+        <v>6.4136796188668618E-2</v>
+      </c>
+      <c r="S64" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="65" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
@@ -3919,7 +3987,7 @@
       <c r="O72" s="32"/>
       <c r="P72" s="32"/>
       <c r="Q72" s="32" t="str">
-        <f t="shared" ref="Q72:Q103" si="4">IF(OR(L72="",P72=""),"",L72-2*P72)</f>
+        <f t="shared" ref="Q72:Q87" si="4">IF(OR(L72="",P72=""),"",L72-2*P72)</f>
         <v/>
       </c>
       <c r="R72" s="32" t="str">
@@ -4326,27 +4394,47 @@
       <c r="D84" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="8"/>
+      <c r="E84" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" s="8">
+        <v>2.5800768317241702E-3</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J84" s="8">
+        <v>0.362684286718711</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L84" s="8">
+        <v>6.0124675184488198E-2</v>
+      </c>
       <c r="M84" s="32"/>
       <c r="N84" s="32"/>
       <c r="O84" s="32"/>
-      <c r="P84" s="32"/>
-      <c r="Q84" s="32" t="str">
+      <c r="P84" s="32">
+        <v>7.3849208638697601E-3</v>
+      </c>
+      <c r="Q84" s="32">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R84" s="32" t="str">
+        <v>4.5354833456748678E-2</v>
+      </c>
+      <c r="R84" s="32">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S84" s="4"/>
+        <v>7.4894516912227718E-2</v>
+      </c>
+      <c r="S84" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="85" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" s="4" t="s">
@@ -4361,23 +4449,47 @@
       <c r="D85" s="4">
         <v>60</v>
       </c>
-      <c r="E85" s="4"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="8"/>
-      <c r="Q85" s="32" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R85" s="32" t="str">
+      <c r="E85" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85" s="8">
+        <v>0.29999887991116397</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" s="8">
+        <v>0.36944959061462002</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L85" s="8">
+        <v>6.1281017214059798E-2</v>
+      </c>
+      <c r="M85" s="32"/>
+      <c r="N85" s="32"/>
+      <c r="O85" s="32"/>
+      <c r="P85" s="32">
+        <v>5.6262057271695802E-3</v>
+      </c>
+      <c r="Q85" s="32">
+        <f t="shared" ref="Q85" si="6">IF(OR(L85="",P85=""),"",L85-2*P85)</f>
+        <v>5.0028605759720637E-2</v>
+      </c>
+      <c r="R85" s="32">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S85" s="4"/>
+        <v>7.2533428668398958E-2</v>
+      </c>
+      <c r="S85" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="86" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86" s="4" t="s">
@@ -4392,27 +4504,47 @@
       <c r="D86" s="4">
         <v>60</v>
       </c>
-      <c r="E86" s="4"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="8"/>
+      <c r="E86" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" s="8">
+        <v>0.28287453942324098</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" s="8">
+        <v>0.28163213752842198</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L86" s="8">
+        <v>6.2436234951019201E-2</v>
+      </c>
       <c r="M86" s="32"/>
       <c r="N86" s="32"/>
       <c r="O86" s="32"/>
-      <c r="P86" s="32"/>
-      <c r="Q86" s="32" t="str">
+      <c r="P86" s="32">
+        <v>6.0537433442488702E-3</v>
+      </c>
+      <c r="Q86" s="32">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R86" s="32" t="str">
+        <v>5.0328748262521462E-2</v>
+      </c>
+      <c r="R86" s="32">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S86" s="4"/>
+        <v>7.4543721639516947E-2</v>
+      </c>
+      <c r="S86" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="87" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87" s="4" t="s">
@@ -4480,42 +4612,42 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="43" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="43" t="s">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="43" t="s">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="43" t="s">
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="45"/>
-      <c r="AA2" s="43" t="s">
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="43"/>
+      <c r="AA2" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="45"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="43"/>
     </row>
     <row r="3" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
@@ -4610,16 +4742,16 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="45">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -4706,10 +4838,10 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
@@ -4794,10 +4926,10 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
@@ -4886,41 +5018,41 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="43" t="s">
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="43" t="s">
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="43" t="s">
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="43" t="s">
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="45"/>
-      <c r="AA7" s="42" t="s">
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="43"/>
+      <c r="AA7" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
       <c r="AD7" s="13">
         <f>AVERAGE(I73, M73, Q73, U73, Y73)</f>
         <v>1.5016363636363637</v>
@@ -5264,36 +5396,36 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="43" t="s">
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="43" t="s">
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="43" t="s">
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="43" t="s">
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="45"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="43"/>
     </row>
     <row r="14" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E14" s="3" t="s">
@@ -5633,36 +5765,36 @@
       </c>
     </row>
     <row r="19" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="43" t="s">
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="43" t="s">
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="43" t="s">
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="43" t="s">
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="45"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="43"/>
     </row>
     <row r="20" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E20" s="3" t="s">
@@ -6002,36 +6134,36 @@
       </c>
     </row>
     <row r="25" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="43" t="s">
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="43" t="s">
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="43" t="s">
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="43" t="s">
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="45"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="43"/>
     </row>
     <row r="26" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E26" s="3" t="s">
@@ -6373,36 +6505,36 @@
       </c>
     </row>
     <row r="31" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="43" t="s">
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="43" t="s">
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="43" t="s">
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="43" t="s">
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="45"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="43"/>
     </row>
     <row r="32" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E32" s="3" t="s">
@@ -6742,36 +6874,36 @@
       </c>
     </row>
     <row r="37" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="43" t="s">
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="43" t="s">
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="43" t="s">
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="S37" s="44"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="43" t="s">
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="W37" s="44"/>
-      <c r="X37" s="44"/>
-      <c r="Y37" s="45"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="43"/>
     </row>
     <row r="38" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E38" s="3" t="s">
@@ -7111,36 +7243,36 @@
       </c>
     </row>
     <row r="43" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F43" s="43" t="s">
+      <c r="F43" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="43" t="s">
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="43" t="s">
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="43" t="s">
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="43" t="s">
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="W43" s="44"/>
-      <c r="X43" s="44"/>
-      <c r="Y43" s="45"/>
+      <c r="W43" s="42"/>
+      <c r="X43" s="42"/>
+      <c r="Y43" s="43"/>
     </row>
     <row r="44" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E44" s="3" t="s">
@@ -7480,36 +7612,36 @@
       </c>
     </row>
     <row r="49" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F49" s="43" t="s">
+      <c r="F49" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="43" t="s">
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="K49" s="44"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="43" t="s">
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="O49" s="44"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="43" t="s">
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="S49" s="44"/>
-      <c r="T49" s="44"/>
-      <c r="U49" s="45"/>
-      <c r="V49" s="43" t="s">
+      <c r="S49" s="42"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="W49" s="44"/>
-      <c r="X49" s="44"/>
-      <c r="Y49" s="45"/>
+      <c r="W49" s="42"/>
+      <c r="X49" s="42"/>
+      <c r="Y49" s="43"/>
     </row>
     <row r="50" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E50" s="3" t="s">
@@ -7849,36 +7981,36 @@
       </c>
     </row>
     <row r="55" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F55" s="43" t="s">
+      <c r="F55" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="43" t="s">
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="K55" s="44"/>
-      <c r="L55" s="44"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="43" t="s">
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="O55" s="44"/>
-      <c r="P55" s="44"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="43" t="s">
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="S55" s="44"/>
-      <c r="T55" s="44"/>
-      <c r="U55" s="45"/>
-      <c r="V55" s="43" t="s">
+      <c r="S55" s="42"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="W55" s="44"/>
-      <c r="X55" s="44"/>
-      <c r="Y55" s="45"/>
+      <c r="W55" s="42"/>
+      <c r="X55" s="42"/>
+      <c r="Y55" s="43"/>
     </row>
     <row r="56" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E56" s="3" t="s">
@@ -8218,36 +8350,36 @@
       </c>
     </row>
     <row r="61" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F61" s="43" t="s">
+      <c r="F61" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="43" t="s">
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="K61" s="44"/>
-      <c r="L61" s="44"/>
-      <c r="M61" s="45"/>
-      <c r="N61" s="43" t="s">
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="O61" s="44"/>
-      <c r="P61" s="44"/>
-      <c r="Q61" s="45"/>
-      <c r="R61" s="43" t="s">
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="43"/>
+      <c r="R61" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="S61" s="44"/>
-      <c r="T61" s="44"/>
-      <c r="U61" s="45"/>
-      <c r="V61" s="43" t="s">
+      <c r="S61" s="42"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="43"/>
+      <c r="V61" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="W61" s="44"/>
-      <c r="X61" s="44"/>
-      <c r="Y61" s="45"/>
+      <c r="W61" s="42"/>
+      <c r="X61" s="42"/>
+      <c r="Y61" s="43"/>
     </row>
     <row r="62" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E62" s="3" t="s">
@@ -8587,36 +8719,36 @@
       </c>
     </row>
     <row r="67" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F67" s="43" t="s">
+      <c r="F67" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="43" t="s">
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="K67" s="44"/>
-      <c r="L67" s="44"/>
-      <c r="M67" s="45"/>
-      <c r="N67" s="43" t="s">
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="O67" s="44"/>
-      <c r="P67" s="44"/>
-      <c r="Q67" s="45"/>
-      <c r="R67" s="43" t="s">
+      <c r="O67" s="42"/>
+      <c r="P67" s="42"/>
+      <c r="Q67" s="43"/>
+      <c r="R67" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="S67" s="44"/>
-      <c r="T67" s="44"/>
-      <c r="U67" s="45"/>
-      <c r="V67" s="43" t="s">
+      <c r="S67" s="42"/>
+      <c r="T67" s="42"/>
+      <c r="U67" s="43"/>
+      <c r="V67" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="44"/>
-      <c r="X67" s="44"/>
-      <c r="Y67" s="45"/>
+      <c r="W67" s="42"/>
+      <c r="X67" s="42"/>
+      <c r="Y67" s="43"/>
     </row>
     <row r="68" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E68" s="3" t="s">
@@ -9036,51 +9168,11 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="V55:Y55"/>
-    <mergeCell ref="V61:Y61"/>
-    <mergeCell ref="V67:Y67"/>
-    <mergeCell ref="R43:U43"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="R61:U61"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
@@ -9097,11 +9189,51 @@
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="R25:U25"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="V55:Y55"/>
+    <mergeCell ref="V61:Y61"/>
+    <mergeCell ref="V67:Y67"/>
+    <mergeCell ref="R43:U43"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="R61:U61"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="V2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB88D80-5688-4DF4-AC3F-9F8E9ACFB006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428B49C2-1AB3-4EB5-A64F-755D6AEAF56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="119">
   <si>
     <t>Results</t>
   </si>
@@ -360,6 +360,30 @@
   </si>
   <si>
     <t>[0.03847917914390564, 0.043218716979026794, 0.055227283388376236, 0.06213202327489853, 0.04800330102443695]</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>[0.05739310756325722, 0.06071412190794945, 0.07280246168375015, 0.07271604984998703, 0.057159747928380966]</t>
+  </si>
+  <si>
+    <t>[0.018034348264336586, 0.023353051394224167, 0.02859247475862503, 0.03425142541527748, 0.01903075911104679]</t>
+  </si>
+  <si>
+    <t>[0.0355488546192646, 0.031698182225227356, 0.05592479929327965, 0.0423433892428875, 0.046196676790714264]</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>[0.031347401440143585, 0.03457336872816086, 0.05158032476902008, 0.03897654637694359, 0.04255129024386406]</t>
+  </si>
+  <si>
+    <t>[0.015520330518484116, 0.01797584816813469, 0.018809670582413673, 0.022205613553524017, 0.010675263591110706]</t>
+  </si>
+  <si>
+    <t>[0.030682526528835297, 0.03892310708761215, 0.04652285575866699, 0.0381121002137661, 0.036519937217235565]</t>
   </si>
 </sst>
 </file>
@@ -1285,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E205C6-75C9-4A48-9727-53AED497EF04}">
   <dimension ref="A1:S88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="D55" workbookViewId="0">
+      <selection activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2354,26 +2378,44 @@
       <c r="E31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="8"/>
+      <c r="F31" s="8">
+        <v>3.9132699815151897E-2</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0.30465317720917501</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L31" s="8">
+        <v>2.4652411788701999E-2</v>
+      </c>
       <c r="M31" s="32"/>
       <c r="N31" s="32"/>
       <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32" t="str">
+      <c r="P31" s="32">
+        <v>6.0787373670130197E-3</v>
+      </c>
+      <c r="Q31" s="32">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R31" s="32" t="str">
+        <v>1.2494937054675959E-2</v>
+      </c>
+      <c r="R31" s="32">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S31" s="4"/>
+        <v>3.6809886522728041E-2</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="32" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
@@ -2391,26 +2433,44 @@
       <c r="E32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="8"/>
+      <c r="F32" s="8">
+        <v>3.8962408965099401E-3</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="8">
+        <v>0.160233512133126</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L32" s="8">
+        <v>4.2342380434274601E-2</v>
+      </c>
       <c r="M32" s="32"/>
       <c r="N32" s="32"/>
       <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32" t="str">
+      <c r="P32" s="32">
+        <v>8.4709934717848295E-3</v>
+      </c>
+      <c r="Q32" s="32">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R32" s="32" t="str">
+        <v>2.5400393490704942E-2</v>
+      </c>
+      <c r="R32" s="32">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S32" s="4"/>
+        <v>5.928436737784426E-2</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="33" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
@@ -3000,26 +3060,44 @@
       <c r="E47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="8"/>
+      <c r="F47" s="8">
+        <v>9.8251916040185502E-2</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J47" s="8">
+        <v>0.334652561931301</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L47" s="8">
+        <v>6.4157097786664896E-2</v>
+      </c>
       <c r="M47" s="32"/>
       <c r="N47" s="32"/>
       <c r="O47" s="32"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32" t="str">
+      <c r="P47" s="32">
+        <v>7.1353560390252204E-3</v>
+      </c>
+      <c r="Q47" s="32">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R47" s="32" t="str">
+        <v>4.9886385708614457E-2</v>
+      </c>
+      <c r="R47" s="32">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S47" s="4"/>
+        <v>7.8427809864715342E-2</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="48" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
@@ -3939,27 +4017,47 @@
       <c r="D71" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="8"/>
+      <c r="E71" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F71" s="8">
+        <v>1.0070430958316E-3</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J71" s="8">
+        <v>0.28840183199670999</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L71" s="8">
+        <v>1.7037345282733402E-2</v>
+      </c>
       <c r="M71" s="32"/>
       <c r="N71" s="32"/>
       <c r="O71" s="32"/>
-      <c r="P71" s="32"/>
-      <c r="Q71" s="32" t="str">
+      <c r="P71" s="32">
+        <v>3.8343275498706501E-3</v>
+      </c>
+      <c r="Q71" s="32">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R71" s="32" t="str">
+        <v>9.3686901829921013E-3</v>
+      </c>
+      <c r="R71" s="32">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S71" s="4"/>
+        <v>2.4706000382474703E-2</v>
+      </c>
+      <c r="S71" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="72" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="4" t="s">
@@ -3974,27 +4072,47 @@
       <c r="D72" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="8"/>
+      <c r="E72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="8">
+        <v>2.73040792261144E-2</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J72" s="8">
+        <v>0.31826102039211901</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L72" s="8">
+        <v>3.9805786311626401E-2</v>
+      </c>
       <c r="M72" s="32"/>
       <c r="N72" s="32"/>
       <c r="O72" s="32"/>
-      <c r="P72" s="32"/>
-      <c r="Q72" s="32" t="str">
+      <c r="P72" s="32">
+        <v>7.01124318502413E-3</v>
+      </c>
+      <c r="Q72" s="32">
         <f t="shared" ref="Q72:Q87" si="4">IF(OR(L72="",P72=""),"",L72-2*P72)</f>
-        <v/>
-      </c>
-      <c r="R72" s="32" t="str">
+        <v>2.5783299941578141E-2</v>
+      </c>
+      <c r="R72" s="32">
         <f t="shared" ref="R72:R87" si="5">IF(OR(L72="",P72=""),"",L72+2*P72)</f>
-        <v/>
-      </c>
-      <c r="S72" s="4"/>
+        <v>5.3828272681674658E-2</v>
+      </c>
+      <c r="S72" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="73" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A73" s="4" t="s">
@@ -4559,27 +4677,47 @@
       <c r="D87" s="4">
         <v>60</v>
       </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="8"/>
+      <c r="E87" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87" s="8">
+        <v>2.0251169132599199E-3</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" s="8">
+        <v>0.140422682361351</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L87" s="8">
+        <v>3.8152105361223203E-2</v>
+      </c>
       <c r="M87" s="32"/>
       <c r="N87" s="32"/>
       <c r="O87" s="32"/>
-      <c r="P87" s="32"/>
-      <c r="Q87" s="32" t="str">
+      <c r="P87" s="32">
+        <v>5.0818124143602204E-3</v>
+      </c>
+      <c r="Q87" s="32">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R87" s="32" t="str">
+        <v>2.798848053250276E-2</v>
+      </c>
+      <c r="R87" s="32">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S87" s="4"/>
+        <v>4.8315730189943645E-2</v>
+      </c>
+      <c r="S87" s="4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="88" spans="1:19" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428B49C2-1AB3-4EB5-A64F-755D6AEAF56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFEEB1F-83D3-497A-8820-CB24D21B633F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="127">
   <si>
     <t>Results</t>
   </si>
@@ -384,6 +384,30 @@
   </si>
   <si>
     <t>[0.030682526528835297, 0.03892310708761215, 0.04652285575866699, 0.0381121002137661, 0.036519937217235565]</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>[0.03845223784446716, 0.030965564772486687, 0.0552881620824337, 0.04446757212281227, 0.044571418315172195]</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>[0.020267844200134277, 0.023960592225193977, 0.02931263856589794, 0.02564370073378086, 0.01533429604023695]</t>
+  </si>
+  <si>
+    <t>[0.019478702917695045, 0.016790831461548805, 0.02690994180738926, 0.019347088411450386, 0.01761457324028015]</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>[0.025561029091477394, 0.02195162884891033, 0.030603773891925812, 0.041333138942718506, 0.026808105409145355]</t>
+  </si>
+  <si>
+    <t>[0.019434910267591476, 0.01600170135498047, 0.019337212666869164, 0.014177422970533371, 0.015586388297379017]</t>
   </si>
 </sst>
 </file>
@@ -849,6 +873,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -856,12 +886,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1309,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E205C6-75C9-4A48-9727-53AED497EF04}">
   <dimension ref="A1:S88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D55" workbookViewId="0">
-      <selection activeCell="L87" sqref="L87"/>
+    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1328,7 +1352,8 @@
     <col min="12" max="12" width="12.1328125" style="31" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="12.1328125" style="31" customWidth="1"/>
     <col min="16" max="16" width="8.73046875" style="31" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.19921875" style="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.19921875" style="31" customWidth="1"/>
+    <col min="18" max="18" width="8.19921875" style="31" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="103.53125" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.06640625" style="29"/>
   </cols>
@@ -1566,26 +1591,44 @@
       <c r="E11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="8"/>
+      <c r="F11" s="8">
+        <v>6.4232706167529297E-2</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.179035098736608</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" s="8">
+        <v>2.9251535236835401E-2</v>
+      </c>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
       <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32" t="str">
+      <c r="P11" s="32">
+        <v>6.6433803999254599E-3</v>
+      </c>
+      <c r="Q11" s="32">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R11" s="32" t="str">
+        <v>1.5964774436984481E-2</v>
+      </c>
+      <c r="R11" s="32">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S11" s="4"/>
+        <v>4.2538296036686324E-2</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
@@ -2562,26 +2605,44 @@
       <c r="E35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="8"/>
+      <c r="F35" s="8">
+        <v>1.6633295660330599E-3</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0.10094815217775099</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L35" s="8">
+        <v>4.2748991027474398E-2</v>
+      </c>
       <c r="M35" s="32"/>
       <c r="N35" s="32"/>
       <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32" t="str">
+      <c r="P35" s="8">
+        <v>8.0102034327243395E-3</v>
+      </c>
+      <c r="Q35" s="32">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R35" s="32" t="str">
+        <v>2.6728584162025719E-2</v>
+      </c>
+      <c r="R35" s="32">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S35" s="4"/>
+        <v>5.8769397892923077E-2</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="36" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
@@ -3237,27 +3298,47 @@
       <c r="D51" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="8"/>
+      <c r="E51" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="8">
+        <v>1.97547047397581E-3</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="8">
+        <v>0.14699913488704899</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L51" s="8">
+        <v>1.6907527111470699E-2</v>
+      </c>
       <c r="M51" s="32"/>
       <c r="N51" s="32"/>
       <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="32" t="str">
+      <c r="P51" s="32">
+        <v>2.1123652242705901E-3</v>
+      </c>
+      <c r="Q51" s="32">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R51" s="32" t="str">
+        <v>1.268279666292952E-2</v>
+      </c>
+      <c r="R51" s="32">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S51" s="4"/>
+        <v>2.1132257560011879E-2</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="52" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
@@ -4127,27 +4208,47 @@
       <c r="D73" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="8"/>
+      <c r="E73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="8">
+        <v>1.4499068387407001E-3</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" s="8">
+        <v>0.26802352848095301</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L73" s="8">
+        <v>2.29038143530488E-2</v>
+      </c>
       <c r="M73" s="32"/>
       <c r="N73" s="32"/>
       <c r="O73" s="32"/>
-      <c r="P73" s="32"/>
-      <c r="Q73" s="32" t="str">
+      <c r="P73" s="32">
+        <v>4.7737350319561698E-3</v>
+      </c>
+      <c r="Q73" s="32">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R73" s="32" t="str">
+        <v>1.335634428913646E-2</v>
+      </c>
+      <c r="R73" s="32">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S73" s="4"/>
+        <v>3.2451284416961143E-2</v>
+      </c>
+      <c r="S73" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="74" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
@@ -4162,27 +4263,47 @@
       <c r="D74" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="8"/>
+      <c r="E74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="8">
+        <v>1.21569007020592E-3</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J74" s="8">
+        <v>0.127159229722001</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L74" s="8">
+        <v>2.00282275676727E-2</v>
+      </c>
       <c r="M74" s="32"/>
       <c r="N74" s="32"/>
       <c r="O74" s="32"/>
-      <c r="P74" s="32"/>
-      <c r="Q74" s="32" t="str">
+      <c r="P74" s="32">
+        <v>3.5897180816403E-3</v>
+      </c>
+      <c r="Q74" s="32">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R74" s="32" t="str">
+        <v>1.28487914043921E-2</v>
+      </c>
+      <c r="R74" s="32">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S74" s="4"/>
+        <v>2.7207663730953298E-2</v>
+      </c>
+      <c r="S74" s="4" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="75" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
@@ -4750,42 +4871,42 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="41" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="41" t="s">
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="41" t="s">
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="43"/>
-      <c r="AA2" s="41" t="s">
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="45"/>
+      <c r="AA2" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="43"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="45"/>
     </row>
     <row r="3" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
@@ -4880,16 +5001,16 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="41">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -4976,10 +5097,10 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
@@ -5064,10 +5185,10 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
@@ -5156,41 +5277,41 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="41" t="s">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="41" t="s">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="41" t="s">
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="41" t="s">
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="43"/>
-      <c r="AA7" s="44" t="s">
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="45"/>
+      <c r="AA7" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
       <c r="AD7" s="13">
         <f>AVERAGE(I73, M73, Q73, U73, Y73)</f>
         <v>1.5016363636363637</v>
@@ -5534,36 +5655,36 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="41" t="s">
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="41" t="s">
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="41" t="s">
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="41" t="s">
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="43"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="45"/>
     </row>
     <row r="14" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E14" s="3" t="s">
@@ -5903,36 +6024,36 @@
       </c>
     </row>
     <row r="19" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="41" t="s">
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="41" t="s">
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="41" t="s">
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="41" t="s">
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="43"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="45"/>
     </row>
     <row r="20" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E20" s="3" t="s">
@@ -6272,36 +6393,36 @@
       </c>
     </row>
     <row r="25" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="41" t="s">
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="41" t="s">
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="41" t="s">
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="41" t="s">
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="43"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="45"/>
     </row>
     <row r="26" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E26" s="3" t="s">
@@ -6643,36 +6764,36 @@
       </c>
     </row>
     <row r="31" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="41" t="s">
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="41" t="s">
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="41" t="s">
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="41" t="s">
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="43"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="45"/>
     </row>
     <row r="32" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E32" s="3" t="s">
@@ -7012,36 +7133,36 @@
       </c>
     </row>
     <row r="37" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F37" s="41" t="s">
+      <c r="F37" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="41" t="s">
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="41" t="s">
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="41" t="s">
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="41" t="s">
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="43"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="45"/>
     </row>
     <row r="38" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E38" s="3" t="s">
@@ -7381,36 +7502,36 @@
       </c>
     </row>
     <row r="43" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F43" s="41" t="s">
+      <c r="F43" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="41" t="s">
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="41" t="s">
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="41" t="s">
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="S43" s="42"/>
-      <c r="T43" s="42"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="41" t="s">
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="W43" s="42"/>
-      <c r="X43" s="42"/>
-      <c r="Y43" s="43"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="45"/>
     </row>
     <row r="44" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E44" s="3" t="s">
@@ -7750,36 +7871,36 @@
       </c>
     </row>
     <row r="49" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F49" s="41" t="s">
+      <c r="F49" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="41" t="s">
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="41" t="s">
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="O49" s="42"/>
-      <c r="P49" s="42"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="41" t="s">
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="S49" s="42"/>
-      <c r="T49" s="42"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="41" t="s">
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="W49" s="42"/>
-      <c r="X49" s="42"/>
-      <c r="Y49" s="43"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="44"/>
+      <c r="Y49" s="45"/>
     </row>
     <row r="50" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E50" s="3" t="s">
@@ -8119,36 +8240,36 @@
       </c>
     </row>
     <row r="55" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F55" s="41" t="s">
+      <c r="F55" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="41" t="s">
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="41" t="s">
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="O55" s="42"/>
-      <c r="P55" s="42"/>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="41" t="s">
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="45"/>
+      <c r="R55" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="S55" s="42"/>
-      <c r="T55" s="42"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="41" t="s">
+      <c r="S55" s="44"/>
+      <c r="T55" s="44"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="W55" s="42"/>
-      <c r="X55" s="42"/>
-      <c r="Y55" s="43"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="44"/>
+      <c r="Y55" s="45"/>
     </row>
     <row r="56" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E56" s="3" t="s">
@@ -8488,36 +8609,36 @@
       </c>
     </row>
     <row r="61" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F61" s="41" t="s">
+      <c r="F61" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="41" t="s">
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="43"/>
-      <c r="N61" s="41" t="s">
+      <c r="K61" s="44"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
-      <c r="Q61" s="43"/>
-      <c r="R61" s="41" t="s">
+      <c r="O61" s="44"/>
+      <c r="P61" s="44"/>
+      <c r="Q61" s="45"/>
+      <c r="R61" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="S61" s="42"/>
-      <c r="T61" s="42"/>
-      <c r="U61" s="43"/>
-      <c r="V61" s="41" t="s">
+      <c r="S61" s="44"/>
+      <c r="T61" s="44"/>
+      <c r="U61" s="45"/>
+      <c r="V61" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="W61" s="42"/>
-      <c r="X61" s="42"/>
-      <c r="Y61" s="43"/>
+      <c r="W61" s="44"/>
+      <c r="X61" s="44"/>
+      <c r="Y61" s="45"/>
     </row>
     <row r="62" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E62" s="3" t="s">
@@ -8857,36 +8978,36 @@
       </c>
     </row>
     <row r="67" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F67" s="41" t="s">
+      <c r="F67" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="41" t="s">
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="K67" s="42"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="43"/>
-      <c r="N67" s="41" t="s">
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="45"/>
+      <c r="N67" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="O67" s="42"/>
-      <c r="P67" s="42"/>
-      <c r="Q67" s="43"/>
-      <c r="R67" s="41" t="s">
+      <c r="O67" s="44"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="45"/>
+      <c r="R67" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="S67" s="42"/>
-      <c r="T67" s="42"/>
-      <c r="U67" s="43"/>
-      <c r="V67" s="41" t="s">
+      <c r="S67" s="44"/>
+      <c r="T67" s="44"/>
+      <c r="U67" s="45"/>
+      <c r="V67" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="42"/>
-      <c r="X67" s="42"/>
-      <c r="Y67" s="43"/>
+      <c r="W67" s="44"/>
+      <c r="X67" s="44"/>
+      <c r="Y67" s="45"/>
     </row>
     <row r="68" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E68" s="3" t="s">
@@ -9306,11 +9427,51 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="V55:Y55"/>
+    <mergeCell ref="V61:Y61"/>
+    <mergeCell ref="V67:Y67"/>
+    <mergeCell ref="R43:U43"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="R61:U61"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F43:I43"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
@@ -9327,51 +9488,11 @@
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="R25:U25"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="V55:Y55"/>
-    <mergeCell ref="V61:Y61"/>
-    <mergeCell ref="V67:Y67"/>
-    <mergeCell ref="R43:U43"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="R61:U61"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFEEB1F-83D3-497A-8820-CB24D21B633F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA97F836-1FAA-4A76-A9CC-C560C2D5641D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="137">
   <si>
     <t>Results</t>
   </si>
@@ -408,6 +408,36 @@
   </si>
   <si>
     <t>[0.019434910267591476, 0.01600170135498047, 0.019337212666869164, 0.014177422970533371, 0.015586388297379017]</t>
+  </si>
+  <si>
+    <t>Yearly Binned Models:</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Monthly Binned Models:</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>RMSProp</t>
+  </si>
+  <si>
+    <t>[0.026299215853214264, 0.021953629329800606, 0.030351955443620682, 0.042501870542764664, 0.030490441247820854]</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>[0.0264420323073864, 0.021391527727246284, 0.030094360932707787, 0.04126952588558197, 0.02684469148516655]</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>[0.0699555054306984, 0.05361571162939072, 0.0832238644361496, 0.10231557488441467, 0.07761036604642868]</t>
   </si>
 </sst>
 </file>
@@ -1331,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E205C6-75C9-4A48-9727-53AED497EF04}">
-  <dimension ref="A1:S88"/>
+  <dimension ref="A1:S140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1372,14 +1402,15 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A4" s="28"/>
-    </row>
-    <row r="5" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="28" t="s">
+      <c r="A4" s="28" t="s">
         <v>72</v>
       </c>
     </row>
+    <row r="5" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="6" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="L6" s="38" t="s">
         <v>29</v>
       </c>
@@ -1517,26 +1548,44 @@
       <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="8"/>
+      <c r="F9" s="8">
+        <v>2.0125309703437899E-2</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.24629688890615301</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="8">
+        <v>3.03194224834442E-2</v>
+      </c>
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32" t="str">
+      <c r="P9" s="32">
+        <v>6.8496847076139501E-3</v>
+      </c>
+      <c r="Q9" s="32">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R9" s="32" t="str">
+        <v>1.66200530682163E-2</v>
+      </c>
+      <c r="R9" s="32">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S9" s="4"/>
+        <v>4.4018791898672097E-2</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
@@ -1554,26 +1603,44 @@
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="8"/>
+      <c r="F10" s="8">
+        <v>0.11014893392526801</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.30928234919484598</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="L10" s="8">
+        <v>2.9208427667617699E-2</v>
+      </c>
       <c r="M10" s="32"/>
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32" t="str">
+      <c r="P10" s="32">
+        <v>6.6422749819725199E-3</v>
+      </c>
+      <c r="Q10" s="32">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R10" s="32" t="str">
+        <v>1.5923877703672658E-2</v>
+      </c>
+      <c r="R10" s="32">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S10" s="4"/>
+        <v>4.2492977631562741E-2</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
@@ -1646,26 +1713,44 @@
       <c r="E12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="8"/>
+      <c r="F12" s="8">
+        <v>3.0627019615005802E-2</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.27038339771809999</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" s="8">
+        <v>7.7344204485416401E-2</v>
+      </c>
       <c r="M12" s="32"/>
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32" t="str">
+      <c r="P12" s="32">
+        <v>1.5974009075097099E-2</v>
+      </c>
+      <c r="Q12" s="32">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R12" s="32" t="str">
+        <v>4.5396186335222202E-2</v>
+      </c>
+      <c r="R12" s="32">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S12" s="30"/>
+        <v>0.1092922226356106</v>
+      </c>
+      <c r="S12" s="30" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
@@ -4841,6 +4926,1667 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="90" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A90" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A91" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M91" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="N91" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="O91" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="P91" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q91" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="R91" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="S91" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A92" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="8"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="32"/>
+      <c r="N92" s="32"/>
+      <c r="O92" s="32"/>
+      <c r="P92" s="32"/>
+      <c r="Q92" s="32"/>
+      <c r="R92" s="32"/>
+      <c r="S92" s="4"/>
+    </row>
+    <row r="93" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A93" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="8"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="32"/>
+      <c r="N93" s="32"/>
+      <c r="O93" s="32"/>
+      <c r="P93" s="32"/>
+      <c r="Q93" s="32"/>
+      <c r="R93" s="32"/>
+      <c r="S93" s="4"/>
+    </row>
+    <row r="94" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="8"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="32"/>
+      <c r="N94" s="32"/>
+      <c r="O94" s="32"/>
+      <c r="P94" s="32"/>
+      <c r="Q94" s="32"/>
+      <c r="R94" s="32"/>
+      <c r="S94" s="4"/>
+    </row>
+    <row r="95" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="8"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="32"/>
+      <c r="N95" s="32"/>
+      <c r="O95" s="32"/>
+      <c r="P95" s="32"/>
+      <c r="Q95" s="32"/>
+      <c r="R95" s="32"/>
+      <c r="S95" s="4"/>
+    </row>
+    <row r="96" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A96" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="8"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="32"/>
+      <c r="N96" s="32"/>
+      <c r="O96" s="32"/>
+      <c r="P96" s="32"/>
+      <c r="Q96" s="32" t="str">
+        <f t="shared" ref="Q96:Q103" si="7">IF(OR(L96="",P96=""),"",L96-2*P96)</f>
+        <v/>
+      </c>
+      <c r="R96" s="32" t="str">
+        <f t="shared" ref="R96:R103" si="8">IF(OR(L96="",P96=""),"",L96+2*P96)</f>
+        <v/>
+      </c>
+      <c r="S96" s="30"/>
+    </row>
+    <row r="97" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A97" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="8"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="32"/>
+      <c r="N97" s="32"/>
+      <c r="O97" s="32"/>
+      <c r="P97" s="32"/>
+      <c r="Q97" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R97" s="32" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S97" s="30"/>
+    </row>
+    <row r="98" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="8"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="32"/>
+      <c r="N98" s="32"/>
+      <c r="O98" s="32"/>
+      <c r="P98" s="32"/>
+      <c r="Q98" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R98" s="32" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S98" s="30"/>
+    </row>
+    <row r="99" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A99" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="8"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="32"/>
+      <c r="N99" s="32"/>
+      <c r="O99" s="32"/>
+      <c r="P99" s="32"/>
+      <c r="Q99" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R99" s="32" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S99" s="30"/>
+    </row>
+    <row r="100" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A100" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="8"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="32"/>
+      <c r="N100" s="32"/>
+      <c r="O100" s="32"/>
+      <c r="P100" s="32"/>
+      <c r="Q100" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R100" s="32" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S100" s="30"/>
+    </row>
+    <row r="101" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A101" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="8"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="32"/>
+      <c r="N101" s="32"/>
+      <c r="O101" s="32"/>
+      <c r="P101" s="32"/>
+      <c r="Q101" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R101" s="32" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S101" s="30"/>
+    </row>
+    <row r="102" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="8"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="32"/>
+      <c r="N102" s="32"/>
+      <c r="O102" s="32"/>
+      <c r="P102" s="32"/>
+      <c r="Q102" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R102" s="32" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S102" s="30"/>
+    </row>
+    <row r="103" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A103" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="8"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="32"/>
+      <c r="N103" s="32"/>
+      <c r="O103" s="32"/>
+      <c r="P103" s="32"/>
+      <c r="Q103" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R103" s="32" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="S103" s="30"/>
+    </row>
+    <row r="104" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A104" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="8"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="32"/>
+      <c r="N104" s="32"/>
+      <c r="O104" s="32"/>
+      <c r="P104" s="32"/>
+      <c r="Q104" s="32"/>
+      <c r="R104" s="32"/>
+      <c r="S104" s="4"/>
+    </row>
+    <row r="105" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A105" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="8"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="32"/>
+      <c r="N105" s="32"/>
+      <c r="O105" s="32"/>
+      <c r="P105" s="32"/>
+      <c r="Q105" s="32"/>
+      <c r="R105" s="32"/>
+      <c r="S105" s="4"/>
+    </row>
+    <row r="106" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A106" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="8"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="32"/>
+      <c r="N106" s="32"/>
+      <c r="O106" s="32"/>
+      <c r="P106" s="32"/>
+      <c r="Q106" s="32"/>
+      <c r="R106" s="32"/>
+      <c r="S106" s="4"/>
+    </row>
+    <row r="107" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A107" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="8"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="32"/>
+      <c r="N107" s="32"/>
+      <c r="O107" s="32"/>
+      <c r="P107" s="32"/>
+      <c r="Q107" s="32"/>
+      <c r="R107" s="32"/>
+      <c r="S107" s="4"/>
+    </row>
+    <row r="108" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A108" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="8"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="32"/>
+      <c r="N108" s="32"/>
+      <c r="O108" s="32"/>
+      <c r="P108" s="32"/>
+      <c r="Q108" s="32" t="str">
+        <f t="shared" ref="Q108:Q115" si="9">IF(OR(L108="",P108=""),"",L108-2*P108)</f>
+        <v/>
+      </c>
+      <c r="R108" s="32" t="str">
+        <f t="shared" ref="R108:R115" si="10">IF(OR(L108="",P108=""),"",L108+2*P108)</f>
+        <v/>
+      </c>
+      <c r="S108" s="30"/>
+    </row>
+    <row r="109" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A109" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="8"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="32"/>
+      <c r="N109" s="32"/>
+      <c r="O109" s="32"/>
+      <c r="P109" s="32"/>
+      <c r="Q109" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R109" s="32" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S109" s="30"/>
+    </row>
+    <row r="110" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A110" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="8"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="32"/>
+      <c r="N110" s="32"/>
+      <c r="O110" s="32"/>
+      <c r="P110" s="32"/>
+      <c r="Q110" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R110" s="32" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S110" s="30"/>
+    </row>
+    <row r="111" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A111" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="8"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="32"/>
+      <c r="N111" s="32"/>
+      <c r="O111" s="32"/>
+      <c r="P111" s="32"/>
+      <c r="Q111" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R111" s="32" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S111" s="30"/>
+    </row>
+    <row r="112" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A112" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="8"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="32"/>
+      <c r="N112" s="32"/>
+      <c r="O112" s="32"/>
+      <c r="P112" s="32"/>
+      <c r="Q112" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R112" s="32" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S112" s="30"/>
+    </row>
+    <row r="113" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A113" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="8"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="32"/>
+      <c r="N113" s="32"/>
+      <c r="O113" s="32"/>
+      <c r="P113" s="32"/>
+      <c r="Q113" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R113" s="32" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S113" s="30"/>
+    </row>
+    <row r="114" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A114" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="8"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="32"/>
+      <c r="N114" s="32"/>
+      <c r="O114" s="32"/>
+      <c r="P114" s="32"/>
+      <c r="Q114" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R114" s="32" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S114" s="30"/>
+    </row>
+    <row r="115" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A115" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="8"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="32"/>
+      <c r="N115" s="32"/>
+      <c r="O115" s="32"/>
+      <c r="P115" s="32"/>
+      <c r="Q115" s="32" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R115" s="32" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="S115" s="30"/>
+    </row>
+    <row r="116" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A116" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E116" s="4"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="32"/>
+      <c r="N116" s="32"/>
+      <c r="O116" s="32"/>
+      <c r="P116" s="32"/>
+      <c r="Q116" s="32"/>
+      <c r="R116" s="32"/>
+      <c r="S116" s="4"/>
+    </row>
+    <row r="117" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A117" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" s="4"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="32"/>
+      <c r="N117" s="32"/>
+      <c r="O117" s="32"/>
+      <c r="P117" s="32"/>
+      <c r="Q117" s="32"/>
+      <c r="R117" s="32"/>
+      <c r="S117" s="4"/>
+    </row>
+    <row r="118" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A118" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118" s="4"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="32"/>
+      <c r="N118" s="32"/>
+      <c r="O118" s="32"/>
+      <c r="P118" s="32"/>
+      <c r="Q118" s="32"/>
+      <c r="R118" s="32"/>
+      <c r="S118" s="4"/>
+    </row>
+    <row r="119" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A119" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="32"/>
+      <c r="N119" s="32"/>
+      <c r="O119" s="32"/>
+      <c r="P119" s="32"/>
+      <c r="Q119" s="32"/>
+      <c r="R119" s="32"/>
+      <c r="S119" s="4"/>
+    </row>
+    <row r="120" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A120" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E120" s="4"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="8"/>
+      <c r="M120" s="32"/>
+      <c r="N120" s="32"/>
+      <c r="O120" s="32"/>
+      <c r="P120" s="32"/>
+      <c r="Q120" s="32"/>
+      <c r="R120" s="32"/>
+      <c r="S120" s="4"/>
+    </row>
+    <row r="121" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A121" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E121" s="4"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="32"/>
+      <c r="N121" s="32"/>
+      <c r="O121" s="32"/>
+      <c r="P121" s="32"/>
+      <c r="Q121" s="32"/>
+      <c r="R121" s="32"/>
+      <c r="S121" s="4"/>
+    </row>
+    <row r="122" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A122" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E122" s="4"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="32"/>
+      <c r="N122" s="32"/>
+      <c r="O122" s="32"/>
+      <c r="P122" s="32"/>
+      <c r="Q122" s="32"/>
+      <c r="R122" s="32"/>
+      <c r="S122" s="4"/>
+    </row>
+    <row r="123" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A123" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E123" s="4"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="8"/>
+      <c r="M123" s="32"/>
+      <c r="N123" s="32"/>
+      <c r="O123" s="32"/>
+      <c r="P123" s="32"/>
+      <c r="Q123" s="32" t="str">
+        <f t="shared" ref="Q123:Q127" si="11">IF(OR(L123="",P123=""),"",L123-2*P123)</f>
+        <v/>
+      </c>
+      <c r="R123" s="32" t="str">
+        <f t="shared" ref="R123:R127" si="12">IF(OR(L123="",P123=""),"",L123+2*P123)</f>
+        <v/>
+      </c>
+      <c r="S123" s="4"/>
+    </row>
+    <row r="124" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A124" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E124" s="4"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="32"/>
+      <c r="N124" s="32"/>
+      <c r="O124" s="32"/>
+      <c r="P124" s="32"/>
+      <c r="Q124" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R124" s="32" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S124" s="4"/>
+    </row>
+    <row r="125" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A125" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E125" s="4"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="32"/>
+      <c r="N125" s="32"/>
+      <c r="O125" s="32"/>
+      <c r="P125" s="32"/>
+      <c r="Q125" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R125" s="32" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S125" s="4"/>
+    </row>
+    <row r="126" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A126" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E126" s="4"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="32"/>
+      <c r="N126" s="32"/>
+      <c r="O126" s="32"/>
+      <c r="P126" s="32"/>
+      <c r="Q126" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R126" s="32" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S126" s="4"/>
+    </row>
+    <row r="127" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A127" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E127" s="4"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="32"/>
+      <c r="N127" s="32"/>
+      <c r="O127" s="32"/>
+      <c r="P127" s="32"/>
+      <c r="Q127" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R127" s="32" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="S127" s="4"/>
+    </row>
+    <row r="128" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A128" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E128" s="4"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="32"/>
+      <c r="N128" s="32"/>
+      <c r="O128" s="32"/>
+      <c r="P128" s="32"/>
+      <c r="Q128" s="32"/>
+      <c r="R128" s="32"/>
+      <c r="S128" s="4"/>
+    </row>
+    <row r="129" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A129" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E129" s="4"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="8"/>
+      <c r="M129" s="32"/>
+      <c r="N129" s="32"/>
+      <c r="O129" s="32"/>
+      <c r="P129" s="32"/>
+      <c r="Q129" s="32"/>
+      <c r="R129" s="32"/>
+      <c r="S129" s="4"/>
+    </row>
+    <row r="130" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A130" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" s="4"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="8"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="8"/>
+      <c r="M130" s="32"/>
+      <c r="N130" s="32"/>
+      <c r="O130" s="32"/>
+      <c r="P130" s="32"/>
+      <c r="Q130" s="32"/>
+      <c r="R130" s="32"/>
+      <c r="S130" s="4"/>
+    </row>
+    <row r="131" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A131" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E131" s="4"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="8"/>
+      <c r="M131" s="32"/>
+      <c r="N131" s="32"/>
+      <c r="O131" s="32"/>
+      <c r="P131" s="32"/>
+      <c r="Q131" s="32"/>
+      <c r="R131" s="32"/>
+      <c r="S131" s="4"/>
+    </row>
+    <row r="132" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A132" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E132" s="4"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="8"/>
+      <c r="M132" s="32"/>
+      <c r="N132" s="32"/>
+      <c r="O132" s="32"/>
+      <c r="P132" s="32"/>
+      <c r="Q132" s="32"/>
+      <c r="R132" s="32"/>
+      <c r="S132" s="4"/>
+    </row>
+    <row r="133" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A133" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E133" s="4"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="8"/>
+      <c r="M133" s="32"/>
+      <c r="N133" s="32"/>
+      <c r="O133" s="32"/>
+      <c r="P133" s="32"/>
+      <c r="Q133" s="32"/>
+      <c r="R133" s="32"/>
+      <c r="S133" s="4"/>
+    </row>
+    <row r="134" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A134" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E134" s="4"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="8"/>
+      <c r="M134" s="32"/>
+      <c r="N134" s="32"/>
+      <c r="O134" s="32"/>
+      <c r="P134" s="32"/>
+      <c r="Q134" s="32"/>
+      <c r="R134" s="32"/>
+      <c r="S134" s="4"/>
+    </row>
+    <row r="135" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A135" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E135" s="4"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="8"/>
+      <c r="M135" s="32"/>
+      <c r="N135" s="32"/>
+      <c r="O135" s="32"/>
+      <c r="P135" s="32"/>
+      <c r="Q135" s="32" t="str">
+        <f t="shared" ref="Q135:Q139" si="13">IF(OR(L135="",P135=""),"",L135-2*P135)</f>
+        <v/>
+      </c>
+      <c r="R135" s="32" t="str">
+        <f t="shared" ref="R135:R139" si="14">IF(OR(L135="",P135=""),"",L135+2*P135)</f>
+        <v/>
+      </c>
+      <c r="S135" s="4"/>
+    </row>
+    <row r="136" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A136" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E136" s="4"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="32"/>
+      <c r="N136" s="32"/>
+      <c r="O136" s="32"/>
+      <c r="P136" s="32"/>
+      <c r="Q136" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R136" s="32" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="S136" s="4"/>
+    </row>
+    <row r="137" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A137" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E137" s="4"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="8"/>
+      <c r="M137" s="32"/>
+      <c r="N137" s="32"/>
+      <c r="O137" s="32"/>
+      <c r="P137" s="32"/>
+      <c r="Q137" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R137" s="32" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="S137" s="4"/>
+    </row>
+    <row r="138" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A138" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E138" s="4"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="4"/>
+      <c r="L138" s="8"/>
+      <c r="M138" s="32"/>
+      <c r="N138" s="32"/>
+      <c r="O138" s="32"/>
+      <c r="P138" s="32"/>
+      <c r="Q138" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R138" s="32" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="S138" s="4"/>
+    </row>
+    <row r="139" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A139" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E139" s="4"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="8"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="8"/>
+      <c r="M139" s="32"/>
+      <c r="N139" s="32"/>
+      <c r="O139" s="32"/>
+      <c r="P139" s="32"/>
+      <c r="Q139" s="32" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="R139" s="32" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="S139" s="4"/>
+    </row>
+    <row r="140" spans="1:19" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="L6:O6"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA97F836-1FAA-4A76-A9CC-C560C2D5641D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B350CFF7-A02A-4A61-ACDD-929E8B883C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="143">
   <si>
     <t>Results</t>
   </si>
@@ -438,6 +438,24 @@
   </si>
   <si>
     <t>[0.0699555054306984, 0.05361571162939072, 0.0832238644361496, 0.10231557488441467, 0.07761036604642868]</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>[0.03646571561694145, 0.032479576766490936, 0.057501789182424545, 0.044312939047813416, 0.04505119472742081]</t>
+  </si>
+  <si>
+    <t>[0.03549659624695778, 0.032413505017757416, 0.05561570078134537, 0.04774607717990875, 0.0442739762365818]</t>
+  </si>
+  <si>
+    <t>[0.019073443487286568, 0.02173822559416294, 0.032025836408138275, 0.033760637044906616, 0.027100084349513054]</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>[0.015927664935588837, 0.019457196816802025, 0.01862134225666523, 0.016567131504416466, 0.01416387502104044]</t>
   </si>
 </sst>
 </file>
@@ -903,12 +921,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -916,6 +928,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1363,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E205C6-75C9-4A48-9727-53AED497EF04}">
   <dimension ref="A1:S140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2616,26 +2634,44 @@
       <c r="E33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="8"/>
+      <c r="F33" s="8">
+        <v>2.9533499173309899E-3</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0.13416040811538699</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L33" s="8">
+        <v>4.3109171092510203E-2</v>
+      </c>
       <c r="M33" s="32"/>
       <c r="N33" s="32"/>
       <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32" t="str">
+      <c r="P33" s="32">
+        <v>8.3859349211221502E-3</v>
+      </c>
+      <c r="Q33" s="32">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R33" s="32" t="str">
+        <v>2.6337301250265902E-2</v>
+      </c>
+      <c r="R33" s="32">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S33" s="4"/>
+        <v>5.9881040934754506E-2</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="34" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
@@ -2653,26 +2689,44 @@
       <c r="E34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="8"/>
+      <c r="F34" s="8">
+        <v>3.0357832121815898E-3</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="8">
+        <v>0.12743527193059501</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L34" s="8">
+        <v>4.7987391799688299E-2</v>
+      </c>
       <c r="M34" s="32"/>
       <c r="N34" s="32"/>
       <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32" t="str">
+      <c r="P34" s="32">
+        <v>5.0416052322678102E-3</v>
+      </c>
+      <c r="Q34" s="32">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R34" s="32" t="str">
+        <v>3.7904181335152679E-2</v>
+      </c>
+      <c r="R34" s="32">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S34" s="4"/>
+        <v>5.8070602264223919E-2</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="35" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
@@ -3313,27 +3367,47 @@
       <c r="D49" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="8"/>
+      <c r="E49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="8">
+        <v>1.2897311668345901E-3</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="8">
+        <v>0.20008098662471499</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L49" s="8">
+        <v>1.6947442106902501E-2</v>
+      </c>
       <c r="M49" s="32"/>
       <c r="N49" s="32"/>
       <c r="O49" s="32"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="32" t="str">
+      <c r="P49" s="32">
+        <v>1.8991386347620199E-3</v>
+      </c>
+      <c r="Q49" s="32">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R49" s="32" t="str">
+        <v>1.3149164837378461E-2</v>
+      </c>
+      <c r="R49" s="32">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S49" s="4"/>
+        <v>2.0745719376426542E-2</v>
+      </c>
+      <c r="S49" s="4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="50" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
@@ -3438,27 +3512,47 @@
       <c r="D52" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="8"/>
+      <c r="E52" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" s="8">
+        <v>1.4316349648581901E-3</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" s="8">
+        <v>0.12576068505893601</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L52" s="8">
+        <v>2.6739645376801398E-2</v>
+      </c>
       <c r="M52" s="32"/>
       <c r="N52" s="32"/>
       <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="32" t="str">
+      <c r="P52" s="32">
+        <v>5.6771983782391601E-3</v>
+      </c>
+      <c r="Q52" s="32">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R52" s="32" t="str">
+        <v>1.5385248620323078E-2</v>
+      </c>
+      <c r="R52" s="32">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S52" s="4"/>
+        <v>3.8094042133279715E-2</v>
+      </c>
+      <c r="S52" s="4" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="53" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
@@ -6617,42 +6711,42 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="43" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="43" t="s">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="43" t="s">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="43" t="s">
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="45"/>
-      <c r="AA2" s="43" t="s">
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="43"/>
+      <c r="AA2" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="45"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="43"/>
     </row>
     <row r="3" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
@@ -6747,16 +6841,16 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="45">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -6843,10 +6937,10 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
@@ -6931,10 +7025,10 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
@@ -7023,41 +7117,41 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="43" t="s">
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="43" t="s">
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="43" t="s">
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="43" t="s">
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="45"/>
-      <c r="AA7" s="42" t="s">
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="43"/>
+      <c r="AA7" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
       <c r="AD7" s="13">
         <f>AVERAGE(I73, M73, Q73, U73, Y73)</f>
         <v>1.5016363636363637</v>
@@ -7401,36 +7495,36 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="43" t="s">
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="43" t="s">
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="43" t="s">
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="43" t="s">
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="45"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="43"/>
     </row>
     <row r="14" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E14" s="3" t="s">
@@ -7770,36 +7864,36 @@
       </c>
     </row>
     <row r="19" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="43" t="s">
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="43" t="s">
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="43" t="s">
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="43" t="s">
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="45"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="43"/>
     </row>
     <row r="20" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E20" s="3" t="s">
@@ -8139,36 +8233,36 @@
       </c>
     </row>
     <row r="25" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="43" t="s">
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="43" t="s">
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="43" t="s">
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="43" t="s">
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="45"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="43"/>
     </row>
     <row r="26" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E26" s="3" t="s">
@@ -8510,36 +8604,36 @@
       </c>
     </row>
     <row r="31" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="43" t="s">
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="43" t="s">
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="43" t="s">
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="43" t="s">
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="45"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="43"/>
     </row>
     <row r="32" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E32" s="3" t="s">
@@ -8879,36 +8973,36 @@
       </c>
     </row>
     <row r="37" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="43" t="s">
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="43" t="s">
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="43" t="s">
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="S37" s="44"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="43" t="s">
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="W37" s="44"/>
-      <c r="X37" s="44"/>
-      <c r="Y37" s="45"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="43"/>
     </row>
     <row r="38" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E38" s="3" t="s">
@@ -9248,36 +9342,36 @@
       </c>
     </row>
     <row r="43" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F43" s="43" t="s">
+      <c r="F43" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="43" t="s">
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="43" t="s">
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="43" t="s">
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="43" t="s">
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="W43" s="44"/>
-      <c r="X43" s="44"/>
-      <c r="Y43" s="45"/>
+      <c r="W43" s="42"/>
+      <c r="X43" s="42"/>
+      <c r="Y43" s="43"/>
     </row>
     <row r="44" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E44" s="3" t="s">
@@ -9617,36 +9711,36 @@
       </c>
     </row>
     <row r="49" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F49" s="43" t="s">
+      <c r="F49" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="43" t="s">
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="K49" s="44"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="43" t="s">
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="O49" s="44"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="43" t="s">
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="S49" s="44"/>
-      <c r="T49" s="44"/>
-      <c r="U49" s="45"/>
-      <c r="V49" s="43" t="s">
+      <c r="S49" s="42"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="W49" s="44"/>
-      <c r="X49" s="44"/>
-      <c r="Y49" s="45"/>
+      <c r="W49" s="42"/>
+      <c r="X49" s="42"/>
+      <c r="Y49" s="43"/>
     </row>
     <row r="50" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E50" s="3" t="s">
@@ -9986,36 +10080,36 @@
       </c>
     </row>
     <row r="55" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F55" s="43" t="s">
+      <c r="F55" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="43" t="s">
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="K55" s="44"/>
-      <c r="L55" s="44"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="43" t="s">
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="O55" s="44"/>
-      <c r="P55" s="44"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="43" t="s">
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="S55" s="44"/>
-      <c r="T55" s="44"/>
-      <c r="U55" s="45"/>
-      <c r="V55" s="43" t="s">
+      <c r="S55" s="42"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="W55" s="44"/>
-      <c r="X55" s="44"/>
-      <c r="Y55" s="45"/>
+      <c r="W55" s="42"/>
+      <c r="X55" s="42"/>
+      <c r="Y55" s="43"/>
     </row>
     <row r="56" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E56" s="3" t="s">
@@ -10355,36 +10449,36 @@
       </c>
     </row>
     <row r="61" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F61" s="43" t="s">
+      <c r="F61" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="43" t="s">
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="K61" s="44"/>
-      <c r="L61" s="44"/>
-      <c r="M61" s="45"/>
-      <c r="N61" s="43" t="s">
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="O61" s="44"/>
-      <c r="P61" s="44"/>
-      <c r="Q61" s="45"/>
-      <c r="R61" s="43" t="s">
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="43"/>
+      <c r="R61" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="S61" s="44"/>
-      <c r="T61" s="44"/>
-      <c r="U61" s="45"/>
-      <c r="V61" s="43" t="s">
+      <c r="S61" s="42"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="43"/>
+      <c r="V61" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="W61" s="44"/>
-      <c r="X61" s="44"/>
-      <c r="Y61" s="45"/>
+      <c r="W61" s="42"/>
+      <c r="X61" s="42"/>
+      <c r="Y61" s="43"/>
     </row>
     <row r="62" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E62" s="3" t="s">
@@ -10724,36 +10818,36 @@
       </c>
     </row>
     <row r="67" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F67" s="43" t="s">
+      <c r="F67" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="43" t="s">
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="K67" s="44"/>
-      <c r="L67" s="44"/>
-      <c r="M67" s="45"/>
-      <c r="N67" s="43" t="s">
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="O67" s="44"/>
-      <c r="P67" s="44"/>
-      <c r="Q67" s="45"/>
-      <c r="R67" s="43" t="s">
+      <c r="O67" s="42"/>
+      <c r="P67" s="42"/>
+      <c r="Q67" s="43"/>
+      <c r="R67" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="S67" s="44"/>
-      <c r="T67" s="44"/>
-      <c r="U67" s="45"/>
-      <c r="V67" s="43" t="s">
+      <c r="S67" s="42"/>
+      <c r="T67" s="42"/>
+      <c r="U67" s="43"/>
+      <c r="V67" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="44"/>
-      <c r="X67" s="44"/>
-      <c r="Y67" s="45"/>
+      <c r="W67" s="42"/>
+      <c r="X67" s="42"/>
+      <c r="Y67" s="43"/>
     </row>
     <row r="68" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E68" s="3" t="s">
@@ -11173,51 +11267,11 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="V55:Y55"/>
-    <mergeCell ref="V61:Y61"/>
-    <mergeCell ref="V67:Y67"/>
-    <mergeCell ref="R43:U43"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="R61:U61"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
@@ -11234,11 +11288,51 @@
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="R25:U25"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="V55:Y55"/>
+    <mergeCell ref="V61:Y61"/>
+    <mergeCell ref="V67:Y67"/>
+    <mergeCell ref="R43:U43"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="R61:U61"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="V2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B350CFF7-A02A-4A61-ACDD-929E8B883C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0CA250-10FF-46F0-A1EB-7EF8EAF4523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="144">
   <si>
     <t>Results</t>
   </si>
@@ -456,6 +456,9 @@
   </si>
   <si>
     <t>[0.015927664935588837, 0.019457196816802025, 0.01862134225666523, 0.016567131504416466, 0.01416387502104044]</t>
+  </si>
+  <si>
+    <t>[0.0168568454682827, 0.019671594724059105, 0.02135355956852436, 0.01775273121893406, 0.016487039625644684]</t>
   </si>
 </sst>
 </file>
@@ -921,6 +924,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -928,12 +937,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1381,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E205C6-75C9-4A48-9727-53AED497EF04}">
   <dimension ref="A1:S140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="D37" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3422,27 +3425,47 @@
       <c r="D50" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="8"/>
+      <c r="E50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="8">
+        <v>1.1560056879851501E-3</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="8">
+        <v>0.19860037068984199</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L50" s="8">
+        <v>1.84243541210889E-2</v>
+      </c>
       <c r="M50" s="32"/>
       <c r="N50" s="32"/>
       <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="32" t="str">
+      <c r="P50" s="32">
+        <v>1.8328776188585201E-3</v>
+      </c>
+      <c r="Q50" s="32">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R50" s="32" t="str">
+        <v>1.475859888337186E-2</v>
+      </c>
+      <c r="R50" s="32">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S50" s="4"/>
+        <v>2.209010935880594E-2</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="51" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="4" t="s">
@@ -6711,42 +6734,42 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="41" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="41" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="41" t="s">
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="41" t="s">
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="43"/>
-      <c r="AA2" s="41" t="s">
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="45"/>
+      <c r="AA2" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="43"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="45"/>
     </row>
     <row r="3" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
@@ -6841,16 +6864,16 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="41">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -6937,10 +6960,10 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
@@ -7025,10 +7048,10 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
@@ -7117,41 +7140,41 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="41" t="s">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="41" t="s">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="41" t="s">
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="41" t="s">
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="43"/>
-      <c r="AA7" s="44" t="s">
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="45"/>
+      <c r="AA7" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
       <c r="AD7" s="13">
         <f>AVERAGE(I73, M73, Q73, U73, Y73)</f>
         <v>1.5016363636363637</v>
@@ -7495,36 +7518,36 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="41" t="s">
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="41" t="s">
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="41" t="s">
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="41" t="s">
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="43"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="45"/>
     </row>
     <row r="14" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E14" s="3" t="s">
@@ -7864,36 +7887,36 @@
       </c>
     </row>
     <row r="19" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="41" t="s">
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="41" t="s">
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="41" t="s">
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="41" t="s">
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="43"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="45"/>
     </row>
     <row r="20" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E20" s="3" t="s">
@@ -8233,36 +8256,36 @@
       </c>
     </row>
     <row r="25" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="41" t="s">
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="41" t="s">
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="41" t="s">
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="41" t="s">
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="43"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="45"/>
     </row>
     <row r="26" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E26" s="3" t="s">
@@ -8604,36 +8627,36 @@
       </c>
     </row>
     <row r="31" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="41" t="s">
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="41" t="s">
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="41" t="s">
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="41" t="s">
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="43"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="45"/>
     </row>
     <row r="32" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E32" s="3" t="s">
@@ -8973,36 +8996,36 @@
       </c>
     </row>
     <row r="37" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F37" s="41" t="s">
+      <c r="F37" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="41" t="s">
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="41" t="s">
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="41" t="s">
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="41" t="s">
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="43"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="45"/>
     </row>
     <row r="38" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E38" s="3" t="s">
@@ -9342,36 +9365,36 @@
       </c>
     </row>
     <row r="43" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F43" s="41" t="s">
+      <c r="F43" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="41" t="s">
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="41" t="s">
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="41" t="s">
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="S43" s="42"/>
-      <c r="T43" s="42"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="41" t="s">
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="W43" s="42"/>
-      <c r="X43" s="42"/>
-      <c r="Y43" s="43"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="45"/>
     </row>
     <row r="44" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E44" s="3" t="s">
@@ -9711,36 +9734,36 @@
       </c>
     </row>
     <row r="49" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F49" s="41" t="s">
+      <c r="F49" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="41" t="s">
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="41" t="s">
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="O49" s="42"/>
-      <c r="P49" s="42"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="41" t="s">
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="S49" s="42"/>
-      <c r="T49" s="42"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="41" t="s">
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="W49" s="42"/>
-      <c r="X49" s="42"/>
-      <c r="Y49" s="43"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="44"/>
+      <c r="Y49" s="45"/>
     </row>
     <row r="50" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E50" s="3" t="s">
@@ -10080,36 +10103,36 @@
       </c>
     </row>
     <row r="55" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F55" s="41" t="s">
+      <c r="F55" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="41" t="s">
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="41" t="s">
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="O55" s="42"/>
-      <c r="P55" s="42"/>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="41" t="s">
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="45"/>
+      <c r="R55" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="S55" s="42"/>
-      <c r="T55" s="42"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="41" t="s">
+      <c r="S55" s="44"/>
+      <c r="T55" s="44"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="W55" s="42"/>
-      <c r="X55" s="42"/>
-      <c r="Y55" s="43"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="44"/>
+      <c r="Y55" s="45"/>
     </row>
     <row r="56" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E56" s="3" t="s">
@@ -10449,36 +10472,36 @@
       </c>
     </row>
     <row r="61" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F61" s="41" t="s">
+      <c r="F61" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="41" t="s">
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="43"/>
-      <c r="N61" s="41" t="s">
+      <c r="K61" s="44"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
-      <c r="Q61" s="43"/>
-      <c r="R61" s="41" t="s">
+      <c r="O61" s="44"/>
+      <c r="P61" s="44"/>
+      <c r="Q61" s="45"/>
+      <c r="R61" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="S61" s="42"/>
-      <c r="T61" s="42"/>
-      <c r="U61" s="43"/>
-      <c r="V61" s="41" t="s">
+      <c r="S61" s="44"/>
+      <c r="T61" s="44"/>
+      <c r="U61" s="45"/>
+      <c r="V61" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="W61" s="42"/>
-      <c r="X61" s="42"/>
-      <c r="Y61" s="43"/>
+      <c r="W61" s="44"/>
+      <c r="X61" s="44"/>
+      <c r="Y61" s="45"/>
     </row>
     <row r="62" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E62" s="3" t="s">
@@ -10818,36 +10841,36 @@
       </c>
     </row>
     <row r="67" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F67" s="41" t="s">
+      <c r="F67" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="41" t="s">
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="K67" s="42"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="43"/>
-      <c r="N67" s="41" t="s">
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="45"/>
+      <c r="N67" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="O67" s="42"/>
-      <c r="P67" s="42"/>
-      <c r="Q67" s="43"/>
-      <c r="R67" s="41" t="s">
+      <c r="O67" s="44"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="45"/>
+      <c r="R67" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="S67" s="42"/>
-      <c r="T67" s="42"/>
-      <c r="U67" s="43"/>
-      <c r="V67" s="41" t="s">
+      <c r="S67" s="44"/>
+      <c r="T67" s="44"/>
+      <c r="U67" s="45"/>
+      <c r="V67" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="42"/>
-      <c r="X67" s="42"/>
-      <c r="Y67" s="43"/>
+      <c r="W67" s="44"/>
+      <c r="X67" s="44"/>
+      <c r="Y67" s="45"/>
     </row>
     <row r="68" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E68" s="3" t="s">
@@ -11267,11 +11290,51 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="V55:Y55"/>
+    <mergeCell ref="V61:Y61"/>
+    <mergeCell ref="V67:Y67"/>
+    <mergeCell ref="R43:U43"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="R61:U61"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F43:I43"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
@@ -11288,51 +11351,11 @@
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="R25:U25"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="V55:Y55"/>
-    <mergeCell ref="V61:Y61"/>
-    <mergeCell ref="V67:Y67"/>
-    <mergeCell ref="R43:U43"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="R61:U61"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0CA250-10FF-46F0-A1EB-7EF8EAF4523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63218F01-CF08-4DD1-86E4-23098CE9D257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="155">
   <si>
     <t>Results</t>
   </si>
@@ -459,6 +459,39 @@
   </si>
   <si>
     <t>[0.0168568454682827, 0.019671594724059105, 0.02135355956852436, 0.01775273121893406, 0.016487039625644684]</t>
+  </si>
+  <si>
+    <t>[0.05695909634232521, 0.05226720869541168, 0.0622183233499527, 0.081431545317173, 0.06213223934173584]</t>
+  </si>
+  <si>
+    <t>[0.03782293573021889, 0.04260823503136635, 0.0544033907353878, 0.06025269255042076, 0.046120986342430115]</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>[0.022303422912955284, 0.02493550069630146, 0.032134152948856354, 0.038703713566064835, 0.026567809283733368]</t>
+  </si>
+  <si>
+    <t>[0.06728477030992508, 0.05761592462658882, 0.08896518498659134, 0.09604286402463913, 0.07774535566568375]</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Accuracy (Scaled Values)</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>[0.042394403368234634, 0.045098088681697845, 0.05630620941519737, 0.06237003952264786, 0.04875399172306061]</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>[0.043001655489206314, 0.04448606073856354, 0.054981574416160583, 0.06251869350671768, 0.04836897552013397]</t>
   </si>
 </sst>
 </file>
@@ -806,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -924,12 +957,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -938,6 +965,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1382,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E205C6-75C9-4A48-9727-53AED497EF04}">
-  <dimension ref="A1:S140"/>
+  <dimension ref="A1:T140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D37" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1402,44 +1438,52 @@
     <col min="11" max="11" width="8.06640625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.1328125" style="31" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="12.1328125" style="31" customWidth="1"/>
-    <col min="16" max="16" width="8.73046875" style="31" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.19921875" style="31" customWidth="1"/>
+    <col min="16" max="16" width="104.53125" style="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1328125" style="31" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.19921875" style="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="103.53125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.06640625" style="29"/>
+    <col min="19" max="19" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.19921875" style="31" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.06640625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="28"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="6" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="6" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>129</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="M6" s="39"/>
       <c r="N6" s="39"/>
-      <c r="O6" s="40"/>
-    </row>
-    <row r="7" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="O6" s="39"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="40"/>
+    </row>
+    <row r="7" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1477,28 +1521,31 @@
         <v>64</v>
       </c>
       <c r="M7" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="S7" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="32" t="s">
+      <c r="T7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="P7" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q7" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="R7" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="8" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1535,25 +1582,26 @@
       <c r="L8" s="8">
         <v>3.0230338498949998E-2</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32">
+      <c r="M8" s="32">
         <v>6.6611281040656698E-3</v>
       </c>
-      <c r="Q8" s="32">
-        <f t="shared" ref="Q8:Q39" si="0">IF(OR(L8="",P8=""),"",L8-2*P8)</f>
+      <c r="N8" s="32">
+        <f>IF(OR(L8="",M8=""),"",L8-2*M8)</f>
         <v>1.6908082290818659E-2</v>
       </c>
-      <c r="R8" s="32">
-        <f t="shared" ref="R8:R39" si="1">IF(OR(L8="",P8=""),"",L8+2*P8)</f>
+      <c r="O8" s="32">
+        <f>IF(OR(L8="",M8=""),"",L8+2*M8)</f>
         <v>4.3552594707081338E-2</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="8"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1590,25 +1638,26 @@
       <c r="L9" s="8">
         <v>3.03194224834442E-2</v>
       </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32">
+      <c r="M9" s="32">
         <v>6.8496847076139501E-3</v>
       </c>
-      <c r="Q9" s="32">
-        <f t="shared" si="0"/>
+      <c r="N9" s="32">
+        <f>IF(OR(L9="",M9=""),"",L9-2*M9)</f>
         <v>1.66200530682163E-2</v>
       </c>
-      <c r="R9" s="32">
-        <f t="shared" si="1"/>
+      <c r="O9" s="32">
+        <f>IF(OR(L9="",M9=""),"",L9+2*M9)</f>
         <v>4.4018791898672097E-2</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="8"/>
+    </row>
+    <row r="10" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1645,25 +1694,26 @@
       <c r="L10" s="8">
         <v>2.9208427667617699E-2</v>
       </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32">
+      <c r="M10" s="32">
         <v>6.6422749819725199E-3</v>
       </c>
-      <c r="Q10" s="32">
-        <f t="shared" si="0"/>
+      <c r="N10" s="32">
+        <f>IF(OR(L10="",M10=""),"",L10-2*M10)</f>
         <v>1.5923877703672658E-2</v>
       </c>
-      <c r="R10" s="32">
-        <f t="shared" si="1"/>
+      <c r="O10" s="32">
+        <f>IF(OR(L10="",M10=""),"",L10+2*M10)</f>
         <v>4.2492977631562741E-2</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="8"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1700,25 +1750,26 @@
       <c r="L11" s="8">
         <v>2.9251535236835401E-2</v>
       </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32">
+      <c r="M11" s="32">
         <v>6.6433803999254599E-3</v>
       </c>
-      <c r="Q11" s="32">
-        <f t="shared" si="0"/>
+      <c r="N11" s="32">
+        <f>IF(OR(L11="",M11=""),"",L11-2*M11)</f>
         <v>1.5964774436984481E-2</v>
       </c>
-      <c r="R11" s="32">
-        <f t="shared" si="1"/>
+      <c r="O11" s="32">
+        <f>IF(OR(L11="",M11=""),"",L11+2*M11)</f>
         <v>4.2538296036686324E-2</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="8"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1755,25 +1806,26 @@
       <c r="L12" s="8">
         <v>7.7344204485416401E-2</v>
       </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32">
+      <c r="M12" s="32">
         <v>1.5974009075097099E-2</v>
       </c>
-      <c r="Q12" s="32">
-        <f t="shared" si="0"/>
+      <c r="N12" s="32">
+        <f>IF(OR(L12="",M12=""),"",L12-2*M12)</f>
         <v>4.5396186335222202E-2</v>
       </c>
-      <c r="R12" s="32">
-        <f t="shared" si="1"/>
+      <c r="O12" s="32">
+        <f>IF(OR(L12="",M12=""),"",L12+2*M12)</f>
         <v>0.1092922226356106</v>
       </c>
-      <c r="S12" s="30" t="s">
+      <c r="P12" s="30" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="8"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1797,20 +1849,21 @@
       <c r="K13" s="4"/>
       <c r="L13" s="8"/>
       <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R13" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S13" s="30"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N13" s="32" t="str">
+        <f>IF(OR(L13="",M13=""),"",L13-2*M13)</f>
+        <v/>
+      </c>
+      <c r="O13" s="32" t="str">
+        <f>IF(OR(L13="",M13=""),"",L13+2*M13)</f>
+        <v/>
+      </c>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="8"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1834,20 +1887,21 @@
       <c r="K14" s="4"/>
       <c r="L14" s="8"/>
       <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R14" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S14" s="30"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N14" s="32" t="str">
+        <f>IF(OR(L14="",M14=""),"",L14-2*M14)</f>
+        <v/>
+      </c>
+      <c r="O14" s="32" t="str">
+        <f>IF(OR(L14="",M14=""),"",L14+2*M14)</f>
+        <v/>
+      </c>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="8"/>
+    </row>
+    <row r="15" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -1863,28 +1917,47 @@
       <c r="E15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R15" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S15" s="30"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F15" s="8">
+        <v>8.0869256421793503E-2</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.249038551479658</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" s="8">
+        <v>7.7530819922685595E-2</v>
+      </c>
+      <c r="M15" s="32">
+        <v>1.39647491502999E-2</v>
+      </c>
+      <c r="N15" s="32">
+        <f>IF(OR(L15="",M15=""),"",L15-2*M15)</f>
+        <v>4.9601321622085796E-2</v>
+      </c>
+      <c r="O15" s="32">
+        <f>IF(OR(L15="",M15=""),"",L15+2*M15)</f>
+        <v>0.10546031822328539</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="8"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1908,20 +1981,21 @@
       <c r="K16" s="4"/>
       <c r="L16" s="8"/>
       <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R16" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S16" s="30"/>
-    </row>
-    <row r="17" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N16" s="32" t="str">
+        <f>IF(OR(L16="",M16=""),"",L16-2*M16)</f>
+        <v/>
+      </c>
+      <c r="O16" s="32" t="str">
+        <f>IF(OR(L16="",M16=""),"",L16+2*M16)</f>
+        <v/>
+      </c>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="8"/>
+    </row>
+    <row r="17" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -1945,20 +2019,21 @@
       <c r="K17" s="4"/>
       <c r="L17" s="8"/>
       <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R17" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S17" s="30"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N17" s="32" t="str">
+        <f>IF(OR(L17="",M17=""),"",L17-2*M17)</f>
+        <v/>
+      </c>
+      <c r="O17" s="32" t="str">
+        <f>IF(OR(L17="",M17=""),"",L17+2*M17)</f>
+        <v/>
+      </c>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="8"/>
+    </row>
+    <row r="18" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1982,20 +2057,21 @@
       <c r="K18" s="4"/>
       <c r="L18" s="8"/>
       <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R18" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S18" s="30"/>
-    </row>
-    <row r="19" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N18" s="32" t="str">
+        <f>IF(OR(L18="",M18=""),"",L18-2*M18)</f>
+        <v/>
+      </c>
+      <c r="O18" s="32" t="str">
+        <f>IF(OR(L18="",M18=""),"",L18+2*M18)</f>
+        <v/>
+      </c>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="8"/>
+    </row>
+    <row r="19" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -2019,20 +2095,21 @@
       <c r="K19" s="4"/>
       <c r="L19" s="8"/>
       <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R19" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S19" s="30"/>
-    </row>
-    <row r="20" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N19" s="32" t="str">
+        <f>IF(OR(L19="",M19=""),"",L19-2*M19)</f>
+        <v/>
+      </c>
+      <c r="O19" s="32" t="str">
+        <f>IF(OR(L19="",M19=""),"",L19+2*M19)</f>
+        <v/>
+      </c>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="8"/>
+    </row>
+    <row r="20" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -2056,20 +2133,21 @@
       <c r="K20" s="4"/>
       <c r="L20" s="8"/>
       <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R20" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S20" s="30"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N20" s="32" t="str">
+        <f>IF(OR(L20="",M20=""),"",L20-2*M20)</f>
+        <v/>
+      </c>
+      <c r="O20" s="32" t="str">
+        <f>IF(OR(L20="",M20=""),"",L20+2*M20)</f>
+        <v/>
+      </c>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="8"/>
+    </row>
+    <row r="21" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -2093,20 +2171,21 @@
       <c r="K21" s="4"/>
       <c r="L21" s="8"/>
       <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R21" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S21" s="30"/>
-    </row>
-    <row r="22" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N21" s="32" t="str">
+        <f>IF(OR(L21="",M21=""),"",L21-2*M21)</f>
+        <v/>
+      </c>
+      <c r="O21" s="32" t="str">
+        <f>IF(OR(L21="",M21=""),"",L21+2*M21)</f>
+        <v/>
+      </c>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="8"/>
+    </row>
+    <row r="22" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -2130,20 +2209,21 @@
       <c r="K22" s="4"/>
       <c r="L22" s="8"/>
       <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R22" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S22" s="30"/>
-    </row>
-    <row r="23" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N22" s="32" t="str">
+        <f>IF(OR(L22="",M22=""),"",L22-2*M22)</f>
+        <v/>
+      </c>
+      <c r="O22" s="32" t="str">
+        <f>IF(OR(L22="",M22=""),"",L22+2*M22)</f>
+        <v/>
+      </c>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="8"/>
+    </row>
+    <row r="23" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -2167,20 +2247,21 @@
       <c r="K23" s="4"/>
       <c r="L23" s="8"/>
       <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R23" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S23" s="30"/>
-    </row>
-    <row r="24" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N23" s="32" t="str">
+        <f>IF(OR(L23="",M23=""),"",L23-2*M23)</f>
+        <v/>
+      </c>
+      <c r="O23" s="32" t="str">
+        <f>IF(OR(L23="",M23=""),"",L23+2*M23)</f>
+        <v/>
+      </c>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="8"/>
+    </row>
+    <row r="24" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -2217,25 +2298,26 @@
       <c r="L24" s="8">
         <v>4.9412100762128798E-2</v>
       </c>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32">
+      <c r="M24" s="32">
         <v>8.4318950681729794E-3</v>
       </c>
-      <c r="Q24" s="32">
-        <f t="shared" si="0"/>
+      <c r="N24" s="32">
+        <f>IF(OR(L24="",M24=""),"",L24-2*M24)</f>
         <v>3.2548310625782839E-2</v>
       </c>
-      <c r="R24" s="32">
-        <f t="shared" si="1"/>
+      <c r="O24" s="32">
+        <f>IF(OR(L24="",M24=""),"",L24+2*M24)</f>
         <v>6.6275890898474757E-2</v>
       </c>
-      <c r="S24" s="30" t="s">
+      <c r="P24" s="30" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="8"/>
+    </row>
+    <row r="25" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -2251,28 +2333,47 @@
       <c r="E25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R25" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S25" s="30"/>
-    </row>
-    <row r="26" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F25" s="8">
+        <v>3.78663433359305E-3</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0.196205438965662</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L25" s="8">
+        <v>5.0671391934156401E-2</v>
+      </c>
+      <c r="M25" s="32">
+        <v>7.2293917871023997E-3</v>
+      </c>
+      <c r="N25" s="32">
+        <f>IF(OR(L25="",M25=""),"",L25-2*M25)</f>
+        <v>3.6212608359951604E-2</v>
+      </c>
+      <c r="O25" s="32">
+        <f>IF(OR(L25="",M25=""),"",L25+2*M25)</f>
+        <v>6.5130175508361199E-2</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="8"/>
+    </row>
+    <row r="26" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -2296,20 +2397,21 @@
       <c r="K26" s="4"/>
       <c r="L26" s="8"/>
       <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R26" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S26" s="30"/>
-    </row>
-    <row r="27" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N26" s="32" t="str">
+        <f>IF(OR(L26="",M26=""),"",L26-2*M26)</f>
+        <v/>
+      </c>
+      <c r="O26" s="32" t="str">
+        <f>IF(OR(L26="",M26=""),"",L26+2*M26)</f>
+        <v/>
+      </c>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="8"/>
+    </row>
+    <row r="27" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -2325,28 +2427,47 @@
       <c r="E27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R27" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S27" s="30"/>
-    </row>
-    <row r="28" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F27" s="8">
+        <v>5.66818131630568E-3</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0.45502838358743303</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L27" s="8">
+        <v>5.0984546542167601E-2</v>
+      </c>
+      <c r="M27" s="32">
+        <v>7.3670328740347403E-3</v>
+      </c>
+      <c r="N27" s="32">
+        <f>IF(OR(L27="",M27=""),"",L27-2*M27)</f>
+        <v>3.6250480794098122E-2</v>
+      </c>
+      <c r="O27" s="32">
+        <f>IF(OR(L27="",M27=""),"",L27+2*M27)</f>
+        <v>6.571861229023708E-2</v>
+      </c>
+      <c r="P27" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="8"/>
+    </row>
+    <row r="28" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -2383,25 +2504,26 @@
       <c r="L28" s="8">
         <v>2.48258560895919E-2</v>
       </c>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32">
+      <c r="M28" s="32">
         <v>5.6700794722876202E-3</v>
       </c>
-      <c r="Q28" s="32">
-        <f t="shared" si="0"/>
+      <c r="N28" s="32">
+        <f>IF(OR(L28="",M28=""),"",L28-2*M28)</f>
         <v>1.348569714501666E-2</v>
       </c>
-      <c r="R28" s="32">
-        <f t="shared" si="1"/>
+      <c r="O28" s="32">
+        <f>IF(OR(L28="",M28=""),"",L28+2*M28)</f>
         <v>3.6166015034167137E-2</v>
       </c>
-      <c r="S28" s="4" t="s">
+      <c r="P28" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="8"/>
+    </row>
+    <row r="29" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -2438,25 +2560,26 @@
       <c r="L29" s="8">
         <v>2.5252476707100801E-2</v>
       </c>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32">
+      <c r="M29" s="32">
         <v>5.38631197626749E-3</v>
       </c>
-      <c r="Q29" s="32">
-        <f t="shared" si="0"/>
+      <c r="N29" s="32">
+        <f>IF(OR(L29="",M29=""),"",L29-2*M29)</f>
         <v>1.4479852754565821E-2</v>
       </c>
-      <c r="R29" s="32">
-        <f t="shared" si="1"/>
+      <c r="O29" s="32">
+        <f>IF(OR(L29="",M29=""),"",L29+2*M29)</f>
         <v>3.6025100659635781E-2</v>
       </c>
-      <c r="S29" s="4" t="s">
+      <c r="P29" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="8"/>
+    </row>
+    <row r="30" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -2493,25 +2616,26 @@
       <c r="L30" s="8">
         <v>2.4648037180304502E-2</v>
       </c>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32">
+      <c r="M30" s="32">
         <v>5.9781332722895304E-3</v>
       </c>
-      <c r="Q30" s="32">
-        <f t="shared" si="0"/>
+      <c r="N30" s="32">
+        <f>IF(OR(L30="",M30=""),"",L30-2*M30)</f>
         <v>1.2691770635725441E-2</v>
       </c>
-      <c r="R30" s="32">
-        <f t="shared" si="1"/>
+      <c r="O30" s="32">
+        <f>IF(OR(L30="",M30=""),"",L30+2*M30)</f>
         <v>3.6604303724883561E-2</v>
       </c>
-      <c r="S30" s="4" t="s">
+      <c r="P30" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="8"/>
+    </row>
+    <row r="31" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -2548,25 +2672,26 @@
       <c r="L31" s="8">
         <v>2.4652411788701999E-2</v>
       </c>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32">
+      <c r="M31" s="32">
         <v>6.0787373670130197E-3</v>
       </c>
-      <c r="Q31" s="32">
-        <f t="shared" si="0"/>
+      <c r="N31" s="32">
+        <f>IF(OR(L31="",M31=""),"",L31-2*M31)</f>
         <v>1.2494937054675959E-2</v>
       </c>
-      <c r="R31" s="32">
-        <f t="shared" si="1"/>
+      <c r="O31" s="32">
+        <f>IF(OR(L31="",M31=""),"",L31+2*M31)</f>
         <v>3.6809886522728041E-2</v>
       </c>
-      <c r="S31" s="4" t="s">
+      <c r="P31" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="8"/>
+    </row>
+    <row r="32" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -2603,25 +2728,26 @@
       <c r="L32" s="8">
         <v>4.2342380434274601E-2</v>
       </c>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32">
+      <c r="M32" s="32">
         <v>8.4709934717848295E-3</v>
       </c>
-      <c r="Q32" s="32">
-        <f t="shared" si="0"/>
+      <c r="N32" s="32">
+        <f>IF(OR(L32="",M32=""),"",L32-2*M32)</f>
         <v>2.5400393490704942E-2</v>
       </c>
-      <c r="R32" s="32">
-        <f t="shared" si="1"/>
+      <c r="O32" s="32">
+        <f>IF(OR(L32="",M32=""),"",L32+2*M32)</f>
         <v>5.928436737784426E-2</v>
       </c>
-      <c r="S32" s="4" t="s">
+      <c r="P32" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="8"/>
+    </row>
+    <row r="33" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
         <v>7</v>
       </c>
@@ -2658,25 +2784,26 @@
       <c r="L33" s="8">
         <v>4.3109171092510203E-2</v>
       </c>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32">
+      <c r="M33" s="32">
         <v>8.3859349211221502E-3</v>
       </c>
-      <c r="Q33" s="32">
-        <f t="shared" si="0"/>
+      <c r="N33" s="32">
+        <f>IF(OR(L33="",M33=""),"",L33-2*M33)</f>
         <v>2.6337301250265902E-2</v>
       </c>
-      <c r="R33" s="32">
-        <f t="shared" si="1"/>
+      <c r="O33" s="32">
+        <f>IF(OR(L33="",M33=""),"",L33+2*M33)</f>
         <v>5.9881040934754506E-2</v>
       </c>
-      <c r="S33" s="4" t="s">
+      <c r="P33" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="8"/>
+    </row>
+    <row r="34" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -2713,25 +2840,26 @@
       <c r="L34" s="8">
         <v>4.7987391799688299E-2</v>
       </c>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32">
+      <c r="M34" s="32">
         <v>5.0416052322678102E-3</v>
       </c>
-      <c r="Q34" s="32">
-        <f t="shared" si="0"/>
+      <c r="N34" s="32">
+        <f>IF(OR(L34="",M34=""),"",L34-2*M34)</f>
         <v>3.7904181335152679E-2</v>
       </c>
-      <c r="R34" s="32">
-        <f t="shared" si="1"/>
+      <c r="O34" s="32">
+        <f>IF(OR(L34="",M34=""),"",L34+2*M34)</f>
         <v>5.8070602264223919E-2</v>
       </c>
-      <c r="S34" s="4" t="s">
+      <c r="P34" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="8"/>
+    </row>
+    <row r="35" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -2768,25 +2896,26 @@
       <c r="L35" s="8">
         <v>4.2748991027474398E-2</v>
       </c>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="8">
+      <c r="M35" s="8">
         <v>8.0102034327243395E-3</v>
       </c>
-      <c r="Q35" s="32">
-        <f t="shared" si="0"/>
+      <c r="N35" s="32">
+        <f>IF(OR(L35="",M35=""),"",L35-2*M35)</f>
         <v>2.6728584162025719E-2</v>
       </c>
-      <c r="R35" s="32">
-        <f t="shared" si="1"/>
+      <c r="O35" s="32">
+        <f>IF(OR(L35="",M35=""),"",L35+2*M35)</f>
         <v>5.8769397892923077E-2</v>
       </c>
-      <c r="S35" s="4" t="s">
+      <c r="P35" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="8"/>
+    </row>
+    <row r="36" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -2810,20 +2939,21 @@
       <c r="K36" s="4"/>
       <c r="L36" s="8"/>
       <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R36" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S36" s="4"/>
-    </row>
-    <row r="37" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N36" s="32" t="str">
+        <f>IF(OR(L36="",M36=""),"",L36-2*M36)</f>
+        <v/>
+      </c>
+      <c r="O36" s="32" t="str">
+        <f>IF(OR(L36="",M36=""),"",L36+2*M36)</f>
+        <v/>
+      </c>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="8"/>
+    </row>
+    <row r="37" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -2847,20 +2977,21 @@
       <c r="K37" s="4"/>
       <c r="L37" s="8"/>
       <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R37" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S37" s="4"/>
-    </row>
-    <row r="38" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N37" s="32" t="str">
+        <f>IF(OR(L37="",M37=""),"",L37-2*M37)</f>
+        <v/>
+      </c>
+      <c r="O37" s="32" t="str">
+        <f>IF(OR(L37="",M37=""),"",L37+2*M37)</f>
+        <v/>
+      </c>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="8"/>
+    </row>
+    <row r="38" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -2884,20 +3015,21 @@
       <c r="K38" s="4"/>
       <c r="L38" s="8"/>
       <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R38" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S38" s="4"/>
-    </row>
-    <row r="39" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N38" s="32" t="str">
+        <f>IF(OR(L38="",M38=""),"",L38-2*M38)</f>
+        <v/>
+      </c>
+      <c r="O38" s="32" t="str">
+        <f>IF(OR(L38="",M38=""),"",L38+2*M38)</f>
+        <v/>
+      </c>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="8"/>
+    </row>
+    <row r="39" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -2921,20 +3053,21 @@
       <c r="K39" s="4"/>
       <c r="L39" s="8"/>
       <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R39" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S39" s="4"/>
-    </row>
-    <row r="40" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N39" s="32" t="str">
+        <f>IF(OR(L39="",M39=""),"",L39-2*M39)</f>
+        <v/>
+      </c>
+      <c r="O39" s="32" t="str">
+        <f>IF(OR(L39="",M39=""),"",L39+2*M39)</f>
+        <v/>
+      </c>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="8"/>
+    </row>
+    <row r="40" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -2958,20 +3091,21 @@
       <c r="K40" s="4"/>
       <c r="L40" s="8"/>
       <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32" t="str">
-        <f t="shared" ref="Q40:Q71" si="2">IF(OR(L40="",P40=""),"",L40-2*P40)</f>
-        <v/>
-      </c>
-      <c r="R40" s="32" t="str">
-        <f t="shared" ref="R40:R71" si="3">IF(OR(L40="",P40=""),"",L40+2*P40)</f>
-        <v/>
-      </c>
-      <c r="S40" s="4"/>
-    </row>
-    <row r="41" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N40" s="32" t="str">
+        <f>IF(OR(L40="",M40=""),"",L40-2*M40)</f>
+        <v/>
+      </c>
+      <c r="O40" s="32" t="str">
+        <f>IF(OR(L40="",M40=""),"",L40+2*M40)</f>
+        <v/>
+      </c>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="8"/>
+    </row>
+    <row r="41" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -2995,20 +3129,21 @@
       <c r="K41" s="4"/>
       <c r="L41" s="8"/>
       <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R41" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S41" s="4"/>
-    </row>
-    <row r="42" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N41" s="32" t="str">
+        <f>IF(OR(L41="",M41=""),"",L41-2*M41)</f>
+        <v/>
+      </c>
+      <c r="O41" s="32" t="str">
+        <f>IF(OR(L41="",M41=""),"",L41+2*M41)</f>
+        <v/>
+      </c>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="8"/>
+    </row>
+    <row r="42" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -3032,20 +3167,21 @@
       <c r="K42" s="4"/>
       <c r="L42" s="8"/>
       <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R42" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S42" s="4"/>
-    </row>
-    <row r="43" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N42" s="32" t="str">
+        <f>IF(OR(L42="",M42=""),"",L42-2*M42)</f>
+        <v/>
+      </c>
+      <c r="O42" s="32" t="str">
+        <f>IF(OR(L42="",M42=""),"",L42+2*M42)</f>
+        <v/>
+      </c>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="8"/>
+    </row>
+    <row r="43" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -3069,20 +3205,21 @@
       <c r="K43" s="4"/>
       <c r="L43" s="8"/>
       <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R43" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S43" s="4"/>
-    </row>
-    <row r="44" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N43" s="32" t="str">
+        <f>IF(OR(L43="",M43=""),"",L43-2*M43)</f>
+        <v/>
+      </c>
+      <c r="O43" s="32" t="str">
+        <f>IF(OR(L43="",M43=""),"",L43+2*M43)</f>
+        <v/>
+      </c>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="8"/>
+    </row>
+    <row r="44" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -3119,25 +3256,26 @@
       <c r="L44" s="8">
         <v>6.3889848440885494E-2</v>
       </c>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="32">
+      <c r="M44" s="32">
         <v>7.7346900002947397E-3</v>
       </c>
-      <c r="Q44" s="32">
-        <f t="shared" si="2"/>
+      <c r="N44" s="32">
+        <f>IF(OR(L44="",M44=""),"",L44-2*M44)</f>
         <v>4.8420468440296016E-2</v>
       </c>
-      <c r="R44" s="32">
-        <f t="shared" si="3"/>
+      <c r="O44" s="32">
+        <f>IF(OR(L44="",M44=""),"",L44+2*M44)</f>
         <v>7.9359228441474972E-2</v>
       </c>
-      <c r="S44" s="4" t="s">
+      <c r="P44" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="8"/>
+    </row>
+    <row r="45" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -3174,25 +3312,26 @@
       <c r="L45" s="8">
         <v>6.4166623353958105E-2</v>
       </c>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="32"/>
-      <c r="P45" s="32">
+      <c r="M45" s="32">
         <v>6.6548007004157E-3</v>
       </c>
-      <c r="Q45" s="32">
-        <f t="shared" si="2"/>
+      <c r="N45" s="32">
+        <f>IF(OR(L45="",M45=""),"",L45-2*M45)</f>
         <v>5.0857021953126705E-2</v>
       </c>
-      <c r="R45" s="32">
-        <f t="shared" si="3"/>
+      <c r="O45" s="32">
+        <f>IF(OR(L45="",M45=""),"",L45+2*M45)</f>
         <v>7.7476224754789505E-2</v>
       </c>
-      <c r="S45" s="4" t="s">
+      <c r="P45" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="8"/>
+    </row>
+    <row r="46" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -3229,25 +3368,26 @@
       <c r="L46" s="8">
         <v>6.4187121391296301E-2</v>
       </c>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="32">
+      <c r="M46" s="32">
         <v>5.9450571209661096E-3</v>
       </c>
-      <c r="Q46" s="32">
-        <f t="shared" si="2"/>
+      <c r="N46" s="32">
+        <f>IF(OR(L46="",M46=""),"",L46-2*M46)</f>
         <v>5.2297007149364083E-2</v>
       </c>
-      <c r="R46" s="32">
-        <f t="shared" si="3"/>
+      <c r="O46" s="32">
+        <f>IF(OR(L46="",M46=""),"",L46+2*M46)</f>
         <v>7.6077235633228518E-2</v>
       </c>
-      <c r="S46" s="4" t="s">
+      <c r="P46" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="8"/>
+    </row>
+    <row r="47" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -3284,25 +3424,26 @@
       <c r="L47" s="8">
         <v>6.4157097786664896E-2</v>
       </c>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="32"/>
-      <c r="P47" s="32">
+      <c r="M47" s="32">
         <v>7.1353560390252204E-3</v>
       </c>
-      <c r="Q47" s="32">
-        <f t="shared" si="2"/>
+      <c r="N47" s="32">
+        <f>IF(OR(L47="",M47=""),"",L47-2*M47)</f>
         <v>4.9886385708614457E-2</v>
       </c>
-      <c r="R47" s="32">
-        <f t="shared" si="3"/>
+      <c r="O47" s="32">
+        <f>IF(OR(L47="",M47=""),"",L47+2*M47)</f>
         <v>7.8427809864715342E-2</v>
       </c>
-      <c r="S47" s="4" t="s">
+      <c r="P47" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="8"/>
+    </row>
+    <row r="48" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
         <v>16</v>
       </c>
@@ -3339,25 +3480,26 @@
       <c r="L48" s="8">
         <v>1.7400306090712501E-2</v>
       </c>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="32">
+      <c r="M48" s="32">
         <v>1.5858265028333299E-3</v>
       </c>
-      <c r="Q48" s="32">
-        <f t="shared" si="2"/>
+      <c r="N48" s="32">
+        <f>IF(OR(L48="",M48=""),"",L48-2*M48)</f>
         <v>1.4228653085045841E-2</v>
       </c>
-      <c r="R48" s="32">
-        <f t="shared" si="3"/>
+      <c r="O48" s="32">
+        <f>IF(OR(L48="",M48=""),"",L48+2*M48)</f>
         <v>2.0571959096379162E-2</v>
       </c>
-      <c r="S48" s="4" t="s">
+      <c r="P48" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="8"/>
+    </row>
+    <row r="49" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
         <v>16</v>
       </c>
@@ -3394,25 +3536,26 @@
       <c r="L49" s="8">
         <v>1.6947442106902501E-2</v>
       </c>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="32">
+      <c r="M49" s="32">
         <v>1.8991386347620199E-3</v>
       </c>
-      <c r="Q49" s="32">
-        <f t="shared" si="2"/>
+      <c r="N49" s="32">
+        <f>IF(OR(L49="",M49=""),"",L49-2*M49)</f>
         <v>1.3149164837378461E-2</v>
       </c>
-      <c r="R49" s="32">
-        <f t="shared" si="3"/>
+      <c r="O49" s="32">
+        <f>IF(OR(L49="",M49=""),"",L49+2*M49)</f>
         <v>2.0745719376426542E-2</v>
       </c>
-      <c r="S49" s="4" t="s">
+      <c r="P49" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="8"/>
+    </row>
+    <row r="50" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
         <v>16</v>
       </c>
@@ -3449,25 +3592,26 @@
       <c r="L50" s="8">
         <v>1.84243541210889E-2</v>
       </c>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32">
+      <c r="M50" s="32">
         <v>1.8328776188585201E-3</v>
       </c>
-      <c r="Q50" s="32">
-        <f t="shared" si="2"/>
+      <c r="N50" s="32">
+        <f>IF(OR(L50="",M50=""),"",L50-2*M50)</f>
         <v>1.475859888337186E-2</v>
       </c>
-      <c r="R50" s="32">
-        <f t="shared" si="3"/>
+      <c r="O50" s="32">
+        <f>IF(OR(L50="",M50=""),"",L50+2*M50)</f>
         <v>2.209010935880594E-2</v>
       </c>
-      <c r="S50" s="4" t="s">
+      <c r="P50" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="8"/>
+    </row>
+    <row r="51" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="4" t="s">
         <v>16</v>
       </c>
@@ -3504,25 +3648,26 @@
       <c r="L51" s="8">
         <v>1.6907527111470699E-2</v>
       </c>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="32">
+      <c r="M51" s="32">
         <v>2.1123652242705901E-3</v>
       </c>
-      <c r="Q51" s="32">
-        <f t="shared" si="2"/>
+      <c r="N51" s="32">
+        <f>IF(OR(L51="",M51=""),"",L51-2*M51)</f>
         <v>1.268279666292952E-2</v>
       </c>
-      <c r="R51" s="32">
-        <f t="shared" si="3"/>
+      <c r="O51" s="32">
+        <f>IF(OR(L51="",M51=""),"",L51+2*M51)</f>
         <v>2.1132257560011879E-2</v>
       </c>
-      <c r="S51" s="4" t="s">
+      <c r="P51" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="8"/>
+    </row>
+    <row r="52" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
         <v>16</v>
       </c>
@@ -3559,25 +3704,26 @@
       <c r="L52" s="8">
         <v>2.6739645376801398E-2</v>
       </c>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32">
+      <c r="M52" s="32">
         <v>5.6771983782391601E-3</v>
       </c>
-      <c r="Q52" s="32">
-        <f t="shared" si="2"/>
+      <c r="N52" s="32">
+        <f>IF(OR(L52="",M52=""),"",L52-2*M52)</f>
         <v>1.5385248620323078E-2</v>
       </c>
-      <c r="R52" s="32">
-        <f t="shared" si="3"/>
+      <c r="O52" s="32">
+        <f>IF(OR(L52="",M52=""),"",L52+2*M52)</f>
         <v>3.8094042133279715E-2</v>
       </c>
-      <c r="S52" s="4" t="s">
+      <c r="P52" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="8"/>
+    </row>
+    <row r="53" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
         <v>16</v>
       </c>
@@ -3599,20 +3745,21 @@
       <c r="K53" s="4"/>
       <c r="L53" s="8"/>
       <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R53" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S53" s="4"/>
-    </row>
-    <row r="54" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N53" s="32" t="str">
+        <f>IF(OR(L53="",M53=""),"",L53-2*M53)</f>
+        <v/>
+      </c>
+      <c r="O53" s="32" t="str">
+        <f>IF(OR(L53="",M53=""),"",L53+2*M53)</f>
+        <v/>
+      </c>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="8"/>
+    </row>
+    <row r="54" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
         <v>16</v>
       </c>
@@ -3634,20 +3781,21 @@
       <c r="K54" s="4"/>
       <c r="L54" s="8"/>
       <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="32"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R54" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S54" s="4"/>
-    </row>
-    <row r="55" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N54" s="32" t="str">
+        <f>IF(OR(L54="",M54=""),"",L54-2*M54)</f>
+        <v/>
+      </c>
+      <c r="O54" s="32" t="str">
+        <f>IF(OR(L54="",M54=""),"",L54+2*M54)</f>
+        <v/>
+      </c>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="8"/>
+    </row>
+    <row r="55" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
         <v>16</v>
       </c>
@@ -3660,29 +3808,50 @@
       <c r="D55" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="32"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R55" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S55" s="4"/>
-    </row>
-    <row r="56" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="8">
+        <v>3.5389231055355998E-2</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="8">
+        <v>0.19828711467502899</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L55" s="8">
+        <v>6.3001682609319598E-2</v>
+      </c>
+      <c r="M55" s="32">
+        <v>9.9274488339909997E-3</v>
+      </c>
+      <c r="N55" s="32">
+        <f>IF(OR(L55="",M55=""),"",L55-2*M55)</f>
+        <v>4.3146784941337599E-2</v>
+      </c>
+      <c r="O55" s="32">
+        <f>IF(OR(L55="",M55=""),"",L55+2*M55)</f>
+        <v>8.2856580277301597E-2</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="8"/>
+    </row>
+    <row r="56" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
         <v>16</v>
       </c>
@@ -3704,20 +3873,21 @@
       <c r="K56" s="4"/>
       <c r="L56" s="8"/>
       <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R56" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S56" s="4"/>
-    </row>
-    <row r="57" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N56" s="32" t="str">
+        <f>IF(OR(L56="",M56=""),"",L56-2*M56)</f>
+        <v/>
+      </c>
+      <c r="O56" s="32" t="str">
+        <f>IF(OR(L56="",M56=""),"",L56+2*M56)</f>
+        <v/>
+      </c>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="8"/>
+    </row>
+    <row r="57" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
         <v>16</v>
       </c>
@@ -3739,20 +3909,21 @@
       <c r="K57" s="4"/>
       <c r="L57" s="8"/>
       <c r="M57" s="32"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="32"/>
-      <c r="Q57" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R57" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S57" s="4"/>
-    </row>
-    <row r="58" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N57" s="32" t="str">
+        <f>IF(OR(L57="",M57=""),"",L57-2*M57)</f>
+        <v/>
+      </c>
+      <c r="O57" s="32" t="str">
+        <f>IF(OR(L57="",M57=""),"",L57+2*M57)</f>
+        <v/>
+      </c>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="8"/>
+    </row>
+    <row r="58" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="4" t="s">
         <v>16</v>
       </c>
@@ -3774,20 +3945,21 @@
       <c r="K58" s="4"/>
       <c r="L58" s="8"/>
       <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
-      <c r="Q58" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R58" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S58" s="4"/>
-    </row>
-    <row r="59" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N58" s="32" t="str">
+        <f>IF(OR(L58="",M58=""),"",L58-2*M58)</f>
+        <v/>
+      </c>
+      <c r="O58" s="32" t="str">
+        <f>IF(OR(L58="",M58=""),"",L58+2*M58)</f>
+        <v/>
+      </c>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="8"/>
+    </row>
+    <row r="59" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
         <v>16</v>
       </c>
@@ -3809,20 +3981,21 @@
       <c r="K59" s="4"/>
       <c r="L59" s="8"/>
       <c r="M59" s="32"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="32"/>
-      <c r="P59" s="32"/>
-      <c r="Q59" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R59" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S59" s="4"/>
-    </row>
-    <row r="60" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N59" s="32" t="str">
+        <f>IF(OR(L59="",M59=""),"",L59-2*M59)</f>
+        <v/>
+      </c>
+      <c r="O59" s="32" t="str">
+        <f>IF(OR(L59="",M59=""),"",L59+2*M59)</f>
+        <v/>
+      </c>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="8"/>
+    </row>
+    <row r="60" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
         <v>16</v>
       </c>
@@ -3844,20 +4017,21 @@
       <c r="K60" s="4"/>
       <c r="L60" s="8"/>
       <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
-      <c r="O60" s="32"/>
-      <c r="P60" s="32"/>
-      <c r="Q60" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R60" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S60" s="4"/>
-    </row>
-    <row r="61" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N60" s="32" t="str">
+        <f>IF(OR(L60="",M60=""),"",L60-2*M60)</f>
+        <v/>
+      </c>
+      <c r="O60" s="32" t="str">
+        <f>IF(OR(L60="",M60=""),"",L60+2*M60)</f>
+        <v/>
+      </c>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="32"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="8"/>
+    </row>
+    <row r="61" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
         <v>16</v>
       </c>
@@ -3879,20 +4053,21 @@
       <c r="K61" s="4"/>
       <c r="L61" s="8"/>
       <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R61" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S61" s="4"/>
-    </row>
-    <row r="62" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N61" s="32" t="str">
+        <f>IF(OR(L61="",M61=""),"",L61-2*M61)</f>
+        <v/>
+      </c>
+      <c r="O61" s="32" t="str">
+        <f>IF(OR(L61="",M61=""),"",L61+2*M61)</f>
+        <v/>
+      </c>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+      <c r="T61" s="8"/>
+    </row>
+    <row r="62" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
         <v>16</v>
       </c>
@@ -3914,20 +4089,21 @@
       <c r="K62" s="4"/>
       <c r="L62" s="8"/>
       <c r="M62" s="32"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R62" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S62" s="4"/>
-    </row>
-    <row r="63" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N62" s="32" t="str">
+        <f>IF(OR(L62="",M62=""),"",L62-2*M62)</f>
+        <v/>
+      </c>
+      <c r="O62" s="32" t="str">
+        <f>IF(OR(L62="",M62=""),"",L62+2*M62)</f>
+        <v/>
+      </c>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+      <c r="T62" s="8"/>
+    </row>
+    <row r="63" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
         <v>16</v>
       </c>
@@ -3949,20 +4125,21 @@
       <c r="K63" s="4"/>
       <c r="L63" s="8"/>
       <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R63" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S63" s="4"/>
-    </row>
-    <row r="64" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N63" s="32" t="str">
+        <f>IF(OR(L63="",M63=""),"",L63-2*M63)</f>
+        <v/>
+      </c>
+      <c r="O63" s="32" t="str">
+        <f>IF(OR(L63="",M63=""),"",L63+2*M63)</f>
+        <v/>
+      </c>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="8"/>
+    </row>
+    <row r="64" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
         <v>16</v>
       </c>
@@ -3999,25 +4176,26 @@
       <c r="L64" s="8">
         <v>4.8579138517379702E-2</v>
       </c>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="32">
+      <c r="M64" s="32">
         <v>7.7788288356444597E-3</v>
       </c>
-      <c r="Q64" s="32">
-        <f t="shared" si="2"/>
+      <c r="N64" s="32">
+        <f>IF(OR(L64="",M64=""),"",L64-2*M64)</f>
         <v>3.3021480846090787E-2</v>
       </c>
-      <c r="R64" s="32">
-        <f t="shared" si="3"/>
+      <c r="O64" s="32">
+        <f>IF(OR(L64="",M64=""),"",L64+2*M64)</f>
         <v>6.4136796188668618E-2</v>
       </c>
-      <c r="S64" s="4" t="s">
+      <c r="P64" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+      <c r="T64" s="8"/>
+    </row>
+    <row r="65" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
         <v>16</v>
       </c>
@@ -4030,29 +4208,50 @@
       <c r="D65" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="32"/>
-      <c r="Q65" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R65" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S65" s="4"/>
-    </row>
-    <row r="66" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E65" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" s="8">
+        <v>1.4335369627198099E-3</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J65" s="8">
+        <v>0.119450201262226</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L65" s="8">
+        <v>2.89289198815822E-2</v>
+      </c>
+      <c r="M65" s="32">
+        <v>5.8521715749912202E-3</v>
+      </c>
+      <c r="N65" s="32">
+        <f>IF(OR(L65="",M65=""),"",L65-2*M65)</f>
+        <v>1.7224576731599758E-2</v>
+      </c>
+      <c r="O65" s="32">
+        <f>IF(OR(L65="",M65=""),"",L65+2*M65)</f>
+        <v>4.0633263031564643E-2</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="8"/>
+    </row>
+    <row r="66" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="4" t="s">
         <v>16</v>
       </c>
@@ -4074,20 +4273,21 @@
       <c r="K66" s="4"/>
       <c r="L66" s="8"/>
       <c r="M66" s="32"/>
-      <c r="N66" s="32"/>
-      <c r="O66" s="32"/>
-      <c r="P66" s="32"/>
-      <c r="Q66" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R66" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S66" s="4"/>
-    </row>
-    <row r="67" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N66" s="32" t="str">
+        <f>IF(OR(L66="",M66=""),"",L66-2*M66)</f>
+        <v/>
+      </c>
+      <c r="O66" s="32" t="str">
+        <f>IF(OR(L66="",M66=""),"",L66+2*M66)</f>
+        <v/>
+      </c>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="32"/>
+      <c r="R66" s="32"/>
+      <c r="S66" s="32"/>
+      <c r="T66" s="8"/>
+    </row>
+    <row r="67" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" s="4" t="s">
         <v>16</v>
       </c>
@@ -4100,29 +4300,50 @@
       <c r="D67" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="32"/>
-      <c r="O67" s="32"/>
-      <c r="P67" s="32"/>
-      <c r="Q67" s="32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R67" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="S67" s="4"/>
-    </row>
-    <row r="68" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" s="8">
+        <v>0.22687330685163601</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J67" s="8">
+        <v>0.28713470692398402</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L67" s="8">
+        <v>4.8241648077964702E-2</v>
+      </c>
+      <c r="M67" s="32">
+        <v>8.0872044320746701E-3</v>
+      </c>
+      <c r="N67" s="32">
+        <f>IF(OR(L67="",M67=""),"",L67-2*M67)</f>
+        <v>3.2067239213815366E-2</v>
+      </c>
+      <c r="O67" s="32">
+        <f>IF(OR(L67="",M67=""),"",L67+2*M67)</f>
+        <v>6.4416056942114039E-2</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q67" s="32"/>
+      <c r="R67" s="32"/>
+      <c r="S67" s="32"/>
+      <c r="T67" s="8"/>
+    </row>
+    <row r="68" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
         <v>16</v>
       </c>
@@ -4159,25 +4380,26 @@
       <c r="L68" s="8">
         <v>2.33405344188213E-2</v>
       </c>
-      <c r="M68" s="32"/>
-      <c r="N68" s="32"/>
-      <c r="O68" s="32"/>
-      <c r="P68" s="32">
+      <c r="M68" s="32">
         <v>5.6762783643436801E-3</v>
       </c>
-      <c r="Q68" s="32">
-        <f t="shared" si="2"/>
+      <c r="N68" s="32">
+        <f>IF(OR(L68="",M68=""),"",L68-2*M68)</f>
         <v>1.198797769013394E-2</v>
       </c>
-      <c r="R68" s="32">
-        <f t="shared" si="3"/>
+      <c r="O68" s="32">
+        <f>IF(OR(L68="",M68=""),"",L68+2*M68)</f>
         <v>3.469309114750866E-2</v>
       </c>
-      <c r="S68" s="4" t="s">
+      <c r="P68" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q68" s="32"/>
+      <c r="R68" s="32"/>
+      <c r="S68" s="32"/>
+      <c r="T68" s="8"/>
+    </row>
+    <row r="69" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
         <v>16</v>
       </c>
@@ -4214,25 +4436,26 @@
       <c r="L69" s="8">
         <v>1.5211693756282301E-2</v>
       </c>
-      <c r="M69" s="32"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="32"/>
-      <c r="P69" s="32">
+      <c r="M69" s="32">
         <v>2.45734843548837E-3</v>
       </c>
-      <c r="Q69" s="32">
-        <f t="shared" si="2"/>
+      <c r="N69" s="32">
+        <f>IF(OR(L69="",M69=""),"",L69-2*M69)</f>
         <v>1.0296996885305561E-2</v>
       </c>
-      <c r="R69" s="32">
-        <f t="shared" si="3"/>
+      <c r="O69" s="32">
+        <f>IF(OR(L69="",M69=""),"",L69+2*M69)</f>
         <v>2.0126390627259041E-2</v>
       </c>
-      <c r="S69" s="4" t="s">
+      <c r="P69" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q69" s="32"/>
+      <c r="R69" s="32"/>
+      <c r="S69" s="32"/>
+      <c r="T69" s="8"/>
+    </row>
+    <row r="70" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="4" t="s">
         <v>16</v>
       </c>
@@ -4269,25 +4492,26 @@
       <c r="L70" s="8">
         <v>2.2255120053887301E-2</v>
       </c>
-      <c r="M70" s="32"/>
-      <c r="N70" s="32"/>
-      <c r="O70" s="32"/>
-      <c r="P70" s="32">
+      <c r="M70" s="32">
         <v>5.5587759654508696E-3</v>
       </c>
-      <c r="Q70" s="32">
-        <f t="shared" si="2"/>
+      <c r="N70" s="32">
+        <f>IF(OR(L70="",M70=""),"",L70-2*M70)</f>
         <v>1.1137568122985561E-2</v>
       </c>
-      <c r="R70" s="32">
-        <f t="shared" si="3"/>
+      <c r="O70" s="32">
+        <f>IF(OR(L70="",M70=""),"",L70+2*M70)</f>
         <v>3.3372671984789042E-2</v>
       </c>
-      <c r="S70" s="4" t="s">
+      <c r="P70" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q70" s="32"/>
+      <c r="R70" s="32"/>
+      <c r="S70" s="32"/>
+      <c r="T70" s="8"/>
+    </row>
+    <row r="71" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71" s="4" t="s">
         <v>16</v>
       </c>
@@ -4324,25 +4548,26 @@
       <c r="L71" s="8">
         <v>1.7037345282733402E-2</v>
       </c>
-      <c r="M71" s="32"/>
-      <c r="N71" s="32"/>
-      <c r="O71" s="32"/>
-      <c r="P71" s="32">
+      <c r="M71" s="32">
         <v>3.8343275498706501E-3</v>
       </c>
-      <c r="Q71" s="32">
-        <f t="shared" si="2"/>
+      <c r="N71" s="32">
+        <f>IF(OR(L71="",M71=""),"",L71-2*M71)</f>
         <v>9.3686901829921013E-3</v>
       </c>
-      <c r="R71" s="32">
-        <f t="shared" si="3"/>
+      <c r="O71" s="32">
+        <f>IF(OR(L71="",M71=""),"",L71+2*M71)</f>
         <v>2.4706000382474703E-2</v>
       </c>
-      <c r="S71" s="4" t="s">
+      <c r="P71" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q71" s="32"/>
+      <c r="R71" s="32"/>
+      <c r="S71" s="32"/>
+      <c r="T71" s="8"/>
+    </row>
+    <row r="72" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="4" t="s">
         <v>16</v>
       </c>
@@ -4379,25 +4604,26 @@
       <c r="L72" s="8">
         <v>3.9805786311626401E-2</v>
       </c>
-      <c r="M72" s="32"/>
-      <c r="N72" s="32"/>
-      <c r="O72" s="32"/>
-      <c r="P72" s="32">
+      <c r="M72" s="32">
         <v>7.01124318502413E-3</v>
       </c>
-      <c r="Q72" s="32">
-        <f t="shared" ref="Q72:Q87" si="4">IF(OR(L72="",P72=""),"",L72-2*P72)</f>
+      <c r="N72" s="32">
+        <f>IF(OR(L72="",M72=""),"",L72-2*M72)</f>
         <v>2.5783299941578141E-2</v>
       </c>
-      <c r="R72" s="32">
-        <f t="shared" ref="R72:R87" si="5">IF(OR(L72="",P72=""),"",L72+2*P72)</f>
+      <c r="O72" s="32">
+        <f>IF(OR(L72="",M72=""),"",L72+2*M72)</f>
         <v>5.3828272681674658E-2</v>
       </c>
-      <c r="S72" s="4" t="s">
+      <c r="P72" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q72" s="32"/>
+      <c r="R72" s="32"/>
+      <c r="S72" s="32"/>
+      <c r="T72" s="8"/>
+    </row>
+    <row r="73" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A73" s="4" t="s">
         <v>16</v>
       </c>
@@ -4434,25 +4660,26 @@
       <c r="L73" s="8">
         <v>2.29038143530488E-2</v>
       </c>
-      <c r="M73" s="32"/>
-      <c r="N73" s="32"/>
-      <c r="O73" s="32"/>
-      <c r="P73" s="32">
+      <c r="M73" s="32">
         <v>4.7737350319561698E-3</v>
       </c>
-      <c r="Q73" s="32">
-        <f t="shared" si="4"/>
+      <c r="N73" s="32">
+        <f>IF(OR(L73="",M73=""),"",L73-2*M73)</f>
         <v>1.335634428913646E-2</v>
       </c>
-      <c r="R73" s="32">
-        <f t="shared" si="5"/>
+      <c r="O73" s="32">
+        <f>IF(OR(L73="",M73=""),"",L73+2*M73)</f>
         <v>3.2451284416961143E-2</v>
       </c>
-      <c r="S73" s="4" t="s">
+      <c r="P73" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q73" s="32"/>
+      <c r="R73" s="32"/>
+      <c r="S73" s="32"/>
+      <c r="T73" s="8"/>
+    </row>
+    <row r="74" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
         <v>16</v>
       </c>
@@ -4489,25 +4716,26 @@
       <c r="L74" s="8">
         <v>2.00282275676727E-2</v>
       </c>
-      <c r="M74" s="32"/>
-      <c r="N74" s="32"/>
-      <c r="O74" s="32"/>
-      <c r="P74" s="32">
+      <c r="M74" s="32">
         <v>3.5897180816403E-3</v>
       </c>
-      <c r="Q74" s="32">
-        <f t="shared" si="4"/>
+      <c r="N74" s="32">
+        <f>IF(OR(L74="",M74=""),"",L74-2*M74)</f>
         <v>1.28487914043921E-2</v>
       </c>
-      <c r="R74" s="32">
-        <f t="shared" si="5"/>
+      <c r="O74" s="32">
+        <f>IF(OR(L74="",M74=""),"",L74+2*M74)</f>
         <v>2.7207663730953298E-2</v>
       </c>
-      <c r="S74" s="4" t="s">
+      <c r="P74" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q74" s="32"/>
+      <c r="R74" s="32"/>
+      <c r="S74" s="32"/>
+      <c r="T74" s="8"/>
+    </row>
+    <row r="75" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
         <v>16</v>
       </c>
@@ -4529,20 +4757,21 @@
       <c r="K75" s="4"/>
       <c r="L75" s="8"/>
       <c r="M75" s="32"/>
-      <c r="N75" s="32"/>
-      <c r="O75" s="32"/>
-      <c r="P75" s="32"/>
-      <c r="Q75" s="32" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R75" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S75" s="4"/>
-    </row>
-    <row r="76" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N75" s="32" t="str">
+        <f>IF(OR(L75="",M75=""),"",L75-2*M75)</f>
+        <v/>
+      </c>
+      <c r="O75" s="32" t="str">
+        <f>IF(OR(L75="",M75=""),"",L75+2*M75)</f>
+        <v/>
+      </c>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="32"/>
+      <c r="R75" s="32"/>
+      <c r="S75" s="32"/>
+      <c r="T75" s="8"/>
+    </row>
+    <row r="76" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="4" t="s">
         <v>16</v>
       </c>
@@ -4564,20 +4793,21 @@
       <c r="K76" s="4"/>
       <c r="L76" s="8"/>
       <c r="M76" s="32"/>
-      <c r="N76" s="32"/>
-      <c r="O76" s="32"/>
-      <c r="P76" s="32"/>
-      <c r="Q76" s="32" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R76" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S76" s="4"/>
-    </row>
-    <row r="77" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N76" s="32" t="str">
+        <f>IF(OR(L76="",M76=""),"",L76-2*M76)</f>
+        <v/>
+      </c>
+      <c r="O76" s="32" t="str">
+        <f>IF(OR(L76="",M76=""),"",L76+2*M76)</f>
+        <v/>
+      </c>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="32"/>
+      <c r="R76" s="32"/>
+      <c r="S76" s="32"/>
+      <c r="T76" s="8"/>
+    </row>
+    <row r="77" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
         <v>16</v>
       </c>
@@ -4599,20 +4829,21 @@
       <c r="K77" s="4"/>
       <c r="L77" s="8"/>
       <c r="M77" s="32"/>
-      <c r="N77" s="32"/>
-      <c r="O77" s="32"/>
-      <c r="P77" s="32"/>
-      <c r="Q77" s="32" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R77" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S77" s="4"/>
-    </row>
-    <row r="78" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N77" s="32" t="str">
+        <f>IF(OR(L77="",M77=""),"",L77-2*M77)</f>
+        <v/>
+      </c>
+      <c r="O77" s="32" t="str">
+        <f>IF(OR(L77="",M77=""),"",L77+2*M77)</f>
+        <v/>
+      </c>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="32"/>
+      <c r="R77" s="32"/>
+      <c r="S77" s="32"/>
+      <c r="T77" s="8"/>
+    </row>
+    <row r="78" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="4" t="s">
         <v>16</v>
       </c>
@@ -4634,20 +4865,21 @@
       <c r="K78" s="4"/>
       <c r="L78" s="8"/>
       <c r="M78" s="32"/>
-      <c r="N78" s="32"/>
-      <c r="O78" s="32"/>
-      <c r="P78" s="32"/>
-      <c r="Q78" s="32" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R78" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S78" s="4"/>
-    </row>
-    <row r="79" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N78" s="32" t="str">
+        <f>IF(OR(L78="",M78=""),"",L78-2*M78)</f>
+        <v/>
+      </c>
+      <c r="O78" s="32" t="str">
+        <f>IF(OR(L78="",M78=""),"",L78+2*M78)</f>
+        <v/>
+      </c>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="32"/>
+      <c r="R78" s="32"/>
+      <c r="S78" s="32"/>
+      <c r="T78" s="8"/>
+    </row>
+    <row r="79" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A79" s="4" t="s">
         <v>16</v>
       </c>
@@ -4669,20 +4901,21 @@
       <c r="K79" s="4"/>
       <c r="L79" s="8"/>
       <c r="M79" s="32"/>
-      <c r="N79" s="32"/>
-      <c r="O79" s="32"/>
-      <c r="P79" s="32"/>
-      <c r="Q79" s="32" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R79" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S79" s="4"/>
-    </row>
-    <row r="80" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N79" s="32" t="str">
+        <f>IF(OR(L79="",M79=""),"",L79-2*M79)</f>
+        <v/>
+      </c>
+      <c r="O79" s="32" t="str">
+        <f>IF(OR(L79="",M79=""),"",L79+2*M79)</f>
+        <v/>
+      </c>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="32"/>
+      <c r="R79" s="32"/>
+      <c r="S79" s="32"/>
+      <c r="T79" s="8"/>
+    </row>
+    <row r="80" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A80" s="4" t="s">
         <v>16</v>
       </c>
@@ -4704,20 +4937,21 @@
       <c r="K80" s="4"/>
       <c r="L80" s="8"/>
       <c r="M80" s="32"/>
-      <c r="N80" s="32"/>
-      <c r="O80" s="32"/>
-      <c r="P80" s="32"/>
-      <c r="Q80" s="32" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R80" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S80" s="4"/>
-    </row>
-    <row r="81" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N80" s="32" t="str">
+        <f>IF(OR(L80="",M80=""),"",L80-2*M80)</f>
+        <v/>
+      </c>
+      <c r="O80" s="32" t="str">
+        <f>IF(OR(L80="",M80=""),"",L80+2*M80)</f>
+        <v/>
+      </c>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="32"/>
+      <c r="R80" s="32"/>
+      <c r="S80" s="32"/>
+      <c r="T80" s="8"/>
+    </row>
+    <row r="81" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A81" s="4" t="s">
         <v>16</v>
       </c>
@@ -4739,20 +4973,21 @@
       <c r="K81" s="4"/>
       <c r="L81" s="8"/>
       <c r="M81" s="32"/>
-      <c r="N81" s="32"/>
-      <c r="O81" s="32"/>
-      <c r="P81" s="32"/>
-      <c r="Q81" s="32" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R81" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S81" s="4"/>
-    </row>
-    <row r="82" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N81" s="32" t="str">
+        <f>IF(OR(L81="",M81=""),"",L81-2*M81)</f>
+        <v/>
+      </c>
+      <c r="O81" s="32" t="str">
+        <f>IF(OR(L81="",M81=""),"",L81+2*M81)</f>
+        <v/>
+      </c>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="32"/>
+      <c r="R81" s="32"/>
+      <c r="S81" s="32"/>
+      <c r="T81" s="8"/>
+    </row>
+    <row r="82" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="4" t="s">
         <v>16</v>
       </c>
@@ -4774,20 +5009,21 @@
       <c r="K82" s="4"/>
       <c r="L82" s="8"/>
       <c r="M82" s="32"/>
-      <c r="N82" s="32"/>
-      <c r="O82" s="32"/>
-      <c r="P82" s="32"/>
-      <c r="Q82" s="32" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R82" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S82" s="4"/>
-    </row>
-    <row r="83" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N82" s="32" t="str">
+        <f>IF(OR(L82="",M82=""),"",L82-2*M82)</f>
+        <v/>
+      </c>
+      <c r="O82" s="32" t="str">
+        <f>IF(OR(L82="",M82=""),"",L82+2*M82)</f>
+        <v/>
+      </c>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="32"/>
+      <c r="R82" s="32"/>
+      <c r="S82" s="32"/>
+      <c r="T82" s="8"/>
+    </row>
+    <row r="83" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83" s="4" t="s">
         <v>16</v>
       </c>
@@ -4809,20 +5045,21 @@
       <c r="K83" s="4"/>
       <c r="L83" s="8"/>
       <c r="M83" s="32"/>
-      <c r="N83" s="32"/>
-      <c r="O83" s="32"/>
-      <c r="P83" s="32"/>
-      <c r="Q83" s="32" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R83" s="32" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S83" s="4"/>
-    </row>
-    <row r="84" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N83" s="32" t="str">
+        <f>IF(OR(L83="",M83=""),"",L83-2*M83)</f>
+        <v/>
+      </c>
+      <c r="O83" s="32" t="str">
+        <f>IF(OR(L83="",M83=""),"",L83+2*M83)</f>
+        <v/>
+      </c>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="32"/>
+      <c r="R83" s="32"/>
+      <c r="S83" s="32"/>
+      <c r="T83" s="8"/>
+    </row>
+    <row r="84" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A84" s="4" t="s">
         <v>16</v>
       </c>
@@ -4859,25 +5096,26 @@
       <c r="L84" s="8">
         <v>6.0124675184488198E-2</v>
       </c>
-      <c r="M84" s="32"/>
-      <c r="N84" s="32"/>
-      <c r="O84" s="32"/>
-      <c r="P84" s="32">
+      <c r="M84" s="32">
         <v>7.3849208638697601E-3</v>
       </c>
-      <c r="Q84" s="32">
-        <f t="shared" si="4"/>
+      <c r="N84" s="32">
+        <f>IF(OR(L84="",M84=""),"",L84-2*M84)</f>
         <v>4.5354833456748678E-2</v>
       </c>
-      <c r="R84" s="32">
-        <f t="shared" si="5"/>
+      <c r="O84" s="32">
+        <f>IF(OR(L84="",M84=""),"",L84+2*M84)</f>
         <v>7.4894516912227718E-2</v>
       </c>
-      <c r="S84" s="4" t="s">
+      <c r="P84" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q84" s="32"/>
+      <c r="R84" s="32"/>
+      <c r="S84" s="32"/>
+      <c r="T84" s="8"/>
+    </row>
+    <row r="85" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" s="4" t="s">
         <v>16</v>
       </c>
@@ -4914,25 +5152,26 @@
       <c r="L85" s="8">
         <v>6.1281017214059798E-2</v>
       </c>
-      <c r="M85" s="32"/>
-      <c r="N85" s="32"/>
-      <c r="O85" s="32"/>
-      <c r="P85" s="32">
+      <c r="M85" s="32">
         <v>5.6262057271695802E-3</v>
       </c>
-      <c r="Q85" s="32">
-        <f t="shared" ref="Q85" si="6">IF(OR(L85="",P85=""),"",L85-2*P85)</f>
+      <c r="N85" s="32">
+        <f>IF(OR(L85="",M85=""),"",L85-2*M85)</f>
         <v>5.0028605759720637E-2</v>
       </c>
-      <c r="R85" s="32">
-        <f t="shared" si="5"/>
+      <c r="O85" s="32">
+        <f>IF(OR(L85="",M85=""),"",L85+2*M85)</f>
         <v>7.2533428668398958E-2</v>
       </c>
-      <c r="S85" s="4" t="s">
+      <c r="P85" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q85" s="32"/>
+      <c r="R85" s="32"/>
+      <c r="S85" s="32"/>
+      <c r="T85" s="8"/>
+    </row>
+    <row r="86" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86" s="4" t="s">
         <v>16</v>
       </c>
@@ -4969,25 +5208,26 @@
       <c r="L86" s="8">
         <v>6.2436234951019201E-2</v>
       </c>
-      <c r="M86" s="32"/>
-      <c r="N86" s="32"/>
-      <c r="O86" s="32"/>
-      <c r="P86" s="32">
+      <c r="M86" s="32">
         <v>6.0537433442488702E-3</v>
       </c>
-      <c r="Q86" s="32">
-        <f t="shared" si="4"/>
+      <c r="N86" s="32">
+        <f>IF(OR(L86="",M86=""),"",L86-2*M86)</f>
         <v>5.0328748262521462E-2</v>
       </c>
-      <c r="R86" s="32">
-        <f t="shared" si="5"/>
+      <c r="O86" s="32">
+        <f>IF(OR(L86="",M86=""),"",L86+2*M86)</f>
         <v>7.4543721639516947E-2</v>
       </c>
-      <c r="S86" s="4" t="s">
+      <c r="P86" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q86" s="32"/>
+      <c r="R86" s="32"/>
+      <c r="S86" s="32"/>
+      <c r="T86" s="8"/>
+    </row>
+    <row r="87" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87" s="4" t="s">
         <v>16</v>
       </c>
@@ -5024,31 +5264,52 @@
       <c r="L87" s="8">
         <v>3.8152105361223203E-2</v>
       </c>
-      <c r="M87" s="32"/>
-      <c r="N87" s="32"/>
-      <c r="O87" s="32"/>
-      <c r="P87" s="32">
+      <c r="M87" s="32">
         <v>5.0818124143602204E-3</v>
       </c>
-      <c r="Q87" s="32">
-        <f t="shared" si="4"/>
+      <c r="N87" s="32">
+        <f>IF(OR(L87="",M87=""),"",L87-2*M87)</f>
         <v>2.798848053250276E-2</v>
       </c>
-      <c r="R87" s="32">
-        <f t="shared" si="5"/>
+      <c r="O87" s="32">
+        <f>IF(OR(L87="",M87=""),"",L87+2*M87)</f>
         <v>4.8315730189943645E-2</v>
       </c>
-      <c r="S87" s="4" t="s">
+      <c r="P87" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="90" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q87" s="32"/>
+      <c r="R87" s="32"/>
+      <c r="S87" s="32"/>
+      <c r="T87" s="8"/>
+    </row>
+    <row r="88" spans="1:20" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="P88" s="2"/>
+      <c r="S88" s="31"/>
+    </row>
+    <row r="89" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="P89" s="2"/>
+      <c r="S89" s="31"/>
+    </row>
+    <row r="90" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A90" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L90" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="M90" s="39"/>
+      <c r="N90" s="39"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="46"/>
+      <c r="Q90" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="R90" s="39"/>
+      <c r="S90" s="39"/>
+      <c r="T90" s="40"/>
+    </row>
+    <row r="91" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A91" s="4" t="s">
         <v>3</v>
       </c>
@@ -5086,28 +5347,31 @@
         <v>64</v>
       </c>
       <c r="M91" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="N91" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="O91" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="P91" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q91" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R91" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="N91" s="32" t="s">
+      <c r="S91" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="O91" s="32" t="s">
+      <c r="T91" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="P91" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q91" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="R91" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="S91" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="92" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A92" s="4" t="s">
         <v>7</v>
       </c>
@@ -5133,12 +5397,13 @@
       <c r="M92" s="32"/>
       <c r="N92" s="32"/>
       <c r="O92" s="32"/>
-      <c r="P92" s="32"/>
+      <c r="P92" s="4"/>
       <c r="Q92" s="32"/>
       <c r="R92" s="32"/>
-      <c r="S92" s="4"/>
-    </row>
-    <row r="93" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S92" s="32"/>
+      <c r="T92" s="8"/>
+    </row>
+    <row r="93" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A93" s="4" t="s">
         <v>7</v>
       </c>
@@ -5164,12 +5429,13 @@
       <c r="M93" s="32"/>
       <c r="N93" s="32"/>
       <c r="O93" s="32"/>
-      <c r="P93" s="32"/>
+      <c r="P93" s="4"/>
       <c r="Q93" s="32"/>
       <c r="R93" s="32"/>
-      <c r="S93" s="4"/>
-    </row>
-    <row r="94" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S93" s="32"/>
+      <c r="T93" s="8"/>
+    </row>
+    <row r="94" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A94" s="4" t="s">
         <v>7</v>
       </c>
@@ -5195,12 +5461,13 @@
       <c r="M94" s="32"/>
       <c r="N94" s="32"/>
       <c r="O94" s="32"/>
-      <c r="P94" s="32"/>
+      <c r="P94" s="4"/>
       <c r="Q94" s="32"/>
       <c r="R94" s="32"/>
-      <c r="S94" s="4"/>
-    </row>
-    <row r="95" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S94" s="32"/>
+      <c r="T94" s="8"/>
+    </row>
+    <row r="95" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
@@ -5226,12 +5493,13 @@
       <c r="M95" s="32"/>
       <c r="N95" s="32"/>
       <c r="O95" s="32"/>
-      <c r="P95" s="32"/>
+      <c r="P95" s="4"/>
       <c r="Q95" s="32"/>
       <c r="R95" s="32"/>
-      <c r="S95" s="4"/>
-    </row>
-    <row r="96" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S95" s="32"/>
+      <c r="T95" s="8"/>
+    </row>
+    <row r="96" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A96" s="4" t="s">
         <v>7</v>
       </c>
@@ -5255,20 +5523,21 @@
       <c r="K96" s="4"/>
       <c r="L96" s="8"/>
       <c r="M96" s="32"/>
-      <c r="N96" s="32"/>
-      <c r="O96" s="32"/>
-      <c r="P96" s="32"/>
-      <c r="Q96" s="32" t="str">
-        <f t="shared" ref="Q96:Q103" si="7">IF(OR(L96="",P96=""),"",L96-2*P96)</f>
-        <v/>
-      </c>
-      <c r="R96" s="32" t="str">
-        <f t="shared" ref="R96:R103" si="8">IF(OR(L96="",P96=""),"",L96+2*P96)</f>
-        <v/>
-      </c>
-      <c r="S96" s="30"/>
-    </row>
-    <row r="97" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N96" s="32" t="str">
+        <f>IF(OR(L96="",M96=""),"",L96-2*M96)</f>
+        <v/>
+      </c>
+      <c r="O96" s="32" t="str">
+        <f>IF(OR(L96="",M96=""),"",L96+2*M96)</f>
+        <v/>
+      </c>
+      <c r="P96" s="30"/>
+      <c r="Q96" s="32"/>
+      <c r="R96" s="32"/>
+      <c r="S96" s="32"/>
+      <c r="T96" s="8"/>
+    </row>
+    <row r="97" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A97" s="4" t="s">
         <v>7</v>
       </c>
@@ -5292,20 +5561,21 @@
       <c r="K97" s="4"/>
       <c r="L97" s="8"/>
       <c r="M97" s="32"/>
-      <c r="N97" s="32"/>
-      <c r="O97" s="32"/>
-      <c r="P97" s="32"/>
-      <c r="Q97" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="R97" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="S97" s="30"/>
-    </row>
-    <row r="98" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N97" s="32" t="str">
+        <f>IF(OR(L97="",M97=""),"",L97-2*M97)</f>
+        <v/>
+      </c>
+      <c r="O97" s="32" t="str">
+        <f>IF(OR(L97="",M97=""),"",L97+2*M97)</f>
+        <v/>
+      </c>
+      <c r="P97" s="30"/>
+      <c r="Q97" s="32"/>
+      <c r="R97" s="32"/>
+      <c r="S97" s="32"/>
+      <c r="T97" s="8"/>
+    </row>
+    <row r="98" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A98" s="4" t="s">
         <v>7</v>
       </c>
@@ -5329,20 +5599,21 @@
       <c r="K98" s="4"/>
       <c r="L98" s="8"/>
       <c r="M98" s="32"/>
-      <c r="N98" s="32"/>
-      <c r="O98" s="32"/>
-      <c r="P98" s="32"/>
-      <c r="Q98" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="R98" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="S98" s="30"/>
-    </row>
-    <row r="99" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N98" s="32" t="str">
+        <f>IF(OR(L98="",M98=""),"",L98-2*M98)</f>
+        <v/>
+      </c>
+      <c r="O98" s="32" t="str">
+        <f>IF(OR(L98="",M98=""),"",L98+2*M98)</f>
+        <v/>
+      </c>
+      <c r="P98" s="30"/>
+      <c r="Q98" s="32"/>
+      <c r="R98" s="32"/>
+      <c r="S98" s="32"/>
+      <c r="T98" s="8"/>
+    </row>
+    <row r="99" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A99" s="4" t="s">
         <v>7</v>
       </c>
@@ -5366,20 +5637,21 @@
       <c r="K99" s="4"/>
       <c r="L99" s="8"/>
       <c r="M99" s="32"/>
-      <c r="N99" s="32"/>
-      <c r="O99" s="32"/>
-      <c r="P99" s="32"/>
-      <c r="Q99" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="R99" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="S99" s="30"/>
-    </row>
-    <row r="100" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N99" s="32" t="str">
+        <f>IF(OR(L99="",M99=""),"",L99-2*M99)</f>
+        <v/>
+      </c>
+      <c r="O99" s="32" t="str">
+        <f>IF(OR(L99="",M99=""),"",L99+2*M99)</f>
+        <v/>
+      </c>
+      <c r="P99" s="30"/>
+      <c r="Q99" s="32"/>
+      <c r="R99" s="32"/>
+      <c r="S99" s="32"/>
+      <c r="T99" s="8"/>
+    </row>
+    <row r="100" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A100" s="4" t="s">
         <v>7</v>
       </c>
@@ -5403,20 +5675,21 @@
       <c r="K100" s="4"/>
       <c r="L100" s="8"/>
       <c r="M100" s="32"/>
-      <c r="N100" s="32"/>
-      <c r="O100" s="32"/>
-      <c r="P100" s="32"/>
-      <c r="Q100" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="R100" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="S100" s="30"/>
-    </row>
-    <row r="101" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N100" s="32" t="str">
+        <f>IF(OR(L100="",M100=""),"",L100-2*M100)</f>
+        <v/>
+      </c>
+      <c r="O100" s="32" t="str">
+        <f>IF(OR(L100="",M100=""),"",L100+2*M100)</f>
+        <v/>
+      </c>
+      <c r="P100" s="30"/>
+      <c r="Q100" s="32"/>
+      <c r="R100" s="32"/>
+      <c r="S100" s="32"/>
+      <c r="T100" s="8"/>
+    </row>
+    <row r="101" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A101" s="4" t="s">
         <v>7</v>
       </c>
@@ -5440,20 +5713,21 @@
       <c r="K101" s="4"/>
       <c r="L101" s="8"/>
       <c r="M101" s="32"/>
-      <c r="N101" s="32"/>
-      <c r="O101" s="32"/>
-      <c r="P101" s="32"/>
-      <c r="Q101" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="R101" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="S101" s="30"/>
-    </row>
-    <row r="102" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N101" s="32" t="str">
+        <f>IF(OR(L101="",M101=""),"",L101-2*M101)</f>
+        <v/>
+      </c>
+      <c r="O101" s="32" t="str">
+        <f>IF(OR(L101="",M101=""),"",L101+2*M101)</f>
+        <v/>
+      </c>
+      <c r="P101" s="30"/>
+      <c r="Q101" s="32"/>
+      <c r="R101" s="32"/>
+      <c r="S101" s="32"/>
+      <c r="T101" s="8"/>
+    </row>
+    <row r="102" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A102" s="4" t="s">
         <v>7</v>
       </c>
@@ -5477,20 +5751,21 @@
       <c r="K102" s="4"/>
       <c r="L102" s="8"/>
       <c r="M102" s="32"/>
-      <c r="N102" s="32"/>
-      <c r="O102" s="32"/>
-      <c r="P102" s="32"/>
-      <c r="Q102" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="R102" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="S102" s="30"/>
-    </row>
-    <row r="103" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N102" s="32" t="str">
+        <f>IF(OR(L102="",M102=""),"",L102-2*M102)</f>
+        <v/>
+      </c>
+      <c r="O102" s="32" t="str">
+        <f>IF(OR(L102="",M102=""),"",L102+2*M102)</f>
+        <v/>
+      </c>
+      <c r="P102" s="30"/>
+      <c r="Q102" s="32"/>
+      <c r="R102" s="32"/>
+      <c r="S102" s="32"/>
+      <c r="T102" s="8"/>
+    </row>
+    <row r="103" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A103" s="4" t="s">
         <v>7</v>
       </c>
@@ -5514,20 +5789,21 @@
       <c r="K103" s="4"/>
       <c r="L103" s="8"/>
       <c r="M103" s="32"/>
-      <c r="N103" s="32"/>
-      <c r="O103" s="32"/>
-      <c r="P103" s="32"/>
-      <c r="Q103" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="R103" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="S103" s="30"/>
-    </row>
-    <row r="104" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N103" s="32" t="str">
+        <f>IF(OR(L103="",M103=""),"",L103-2*M103)</f>
+        <v/>
+      </c>
+      <c r="O103" s="32" t="str">
+        <f>IF(OR(L103="",M103=""),"",L103+2*M103)</f>
+        <v/>
+      </c>
+      <c r="P103" s="30"/>
+      <c r="Q103" s="32"/>
+      <c r="R103" s="32"/>
+      <c r="S103" s="32"/>
+      <c r="T103" s="8"/>
+    </row>
+    <row r="104" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A104" s="4" t="s">
         <v>7</v>
       </c>
@@ -5553,12 +5829,13 @@
       <c r="M104" s="32"/>
       <c r="N104" s="32"/>
       <c r="O104" s="32"/>
-      <c r="P104" s="32"/>
+      <c r="P104" s="4"/>
       <c r="Q104" s="32"/>
       <c r="R104" s="32"/>
-      <c r="S104" s="4"/>
-    </row>
-    <row r="105" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S104" s="32"/>
+      <c r="T104" s="8"/>
+    </row>
+    <row r="105" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A105" s="4" t="s">
         <v>7</v>
       </c>
@@ -5584,12 +5861,13 @@
       <c r="M105" s="32"/>
       <c r="N105" s="32"/>
       <c r="O105" s="32"/>
-      <c r="P105" s="32"/>
+      <c r="P105" s="4"/>
       <c r="Q105" s="32"/>
       <c r="R105" s="32"/>
-      <c r="S105" s="4"/>
-    </row>
-    <row r="106" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S105" s="32"/>
+      <c r="T105" s="8"/>
+    </row>
+    <row r="106" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A106" s="4" t="s">
         <v>7</v>
       </c>
@@ -5615,12 +5893,13 @@
       <c r="M106" s="32"/>
       <c r="N106" s="32"/>
       <c r="O106" s="32"/>
-      <c r="P106" s="32"/>
+      <c r="P106" s="4"/>
       <c r="Q106" s="32"/>
       <c r="R106" s="32"/>
-      <c r="S106" s="4"/>
-    </row>
-    <row r="107" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S106" s="32"/>
+      <c r="T106" s="8"/>
+    </row>
+    <row r="107" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A107" s="4" t="s">
         <v>7</v>
       </c>
@@ -5646,12 +5925,13 @@
       <c r="M107" s="32"/>
       <c r="N107" s="32"/>
       <c r="O107" s="32"/>
-      <c r="P107" s="32"/>
+      <c r="P107" s="4"/>
       <c r="Q107" s="32"/>
       <c r="R107" s="32"/>
-      <c r="S107" s="4"/>
-    </row>
-    <row r="108" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S107" s="32"/>
+      <c r="T107" s="8"/>
+    </row>
+    <row r="108" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A108" s="4" t="s">
         <v>7</v>
       </c>
@@ -5675,20 +5955,21 @@
       <c r="K108" s="4"/>
       <c r="L108" s="8"/>
       <c r="M108" s="32"/>
-      <c r="N108" s="32"/>
-      <c r="O108" s="32"/>
-      <c r="P108" s="32"/>
-      <c r="Q108" s="32" t="str">
-        <f t="shared" ref="Q108:Q115" si="9">IF(OR(L108="",P108=""),"",L108-2*P108)</f>
-        <v/>
-      </c>
-      <c r="R108" s="32" t="str">
-        <f t="shared" ref="R108:R115" si="10">IF(OR(L108="",P108=""),"",L108+2*P108)</f>
-        <v/>
-      </c>
-      <c r="S108" s="30"/>
-    </row>
-    <row r="109" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N108" s="32" t="str">
+        <f>IF(OR(L108="",M108=""),"",L108-2*M108)</f>
+        <v/>
+      </c>
+      <c r="O108" s="32" t="str">
+        <f>IF(OR(L108="",M108=""),"",L108+2*M108)</f>
+        <v/>
+      </c>
+      <c r="P108" s="30"/>
+      <c r="Q108" s="32"/>
+      <c r="R108" s="32"/>
+      <c r="S108" s="32"/>
+      <c r="T108" s="8"/>
+    </row>
+    <row r="109" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A109" s="4" t="s">
         <v>7</v>
       </c>
@@ -5712,20 +5993,21 @@
       <c r="K109" s="4"/>
       <c r="L109" s="8"/>
       <c r="M109" s="32"/>
-      <c r="N109" s="32"/>
-      <c r="O109" s="32"/>
-      <c r="P109" s="32"/>
-      <c r="Q109" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R109" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S109" s="30"/>
-    </row>
-    <row r="110" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N109" s="32" t="str">
+        <f>IF(OR(L109="",M109=""),"",L109-2*M109)</f>
+        <v/>
+      </c>
+      <c r="O109" s="32" t="str">
+        <f>IF(OR(L109="",M109=""),"",L109+2*M109)</f>
+        <v/>
+      </c>
+      <c r="P109" s="30"/>
+      <c r="Q109" s="32"/>
+      <c r="R109" s="32"/>
+      <c r="S109" s="32"/>
+      <c r="T109" s="8"/>
+    </row>
+    <row r="110" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A110" s="4" t="s">
         <v>7</v>
       </c>
@@ -5749,20 +6031,21 @@
       <c r="K110" s="4"/>
       <c r="L110" s="8"/>
       <c r="M110" s="32"/>
-      <c r="N110" s="32"/>
-      <c r="O110" s="32"/>
-      <c r="P110" s="32"/>
-      <c r="Q110" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R110" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S110" s="30"/>
-    </row>
-    <row r="111" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N110" s="32" t="str">
+        <f>IF(OR(L110="",M110=""),"",L110-2*M110)</f>
+        <v/>
+      </c>
+      <c r="O110" s="32" t="str">
+        <f>IF(OR(L110="",M110=""),"",L110+2*M110)</f>
+        <v/>
+      </c>
+      <c r="P110" s="30"/>
+      <c r="Q110" s="32"/>
+      <c r="R110" s="32"/>
+      <c r="S110" s="32"/>
+      <c r="T110" s="8"/>
+    </row>
+    <row r="111" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A111" s="4" t="s">
         <v>7</v>
       </c>
@@ -5786,20 +6069,21 @@
       <c r="K111" s="4"/>
       <c r="L111" s="8"/>
       <c r="M111" s="32"/>
-      <c r="N111" s="32"/>
-      <c r="O111" s="32"/>
-      <c r="P111" s="32"/>
-      <c r="Q111" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R111" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S111" s="30"/>
-    </row>
-    <row r="112" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N111" s="32" t="str">
+        <f>IF(OR(L111="",M111=""),"",L111-2*M111)</f>
+        <v/>
+      </c>
+      <c r="O111" s="32" t="str">
+        <f>IF(OR(L111="",M111=""),"",L111+2*M111)</f>
+        <v/>
+      </c>
+      <c r="P111" s="30"/>
+      <c r="Q111" s="32"/>
+      <c r="R111" s="32"/>
+      <c r="S111" s="32"/>
+      <c r="T111" s="8"/>
+    </row>
+    <row r="112" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A112" s="4" t="s">
         <v>7</v>
       </c>
@@ -5823,20 +6107,21 @@
       <c r="K112" s="4"/>
       <c r="L112" s="8"/>
       <c r="M112" s="32"/>
-      <c r="N112" s="32"/>
-      <c r="O112" s="32"/>
-      <c r="P112" s="32"/>
-      <c r="Q112" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R112" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S112" s="30"/>
-    </row>
-    <row r="113" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N112" s="32" t="str">
+        <f>IF(OR(L112="",M112=""),"",L112-2*M112)</f>
+        <v/>
+      </c>
+      <c r="O112" s="32" t="str">
+        <f>IF(OR(L112="",M112=""),"",L112+2*M112)</f>
+        <v/>
+      </c>
+      <c r="P112" s="30"/>
+      <c r="Q112" s="32"/>
+      <c r="R112" s="32"/>
+      <c r="S112" s="32"/>
+      <c r="T112" s="8"/>
+    </row>
+    <row r="113" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A113" s="4" t="s">
         <v>7</v>
       </c>
@@ -5860,20 +6145,21 @@
       <c r="K113" s="4"/>
       <c r="L113" s="8"/>
       <c r="M113" s="32"/>
-      <c r="N113" s="32"/>
-      <c r="O113" s="32"/>
-      <c r="P113" s="32"/>
-      <c r="Q113" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R113" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S113" s="30"/>
-    </row>
-    <row r="114" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N113" s="32" t="str">
+        <f>IF(OR(L113="",M113=""),"",L113-2*M113)</f>
+        <v/>
+      </c>
+      <c r="O113" s="32" t="str">
+        <f>IF(OR(L113="",M113=""),"",L113+2*M113)</f>
+        <v/>
+      </c>
+      <c r="P113" s="30"/>
+      <c r="Q113" s="32"/>
+      <c r="R113" s="32"/>
+      <c r="S113" s="32"/>
+      <c r="T113" s="8"/>
+    </row>
+    <row r="114" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A114" s="4" t="s">
         <v>7</v>
       </c>
@@ -5897,20 +6183,21 @@
       <c r="K114" s="4"/>
       <c r="L114" s="8"/>
       <c r="M114" s="32"/>
-      <c r="N114" s="32"/>
-      <c r="O114" s="32"/>
-      <c r="P114" s="32"/>
-      <c r="Q114" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R114" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S114" s="30"/>
-    </row>
-    <row r="115" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N114" s="32" t="str">
+        <f>IF(OR(L114="",M114=""),"",L114-2*M114)</f>
+        <v/>
+      </c>
+      <c r="O114" s="32" t="str">
+        <f>IF(OR(L114="",M114=""),"",L114+2*M114)</f>
+        <v/>
+      </c>
+      <c r="P114" s="30"/>
+      <c r="Q114" s="32"/>
+      <c r="R114" s="32"/>
+      <c r="S114" s="32"/>
+      <c r="T114" s="8"/>
+    </row>
+    <row r="115" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A115" s="4" t="s">
         <v>7</v>
       </c>
@@ -5934,20 +6221,21 @@
       <c r="K115" s="4"/>
       <c r="L115" s="8"/>
       <c r="M115" s="32"/>
-      <c r="N115" s="32"/>
-      <c r="O115" s="32"/>
-      <c r="P115" s="32"/>
-      <c r="Q115" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="R115" s="32" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S115" s="30"/>
-    </row>
-    <row r="116" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N115" s="32" t="str">
+        <f>IF(OR(L115="",M115=""),"",L115-2*M115)</f>
+        <v/>
+      </c>
+      <c r="O115" s="32" t="str">
+        <f>IF(OR(L115="",M115=""),"",L115+2*M115)</f>
+        <v/>
+      </c>
+      <c r="P115" s="30"/>
+      <c r="Q115" s="32"/>
+      <c r="R115" s="32"/>
+      <c r="S115" s="32"/>
+      <c r="T115" s="8"/>
+    </row>
+    <row r="116" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A116" s="4" t="s">
         <v>16</v>
       </c>
@@ -5971,12 +6259,13 @@
       <c r="M116" s="32"/>
       <c r="N116" s="32"/>
       <c r="O116" s="32"/>
-      <c r="P116" s="32"/>
+      <c r="P116" s="4"/>
       <c r="Q116" s="32"/>
       <c r="R116" s="32"/>
-      <c r="S116" s="4"/>
-    </row>
-    <row r="117" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S116" s="32"/>
+      <c r="T116" s="8"/>
+    </row>
+    <row r="117" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A117" s="4" t="s">
         <v>16</v>
       </c>
@@ -6000,12 +6289,13 @@
       <c r="M117" s="32"/>
       <c r="N117" s="32"/>
       <c r="O117" s="32"/>
-      <c r="P117" s="32"/>
+      <c r="P117" s="4"/>
       <c r="Q117" s="32"/>
       <c r="R117" s="32"/>
-      <c r="S117" s="4"/>
-    </row>
-    <row r="118" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S117" s="32"/>
+      <c r="T117" s="8"/>
+    </row>
+    <row r="118" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A118" s="4" t="s">
         <v>16</v>
       </c>
@@ -6029,12 +6319,13 @@
       <c r="M118" s="32"/>
       <c r="N118" s="32"/>
       <c r="O118" s="32"/>
-      <c r="P118" s="32"/>
+      <c r="P118" s="4"/>
       <c r="Q118" s="32"/>
       <c r="R118" s="32"/>
-      <c r="S118" s="4"/>
-    </row>
-    <row r="119" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S118" s="32"/>
+      <c r="T118" s="8"/>
+    </row>
+    <row r="119" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A119" s="4" t="s">
         <v>16</v>
       </c>
@@ -6058,12 +6349,13 @@
       <c r="M119" s="32"/>
       <c r="N119" s="32"/>
       <c r="O119" s="32"/>
-      <c r="P119" s="32"/>
+      <c r="P119" s="4"/>
       <c r="Q119" s="32"/>
       <c r="R119" s="32"/>
-      <c r="S119" s="4"/>
-    </row>
-    <row r="120" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S119" s="32"/>
+      <c r="T119" s="8"/>
+    </row>
+    <row r="120" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A120" s="4" t="s">
         <v>16</v>
       </c>
@@ -6087,12 +6379,13 @@
       <c r="M120" s="32"/>
       <c r="N120" s="32"/>
       <c r="O120" s="32"/>
-      <c r="P120" s="32"/>
+      <c r="P120" s="4"/>
       <c r="Q120" s="32"/>
       <c r="R120" s="32"/>
-      <c r="S120" s="4"/>
-    </row>
-    <row r="121" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S120" s="32"/>
+      <c r="T120" s="8"/>
+    </row>
+    <row r="121" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A121" s="4" t="s">
         <v>16</v>
       </c>
@@ -6116,12 +6409,13 @@
       <c r="M121" s="32"/>
       <c r="N121" s="32"/>
       <c r="O121" s="32"/>
-      <c r="P121" s="32"/>
+      <c r="P121" s="4"/>
       <c r="Q121" s="32"/>
       <c r="R121" s="32"/>
-      <c r="S121" s="4"/>
-    </row>
-    <row r="122" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S121" s="32"/>
+      <c r="T121" s="8"/>
+    </row>
+    <row r="122" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A122" s="4" t="s">
         <v>16</v>
       </c>
@@ -6145,12 +6439,13 @@
       <c r="M122" s="32"/>
       <c r="N122" s="32"/>
       <c r="O122" s="32"/>
-      <c r="P122" s="32"/>
+      <c r="P122" s="4"/>
       <c r="Q122" s="32"/>
       <c r="R122" s="32"/>
-      <c r="S122" s="4"/>
-    </row>
-    <row r="123" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S122" s="32"/>
+      <c r="T122" s="8"/>
+    </row>
+    <row r="123" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A123" s="4" t="s">
         <v>16</v>
       </c>
@@ -6172,20 +6467,21 @@
       <c r="K123" s="4"/>
       <c r="L123" s="8"/>
       <c r="M123" s="32"/>
-      <c r="N123" s="32"/>
-      <c r="O123" s="32"/>
-      <c r="P123" s="32"/>
-      <c r="Q123" s="32" t="str">
-        <f t="shared" ref="Q123:Q127" si="11">IF(OR(L123="",P123=""),"",L123-2*P123)</f>
-        <v/>
-      </c>
-      <c r="R123" s="32" t="str">
-        <f t="shared" ref="R123:R127" si="12">IF(OR(L123="",P123=""),"",L123+2*P123)</f>
-        <v/>
-      </c>
-      <c r="S123" s="4"/>
-    </row>
-    <row r="124" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N123" s="32" t="str">
+        <f>IF(OR(L123="",M123=""),"",L123-2*M123)</f>
+        <v/>
+      </c>
+      <c r="O123" s="32" t="str">
+        <f>IF(OR(L123="",M123=""),"",L123+2*M123)</f>
+        <v/>
+      </c>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="32"/>
+      <c r="R123" s="32"/>
+      <c r="S123" s="32"/>
+      <c r="T123" s="8"/>
+    </row>
+    <row r="124" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A124" s="4" t="s">
         <v>16</v>
       </c>
@@ -6207,20 +6503,21 @@
       <c r="K124" s="4"/>
       <c r="L124" s="8"/>
       <c r="M124" s="32"/>
-      <c r="N124" s="32"/>
-      <c r="O124" s="32"/>
-      <c r="P124" s="32"/>
-      <c r="Q124" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="R124" s="32" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S124" s="4"/>
-    </row>
-    <row r="125" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N124" s="32" t="str">
+        <f>IF(OR(L124="",M124=""),"",L124-2*M124)</f>
+        <v/>
+      </c>
+      <c r="O124" s="32" t="str">
+        <f>IF(OR(L124="",M124=""),"",L124+2*M124)</f>
+        <v/>
+      </c>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="32"/>
+      <c r="R124" s="32"/>
+      <c r="S124" s="32"/>
+      <c r="T124" s="8"/>
+    </row>
+    <row r="125" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A125" s="4" t="s">
         <v>16</v>
       </c>
@@ -6242,20 +6539,21 @@
       <c r="K125" s="4"/>
       <c r="L125" s="8"/>
       <c r="M125" s="32"/>
-      <c r="N125" s="32"/>
-      <c r="O125" s="32"/>
-      <c r="P125" s="32"/>
-      <c r="Q125" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="R125" s="32" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S125" s="4"/>
-    </row>
-    <row r="126" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N125" s="32" t="str">
+        <f>IF(OR(L125="",M125=""),"",L125-2*M125)</f>
+        <v/>
+      </c>
+      <c r="O125" s="32" t="str">
+        <f>IF(OR(L125="",M125=""),"",L125+2*M125)</f>
+        <v/>
+      </c>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="32"/>
+      <c r="R125" s="32"/>
+      <c r="S125" s="32"/>
+      <c r="T125" s="8"/>
+    </row>
+    <row r="126" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A126" s="4" t="s">
         <v>16</v>
       </c>
@@ -6277,20 +6575,21 @@
       <c r="K126" s="4"/>
       <c r="L126" s="8"/>
       <c r="M126" s="32"/>
-      <c r="N126" s="32"/>
-      <c r="O126" s="32"/>
-      <c r="P126" s="32"/>
-      <c r="Q126" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="R126" s="32" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S126" s="4"/>
-    </row>
-    <row r="127" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N126" s="32" t="str">
+        <f>IF(OR(L126="",M126=""),"",L126-2*M126)</f>
+        <v/>
+      </c>
+      <c r="O126" s="32" t="str">
+        <f>IF(OR(L126="",M126=""),"",L126+2*M126)</f>
+        <v/>
+      </c>
+      <c r="P126" s="4"/>
+      <c r="Q126" s="32"/>
+      <c r="R126" s="32"/>
+      <c r="S126" s="32"/>
+      <c r="T126" s="8"/>
+    </row>
+    <row r="127" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A127" s="4" t="s">
         <v>16</v>
       </c>
@@ -6312,20 +6611,21 @@
       <c r="K127" s="4"/>
       <c r="L127" s="8"/>
       <c r="M127" s="32"/>
-      <c r="N127" s="32"/>
-      <c r="O127" s="32"/>
-      <c r="P127" s="32"/>
-      <c r="Q127" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="R127" s="32" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="S127" s="4"/>
-    </row>
-    <row r="128" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N127" s="32" t="str">
+        <f>IF(OR(L127="",M127=""),"",L127-2*M127)</f>
+        <v/>
+      </c>
+      <c r="O127" s="32" t="str">
+        <f>IF(OR(L127="",M127=""),"",L127+2*M127)</f>
+        <v/>
+      </c>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="32"/>
+      <c r="R127" s="32"/>
+      <c r="S127" s="32"/>
+      <c r="T127" s="8"/>
+    </row>
+    <row r="128" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A128" s="4" t="s">
         <v>16</v>
       </c>
@@ -6349,12 +6649,13 @@
       <c r="M128" s="32"/>
       <c r="N128" s="32"/>
       <c r="O128" s="32"/>
-      <c r="P128" s="32"/>
+      <c r="P128" s="4"/>
       <c r="Q128" s="32"/>
       <c r="R128" s="32"/>
-      <c r="S128" s="4"/>
-    </row>
-    <row r="129" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S128" s="32"/>
+      <c r="T128" s="8"/>
+    </row>
+    <row r="129" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A129" s="4" t="s">
         <v>16</v>
       </c>
@@ -6378,12 +6679,13 @@
       <c r="M129" s="32"/>
       <c r="N129" s="32"/>
       <c r="O129" s="32"/>
-      <c r="P129" s="32"/>
+      <c r="P129" s="4"/>
       <c r="Q129" s="32"/>
       <c r="R129" s="32"/>
-      <c r="S129" s="4"/>
-    </row>
-    <row r="130" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S129" s="32"/>
+      <c r="T129" s="8"/>
+    </row>
+    <row r="130" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A130" s="4" t="s">
         <v>16</v>
       </c>
@@ -6407,12 +6709,13 @@
       <c r="M130" s="32"/>
       <c r="N130" s="32"/>
       <c r="O130" s="32"/>
-      <c r="P130" s="32"/>
+      <c r="P130" s="4"/>
       <c r="Q130" s="32"/>
       <c r="R130" s="32"/>
-      <c r="S130" s="4"/>
-    </row>
-    <row r="131" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S130" s="32"/>
+      <c r="T130" s="8"/>
+    </row>
+    <row r="131" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A131" s="4" t="s">
         <v>16</v>
       </c>
@@ -6436,12 +6739,13 @@
       <c r="M131" s="32"/>
       <c r="N131" s="32"/>
       <c r="O131" s="32"/>
-      <c r="P131" s="32"/>
+      <c r="P131" s="4"/>
       <c r="Q131" s="32"/>
       <c r="R131" s="32"/>
-      <c r="S131" s="4"/>
-    </row>
-    <row r="132" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S131" s="32"/>
+      <c r="T131" s="8"/>
+    </row>
+    <row r="132" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A132" s="4" t="s">
         <v>16</v>
       </c>
@@ -6465,12 +6769,13 @@
       <c r="M132" s="32"/>
       <c r="N132" s="32"/>
       <c r="O132" s="32"/>
-      <c r="P132" s="32"/>
+      <c r="P132" s="4"/>
       <c r="Q132" s="32"/>
       <c r="R132" s="32"/>
-      <c r="S132" s="4"/>
-    </row>
-    <row r="133" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S132" s="32"/>
+      <c r="T132" s="8"/>
+    </row>
+    <row r="133" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A133" s="4" t="s">
         <v>16</v>
       </c>
@@ -6494,12 +6799,13 @@
       <c r="M133" s="32"/>
       <c r="N133" s="32"/>
       <c r="O133" s="32"/>
-      <c r="P133" s="32"/>
+      <c r="P133" s="4"/>
       <c r="Q133" s="32"/>
       <c r="R133" s="32"/>
-      <c r="S133" s="4"/>
-    </row>
-    <row r="134" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S133" s="32"/>
+      <c r="T133" s="8"/>
+    </row>
+    <row r="134" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A134" s="4" t="s">
         <v>16</v>
       </c>
@@ -6523,12 +6829,13 @@
       <c r="M134" s="32"/>
       <c r="N134" s="32"/>
       <c r="O134" s="32"/>
-      <c r="P134" s="32"/>
+      <c r="P134" s="4"/>
       <c r="Q134" s="32"/>
       <c r="R134" s="32"/>
-      <c r="S134" s="4"/>
-    </row>
-    <row r="135" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="S134" s="32"/>
+      <c r="T134" s="8"/>
+    </row>
+    <row r="135" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A135" s="4" t="s">
         <v>16</v>
       </c>
@@ -6550,20 +6857,21 @@
       <c r="K135" s="4"/>
       <c r="L135" s="8"/>
       <c r="M135" s="32"/>
-      <c r="N135" s="32"/>
-      <c r="O135" s="32"/>
-      <c r="P135" s="32"/>
-      <c r="Q135" s="32" t="str">
-        <f t="shared" ref="Q135:Q139" si="13">IF(OR(L135="",P135=""),"",L135-2*P135)</f>
-        <v/>
-      </c>
-      <c r="R135" s="32" t="str">
-        <f t="shared" ref="R135:R139" si="14">IF(OR(L135="",P135=""),"",L135+2*P135)</f>
-        <v/>
-      </c>
-      <c r="S135" s="4"/>
-    </row>
-    <row r="136" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N135" s="32" t="str">
+        <f>IF(OR(L135="",M135=""),"",L135-2*M135)</f>
+        <v/>
+      </c>
+      <c r="O135" s="32" t="str">
+        <f>IF(OR(L135="",M135=""),"",L135+2*M135)</f>
+        <v/>
+      </c>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="32"/>
+      <c r="R135" s="32"/>
+      <c r="S135" s="32"/>
+      <c r="T135" s="8"/>
+    </row>
+    <row r="136" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A136" s="4" t="s">
         <v>16</v>
       </c>
@@ -6585,20 +6893,21 @@
       <c r="K136" s="4"/>
       <c r="L136" s="8"/>
       <c r="M136" s="32"/>
-      <c r="N136" s="32"/>
-      <c r="O136" s="32"/>
-      <c r="P136" s="32"/>
-      <c r="Q136" s="32" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R136" s="32" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="S136" s="4"/>
-    </row>
-    <row r="137" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N136" s="32" t="str">
+        <f>IF(OR(L136="",M136=""),"",L136-2*M136)</f>
+        <v/>
+      </c>
+      <c r="O136" s="32" t="str">
+        <f>IF(OR(L136="",M136=""),"",L136+2*M136)</f>
+        <v/>
+      </c>
+      <c r="P136" s="4"/>
+      <c r="Q136" s="32"/>
+      <c r="R136" s="32"/>
+      <c r="S136" s="32"/>
+      <c r="T136" s="8"/>
+    </row>
+    <row r="137" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="4" t="s">
         <v>16</v>
       </c>
@@ -6620,20 +6929,21 @@
       <c r="K137" s="4"/>
       <c r="L137" s="8"/>
       <c r="M137" s="32"/>
-      <c r="N137" s="32"/>
-      <c r="O137" s="32"/>
-      <c r="P137" s="32"/>
-      <c r="Q137" s="32" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R137" s="32" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="S137" s="4"/>
-    </row>
-    <row r="138" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N137" s="32" t="str">
+        <f>IF(OR(L137="",M137=""),"",L137-2*M137)</f>
+        <v/>
+      </c>
+      <c r="O137" s="32" t="str">
+        <f>IF(OR(L137="",M137=""),"",L137+2*M137)</f>
+        <v/>
+      </c>
+      <c r="P137" s="4"/>
+      <c r="Q137" s="32"/>
+      <c r="R137" s="32"/>
+      <c r="S137" s="32"/>
+      <c r="T137" s="8"/>
+    </row>
+    <row r="138" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="4" t="s">
         <v>16</v>
       </c>
@@ -6655,20 +6965,21 @@
       <c r="K138" s="4"/>
       <c r="L138" s="8"/>
       <c r="M138" s="32"/>
-      <c r="N138" s="32"/>
-      <c r="O138" s="32"/>
-      <c r="P138" s="32"/>
-      <c r="Q138" s="32" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R138" s="32" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="S138" s="4"/>
-    </row>
-    <row r="139" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N138" s="32" t="str">
+        <f>IF(OR(L138="",M138=""),"",L138-2*M138)</f>
+        <v/>
+      </c>
+      <c r="O138" s="32" t="str">
+        <f>IF(OR(L138="",M138=""),"",L138+2*M138)</f>
+        <v/>
+      </c>
+      <c r="P138" s="4"/>
+      <c r="Q138" s="32"/>
+      <c r="R138" s="32"/>
+      <c r="S138" s="32"/>
+      <c r="T138" s="8"/>
+    </row>
+    <row r="139" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A139" s="4" t="s">
         <v>16</v>
       </c>
@@ -6690,23 +7001,27 @@
       <c r="K139" s="4"/>
       <c r="L139" s="8"/>
       <c r="M139" s="32"/>
-      <c r="N139" s="32"/>
-      <c r="O139" s="32"/>
-      <c r="P139" s="32"/>
-      <c r="Q139" s="32" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="R139" s="32" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="S139" s="4"/>
-    </row>
-    <row r="140" spans="1:19" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="N139" s="32" t="str">
+        <f>IF(OR(L139="",M139=""),"",L139-2*M139)</f>
+        <v/>
+      </c>
+      <c r="O139" s="32" t="str">
+        <f>IF(OR(L139="",M139=""),"",L139+2*M139)</f>
+        <v/>
+      </c>
+      <c r="P139" s="4"/>
+      <c r="Q139" s="32"/>
+      <c r="R139" s="32"/>
+      <c r="S139" s="32"/>
+      <c r="T139" s="8"/>
+    </row>
+    <row r="140" spans="1:20" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L6:O6"/>
+  <mergeCells count="4">
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="L90:P90"/>
+    <mergeCell ref="Q90:T90"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6734,42 +7049,42 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="43" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="43" t="s">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="43" t="s">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="43" t="s">
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="45"/>
-      <c r="AA2" s="43" t="s">
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="43"/>
+      <c r="AA2" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="45"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="43"/>
     </row>
     <row r="3" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
@@ -6864,16 +7179,16 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="45">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -6960,10 +7275,10 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
@@ -7048,10 +7363,10 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
@@ -7140,41 +7455,41 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="43" t="s">
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="43" t="s">
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="43" t="s">
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="43" t="s">
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="45"/>
-      <c r="AA7" s="42" t="s">
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="43"/>
+      <c r="AA7" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
       <c r="AD7" s="13">
         <f>AVERAGE(I73, M73, Q73, U73, Y73)</f>
         <v>1.5016363636363637</v>
@@ -7518,36 +7833,36 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="43" t="s">
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="43" t="s">
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="43" t="s">
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="43" t="s">
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="45"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="43"/>
     </row>
     <row r="14" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E14" s="3" t="s">
@@ -7887,36 +8202,36 @@
       </c>
     </row>
     <row r="19" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="43" t="s">
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="43" t="s">
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="43" t="s">
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="43" t="s">
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="45"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="43"/>
     </row>
     <row r="20" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E20" s="3" t="s">
@@ -8256,36 +8571,36 @@
       </c>
     </row>
     <row r="25" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="43" t="s">
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="43" t="s">
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="43" t="s">
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="43" t="s">
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="45"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="43"/>
     </row>
     <row r="26" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E26" s="3" t="s">
@@ -8627,36 +8942,36 @@
       </c>
     </row>
     <row r="31" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="43" t="s">
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="43" t="s">
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="43" t="s">
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="43" t="s">
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="45"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="43"/>
     </row>
     <row r="32" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E32" s="3" t="s">
@@ -8996,36 +9311,36 @@
       </c>
     </row>
     <row r="37" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="43" t="s">
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="43" t="s">
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="43" t="s">
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="S37" s="44"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="43" t="s">
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="W37" s="44"/>
-      <c r="X37" s="44"/>
-      <c r="Y37" s="45"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="43"/>
     </row>
     <row r="38" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E38" s="3" t="s">
@@ -9365,36 +9680,36 @@
       </c>
     </row>
     <row r="43" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F43" s="43" t="s">
+      <c r="F43" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="43" t="s">
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="43" t="s">
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="43" t="s">
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="43" t="s">
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="W43" s="44"/>
-      <c r="X43" s="44"/>
-      <c r="Y43" s="45"/>
+      <c r="W43" s="42"/>
+      <c r="X43" s="42"/>
+      <c r="Y43" s="43"/>
     </row>
     <row r="44" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E44" s="3" t="s">
@@ -9734,36 +10049,36 @@
       </c>
     </row>
     <row r="49" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F49" s="43" t="s">
+      <c r="F49" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="43" t="s">
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="K49" s="44"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="43" t="s">
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="O49" s="44"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="43" t="s">
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="S49" s="44"/>
-      <c r="T49" s="44"/>
-      <c r="U49" s="45"/>
-      <c r="V49" s="43" t="s">
+      <c r="S49" s="42"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="W49" s="44"/>
-      <c r="X49" s="44"/>
-      <c r="Y49" s="45"/>
+      <c r="W49" s="42"/>
+      <c r="X49" s="42"/>
+      <c r="Y49" s="43"/>
     </row>
     <row r="50" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E50" s="3" t="s">
@@ -10103,36 +10418,36 @@
       </c>
     </row>
     <row r="55" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F55" s="43" t="s">
+      <c r="F55" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="43" t="s">
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="K55" s="44"/>
-      <c r="L55" s="44"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="43" t="s">
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="O55" s="44"/>
-      <c r="P55" s="44"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="43" t="s">
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="S55" s="44"/>
-      <c r="T55" s="44"/>
-      <c r="U55" s="45"/>
-      <c r="V55" s="43" t="s">
+      <c r="S55" s="42"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="W55" s="44"/>
-      <c r="X55" s="44"/>
-      <c r="Y55" s="45"/>
+      <c r="W55" s="42"/>
+      <c r="X55" s="42"/>
+      <c r="Y55" s="43"/>
     </row>
     <row r="56" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E56" s="3" t="s">
@@ -10472,36 +10787,36 @@
       </c>
     </row>
     <row r="61" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F61" s="43" t="s">
+      <c r="F61" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="43" t="s">
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="K61" s="44"/>
-      <c r="L61" s="44"/>
-      <c r="M61" s="45"/>
-      <c r="N61" s="43" t="s">
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="O61" s="44"/>
-      <c r="P61" s="44"/>
-      <c r="Q61" s="45"/>
-      <c r="R61" s="43" t="s">
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="43"/>
+      <c r="R61" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="S61" s="44"/>
-      <c r="T61" s="44"/>
-      <c r="U61" s="45"/>
-      <c r="V61" s="43" t="s">
+      <c r="S61" s="42"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="43"/>
+      <c r="V61" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="W61" s="44"/>
-      <c r="X61" s="44"/>
-      <c r="Y61" s="45"/>
+      <c r="W61" s="42"/>
+      <c r="X61" s="42"/>
+      <c r="Y61" s="43"/>
     </row>
     <row r="62" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E62" s="3" t="s">
@@ -10841,36 +11156,36 @@
       </c>
     </row>
     <row r="67" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F67" s="43" t="s">
+      <c r="F67" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="43" t="s">
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="K67" s="44"/>
-      <c r="L67" s="44"/>
-      <c r="M67" s="45"/>
-      <c r="N67" s="43" t="s">
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="O67" s="44"/>
-      <c r="P67" s="44"/>
-      <c r="Q67" s="45"/>
-      <c r="R67" s="43" t="s">
+      <c r="O67" s="42"/>
+      <c r="P67" s="42"/>
+      <c r="Q67" s="43"/>
+      <c r="R67" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="S67" s="44"/>
-      <c r="T67" s="44"/>
-      <c r="U67" s="45"/>
-      <c r="V67" s="43" t="s">
+      <c r="S67" s="42"/>
+      <c r="T67" s="42"/>
+      <c r="U67" s="43"/>
+      <c r="V67" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="44"/>
-      <c r="X67" s="44"/>
-      <c r="Y67" s="45"/>
+      <c r="W67" s="42"/>
+      <c r="X67" s="42"/>
+      <c r="Y67" s="43"/>
     </row>
     <row r="68" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E68" s="3" t="s">
@@ -11290,51 +11605,11 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="V55:Y55"/>
-    <mergeCell ref="V61:Y61"/>
-    <mergeCell ref="V67:Y67"/>
-    <mergeCell ref="R43:U43"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="R61:U61"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
@@ -11351,11 +11626,51 @@
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="R25:U25"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="V55:Y55"/>
+    <mergeCell ref="V61:Y61"/>
+    <mergeCell ref="V67:Y67"/>
+    <mergeCell ref="R43:U43"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="R61:U61"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="V2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63218F01-CF08-4DD1-86E4-23098CE9D257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2837F4E1-37B2-4862-ADAE-F1EB312497A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="169">
   <si>
     <t>Results</t>
   </si>
@@ -281,9 +281,6 @@
     <t>[0.017421182245016098, 0.017802231013774872, 0.01992889493703842, 0.016836514696478844, 0.015012707561254501]</t>
   </si>
   <si>
-    <t>R2_Score</t>
-  </si>
-  <si>
     <t>82</t>
   </si>
   <si>
@@ -492,6 +489,51 @@
   </si>
   <si>
     <t>[0.043001655489206314, 0.04448606073856354, 0.054981574416160583, 0.06251869350671768, 0.04836897552013397]</t>
+  </si>
+  <si>
+    <t>RMSE Fold 1</t>
+  </si>
+  <si>
+    <t>RMSE Fold 5</t>
+  </si>
+  <si>
+    <t>RMSE Fold 4</t>
+  </si>
+  <si>
+    <t>RMSE Fold 3</t>
+  </si>
+  <si>
+    <t>RMSE Fold 2</t>
+  </si>
+  <si>
+    <t>Average RMSE</t>
+  </si>
+  <si>
+    <t>Average MAE</t>
+  </si>
+  <si>
+    <t>Average MAPE</t>
+  </si>
+  <si>
+    <t>Average R2 Score</t>
+  </si>
+  <si>
+    <t>Accuracy (Unscaled)</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>[0.04041643440723419, 0.04416409134864807, 0.05620400607585907, 0.06402703374624252, 0.04936831071972847]</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>[0.014884875155985355, 0.01744353026151657, 0.025462977588176727, 0.023581387475132942, 0.017180930823087692]</t>
+  </si>
+  <si>
+    <t>[0.023278212174773216, 0.02557617425918579, 0.029494179412722588, 0.03798072785139084, 0.02724539488554001]</t>
   </si>
 </sst>
 </file>
@@ -839,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -936,6 +978,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -955,7 +1003,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -965,15 +1025,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1302,24 +1353,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
@@ -1418,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E205C6-75C9-4A48-9727-53AED497EF04}">
-  <dimension ref="A1:T140"/>
+  <dimension ref="A1:Y140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="K28" workbookViewId="0">
+      <selection activeCell="Y50" sqref="Y50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1439,51 +1490,58 @@
     <col min="12" max="12" width="12.1328125" style="31" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="12.1328125" style="31" customWidth="1"/>
     <col min="16" max="16" width="104.53125" style="31" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.1328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.19921875" style="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.19921875" style="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.06640625" style="29"/>
+    <col min="17" max="17" width="10.53125" style="31" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="10.53125" style="31" customWidth="1"/>
+    <col min="22" max="22" width="12.1328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.46484375" style="31" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.06640625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A2" s="28"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A4" s="28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="6" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="6" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="40"/>
-    </row>
-    <row r="7" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>128</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="42"/>
+    </row>
+    <row r="7" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1532,20 +1590,35 @@
       <c r="P7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R7" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="S7" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q7" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="W7" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="X7" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1586,22 +1659,27 @@
         <v>6.6611281040656698E-3</v>
       </c>
       <c r="N8" s="32">
-        <f>IF(OR(L8="",M8=""),"",L8-2*M8)</f>
+        <f t="shared" ref="N8:N39" si="0">IF(OR(L8="",M8=""),"",L8-2*M8)</f>
         <v>1.6908082290818659E-2</v>
       </c>
       <c r="O8" s="32">
-        <f>IF(OR(L8="",M8=""),"",L8+2*M8)</f>
+        <f t="shared" ref="O8:O39" si="1">IF(OR(L8="",M8=""),"",L8+2*M8)</f>
         <v>4.3552594707081338E-2</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="8"/>
-    </row>
-    <row r="9" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="8"/>
+    </row>
+    <row r="9" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1621,7 +1699,7 @@
         <v>2.0125309703437899E-2</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>26</v>
@@ -1633,7 +1711,7 @@
         <v>0.24629688890615301</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L9" s="8">
         <v>3.03194224834442E-2</v>
@@ -1642,22 +1720,27 @@
         <v>6.8496847076139501E-3</v>
       </c>
       <c r="N9" s="32">
-        <f>IF(OR(L9="",M9=""),"",L9-2*M9)</f>
+        <f t="shared" si="0"/>
         <v>1.66200530682163E-2</v>
       </c>
       <c r="O9" s="32">
-        <f>IF(OR(L9="",M9=""),"",L9+2*M9)</f>
+        <f t="shared" si="1"/>
         <v>4.4018791898672097E-2</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="8"/>
-    </row>
-    <row r="10" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>131</v>
+      </c>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="8"/>
+    </row>
+    <row r="10" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1689,7 +1772,7 @@
         <v>0.30928234919484598</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L10" s="8">
         <v>2.9208427667617699E-2</v>
@@ -1698,22 +1781,27 @@
         <v>6.6422749819725199E-3</v>
       </c>
       <c r="N10" s="32">
-        <f>IF(OR(L10="",M10=""),"",L10-2*M10)</f>
+        <f t="shared" si="0"/>
         <v>1.5923877703672658E-2</v>
       </c>
       <c r="O10" s="32">
-        <f>IF(OR(L10="",M10=""),"",L10+2*M10)</f>
+        <f t="shared" si="1"/>
         <v>4.2492977631562741E-2</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="8"/>
-    </row>
-    <row r="11" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>133</v>
+      </c>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="8"/>
+    </row>
+    <row r="11" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1745,7 +1833,7 @@
         <v>0.179035098736608</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L11" s="8">
         <v>2.9251535236835401E-2</v>
@@ -1754,22 +1842,27 @@
         <v>6.6433803999254599E-3</v>
       </c>
       <c r="N11" s="32">
-        <f>IF(OR(L11="",M11=""),"",L11-2*M11)</f>
+        <f t="shared" si="0"/>
         <v>1.5964774436984481E-2</v>
       </c>
       <c r="O11" s="32">
-        <f>IF(OR(L11="",M11=""),"",L11+2*M11)</f>
+        <f t="shared" si="1"/>
         <v>4.2538296036686324E-2</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="8"/>
-    </row>
-    <row r="12" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>124</v>
+      </c>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="8"/>
+    </row>
+    <row r="12" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1789,7 +1882,7 @@
         <v>3.0627019615005802E-2</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>26</v>
@@ -1801,7 +1894,7 @@
         <v>0.27038339771809999</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L12" s="8">
         <v>7.7344204485416401E-2</v>
@@ -1810,22 +1903,27 @@
         <v>1.5974009075097099E-2</v>
       </c>
       <c r="N12" s="32">
-        <f>IF(OR(L12="",M12=""),"",L12-2*M12)</f>
+        <f t="shared" si="0"/>
         <v>4.5396186335222202E-2</v>
       </c>
       <c r="O12" s="32">
-        <f>IF(OR(L12="",M12=""),"",L12+2*M12)</f>
+        <f t="shared" si="1"/>
         <v>0.1092922226356106</v>
       </c>
       <c r="P12" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="8"/>
-    </row>
-    <row r="13" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>135</v>
+      </c>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="8"/>
+    </row>
+    <row r="13" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1850,20 +1948,25 @@
       <c r="L13" s="8"/>
       <c r="M13" s="32"/>
       <c r="N13" s="32" t="str">
-        <f>IF(OR(L13="",M13=""),"",L13-2*M13)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O13" s="32" t="str">
-        <f>IF(OR(L13="",M13=""),"",L13+2*M13)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P13" s="30"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="8"/>
-    </row>
-    <row r="14" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="8"/>
+    </row>
+    <row r="14" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1888,20 +1991,25 @@
       <c r="L14" s="8"/>
       <c r="M14" s="32"/>
       <c r="N14" s="32" t="str">
-        <f>IF(OR(L14="",M14=""),"",L14-2*M14)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O14" s="32" t="str">
-        <f>IF(OR(L14="",M14=""),"",L14+2*M14)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P14" s="30"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="8"/>
-    </row>
-    <row r="15" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="8"/>
+    </row>
+    <row r="15" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -1933,7 +2041,7 @@
         <v>0.249038551479658</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L15" s="8">
         <v>7.7530819922685595E-2</v>
@@ -1942,22 +2050,27 @@
         <v>1.39647491502999E-2</v>
       </c>
       <c r="N15" s="32">
-        <f>IF(OR(L15="",M15=""),"",L15-2*M15)</f>
+        <f t="shared" si="0"/>
         <v>4.9601321622085796E-2</v>
       </c>
       <c r="O15" s="32">
-        <f>IF(OR(L15="",M15=""),"",L15+2*M15)</f>
+        <f t="shared" si="1"/>
         <v>0.10546031822328539</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="8"/>
-    </row>
-    <row r="16" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>147</v>
+      </c>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="8"/>
+    </row>
+    <row r="16" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1982,20 +2095,25 @@
       <c r="L16" s="8"/>
       <c r="M16" s="32"/>
       <c r="N16" s="32" t="str">
-        <f>IF(OR(L16="",M16=""),"",L16-2*M16)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O16" s="32" t="str">
-        <f>IF(OR(L16="",M16=""),"",L16+2*M16)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P16" s="30"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="8"/>
-    </row>
-    <row r="17" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="8"/>
+    </row>
+    <row r="17" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -2020,20 +2138,25 @@
       <c r="L17" s="8"/>
       <c r="M17" s="32"/>
       <c r="N17" s="32" t="str">
-        <f>IF(OR(L17="",M17=""),"",L17-2*M17)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O17" s="32" t="str">
-        <f>IF(OR(L17="",M17=""),"",L17+2*M17)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P17" s="30"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="8"/>
-    </row>
-    <row r="18" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="8"/>
+    </row>
+    <row r="18" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -2058,20 +2181,25 @@
       <c r="L18" s="8"/>
       <c r="M18" s="32"/>
       <c r="N18" s="32" t="str">
-        <f>IF(OR(L18="",M18=""),"",L18-2*M18)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O18" s="32" t="str">
-        <f>IF(OR(L18="",M18=""),"",L18+2*M18)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P18" s="30"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="8"/>
-    </row>
-    <row r="19" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="8"/>
+    </row>
+    <row r="19" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -2096,20 +2224,25 @@
       <c r="L19" s="8"/>
       <c r="M19" s="32"/>
       <c r="N19" s="32" t="str">
-        <f>IF(OR(L19="",M19=""),"",L19-2*M19)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O19" s="32" t="str">
-        <f>IF(OR(L19="",M19=""),"",L19+2*M19)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P19" s="30"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="8"/>
-    </row>
-    <row r="20" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="8"/>
+    </row>
+    <row r="20" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -2134,20 +2267,25 @@
       <c r="L20" s="8"/>
       <c r="M20" s="32"/>
       <c r="N20" s="32" t="str">
-        <f>IF(OR(L20="",M20=""),"",L20-2*M20)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O20" s="32" t="str">
-        <f>IF(OR(L20="",M20=""),"",L20+2*M20)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P20" s="30"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="8"/>
-    </row>
-    <row r="21" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="8"/>
+    </row>
+    <row r="21" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -2172,20 +2310,25 @@
       <c r="L21" s="8"/>
       <c r="M21" s="32"/>
       <c r="N21" s="32" t="str">
-        <f>IF(OR(L21="",M21=""),"",L21-2*M21)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O21" s="32" t="str">
-        <f>IF(OR(L21="",M21=""),"",L21+2*M21)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P21" s="30"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="8"/>
-    </row>
-    <row r="22" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="8"/>
+    </row>
+    <row r="22" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -2210,20 +2353,25 @@
       <c r="L22" s="8"/>
       <c r="M22" s="32"/>
       <c r="N22" s="32" t="str">
-        <f>IF(OR(L22="",M22=""),"",L22-2*M22)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O22" s="32" t="str">
-        <f>IF(OR(L22="",M22=""),"",L22+2*M22)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P22" s="30"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="8"/>
-    </row>
-    <row r="23" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="8"/>
+    </row>
+    <row r="23" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -2248,20 +2396,25 @@
       <c r="L23" s="8"/>
       <c r="M23" s="32"/>
       <c r="N23" s="32" t="str">
-        <f>IF(OR(L23="",M23=""),"",L23-2*M23)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O23" s="32" t="str">
-        <f>IF(OR(L23="",M23=""),"",L23+2*M23)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P23" s="30"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="8"/>
-    </row>
-    <row r="24" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="8"/>
+    </row>
+    <row r="24" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -2293,7 +2446,7 @@
         <v>0.23046020141211099</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L24" s="8">
         <v>4.9412100762128798E-2</v>
@@ -2302,22 +2455,27 @@
         <v>8.4318950681729794E-3</v>
       </c>
       <c r="N24" s="32">
-        <f>IF(OR(L24="",M24=""),"",L24-2*M24)</f>
+        <f t="shared" si="0"/>
         <v>3.2548310625782839E-2</v>
       </c>
       <c r="O24" s="32">
-        <f>IF(OR(L24="",M24=""),"",L24+2*M24)</f>
+        <f t="shared" si="1"/>
         <v>6.6275890898474757E-2</v>
       </c>
       <c r="P24" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="8"/>
-    </row>
-    <row r="25" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>109</v>
+      </c>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="8"/>
+    </row>
+    <row r="25" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -2349,7 +2507,7 @@
         <v>0.196205438965662</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L25" s="8">
         <v>5.0671391934156401E-2</v>
@@ -2358,22 +2516,27 @@
         <v>7.2293917871023997E-3</v>
       </c>
       <c r="N25" s="32">
-        <f>IF(OR(L25="",M25=""),"",L25-2*M25)</f>
+        <f t="shared" si="0"/>
         <v>3.6212608359951604E-2</v>
       </c>
       <c r="O25" s="32">
-        <f>IF(OR(L25="",M25=""),"",L25+2*M25)</f>
+        <f t="shared" si="1"/>
         <v>6.5130175508361199E-2</v>
       </c>
       <c r="P25" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="8"/>
-    </row>
-    <row r="26" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>153</v>
+      </c>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="8"/>
+    </row>
+    <row r="26" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -2389,29 +2552,52 @@
       <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32" t="str">
-        <f>IF(OR(L26="",M26=""),"",L26-2*M26)</f>
-        <v/>
-      </c>
-      <c r="O26" s="32" t="str">
-        <f>IF(OR(L26="",M26=""),"",L26+2*M26)</f>
-        <v/>
-      </c>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="8"/>
-    </row>
-    <row r="27" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F26" s="8">
+        <v>4.9784509261696197E-2</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0.17260976247864299</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L26" s="8">
+        <v>5.08359752595424E-2</v>
+      </c>
+      <c r="M26" s="32">
+        <v>8.4623245569910195E-3</v>
+      </c>
+      <c r="N26" s="32">
+        <f t="shared" si="0"/>
+        <v>3.3911326145560361E-2</v>
+      </c>
+      <c r="O26" s="32">
+        <f t="shared" si="1"/>
+        <v>6.7760624373524439E-2</v>
+      </c>
+      <c r="P26" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="8"/>
+    </row>
+    <row r="27" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -2443,7 +2629,7 @@
         <v>0.45502838358743303</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L27" s="8">
         <v>5.0984546542167601E-2</v>
@@ -2452,22 +2638,27 @@
         <v>7.3670328740347403E-3</v>
       </c>
       <c r="N27" s="32">
-        <f>IF(OR(L27="",M27=""),"",L27-2*M27)</f>
+        <f t="shared" si="0"/>
         <v>3.6250480794098122E-2</v>
       </c>
       <c r="O27" s="32">
-        <f>IF(OR(L27="",M27=""),"",L27+2*M27)</f>
+        <f t="shared" si="1"/>
         <v>6.571861229023708E-2</v>
       </c>
       <c r="P27" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="8"/>
-    </row>
-    <row r="28" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>151</v>
+      </c>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="8"/>
+    </row>
+    <row r="28" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -2499,7 +2690,7 @@
         <v>0.26665809118262002</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L28" s="8">
         <v>2.48258560895919E-2</v>
@@ -2508,22 +2699,27 @@
         <v>5.6700794722876202E-3</v>
       </c>
       <c r="N28" s="32">
-        <f>IF(OR(L28="",M28=""),"",L28-2*M28)</f>
+        <f t="shared" si="0"/>
         <v>1.348569714501666E-2</v>
       </c>
       <c r="O28" s="32">
-        <f>IF(OR(L28="",M28=""),"",L28+2*M28)</f>
+        <f t="shared" si="1"/>
         <v>3.6166015034167137E-2</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="8"/>
-    </row>
-    <row r="29" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>94</v>
+      </c>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="8"/>
+    </row>
+    <row r="29" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -2555,7 +2751,7 @@
         <v>0.189764745813811</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L29" s="8">
         <v>2.5252476707100801E-2</v>
@@ -2564,22 +2760,27 @@
         <v>5.38631197626749E-3</v>
       </c>
       <c r="N29" s="32">
-        <f>IF(OR(L29="",M29=""),"",L29-2*M29)</f>
+        <f t="shared" si="0"/>
         <v>1.4479852754565821E-2</v>
       </c>
       <c r="O29" s="32">
-        <f>IF(OR(L29="",M29=""),"",L29+2*M29)</f>
+        <f t="shared" si="1"/>
         <v>3.6025100659635781E-2</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="8"/>
-    </row>
-    <row r="30" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>88</v>
+      </c>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="8"/>
+    </row>
+    <row r="30" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -2611,7 +2812,7 @@
         <v>0.39629399439624502</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L30" s="8">
         <v>2.4648037180304502E-2</v>
@@ -2620,22 +2821,27 @@
         <v>5.9781332722895304E-3</v>
       </c>
       <c r="N30" s="32">
-        <f>IF(OR(L30="",M30=""),"",L30-2*M30)</f>
+        <f t="shared" si="0"/>
         <v>1.2691770635725441E-2</v>
       </c>
       <c r="O30" s="32">
-        <f>IF(OR(L30="",M30=""),"",L30+2*M30)</f>
+        <f t="shared" si="1"/>
         <v>3.6604303724883561E-2</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="8"/>
-    </row>
-    <row r="31" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>87</v>
+      </c>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="8"/>
+    </row>
+    <row r="31" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
@@ -2667,7 +2873,7 @@
         <v>0.30465317720917501</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L31" s="8">
         <v>2.4652411788701999E-2</v>
@@ -2676,22 +2882,27 @@
         <v>6.0787373670130197E-3</v>
       </c>
       <c r="N31" s="32">
-        <f>IF(OR(L31="",M31=""),"",L31-2*M31)</f>
+        <f t="shared" si="0"/>
         <v>1.2494937054675959E-2</v>
       </c>
       <c r="O31" s="32">
-        <f>IF(OR(L31="",M31=""),"",L31+2*M31)</f>
+        <f t="shared" si="1"/>
         <v>3.6809886522728041E-2</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="8"/>
-    </row>
-    <row r="32" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="8"/>
+    </row>
+    <row r="32" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
@@ -2723,7 +2934,7 @@
         <v>0.160233512133126</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L32" s="8">
         <v>4.2342380434274601E-2</v>
@@ -2732,22 +2943,27 @@
         <v>8.4709934717848295E-3</v>
       </c>
       <c r="N32" s="32">
-        <f>IF(OR(L32="",M32=""),"",L32-2*M32)</f>
+        <f t="shared" si="0"/>
         <v>2.5400393490704942E-2</v>
       </c>
       <c r="O32" s="32">
-        <f>IF(OR(L32="",M32=""),"",L32+2*M32)</f>
+        <f t="shared" si="1"/>
         <v>5.928436737784426E-2</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="8"/>
-    </row>
-    <row r="33" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>113</v>
+      </c>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="8"/>
+    </row>
+    <row r="33" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
         <v>7</v>
       </c>
@@ -2788,22 +3004,27 @@
         <v>8.3859349211221502E-3</v>
       </c>
       <c r="N33" s="32">
-        <f>IF(OR(L33="",M33=""),"",L33-2*M33)</f>
+        <f t="shared" si="0"/>
         <v>2.6337301250265902E-2</v>
       </c>
       <c r="O33" s="32">
-        <f>IF(OR(L33="",M33=""),"",L33+2*M33)</f>
+        <f t="shared" si="1"/>
         <v>5.9881040934754506E-2</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="8"/>
-    </row>
-    <row r="34" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>138</v>
+      </c>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="8"/>
+    </row>
+    <row r="34" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -2835,7 +3056,7 @@
         <v>0.12743527193059501</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L34" s="8">
         <v>4.7987391799688299E-2</v>
@@ -2844,22 +3065,27 @@
         <v>5.0416052322678102E-3</v>
       </c>
       <c r="N34" s="32">
-        <f>IF(OR(L34="",M34=""),"",L34-2*M34)</f>
+        <f t="shared" si="0"/>
         <v>3.7904181335152679E-2</v>
       </c>
       <c r="O34" s="32">
-        <f>IF(OR(L34="",M34=""),"",L34+2*M34)</f>
+        <f t="shared" si="1"/>
         <v>5.8070602264223919E-2</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="8"/>
-    </row>
-    <row r="35" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>137</v>
+      </c>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="8"/>
+    </row>
+    <row r="35" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -2891,7 +3117,7 @@
         <v>0.10094815217775099</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L35" s="8">
         <v>4.2748991027474398E-2</v>
@@ -2900,22 +3126,27 @@
         <v>8.0102034327243395E-3</v>
       </c>
       <c r="N35" s="32">
-        <f>IF(OR(L35="",M35=""),"",L35-2*M35)</f>
+        <f t="shared" si="0"/>
         <v>2.6728584162025719E-2</v>
       </c>
       <c r="O35" s="32">
-        <f>IF(OR(L35="",M35=""),"",L35+2*M35)</f>
+        <f t="shared" si="1"/>
         <v>5.8769397892923077E-2</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="8"/>
-    </row>
-    <row r="36" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>119</v>
+      </c>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="8"/>
+    </row>
+    <row r="36" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -2940,20 +3171,25 @@
       <c r="L36" s="8"/>
       <c r="M36" s="32"/>
       <c r="N36" s="32" t="str">
-        <f>IF(OR(L36="",M36=""),"",L36-2*M36)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O36" s="32" t="str">
-        <f>IF(OR(L36="",M36=""),"",L36+2*M36)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P36" s="4"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="8"/>
-    </row>
-    <row r="37" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="8"/>
+    </row>
+    <row r="37" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -2978,20 +3214,25 @@
       <c r="L37" s="8"/>
       <c r="M37" s="32"/>
       <c r="N37" s="32" t="str">
-        <f>IF(OR(L37="",M37=""),"",L37-2*M37)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O37" s="32" t="str">
-        <f>IF(OR(L37="",M37=""),"",L37+2*M37)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P37" s="4"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="8"/>
-    </row>
-    <row r="38" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="8"/>
+    </row>
+    <row r="38" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -3016,20 +3257,25 @@
       <c r="L38" s="8"/>
       <c r="M38" s="32"/>
       <c r="N38" s="32" t="str">
-        <f>IF(OR(L38="",M38=""),"",L38-2*M38)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O38" s="32" t="str">
-        <f>IF(OR(L38="",M38=""),"",L38+2*M38)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P38" s="4"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="8"/>
-    </row>
-    <row r="39" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="8"/>
+    </row>
+    <row r="39" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
         <v>7</v>
       </c>
@@ -3054,20 +3300,25 @@
       <c r="L39" s="8"/>
       <c r="M39" s="32"/>
       <c r="N39" s="32" t="str">
-        <f>IF(OR(L39="",M39=""),"",L39-2*M39)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O39" s="32" t="str">
-        <f>IF(OR(L39="",M39=""),"",L39+2*M39)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P39" s="4"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="8"/>
-    </row>
-    <row r="40" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="8"/>
+    </row>
+    <row r="40" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -3092,20 +3343,25 @@
       <c r="L40" s="8"/>
       <c r="M40" s="32"/>
       <c r="N40" s="32" t="str">
-        <f>IF(OR(L40="",M40=""),"",L40-2*M40)</f>
+        <f t="shared" ref="N40:N71" si="2">IF(OR(L40="",M40=""),"",L40-2*M40)</f>
         <v/>
       </c>
       <c r="O40" s="32" t="str">
-        <f>IF(OR(L40="",M40=""),"",L40+2*M40)</f>
+        <f t="shared" ref="O40:O71" si="3">IF(OR(L40="",M40=""),"",L40+2*M40)</f>
         <v/>
       </c>
       <c r="P40" s="4"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="8"/>
-    </row>
-    <row r="41" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="8"/>
+    </row>
+    <row r="41" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -3130,20 +3386,25 @@
       <c r="L41" s="8"/>
       <c r="M41" s="32"/>
       <c r="N41" s="32" t="str">
-        <f>IF(OR(L41="",M41=""),"",L41-2*M41)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O41" s="32" t="str">
-        <f>IF(OR(L41="",M41=""),"",L41+2*M41)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P41" s="4"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="8"/>
-    </row>
-    <row r="42" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="8"/>
+    </row>
+    <row r="42" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -3168,20 +3429,25 @@
       <c r="L42" s="8"/>
       <c r="M42" s="32"/>
       <c r="N42" s="32" t="str">
-        <f>IF(OR(L42="",M42=""),"",L42-2*M42)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O42" s="32" t="str">
-        <f>IF(OR(L42="",M42=""),"",L42+2*M42)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P42" s="4"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="8"/>
-    </row>
-    <row r="43" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="8"/>
+    </row>
+    <row r="43" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -3206,20 +3472,25 @@
       <c r="L43" s="8"/>
       <c r="M43" s="32"/>
       <c r="N43" s="32" t="str">
-        <f>IF(OR(L43="",M43=""),"",L43-2*M43)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O43" s="32" t="str">
-        <f>IF(OR(L43="",M43=""),"",L43+2*M43)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P43" s="4"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="8"/>
-    </row>
-    <row r="44" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="8"/>
+    </row>
+    <row r="44" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -3251,7 +3522,7 @@
         <v>0.43153400757767202</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L44" s="8">
         <v>6.3889848440885494E-2</v>
@@ -3260,22 +3531,27 @@
         <v>7.7346900002947397E-3</v>
       </c>
       <c r="N44" s="32">
-        <f>IF(OR(L44="",M44=""),"",L44-2*M44)</f>
+        <f t="shared" si="2"/>
         <v>4.8420468440296016E-2</v>
       </c>
       <c r="O44" s="32">
-        <f>IF(OR(L44="",M44=""),"",L44+2*M44)</f>
+        <f t="shared" si="3"/>
         <v>7.9359228441474972E-2</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
-      <c r="T44" s="8"/>
-    </row>
-    <row r="45" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>96</v>
+      </c>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="8"/>
+    </row>
+    <row r="45" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -3307,7 +3583,7 @@
         <v>0.45234894910170698</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L45" s="8">
         <v>6.4166623353958105E-2</v>
@@ -3316,22 +3592,27 @@
         <v>6.6548007004157E-3</v>
       </c>
       <c r="N45" s="32">
-        <f>IF(OR(L45="",M45=""),"",L45-2*M45)</f>
+        <f t="shared" si="2"/>
         <v>5.0857021953126705E-2</v>
       </c>
       <c r="O45" s="32">
-        <f>IF(OR(L45="",M45=""),"",L45+2*M45)</f>
+        <f t="shared" si="3"/>
         <v>7.7476224754789505E-2</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="8"/>
-    </row>
-    <row r="46" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>99</v>
+      </c>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="8"/>
+    </row>
+    <row r="46" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -3363,7 +3644,7 @@
         <v>0.33005465858705701</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L46" s="8">
         <v>6.4187121391296301E-2</v>
@@ -3372,22 +3653,27 @@
         <v>5.9450571209661096E-3</v>
       </c>
       <c r="N46" s="32">
-        <f>IF(OR(L46="",M46=""),"",L46-2*M46)</f>
+        <f t="shared" si="2"/>
         <v>5.2297007149364083E-2</v>
       </c>
       <c r="O46" s="32">
-        <f>IF(OR(L46="",M46=""),"",L46+2*M46)</f>
+        <f t="shared" si="3"/>
         <v>7.6077235633228518E-2</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="32"/>
-      <c r="T46" s="8"/>
-    </row>
-    <row r="47" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>98</v>
+      </c>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="8"/>
+    </row>
+    <row r="47" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -3419,7 +3705,7 @@
         <v>0.334652561931301</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L47" s="8">
         <v>6.4157097786664896E-2</v>
@@ -3428,22 +3714,27 @@
         <v>7.1353560390252204E-3</v>
       </c>
       <c r="N47" s="32">
-        <f>IF(OR(L47="",M47=""),"",L47-2*M47)</f>
+        <f t="shared" si="2"/>
         <v>4.9886385708614457E-2</v>
       </c>
       <c r="O47" s="32">
-        <f>IF(OR(L47="",M47=""),"",L47+2*M47)</f>
+        <f t="shared" si="3"/>
         <v>7.8427809864715342E-2</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="8"/>
-    </row>
-    <row r="48" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>111</v>
+      </c>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="8"/>
+    </row>
+    <row r="48" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
         <v>16</v>
       </c>
@@ -3484,22 +3775,27 @@
         <v>1.5858265028333299E-3</v>
       </c>
       <c r="N48" s="32">
-        <f>IF(OR(L48="",M48=""),"",L48-2*M48)</f>
+        <f t="shared" si="2"/>
         <v>1.4228653085045841E-2</v>
       </c>
       <c r="O48" s="32">
-        <f>IF(OR(L48="",M48=""),"",L48+2*M48)</f>
+        <f t="shared" si="3"/>
         <v>2.0571959096379162E-2</v>
       </c>
       <c r="P48" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="32"/>
-      <c r="T48" s="8"/>
-    </row>
-    <row r="49" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="8"/>
+    </row>
+    <row r="49" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
         <v>16</v>
       </c>
@@ -3531,7 +3827,7 @@
         <v>0.20008098662471499</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L49" s="8">
         <v>1.6947442106902501E-2</v>
@@ -3540,22 +3836,45 @@
         <v>1.8991386347620199E-3</v>
       </c>
       <c r="N49" s="32">
-        <f>IF(OR(L49="",M49=""),"",L49-2*M49)</f>
+        <f t="shared" si="2"/>
         <v>1.3149164837378461E-2</v>
       </c>
       <c r="O49" s="32">
-        <f>IF(OR(L49="",M49=""),"",L49+2*M49)</f>
+        <f t="shared" si="3"/>
         <v>2.0745719376426542E-2</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="32"/>
-      <c r="S49" s="32"/>
-      <c r="T49" s="8"/>
-    </row>
-    <row r="50" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>141</v>
+      </c>
+      <c r="Q49" s="32">
+        <v>1.3876966283525101</v>
+      </c>
+      <c r="R49" s="32">
+        <v>1.3518063982008699</v>
+      </c>
+      <c r="S49" s="32">
+        <v>1.1323349684711801</v>
+      </c>
+      <c r="T49" s="32">
+        <v>1.29551802009142</v>
+      </c>
+      <c r="U49" s="32">
+        <v>0.90316407153331402</v>
+      </c>
+      <c r="V49" s="32">
+        <v>1.2141040173298601</v>
+      </c>
+      <c r="W49" s="32">
+        <v>1.04728456302122</v>
+      </c>
+      <c r="X49" s="32">
+        <v>0.14816173235947899</v>
+      </c>
+      <c r="Y49" s="8">
+        <v>0.84436678208856197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
         <v>16</v>
       </c>
@@ -3587,7 +3906,7 @@
         <v>0.19860037068984199</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L50" s="8">
         <v>1.84243541210889E-2</v>
@@ -3596,22 +3915,27 @@
         <v>1.8328776188585201E-3</v>
       </c>
       <c r="N50" s="32">
-        <f>IF(OR(L50="",M50=""),"",L50-2*M50)</f>
+        <f t="shared" si="2"/>
         <v>1.475859888337186E-2</v>
       </c>
       <c r="O50" s="32">
-        <f>IF(OR(L50="",M50=""),"",L50+2*M50)</f>
+        <f t="shared" si="3"/>
         <v>2.209010935880594E-2</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="8"/>
-    </row>
-    <row r="51" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>142</v>
+      </c>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="32"/>
+      <c r="Y50" s="8"/>
+    </row>
+    <row r="51" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="4" t="s">
         <v>16</v>
       </c>
@@ -3643,7 +3967,7 @@
         <v>0.14699913488704899</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L51" s="8">
         <v>1.6907527111470699E-2</v>
@@ -3652,22 +3976,27 @@
         <v>2.1123652242705901E-3</v>
       </c>
       <c r="N51" s="32">
-        <f>IF(OR(L51="",M51=""),"",L51-2*M51)</f>
+        <f t="shared" si="2"/>
         <v>1.268279666292952E-2</v>
       </c>
       <c r="O51" s="32">
-        <f>IF(OR(L51="",M51=""),"",L51+2*M51)</f>
+        <f t="shared" si="3"/>
         <v>2.1132257560011879E-2</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="8"/>
-    </row>
-    <row r="52" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>125</v>
+      </c>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="8"/>
+    </row>
+    <row r="52" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
         <v>16</v>
       </c>
@@ -3708,22 +4037,27 @@
         <v>5.6771983782391601E-3</v>
       </c>
       <c r="N52" s="32">
-        <f>IF(OR(L52="",M52=""),"",L52-2*M52)</f>
+        <f t="shared" si="2"/>
         <v>1.5385248620323078E-2</v>
       </c>
       <c r="O52" s="32">
-        <f>IF(OR(L52="",M52=""),"",L52+2*M52)</f>
+        <f t="shared" si="3"/>
         <v>3.8094042133279715E-2</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="32"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="8"/>
-    </row>
-    <row r="53" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>139</v>
+      </c>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="32"/>
+      <c r="X52" s="32"/>
+      <c r="Y52" s="8"/>
+    </row>
+    <row r="53" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
         <v>16</v>
       </c>
@@ -3746,20 +4080,25 @@
       <c r="L53" s="8"/>
       <c r="M53" s="32"/>
       <c r="N53" s="32" t="str">
-        <f>IF(OR(L53="",M53=""),"",L53-2*M53)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O53" s="32" t="str">
-        <f>IF(OR(L53="",M53=""),"",L53+2*M53)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P53" s="4"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="8"/>
-    </row>
-    <row r="54" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="34"/>
+      <c r="V53" s="32"/>
+      <c r="W53" s="32"/>
+      <c r="X53" s="32"/>
+      <c r="Y53" s="8"/>
+    </row>
+    <row r="54" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
         <v>16</v>
       </c>
@@ -3782,20 +4121,25 @@
       <c r="L54" s="8"/>
       <c r="M54" s="32"/>
       <c r="N54" s="32" t="str">
-        <f>IF(OR(L54="",M54=""),"",L54-2*M54)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O54" s="32" t="str">
-        <f>IF(OR(L54="",M54=""),"",L54+2*M54)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P54" s="4"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="32"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="8"/>
-    </row>
-    <row r="55" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="34"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32"/>
+      <c r="X54" s="32"/>
+      <c r="Y54" s="8"/>
+    </row>
+    <row r="55" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
         <v>16</v>
       </c>
@@ -3827,7 +4171,7 @@
         <v>0.19828711467502899</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L55" s="8">
         <v>6.3001682609319598E-2</v>
@@ -3836,22 +4180,27 @@
         <v>9.9274488339909997E-3</v>
       </c>
       <c r="N55" s="32">
-        <f>IF(OR(L55="",M55=""),"",L55-2*M55)</f>
+        <f t="shared" si="2"/>
         <v>4.3146784941337599E-2</v>
       </c>
       <c r="O55" s="32">
-        <f>IF(OR(L55="",M55=""),"",L55+2*M55)</f>
+        <f t="shared" si="3"/>
         <v>8.2856580277301597E-2</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="8"/>
-    </row>
-    <row r="56" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>143</v>
+      </c>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="34"/>
+      <c r="V55" s="32"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="8"/>
+    </row>
+    <row r="56" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
         <v>16</v>
       </c>
@@ -3874,20 +4223,25 @@
       <c r="L56" s="8"/>
       <c r="M56" s="32"/>
       <c r="N56" s="32" t="str">
-        <f>IF(OR(L56="",M56=""),"",L56-2*M56)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O56" s="32" t="str">
-        <f>IF(OR(L56="",M56=""),"",L56+2*M56)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P56" s="4"/>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="32"/>
-      <c r="S56" s="32"/>
-      <c r="T56" s="8"/>
-    </row>
-    <row r="57" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="34"/>
+      <c r="U56" s="34"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="32"/>
+      <c r="X56" s="32"/>
+      <c r="Y56" s="8"/>
+    </row>
+    <row r="57" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
         <v>16</v>
       </c>
@@ -3910,20 +4264,25 @@
       <c r="L57" s="8"/>
       <c r="M57" s="32"/>
       <c r="N57" s="32" t="str">
-        <f>IF(OR(L57="",M57=""),"",L57-2*M57)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O57" s="32" t="str">
-        <f>IF(OR(L57="",M57=""),"",L57+2*M57)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P57" s="4"/>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="32"/>
-      <c r="S57" s="32"/>
-      <c r="T57" s="8"/>
-    </row>
-    <row r="58" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="34"/>
+      <c r="V57" s="32"/>
+      <c r="W57" s="32"/>
+      <c r="X57" s="32"/>
+      <c r="Y57" s="8"/>
+    </row>
+    <row r="58" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="4" t="s">
         <v>16</v>
       </c>
@@ -3946,20 +4305,25 @@
       <c r="L58" s="8"/>
       <c r="M58" s="32"/>
       <c r="N58" s="32" t="str">
-        <f>IF(OR(L58="",M58=""),"",L58-2*M58)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O58" s="32" t="str">
-        <f>IF(OR(L58="",M58=""),"",L58+2*M58)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P58" s="4"/>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="32"/>
-      <c r="T58" s="8"/>
-    </row>
-    <row r="59" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="34"/>
+      <c r="U58" s="34"/>
+      <c r="V58" s="32"/>
+      <c r="W58" s="32"/>
+      <c r="X58" s="32"/>
+      <c r="Y58" s="8"/>
+    </row>
+    <row r="59" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
         <v>16</v>
       </c>
@@ -3982,20 +4346,25 @@
       <c r="L59" s="8"/>
       <c r="M59" s="32"/>
       <c r="N59" s="32" t="str">
-        <f>IF(OR(L59="",M59=""),"",L59-2*M59)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O59" s="32" t="str">
-        <f>IF(OR(L59="",M59=""),"",L59+2*M59)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P59" s="4"/>
-      <c r="Q59" s="32"/>
-      <c r="R59" s="32"/>
-      <c r="S59" s="32"/>
-      <c r="T59" s="8"/>
-    </row>
-    <row r="60" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="34"/>
+      <c r="U59" s="34"/>
+      <c r="V59" s="32"/>
+      <c r="W59" s="32"/>
+      <c r="X59" s="32"/>
+      <c r="Y59" s="8"/>
+    </row>
+    <row r="60" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
         <v>16</v>
       </c>
@@ -4018,20 +4387,25 @@
       <c r="L60" s="8"/>
       <c r="M60" s="32"/>
       <c r="N60" s="32" t="str">
-        <f>IF(OR(L60="",M60=""),"",L60-2*M60)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O60" s="32" t="str">
-        <f>IF(OR(L60="",M60=""),"",L60+2*M60)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P60" s="4"/>
-      <c r="Q60" s="32"/>
-      <c r="R60" s="32"/>
-      <c r="S60" s="32"/>
-      <c r="T60" s="8"/>
-    </row>
-    <row r="61" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="34"/>
+      <c r="U60" s="34"/>
+      <c r="V60" s="32"/>
+      <c r="W60" s="32"/>
+      <c r="X60" s="32"/>
+      <c r="Y60" s="8"/>
+    </row>
+    <row r="61" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
         <v>16</v>
       </c>
@@ -4054,20 +4428,25 @@
       <c r="L61" s="8"/>
       <c r="M61" s="32"/>
       <c r="N61" s="32" t="str">
-        <f>IF(OR(L61="",M61=""),"",L61-2*M61)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O61" s="32" t="str">
-        <f>IF(OR(L61="",M61=""),"",L61+2*M61)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P61" s="4"/>
-      <c r="Q61" s="32"/>
-      <c r="R61" s="32"/>
-      <c r="S61" s="32"/>
-      <c r="T61" s="8"/>
-    </row>
-    <row r="62" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="34"/>
+      <c r="U61" s="34"/>
+      <c r="V61" s="32"/>
+      <c r="W61" s="32"/>
+      <c r="X61" s="32"/>
+      <c r="Y61" s="8"/>
+    </row>
+    <row r="62" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
         <v>16</v>
       </c>
@@ -4090,20 +4469,25 @@
       <c r="L62" s="8"/>
       <c r="M62" s="32"/>
       <c r="N62" s="32" t="str">
-        <f>IF(OR(L62="",M62=""),"",L62-2*M62)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O62" s="32" t="str">
-        <f>IF(OR(L62="",M62=""),"",L62+2*M62)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P62" s="4"/>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="32"/>
-      <c r="S62" s="32"/>
-      <c r="T62" s="8"/>
-    </row>
-    <row r="63" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="34"/>
+      <c r="U62" s="34"/>
+      <c r="V62" s="32"/>
+      <c r="W62" s="32"/>
+      <c r="X62" s="32"/>
+      <c r="Y62" s="8"/>
+    </row>
+    <row r="63" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
         <v>16</v>
       </c>
@@ -4126,20 +4510,25 @@
       <c r="L63" s="8"/>
       <c r="M63" s="32"/>
       <c r="N63" s="32" t="str">
-        <f>IF(OR(L63="",M63=""),"",L63-2*M63)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O63" s="32" t="str">
-        <f>IF(OR(L63="",M63=""),"",L63+2*M63)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P63" s="4"/>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="32"/>
-      <c r="T63" s="8"/>
-    </row>
-    <row r="64" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34"/>
+      <c r="S63" s="34"/>
+      <c r="T63" s="34"/>
+      <c r="U63" s="34"/>
+      <c r="V63" s="32"/>
+      <c r="W63" s="32"/>
+      <c r="X63" s="32"/>
+      <c r="Y63" s="8"/>
+    </row>
+    <row r="64" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
         <v>16</v>
       </c>
@@ -4171,7 +4560,7 @@
         <v>0.38382301488750498</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L64" s="8">
         <v>4.8579138517379702E-2</v>
@@ -4180,22 +4569,27 @@
         <v>7.7788288356444597E-3</v>
       </c>
       <c r="N64" s="32">
-        <f>IF(OR(L64="",M64=""),"",L64-2*M64)</f>
+        <f t="shared" si="2"/>
         <v>3.3021480846090787E-2</v>
       </c>
       <c r="O64" s="32">
-        <f>IF(OR(L64="",M64=""),"",L64+2*M64)</f>
+        <f t="shared" si="3"/>
         <v>6.4136796188668618E-2</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="32"/>
-      <c r="T64" s="8"/>
-    </row>
-    <row r="65" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>107</v>
+      </c>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="34"/>
+      <c r="U64" s="34"/>
+      <c r="V64" s="32"/>
+      <c r="W64" s="32"/>
+      <c r="X64" s="32"/>
+      <c r="Y64" s="8"/>
+    </row>
+    <row r="65" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
         <v>16</v>
       </c>
@@ -4227,7 +4621,7 @@
         <v>0.119450201262226</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L65" s="8">
         <v>2.89289198815822E-2</v>
@@ -4236,22 +4630,27 @@
         <v>5.8521715749912202E-3</v>
       </c>
       <c r="N65" s="32">
-        <f>IF(OR(L65="",M65=""),"",L65-2*M65)</f>
+        <f t="shared" si="2"/>
         <v>1.7224576731599758E-2</v>
       </c>
       <c r="O65" s="32">
-        <f>IF(OR(L65="",M65=""),"",L65+2*M65)</f>
+        <f t="shared" si="3"/>
         <v>4.0633263031564643E-2</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="32"/>
-      <c r="T65" s="8"/>
-    </row>
-    <row r="66" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>146</v>
+      </c>
+      <c r="Q65" s="34"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="34"/>
+      <c r="T65" s="34"/>
+      <c r="U65" s="34"/>
+      <c r="V65" s="32"/>
+      <c r="W65" s="32"/>
+      <c r="X65" s="32"/>
+      <c r="Y65" s="8"/>
+    </row>
+    <row r="66" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="4" t="s">
         <v>16</v>
       </c>
@@ -4264,30 +4663,55 @@
       <c r="D66" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="32" t="str">
-        <f>IF(OR(L66="",M66=""),"",L66-2*M66)</f>
-        <v/>
-      </c>
-      <c r="O66" s="32" t="str">
-        <f>IF(OR(L66="",M66=""),"",L66+2*M66)</f>
-        <v/>
-      </c>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="32"/>
-      <c r="R66" s="32"/>
-      <c r="S66" s="32"/>
-      <c r="T66" s="8"/>
-    </row>
-    <row r="67" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="8">
+        <v>1.28217268380924E-3</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J66" s="8">
+        <v>0.150530717531978</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L66" s="8">
+        <v>2.87149377167224E-2</v>
+      </c>
+      <c r="M66" s="32">
+        <v>5.0602660253001204E-3</v>
+      </c>
+      <c r="N66" s="32">
+        <f t="shared" si="2"/>
+        <v>1.8594405666122159E-2</v>
+      </c>
+      <c r="O66" s="32">
+        <f t="shared" si="3"/>
+        <v>3.883546976732264E-2</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="34"/>
+      <c r="U66" s="34"/>
+      <c r="V66" s="32"/>
+      <c r="W66" s="32"/>
+      <c r="X66" s="32"/>
+      <c r="Y66" s="8"/>
+    </row>
+    <row r="67" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" s="4" t="s">
         <v>16</v>
       </c>
@@ -4319,7 +4743,7 @@
         <v>0.28713470692398402</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L67" s="8">
         <v>4.8241648077964702E-2</v>
@@ -4328,22 +4752,27 @@
         <v>8.0872044320746701E-3</v>
       </c>
       <c r="N67" s="32">
-        <f>IF(OR(L67="",M67=""),"",L67-2*M67)</f>
+        <f t="shared" si="2"/>
         <v>3.2067239213815366E-2</v>
       </c>
       <c r="O67" s="32">
-        <f>IF(OR(L67="",M67=""),"",L67+2*M67)</f>
+        <f t="shared" si="3"/>
         <v>6.4416056942114039E-2</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q67" s="32"/>
-      <c r="R67" s="32"/>
-      <c r="S67" s="32"/>
-      <c r="T67" s="8"/>
-    </row>
-    <row r="68" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>144</v>
+      </c>
+      <c r="Q67" s="34"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="34"/>
+      <c r="T67" s="34"/>
+      <c r="U67" s="34"/>
+      <c r="V67" s="32"/>
+      <c r="W67" s="32"/>
+      <c r="X67" s="32"/>
+      <c r="Y67" s="8"/>
+    </row>
+    <row r="68" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
         <v>16</v>
       </c>
@@ -4375,7 +4804,7 @@
         <v>0.246885700384226</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L68" s="8">
         <v>2.33405344188213E-2</v>
@@ -4384,22 +4813,27 @@
         <v>5.6762783643436801E-3</v>
       </c>
       <c r="N68" s="32">
-        <f>IF(OR(L68="",M68=""),"",L68-2*M68)</f>
+        <f t="shared" si="2"/>
         <v>1.198797769013394E-2</v>
       </c>
       <c r="O68" s="32">
-        <f>IF(OR(L68="",M68=""),"",L68+2*M68)</f>
+        <f t="shared" si="3"/>
         <v>3.469309114750866E-2</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q68" s="32"/>
-      <c r="R68" s="32"/>
-      <c r="S68" s="32"/>
-      <c r="T68" s="8"/>
-    </row>
-    <row r="69" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>92</v>
+      </c>
+      <c r="Q68" s="34"/>
+      <c r="R68" s="34"/>
+      <c r="S68" s="34"/>
+      <c r="T68" s="34"/>
+      <c r="U68" s="34"/>
+      <c r="V68" s="32"/>
+      <c r="W68" s="32"/>
+      <c r="X68" s="32"/>
+      <c r="Y68" s="8"/>
+    </row>
+    <row r="69" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
         <v>16</v>
       </c>
@@ -4431,7 +4865,7 @@
         <v>0.209009539993816</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L69" s="8">
         <v>1.5211693756282301E-2</v>
@@ -4440,22 +4874,27 @@
         <v>2.45734843548837E-3</v>
       </c>
       <c r="N69" s="32">
-        <f>IF(OR(L69="",M69=""),"",L69-2*M69)</f>
+        <f t="shared" si="2"/>
         <v>1.0296996885305561E-2</v>
       </c>
       <c r="O69" s="32">
-        <f>IF(OR(L69="",M69=""),"",L69+2*M69)</f>
+        <f t="shared" si="3"/>
         <v>2.0126390627259041E-2</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q69" s="32"/>
-      <c r="R69" s="32"/>
-      <c r="S69" s="32"/>
-      <c r="T69" s="8"/>
-    </row>
-    <row r="70" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>85</v>
+      </c>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="34"/>
+      <c r="S69" s="34"/>
+      <c r="T69" s="34"/>
+      <c r="U69" s="34"/>
+      <c r="V69" s="32"/>
+      <c r="W69" s="32"/>
+      <c r="X69" s="32"/>
+      <c r="Y69" s="8"/>
+    </row>
+    <row r="70" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="4" t="s">
         <v>16</v>
       </c>
@@ -4487,7 +4926,7 @@
         <v>0.131285289629504</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L70" s="8">
         <v>2.2255120053887301E-2</v>
@@ -4496,22 +4935,27 @@
         <v>5.5587759654508696E-3</v>
       </c>
       <c r="N70" s="32">
-        <f>IF(OR(L70="",M70=""),"",L70-2*M70)</f>
+        <f t="shared" si="2"/>
         <v>1.1137568122985561E-2</v>
       </c>
       <c r="O70" s="32">
-        <f>IF(OR(L70="",M70=""),"",L70+2*M70)</f>
+        <f t="shared" si="3"/>
         <v>3.3372671984789042E-2</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q70" s="32"/>
-      <c r="R70" s="32"/>
-      <c r="S70" s="32"/>
-      <c r="T70" s="8"/>
-    </row>
-    <row r="71" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>90</v>
+      </c>
+      <c r="Q70" s="34"/>
+      <c r="R70" s="34"/>
+      <c r="S70" s="34"/>
+      <c r="T70" s="34"/>
+      <c r="U70" s="34"/>
+      <c r="V70" s="32"/>
+      <c r="W70" s="32"/>
+      <c r="X70" s="32"/>
+      <c r="Y70" s="8"/>
+    </row>
+    <row r="71" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71" s="4" t="s">
         <v>16</v>
       </c>
@@ -4543,7 +4987,7 @@
         <v>0.28840183199670999</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L71" s="8">
         <v>1.7037345282733402E-2</v>
@@ -4552,22 +4996,27 @@
         <v>3.8343275498706501E-3</v>
       </c>
       <c r="N71" s="32">
-        <f>IF(OR(L71="",M71=""),"",L71-2*M71)</f>
+        <f t="shared" si="2"/>
         <v>9.3686901829921013E-3</v>
       </c>
       <c r="O71" s="32">
-        <f>IF(OR(L71="",M71=""),"",L71+2*M71)</f>
+        <f t="shared" si="3"/>
         <v>2.4706000382474703E-2</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q71" s="32"/>
-      <c r="R71" s="32"/>
-      <c r="S71" s="32"/>
-      <c r="T71" s="8"/>
-    </row>
-    <row r="72" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>116</v>
+      </c>
+      <c r="Q71" s="34"/>
+      <c r="R71" s="34"/>
+      <c r="S71" s="34"/>
+      <c r="T71" s="34"/>
+      <c r="U71" s="34"/>
+      <c r="V71" s="32"/>
+      <c r="W71" s="32"/>
+      <c r="X71" s="32"/>
+      <c r="Y71" s="8"/>
+    </row>
+    <row r="72" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="4" t="s">
         <v>16</v>
       </c>
@@ -4599,7 +5048,7 @@
         <v>0.31826102039211901</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L72" s="8">
         <v>3.9805786311626401E-2</v>
@@ -4608,22 +5057,27 @@
         <v>7.01124318502413E-3</v>
       </c>
       <c r="N72" s="32">
-        <f>IF(OR(L72="",M72=""),"",L72-2*M72)</f>
+        <f t="shared" ref="N72:N87" si="4">IF(OR(L72="",M72=""),"",L72-2*M72)</f>
         <v>2.5783299941578141E-2</v>
       </c>
       <c r="O72" s="32">
-        <f>IF(OR(L72="",M72=""),"",L72+2*M72)</f>
+        <f t="shared" ref="O72:O87" si="5">IF(OR(L72="",M72=""),"",L72+2*M72)</f>
         <v>5.3828272681674658E-2</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q72" s="32"/>
-      <c r="R72" s="32"/>
-      <c r="S72" s="32"/>
-      <c r="T72" s="8"/>
-    </row>
-    <row r="73" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>115</v>
+      </c>
+      <c r="Q72" s="34"/>
+      <c r="R72" s="34"/>
+      <c r="S72" s="34"/>
+      <c r="T72" s="34"/>
+      <c r="U72" s="34"/>
+      <c r="V72" s="32"/>
+      <c r="W72" s="32"/>
+      <c r="X72" s="32"/>
+      <c r="Y72" s="8"/>
+    </row>
+    <row r="73" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A73" s="4" t="s">
         <v>16</v>
       </c>
@@ -4655,7 +5109,7 @@
         <v>0.26802352848095301</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L73" s="8">
         <v>2.29038143530488E-2</v>
@@ -4664,22 +5118,27 @@
         <v>4.7737350319561698E-3</v>
       </c>
       <c r="N73" s="32">
-        <f>IF(OR(L73="",M73=""),"",L73-2*M73)</f>
+        <f t="shared" si="4"/>
         <v>1.335634428913646E-2</v>
       </c>
       <c r="O73" s="32">
-        <f>IF(OR(L73="",M73=""),"",L73+2*M73)</f>
+        <f t="shared" si="5"/>
         <v>3.2451284416961143E-2</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q73" s="32"/>
-      <c r="R73" s="32"/>
-      <c r="S73" s="32"/>
-      <c r="T73" s="8"/>
-    </row>
-    <row r="74" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>121</v>
+      </c>
+      <c r="Q73" s="34"/>
+      <c r="R73" s="34"/>
+      <c r="S73" s="34"/>
+      <c r="T73" s="34"/>
+      <c r="U73" s="34"/>
+      <c r="V73" s="32"/>
+      <c r="W73" s="32"/>
+      <c r="X73" s="32"/>
+      <c r="Y73" s="8"/>
+    </row>
+    <row r="74" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
         <v>16</v>
       </c>
@@ -4711,7 +5170,7 @@
         <v>0.127159229722001</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L74" s="8">
         <v>2.00282275676727E-2</v>
@@ -4720,22 +5179,27 @@
         <v>3.5897180816403E-3</v>
       </c>
       <c r="N74" s="32">
-        <f>IF(OR(L74="",M74=""),"",L74-2*M74)</f>
+        <f t="shared" si="4"/>
         <v>1.28487914043921E-2</v>
       </c>
       <c r="O74" s="32">
-        <f>IF(OR(L74="",M74=""),"",L74+2*M74)</f>
+        <f t="shared" si="5"/>
         <v>2.7207663730953298E-2</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q74" s="32"/>
-      <c r="R74" s="32"/>
-      <c r="S74" s="32"/>
-      <c r="T74" s="8"/>
-    </row>
-    <row r="75" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>122</v>
+      </c>
+      <c r="Q74" s="34"/>
+      <c r="R74" s="34"/>
+      <c r="S74" s="34"/>
+      <c r="T74" s="34"/>
+      <c r="U74" s="34"/>
+      <c r="V74" s="32"/>
+      <c r="W74" s="32"/>
+      <c r="X74" s="32"/>
+      <c r="Y74" s="8"/>
+    </row>
+    <row r="75" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
         <v>16</v>
       </c>
@@ -4748,30 +5212,55 @@
       <c r="D75" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="32"/>
-      <c r="N75" s="32" t="str">
-        <f>IF(OR(L75="",M75=""),"",L75-2*M75)</f>
-        <v/>
-      </c>
-      <c r="O75" s="32" t="str">
-        <f>IF(OR(L75="",M75=""),"",L75+2*M75)</f>
-        <v/>
-      </c>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="32"/>
-      <c r="R75" s="32"/>
-      <c r="S75" s="32"/>
-      <c r="T75" s="8"/>
-    </row>
-    <row r="76" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="8">
+        <v>1.04427458471685E-3</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J75" s="8">
+        <v>0.154662484494974</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L75" s="8">
+        <v>1.9710740260779801E-2</v>
+      </c>
+      <c r="M75" s="32">
+        <v>4.0718373029910203E-3</v>
+      </c>
+      <c r="N75" s="32">
+        <f t="shared" si="4"/>
+        <v>1.1567065654797761E-2</v>
+      </c>
+      <c r="O75" s="32">
+        <f t="shared" si="5"/>
+        <v>2.7854414866761844E-2</v>
+      </c>
+      <c r="P75" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q75" s="34"/>
+      <c r="R75" s="34"/>
+      <c r="S75" s="34"/>
+      <c r="T75" s="34"/>
+      <c r="U75" s="34"/>
+      <c r="V75" s="32"/>
+      <c r="W75" s="32"/>
+      <c r="X75" s="32"/>
+      <c r="Y75" s="8"/>
+    </row>
+    <row r="76" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="4" t="s">
         <v>16</v>
       </c>
@@ -4794,20 +5283,25 @@
       <c r="L76" s="8"/>
       <c r="M76" s="32"/>
       <c r="N76" s="32" t="str">
-        <f>IF(OR(L76="",M76=""),"",L76-2*M76)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O76" s="32" t="str">
-        <f>IF(OR(L76="",M76=""),"",L76+2*M76)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P76" s="4"/>
-      <c r="Q76" s="32"/>
-      <c r="R76" s="32"/>
-      <c r="S76" s="32"/>
-      <c r="T76" s="8"/>
-    </row>
-    <row r="77" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q76" s="34"/>
+      <c r="R76" s="34"/>
+      <c r="S76" s="34"/>
+      <c r="T76" s="34"/>
+      <c r="U76" s="34"/>
+      <c r="V76" s="32"/>
+      <c r="W76" s="32"/>
+      <c r="X76" s="32"/>
+      <c r="Y76" s="8"/>
+    </row>
+    <row r="77" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
         <v>16</v>
       </c>
@@ -4830,20 +5324,25 @@
       <c r="L77" s="8"/>
       <c r="M77" s="32"/>
       <c r="N77" s="32" t="str">
-        <f>IF(OR(L77="",M77=""),"",L77-2*M77)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O77" s="32" t="str">
-        <f>IF(OR(L77="",M77=""),"",L77+2*M77)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P77" s="4"/>
-      <c r="Q77" s="32"/>
-      <c r="R77" s="32"/>
-      <c r="S77" s="32"/>
-      <c r="T77" s="8"/>
-    </row>
-    <row r="78" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q77" s="34"/>
+      <c r="R77" s="34"/>
+      <c r="S77" s="34"/>
+      <c r="T77" s="34"/>
+      <c r="U77" s="34"/>
+      <c r="V77" s="32"/>
+      <c r="W77" s="32"/>
+      <c r="X77" s="32"/>
+      <c r="Y77" s="8"/>
+    </row>
+    <row r="78" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="4" t="s">
         <v>16</v>
       </c>
@@ -4866,20 +5365,25 @@
       <c r="L78" s="8"/>
       <c r="M78" s="32"/>
       <c r="N78" s="32" t="str">
-        <f>IF(OR(L78="",M78=""),"",L78-2*M78)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O78" s="32" t="str">
-        <f>IF(OR(L78="",M78=""),"",L78+2*M78)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P78" s="4"/>
-      <c r="Q78" s="32"/>
-      <c r="R78" s="32"/>
-      <c r="S78" s="32"/>
-      <c r="T78" s="8"/>
-    </row>
-    <row r="79" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q78" s="34"/>
+      <c r="R78" s="34"/>
+      <c r="S78" s="34"/>
+      <c r="T78" s="34"/>
+      <c r="U78" s="34"/>
+      <c r="V78" s="32"/>
+      <c r="W78" s="32"/>
+      <c r="X78" s="32"/>
+      <c r="Y78" s="8"/>
+    </row>
+    <row r="79" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A79" s="4" t="s">
         <v>16</v>
       </c>
@@ -4902,20 +5406,25 @@
       <c r="L79" s="8"/>
       <c r="M79" s="32"/>
       <c r="N79" s="32" t="str">
-        <f>IF(OR(L79="",M79=""),"",L79-2*M79)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O79" s="32" t="str">
-        <f>IF(OR(L79="",M79=""),"",L79+2*M79)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P79" s="4"/>
-      <c r="Q79" s="32"/>
-      <c r="R79" s="32"/>
-      <c r="S79" s="32"/>
-      <c r="T79" s="8"/>
-    </row>
-    <row r="80" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q79" s="34"/>
+      <c r="R79" s="34"/>
+      <c r="S79" s="34"/>
+      <c r="T79" s="34"/>
+      <c r="U79" s="34"/>
+      <c r="V79" s="32"/>
+      <c r="W79" s="32"/>
+      <c r="X79" s="32"/>
+      <c r="Y79" s="8"/>
+    </row>
+    <row r="80" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A80" s="4" t="s">
         <v>16</v>
       </c>
@@ -4938,20 +5447,25 @@
       <c r="L80" s="8"/>
       <c r="M80" s="32"/>
       <c r="N80" s="32" t="str">
-        <f>IF(OR(L80="",M80=""),"",L80-2*M80)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O80" s="32" t="str">
-        <f>IF(OR(L80="",M80=""),"",L80+2*M80)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P80" s="4"/>
-      <c r="Q80" s="32"/>
-      <c r="R80" s="32"/>
-      <c r="S80" s="32"/>
-      <c r="T80" s="8"/>
-    </row>
-    <row r="81" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q80" s="34"/>
+      <c r="R80" s="34"/>
+      <c r="S80" s="34"/>
+      <c r="T80" s="34"/>
+      <c r="U80" s="34"/>
+      <c r="V80" s="32"/>
+      <c r="W80" s="32"/>
+      <c r="X80" s="32"/>
+      <c r="Y80" s="8"/>
+    </row>
+    <row r="81" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A81" s="4" t="s">
         <v>16</v>
       </c>
@@ -4974,20 +5488,25 @@
       <c r="L81" s="8"/>
       <c r="M81" s="32"/>
       <c r="N81" s="32" t="str">
-        <f>IF(OR(L81="",M81=""),"",L81-2*M81)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O81" s="32" t="str">
-        <f>IF(OR(L81="",M81=""),"",L81+2*M81)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P81" s="4"/>
-      <c r="Q81" s="32"/>
-      <c r="R81" s="32"/>
-      <c r="S81" s="32"/>
-      <c r="T81" s="8"/>
-    </row>
-    <row r="82" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q81" s="34"/>
+      <c r="R81" s="34"/>
+      <c r="S81" s="34"/>
+      <c r="T81" s="34"/>
+      <c r="U81" s="34"/>
+      <c r="V81" s="32"/>
+      <c r="W81" s="32"/>
+      <c r="X81" s="32"/>
+      <c r="Y81" s="8"/>
+    </row>
+    <row r="82" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="4" t="s">
         <v>16</v>
       </c>
@@ -5010,20 +5529,25 @@
       <c r="L82" s="8"/>
       <c r="M82" s="32"/>
       <c r="N82" s="32" t="str">
-        <f>IF(OR(L82="",M82=""),"",L82-2*M82)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O82" s="32" t="str">
-        <f>IF(OR(L82="",M82=""),"",L82+2*M82)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P82" s="4"/>
-      <c r="Q82" s="32"/>
-      <c r="R82" s="32"/>
-      <c r="S82" s="32"/>
-      <c r="T82" s="8"/>
-    </row>
-    <row r="83" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q82" s="34"/>
+      <c r="R82" s="34"/>
+      <c r="S82" s="34"/>
+      <c r="T82" s="34"/>
+      <c r="U82" s="34"/>
+      <c r="V82" s="32"/>
+      <c r="W82" s="32"/>
+      <c r="X82" s="32"/>
+      <c r="Y82" s="8"/>
+    </row>
+    <row r="83" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83" s="4" t="s">
         <v>16</v>
       </c>
@@ -5046,20 +5570,25 @@
       <c r="L83" s="8"/>
       <c r="M83" s="32"/>
       <c r="N83" s="32" t="str">
-        <f>IF(OR(L83="",M83=""),"",L83-2*M83)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O83" s="32" t="str">
-        <f>IF(OR(L83="",M83=""),"",L83+2*M83)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P83" s="4"/>
-      <c r="Q83" s="32"/>
-      <c r="R83" s="32"/>
-      <c r="S83" s="32"/>
-      <c r="T83" s="8"/>
-    </row>
-    <row r="84" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q83" s="34"/>
+      <c r="R83" s="34"/>
+      <c r="S83" s="34"/>
+      <c r="T83" s="34"/>
+      <c r="U83" s="34"/>
+      <c r="V83" s="32"/>
+      <c r="W83" s="32"/>
+      <c r="X83" s="32"/>
+      <c r="Y83" s="8"/>
+    </row>
+    <row r="84" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A84" s="4" t="s">
         <v>16</v>
       </c>
@@ -5091,7 +5620,7 @@
         <v>0.362684286718711</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L84" s="8">
         <v>6.0124675184488198E-2</v>
@@ -5100,22 +5629,27 @@
         <v>7.3849208638697601E-3</v>
       </c>
       <c r="N84" s="32">
-        <f>IF(OR(L84="",M84=""),"",L84-2*M84)</f>
+        <f t="shared" si="4"/>
         <v>4.5354833456748678E-2</v>
       </c>
       <c r="O84" s="32">
-        <f>IF(OR(L84="",M84=""),"",L84+2*M84)</f>
+        <f t="shared" si="5"/>
         <v>7.4894516912227718E-2</v>
       </c>
       <c r="P84" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q84" s="32"/>
-      <c r="R84" s="32"/>
-      <c r="S84" s="32"/>
-      <c r="T84" s="8"/>
-    </row>
-    <row r="85" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>105</v>
+      </c>
+      <c r="Q84" s="34"/>
+      <c r="R84" s="34"/>
+      <c r="S84" s="34"/>
+      <c r="T84" s="34"/>
+      <c r="U84" s="34"/>
+      <c r="V84" s="32"/>
+      <c r="W84" s="32"/>
+      <c r="X84" s="32"/>
+      <c r="Y84" s="8"/>
+    </row>
+    <row r="85" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" s="4" t="s">
         <v>16</v>
       </c>
@@ -5147,7 +5681,7 @@
         <v>0.36944959061462002</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L85" s="8">
         <v>6.1281017214059798E-2</v>
@@ -5156,22 +5690,27 @@
         <v>5.6262057271695802E-3</v>
       </c>
       <c r="N85" s="32">
-        <f>IF(OR(L85="",M85=""),"",L85-2*M85)</f>
+        <f t="shared" si="4"/>
         <v>5.0028605759720637E-2</v>
       </c>
       <c r="O85" s="32">
-        <f>IF(OR(L85="",M85=""),"",L85+2*M85)</f>
+        <f t="shared" si="5"/>
         <v>7.2533428668398958E-2</v>
       </c>
       <c r="P85" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q85" s="32"/>
-      <c r="R85" s="32"/>
-      <c r="S85" s="32"/>
-      <c r="T85" s="8"/>
-    </row>
-    <row r="86" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>101</v>
+      </c>
+      <c r="Q85" s="34"/>
+      <c r="R85" s="34"/>
+      <c r="S85" s="34"/>
+      <c r="T85" s="34"/>
+      <c r="U85" s="34"/>
+      <c r="V85" s="32"/>
+      <c r="W85" s="32"/>
+      <c r="X85" s="32"/>
+      <c r="Y85" s="8"/>
+    </row>
+    <row r="86" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86" s="4" t="s">
         <v>16</v>
       </c>
@@ -5203,7 +5742,7 @@
         <v>0.28163213752842198</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L86" s="8">
         <v>6.2436234951019201E-2</v>
@@ -5212,22 +5751,27 @@
         <v>6.0537433442488702E-3</v>
       </c>
       <c r="N86" s="32">
-        <f>IF(OR(L86="",M86=""),"",L86-2*M86)</f>
+        <f t="shared" si="4"/>
         <v>5.0328748262521462E-2</v>
       </c>
       <c r="O86" s="32">
-        <f>IF(OR(L86="",M86=""),"",L86+2*M86)</f>
+        <f t="shared" si="5"/>
         <v>7.4543721639516947E-2</v>
       </c>
       <c r="P86" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q86" s="32"/>
-      <c r="R86" s="32"/>
-      <c r="S86" s="32"/>
-      <c r="T86" s="8"/>
-    </row>
-    <row r="87" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>102</v>
+      </c>
+      <c r="Q86" s="34"/>
+      <c r="R86" s="34"/>
+      <c r="S86" s="34"/>
+      <c r="T86" s="34"/>
+      <c r="U86" s="34"/>
+      <c r="V86" s="32"/>
+      <c r="W86" s="32"/>
+      <c r="X86" s="32"/>
+      <c r="Y86" s="8"/>
+    </row>
+    <row r="87" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87" s="4" t="s">
         <v>16</v>
       </c>
@@ -5259,7 +5803,7 @@
         <v>0.140422682361351</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L87" s="8">
         <v>3.8152105361223203E-2</v>
@@ -5268,48 +5812,68 @@
         <v>5.0818124143602204E-3</v>
       </c>
       <c r="N87" s="32">
-        <f>IF(OR(L87="",M87=""),"",L87-2*M87)</f>
+        <f t="shared" si="4"/>
         <v>2.798848053250276E-2</v>
       </c>
       <c r="O87" s="32">
-        <f>IF(OR(L87="",M87=""),"",L87+2*M87)</f>
+        <f t="shared" si="5"/>
         <v>4.8315730189943645E-2</v>
       </c>
       <c r="P87" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q87" s="32"/>
-      <c r="R87" s="32"/>
-      <c r="S87" s="32"/>
-      <c r="T87" s="8"/>
-    </row>
-    <row r="88" spans="1:20" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+      <c r="Q87" s="34"/>
+      <c r="R87" s="34"/>
+      <c r="S87" s="34"/>
+      <c r="T87" s="34"/>
+      <c r="U87" s="34"/>
+      <c r="V87" s="32"/>
+      <c r="W87" s="32"/>
+      <c r="X87" s="32"/>
+      <c r="Y87" s="8"/>
+    </row>
+    <row r="88" spans="1:25" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="P88" s="2"/>
-      <c r="S88" s="31"/>
-    </row>
-    <row r="89" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="X88" s="31"/>
+    </row>
+    <row r="89" spans="1:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P89" s="2"/>
-      <c r="S89" s="31"/>
-    </row>
-    <row r="90" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="X89" s="31"/>
+    </row>
+    <row r="90" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A90" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="L90" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="M90" s="39"/>
-      <c r="N90" s="39"/>
-      <c r="O90" s="39"/>
-      <c r="P90" s="46"/>
-      <c r="Q90" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="L90" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="M90" s="41"/>
+      <c r="N90" s="41"/>
+      <c r="O90" s="41"/>
+      <c r="P90" s="42"/>
+      <c r="Q90" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="R90" s="39"/>
-      <c r="S90" s="39"/>
-      <c r="T90" s="40"/>
-    </row>
-    <row r="91" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="R90" s="44"/>
+      <c r="S90" s="44"/>
+      <c r="T90" s="44"/>
+      <c r="U90" s="44"/>
+      <c r="V90" s="44"/>
+      <c r="W90" s="44"/>
+      <c r="X90" s="44"/>
+      <c r="Y90" s="42"/>
+    </row>
+    <row r="91" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A91" s="4" t="s">
         <v>3</v>
       </c>
@@ -5358,20 +5922,35 @@
       <c r="P91" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q91" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="R91" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="S91" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="T91" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q91" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="R91" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="S91" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="T91" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="U91" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="V91" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="W91" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="X91" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y91" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A92" s="4" t="s">
         <v>7</v>
       </c>
@@ -5398,12 +5977,17 @@
       <c r="N92" s="32"/>
       <c r="O92" s="32"/>
       <c r="P92" s="4"/>
-      <c r="Q92" s="32"/>
-      <c r="R92" s="32"/>
-      <c r="S92" s="32"/>
-      <c r="T92" s="8"/>
-    </row>
-    <row r="93" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q92" s="34"/>
+      <c r="R92" s="34"/>
+      <c r="S92" s="34"/>
+      <c r="T92" s="34"/>
+      <c r="U92" s="34"/>
+      <c r="V92" s="32"/>
+      <c r="W92" s="32"/>
+      <c r="X92" s="32"/>
+      <c r="Y92" s="8"/>
+    </row>
+    <row r="93" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A93" s="4" t="s">
         <v>7</v>
       </c>
@@ -5430,12 +6014,17 @@
       <c r="N93" s="32"/>
       <c r="O93" s="32"/>
       <c r="P93" s="4"/>
-      <c r="Q93" s="32"/>
-      <c r="R93" s="32"/>
-      <c r="S93" s="32"/>
-      <c r="T93" s="8"/>
-    </row>
-    <row r="94" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q93" s="34"/>
+      <c r="R93" s="34"/>
+      <c r="S93" s="34"/>
+      <c r="T93" s="34"/>
+      <c r="U93" s="34"/>
+      <c r="V93" s="32"/>
+      <c r="W93" s="32"/>
+      <c r="X93" s="32"/>
+      <c r="Y93" s="8"/>
+    </row>
+    <row r="94" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A94" s="4" t="s">
         <v>7</v>
       </c>
@@ -5462,12 +6051,17 @@
       <c r="N94" s="32"/>
       <c r="O94" s="32"/>
       <c r="P94" s="4"/>
-      <c r="Q94" s="32"/>
-      <c r="R94" s="32"/>
-      <c r="S94" s="32"/>
-      <c r="T94" s="8"/>
-    </row>
-    <row r="95" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q94" s="34"/>
+      <c r="R94" s="34"/>
+      <c r="S94" s="34"/>
+      <c r="T94" s="34"/>
+      <c r="U94" s="34"/>
+      <c r="V94" s="32"/>
+      <c r="W94" s="32"/>
+      <c r="X94" s="32"/>
+      <c r="Y94" s="8"/>
+    </row>
+    <row r="95" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A95" s="4" t="s">
         <v>7</v>
       </c>
@@ -5494,12 +6088,17 @@
       <c r="N95" s="32"/>
       <c r="O95" s="32"/>
       <c r="P95" s="4"/>
-      <c r="Q95" s="32"/>
-      <c r="R95" s="32"/>
-      <c r="S95" s="32"/>
-      <c r="T95" s="8"/>
-    </row>
-    <row r="96" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q95" s="34"/>
+      <c r="R95" s="34"/>
+      <c r="S95" s="34"/>
+      <c r="T95" s="34"/>
+      <c r="U95" s="34"/>
+      <c r="V95" s="32"/>
+      <c r="W95" s="32"/>
+      <c r="X95" s="32"/>
+      <c r="Y95" s="8"/>
+    </row>
+    <row r="96" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A96" s="4" t="s">
         <v>7</v>
       </c>
@@ -5510,7 +6109,7 @@
         <v>38</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>9</v>
@@ -5524,20 +6123,25 @@
       <c r="L96" s="8"/>
       <c r="M96" s="32"/>
       <c r="N96" s="32" t="str">
-        <f>IF(OR(L96="",M96=""),"",L96-2*M96)</f>
+        <f t="shared" ref="N96:N103" si="6">IF(OR(L96="",M96=""),"",L96-2*M96)</f>
         <v/>
       </c>
       <c r="O96" s="32" t="str">
-        <f>IF(OR(L96="",M96=""),"",L96+2*M96)</f>
+        <f t="shared" ref="O96:O103" si="7">IF(OR(L96="",M96=""),"",L96+2*M96)</f>
         <v/>
       </c>
       <c r="P96" s="30"/>
-      <c r="Q96" s="32"/>
-      <c r="R96" s="32"/>
-      <c r="S96" s="32"/>
-      <c r="T96" s="8"/>
-    </row>
-    <row r="97" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q96" s="35"/>
+      <c r="R96" s="35"/>
+      <c r="S96" s="35"/>
+      <c r="T96" s="35"/>
+      <c r="U96" s="35"/>
+      <c r="V96" s="32"/>
+      <c r="W96" s="32"/>
+      <c r="X96" s="32"/>
+      <c r="Y96" s="8"/>
+    </row>
+    <row r="97" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A97" s="4" t="s">
         <v>7</v>
       </c>
@@ -5548,7 +6152,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>9</v>
@@ -5562,20 +6166,25 @@
       <c r="L97" s="8"/>
       <c r="M97" s="32"/>
       <c r="N97" s="32" t="str">
-        <f>IF(OR(L97="",M97=""),"",L97-2*M97)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O97" s="32" t="str">
-        <f>IF(OR(L97="",M97=""),"",L97+2*M97)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P97" s="30"/>
-      <c r="Q97" s="32"/>
-      <c r="R97" s="32"/>
-      <c r="S97" s="32"/>
-      <c r="T97" s="8"/>
-    </row>
-    <row r="98" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q97" s="35"/>
+      <c r="R97" s="35"/>
+      <c r="S97" s="35"/>
+      <c r="T97" s="35"/>
+      <c r="U97" s="35"/>
+      <c r="V97" s="32"/>
+      <c r="W97" s="32"/>
+      <c r="X97" s="32"/>
+      <c r="Y97" s="8"/>
+    </row>
+    <row r="98" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A98" s="4" t="s">
         <v>7</v>
       </c>
@@ -5586,7 +6195,7 @@
         <v>24</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>9</v>
@@ -5600,20 +6209,25 @@
       <c r="L98" s="8"/>
       <c r="M98" s="32"/>
       <c r="N98" s="32" t="str">
-        <f>IF(OR(L98="",M98=""),"",L98-2*M98)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O98" s="32" t="str">
-        <f>IF(OR(L98="",M98=""),"",L98+2*M98)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P98" s="30"/>
-      <c r="Q98" s="32"/>
-      <c r="R98" s="32"/>
-      <c r="S98" s="32"/>
-      <c r="T98" s="8"/>
-    </row>
-    <row r="99" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q98" s="35"/>
+      <c r="R98" s="35"/>
+      <c r="S98" s="35"/>
+      <c r="T98" s="35"/>
+      <c r="U98" s="35"/>
+      <c r="V98" s="32"/>
+      <c r="W98" s="32"/>
+      <c r="X98" s="32"/>
+      <c r="Y98" s="8"/>
+    </row>
+    <row r="99" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A99" s="4" t="s">
         <v>7</v>
       </c>
@@ -5624,7 +6238,7 @@
         <v>67</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>9</v>
@@ -5638,20 +6252,25 @@
       <c r="L99" s="8"/>
       <c r="M99" s="32"/>
       <c r="N99" s="32" t="str">
-        <f>IF(OR(L99="",M99=""),"",L99-2*M99)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O99" s="32" t="str">
-        <f>IF(OR(L99="",M99=""),"",L99+2*M99)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P99" s="30"/>
-      <c r="Q99" s="32"/>
-      <c r="R99" s="32"/>
-      <c r="S99" s="32"/>
-      <c r="T99" s="8"/>
-    </row>
-    <row r="100" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q99" s="35"/>
+      <c r="R99" s="35"/>
+      <c r="S99" s="35"/>
+      <c r="T99" s="35"/>
+      <c r="U99" s="35"/>
+      <c r="V99" s="32"/>
+      <c r="W99" s="32"/>
+      <c r="X99" s="32"/>
+      <c r="Y99" s="8"/>
+    </row>
+    <row r="100" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A100" s="4" t="s">
         <v>7</v>
       </c>
@@ -5676,20 +6295,25 @@
       <c r="L100" s="8"/>
       <c r="M100" s="32"/>
       <c r="N100" s="32" t="str">
-        <f>IF(OR(L100="",M100=""),"",L100-2*M100)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O100" s="32" t="str">
-        <f>IF(OR(L100="",M100=""),"",L100+2*M100)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P100" s="30"/>
-      <c r="Q100" s="32"/>
-      <c r="R100" s="32"/>
-      <c r="S100" s="32"/>
-      <c r="T100" s="8"/>
-    </row>
-    <row r="101" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q100" s="35"/>
+      <c r="R100" s="35"/>
+      <c r="S100" s="35"/>
+      <c r="T100" s="35"/>
+      <c r="U100" s="35"/>
+      <c r="V100" s="32"/>
+      <c r="W100" s="32"/>
+      <c r="X100" s="32"/>
+      <c r="Y100" s="8"/>
+    </row>
+    <row r="101" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A101" s="4" t="s">
         <v>7</v>
       </c>
@@ -5714,20 +6338,25 @@
       <c r="L101" s="8"/>
       <c r="M101" s="32"/>
       <c r="N101" s="32" t="str">
-        <f>IF(OR(L101="",M101=""),"",L101-2*M101)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O101" s="32" t="str">
-        <f>IF(OR(L101="",M101=""),"",L101+2*M101)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P101" s="30"/>
-      <c r="Q101" s="32"/>
-      <c r="R101" s="32"/>
-      <c r="S101" s="32"/>
-      <c r="T101" s="8"/>
-    </row>
-    <row r="102" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q101" s="35"/>
+      <c r="R101" s="35"/>
+      <c r="S101" s="35"/>
+      <c r="T101" s="35"/>
+      <c r="U101" s="35"/>
+      <c r="V101" s="32"/>
+      <c r="W101" s="32"/>
+      <c r="X101" s="32"/>
+      <c r="Y101" s="8"/>
+    </row>
+    <row r="102" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A102" s="4" t="s">
         <v>7</v>
       </c>
@@ -5752,20 +6381,25 @@
       <c r="L102" s="8"/>
       <c r="M102" s="32"/>
       <c r="N102" s="32" t="str">
-        <f>IF(OR(L102="",M102=""),"",L102-2*M102)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O102" s="32" t="str">
-        <f>IF(OR(L102="",M102=""),"",L102+2*M102)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P102" s="30"/>
-      <c r="Q102" s="32"/>
-      <c r="R102" s="32"/>
-      <c r="S102" s="32"/>
-      <c r="T102" s="8"/>
-    </row>
-    <row r="103" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q102" s="35"/>
+      <c r="R102" s="35"/>
+      <c r="S102" s="35"/>
+      <c r="T102" s="35"/>
+      <c r="U102" s="35"/>
+      <c r="V102" s="32"/>
+      <c r="W102" s="32"/>
+      <c r="X102" s="32"/>
+      <c r="Y102" s="8"/>
+    </row>
+    <row r="103" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A103" s="4" t="s">
         <v>7</v>
       </c>
@@ -5790,20 +6424,25 @@
       <c r="L103" s="8"/>
       <c r="M103" s="32"/>
       <c r="N103" s="32" t="str">
-        <f>IF(OR(L103="",M103=""),"",L103-2*M103)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O103" s="32" t="str">
-        <f>IF(OR(L103="",M103=""),"",L103+2*M103)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P103" s="30"/>
-      <c r="Q103" s="32"/>
-      <c r="R103" s="32"/>
-      <c r="S103" s="32"/>
-      <c r="T103" s="8"/>
-    </row>
-    <row r="104" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q103" s="35"/>
+      <c r="R103" s="35"/>
+      <c r="S103" s="35"/>
+      <c r="T103" s="35"/>
+      <c r="U103" s="35"/>
+      <c r="V103" s="32"/>
+      <c r="W103" s="32"/>
+      <c r="X103" s="32"/>
+      <c r="Y103" s="8"/>
+    </row>
+    <row r="104" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A104" s="4" t="s">
         <v>7</v>
       </c>
@@ -5830,12 +6469,17 @@
       <c r="N104" s="32"/>
       <c r="O104" s="32"/>
       <c r="P104" s="4"/>
-      <c r="Q104" s="32"/>
-      <c r="R104" s="32"/>
-      <c r="S104" s="32"/>
-      <c r="T104" s="8"/>
-    </row>
-    <row r="105" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q104" s="34"/>
+      <c r="R104" s="34"/>
+      <c r="S104" s="34"/>
+      <c r="T104" s="34"/>
+      <c r="U104" s="34"/>
+      <c r="V104" s="32"/>
+      <c r="W104" s="32"/>
+      <c r="X104" s="32"/>
+      <c r="Y104" s="8"/>
+    </row>
+    <row r="105" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A105" s="4" t="s">
         <v>7</v>
       </c>
@@ -5862,12 +6506,17 @@
       <c r="N105" s="32"/>
       <c r="O105" s="32"/>
       <c r="P105" s="4"/>
-      <c r="Q105" s="32"/>
-      <c r="R105" s="32"/>
-      <c r="S105" s="32"/>
-      <c r="T105" s="8"/>
-    </row>
-    <row r="106" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q105" s="34"/>
+      <c r="R105" s="34"/>
+      <c r="S105" s="34"/>
+      <c r="T105" s="34"/>
+      <c r="U105" s="34"/>
+      <c r="V105" s="32"/>
+      <c r="W105" s="32"/>
+      <c r="X105" s="32"/>
+      <c r="Y105" s="8"/>
+    </row>
+    <row r="106" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A106" s="4" t="s">
         <v>7</v>
       </c>
@@ -5894,12 +6543,17 @@
       <c r="N106" s="32"/>
       <c r="O106" s="32"/>
       <c r="P106" s="4"/>
-      <c r="Q106" s="32"/>
-      <c r="R106" s="32"/>
-      <c r="S106" s="32"/>
-      <c r="T106" s="8"/>
-    </row>
-    <row r="107" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q106" s="34"/>
+      <c r="R106" s="34"/>
+      <c r="S106" s="34"/>
+      <c r="T106" s="34"/>
+      <c r="U106" s="34"/>
+      <c r="V106" s="32"/>
+      <c r="W106" s="32"/>
+      <c r="X106" s="32"/>
+      <c r="Y106" s="8"/>
+    </row>
+    <row r="107" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A107" s="4" t="s">
         <v>7</v>
       </c>
@@ -5926,12 +6580,17 @@
       <c r="N107" s="32"/>
       <c r="O107" s="32"/>
       <c r="P107" s="4"/>
-      <c r="Q107" s="32"/>
-      <c r="R107" s="32"/>
-      <c r="S107" s="32"/>
-      <c r="T107" s="8"/>
-    </row>
-    <row r="108" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q107" s="34"/>
+      <c r="R107" s="34"/>
+      <c r="S107" s="34"/>
+      <c r="T107" s="34"/>
+      <c r="U107" s="34"/>
+      <c r="V107" s="32"/>
+      <c r="W107" s="32"/>
+      <c r="X107" s="32"/>
+      <c r="Y107" s="8"/>
+    </row>
+    <row r="108" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A108" s="4" t="s">
         <v>7</v>
       </c>
@@ -5942,7 +6601,7 @@
         <v>38</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>9</v>
@@ -5956,20 +6615,25 @@
       <c r="L108" s="8"/>
       <c r="M108" s="32"/>
       <c r="N108" s="32" t="str">
-        <f>IF(OR(L108="",M108=""),"",L108-2*M108)</f>
+        <f t="shared" ref="N108:N115" si="8">IF(OR(L108="",M108=""),"",L108-2*M108)</f>
         <v/>
       </c>
       <c r="O108" s="32" t="str">
-        <f>IF(OR(L108="",M108=""),"",L108+2*M108)</f>
+        <f t="shared" ref="O108:O115" si="9">IF(OR(L108="",M108=""),"",L108+2*M108)</f>
         <v/>
       </c>
       <c r="P108" s="30"/>
-      <c r="Q108" s="32"/>
-      <c r="R108" s="32"/>
-      <c r="S108" s="32"/>
-      <c r="T108" s="8"/>
-    </row>
-    <row r="109" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q108" s="35"/>
+      <c r="R108" s="35"/>
+      <c r="S108" s="35"/>
+      <c r="T108" s="35"/>
+      <c r="U108" s="35"/>
+      <c r="V108" s="32"/>
+      <c r="W108" s="32"/>
+      <c r="X108" s="32"/>
+      <c r="Y108" s="8"/>
+    </row>
+    <row r="109" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A109" s="4" t="s">
         <v>7</v>
       </c>
@@ -5980,7 +6644,7 @@
         <v>6</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>9</v>
@@ -5994,20 +6658,25 @@
       <c r="L109" s="8"/>
       <c r="M109" s="32"/>
       <c r="N109" s="32" t="str">
-        <f>IF(OR(L109="",M109=""),"",L109-2*M109)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O109" s="32" t="str">
-        <f>IF(OR(L109="",M109=""),"",L109+2*M109)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P109" s="30"/>
-      <c r="Q109" s="32"/>
-      <c r="R109" s="32"/>
-      <c r="S109" s="32"/>
-      <c r="T109" s="8"/>
-    </row>
-    <row r="110" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q109" s="35"/>
+      <c r="R109" s="35"/>
+      <c r="S109" s="35"/>
+      <c r="T109" s="35"/>
+      <c r="U109" s="35"/>
+      <c r="V109" s="32"/>
+      <c r="W109" s="32"/>
+      <c r="X109" s="32"/>
+      <c r="Y109" s="8"/>
+    </row>
+    <row r="110" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A110" s="4" t="s">
         <v>7</v>
       </c>
@@ -6018,7 +6687,7 @@
         <v>24</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>9</v>
@@ -6032,20 +6701,25 @@
       <c r="L110" s="8"/>
       <c r="M110" s="32"/>
       <c r="N110" s="32" t="str">
-        <f>IF(OR(L110="",M110=""),"",L110-2*M110)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O110" s="32" t="str">
-        <f>IF(OR(L110="",M110=""),"",L110+2*M110)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P110" s="30"/>
-      <c r="Q110" s="32"/>
-      <c r="R110" s="32"/>
-      <c r="S110" s="32"/>
-      <c r="T110" s="8"/>
-    </row>
-    <row r="111" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q110" s="35"/>
+      <c r="R110" s="35"/>
+      <c r="S110" s="35"/>
+      <c r="T110" s="35"/>
+      <c r="U110" s="35"/>
+      <c r="V110" s="32"/>
+      <c r="W110" s="32"/>
+      <c r="X110" s="32"/>
+      <c r="Y110" s="8"/>
+    </row>
+    <row r="111" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A111" s="4" t="s">
         <v>7</v>
       </c>
@@ -6056,7 +6730,7 @@
         <v>67</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>9</v>
@@ -6070,20 +6744,25 @@
       <c r="L111" s="8"/>
       <c r="M111" s="32"/>
       <c r="N111" s="32" t="str">
-        <f>IF(OR(L111="",M111=""),"",L111-2*M111)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O111" s="32" t="str">
-        <f>IF(OR(L111="",M111=""),"",L111+2*M111)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P111" s="30"/>
-      <c r="Q111" s="32"/>
-      <c r="R111" s="32"/>
-      <c r="S111" s="32"/>
-      <c r="T111" s="8"/>
-    </row>
-    <row r="112" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q111" s="35"/>
+      <c r="R111" s="35"/>
+      <c r="S111" s="35"/>
+      <c r="T111" s="35"/>
+      <c r="U111" s="35"/>
+      <c r="V111" s="32"/>
+      <c r="W111" s="32"/>
+      <c r="X111" s="32"/>
+      <c r="Y111" s="8"/>
+    </row>
+    <row r="112" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A112" s="4" t="s">
         <v>7</v>
       </c>
@@ -6108,20 +6787,25 @@
       <c r="L112" s="8"/>
       <c r="M112" s="32"/>
       <c r="N112" s="32" t="str">
-        <f>IF(OR(L112="",M112=""),"",L112-2*M112)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O112" s="32" t="str">
-        <f>IF(OR(L112="",M112=""),"",L112+2*M112)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P112" s="30"/>
-      <c r="Q112" s="32"/>
-      <c r="R112" s="32"/>
-      <c r="S112" s="32"/>
-      <c r="T112" s="8"/>
-    </row>
-    <row r="113" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q112" s="35"/>
+      <c r="R112" s="35"/>
+      <c r="S112" s="35"/>
+      <c r="T112" s="35"/>
+      <c r="U112" s="35"/>
+      <c r="V112" s="32"/>
+      <c r="W112" s="32"/>
+      <c r="X112" s="32"/>
+      <c r="Y112" s="8"/>
+    </row>
+    <row r="113" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A113" s="4" t="s">
         <v>7</v>
       </c>
@@ -6146,20 +6830,25 @@
       <c r="L113" s="8"/>
       <c r="M113" s="32"/>
       <c r="N113" s="32" t="str">
-        <f>IF(OR(L113="",M113=""),"",L113-2*M113)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O113" s="32" t="str">
-        <f>IF(OR(L113="",M113=""),"",L113+2*M113)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P113" s="30"/>
-      <c r="Q113" s="32"/>
-      <c r="R113" s="32"/>
-      <c r="S113" s="32"/>
-      <c r="T113" s="8"/>
-    </row>
-    <row r="114" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q113" s="35"/>
+      <c r="R113" s="35"/>
+      <c r="S113" s="35"/>
+      <c r="T113" s="35"/>
+      <c r="U113" s="35"/>
+      <c r="V113" s="32"/>
+      <c r="W113" s="32"/>
+      <c r="X113" s="32"/>
+      <c r="Y113" s="8"/>
+    </row>
+    <row r="114" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A114" s="4" t="s">
         <v>7</v>
       </c>
@@ -6184,20 +6873,25 @@
       <c r="L114" s="8"/>
       <c r="M114" s="32"/>
       <c r="N114" s="32" t="str">
-        <f>IF(OR(L114="",M114=""),"",L114-2*M114)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O114" s="32" t="str">
-        <f>IF(OR(L114="",M114=""),"",L114+2*M114)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P114" s="30"/>
-      <c r="Q114" s="32"/>
-      <c r="R114" s="32"/>
-      <c r="S114" s="32"/>
-      <c r="T114" s="8"/>
-    </row>
-    <row r="115" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q114" s="35"/>
+      <c r="R114" s="35"/>
+      <c r="S114" s="35"/>
+      <c r="T114" s="35"/>
+      <c r="U114" s="35"/>
+      <c r="V114" s="32"/>
+      <c r="W114" s="32"/>
+      <c r="X114" s="32"/>
+      <c r="Y114" s="8"/>
+    </row>
+    <row r="115" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A115" s="4" t="s">
         <v>7</v>
       </c>
@@ -6222,20 +6916,25 @@
       <c r="L115" s="8"/>
       <c r="M115" s="32"/>
       <c r="N115" s="32" t="str">
-        <f>IF(OR(L115="",M115=""),"",L115-2*M115)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O115" s="32" t="str">
-        <f>IF(OR(L115="",M115=""),"",L115+2*M115)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P115" s="30"/>
-      <c r="Q115" s="32"/>
-      <c r="R115" s="32"/>
-      <c r="S115" s="32"/>
-      <c r="T115" s="8"/>
-    </row>
-    <row r="116" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q115" s="35"/>
+      <c r="R115" s="35"/>
+      <c r="S115" s="35"/>
+      <c r="T115" s="35"/>
+      <c r="U115" s="35"/>
+      <c r="V115" s="32"/>
+      <c r="W115" s="32"/>
+      <c r="X115" s="32"/>
+      <c r="Y115" s="8"/>
+    </row>
+    <row r="116" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A116" s="4" t="s">
         <v>16</v>
       </c>
@@ -6260,12 +6959,17 @@
       <c r="N116" s="32"/>
       <c r="O116" s="32"/>
       <c r="P116" s="4"/>
-      <c r="Q116" s="32"/>
-      <c r="R116" s="32"/>
-      <c r="S116" s="32"/>
-      <c r="T116" s="8"/>
-    </row>
-    <row r="117" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q116" s="34"/>
+      <c r="R116" s="34"/>
+      <c r="S116" s="34"/>
+      <c r="T116" s="34"/>
+      <c r="U116" s="34"/>
+      <c r="V116" s="32"/>
+      <c r="W116" s="32"/>
+      <c r="X116" s="32"/>
+      <c r="Y116" s="8"/>
+    </row>
+    <row r="117" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A117" s="4" t="s">
         <v>16</v>
       </c>
@@ -6290,12 +6994,17 @@
       <c r="N117" s="32"/>
       <c r="O117" s="32"/>
       <c r="P117" s="4"/>
-      <c r="Q117" s="32"/>
-      <c r="R117" s="32"/>
-      <c r="S117" s="32"/>
-      <c r="T117" s="8"/>
-    </row>
-    <row r="118" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q117" s="34"/>
+      <c r="R117" s="34"/>
+      <c r="S117" s="34"/>
+      <c r="T117" s="34"/>
+      <c r="U117" s="34"/>
+      <c r="V117" s="32"/>
+      <c r="W117" s="32"/>
+      <c r="X117" s="32"/>
+      <c r="Y117" s="8"/>
+    </row>
+    <row r="118" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A118" s="4" t="s">
         <v>16</v>
       </c>
@@ -6320,12 +7029,17 @@
       <c r="N118" s="32"/>
       <c r="O118" s="32"/>
       <c r="P118" s="4"/>
-      <c r="Q118" s="32"/>
-      <c r="R118" s="32"/>
-      <c r="S118" s="32"/>
-      <c r="T118" s="8"/>
-    </row>
-    <row r="119" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q118" s="34"/>
+      <c r="R118" s="34"/>
+      <c r="S118" s="34"/>
+      <c r="T118" s="34"/>
+      <c r="U118" s="34"/>
+      <c r="V118" s="32"/>
+      <c r="W118" s="32"/>
+      <c r="X118" s="32"/>
+      <c r="Y118" s="8"/>
+    </row>
+    <row r="119" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A119" s="4" t="s">
         <v>16</v>
       </c>
@@ -6350,12 +7064,17 @@
       <c r="N119" s="32"/>
       <c r="O119" s="32"/>
       <c r="P119" s="4"/>
-      <c r="Q119" s="32"/>
-      <c r="R119" s="32"/>
-      <c r="S119" s="32"/>
-      <c r="T119" s="8"/>
-    </row>
-    <row r="120" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q119" s="34"/>
+      <c r="R119" s="34"/>
+      <c r="S119" s="34"/>
+      <c r="T119" s="34"/>
+      <c r="U119" s="34"/>
+      <c r="V119" s="32"/>
+      <c r="W119" s="32"/>
+      <c r="X119" s="32"/>
+      <c r="Y119" s="8"/>
+    </row>
+    <row r="120" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A120" s="4" t="s">
         <v>16</v>
       </c>
@@ -6366,7 +7085,7 @@
         <v>38</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="8"/>
@@ -6380,12 +7099,17 @@
       <c r="N120" s="32"/>
       <c r="O120" s="32"/>
       <c r="P120" s="4"/>
-      <c r="Q120" s="32"/>
-      <c r="R120" s="32"/>
-      <c r="S120" s="32"/>
-      <c r="T120" s="8"/>
-    </row>
-    <row r="121" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q120" s="34"/>
+      <c r="R120" s="34"/>
+      <c r="S120" s="34"/>
+      <c r="T120" s="34"/>
+      <c r="U120" s="34"/>
+      <c r="V120" s="32"/>
+      <c r="W120" s="32"/>
+      <c r="X120" s="32"/>
+      <c r="Y120" s="8"/>
+    </row>
+    <row r="121" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A121" s="4" t="s">
         <v>16</v>
       </c>
@@ -6396,7 +7120,7 @@
         <v>6</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="8"/>
@@ -6410,12 +7134,17 @@
       <c r="N121" s="32"/>
       <c r="O121" s="32"/>
       <c r="P121" s="4"/>
-      <c r="Q121" s="32"/>
-      <c r="R121" s="32"/>
-      <c r="S121" s="32"/>
-      <c r="T121" s="8"/>
-    </row>
-    <row r="122" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q121" s="34"/>
+      <c r="R121" s="34"/>
+      <c r="S121" s="34"/>
+      <c r="T121" s="34"/>
+      <c r="U121" s="34"/>
+      <c r="V121" s="32"/>
+      <c r="W121" s="32"/>
+      <c r="X121" s="32"/>
+      <c r="Y121" s="8"/>
+    </row>
+    <row r="122" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A122" s="4" t="s">
         <v>16</v>
       </c>
@@ -6426,7 +7155,7 @@
         <v>24</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="8"/>
@@ -6440,12 +7169,17 @@
       <c r="N122" s="32"/>
       <c r="O122" s="32"/>
       <c r="P122" s="4"/>
-      <c r="Q122" s="32"/>
-      <c r="R122" s="32"/>
-      <c r="S122" s="32"/>
-      <c r="T122" s="8"/>
-    </row>
-    <row r="123" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q122" s="34"/>
+      <c r="R122" s="34"/>
+      <c r="S122" s="34"/>
+      <c r="T122" s="34"/>
+      <c r="U122" s="34"/>
+      <c r="V122" s="32"/>
+      <c r="W122" s="32"/>
+      <c r="X122" s="32"/>
+      <c r="Y122" s="8"/>
+    </row>
+    <row r="123" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A123" s="4" t="s">
         <v>16</v>
       </c>
@@ -6456,7 +7190,7 @@
         <v>67</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="8"/>
@@ -6476,12 +7210,17 @@
         <v/>
       </c>
       <c r="P123" s="4"/>
-      <c r="Q123" s="32"/>
-      <c r="R123" s="32"/>
-      <c r="S123" s="32"/>
-      <c r="T123" s="8"/>
-    </row>
-    <row r="124" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q123" s="34"/>
+      <c r="R123" s="34"/>
+      <c r="S123" s="34"/>
+      <c r="T123" s="34"/>
+      <c r="U123" s="34"/>
+      <c r="V123" s="32"/>
+      <c r="W123" s="32"/>
+      <c r="X123" s="32"/>
+      <c r="Y123" s="8"/>
+    </row>
+    <row r="124" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A124" s="4" t="s">
         <v>16</v>
       </c>
@@ -6512,12 +7251,17 @@
         <v/>
       </c>
       <c r="P124" s="4"/>
-      <c r="Q124" s="32"/>
-      <c r="R124" s="32"/>
-      <c r="S124" s="32"/>
-      <c r="T124" s="8"/>
-    </row>
-    <row r="125" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q124" s="34"/>
+      <c r="R124" s="34"/>
+      <c r="S124" s="34"/>
+      <c r="T124" s="34"/>
+      <c r="U124" s="34"/>
+      <c r="V124" s="32"/>
+      <c r="W124" s="32"/>
+      <c r="X124" s="32"/>
+      <c r="Y124" s="8"/>
+    </row>
+    <row r="125" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A125" s="4" t="s">
         <v>16</v>
       </c>
@@ -6548,12 +7292,17 @@
         <v/>
       </c>
       <c r="P125" s="4"/>
-      <c r="Q125" s="32"/>
-      <c r="R125" s="32"/>
-      <c r="S125" s="32"/>
-      <c r="T125" s="8"/>
-    </row>
-    <row r="126" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q125" s="34"/>
+      <c r="R125" s="34"/>
+      <c r="S125" s="34"/>
+      <c r="T125" s="34"/>
+      <c r="U125" s="34"/>
+      <c r="V125" s="32"/>
+      <c r="W125" s="32"/>
+      <c r="X125" s="32"/>
+      <c r="Y125" s="8"/>
+    </row>
+    <row r="126" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A126" s="4" t="s">
         <v>16</v>
       </c>
@@ -6584,12 +7333,17 @@
         <v/>
       </c>
       <c r="P126" s="4"/>
-      <c r="Q126" s="32"/>
-      <c r="R126" s="32"/>
-      <c r="S126" s="32"/>
-      <c r="T126" s="8"/>
-    </row>
-    <row r="127" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q126" s="34"/>
+      <c r="R126" s="34"/>
+      <c r="S126" s="34"/>
+      <c r="T126" s="34"/>
+      <c r="U126" s="34"/>
+      <c r="V126" s="32"/>
+      <c r="W126" s="32"/>
+      <c r="X126" s="32"/>
+      <c r="Y126" s="8"/>
+    </row>
+    <row r="127" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A127" s="4" t="s">
         <v>16</v>
       </c>
@@ -6620,12 +7374,17 @@
         <v/>
       </c>
       <c r="P127" s="4"/>
-      <c r="Q127" s="32"/>
-      <c r="R127" s="32"/>
-      <c r="S127" s="32"/>
-      <c r="T127" s="8"/>
-    </row>
-    <row r="128" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q127" s="34"/>
+      <c r="R127" s="34"/>
+      <c r="S127" s="34"/>
+      <c r="T127" s="34"/>
+      <c r="U127" s="34"/>
+      <c r="V127" s="32"/>
+      <c r="W127" s="32"/>
+      <c r="X127" s="32"/>
+      <c r="Y127" s="8"/>
+    </row>
+    <row r="128" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A128" s="4" t="s">
         <v>16</v>
       </c>
@@ -6650,12 +7409,17 @@
       <c r="N128" s="32"/>
       <c r="O128" s="32"/>
       <c r="P128" s="4"/>
-      <c r="Q128" s="32"/>
-      <c r="R128" s="32"/>
-      <c r="S128" s="32"/>
-      <c r="T128" s="8"/>
-    </row>
-    <row r="129" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q128" s="34"/>
+      <c r="R128" s="34"/>
+      <c r="S128" s="34"/>
+      <c r="T128" s="34"/>
+      <c r="U128" s="34"/>
+      <c r="V128" s="32"/>
+      <c r="W128" s="32"/>
+      <c r="X128" s="32"/>
+      <c r="Y128" s="8"/>
+    </row>
+    <row r="129" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A129" s="4" t="s">
         <v>16</v>
       </c>
@@ -6680,12 +7444,17 @@
       <c r="N129" s="32"/>
       <c r="O129" s="32"/>
       <c r="P129" s="4"/>
-      <c r="Q129" s="32"/>
-      <c r="R129" s="32"/>
-      <c r="S129" s="32"/>
-      <c r="T129" s="8"/>
-    </row>
-    <row r="130" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q129" s="34"/>
+      <c r="R129" s="34"/>
+      <c r="S129" s="34"/>
+      <c r="T129" s="34"/>
+      <c r="U129" s="34"/>
+      <c r="V129" s="32"/>
+      <c r="W129" s="32"/>
+      <c r="X129" s="32"/>
+      <c r="Y129" s="8"/>
+    </row>
+    <row r="130" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A130" s="4" t="s">
         <v>16</v>
       </c>
@@ -6710,12 +7479,17 @@
       <c r="N130" s="32"/>
       <c r="O130" s="32"/>
       <c r="P130" s="4"/>
-      <c r="Q130" s="32"/>
-      <c r="R130" s="32"/>
-      <c r="S130" s="32"/>
-      <c r="T130" s="8"/>
-    </row>
-    <row r="131" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q130" s="34"/>
+      <c r="R130" s="34"/>
+      <c r="S130" s="34"/>
+      <c r="T130" s="34"/>
+      <c r="U130" s="34"/>
+      <c r="V130" s="32"/>
+      <c r="W130" s="32"/>
+      <c r="X130" s="32"/>
+      <c r="Y130" s="8"/>
+    </row>
+    <row r="131" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A131" s="4" t="s">
         <v>16</v>
       </c>
@@ -6740,12 +7514,17 @@
       <c r="N131" s="32"/>
       <c r="O131" s="32"/>
       <c r="P131" s="4"/>
-      <c r="Q131" s="32"/>
-      <c r="R131" s="32"/>
-      <c r="S131" s="32"/>
-      <c r="T131" s="8"/>
-    </row>
-    <row r="132" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q131" s="34"/>
+      <c r="R131" s="34"/>
+      <c r="S131" s="34"/>
+      <c r="T131" s="34"/>
+      <c r="U131" s="34"/>
+      <c r="V131" s="32"/>
+      <c r="W131" s="32"/>
+      <c r="X131" s="32"/>
+      <c r="Y131" s="8"/>
+    </row>
+    <row r="132" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A132" s="4" t="s">
         <v>16</v>
       </c>
@@ -6756,7 +7535,7 @@
         <v>38</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="8"/>
@@ -6770,12 +7549,17 @@
       <c r="N132" s="32"/>
       <c r="O132" s="32"/>
       <c r="P132" s="4"/>
-      <c r="Q132" s="32"/>
-      <c r="R132" s="32"/>
-      <c r="S132" s="32"/>
-      <c r="T132" s="8"/>
-    </row>
-    <row r="133" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q132" s="34"/>
+      <c r="R132" s="34"/>
+      <c r="S132" s="34"/>
+      <c r="T132" s="34"/>
+      <c r="U132" s="34"/>
+      <c r="V132" s="32"/>
+      <c r="W132" s="32"/>
+      <c r="X132" s="32"/>
+      <c r="Y132" s="8"/>
+    </row>
+    <row r="133" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A133" s="4" t="s">
         <v>16</v>
       </c>
@@ -6786,7 +7570,7 @@
         <v>6</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="8"/>
@@ -6800,12 +7584,17 @@
       <c r="N133" s="32"/>
       <c r="O133" s="32"/>
       <c r="P133" s="4"/>
-      <c r="Q133" s="32"/>
-      <c r="R133" s="32"/>
-      <c r="S133" s="32"/>
-      <c r="T133" s="8"/>
-    </row>
-    <row r="134" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q133" s="34"/>
+      <c r="R133" s="34"/>
+      <c r="S133" s="34"/>
+      <c r="T133" s="34"/>
+      <c r="U133" s="34"/>
+      <c r="V133" s="32"/>
+      <c r="W133" s="32"/>
+      <c r="X133" s="32"/>
+      <c r="Y133" s="8"/>
+    </row>
+    <row r="134" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A134" s="4" t="s">
         <v>16</v>
       </c>
@@ -6816,7 +7605,7 @@
         <v>24</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="8"/>
@@ -6830,12 +7619,17 @@
       <c r="N134" s="32"/>
       <c r="O134" s="32"/>
       <c r="P134" s="4"/>
-      <c r="Q134" s="32"/>
-      <c r="R134" s="32"/>
-      <c r="S134" s="32"/>
-      <c r="T134" s="8"/>
-    </row>
-    <row r="135" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q134" s="34"/>
+      <c r="R134" s="34"/>
+      <c r="S134" s="34"/>
+      <c r="T134" s="34"/>
+      <c r="U134" s="34"/>
+      <c r="V134" s="32"/>
+      <c r="W134" s="32"/>
+      <c r="X134" s="32"/>
+      <c r="Y134" s="8"/>
+    </row>
+    <row r="135" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A135" s="4" t="s">
         <v>16</v>
       </c>
@@ -6846,7 +7640,7 @@
         <v>67</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="8"/>
@@ -6866,12 +7660,17 @@
         <v/>
       </c>
       <c r="P135" s="4"/>
-      <c r="Q135" s="32"/>
-      <c r="R135" s="32"/>
-      <c r="S135" s="32"/>
-      <c r="T135" s="8"/>
-    </row>
-    <row r="136" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q135" s="34"/>
+      <c r="R135" s="34"/>
+      <c r="S135" s="34"/>
+      <c r="T135" s="34"/>
+      <c r="U135" s="34"/>
+      <c r="V135" s="32"/>
+      <c r="W135" s="32"/>
+      <c r="X135" s="32"/>
+      <c r="Y135" s="8"/>
+    </row>
+    <row r="136" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A136" s="4" t="s">
         <v>16</v>
       </c>
@@ -6902,12 +7701,17 @@
         <v/>
       </c>
       <c r="P136" s="4"/>
-      <c r="Q136" s="32"/>
-      <c r="R136" s="32"/>
-      <c r="S136" s="32"/>
-      <c r="T136" s="8"/>
-    </row>
-    <row r="137" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q136" s="34"/>
+      <c r="R136" s="34"/>
+      <c r="S136" s="34"/>
+      <c r="T136" s="34"/>
+      <c r="U136" s="34"/>
+      <c r="V136" s="32"/>
+      <c r="W136" s="32"/>
+      <c r="X136" s="32"/>
+      <c r="Y136" s="8"/>
+    </row>
+    <row r="137" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="4" t="s">
         <v>16</v>
       </c>
@@ -6938,12 +7742,17 @@
         <v/>
       </c>
       <c r="P137" s="4"/>
-      <c r="Q137" s="32"/>
-      <c r="R137" s="32"/>
-      <c r="S137" s="32"/>
-      <c r="T137" s="8"/>
-    </row>
-    <row r="138" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q137" s="34"/>
+      <c r="R137" s="34"/>
+      <c r="S137" s="34"/>
+      <c r="T137" s="34"/>
+      <c r="U137" s="34"/>
+      <c r="V137" s="32"/>
+      <c r="W137" s="32"/>
+      <c r="X137" s="32"/>
+      <c r="Y137" s="8"/>
+    </row>
+    <row r="138" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="4" t="s">
         <v>16</v>
       </c>
@@ -6974,12 +7783,17 @@
         <v/>
       </c>
       <c r="P138" s="4"/>
-      <c r="Q138" s="32"/>
-      <c r="R138" s="32"/>
-      <c r="S138" s="32"/>
-      <c r="T138" s="8"/>
-    </row>
-    <row r="139" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q138" s="34"/>
+      <c r="R138" s="34"/>
+      <c r="S138" s="34"/>
+      <c r="T138" s="34"/>
+      <c r="U138" s="34"/>
+      <c r="V138" s="32"/>
+      <c r="W138" s="32"/>
+      <c r="X138" s="32"/>
+      <c r="Y138" s="8"/>
+    </row>
+    <row r="139" spans="1:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A139" s="4" t="s">
         <v>16</v>
       </c>
@@ -7010,18 +7824,23 @@
         <v/>
       </c>
       <c r="P139" s="4"/>
-      <c r="Q139" s="32"/>
-      <c r="R139" s="32"/>
-      <c r="S139" s="32"/>
-      <c r="T139" s="8"/>
-    </row>
-    <row r="140" spans="1:20" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="Q139" s="34"/>
+      <c r="R139" s="34"/>
+      <c r="S139" s="34"/>
+      <c r="T139" s="34"/>
+      <c r="U139" s="34"/>
+      <c r="V139" s="32"/>
+      <c r="W139" s="32"/>
+      <c r="X139" s="32"/>
+      <c r="Y139" s="8"/>
+    </row>
+    <row r="140" spans="1:25" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="Q6:T6"/>
     <mergeCell ref="L6:P6"/>
     <mergeCell ref="L90:P90"/>
-    <mergeCell ref="Q90:T90"/>
+    <mergeCell ref="Q6:Y6"/>
+    <mergeCell ref="Q90:Y90"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7049,42 +7868,42 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="41" t="s">
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="41" t="s">
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="41" t="s">
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="41" t="s">
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="43"/>
-      <c r="AA2" s="41" t="s">
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="49"/>
+      <c r="AA2" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="43"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="49"/>
     </row>
     <row r="3" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
@@ -7275,10 +8094,10 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
@@ -7363,10 +8182,10 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
@@ -7455,41 +8274,41 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="41" t="s">
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="41" t="s">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="41" t="s">
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="41" t="s">
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="43"/>
-      <c r="AA7" s="44" t="s">
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="49"/>
+      <c r="AA7" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
       <c r="AD7" s="13">
         <f>AVERAGE(I73, M73, Q73, U73, Y73)</f>
         <v>1.5016363636363637</v>
@@ -7833,36 +8652,36 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="41" t="s">
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="41" t="s">
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="41" t="s">
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="41" t="s">
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="43"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="49"/>
     </row>
     <row r="14" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E14" s="3" t="s">
@@ -8202,36 +9021,36 @@
       </c>
     </row>
     <row r="19" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="41" t="s">
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="41" t="s">
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="41" t="s">
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="41" t="s">
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="43"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="49"/>
     </row>
     <row r="20" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E20" s="3" t="s">
@@ -8571,36 +9390,36 @@
       </c>
     </row>
     <row r="25" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="41" t="s">
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="41" t="s">
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="41" t="s">
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="41" t="s">
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="43"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="49"/>
     </row>
     <row r="26" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E26" s="3" t="s">
@@ -8942,36 +9761,36 @@
       </c>
     </row>
     <row r="31" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="41" t="s">
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="41" t="s">
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="41" t="s">
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="41" t="s">
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="43"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="49"/>
     </row>
     <row r="32" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E32" s="3" t="s">
@@ -9311,36 +10130,36 @@
       </c>
     </row>
     <row r="37" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F37" s="41" t="s">
+      <c r="F37" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="41" t="s">
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="41" t="s">
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="41" t="s">
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="41" t="s">
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="43"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="49"/>
     </row>
     <row r="38" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E38" s="3" t="s">
@@ -9680,36 +10499,36 @@
       </c>
     </row>
     <row r="43" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F43" s="41" t="s">
+      <c r="F43" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="41" t="s">
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="41" t="s">
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="41" t="s">
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="S43" s="42"/>
-      <c r="T43" s="42"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="41" t="s">
+      <c r="S43" s="48"/>
+      <c r="T43" s="48"/>
+      <c r="U43" s="49"/>
+      <c r="V43" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="W43" s="42"/>
-      <c r="X43" s="42"/>
-      <c r="Y43" s="43"/>
+      <c r="W43" s="48"/>
+      <c r="X43" s="48"/>
+      <c r="Y43" s="49"/>
     </row>
     <row r="44" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E44" s="3" t="s">
@@ -10049,36 +10868,36 @@
       </c>
     </row>
     <row r="49" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F49" s="41" t="s">
+      <c r="F49" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="41" t="s">
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="41" t="s">
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="O49" s="42"/>
-      <c r="P49" s="42"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="41" t="s">
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="49"/>
+      <c r="R49" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="S49" s="42"/>
-      <c r="T49" s="42"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="41" t="s">
+      <c r="S49" s="48"/>
+      <c r="T49" s="48"/>
+      <c r="U49" s="49"/>
+      <c r="V49" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="W49" s="42"/>
-      <c r="X49" s="42"/>
-      <c r="Y49" s="43"/>
+      <c r="W49" s="48"/>
+      <c r="X49" s="48"/>
+      <c r="Y49" s="49"/>
     </row>
     <row r="50" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E50" s="3" t="s">
@@ -10418,36 +11237,36 @@
       </c>
     </row>
     <row r="55" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F55" s="41" t="s">
+      <c r="F55" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="41" t="s">
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="41" t="s">
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="O55" s="42"/>
-      <c r="P55" s="42"/>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="41" t="s">
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="49"/>
+      <c r="R55" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="S55" s="42"/>
-      <c r="T55" s="42"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="41" t="s">
+      <c r="S55" s="48"/>
+      <c r="T55" s="48"/>
+      <c r="U55" s="49"/>
+      <c r="V55" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="W55" s="42"/>
-      <c r="X55" s="42"/>
-      <c r="Y55" s="43"/>
+      <c r="W55" s="48"/>
+      <c r="X55" s="48"/>
+      <c r="Y55" s="49"/>
     </row>
     <row r="56" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E56" s="3" t="s">
@@ -10787,36 +11606,36 @@
       </c>
     </row>
     <row r="61" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F61" s="41" t="s">
+      <c r="F61" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="41" t="s">
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="43"/>
-      <c r="N61" s="41" t="s">
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
-      <c r="Q61" s="43"/>
-      <c r="R61" s="41" t="s">
+      <c r="O61" s="48"/>
+      <c r="P61" s="48"/>
+      <c r="Q61" s="49"/>
+      <c r="R61" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="S61" s="42"/>
-      <c r="T61" s="42"/>
-      <c r="U61" s="43"/>
-      <c r="V61" s="41" t="s">
+      <c r="S61" s="48"/>
+      <c r="T61" s="48"/>
+      <c r="U61" s="49"/>
+      <c r="V61" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="W61" s="42"/>
-      <c r="X61" s="42"/>
-      <c r="Y61" s="43"/>
+      <c r="W61" s="48"/>
+      <c r="X61" s="48"/>
+      <c r="Y61" s="49"/>
     </row>
     <row r="62" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E62" s="3" t="s">
@@ -11156,36 +11975,36 @@
       </c>
     </row>
     <row r="67" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F67" s="41" t="s">
+      <c r="F67" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="41" t="s">
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="K67" s="42"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="43"/>
-      <c r="N67" s="41" t="s">
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="O67" s="42"/>
-      <c r="P67" s="42"/>
-      <c r="Q67" s="43"/>
-      <c r="R67" s="41" t="s">
+      <c r="O67" s="48"/>
+      <c r="P67" s="48"/>
+      <c r="Q67" s="49"/>
+      <c r="R67" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="S67" s="42"/>
-      <c r="T67" s="42"/>
-      <c r="U67" s="43"/>
-      <c r="V67" s="41" t="s">
+      <c r="S67" s="48"/>
+      <c r="T67" s="48"/>
+      <c r="U67" s="49"/>
+      <c r="V67" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="42"/>
-      <c r="X67" s="42"/>
-      <c r="Y67" s="43"/>
+      <c r="W67" s="48"/>
+      <c r="X67" s="48"/>
+      <c r="Y67" s="49"/>
     </row>
     <row r="68" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E68" s="3" t="s">
@@ -11605,11 +12424,51 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="V55:Y55"/>
+    <mergeCell ref="V61:Y61"/>
+    <mergeCell ref="V67:Y67"/>
+    <mergeCell ref="R43:U43"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="R61:U61"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F43:I43"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
@@ -11626,51 +12485,11 @@
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="R25:U25"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="V55:Y55"/>
-    <mergeCell ref="V61:Y61"/>
-    <mergeCell ref="V67:Y67"/>
-    <mergeCell ref="R43:U43"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="R61:U61"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2837F4E1-37B2-4862-ADAE-F1EB312497A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F1406D-7703-4D34-9B08-FEF810D67740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="180">
   <si>
     <t>Results</t>
   </si>
@@ -534,6 +534,39 @@
   </si>
   <si>
     <t>[0.023278212174773216, 0.02557617425918579, 0.029494179412722588, 0.03798072785139084, 0.02724539488554001]</t>
+  </si>
+  <si>
+    <t>[0.06173151358962059, 0.046613264828920364, 0.07495468109846115, 0.08225483447313309, 0.06503096967935562]</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>[0.06516171991825104, 0.05991170182824135, 0.08209428936243057, 0.0976945087313652, 0.08277694880962372]</t>
+  </si>
+  <si>
+    <t>[0.047666534781455994, 0.05321182310581207, 0.06995537877082825, 0.08843991160392761, 0.0692932978272438]</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>[0.042313531041145325, 0.05110793933272362, 0.06351163238286972, 0.06419646739959717, 0.05570153892040253]</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>[0.05161529406905174, 0.04834244027733803, 0.07278178632259369, 0.08038552850484848, 0.06707189232110977]</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>[0.06150340661406517, 0.060546960681676865, 0.08885558694601059, 0.10247880965471268, 0.07931020110845566]</t>
   </si>
 </sst>
 </file>
@@ -1471,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E205C6-75C9-4A48-9727-53AED497EF04}">
   <dimension ref="A1:Y140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K28" workbookViewId="0">
-      <selection activeCell="Y50" sqref="Y50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1939,23 +1972,41 @@
       <c r="E13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32" t="str">
+      <c r="F13" s="8">
+        <v>0.30861173110805101</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.44613235732750101</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13" s="8">
+        <v>7.7527833729982301E-2</v>
+      </c>
+      <c r="M13" s="32">
+        <v>1.35524859768093E-2</v>
+      </c>
+      <c r="N13" s="32">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O13" s="32" t="str">
+        <v>5.0422861776363702E-2</v>
+      </c>
+      <c r="O13" s="32">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P13" s="30"/>
+        <v>0.10463280568360089</v>
+      </c>
+      <c r="P13" s="30" t="s">
+        <v>172</v>
+      </c>
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
       <c r="S13" s="35"/>
@@ -1982,23 +2033,41 @@
       <c r="E14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32" t="str">
+      <c r="F14" s="8">
+        <v>8.6635758205824993E-3</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.29873396494652799</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L14" s="8">
+        <v>7.8538993000984103E-2</v>
+      </c>
+      <c r="M14" s="32">
+        <v>1.6087673072951801E-2</v>
+      </c>
+      <c r="N14" s="32">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O14" s="32" t="str">
+        <v>4.6363646855080501E-2</v>
+      </c>
+      <c r="O14" s="32">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P14" s="30"/>
+        <v>0.11071433914688771</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>179</v>
+      </c>
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
       <c r="S14" s="35"/>
@@ -2086,23 +2155,41 @@
       <c r="E16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32" t="str">
+      <c r="F16" s="8">
+        <v>2.20349393162898E-2</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.48093551450042699</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L16" s="8">
+        <v>6.4039388298988295E-2</v>
+      </c>
+      <c r="M16" s="32">
+        <v>1.22765972329933E-2</v>
+      </c>
+      <c r="N16" s="32">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O16" s="32" t="str">
+        <v>3.9486193833001698E-2</v>
+      </c>
+      <c r="O16" s="32">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P16" s="30"/>
+        <v>8.8592582764974892E-2</v>
+      </c>
+      <c r="P16" s="30" t="s">
+        <v>177</v>
+      </c>
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
       <c r="S16" s="35"/>
@@ -4070,24 +4157,44 @@
       <c r="D53" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32" t="str">
+      <c r="E53" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="8">
+        <v>4.1375766681849703E-2</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="8">
+        <v>0.156686443776829</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L53" s="8">
+        <v>6.6117052733898105E-2</v>
+      </c>
+      <c r="M53" s="32">
+        <v>1.2160114696852299E-2</v>
+      </c>
+      <c r="N53" s="32">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O53" s="32" t="str">
+        <v>4.1796823340193509E-2</v>
+      </c>
+      <c r="O53" s="32">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P53" s="4"/>
+        <v>9.04372821276027E-2</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="Q53" s="34"/>
       <c r="R53" s="34"/>
       <c r="S53" s="34"/>
@@ -4111,24 +4218,44 @@
       <c r="D54" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32" t="str">
+      <c r="E54" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="8">
+        <v>7.1322500106832706E-2</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="8">
+        <v>0.16079535852270399</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L54" s="8">
+        <v>6.5713389217853496E-2</v>
+      </c>
+      <c r="M54" s="32">
+        <v>1.43477047020499E-2</v>
+      </c>
+      <c r="N54" s="32">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O54" s="32" t="str">
+        <v>3.7017979813753696E-2</v>
+      </c>
+      <c r="O54" s="32">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P54" s="4"/>
+        <v>9.4408798621953297E-2</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="Q54" s="34"/>
       <c r="R54" s="34"/>
       <c r="S54" s="34"/>
@@ -4213,24 +4340,44 @@
       <c r="D56" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32" t="str">
+      <c r="E56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="8">
+        <v>5.5894697755093099E-2</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" s="8">
+        <v>0.273986074649267</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L56" s="8">
+        <v>5.5366221815347602E-2</v>
+      </c>
+      <c r="M56" s="32">
+        <v>8.1601359559920292E-3</v>
+      </c>
+      <c r="N56" s="32">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O56" s="32" t="str">
+        <v>3.9045949903363547E-2</v>
+      </c>
+      <c r="O56" s="32">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P56" s="4"/>
+        <v>7.1686493727331657E-2</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="Q56" s="34"/>
       <c r="R56" s="34"/>
       <c r="S56" s="34"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F1406D-7703-4D34-9B08-FEF810D67740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536A1096-6311-4DA1-A325-CE91950A8981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="190">
   <si>
     <t>Results</t>
   </si>
@@ -567,6 +567,36 @@
   </si>
   <si>
     <t>[0.06150340661406517, 0.060546960681676865, 0.08885558694601059, 0.10247880965471268, 0.07931020110845566]</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>[0.051007986068725586, 0.04874471575021744, 0.07474925369024277, 0.08266618847846985, 0.06610720604658127]</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>[0.044655557721853256, 0.043497055768966675, 0.056257907301187515, 0.06708838045597076, 0.048041317611932755]</t>
+  </si>
+  <si>
+    <t>[0.04326264560222626, 0.053425583988428116, 0.057177986949682236, 0.07189487665891647, 0.05913453921675682]</t>
+  </si>
+  <si>
+    <t>[0.04046407714486122, 0.05292431265115738, 0.06083891540765762, 0.07476838678121567, 0.0616866797208786]</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>[0.0517902709543705, 0.05279034376144409, 0.07151271402835846, 0.08213762193918228, 0.06448499113321304]</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>[0.052902087569236755, 0.049781009554862976, 0.07142113149166107, 0.08182501047849655, 0.06252598017454147]</t>
   </si>
 </sst>
 </file>
@@ -1504,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E205C6-75C9-4A48-9727-53AED497EF04}">
   <dimension ref="A1:Y140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2216,23 +2246,41 @@
       <c r="E17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32" t="str">
+      <c r="F17" s="8">
+        <v>3.8574970441669201E-2</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.193868361915666</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" s="8">
+        <v>6.4655070006847296E-2</v>
+      </c>
+      <c r="M17" s="32">
+        <v>1.31740950694645E-2</v>
+      </c>
+      <c r="N17" s="32">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O17" s="32" t="str">
+        <v>3.8306879867918295E-2</v>
+      </c>
+      <c r="O17" s="32">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P17" s="30"/>
+        <v>9.1003260145776296E-2</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>181</v>
+      </c>
       <c r="Q17" s="35"/>
       <c r="R17" s="35"/>
       <c r="S17" s="35"/>
@@ -2259,23 +2307,41 @@
       <c r="E18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32" t="str">
+      <c r="F18" s="8">
+        <v>3.6702828800194401E-3</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.17556384197400199</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" s="8">
+        <v>6.4543188363313603E-2</v>
+      </c>
+      <c r="M18" s="32">
+        <v>1.14796169486963E-2</v>
+      </c>
+      <c r="N18" s="32">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O18" s="32" t="str">
+        <v>4.1583954465921003E-2</v>
+      </c>
+      <c r="O18" s="32">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P18" s="30"/>
+        <v>8.7502422260706203E-2</v>
+      </c>
+      <c r="P18" s="30" t="s">
+        <v>187</v>
+      </c>
       <c r="Q18" s="35"/>
       <c r="R18" s="35"/>
       <c r="S18" s="35"/>
@@ -2302,23 +2368,41 @@
       <c r="E19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32" t="str">
+      <c r="F19" s="8">
+        <v>8.1780459091270706E-3</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.14852115505240601</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="L19" s="8">
+        <v>6.3691043853759705E-2</v>
+      </c>
+      <c r="M19" s="32">
+        <v>1.18308326479514E-2</v>
+      </c>
+      <c r="N19" s="32">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O19" s="32" t="str">
+        <v>4.0029378557856904E-2</v>
+      </c>
+      <c r="O19" s="32">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P19" s="30"/>
+        <v>8.7352709149662505E-2</v>
+      </c>
+      <c r="P19" s="30" t="s">
+        <v>189</v>
+      </c>
       <c r="Q19" s="35"/>
       <c r="R19" s="35"/>
       <c r="S19" s="35"/>
@@ -4401,24 +4485,44 @@
       <c r="D57" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="32" t="str">
+      <c r="E57" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="8">
+        <v>6.0770659627901798E-2</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J57" s="8">
+        <v>0.28693073271555403</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L57" s="8">
+        <v>5.1908043771982097E-2</v>
+      </c>
+      <c r="M57" s="32">
+        <v>8.8052118526808394E-3</v>
+      </c>
+      <c r="N57" s="32">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O57" s="32" t="str">
+        <v>3.4297620066620418E-2</v>
+      </c>
+      <c r="O57" s="32">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P57" s="4"/>
+        <v>6.9518467477343776E-2</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="Q57" s="34"/>
       <c r="R57" s="34"/>
       <c r="S57" s="34"/>
@@ -4442,24 +4546,44 @@
       <c r="D58" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32" t="str">
+      <c r="E58" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="8">
+        <v>0.21903465162979599</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" s="8">
+        <v>0.49088846084547999</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L58" s="8">
+        <v>5.8136474341154099E-2</v>
+      </c>
+      <c r="M58" s="32">
+        <v>1.1278367874087401E-2</v>
+      </c>
+      <c r="N58" s="32">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O58" s="32" t="str">
+        <v>3.5579738592979297E-2</v>
+      </c>
+      <c r="O58" s="32">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P58" s="4"/>
+        <v>8.0693210089328893E-2</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="Q58" s="34"/>
       <c r="R58" s="34"/>
       <c r="S58" s="34"/>
@@ -4483,24 +4607,44 @@
       <c r="D59" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32" t="str">
+      <c r="E59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="8">
+        <v>9.7276147553062797E-2</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" s="8">
+        <v>0.11844994511316401</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L59" s="8">
+        <v>5.69791264832019E-2</v>
+      </c>
+      <c r="M59" s="32">
+        <v>9.2513184450840492E-3</v>
+      </c>
+      <c r="N59" s="32">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O59" s="32" t="str">
+        <v>3.8476489593033805E-2</v>
+      </c>
+      <c r="O59" s="32">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P59" s="4"/>
+        <v>7.5481763373369995E-2</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="Q59" s="34"/>
       <c r="R59" s="34"/>
       <c r="S59" s="34"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536A1096-6311-4DA1-A325-CE91950A8981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C306406C-873A-4E1B-9953-A66B5BACA4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="194">
   <si>
     <t>Results</t>
   </si>
@@ -597,6 +597,18 @@
   </si>
   <si>
     <t>[0.052902087569236755, 0.049781009554862976, 0.07142113149166107, 0.08182501047849655, 0.06252598017454147]</t>
+  </si>
+  <si>
+    <t>[0.05327240005135536, 0.047673169523477554, 0.06789957731962204, 0.07587506622076035, 0.05250422656536102]</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>[0.042388394474983215, 0.036851659417152405, 0.0660323053598404, 0.06904096156358719, 0.04528288170695305]</t>
   </si>
 </sst>
 </file>
@@ -1074,12 +1086,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1087,6 +1093,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1534,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E205C6-75C9-4A48-9727-53AED497EF04}">
   <dimension ref="A1:Y140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2429,23 +2441,41 @@
       <c r="E20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32" t="str">
+      <c r="F20" s="8">
+        <v>0.15675777140539601</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.24744236008780399</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" s="8">
+        <v>5.9444887936115201E-2</v>
+      </c>
+      <c r="M20" s="32">
+        <v>1.0642163993983799E-2</v>
+      </c>
+      <c r="N20" s="32">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O20" s="32" t="str">
+        <v>3.8160559948147599E-2</v>
+      </c>
+      <c r="O20" s="32">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P20" s="30"/>
+        <v>8.0729215924082803E-2</v>
+      </c>
+      <c r="P20" s="30" t="s">
+        <v>190</v>
+      </c>
       <c r="Q20" s="35"/>
       <c r="R20" s="35"/>
       <c r="S20" s="35"/>
@@ -4668,24 +4698,44 @@
       <c r="D60" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32" t="str">
+      <c r="E60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="8">
+        <v>8.99833684841225E-2</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J60" s="8">
+        <v>0.133571236318824</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L60" s="8">
+        <v>5.1919240504503202E-2</v>
+      </c>
+      <c r="M60" s="32">
+        <v>1.3070900623814399E-2</v>
+      </c>
+      <c r="N60" s="32">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O60" s="32" t="str">
+        <v>2.5777439256874403E-2</v>
+      </c>
+      <c r="O60" s="32">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P60" s="4"/>
+        <v>7.8061041752131993E-2</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="Q60" s="34"/>
       <c r="R60" s="34"/>
       <c r="S60" s="34"/>
@@ -8159,42 +8209,42 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="47" t="s">
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="47" t="s">
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="47" t="s">
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="47" t="s">
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="49"/>
-      <c r="AA2" s="47" t="s">
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="47"/>
+      <c r="AA2" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="49"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="47"/>
     </row>
     <row r="3" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
@@ -8289,16 +8339,16 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="49">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -8385,10 +8435,10 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
@@ -8473,10 +8523,10 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
@@ -8565,41 +8615,41 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="47" t="s">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="47" t="s">
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="47" t="s">
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="47" t="s">
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="49"/>
-      <c r="AA7" s="46" t="s">
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="47"/>
+      <c r="AA7" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
       <c r="AD7" s="13">
         <f>AVERAGE(I73, M73, Q73, U73, Y73)</f>
         <v>1.5016363636363637</v>
@@ -8943,36 +8993,36 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="47" t="s">
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="47" t="s">
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="47" t="s">
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="47" t="s">
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="49"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="47"/>
     </row>
     <row r="14" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E14" s="3" t="s">
@@ -9312,36 +9362,36 @@
       </c>
     </row>
     <row r="19" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="47" t="s">
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="47" t="s">
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="47" t="s">
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="47" t="s">
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="49"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="47"/>
     </row>
     <row r="20" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E20" s="3" t="s">
@@ -9681,36 +9731,36 @@
       </c>
     </row>
     <row r="25" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="47" t="s">
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="47" t="s">
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="47" t="s">
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="47" t="s">
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="49"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="47"/>
     </row>
     <row r="26" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E26" s="3" t="s">
@@ -10052,36 +10102,36 @@
       </c>
     </row>
     <row r="31" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F31" s="47" t="s">
+      <c r="F31" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="47" t="s">
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="47" t="s">
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="47" t="s">
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="47" t="s">
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="49"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="47"/>
     </row>
     <row r="32" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E32" s="3" t="s">
@@ -10421,36 +10471,36 @@
       </c>
     </row>
     <row r="37" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F37" s="47" t="s">
+      <c r="F37" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="47" t="s">
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="47" t="s">
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="47" t="s">
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="47" t="s">
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="49"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="47"/>
     </row>
     <row r="38" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E38" s="3" t="s">
@@ -10790,36 +10840,36 @@
       </c>
     </row>
     <row r="43" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F43" s="47" t="s">
+      <c r="F43" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="47" t="s">
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="47" t="s">
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="49"/>
-      <c r="R43" s="47" t="s">
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="S43" s="48"/>
-      <c r="T43" s="48"/>
-      <c r="U43" s="49"/>
-      <c r="V43" s="47" t="s">
+      <c r="S43" s="46"/>
+      <c r="T43" s="46"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="W43" s="48"/>
-      <c r="X43" s="48"/>
-      <c r="Y43" s="49"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="46"/>
+      <c r="Y43" s="47"/>
     </row>
     <row r="44" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E44" s="3" t="s">
@@ -11159,36 +11209,36 @@
       </c>
     </row>
     <row r="49" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F49" s="47" t="s">
+      <c r="F49" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="47" t="s">
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="47" t="s">
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="O49" s="48"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="49"/>
-      <c r="R49" s="47" t="s">
+      <c r="O49" s="46"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="47"/>
+      <c r="R49" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="S49" s="48"/>
-      <c r="T49" s="48"/>
-      <c r="U49" s="49"/>
-      <c r="V49" s="47" t="s">
+      <c r="S49" s="46"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="W49" s="48"/>
-      <c r="X49" s="48"/>
-      <c r="Y49" s="49"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="46"/>
+      <c r="Y49" s="47"/>
     </row>
     <row r="50" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E50" s="3" t="s">
@@ -11528,36 +11578,36 @@
       </c>
     </row>
     <row r="55" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F55" s="47" t="s">
+      <c r="F55" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="47" t="s">
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="47" t="s">
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="O55" s="48"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="49"/>
-      <c r="R55" s="47" t="s">
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="47"/>
+      <c r="R55" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="S55" s="48"/>
-      <c r="T55" s="48"/>
-      <c r="U55" s="49"/>
-      <c r="V55" s="47" t="s">
+      <c r="S55" s="46"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="W55" s="48"/>
-      <c r="X55" s="48"/>
-      <c r="Y55" s="49"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="46"/>
+      <c r="Y55" s="47"/>
     </row>
     <row r="56" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E56" s="3" t="s">
@@ -11897,36 +11947,36 @@
       </c>
     </row>
     <row r="61" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F61" s="47" t="s">
+      <c r="F61" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="47" t="s">
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="K61" s="48"/>
-      <c r="L61" s="48"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="47" t="s">
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="O61" s="48"/>
-      <c r="P61" s="48"/>
-      <c r="Q61" s="49"/>
-      <c r="R61" s="47" t="s">
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="47"/>
+      <c r="R61" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="S61" s="48"/>
-      <c r="T61" s="48"/>
-      <c r="U61" s="49"/>
-      <c r="V61" s="47" t="s">
+      <c r="S61" s="46"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="47"/>
+      <c r="V61" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="W61" s="48"/>
-      <c r="X61" s="48"/>
-      <c r="Y61" s="49"/>
+      <c r="W61" s="46"/>
+      <c r="X61" s="46"/>
+      <c r="Y61" s="47"/>
     </row>
     <row r="62" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E62" s="3" t="s">
@@ -12266,36 +12316,36 @@
       </c>
     </row>
     <row r="67" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F67" s="47" t="s">
+      <c r="F67" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="47" t="s">
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="K67" s="48"/>
-      <c r="L67" s="48"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="47" t="s">
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="47"/>
+      <c r="N67" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="O67" s="48"/>
-      <c r="P67" s="48"/>
-      <c r="Q67" s="49"/>
-      <c r="R67" s="47" t="s">
+      <c r="O67" s="46"/>
+      <c r="P67" s="46"/>
+      <c r="Q67" s="47"/>
+      <c r="R67" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="S67" s="48"/>
-      <c r="T67" s="48"/>
-      <c r="U67" s="49"/>
-      <c r="V67" s="47" t="s">
+      <c r="S67" s="46"/>
+      <c r="T67" s="46"/>
+      <c r="U67" s="47"/>
+      <c r="V67" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="48"/>
-      <c r="X67" s="48"/>
-      <c r="Y67" s="49"/>
+      <c r="W67" s="46"/>
+      <c r="X67" s="46"/>
+      <c r="Y67" s="47"/>
     </row>
     <row r="68" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E68" s="3" t="s">
@@ -12715,51 +12765,11 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="V55:Y55"/>
-    <mergeCell ref="V61:Y61"/>
-    <mergeCell ref="V67:Y67"/>
-    <mergeCell ref="R43:U43"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="R61:U61"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
@@ -12776,11 +12786,51 @@
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="R25:U25"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="V55:Y55"/>
+    <mergeCell ref="V61:Y61"/>
+    <mergeCell ref="V67:Y67"/>
+    <mergeCell ref="R43:U43"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="R61:U61"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="V2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C306406C-873A-4E1B-9953-A66B5BACA4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ACD09A-29F0-4440-B364-F6589B0496F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="200">
   <si>
     <t>Results</t>
   </si>
@@ -609,6 +609,24 @@
   </si>
   <si>
     <t>[0.042388394474983215, 0.036851659417152405, 0.0660323053598404, 0.06904096156358719, 0.04528288170695305]</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>[0.0461956225335598, 0.044912226498126984, 0.06630896031856537, 0.07310391962528229, 0.05163617432117462]</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>[0.025136487558484077, 0.02409687452018261, 0.035464946180582047, 0.042393650859594345, 0.026901371777057648]</t>
+  </si>
+  <si>
+    <t>[0.03953138366341591, 0.04494486004114151, 0.06076287850737572, 0.0741473138332367, 0.04902170971035957]</t>
   </si>
 </sst>
 </file>
@@ -1086,6 +1104,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1093,12 +1117,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1546,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E205C6-75C9-4A48-9727-53AED497EF04}">
   <dimension ref="A1:Y140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4759,24 +4777,44 @@
       <c r="D61" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32" t="str">
+      <c r="E61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="8">
+        <v>0.18576917071132801</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="8">
+        <v>0.44247848669552498</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="L61" s="8">
+        <v>5.64313806593418E-2</v>
+      </c>
+      <c r="M61" s="32">
+        <v>1.12782604715448E-2</v>
+      </c>
+      <c r="N61" s="32">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O61" s="32" t="str">
+        <v>3.3874859716252204E-2</v>
+      </c>
+      <c r="O61" s="32">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P61" s="4"/>
+        <v>7.8987901602431396E-2</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="Q61" s="34"/>
       <c r="R61" s="34"/>
       <c r="S61" s="34"/>
@@ -4800,24 +4838,44 @@
       <c r="D62" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32" t="str">
+      <c r="E62" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" s="8">
+        <v>1.2502657102749701E-3</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="8">
+        <v>0.33547357378065501</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="L62" s="8">
+        <v>3.07986661791801E-2</v>
+      </c>
+      <c r="M62" s="32">
+        <v>7.0481347975278504E-3</v>
+      </c>
+      <c r="N62" s="32">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O62" s="32" t="str">
+        <v>1.6702396584124399E-2</v>
+      </c>
+      <c r="O62" s="32">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P62" s="4"/>
+        <v>4.4894935774235797E-2</v>
+      </c>
+      <c r="P62" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="Q62" s="34"/>
       <c r="R62" s="34"/>
       <c r="S62" s="34"/>
@@ -4841,24 +4899,44 @@
       <c r="D63" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32" t="str">
+      <c r="E63" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" s="8">
+        <v>0.44426829565229797</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" s="8">
+        <v>0.154835524528635</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L63" s="8">
+        <v>5.3681629151105803E-2</v>
+      </c>
+      <c r="M63" s="32">
+        <v>1.23876048773848E-2</v>
+      </c>
+      <c r="N63" s="32">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O63" s="32" t="str">
+        <v>2.8906419396336203E-2</v>
+      </c>
+      <c r="O63" s="32">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P63" s="4"/>
+        <v>7.8456838905875403E-2</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>199</v>
+      </c>
       <c r="Q63" s="34"/>
       <c r="R63" s="34"/>
       <c r="S63" s="34"/>
@@ -8209,42 +8287,42 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="45" t="s">
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="45" t="s">
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="45" t="s">
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="45" t="s">
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47"/>
-      <c r="AA2" s="45" t="s">
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="49"/>
+      <c r="AA2" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="47"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="49"/>
     </row>
     <row r="3" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
@@ -8339,16 +8417,16 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="45">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -8435,10 +8513,10 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
@@ -8523,10 +8601,10 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
@@ -8615,41 +8693,41 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="45" t="s">
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="45" t="s">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="45" t="s">
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="45" t="s">
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="47"/>
-      <c r="AA7" s="48" t="s">
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="49"/>
+      <c r="AA7" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
       <c r="AD7" s="13">
         <f>AVERAGE(I73, M73, Q73, U73, Y73)</f>
         <v>1.5016363636363637</v>
@@ -8993,36 +9071,36 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="45" t="s">
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="45" t="s">
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="45" t="s">
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="45" t="s">
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="47"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="49"/>
     </row>
     <row r="14" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E14" s="3" t="s">
@@ -9362,36 +9440,36 @@
       </c>
     </row>
     <row r="19" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="45" t="s">
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="45" t="s">
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="45" t="s">
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="45" t="s">
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="47"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="49"/>
     </row>
     <row r="20" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E20" s="3" t="s">
@@ -9731,36 +9809,36 @@
       </c>
     </row>
     <row r="25" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="45" t="s">
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="45" t="s">
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="45" t="s">
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="45" t="s">
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="47"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="49"/>
     </row>
     <row r="26" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E26" s="3" t="s">
@@ -10102,36 +10180,36 @@
       </c>
     </row>
     <row r="31" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="45" t="s">
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="45" t="s">
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="45" t="s">
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="S31" s="46"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="45" t="s">
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="47"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="49"/>
     </row>
     <row r="32" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E32" s="3" t="s">
@@ -10471,36 +10549,36 @@
       </c>
     </row>
     <row r="37" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F37" s="45" t="s">
+      <c r="F37" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="45" t="s">
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="45" t="s">
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="O37" s="46"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="45" t="s">
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="S37" s="46"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="47"/>
-      <c r="V37" s="45" t="s">
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="W37" s="46"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="47"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="49"/>
     </row>
     <row r="38" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E38" s="3" t="s">
@@ -10840,36 +10918,36 @@
       </c>
     </row>
     <row r="43" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F43" s="45" t="s">
+      <c r="F43" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="45" t="s">
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="45" t="s">
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="47"/>
-      <c r="R43" s="45" t="s">
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="S43" s="46"/>
-      <c r="T43" s="46"/>
-      <c r="U43" s="47"/>
-      <c r="V43" s="45" t="s">
+      <c r="S43" s="48"/>
+      <c r="T43" s="48"/>
+      <c r="U43" s="49"/>
+      <c r="V43" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="W43" s="46"/>
-      <c r="X43" s="46"/>
-      <c r="Y43" s="47"/>
+      <c r="W43" s="48"/>
+      <c r="X43" s="48"/>
+      <c r="Y43" s="49"/>
     </row>
     <row r="44" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E44" s="3" t="s">
@@ -11209,36 +11287,36 @@
       </c>
     </row>
     <row r="49" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F49" s="45" t="s">
+      <c r="F49" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="45" t="s">
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="45" t="s">
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="O49" s="46"/>
-      <c r="P49" s="46"/>
-      <c r="Q49" s="47"/>
-      <c r="R49" s="45" t="s">
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="49"/>
+      <c r="R49" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="S49" s="46"/>
-      <c r="T49" s="46"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="45" t="s">
+      <c r="S49" s="48"/>
+      <c r="T49" s="48"/>
+      <c r="U49" s="49"/>
+      <c r="V49" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="W49" s="46"/>
-      <c r="X49" s="46"/>
-      <c r="Y49" s="47"/>
+      <c r="W49" s="48"/>
+      <c r="X49" s="48"/>
+      <c r="Y49" s="49"/>
     </row>
     <row r="50" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E50" s="3" t="s">
@@ -11578,36 +11656,36 @@
       </c>
     </row>
     <row r="55" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F55" s="45" t="s">
+      <c r="F55" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="45" t="s">
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="45" t="s">
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="O55" s="46"/>
-      <c r="P55" s="46"/>
-      <c r="Q55" s="47"/>
-      <c r="R55" s="45" t="s">
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="49"/>
+      <c r="R55" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="S55" s="46"/>
-      <c r="T55" s="46"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="45" t="s">
+      <c r="S55" s="48"/>
+      <c r="T55" s="48"/>
+      <c r="U55" s="49"/>
+      <c r="V55" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="W55" s="46"/>
-      <c r="X55" s="46"/>
-      <c r="Y55" s="47"/>
+      <c r="W55" s="48"/>
+      <c r="X55" s="48"/>
+      <c r="Y55" s="49"/>
     </row>
     <row r="56" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E56" s="3" t="s">
@@ -11947,36 +12025,36 @@
       </c>
     </row>
     <row r="61" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F61" s="45" t="s">
+      <c r="F61" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="45" t="s">
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="45" t="s">
+      <c r="K61" s="48"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="O61" s="46"/>
-      <c r="P61" s="46"/>
-      <c r="Q61" s="47"/>
-      <c r="R61" s="45" t="s">
+      <c r="O61" s="48"/>
+      <c r="P61" s="48"/>
+      <c r="Q61" s="49"/>
+      <c r="R61" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="S61" s="46"/>
-      <c r="T61" s="46"/>
-      <c r="U61" s="47"/>
-      <c r="V61" s="45" t="s">
+      <c r="S61" s="48"/>
+      <c r="T61" s="48"/>
+      <c r="U61" s="49"/>
+      <c r="V61" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="W61" s="46"/>
-      <c r="X61" s="46"/>
-      <c r="Y61" s="47"/>
+      <c r="W61" s="48"/>
+      <c r="X61" s="48"/>
+      <c r="Y61" s="49"/>
     </row>
     <row r="62" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E62" s="3" t="s">
@@ -12316,36 +12394,36 @@
       </c>
     </row>
     <row r="67" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F67" s="45" t="s">
+      <c r="F67" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="45" t="s">
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="K67" s="46"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="45" t="s">
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="O67" s="46"/>
-      <c r="P67" s="46"/>
-      <c r="Q67" s="47"/>
-      <c r="R67" s="45" t="s">
+      <c r="O67" s="48"/>
+      <c r="P67" s="48"/>
+      <c r="Q67" s="49"/>
+      <c r="R67" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="S67" s="46"/>
-      <c r="T67" s="46"/>
-      <c r="U67" s="47"/>
-      <c r="V67" s="45" t="s">
+      <c r="S67" s="48"/>
+      <c r="T67" s="48"/>
+      <c r="U67" s="49"/>
+      <c r="V67" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="46"/>
-      <c r="X67" s="46"/>
-      <c r="Y67" s="47"/>
+      <c r="W67" s="48"/>
+      <c r="X67" s="48"/>
+      <c r="Y67" s="49"/>
     </row>
     <row r="68" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E68" s="3" t="s">
@@ -12765,11 +12843,51 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="V55:Y55"/>
+    <mergeCell ref="V61:Y61"/>
+    <mergeCell ref="V67:Y67"/>
+    <mergeCell ref="R43:U43"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="R61:U61"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F43:I43"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
@@ -12786,51 +12904,11 @@
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="R25:U25"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="V55:Y55"/>
-    <mergeCell ref="V61:Y61"/>
-    <mergeCell ref="V67:Y67"/>
-    <mergeCell ref="R43:U43"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="R61:U61"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A181434-D972-4B21-8FB5-550BAE7D4BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5CA497-EBE0-4127-8369-4910FDAB4D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="2" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
@@ -8762,7 +8762,7 @@
   <dimension ref="A1:N199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9528,14 +9528,24 @@
       <c r="A26" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51" t="e">
+      <c r="B26" s="51">
+        <v>1.2639468871200901</v>
+      </c>
+      <c r="C26" s="51">
+        <v>0.86653027983874198</v>
+      </c>
+      <c r="D26" s="51">
+        <v>2.1910845058823201</v>
+      </c>
+      <c r="E26" s="51">
+        <v>1.55027255488976</v>
+      </c>
+      <c r="F26" s="51">
+        <v>0.94556070821250704</v>
+      </c>
+      <c r="G26" s="51">
         <f>AVERAGE(B26:F26)</f>
-        <v>#DIV/0!</v>
+        <v>1.3634789871886839</v>
       </c>
       <c r="H26" s="51">
         <v>1.08013884793111</v>
@@ -9561,14 +9571,24 @@
       <c r="A27" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51" t="e">
+      <c r="B27" s="51">
+        <v>2.8091126281876799</v>
+      </c>
+      <c r="C27" s="51">
+        <v>2.9105431485439999</v>
+      </c>
+      <c r="D27" s="51">
+        <v>4.0780553043774699</v>
+      </c>
+      <c r="E27" s="51">
+        <v>4.9376082183940797</v>
+      </c>
+      <c r="F27" s="51">
+        <v>3.6625856406374302</v>
+      </c>
+      <c r="G27" s="51">
         <f t="shared" ref="G27:G31" si="4">AVERAGE(B27:F27)</f>
-        <v>#DIV/0!</v>
+        <v>3.6795809880281318</v>
       </c>
       <c r="H27" s="51">
         <v>2.6933024989708398</v>
@@ -9594,14 +9614,24 @@
       <c r="A28" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51" t="e">
+      <c r="B28" s="51">
+        <v>1.1393902087879799</v>
+      </c>
+      <c r="C28" s="51">
+        <v>1.3531857310012201</v>
+      </c>
+      <c r="D28" s="51">
+        <v>2.9302300270513602</v>
+      </c>
+      <c r="E28" s="51">
+        <v>2.25826397104982</v>
+      </c>
+      <c r="F28" s="51">
+        <v>1.31482248812792</v>
+      </c>
+      <c r="G28" s="51">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.7991784852036599</v>
       </c>
       <c r="H28" s="51">
         <v>1.3442352448211801</v>
@@ -9627,14 +9657,24 @@
       <c r="A29" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51" t="e">
+      <c r="B29" s="51">
+        <v>2.4009957874216501</v>
+      </c>
+      <c r="C29" s="51">
+        <v>0.73023816508302197</v>
+      </c>
+      <c r="D29" s="51">
+        <v>2.64893430971863</v>
+      </c>
+      <c r="E29" s="51">
+        <v>2.2787431773440399</v>
+      </c>
+      <c r="F29" s="51">
+        <v>1.1066763216643001</v>
+      </c>
+      <c r="G29" s="51">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.8331175522463288</v>
       </c>
       <c r="H29" s="51">
         <v>1.56065900480278</v>
@@ -9660,14 +9700,24 @@
       <c r="A30" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51" t="e">
+      <c r="B30" s="51">
+        <v>3.0136364696212699</v>
+      </c>
+      <c r="C30" s="51">
+        <v>0.95200514652285095</v>
+      </c>
+      <c r="D30" s="51">
+        <v>3.2714599021706401</v>
+      </c>
+      <c r="E30" s="51">
+        <v>2.2555926100114099</v>
+      </c>
+      <c r="F30" s="51">
+        <v>1.34149529788073</v>
+      </c>
+      <c r="G30" s="51">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2.1668378852413803</v>
       </c>
       <c r="H30" s="51">
         <v>2.3714105137998498</v>
@@ -9693,14 +9743,24 @@
       <c r="A31" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51" t="e">
+      <c r="B31" s="51">
+        <v>4.8127945583468499</v>
+      </c>
+      <c r="C31" s="51">
+        <v>2.9215277228678498</v>
+      </c>
+      <c r="D31" s="51">
+        <v>4.3144815071997096</v>
+      </c>
+      <c r="E31" s="51">
+        <v>3.94461039846809</v>
+      </c>
+      <c r="F31" s="51">
+        <v>2.8636847213057401</v>
+      </c>
+      <c r="G31" s="51">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>3.7714197816376482</v>
       </c>
       <c r="H31" s="51">
         <v>3.9856809314704602</v>
@@ -9726,29 +9786,29 @@
       <c r="A32" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="B32" s="51" t="e">
+      <c r="B32" s="51">
         <f>AVERAGE(B26:B31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C32" s="51" t="e">
+        <v>2.5733127565809197</v>
+      </c>
+      <c r="C32" s="51">
         <f>AVERAGE(C26:C31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="51" t="e">
+        <v>1.6223383656429473</v>
+      </c>
+      <c r="D32" s="51">
         <f>AVERAGE(D26:D31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="51" t="e">
+        <v>3.2390409260666879</v>
+      </c>
+      <c r="E32" s="51">
         <f>AVERAGE(E26:E31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="51" t="e">
+        <v>2.8708484883595333</v>
+      </c>
+      <c r="F32" s="51">
         <f>AVERAGE(F26:F31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="51" t="e">
+        <v>1.8724708629714379</v>
+      </c>
+      <c r="G32" s="51">
         <f>AVERAGE(G26:G31)</f>
-        <v>#DIV/0!</v>
+        <v>2.4356022799243053</v>
       </c>
       <c r="H32" s="51">
         <f>AVERAGE(H26:H31)</f>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5CA497-EBE0-4127-8369-4910FDAB4D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9780DC-739B-4E14-A37F-485E581A0720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="2" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
@@ -8761,8 +8761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64343250-72E9-47F4-9C5C-D7353A62510A}">
   <dimension ref="A1:N199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10287,14 +10287,24 @@
       <c r="A45" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51" t="e">
+      <c r="B45" s="51">
+        <v>2.5517071740076598</v>
+      </c>
+      <c r="C45" s="51">
+        <v>1.3766671329584199</v>
+      </c>
+      <c r="D45" s="51">
+        <v>1.1653784197791099</v>
+      </c>
+      <c r="E45" s="51">
+        <v>1.31941142613401</v>
+      </c>
+      <c r="F45" s="51">
+        <v>2.3400869755926599</v>
+      </c>
+      <c r="G45" s="51">
         <f>AVERAGE(B45:F45)</f>
-        <v>#DIV/0!</v>
+        <v>1.7506502256943719</v>
       </c>
       <c r="H45" s="51">
         <v>0.901086398734531</v>
@@ -10320,14 +10330,24 @@
       <c r="A46" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51" t="e">
+      <c r="B46" s="51">
+        <v>3.1551003762421002</v>
+      </c>
+      <c r="C46" s="51">
+        <v>2.1887729821184401</v>
+      </c>
+      <c r="D46" s="51">
+        <v>3.6670710176695498</v>
+      </c>
+      <c r="E46" s="51">
+        <v>3.4395006645377002</v>
+      </c>
+      <c r="F46" s="51">
+        <v>3.84275577867083</v>
+      </c>
+      <c r="G46" s="51">
         <f t="shared" ref="G46:G56" si="8">AVERAGE(B46:F46)</f>
-        <v>#DIV/0!</v>
+        <v>3.258640163847724</v>
       </c>
       <c r="H46" s="51">
         <v>3.1807962558384602</v>
@@ -10353,14 +10373,24 @@
       <c r="A47" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51" t="e">
+      <c r="B47" s="51">
+        <v>2.0443895070361902</v>
+      </c>
+      <c r="C47" s="51">
+        <v>3.1914474597189399</v>
+      </c>
+      <c r="D47" s="51">
+        <v>2.8408030040792598</v>
+      </c>
+      <c r="E47" s="51">
+        <v>2.11603940854868</v>
+      </c>
+      <c r="F47" s="51">
+        <v>4.6817929985994899</v>
+      </c>
+      <c r="G47" s="51">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2.9748944755965119</v>
       </c>
       <c r="H47" s="51">
         <v>1.0461235712931201</v>
@@ -10386,14 +10416,24 @@
       <c r="A48" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51" t="e">
+      <c r="B48" s="51">
+        <v>4.0323738029547398</v>
+      </c>
+      <c r="C48" s="51">
+        <v>0.65705216032500002</v>
+      </c>
+      <c r="D48" s="51">
+        <v>2.8371889363248699</v>
+      </c>
+      <c r="E48" s="51">
+        <v>3.1575569659255902</v>
+      </c>
+      <c r="F48" s="51">
+        <v>6.0077305200595097</v>
+      </c>
+      <c r="G48" s="51">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>3.3383804771179419</v>
       </c>
       <c r="H48" s="51">
         <v>1.1011602488618899</v>
@@ -10419,14 +10459,24 @@
       <c r="A49" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51" t="e">
+      <c r="B49" s="51">
+        <v>6.4431180678563402</v>
+      </c>
+      <c r="C49" s="51">
+        <v>1.7953056878642999</v>
+      </c>
+      <c r="D49" s="51">
+        <v>3.2773829154607599</v>
+      </c>
+      <c r="E49" s="51">
+        <v>2.2775468711279601</v>
+      </c>
+      <c r="F49" s="51">
+        <v>5.6822782174836304</v>
+      </c>
+      <c r="G49" s="51">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>3.8951263519585986</v>
       </c>
       <c r="H49" s="51">
         <v>1.40826742646902</v>
@@ -10452,14 +10502,24 @@
       <c r="A50" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51" t="e">
+      <c r="B50" s="51">
+        <v>6.8765328778300399</v>
+      </c>
+      <c r="C50" s="51">
+        <v>4.4234820122648904</v>
+      </c>
+      <c r="D50" s="51">
+        <v>4.9822197279434999</v>
+      </c>
+      <c r="E50" s="51">
+        <v>3.7459386999819899</v>
+      </c>
+      <c r="F50" s="51">
+        <v>7.21958574930549</v>
+      </c>
+      <c r="G50" s="51">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>5.4495518134651828</v>
       </c>
       <c r="H50" s="51">
         <v>2.7022327464850902</v>
@@ -10485,14 +10545,24 @@
       <c r="A51" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51" t="e">
+      <c r="B51" s="51">
+        <v>6.2821741451927497</v>
+      </c>
+      <c r="C51" s="51">
+        <v>5.4109658094454796</v>
+      </c>
+      <c r="D51" s="51">
+        <v>3.60785438666076</v>
+      </c>
+      <c r="E51" s="51">
+        <v>4.07615780211197</v>
+      </c>
+      <c r="F51" s="51">
+        <v>9.5721038053490002</v>
+      </c>
+      <c r="G51" s="51">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>5.7898511897519924</v>
       </c>
       <c r="H51" s="51">
         <v>2.29890855492991</v>
@@ -10518,14 +10588,24 @@
       <c r="A52" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51" t="e">
+      <c r="B52" s="51">
+        <v>7.6812417801220096</v>
+      </c>
+      <c r="C52" s="51">
+        <v>4.2054873723147104</v>
+      </c>
+      <c r="D52" s="51">
+        <v>3.6162505448124902</v>
+      </c>
+      <c r="E52" s="51">
+        <v>3.89626939159462</v>
+      </c>
+      <c r="F52" s="51">
+        <v>7.9971271693561601</v>
+      </c>
+      <c r="G52" s="51">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>5.479275251639999</v>
       </c>
       <c r="H52" s="51">
         <v>2.4586323356117399</v>
@@ -10551,14 +10631,24 @@
       <c r="A53" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51" t="e">
+      <c r="B53" s="51">
+        <v>5.8892281356835596</v>
+      </c>
+      <c r="C53" s="51">
+        <v>3.2805056595536501</v>
+      </c>
+      <c r="D53" s="51">
+        <v>3.44558639896665</v>
+      </c>
+      <c r="E53" s="51">
+        <v>4.6812613625653396</v>
+      </c>
+      <c r="F53" s="51">
+        <v>7.9431025510075504</v>
+      </c>
+      <c r="G53" s="51">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>5.0479368215553508</v>
       </c>
       <c r="H53" s="51">
         <v>2.3497872596030098</v>
@@ -10584,14 +10674,24 @@
       <c r="A54" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51" t="e">
+      <c r="B54" s="51">
+        <v>3.81760800748234</v>
+      </c>
+      <c r="C54" s="51">
+        <v>1.64989035692009</v>
+      </c>
+      <c r="D54" s="51">
+        <v>2.33814568104681</v>
+      </c>
+      <c r="E54" s="51">
+        <v>2.5484636412072699</v>
+      </c>
+      <c r="F54" s="51">
+        <v>5.54013459293152</v>
+      </c>
+      <c r="G54" s="51">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>3.1788484559176062</v>
       </c>
       <c r="H54" s="51">
         <v>1.57860241497159</v>
@@ -10617,14 +10717,24 @@
       <c r="A55" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51" t="e">
+      <c r="B55" s="51">
+        <v>6.64545540334744</v>
+      </c>
+      <c r="C55" s="51">
+        <v>2.44439528318303</v>
+      </c>
+      <c r="D55" s="51">
+        <v>2.1960914998033201</v>
+      </c>
+      <c r="E55" s="51">
+        <v>1.9620492850392499</v>
+      </c>
+      <c r="F55" s="51">
+        <v>5.4741740526455498</v>
+      </c>
+      <c r="G55" s="51">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>3.7444331048037176</v>
       </c>
       <c r="H55" s="51">
         <v>1.0912003601235301</v>
@@ -10650,14 +10760,24 @@
       <c r="A56" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51" t="e">
+      <c r="B56" s="51">
+        <v>4.7279514016565498</v>
+      </c>
+      <c r="C56" s="51">
+        <v>1.2746156284932899</v>
+      </c>
+      <c r="D56" s="51">
+        <v>4.1206526615013397</v>
+      </c>
+      <c r="E56" s="51">
+        <v>2.07725071793987</v>
+      </c>
+      <c r="F56" s="51">
+        <v>5.6220550478588303</v>
+      </c>
+      <c r="G56" s="51">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>3.5645050914899761</v>
       </c>
       <c r="H56" s="51">
         <v>1.1910473771718399</v>
@@ -10683,29 +10803,29 @@
       <c r="A57" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="B57" s="51" t="e">
+      <c r="B57" s="51">
         <f>AVERAGE(B45:B56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C57" s="51" t="e">
+        <v>5.0122400566176433</v>
+      </c>
+      <c r="C57" s="51">
         <f>AVERAGE(C45:C56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D57" s="51" t="e">
+        <v>2.6582156287633532</v>
+      </c>
+      <c r="D57" s="51">
         <f>AVERAGE(D45:D56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E57" s="51" t="e">
+        <v>3.1745520995040355</v>
+      </c>
+      <c r="E57" s="51">
         <f>AVERAGE(E45:E56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F57" s="51" t="e">
+        <v>2.9414538530595213</v>
+      </c>
+      <c r="F57" s="51">
         <f>AVERAGE(F45:F56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G57" s="51" t="e">
+        <v>5.9935772882383525</v>
+      </c>
+      <c r="G57" s="51">
         <f>AVERAGE(G45:G56)</f>
-        <v>#DIV/0!</v>
+        <v>3.9560077852365816</v>
       </c>
       <c r="H57" s="51">
         <f>AVERAGE(H45:H56)</f>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA13CC7-E531-45C5-9A3A-49DC1D141160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5827004F-B319-4D55-8E98-45B158EA8E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="345">
   <si>
     <t>Results</t>
   </si>
@@ -1055,6 +1055,18 @@
   <si>
     <t>[0.04958920180797577, 0.055570315569639206, 0.07319633662700653, 0.07492363452911377, 0.05147869884967804]</t>
   </si>
+  <si>
+    <t>SARIMAX(1, 0, 1)x(2, 0, [], 12)</t>
+  </si>
+  <si>
+    <t>SARIMAX(0, 0, 2)x(2, 0, [], 12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SARIMAX(1, 0, 2)x(1, 0, [1], 12) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARIMAX(1, 0, 1)x(2, 0, 1, 12) </t>
+  </si>
 </sst>
 </file>
 
@@ -1304,6 +1316,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1313,15 +1328,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1329,6 +1335,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1648,7 +1660,7 @@
   <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3397,73 +3409,137 @@
       <c r="A98" s="3">
         <v>95</v>
       </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
+      <c r="B98" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.30178709559959199</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0.26290731487680602</v>
+      </c>
     </row>
     <row r="99" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A99" s="3">
         <v>96</v>
       </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
+      <c r="B99" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0.29205455324455099</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0.22951485176797801</v>
+      </c>
     </row>
     <row r="100" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A100" s="3">
         <v>97</v>
       </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
+      <c r="B100" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0.30394463067115401</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0.238942846574347</v>
+      </c>
     </row>
     <row r="101" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A101" s="3">
         <v>98</v>
       </c>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
+      <c r="B101" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.27760297903630499</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0.27085250487248103</v>
+      </c>
     </row>
     <row r="102" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A102" s="3">
         <v>99</v>
       </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
+      <c r="B102" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0.28639989675691402</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0.27357456032720101</v>
+      </c>
     </row>
     <row r="103" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A103" s="3">
         <v>100</v>
       </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
+      <c r="B103" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0.28790122716806499</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0.231882513473192</v>
+      </c>
     </row>
     <row r="104" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A104" s="3">
         <v>101</v>
       </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
+      <c r="B104" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0.29066670750461099</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0.22695310221352799</v>
+      </c>
     </row>
     <row r="105" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A105" s="3">
         <v>102</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
+      <c r="B105" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0.28702716719507998</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0.18218289652087399</v>
+      </c>
     </row>
     <row r="106" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A106" s="3">
@@ -3513,7 +3589,7 @@
   <dimension ref="A1:V140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I25" workbookViewId="0">
-      <selection activeCell="V42" sqref="V42"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10505,40 +10581,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -10659,22 +10735,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -10794,40 +10870,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -10995,22 +11071,22 @@
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -11177,40 +11253,40 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -11566,22 +11642,22 @@
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -11936,40 +12012,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="33"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33" t="s">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -12583,22 +12659,22 @@
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33" t="s">
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -13211,40 +13287,40 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="31"/>
-      <c r="M73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="33"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33" t="s">
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -14722,22 +14798,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="33" t="s">
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="33"/>
-      <c r="J137" s="33"/>
-      <c r="K137" s="33"/>
-      <c r="L137" s="33"/>
-      <c r="M137" s="33"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="30"/>
+      <c r="K137" s="30"/>
+      <c r="L137" s="30"/>
+      <c r="M137" s="30"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -16215,6 +16291,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A42:M42"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="A23:M23"/>
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="H74:M74"/>
     <mergeCell ref="B137:G137"/>
@@ -16231,15 +16316,6 @@
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="A10:M10"/>
     <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A42:M42"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="A23:M23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16265,40 +16341,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -16419,22 +16495,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -16554,40 +16630,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -16755,22 +16831,22 @@
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -16937,40 +17013,40 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -17206,22 +17282,22 @@
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -17456,40 +17532,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="33"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33" t="s">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -17863,22 +17939,22 @@
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33" t="s">
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -18251,40 +18327,40 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="31"/>
-      <c r="M73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="33"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33" t="s">
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -19762,22 +19838,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="33" t="s">
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="33"/>
-      <c r="J137" s="33"/>
-      <c r="K137" s="33"/>
-      <c r="L137" s="33"/>
-      <c r="M137" s="33"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="30"/>
+      <c r="K137" s="30"/>
+      <c r="L137" s="30"/>
+      <c r="M137" s="30"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -21255,11 +21331,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A73:M73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:M74"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:M137"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M6"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="B11:G11"/>
@@ -21274,12 +21351,11 @@
     <mergeCell ref="A42:M42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:M43"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:M137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21304,40 +21380,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -21458,22 +21534,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -21593,40 +21669,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -21794,22 +21870,22 @@
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -21976,40 +22052,40 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -22245,22 +22321,22 @@
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -22495,40 +22571,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="33"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33" t="s">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -22902,22 +22978,22 @@
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33" t="s">
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -23290,40 +23366,40 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="31"/>
-      <c r="M73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="33"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33" t="s">
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -24801,22 +24877,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="33" t="s">
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="33"/>
-      <c r="J137" s="33"/>
-      <c r="K137" s="33"/>
-      <c r="L137" s="33"/>
-      <c r="M137" s="33"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="30"/>
+      <c r="K137" s="30"/>
+      <c r="L137" s="30"/>
+      <c r="M137" s="30"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -26294,11 +26370,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A73:M73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:M74"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:M137"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M6"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="B11:G11"/>
@@ -26313,12 +26390,11 @@
     <mergeCell ref="A42:M42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:M43"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:M137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26343,40 +26419,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -26497,22 +26573,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -26632,40 +26708,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -26833,22 +26909,22 @@
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -27015,40 +27091,40 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -27284,22 +27360,22 @@
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -27534,40 +27610,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="33"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33" t="s">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -27941,22 +28017,22 @@
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33" t="s">
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -28329,40 +28405,40 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="31"/>
-      <c r="M73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="33"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33" t="s">
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -29840,22 +29916,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="33" t="s">
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="33"/>
-      <c r="J137" s="33"/>
-      <c r="K137" s="33"/>
-      <c r="L137" s="33"/>
-      <c r="M137" s="33"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="30"/>
+      <c r="K137" s="30"/>
+      <c r="L137" s="30"/>
+      <c r="M137" s="30"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -31333,11 +31409,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A73:M73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:M74"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:M137"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M6"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="B11:G11"/>
@@ -31352,12 +31429,11 @@
     <mergeCell ref="A42:M42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:M43"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:M137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31384,42 +31460,42 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="36" t="s">
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="36" t="s">
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="36" t="s">
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="36" t="s">
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="38"/>
-      <c r="AA2" s="36" t="s">
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="36"/>
+      <c r="AA2" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="38"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="36"/>
     </row>
     <row r="3" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
@@ -31514,16 +31590,16 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="38">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -31610,10 +31686,10 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
@@ -31698,10 +31774,10 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
@@ -31790,41 +31866,41 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="36" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="36" t="s">
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="36" t="s">
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="36" t="s">
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="38"/>
-      <c r="AA7" s="35" t="s">
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="36"/>
+      <c r="AA7" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
       <c r="AD7" s="13">
         <f>AVERAGE(I73, M73, Q73, U73, Y73)</f>
         <v>1.5016363636363637</v>
@@ -32168,36 +32244,36 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="36" t="s">
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="36" t="s">
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="36" t="s">
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="36" t="s">
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="38"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="36"/>
     </row>
     <row r="14" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E14" s="3" t="s">
@@ -32537,36 +32613,36 @@
       </c>
     </row>
     <row r="19" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="36" t="s">
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="36" t="s">
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="36" t="s">
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="36" t="s">
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="38"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="36"/>
     </row>
     <row r="20" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E20" s="3" t="s">
@@ -32906,36 +32982,36 @@
       </c>
     </row>
     <row r="25" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="36" t="s">
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="36" t="s">
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="36" t="s">
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="36" t="s">
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="38"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="36"/>
     </row>
     <row r="26" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E26" s="3" t="s">
@@ -33277,36 +33353,36 @@
       </c>
     </row>
     <row r="31" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="36" t="s">
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="36" t="s">
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="36" t="s">
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="36" t="s">
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="38"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="36"/>
     </row>
     <row r="32" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E32" s="3" t="s">
@@ -33646,36 +33722,36 @@
       </c>
     </row>
     <row r="37" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="36" t="s">
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="36" t="s">
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="36" t="s">
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="36" t="s">
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="38"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="36"/>
     </row>
     <row r="38" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E38" s="3" t="s">
@@ -34015,36 +34091,36 @@
       </c>
     </row>
     <row r="43" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F43" s="36" t="s">
+      <c r="F43" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="36" t="s">
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="36" t="s">
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="36" t="s">
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="36" t="s">
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="38"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="36"/>
     </row>
     <row r="44" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E44" s="3" t="s">
@@ -34384,36 +34460,36 @@
       </c>
     </row>
     <row r="49" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F49" s="36" t="s">
+      <c r="F49" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="36" t="s">
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="36" t="s">
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="36" t="s">
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="36" t="s">
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="W49" s="37"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="38"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="36"/>
     </row>
     <row r="50" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E50" s="3" t="s">
@@ -34753,36 +34829,36 @@
       </c>
     </row>
     <row r="55" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F55" s="36" t="s">
+      <c r="F55" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="36" t="s">
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="36" t="s">
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="38"/>
-      <c r="R55" s="36" t="s">
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
-      <c r="U55" s="38"/>
-      <c r="V55" s="36" t="s">
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="36"/>
+      <c r="V55" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
-      <c r="Y55" s="38"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="36"/>
     </row>
     <row r="56" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E56" s="3" t="s">
@@ -35122,36 +35198,36 @@
       </c>
     </row>
     <row r="61" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F61" s="36" t="s">
+      <c r="F61" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="36" t="s">
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="36" t="s">
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="36" t="s">
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
-      <c r="U61" s="38"/>
-      <c r="V61" s="36" t="s">
+      <c r="S61" s="35"/>
+      <c r="T61" s="35"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="W61" s="37"/>
-      <c r="X61" s="37"/>
-      <c r="Y61" s="38"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="35"/>
+      <c r="Y61" s="36"/>
     </row>
     <row r="62" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E62" s="3" t="s">
@@ -35491,36 +35567,36 @@
       </c>
     </row>
     <row r="67" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F67" s="36" t="s">
+      <c r="F67" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="36" t="s">
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="36" t="s">
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="38"/>
-      <c r="R67" s="36" t="s">
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="S67" s="37"/>
-      <c r="T67" s="37"/>
-      <c r="U67" s="38"/>
-      <c r="V67" s="36" t="s">
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="36"/>
+      <c r="V67" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="37"/>
-      <c r="X67" s="37"/>
-      <c r="Y67" s="38"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
+      <c r="Y67" s="36"/>
     </row>
     <row r="68" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E68" s="3" t="s">
@@ -35940,51 +36016,11 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="V55:Y55"/>
-    <mergeCell ref="V61:Y61"/>
-    <mergeCell ref="V67:Y67"/>
-    <mergeCell ref="R43:U43"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="R61:U61"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
@@ -36001,11 +36037,51 @@
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="R25:U25"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="V55:Y55"/>
+    <mergeCell ref="V61:Y61"/>
+    <mergeCell ref="V67:Y67"/>
+    <mergeCell ref="R43:U43"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="R61:U61"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="V2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5827004F-B319-4D55-8E98-45B158EA8E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9B253C-B0D3-40A0-AA10-D643CC18B952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="351">
   <si>
     <t>Results</t>
   </si>
@@ -1067,6 +1067,24 @@
   <si>
     <t xml:space="preserve">SARIMAX(1, 0, 1)x(2, 0, 1, 12) </t>
   </si>
+  <si>
+    <t>[0.04405784606933594, 0.05169214308261871, 0.06774337589740753, 0.06716268509626389, 0.04654441773891449]</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>[0.044054679572582245, 0.05303318798542023, 0.07082816958427429, 0.07149753719568253, 0.05116749182343483]</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>[0.04440493509173393, 0.058055415749549866, 0.06206884607672691, 0.06460276991128922, 0.048907097429037094]</t>
+  </si>
 </sst>
 </file>
 
@@ -1316,9 +1334,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1328,6 +1343,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1335,12 +1359,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3588,8 +3606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E205C6-75C9-4A48-9727-53AED497EF04}">
   <dimension ref="A1:V140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I25" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="K61" workbookViewId="0">
+      <selection activeCell="T83" sqref="T83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8159,34 +8177,62 @@
       <c r="D81" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18" t="str">
+      <c r="E81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F81" s="8">
+        <v>0.114868044179431</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J81" s="8">
+        <v>0.29997327270694901</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="L81" s="8">
+        <v>5.5607812851667403E-2</v>
+      </c>
+      <c r="M81" s="18">
+        <v>7.7336798493934699E-3</v>
+      </c>
+      <c r="N81" s="18">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O81" s="18" t="str">
+        <v>4.0140453152880465E-2</v>
+      </c>
+      <c r="O81" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P81" s="4"/>
+        <v>7.1075172550454341E-2</v>
+      </c>
+      <c r="P81" s="4" t="s">
+        <v>350</v>
+      </c>
       <c r="Q81" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R81" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="S81" s="18"/>
-      <c r="T81" s="18"/>
-      <c r="U81" s="18"/>
-      <c r="V81" s="8"/>
+      <c r="S81" s="18">
+        <v>0.90568771842176299</v>
+      </c>
+      <c r="T81" s="18">
+        <v>0.784187661951813</v>
+      </c>
+      <c r="U81" s="18">
+        <v>9.0732944855239098E-2</v>
+      </c>
+      <c r="V81" s="8">
+        <v>0.69330122286004103</v>
+      </c>
     </row>
     <row r="82" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="4" t="s">
@@ -8201,34 +8247,62 @@
       <c r="D82" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18" t="str">
+      <c r="E82" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" s="8">
+        <v>0.12979507641643601</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" s="8">
+        <v>0.17343799773232199</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="L82" s="8">
+        <v>5.81162132322788E-2</v>
+      </c>
+      <c r="M82" s="18">
+        <v>1.1067992311610099E-2</v>
+      </c>
+      <c r="N82" s="18">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O82" s="18" t="str">
+        <v>3.5980228609058598E-2</v>
+      </c>
+      <c r="O82" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P82" s="4"/>
+        <v>8.0252197855499002E-2</v>
+      </c>
+      <c r="P82" s="4" t="s">
+        <v>347</v>
+      </c>
       <c r="Q82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="R82" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="S82" s="18"/>
-      <c r="T82" s="18"/>
-      <c r="U82" s="18"/>
-      <c r="V82" s="8"/>
+      <c r="S82" s="18">
+        <v>0.83878849319480797</v>
+      </c>
+      <c r="T82" s="18">
+        <v>0.72539168339936599</v>
+      </c>
+      <c r="U82" s="18">
+        <v>8.9591465125462497E-2</v>
+      </c>
+      <c r="V82" s="8">
+        <v>0.67139593550214705</v>
+      </c>
     </row>
     <row r="83" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83" s="4" t="s">
@@ -8243,34 +8317,62 @@
       <c r="D83" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18" t="str">
+      <c r="E83" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" s="8">
+        <v>9.7179949658388595E-2</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J83" s="8">
+        <v>0.18158906212107701</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="L83" s="8">
+        <v>5.54400935769081E-2</v>
+      </c>
+      <c r="M83" s="18">
+        <v>1.01145998203935E-2</v>
+      </c>
+      <c r="N83" s="18">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O83" s="18" t="str">
+        <v>3.5210893936121104E-2</v>
+      </c>
+      <c r="O83" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P83" s="4"/>
+        <v>7.5669293217695097E-2</v>
+      </c>
+      <c r="P83" s="4" t="s">
+        <v>345</v>
+      </c>
       <c r="Q83" s="4" t="s">
         <v>67</v>
       </c>
       <c r="R83" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="S83" s="18"/>
-      <c r="T83" s="18"/>
-      <c r="U83" s="18"/>
-      <c r="V83" s="8"/>
+      <c r="S83" s="18">
+        <v>0.79040279597715701</v>
+      </c>
+      <c r="T83" s="18">
+        <v>0.67434875743488598</v>
+      </c>
+      <c r="U83" s="18">
+        <v>8.2250496355286598E-2</v>
+      </c>
+      <c r="V83" s="8">
+        <v>0.70740084272458603</v>
+      </c>
     </row>
     <row r="84" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A84" s="4" t="s">
@@ -10581,40 +10683,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -10735,22 +10837,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -10870,40 +10972,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -11071,22 +11173,22 @@
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -11253,40 +11355,40 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -11642,22 +11744,22 @@
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30" t="s">
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -12012,40 +12114,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="33"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="32"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30" t="s">
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -12659,22 +12761,22 @@
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30" t="s">
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -13287,40 +13389,40 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="33"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="32"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30" t="s">
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="33"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -14798,22 +14900,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="30"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="30" t="s">
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="33"/>
+      <c r="H137" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="30"/>
-      <c r="J137" s="30"/>
-      <c r="K137" s="30"/>
-      <c r="L137" s="30"/>
-      <c r="M137" s="30"/>
+      <c r="I137" s="33"/>
+      <c r="J137" s="33"/>
+      <c r="K137" s="33"/>
+      <c r="L137" s="33"/>
+      <c r="M137" s="33"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -16291,15 +16393,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A42:M42"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="A23:M23"/>
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="H74:M74"/>
     <mergeCell ref="B137:G137"/>
@@ -16316,6 +16409,15 @@
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="A10:M10"/>
     <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A42:M42"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="A23:M23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16341,40 +16443,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -16495,22 +16597,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -16630,40 +16732,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -16831,22 +16933,22 @@
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -17013,40 +17115,40 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -17282,22 +17384,22 @@
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30" t="s">
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -17532,40 +17634,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="33"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="32"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30" t="s">
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -17939,22 +18041,22 @@
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30" t="s">
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -18327,40 +18429,40 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="33"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="32"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30" t="s">
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="33"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -19838,22 +19940,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="30"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="30" t="s">
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="33"/>
+      <c r="H137" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="30"/>
-      <c r="J137" s="30"/>
-      <c r="K137" s="30"/>
-      <c r="L137" s="30"/>
-      <c r="M137" s="30"/>
+      <c r="I137" s="33"/>
+      <c r="J137" s="33"/>
+      <c r="K137" s="33"/>
+      <c r="L137" s="33"/>
+      <c r="M137" s="33"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -21331,12 +21433,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:M137"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="B11:G11"/>
@@ -21351,11 +21452,12 @@
     <mergeCell ref="A42:M42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:M43"/>
-    <mergeCell ref="A73:M73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:M74"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:M137"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21380,40 +21482,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -21534,22 +21636,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -21669,40 +21771,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -21870,22 +21972,22 @@
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -22052,40 +22154,40 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -22321,22 +22423,22 @@
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30" t="s">
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -22571,40 +22673,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="33"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="32"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30" t="s">
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -22978,22 +23080,22 @@
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30" t="s">
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -23366,40 +23468,40 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="33"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="32"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30" t="s">
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="33"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -24877,22 +24979,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="30"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="30" t="s">
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="33"/>
+      <c r="H137" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="30"/>
-      <c r="J137" s="30"/>
-      <c r="K137" s="30"/>
-      <c r="L137" s="30"/>
-      <c r="M137" s="30"/>
+      <c r="I137" s="33"/>
+      <c r="J137" s="33"/>
+      <c r="K137" s="33"/>
+      <c r="L137" s="33"/>
+      <c r="M137" s="33"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -26370,12 +26472,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:M137"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="B11:G11"/>
@@ -26390,11 +26491,12 @@
     <mergeCell ref="A42:M42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:M43"/>
-    <mergeCell ref="A73:M73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:M74"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:M137"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26419,40 +26521,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -26573,22 +26675,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -26708,40 +26810,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -26909,22 +27011,22 @@
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -27091,40 +27193,40 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -27360,22 +27462,22 @@
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30" t="s">
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -27610,40 +27712,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="33"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="32"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30" t="s">
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -28017,22 +28119,22 @@
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30" t="s">
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -28405,40 +28507,40 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="33"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="32"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30" t="s">
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="33"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -29916,22 +30018,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="30"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="30" t="s">
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="33"/>
+      <c r="H137" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="30"/>
-      <c r="J137" s="30"/>
-      <c r="K137" s="30"/>
-      <c r="L137" s="30"/>
-      <c r="M137" s="30"/>
+      <c r="I137" s="33"/>
+      <c r="J137" s="33"/>
+      <c r="K137" s="33"/>
+      <c r="L137" s="33"/>
+      <c r="M137" s="33"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -31409,12 +31511,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:M137"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="B11:G11"/>
@@ -31429,11 +31530,12 @@
     <mergeCell ref="A42:M42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:M43"/>
-    <mergeCell ref="A73:M73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:M74"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:M137"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31460,42 +31562,42 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="34" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="34" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="34" t="s">
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="34" t="s">
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="36"/>
-      <c r="AA2" s="34" t="s">
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="38"/>
+      <c r="AA2" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="36"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="38"/>
     </row>
     <row r="3" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
@@ -31590,16 +31692,16 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="34">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -31686,10 +31788,10 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
@@ -31774,10 +31876,10 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
@@ -31866,41 +31968,41 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="34" t="s">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="34" t="s">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="34" t="s">
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="34" t="s">
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="36"/>
-      <c r="AA7" s="37" t="s">
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="38"/>
+      <c r="AA7" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
       <c r="AD7" s="13">
         <f>AVERAGE(I73, M73, Q73, U73, Y73)</f>
         <v>1.5016363636363637</v>
@@ -32244,36 +32346,36 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="34" t="s">
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="34" t="s">
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="34" t="s">
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="34" t="s">
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="36"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="38"/>
     </row>
     <row r="14" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E14" s="3" t="s">
@@ -32613,36 +32715,36 @@
       </c>
     </row>
     <row r="19" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="34" t="s">
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="34" t="s">
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="34" t="s">
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="34" t="s">
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="36"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="38"/>
     </row>
     <row r="20" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E20" s="3" t="s">
@@ -32982,36 +33084,36 @@
       </c>
     </row>
     <row r="25" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="34" t="s">
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="34" t="s">
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="34" t="s">
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="34" t="s">
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="36"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="38"/>
     </row>
     <row r="26" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E26" s="3" t="s">
@@ -33353,36 +33455,36 @@
       </c>
     </row>
     <row r="31" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="34" t="s">
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="34" t="s">
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="34" t="s">
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="34" t="s">
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="36"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="38"/>
     </row>
     <row r="32" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E32" s="3" t="s">
@@ -33722,36 +33824,36 @@
       </c>
     </row>
     <row r="37" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F37" s="34" t="s">
+      <c r="F37" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="34" t="s">
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="34" t="s">
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="34" t="s">
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="34" t="s">
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="36"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="38"/>
     </row>
     <row r="38" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E38" s="3" t="s">
@@ -34091,36 +34193,36 @@
       </c>
     </row>
     <row r="43" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F43" s="34" t="s">
+      <c r="F43" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="34" t="s">
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="34" t="s">
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="34" t="s">
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="36"/>
-      <c r="V43" s="34" t="s">
+      <c r="S43" s="37"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="W43" s="35"/>
-      <c r="X43" s="35"/>
-      <c r="Y43" s="36"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="38"/>
     </row>
     <row r="44" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E44" s="3" t="s">
@@ -34460,36 +34562,36 @@
       </c>
     </row>
     <row r="49" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F49" s="34" t="s">
+      <c r="F49" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="34" t="s">
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="34" t="s">
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="34" t="s">
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="34" t="s">
+      <c r="S49" s="37"/>
+      <c r="T49" s="37"/>
+      <c r="U49" s="38"/>
+      <c r="V49" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="W49" s="35"/>
-      <c r="X49" s="35"/>
-      <c r="Y49" s="36"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="37"/>
+      <c r="Y49" s="38"/>
     </row>
     <row r="50" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E50" s="3" t="s">
@@ -34829,36 +34931,36 @@
       </c>
     </row>
     <row r="55" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F55" s="34" t="s">
+      <c r="F55" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="34" t="s">
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="34" t="s">
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="34" t="s">
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="34" t="s">
+      <c r="S55" s="37"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="38"/>
+      <c r="V55" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="W55" s="35"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="36"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="37"/>
+      <c r="Y55" s="38"/>
     </row>
     <row r="56" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E56" s="3" t="s">
@@ -35198,36 +35300,36 @@
       </c>
     </row>
     <row r="61" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F61" s="34" t="s">
+      <c r="F61" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="34" t="s">
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="34" t="s">
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="34" t="s">
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="36"/>
-      <c r="V61" s="34" t="s">
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="38"/>
+      <c r="V61" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="W61" s="35"/>
-      <c r="X61" s="35"/>
-      <c r="Y61" s="36"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="37"/>
+      <c r="Y61" s="38"/>
     </row>
     <row r="62" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E62" s="3" t="s">
@@ -35567,36 +35669,36 @@
       </c>
     </row>
     <row r="67" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F67" s="34" t="s">
+      <c r="F67" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="34" t="s">
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="34" t="s">
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="36"/>
-      <c r="R67" s="34" t="s">
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="38"/>
+      <c r="R67" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="S67" s="35"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="36"/>
-      <c r="V67" s="34" t="s">
+      <c r="S67" s="37"/>
+      <c r="T67" s="37"/>
+      <c r="U67" s="38"/>
+      <c r="V67" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="35"/>
-      <c r="X67" s="35"/>
-      <c r="Y67" s="36"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
+      <c r="Y67" s="38"/>
     </row>
     <row r="68" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E68" s="3" t="s">
@@ -36016,11 +36118,51 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="V55:Y55"/>
+    <mergeCell ref="V61:Y61"/>
+    <mergeCell ref="V67:Y67"/>
+    <mergeCell ref="R43:U43"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="R61:U61"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F43:I43"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
@@ -36037,51 +36179,11 @@
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="R25:U25"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="V55:Y55"/>
-    <mergeCell ref="V61:Y61"/>
-    <mergeCell ref="V67:Y67"/>
-    <mergeCell ref="R43:U43"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="R61:U61"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9B253C-B0D3-40A0-AA10-D643CC18B952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23B2B52-7C21-4BAB-A536-5EC47D8B2DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
+    <workbookView xWindow="2843" yWindow="2520" windowWidth="22034" windowHeight="12840" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
   <sheets>
     <sheet name="SARIMAX" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="363">
   <si>
     <t>Results</t>
   </si>
@@ -1085,6 +1085,42 @@
   <si>
     <t>[0.04440493509173393, 0.058055415749549866, 0.06206884607672691, 0.06460276991128922, 0.048907097429037094]</t>
   </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>[0.02383837290108204, 0.030229169875383377, 0.039326924830675125, 0.03160597011446953, 0.03204963728785515]</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>[0.038718316704034805, 0.04909882694482803, 0.05739954859018326, 0.05236910283565521, 0.04171718657016754]</t>
+  </si>
+  <si>
+    <t>[0.041114162653684616, 0.04785582050681114, 0.06383821368217468, 0.06454825401306152, 0.046629443764686584]</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>[0.032786786556243896, 0.046020690351724625, 0.05832795053720474, 0.05725137144327164, 0.043309032917022705]</t>
+  </si>
+  <si>
+    <t>[0.05367676913738251, 0.05692766606807709, 0.07383019477128983, 0.07678510993719101, 0.049848709255456924]</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>[0.03986595571041107, 0.05086313188076019, 0.0620381124317646, 0.06432339549064636, 0.048850320279598236]</t>
+  </si>
+  <si>
+    <t>[0.04130663350224495, 0.052399810403585434, 0.06308823078870773, 0.05987292900681496, 0.04670140519738197]</t>
+  </si>
+  <si>
+    <t>[0.03342790901660919, 0.04725565016269684, 0.06490088254213333, 0.06564181298017502, 0.04777679219841957]</t>
+  </si>
 </sst>
 </file>
 
@@ -1334,6 +1370,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1343,15 +1382,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1359,6 +1389,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3606,8 +3642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E205C6-75C9-4A48-9727-53AED497EF04}">
   <dimension ref="A1:V140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K61" workbookViewId="0">
-      <selection activeCell="T83" sqref="T83"/>
+    <sheetView tabSelected="1" topLeftCell="P31" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5556,33 +5592,59 @@
       <c r="E36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18" t="str">
+      <c r="F36" s="8">
+        <v>2.9865625955004999E-2</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0.36457102403623498</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="L36" s="8">
+        <v>5.2673801779747002E-2</v>
+      </c>
+      <c r="M36" s="18">
+        <v>8.0652944307631896E-3</v>
+      </c>
+      <c r="N36" s="18">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O36" s="18" t="str">
+        <v>3.6543212918220623E-2</v>
+      </c>
+      <c r="O36" s="18">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P36" s="4"/>
+        <v>6.8804390641273389E-2</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>361</v>
+      </c>
       <c r="Q36" s="4" t="s">
         <v>38</v>
       </c>
       <c r="R36" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="8"/>
+      <c r="S36" s="18">
+        <v>1.3833040671614301</v>
+      </c>
+      <c r="T36" s="18">
+        <v>1.14620018154202</v>
+      </c>
+      <c r="U36" s="18">
+        <v>0.15218817828825301</v>
+      </c>
+      <c r="V36" s="8">
+        <v>1.82855792360994E-2</v>
+      </c>
     </row>
     <row r="37" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
@@ -5600,23 +5662,41 @@
       <c r="E37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18" t="str">
+      <c r="F37" s="8">
+        <v>4.0071338690443803E-3</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="8">
+        <v>0.17483852563158001</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="L37" s="8">
+        <v>5.2797178924083699E-2</v>
+      </c>
+      <c r="M37" s="18">
+        <v>9.5806373843809692E-3</v>
+      </c>
+      <c r="N37" s="18">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O37" s="18" t="str">
+        <v>3.3635904155321764E-2</v>
+      </c>
+      <c r="O37" s="18">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P37" s="4"/>
+        <v>7.1958453692845634E-2</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="Q37" s="4" t="s">
         <v>6</v>
       </c>
@@ -5644,33 +5724,59 @@
       <c r="E38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18" t="str">
+      <c r="F38" s="8">
+        <v>1.38295259677367E-2</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38" s="8">
+        <v>0.130941625462764</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="L38" s="8">
+        <v>5.1800609380006697E-2</v>
+      </c>
+      <c r="M38" s="18">
+        <v>1.21457807625914E-2</v>
+      </c>
+      <c r="N38" s="18">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O38" s="18" t="str">
+        <v>2.7509047854823897E-2</v>
+      </c>
+      <c r="O38" s="18">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P38" s="4"/>
+        <v>7.6092170905189493E-2</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="Q38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="R38" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="8"/>
+      <c r="S38" s="18">
+        <v>1.3309758981611399</v>
+      </c>
+      <c r="T38" s="18">
+        <v>1.08582463614236</v>
+      </c>
+      <c r="U38" s="18">
+        <v>0.144801951688179</v>
+      </c>
+      <c r="V38" s="8">
+        <v>0.19080653919889601</v>
+      </c>
     </row>
     <row r="39" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
@@ -5688,33 +5794,59 @@
       <c r="E39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18" t="str">
+      <c r="F39" s="8">
+        <v>2.2030684358277201E-3</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" s="8">
+        <v>0.108472704274529</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="L39" s="8">
+        <v>5.3188183158636E-2</v>
+      </c>
+      <c r="M39" s="18">
+        <v>8.9890918762982695E-3</v>
+      </c>
+      <c r="N39" s="18">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O39" s="18" t="str">
+        <v>3.5209999406039458E-2</v>
+      </c>
+      <c r="O39" s="18">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P39" s="4"/>
+        <v>7.1166366911232543E-2</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>360</v>
+      </c>
       <c r="Q39" s="4" t="s">
         <v>67</v>
       </c>
       <c r="R39" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="8"/>
+      <c r="S39" s="18">
+        <v>1.4374794685369501</v>
+      </c>
+      <c r="T39" s="18">
+        <v>1.2021032212484899</v>
+      </c>
+      <c r="U39" s="18">
+        <v>0.17508238817461699</v>
+      </c>
+      <c r="V39" s="8">
+        <v>0.141055381581633</v>
+      </c>
     </row>
     <row r="40" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
@@ -5732,33 +5864,59 @@
       <c r="E40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18" t="str">
+      <c r="F40" s="8">
+        <v>0.14221859366311601</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" s="8">
+        <v>0.21312490207040499</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L40" s="8">
+        <v>6.2213689833879399E-2</v>
+      </c>
+      <c r="M40" s="18">
+        <v>1.0963423532124801E-2</v>
+      </c>
+      <c r="N40" s="18">
         <f t="shared" ref="N40:N71" si="2">IF(OR(L40="",M40=""),"",L40-2*M40)</f>
-        <v/>
-      </c>
-      <c r="O40" s="18" t="str">
+        <v>4.0286842769629794E-2</v>
+      </c>
+      <c r="O40" s="18">
         <f t="shared" ref="O40:O71" si="3">IF(OR(L40="",M40=""),"",L40+2*M40)</f>
-        <v/>
-      </c>
-      <c r="P40" s="4"/>
+        <v>8.4140536898129004E-2</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="Q40" s="4" t="s">
         <v>38</v>
       </c>
       <c r="R40" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="8"/>
+      <c r="S40" s="18">
+        <v>1.5628077264703899</v>
+      </c>
+      <c r="T40" s="18">
+        <v>1.3318206594622399</v>
+      </c>
+      <c r="U40" s="18">
+        <v>0.188693873506384</v>
+      </c>
+      <c r="V40" s="8">
+        <v>-3.5884916107481103E-2</v>
+      </c>
     </row>
     <row r="41" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
@@ -8009,24 +8167,44 @@
       <c r="D77" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18" t="str">
+      <c r="E77" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="8">
+        <v>5.95461418591334E-2</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" s="8">
+        <v>0.42983708497932399</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L77" s="8">
+        <v>4.7539166361093503E-2</v>
+      </c>
+      <c r="M77" s="18">
+        <v>9.4716133769195202E-3</v>
+      </c>
+      <c r="N77" s="18">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O77" s="18" t="str">
+        <v>2.8595939607254463E-2</v>
+      </c>
+      <c r="O77" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P77" s="4"/>
+        <v>6.6482393114932536E-2</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>357</v>
+      </c>
       <c r="Q77" s="4" t="s">
         <v>6</v>
       </c>
@@ -8051,24 +8229,44 @@
       <c r="D78" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18" t="str">
+      <c r="E78" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F78" s="8">
+        <v>2.0345003959972301E-3</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="8">
+        <v>0.156363323893765</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="L78" s="8">
+        <v>3.1410015001892999E-2</v>
+      </c>
+      <c r="M78" s="18">
+        <v>4.93658050937054E-3</v>
+      </c>
+      <c r="N78" s="18">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O78" s="18" t="str">
+        <v>2.1536853983151919E-2</v>
+      </c>
+      <c r="O78" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P78" s="4"/>
+        <v>4.1283176020634083E-2</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>352</v>
+      </c>
       <c r="Q78" s="4" t="s">
         <v>24</v>
       </c>
@@ -8093,34 +8291,62 @@
       <c r="D79" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18" t="str">
+      <c r="E79" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="8">
+        <v>4.8083034964633599E-2</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" s="8">
+        <v>0.29752279393568098</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="L79" s="8">
+        <v>4.7860596328973701E-2</v>
+      </c>
+      <c r="M79" s="18">
+        <v>6.8435987086565902E-3</v>
+      </c>
+      <c r="N79" s="18">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O79" s="18" t="str">
+        <v>3.4173398911660519E-2</v>
+      </c>
+      <c r="O79" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P79" s="4"/>
+        <v>6.1547793746286883E-2</v>
+      </c>
+      <c r="P79" s="4" t="s">
+        <v>354</v>
+      </c>
       <c r="Q79" s="4" t="s">
         <v>67</v>
       </c>
       <c r="R79" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="S79" s="18"/>
-      <c r="T79" s="18"/>
-      <c r="U79" s="18"/>
-      <c r="V79" s="8"/>
+      <c r="S79" s="18">
+        <v>0.781450920699165</v>
+      </c>
+      <c r="T79" s="18">
+        <v>0.66021195345561701</v>
+      </c>
+      <c r="U79" s="18">
+        <v>9.8399484635213294E-2</v>
+      </c>
+      <c r="V79" s="8">
+        <v>0.77128816965067104</v>
+      </c>
     </row>
     <row r="80" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A80" s="4" t="s">
@@ -10683,40 +10909,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -10837,22 +11063,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -10972,40 +11198,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -11173,22 +11399,22 @@
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -11355,40 +11581,40 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -11744,22 +11970,22 @@
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -12114,40 +12340,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="33"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33" t="s">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -12761,22 +12987,22 @@
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33" t="s">
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -13389,40 +13615,40 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="31"/>
-      <c r="M73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="33"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33" t="s">
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -14900,22 +15126,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="33" t="s">
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="33"/>
-      <c r="J137" s="33"/>
-      <c r="K137" s="33"/>
-      <c r="L137" s="33"/>
-      <c r="M137" s="33"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="30"/>
+      <c r="K137" s="30"/>
+      <c r="L137" s="30"/>
+      <c r="M137" s="30"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -16393,6 +16619,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A42:M42"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="A23:M23"/>
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="H74:M74"/>
     <mergeCell ref="B137:G137"/>
@@ -16409,15 +16644,6 @@
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="A10:M10"/>
     <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A42:M42"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="A23:M23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16443,40 +16669,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -16597,22 +16823,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -16732,40 +16958,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -16933,22 +17159,22 @@
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -17115,40 +17341,40 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -17384,22 +17610,22 @@
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -17634,40 +17860,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="33"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33" t="s">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -18041,22 +18267,22 @@
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33" t="s">
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -18429,40 +18655,40 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="31"/>
-      <c r="M73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="33"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33" t="s">
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -19940,22 +20166,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="33" t="s">
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="33"/>
-      <c r="J137" s="33"/>
-      <c r="K137" s="33"/>
-      <c r="L137" s="33"/>
-      <c r="M137" s="33"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="30"/>
+      <c r="K137" s="30"/>
+      <c r="L137" s="30"/>
+      <c r="M137" s="30"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -21433,11 +21659,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A73:M73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:M74"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:M137"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M6"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="B11:G11"/>
@@ -21452,12 +21679,11 @@
     <mergeCell ref="A42:M42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:M43"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:M137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21482,40 +21708,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -21636,22 +21862,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -21771,40 +21997,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -21972,22 +22198,22 @@
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -22154,40 +22380,40 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -22423,22 +22649,22 @@
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -22673,40 +22899,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="33"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33" t="s">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -23080,22 +23306,22 @@
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33" t="s">
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -23468,40 +23694,40 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="31"/>
-      <c r="M73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="33"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33" t="s">
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -24979,22 +25205,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="33" t="s">
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="33"/>
-      <c r="J137" s="33"/>
-      <c r="K137" s="33"/>
-      <c r="L137" s="33"/>
-      <c r="M137" s="33"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="30"/>
+      <c r="K137" s="30"/>
+      <c r="L137" s="30"/>
+      <c r="M137" s="30"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -26472,11 +26698,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A73:M73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:M74"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:M137"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M6"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="B11:G11"/>
@@ -26491,12 +26718,11 @@
     <mergeCell ref="A42:M42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:M43"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:M137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26521,40 +26747,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -26675,22 +26901,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -26810,40 +27036,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -27011,22 +27237,22 @@
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -27193,40 +27419,40 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="33"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -27462,22 +27688,22 @@
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -27712,40 +27938,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="33"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33" t="s">
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -28119,22 +28345,22 @@
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33" t="s">
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -28507,40 +28733,40 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="31"/>
-      <c r="M73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="33"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33" t="s">
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -30018,22 +30244,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="33" t="s">
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="33"/>
-      <c r="J137" s="33"/>
-      <c r="K137" s="33"/>
-      <c r="L137" s="33"/>
-      <c r="M137" s="33"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="30"/>
+      <c r="K137" s="30"/>
+      <c r="L137" s="30"/>
+      <c r="M137" s="30"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -31511,11 +31737,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A73:M73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:M74"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:M137"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M6"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="B11:G11"/>
@@ -31530,12 +31757,11 @@
     <mergeCell ref="A42:M42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:M43"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:M137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31562,42 +31788,42 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="36" t="s">
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="36" t="s">
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="36" t="s">
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="36" t="s">
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="38"/>
-      <c r="AA2" s="36" t="s">
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="36"/>
+      <c r="AA2" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="38"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="36"/>
     </row>
     <row r="3" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
@@ -31692,16 +31918,16 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="38">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -31788,10 +32014,10 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
@@ -31876,10 +32102,10 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
@@ -31968,41 +32194,41 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="36" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="36" t="s">
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="36" t="s">
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="36" t="s">
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="38"/>
-      <c r="AA7" s="35" t="s">
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="36"/>
+      <c r="AA7" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
       <c r="AD7" s="13">
         <f>AVERAGE(I73, M73, Q73, U73, Y73)</f>
         <v>1.5016363636363637</v>
@@ -32346,36 +32572,36 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="36" t="s">
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="36" t="s">
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="36" t="s">
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="36" t="s">
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="38"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="36"/>
     </row>
     <row r="14" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E14" s="3" t="s">
@@ -32715,36 +32941,36 @@
       </c>
     </row>
     <row r="19" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="36" t="s">
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="36" t="s">
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="36" t="s">
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="36" t="s">
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="38"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="36"/>
     </row>
     <row r="20" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E20" s="3" t="s">
@@ -33084,36 +33310,36 @@
       </c>
     </row>
     <row r="25" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="36" t="s">
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="36" t="s">
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="36" t="s">
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="36" t="s">
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="38"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="36"/>
     </row>
     <row r="26" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E26" s="3" t="s">
@@ -33455,36 +33681,36 @@
       </c>
     </row>
     <row r="31" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="36" t="s">
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="36" t="s">
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="36" t="s">
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="36" t="s">
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="38"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="36"/>
     </row>
     <row r="32" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E32" s="3" t="s">
@@ -33824,36 +34050,36 @@
       </c>
     </row>
     <row r="37" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="36" t="s">
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="36" t="s">
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="38"/>
-      <c r="R37" s="36" t="s">
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="36" t="s">
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="38"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="36"/>
     </row>
     <row r="38" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E38" s="3" t="s">
@@ -34193,36 +34419,36 @@
       </c>
     </row>
     <row r="43" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F43" s="36" t="s">
+      <c r="F43" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="36" t="s">
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="36" t="s">
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="36" t="s">
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="36" t="s">
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="38"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="36"/>
     </row>
     <row r="44" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E44" s="3" t="s">
@@ -34562,36 +34788,36 @@
       </c>
     </row>
     <row r="49" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F49" s="36" t="s">
+      <c r="F49" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="36" t="s">
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="36" t="s">
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="36" t="s">
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="36" t="s">
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="36"/>
+      <c r="V49" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="W49" s="37"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="38"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="36"/>
     </row>
     <row r="50" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E50" s="3" t="s">
@@ -34931,36 +35157,36 @@
       </c>
     </row>
     <row r="55" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F55" s="36" t="s">
+      <c r="F55" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="36" t="s">
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="36" t="s">
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="38"/>
-      <c r="R55" s="36" t="s">
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
-      <c r="U55" s="38"/>
-      <c r="V55" s="36" t="s">
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="36"/>
+      <c r="V55" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
-      <c r="Y55" s="38"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="36"/>
     </row>
     <row r="56" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E56" s="3" t="s">
@@ -35300,36 +35526,36 @@
       </c>
     </row>
     <row r="61" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F61" s="36" t="s">
+      <c r="F61" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="36" t="s">
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="36" t="s">
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="36" t="s">
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
-      <c r="U61" s="38"/>
-      <c r="V61" s="36" t="s">
+      <c r="S61" s="35"/>
+      <c r="T61" s="35"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="W61" s="37"/>
-      <c r="X61" s="37"/>
-      <c r="Y61" s="38"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="35"/>
+      <c r="Y61" s="36"/>
     </row>
     <row r="62" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E62" s="3" t="s">
@@ -35669,36 +35895,36 @@
       </c>
     </row>
     <row r="67" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F67" s="36" t="s">
+      <c r="F67" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="36" t="s">
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="36" t="s">
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="38"/>
-      <c r="R67" s="36" t="s">
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="S67" s="37"/>
-      <c r="T67" s="37"/>
-      <c r="U67" s="38"/>
-      <c r="V67" s="36" t="s">
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="36"/>
+      <c r="V67" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="37"/>
-      <c r="X67" s="37"/>
-      <c r="Y67" s="38"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
+      <c r="Y67" s="36"/>
     </row>
     <row r="68" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E68" s="3" t="s">
@@ -36118,51 +36344,11 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="V55:Y55"/>
-    <mergeCell ref="V61:Y61"/>
-    <mergeCell ref="V67:Y67"/>
-    <mergeCell ref="R43:U43"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="R61:U61"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
@@ -36179,11 +36365,51 @@
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="R25:U25"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="V55:Y55"/>
+    <mergeCell ref="V61:Y61"/>
+    <mergeCell ref="V67:Y67"/>
+    <mergeCell ref="R43:U43"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="R61:U61"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="V2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23B2B52-7C21-4BAB-A536-5EC47D8B2DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673E34D9-EBB2-416C-B7EE-247A30746B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2843" yWindow="2520" windowWidth="22034" windowHeight="12840" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
   <sheets>
     <sheet name="SARIMAX" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="378">
   <si>
     <t>Results</t>
   </si>
@@ -1120,6 +1120,51 @@
   </si>
   <si>
     <t>[0.03342790901660919, 0.04725565016269684, 0.06490088254213333, 0.06564181298017502, 0.04777679219841957]</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>[0.024596810340881348, 0.03376370295882225, 0.04745097458362579, 0.03966549038887024, 0.02326185815036297]</t>
+  </si>
+  <si>
+    <t>[0.02852088399231434, 0.030398452654480934, 0.03794333338737488, 0.03186270594596863, 0.026253817602992058]</t>
+  </si>
+  <si>
+    <t>ARIMA Hyperparameter Optimization Model Fitting</t>
+  </si>
+  <si>
+    <t>(1, 0, 0)</t>
+  </si>
+  <si>
+    <t>(9, 0, 3)</t>
+  </si>
+  <si>
+    <t>(11, 0, 1)</t>
+  </si>
+  <si>
+    <t>(0, 0, 3)</t>
+  </si>
+  <si>
+    <t>(9, 0, 2)</t>
+  </si>
+  <si>
+    <t>(7, 0, 1)</t>
+  </si>
+  <si>
+    <t>(9, 0, 1)</t>
+  </si>
+  <si>
+    <t>(2, 0, 1)</t>
+  </si>
+  <si>
+    <t>(12, 0, 1)</t>
+  </si>
+  <si>
+    <t>(10, 0, 0)</t>
+  </si>
+  <si>
+    <t>(0, 0, 7)</t>
   </si>
 </sst>
 </file>
@@ -1349,9 +1394,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1370,9 +1412,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1380,6 +1419,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1391,11 +1439,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1711,34 +1756,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F029C1F8-AD11-4A7F-989C-BC369991F6F8}">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.06640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.46484375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="27.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9" ht="13.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="23"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>278</v>
       </c>
@@ -1754,1885 +1803,2397 @@
       <c r="E2" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="F2"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F2" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.18545022571614</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.12980078809384801</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="3">
+      <c r="G3" s="3">
         <v>0.28976493507770601</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E3" s="3">
+      <c r="I3" s="3">
         <v>0.193012219697659</v>
       </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="4" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.31144972238179103</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.325522126805947</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C4" s="3">
+      <c r="G4" s="3">
         <v>0.31132351812463799</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E4" s="3">
+      <c r="I4" s="3">
         <v>0.33814184168231398</v>
       </c>
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="5" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.16733144046030499</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="3">
+        <v>9.9079991028495906E-2</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C5" s="3">
+      <c r="G5" s="3">
         <v>0.28448605350245698</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E5" s="3">
+      <c r="I5" s="3">
         <v>0.17189748768461599</v>
       </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="6" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.19897898822869201</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.251708238580022</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="3">
+      <c r="G6" s="3">
         <v>0.313665804084658</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E6" s="3">
+      <c r="I6" s="3">
         <v>0.30779570094353198</v>
       </c>
-      <c r="F6"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="7" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.28131660984760298</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" s="3">
+        <v>9.9079991028495906E-2</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="3">
+      <c r="G7" s="3">
         <v>0.282307632174292</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E7" s="3">
+      <c r="I7" s="3">
         <v>0.17162338663827301</v>
       </c>
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="8" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.191572499638928</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.322551000166795</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C8" s="3">
+      <c r="G8" s="3">
         <v>0.29162181994090303</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E8" s="3">
+      <c r="I8" s="3">
         <v>0.324525167183845</v>
       </c>
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="9" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.28288841643648499</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.17832530733816401</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C9" s="3">
+      <c r="G9" s="3">
         <v>0.29058247259250602</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E9" s="3">
+      <c r="I9" s="3">
         <v>0.17841305916205299</v>
       </c>
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="10" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.17111775234784099</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.151946185649213</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C10" s="3">
+      <c r="G10" s="3">
         <v>0.28786129397552301</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E10" s="3">
+      <c r="I10" s="3">
         <v>0.21232972408801401</v>
       </c>
-      <c r="F10"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="11" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.17607986532658601</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.163023925457216</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C11" s="3">
+      <c r="G11" s="3">
         <v>0.29235352105370899</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="E11" s="3">
+      <c r="I11" s="3">
         <v>0.219245508813287</v>
       </c>
-      <c r="F11"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="12" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.15399933766878299</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.19442303915911399</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C12" s="3">
+      <c r="G12" s="3">
         <v>0.27473004551297903</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E12" s="3">
+      <c r="I12" s="3">
         <v>0.247153413869168</v>
       </c>
-      <c r="F12"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="13" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.152557111031038</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.13902612145759499</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C13" s="3">
+      <c r="G13" s="3">
         <v>0.27200024239203702</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E13" s="3">
+      <c r="I13" s="3">
         <v>0.20406569854068499</v>
       </c>
-      <c r="F13"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="14" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.15054052521887401</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.14948486196949401</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C14" s="3">
+      <c r="G14" s="3">
         <v>0.271910071157419</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E14" s="3">
+      <c r="I14" s="3">
         <v>0.209297542692644</v>
       </c>
-      <c r="F14"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="15" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.15573193234525101</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.16610154146008799</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C15" s="3">
+      <c r="G15" s="3">
         <v>0.275400240754758</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E15" s="3">
+      <c r="I15" s="3">
         <v>0.224393163873983</v>
       </c>
-      <c r="F15"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="16" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.14852700162942101</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.135335619421074</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C16" s="3">
+      <c r="G16" s="3">
         <v>0.26343427089013</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E16" s="3">
+      <c r="I16" s="3">
         <v>0.19799127425270799</v>
       </c>
-      <c r="F16"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="17" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.27690407826022201</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.15933104133103199</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C17" s="3">
+      <c r="G17" s="3">
         <v>0.27581389409059398</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="I17" s="3">
         <v>0.22041052333945099</v>
       </c>
-      <c r="F17"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="18" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.272260799142376</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.152561540628877</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C18" s="3">
+      <c r="G18" s="3">
         <v>0.27616279359635298</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="E18" s="3">
+      <c r="I18" s="3">
         <v>0.215888733184284</v>
       </c>
-      <c r="F18"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="19" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.27975630828341402</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.20675424571153</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C19" s="3">
+      <c r="G19" s="3">
         <v>0.28145159222506899</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="E19" s="3">
+      <c r="I19" s="3">
         <v>0.208490678399712</v>
       </c>
-      <c r="F19"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="20" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.28444657162565901</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.142717070591207</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C20" s="3">
+      <c r="G20" s="3">
         <v>0.285399579136489</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E20" s="3">
+      <c r="I20" s="3">
         <v>0.20575932016524401</v>
       </c>
-      <c r="F20"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="21" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.29047925747459702</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.150100178216865</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C21" s="3">
+      <c r="G21" s="3">
         <v>0.29195597645553101</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E21" s="3">
+      <c r="I21" s="3">
         <v>0.210433572208748</v>
       </c>
-      <c r="F21"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="22" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.308024171755025</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.10808109217192199</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C22" s="3">
+      <c r="G22" s="3">
         <v>0.30618460002592202</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="I22" s="3">
         <v>0.15578357948829399</v>
       </c>
-      <c r="F22"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="23" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.108840394147435</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.108840394147435</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C23" s="3">
+      <c r="G23" s="3">
         <v>0.17390950563202001</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E23" s="3">
+      <c r="I23" s="3">
         <v>0.172495776833896</v>
       </c>
-      <c r="F23"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="24" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C24" s="3">
+      <c r="G24" s="3">
         <v>0.29173231698386098</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="3">
+      <c r="I24" s="3">
         <v>0.25267256705007002</v>
       </c>
-      <c r="F24"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="25" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C25" s="3">
+      <c r="G25" s="3">
         <v>0.297162058411926</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E25" s="3">
+      <c r="I25" s="3">
         <v>0.21845953443323399</v>
       </c>
-      <c r="F25"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="26" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C26" s="3">
+      <c r="G26" s="3">
         <v>0.29728189279456502</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E26" s="3">
+      <c r="I26" s="3">
         <v>0.259213081526807</v>
       </c>
-      <c r="F26"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="27" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C27" s="3">
+      <c r="G27" s="3">
         <v>0.29713474828841302</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E27" s="3">
+      <c r="I27" s="3">
         <v>0.24451352924931799</v>
       </c>
-      <c r="F27"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="28" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C28" s="3">
+      <c r="G28" s="3">
         <v>0.293279771118024</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E28" s="3">
+      <c r="I28" s="3">
         <v>0.179920551019048</v>
       </c>
-      <c r="F28"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="29" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C29" s="3">
+      <c r="G29" s="3">
         <v>0.28705961361183102</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E29" s="3">
+      <c r="I29" s="3">
         <v>0.19799127425270799</v>
       </c>
-      <c r="F29"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="30" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C30" s="3">
+      <c r="G30" s="3">
         <v>0.280943259675278</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E30" s="3">
+      <c r="I30" s="3">
         <v>0.18646933621244699</v>
       </c>
-      <c r="F30"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="31" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C31" s="3">
+      <c r="G31" s="3">
         <v>0.28043532185089298</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E31" s="3">
+      <c r="I31" s="3">
         <v>0.18307393834538199</v>
       </c>
-      <c r="F31"/>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="32" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C32" s="3">
+      <c r="G32" s="3">
         <v>0.30260834673256098</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E32" s="3">
+      <c r="I32" s="3">
         <v>0.19163609204294799</v>
       </c>
-      <c r="F32"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="33" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C33" s="3">
+      <c r="G33" s="3">
         <v>0.28460344156415901</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E33" s="3">
+      <c r="I33" s="3">
         <v>0.19692089845444</v>
       </c>
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="34" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="3">
         <v>31</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C34" s="3">
+      <c r="G34" s="3">
         <v>0.29988012997018698</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E34" s="3">
+      <c r="I34" s="3">
         <v>0.17751202252360401</v>
       </c>
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="35" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="3">
         <v>32</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C35" s="3">
+      <c r="G35" s="3">
         <v>0.20361951735345599</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E35" s="3">
+      <c r="I35" s="3">
         <v>0.133511316918518</v>
       </c>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="36" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="3">
         <v>33</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C36" s="3">
+      <c r="G36" s="3">
         <v>0.286863918035072</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E36" s="3">
+      <c r="I36" s="3">
         <v>0.19892951211666701</v>
       </c>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="37" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="3">
         <v>34</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C37" s="3">
+      <c r="G37" s="3">
         <v>0.27129509888171099</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E37" s="3">
+      <c r="I37" s="3">
         <v>0.21383987301636301</v>
       </c>
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="38" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="3">
         <v>35</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C38" s="3">
+      <c r="G38" s="3">
         <v>0.27756438685073898</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E38" s="3">
+      <c r="I38" s="3">
         <v>0.17774551863653801</v>
       </c>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="39" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="3">
         <v>36</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C39" s="3">
+      <c r="G39" s="3">
         <v>0.30202947188482898</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E39" s="3">
+      <c r="I39" s="3">
         <v>0.166888915286592</v>
       </c>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="40" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="3">
         <v>37</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C40" s="3">
+      <c r="G40" s="3">
         <v>0.29604313600335103</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E40" s="3">
+      <c r="I40" s="3">
         <v>0.17975341549932</v>
       </c>
-      <c r="F40"/>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="41" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="3">
         <v>38</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C41" s="3">
+      <c r="G41" s="3">
         <v>0.309633281195412</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E41" s="3">
+      <c r="I41" s="3">
         <v>0.165965005027223</v>
       </c>
-      <c r="F41"/>
-    </row>
-    <row r="42" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="42" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="3">
         <v>39</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C42" s="3">
+      <c r="G42" s="3">
         <v>0.30801381203561301</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E42" s="3">
+      <c r="I42" s="3">
         <v>0.16533132901657099</v>
       </c>
-      <c r="F42"/>
-    </row>
-    <row r="43" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="43" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="3">
         <v>40</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C43" s="3">
+      <c r="G43" s="3">
         <v>0.29327156016867301</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E43" s="3">
+      <c r="I43" s="3">
         <v>0.16647957331618601</v>
       </c>
-      <c r="F43"/>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="44" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="3">
         <v>41</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C44" s="3">
+      <c r="G44" s="3">
         <v>0.31012151496618501</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="I44" s="3">
         <v>0.18218289652087399</v>
       </c>
-      <c r="F44"/>
-    </row>
-    <row r="45" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="45" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="3">
         <v>42</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C45" s="3">
+      <c r="G45" s="3">
         <v>0.25997629473605999</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="E45" s="3">
+      <c r="I45" s="3">
         <v>0.15089850077615399</v>
       </c>
-      <c r="F45"/>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="46" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="3">
         <v>43</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C46" s="3">
+      <c r="G46" s="3">
         <v>0.33096043751735998</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E46" s="3">
+      <c r="I46" s="3">
         <v>0.148544852205612</v>
       </c>
-      <c r="F46"/>
-    </row>
-    <row r="47" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="47" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="3">
         <v>44</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C47" s="3">
+      <c r="G47" s="3">
         <v>0.288234093851235</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E47" s="3">
+      <c r="I47" s="3">
         <v>0.13851597814439401</v>
       </c>
-      <c r="F47"/>
-    </row>
-    <row r="48" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="48" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="3">
         <v>45</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C48" s="3">
+      <c r="G48" s="3">
         <v>0.25795967148633703</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E48" s="3">
+      <c r="I48" s="3">
         <v>0.152898354288107</v>
       </c>
-      <c r="F48"/>
-    </row>
-    <row r="49" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="49" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="3">
         <v>46</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C49" s="3">
+      <c r="G49" s="3">
         <v>0.17977939964652501</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E49" s="3">
+      <c r="I49" s="3">
         <v>0.12630520318834601</v>
       </c>
-      <c r="F49"/>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="50" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="3">
         <v>47</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C50" s="3">
+      <c r="G50" s="3">
         <v>0.271324823682556</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E50" s="3">
+      <c r="I50" s="3">
         <v>0.18126508576296299</v>
       </c>
-      <c r="F50"/>
-    </row>
-    <row r="51" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="51" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="3">
         <v>48</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C51" s="3">
+      <c r="G51" s="3">
         <v>0.30150626619218401</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E51" s="3">
+      <c r="I51" s="3">
         <v>0.164303932348423</v>
       </c>
-      <c r="F51"/>
-    </row>
-    <row r="52" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="52" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="3">
         <v>49</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C52" s="3">
+      <c r="G52" s="3">
         <v>0.28352395650877898</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="E52" s="3">
+      <c r="I52" s="3">
         <v>0.179998312556929</v>
       </c>
-      <c r="F52"/>
-    </row>
-    <row r="53" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="53" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="3">
         <v>50</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C53" s="3">
+      <c r="G53" s="3">
         <v>0.29303365094247202</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E53" s="3">
+      <c r="I53" s="3">
         <v>0.17785028723732199</v>
       </c>
-      <c r="F53"/>
-    </row>
-    <row r="54" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="54" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="3">
         <v>51</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C54" s="3">
+      <c r="G54" s="3">
         <v>0.27692058221074101</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E54" s="3">
+      <c r="I54" s="3">
         <v>0.160887555189171</v>
       </c>
-      <c r="F54"/>
-    </row>
-    <row r="55" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="55" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="3">
         <v>52</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C55" s="3">
+      <c r="G55" s="3">
         <v>0.28722860995185101</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="H55" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E55" s="3">
+      <c r="I55" s="3">
         <v>0.182286266492073</v>
       </c>
-      <c r="F55"/>
-    </row>
-    <row r="56" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="56" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="3">
         <v>53</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C56" s="3">
+      <c r="G56" s="3">
         <v>0.29273059486688102</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="H56" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E56" s="3">
+      <c r="I56" s="3">
         <v>0.171473502761333</v>
       </c>
-      <c r="F56"/>
-    </row>
-    <row r="57" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="57" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="3">
         <v>54</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C57" s="3">
+      <c r="G57" s="3">
         <v>0.293418181913075</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="H57" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E57" s="3">
+      <c r="I57" s="3">
         <v>0.15557365408611301</v>
       </c>
-      <c r="F57"/>
-    </row>
-    <row r="58" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="58" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="3">
         <v>55</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C58" s="3">
+      <c r="G58" s="3">
         <v>0.29399979840475499</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E58" s="3">
+      <c r="I58" s="3">
         <v>0.165406067915223</v>
       </c>
-      <c r="F58"/>
-    </row>
-    <row r="59" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="59" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="3">
         <v>56</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C59" s="3">
+      <c r="G59" s="3">
         <v>0.286159001342492</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E59" s="3">
+      <c r="I59" s="3">
         <v>0.169789362636806</v>
       </c>
-      <c r="F59"/>
-    </row>
-    <row r="60" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="60" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="3">
         <v>57</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C60" s="3">
+      <c r="G60" s="3">
         <v>0.28682119803400102</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="E60" s="3">
+      <c r="I60" s="3">
         <v>0.16362118756999999</v>
       </c>
-      <c r="F60"/>
-    </row>
-    <row r="61" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="61" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="3">
         <v>58</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C61" s="3">
+      <c r="G61" s="3">
         <v>0.28963689484247701</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E61" s="3">
+      <c r="I61" s="3">
         <v>0.16402452161078199</v>
       </c>
-      <c r="F61"/>
-    </row>
-    <row r="62" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="62" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="3">
         <v>59</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C62" s="3">
+      <c r="G62" s="3">
         <v>0.29973675805661898</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E62" s="3">
+      <c r="I62" s="3">
         <v>0.18276639459915101</v>
       </c>
-      <c r="F62"/>
-    </row>
-    <row r="63" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="63" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="3">
         <v>60</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C63" s="3">
+      <c r="G63" s="3">
         <v>0.31117816381787</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E63" s="3">
+      <c r="I63" s="3">
         <v>0.17822149175027499</v>
       </c>
-      <c r="F63"/>
-    </row>
-    <row r="64" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="64" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A64" s="3">
         <v>61</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C64" s="3">
+      <c r="G64" s="3">
         <v>0.28604400004892</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="H64" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E64" s="3">
+      <c r="I64" s="3">
         <v>0.173176383626435</v>
       </c>
-      <c r="F64"/>
-    </row>
-    <row r="65" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="65" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="3">
         <v>62</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C65" s="3">
+      <c r="G65" s="3">
         <v>0.29831028697794898</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E65" s="3">
+      <c r="I65" s="3">
         <v>0.29831028697794898</v>
       </c>
-      <c r="F65"/>
-    </row>
-    <row r="66" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="66" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="3">
         <v>63</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C66" s="3">
+      <c r="G66" s="3">
         <v>0.32056219597383401</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="H66" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E66" s="3">
+      <c r="I66" s="3">
         <v>0.174725671964996</v>
       </c>
-      <c r="F66"/>
-    </row>
-    <row r="67" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="67" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" s="3">
         <v>64</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C67" s="3">
+      <c r="G67" s="3">
         <v>0.30782093676119299</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="H67" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="E67" s="3">
+      <c r="I67" s="3">
         <v>0.30782093676119299</v>
       </c>
-      <c r="F67"/>
-    </row>
-    <row r="68" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="68" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" s="3">
         <v>65</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C68" s="3">
+      <c r="G68" s="3">
         <v>0.25502032220364501</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="H68" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E68" s="3">
+      <c r="I68" s="3">
         <v>0.25502032220364501</v>
       </c>
-      <c r="F68"/>
-    </row>
-    <row r="69" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="69" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="3">
         <v>66</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C69" s="3">
+      <c r="G69" s="3">
         <v>0.29368319228044898</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="H69" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="E69" s="3">
+      <c r="I69" s="3">
         <v>0.15542012710537501</v>
       </c>
-      <c r="F69"/>
-    </row>
-    <row r="70" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="70" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="3">
         <v>67</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C70" s="3">
+      <c r="G70" s="3">
         <v>0.30025814195349398</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="H70" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E70" s="3">
+      <c r="I70" s="3">
         <v>0.168129002285137</v>
       </c>
-      <c r="F70"/>
-    </row>
-    <row r="71" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="71" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71" s="3">
         <v>68</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C71" s="3">
+      <c r="G71" s="3">
         <v>0.31463835761523801</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="H71" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E71" s="3">
+      <c r="I71" s="3">
         <v>0.15370432656101901</v>
       </c>
-      <c r="F71"/>
-    </row>
-    <row r="72" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="72" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="3">
         <v>69</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C72" s="3">
+      <c r="G72" s="3">
         <v>0.31811372791008502</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="H72" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="E72" s="3">
+      <c r="I72" s="3">
         <v>0.31811372791008502</v>
       </c>
-      <c r="F72"/>
-    </row>
-    <row r="73" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="73" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A73" s="3">
         <v>70</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C73" s="3">
+      <c r="G73" s="3">
         <v>0.28743888515011101</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="H73" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E73" s="3">
+      <c r="I73" s="3">
         <v>0.17189748768461599</v>
       </c>
-      <c r="F73"/>
-    </row>
-    <row r="74" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="74" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="3">
         <v>71</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C74" s="3">
+      <c r="G74" s="3">
         <v>0.32098513692168701</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="H74" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="E74" s="3">
+      <c r="I74" s="3">
         <v>0.17766787733916301</v>
       </c>
-      <c r="F74"/>
-    </row>
-    <row r="75" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="75" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="3">
         <v>72</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C75" s="3">
+      <c r="G75" s="3">
         <v>0.30482138826764399</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="H75" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E75" s="3">
+      <c r="I75" s="3">
         <v>0.16849053930954699</v>
       </c>
-      <c r="F75"/>
-    </row>
-    <row r="76" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="76" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="3">
         <v>73</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C76" s="3">
+      <c r="G76" s="3">
         <v>0.30433544926777301</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="H76" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E76" s="3">
+      <c r="I76" s="3">
         <v>0.30433544926777301</v>
       </c>
-      <c r="F76"/>
-    </row>
-    <row r="77" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="77" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77" s="3">
         <v>74</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C77" s="3">
+      <c r="G77" s="3">
         <v>0.19867643770163601</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="H77" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="E77" s="3">
+      <c r="I77" s="3">
         <v>0.145153024369437</v>
       </c>
-      <c r="F77"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="78" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="3">
         <v>75</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C78" s="3">
+      <c r="G78" s="3">
         <v>0.20456778573658099</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="H78" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E78" s="3">
+      <c r="I78" s="3">
         <v>0.13181729499158901</v>
       </c>
-      <c r="F78"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="79" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A79" s="3">
         <v>76</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C79" s="3">
+      <c r="G79" s="3">
         <v>0.22606887691182601</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="H79" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E79" s="3">
+      <c r="I79" s="3">
         <v>0.134088290232008</v>
       </c>
-      <c r="F79"/>
-    </row>
-    <row r="80" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="80" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A80" s="3">
         <v>77</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C80" s="3">
+      <c r="G80" s="3">
         <v>0.19796827518444801</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="H80" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E80" s="3">
+      <c r="I80" s="3">
         <v>0.13158842645968399</v>
       </c>
-      <c r="F80"/>
-    </row>
-    <row r="81" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="81" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A81" s="3">
         <v>78</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C81" s="3">
+      <c r="G81" s="3">
         <v>0.219348027955105</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="H81" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E81" s="3">
+      <c r="I81" s="3">
         <v>0.12982475890748099</v>
       </c>
-      <c r="F81"/>
-    </row>
-    <row r="82" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="82" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="3">
         <v>79</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C82" s="3">
+      <c r="G82" s="3">
         <v>0.201963002006078</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="H82" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E82" s="3">
+      <c r="I82" s="3">
         <v>0.13084831038436201</v>
       </c>
-      <c r="F82"/>
-    </row>
-    <row r="83" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="83" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83" s="3">
         <v>80</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C83" s="3">
+      <c r="G83" s="3">
         <v>0.191879325946335</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="H83" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E83" s="3">
+      <c r="I83" s="3">
         <v>0.126342105109224</v>
       </c>
-      <c r="F83"/>
-    </row>
-    <row r="84" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="84" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A84" s="3">
         <v>81</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C84" s="3">
+      <c r="G84" s="3">
         <v>0.180784690885711</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="H84" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E84" s="3">
+      <c r="I84" s="3">
         <v>0.17491246379184899</v>
       </c>
-      <c r="F84"/>
-    </row>
-    <row r="85" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="85" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" s="3">
         <v>82</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C85" s="3">
+      <c r="G85" s="3">
         <v>0.32972805769730201</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="H85" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E85" s="3">
+      <c r="I85" s="3">
         <v>0.362431890912156</v>
       </c>
-      <c r="F85"/>
-    </row>
-    <row r="86" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="86" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86" s="3">
         <v>83</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C86" s="3">
+      <c r="G86" s="3">
         <v>0.24052912954334199</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="H86" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E86" s="3">
+      <c r="I86" s="3">
         <v>0.32968016427026198</v>
       </c>
-      <c r="F86"/>
-    </row>
-    <row r="87" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="87" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87" s="3">
         <v>84</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C87" s="3">
+      <c r="G87" s="3">
         <v>0.32693101822701198</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="H87" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E87" s="3">
+      <c r="I87" s="3">
         <v>0.13861552574361599</v>
       </c>
-      <c r="F87"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="88" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A88" s="3">
         <v>85</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C88" s="3">
+      <c r="G88" s="3">
         <v>0.27976054281807</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="H88" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E88" s="3">
+      <c r="I88" s="3">
         <v>0.159919770280052</v>
       </c>
-      <c r="F88"/>
-    </row>
-    <row r="89" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="89" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89" s="3">
         <v>86</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C89" s="3">
+      <c r="G89" s="3">
         <v>0.31875088170078297</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="H89" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E89" s="3">
+      <c r="I89" s="3">
         <v>0.158887950036076</v>
       </c>
-      <c r="F89"/>
-    </row>
-    <row r="90" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="90" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A90" s="3">
         <v>87</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C90" s="3">
+      <c r="G90" s="3">
         <v>0.28680677219093098</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="H90" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="E90" s="3">
+      <c r="I90" s="3">
         <v>0.16515884730265701</v>
       </c>
-      <c r="F90"/>
-    </row>
-    <row r="91" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="91" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A91" s="3">
         <v>88</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C91" s="3">
+      <c r="G91" s="3">
         <v>0.27729634906204798</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E91" s="3">
+      <c r="I91" s="3">
         <v>0.157838900716539</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A92" s="3">
         <v>89</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C92" s="3">
+      <c r="G92" s="3">
         <v>0.27571991941652102</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="H92" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E92" s="3">
+      <c r="I92" s="3">
         <v>0.133511910120824</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A93" s="3">
         <v>90</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C93" s="3">
+      <c r="G93" s="3">
         <v>0.15762650669672201</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="H93" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="E93" s="3">
+      <c r="I93" s="3">
         <v>0.13889063459433601</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A94" s="3">
         <v>91</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C94" s="3">
+      <c r="G94" s="3">
         <v>0.291557086006341</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="H94" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E94" s="3">
+      <c r="I94" s="3">
         <v>0.15912479890225301</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A95" s="3">
         <v>92</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C95" s="3">
+      <c r="G95" s="3">
         <v>0.168548075896194</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="H95" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E95" s="3">
+      <c r="I95" s="3">
         <v>0.13130988818116399</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A96" s="3">
         <v>93</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C96" s="3">
+      <c r="G96" s="3">
         <v>0.29765448988885601</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="H96" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E96" s="3">
+      <c r="I96" s="3">
         <v>0.188334224066561</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A97" s="3">
         <v>94</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C97" s="3">
+      <c r="G97" s="3">
         <v>0.25366062624679397</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="H97" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E97" s="3">
+      <c r="I97" s="3">
         <v>0.19688283320650299</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A98" s="3">
         <v>95</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C98" s="3">
+      <c r="G98" s="3">
         <v>0.30178709559959199</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="H98" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E98" s="3">
+      <c r="I98" s="3">
         <v>0.26290731487680602</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A99" s="3">
         <v>96</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C99" s="3">
+      <c r="G99" s="3">
         <v>0.29205455324455099</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="H99" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E99" s="3">
+      <c r="I99" s="3">
         <v>0.22951485176797801</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A100" s="3">
         <v>97</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C100" s="3">
+      <c r="G100" s="3">
         <v>0.30394463067115401</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="H100" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="I100" s="3">
         <v>0.238942846574347</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A101" s="3">
         <v>98</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C101" s="3">
+      <c r="G101" s="3">
         <v>0.27760297903630499</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="H101" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E101" s="3">
+      <c r="I101" s="3">
         <v>0.27085250487248103</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A102" s="3">
         <v>99</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C102" s="3">
+      <c r="G102" s="3">
         <v>0.28639989675691402</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="H102" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E102" s="3">
+      <c r="I102" s="3">
         <v>0.27357456032720101</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A103" s="3">
         <v>100</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C103" s="3">
+      <c r="G103" s="3">
         <v>0.28790122716806499</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="H103" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E103" s="3">
+      <c r="I103" s="3">
         <v>0.231882513473192</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A104" s="3">
         <v>101</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C104" s="3">
+      <c r="G104" s="3">
         <v>0.29066670750461099</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="H104" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E104" s="3">
+      <c r="I104" s="3">
         <v>0.22695310221352799</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A105" s="3">
         <v>102</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C105" s="3">
+      <c r="G105" s="3">
         <v>0.28702716719507998</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="H105" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E105" s="3">
+      <c r="I105" s="3">
         <v>0.18218289652087399</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A106" s="3">
         <v>103</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C106" s="3">
+      <c r="G106" s="3">
         <v>0.305751877973302</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="H106" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E106" s="3">
+      <c r="I106" s="3">
         <v>0.17140284881597501</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A107" s="3">
         <v>104</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C107" s="3">
+      <c r="G107" s="3">
         <v>0.28038249060535197</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="H107" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="E107" s="3">
+      <c r="I107" s="3">
         <v>0.16181230694028001</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="108" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3642,8 +4203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E205C6-75C9-4A48-9727-53AED497EF04}">
   <dimension ref="A1:V140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P31" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView tabSelected="1" topLeftCell="H64" workbookViewId="0">
+      <selection activeCell="U77" sqref="U77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3692,21 +4253,21 @@
       <c r="A6" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28" t="s">
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="27"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="26"/>
     </row>
     <row r="7" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
@@ -8125,34 +8686,62 @@
       <c r="D76" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18" t="str">
+      <c r="E76" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F76" s="8">
+        <v>1.3981310767678899E-3</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J76" s="8">
+        <v>0.19419075632399199</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="L76" s="8">
+        <v>3.09958387166261E-2</v>
+      </c>
+      <c r="M76" s="18">
+        <v>3.9493841603515803E-3</v>
+      </c>
+      <c r="N76" s="18">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O76" s="18" t="str">
+        <v>2.3097070395922938E-2</v>
+      </c>
+      <c r="O76" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P76" s="4"/>
+        <v>3.8894607037329262E-2</v>
+      </c>
+      <c r="P76" s="4" t="s">
+        <v>365</v>
+      </c>
       <c r="Q76" s="4" t="s">
         <v>38</v>
       </c>
       <c r="R76" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="S76" s="18"/>
-      <c r="T76" s="18"/>
-      <c r="U76" s="18"/>
-      <c r="V76" s="8"/>
+      <c r="S76" s="18">
+        <v>1.4100757694189601</v>
+      </c>
+      <c r="T76" s="18">
+        <v>1.1783840054101999</v>
+      </c>
+      <c r="U76" s="18">
+        <v>0.15302270007692301</v>
+      </c>
+      <c r="V76" s="8">
+        <v>5.6107871427662902E-2</v>
+      </c>
     </row>
     <row r="77" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
@@ -8211,10 +8800,18 @@
       <c r="R77" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="S77" s="18"/>
-      <c r="T77" s="18"/>
-      <c r="U77" s="18"/>
-      <c r="V77" s="8"/>
+      <c r="S77" s="18">
+        <v>0.85089492338911699</v>
+      </c>
+      <c r="T77" s="18">
+        <v>0.68785648541739397</v>
+      </c>
+      <c r="U77" s="18">
+        <v>9.6000772981684704E-2</v>
+      </c>
+      <c r="V77" s="8">
+        <v>0.72411006082470097</v>
+      </c>
     </row>
     <row r="78" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="4" t="s">
@@ -8273,10 +8870,18 @@
       <c r="R78" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="S78" s="18"/>
-      <c r="T78" s="18"/>
-      <c r="U78" s="18"/>
-      <c r="V78" s="8"/>
+      <c r="S78" s="18">
+        <v>1.4721077077831899</v>
+      </c>
+      <c r="T78" s="18">
+        <v>1.24344730524402</v>
+      </c>
+      <c r="U78" s="18">
+        <v>0.16091106858403201</v>
+      </c>
+      <c r="V78" s="8">
+        <v>6.8608911285415006E-2</v>
+      </c>
     </row>
     <row r="79" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A79" s="4" t="s">
@@ -8361,34 +8966,62 @@
       <c r="D80" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18" t="str">
+      <c r="E80" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="8">
+        <v>1.0258156731939899E-3</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" s="8">
+        <v>0.11965226595197</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="L80" s="8">
+        <v>3.3747767284512502E-2</v>
+      </c>
+      <c r="M80" s="18">
+        <v>9.12679455583249E-3</v>
+      </c>
+      <c r="N80" s="18">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O80" s="18" t="str">
+        <v>1.5494178172847522E-2</v>
+      </c>
+      <c r="O80" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P80" s="4"/>
+        <v>5.2001356396177478E-2</v>
+      </c>
+      <c r="P80" s="4" t="s">
+        <v>364</v>
+      </c>
       <c r="Q80" s="4" t="s">
         <v>38</v>
       </c>
       <c r="R80" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="18"/>
-      <c r="V80" s="8"/>
+      <c r="S80" s="18">
+        <v>1.44632891115799</v>
+      </c>
+      <c r="T80" s="18">
+        <v>1.25971298620669</v>
+      </c>
+      <c r="U80" s="18">
+        <v>0.158408925397971</v>
+      </c>
+      <c r="V80" s="8">
+        <v>-0.13810545501475399</v>
+      </c>
     </row>
     <row r="81" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A81" s="4" t="s">
@@ -8860,21 +9493,21 @@
       <c r="A90" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L90" s="25" t="s">
+      <c r="L90" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="M90" s="26"/>
-      <c r="N90" s="26"/>
-      <c r="O90" s="26"/>
-      <c r="P90" s="27"/>
-      <c r="Q90" s="28" t="s">
+      <c r="M90" s="25"/>
+      <c r="N90" s="25"/>
+      <c r="O90" s="25"/>
+      <c r="P90" s="26"/>
+      <c r="Q90" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="R90" s="29"/>
-      <c r="S90" s="29"/>
-      <c r="T90" s="29"/>
-      <c r="U90" s="29"/>
-      <c r="V90" s="27"/>
+      <c r="R90" s="28"/>
+      <c r="S90" s="28"/>
+      <c r="T90" s="28"/>
+      <c r="U90" s="28"/>
+      <c r="V90" s="26"/>
     </row>
     <row r="91" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A91" s="4" t="s">
@@ -10909,40 +11542,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -11063,22 +11696,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -11198,40 +11831,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -11399,22 +12032,22 @@
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -11581,40 +12214,40 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -11970,22 +12603,22 @@
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30" t="s">
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -12340,40 +12973,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="33"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="31"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30" t="s">
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -12987,22 +13620,22 @@
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30" t="s">
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -13615,40 +14248,40 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="33"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="31"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30" t="s">
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="32"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -15126,22 +15759,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="30"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="30" t="s">
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="32"/>
+      <c r="H137" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="30"/>
-      <c r="J137" s="30"/>
-      <c r="K137" s="30"/>
-      <c r="L137" s="30"/>
-      <c r="M137" s="30"/>
+      <c r="I137" s="32"/>
+      <c r="J137" s="32"/>
+      <c r="K137" s="32"/>
+      <c r="L137" s="32"/>
+      <c r="M137" s="32"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -16619,15 +17252,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A42:M42"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="A23:M23"/>
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="H74:M74"/>
     <mergeCell ref="B137:G137"/>
@@ -16644,6 +17268,15 @@
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="A10:M10"/>
     <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A42:M42"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="A23:M23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16669,40 +17302,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -16823,22 +17456,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -16958,40 +17591,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -17159,22 +17792,22 @@
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -17341,40 +17974,40 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -17610,22 +18243,22 @@
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30" t="s">
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -17860,40 +18493,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="33"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="31"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30" t="s">
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -18267,22 +18900,22 @@
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30" t="s">
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -18655,40 +19288,40 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="33"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="31"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30" t="s">
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="32"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -20166,22 +20799,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="30"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="30" t="s">
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="32"/>
+      <c r="H137" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="30"/>
-      <c r="J137" s="30"/>
-      <c r="K137" s="30"/>
-      <c r="L137" s="30"/>
-      <c r="M137" s="30"/>
+      <c r="I137" s="32"/>
+      <c r="J137" s="32"/>
+      <c r="K137" s="32"/>
+      <c r="L137" s="32"/>
+      <c r="M137" s="32"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -21659,12 +22292,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:M137"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="B11:G11"/>
@@ -21679,11 +22311,12 @@
     <mergeCell ref="A42:M42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:M43"/>
-    <mergeCell ref="A73:M73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:M74"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:M137"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21708,40 +22341,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -21862,22 +22495,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -21997,40 +22630,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -22198,22 +22831,22 @@
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -22380,40 +23013,40 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -22649,22 +23282,22 @@
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30" t="s">
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -22899,40 +23532,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="33"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="31"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30" t="s">
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -23306,22 +23939,22 @@
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30" t="s">
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -23694,40 +24327,40 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="33"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="31"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30" t="s">
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="32"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -25205,22 +25838,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="30"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="30" t="s">
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="32"/>
+      <c r="H137" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="30"/>
-      <c r="J137" s="30"/>
-      <c r="K137" s="30"/>
-      <c r="L137" s="30"/>
-      <c r="M137" s="30"/>
+      <c r="I137" s="32"/>
+      <c r="J137" s="32"/>
+      <c r="K137" s="32"/>
+      <c r="L137" s="32"/>
+      <c r="M137" s="32"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -26698,12 +27331,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:M137"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="B11:G11"/>
@@ -26718,11 +27350,12 @@
     <mergeCell ref="A42:M42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:M43"/>
-    <mergeCell ref="A73:M73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:M74"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:M137"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26747,40 +27380,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -26901,22 +27534,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -27036,40 +27669,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -27237,22 +27870,22 @@
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -27419,40 +28052,40 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -27688,22 +28321,22 @@
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30" t="s">
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -27938,40 +28571,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="33"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="31"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30" t="s">
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -28345,22 +28978,22 @@
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30" t="s">
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -28733,40 +29366,40 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="33"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="31"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30" t="s">
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="32"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -30244,22 +30877,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="30"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="30" t="s">
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="32"/>
+      <c r="H137" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="30"/>
-      <c r="J137" s="30"/>
-      <c r="K137" s="30"/>
-      <c r="L137" s="30"/>
-      <c r="M137" s="30"/>
+      <c r="I137" s="32"/>
+      <c r="J137" s="32"/>
+      <c r="K137" s="32"/>
+      <c r="L137" s="32"/>
+      <c r="M137" s="32"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -31737,12 +32370,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:M137"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="B11:G11"/>
@@ -31757,11 +32389,12 @@
     <mergeCell ref="A42:M42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:M43"/>
-    <mergeCell ref="A73:M73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:M74"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:M137"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31788,42 +32421,42 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="34" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="34" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="34" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="34" t="s">
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="36"/>
-      <c r="AA2" s="34" t="s">
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="37"/>
+      <c r="AA2" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="37"/>
     </row>
     <row r="3" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
@@ -31918,16 +32551,16 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="33">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -32014,10 +32647,10 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
@@ -32102,10 +32735,10 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
@@ -32194,41 +32827,41 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="34" t="s">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="34" t="s">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="34" t="s">
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="34" t="s">
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="36"/>
-      <c r="AA7" s="37" t="s">
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="37"/>
+      <c r="AA7" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
       <c r="AD7" s="13">
         <f>AVERAGE(I73, M73, Q73, U73, Y73)</f>
         <v>1.5016363636363637</v>
@@ -32572,36 +33205,36 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="34" t="s">
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="34" t="s">
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="34" t="s">
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="34" t="s">
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="37"/>
     </row>
     <row r="14" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E14" s="3" t="s">
@@ -32941,36 +33574,36 @@
       </c>
     </row>
     <row r="19" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="34" t="s">
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="34" t="s">
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="34" t="s">
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="34" t="s">
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="37"/>
     </row>
     <row r="20" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E20" s="3" t="s">
@@ -33310,36 +33943,36 @@
       </c>
     </row>
     <row r="25" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="34" t="s">
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="34" t="s">
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="34" t="s">
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="34" t="s">
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="37"/>
     </row>
     <row r="26" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E26" s="3" t="s">
@@ -33681,36 +34314,36 @@
       </c>
     </row>
     <row r="31" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="34" t="s">
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="34" t="s">
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="34" t="s">
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="34" t="s">
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="37"/>
     </row>
     <row r="32" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E32" s="3" t="s">
@@ -34050,36 +34683,36 @@
       </c>
     </row>
     <row r="37" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F37" s="34" t="s">
+      <c r="F37" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="34" t="s">
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="34" t="s">
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="34" t="s">
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="34" t="s">
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="37"/>
     </row>
     <row r="38" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E38" s="3" t="s">
@@ -34419,36 +35052,36 @@
       </c>
     </row>
     <row r="43" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F43" s="34" t="s">
+      <c r="F43" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="34" t="s">
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="34" t="s">
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="34" t="s">
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="36"/>
-      <c r="V43" s="34" t="s">
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="W43" s="35"/>
-      <c r="X43" s="35"/>
-      <c r="Y43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="37"/>
     </row>
     <row r="44" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E44" s="3" t="s">
@@ -34788,36 +35421,36 @@
       </c>
     </row>
     <row r="49" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F49" s="34" t="s">
+      <c r="F49" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="34" t="s">
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="34" t="s">
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="34" t="s">
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="34" t="s">
+      <c r="S49" s="36"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="W49" s="35"/>
-      <c r="X49" s="35"/>
-      <c r="Y49" s="36"/>
+      <c r="W49" s="36"/>
+      <c r="X49" s="36"/>
+      <c r="Y49" s="37"/>
     </row>
     <row r="50" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E50" s="3" t="s">
@@ -35157,36 +35790,36 @@
       </c>
     </row>
     <row r="55" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F55" s="34" t="s">
+      <c r="F55" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="34" t="s">
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="34" t="s">
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="34" t="s">
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="34" t="s">
+      <c r="S55" s="36"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="W55" s="35"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="36"/>
+      <c r="W55" s="36"/>
+      <c r="X55" s="36"/>
+      <c r="Y55" s="37"/>
     </row>
     <row r="56" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E56" s="3" t="s">
@@ -35526,36 +36159,36 @@
       </c>
     </row>
     <row r="61" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F61" s="34" t="s">
+      <c r="F61" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="34" t="s">
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="34" t="s">
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="34" t="s">
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="36"/>
-      <c r="V61" s="34" t="s">
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="W61" s="35"/>
-      <c r="X61" s="35"/>
-      <c r="Y61" s="36"/>
+      <c r="W61" s="36"/>
+      <c r="X61" s="36"/>
+      <c r="Y61" s="37"/>
     </row>
     <row r="62" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E62" s="3" t="s">
@@ -35895,36 +36528,36 @@
       </c>
     </row>
     <row r="67" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F67" s="34" t="s">
+      <c r="F67" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="34" t="s">
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="34" t="s">
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="36"/>
-      <c r="R67" s="34" t="s">
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="S67" s="35"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="36"/>
-      <c r="V67" s="34" t="s">
+      <c r="S67" s="36"/>
+      <c r="T67" s="36"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="35"/>
-      <c r="X67" s="35"/>
-      <c r="Y67" s="36"/>
+      <c r="W67" s="36"/>
+      <c r="X67" s="36"/>
+      <c r="Y67" s="37"/>
     </row>
     <row r="68" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E68" s="3" t="s">
@@ -36344,11 +36977,51 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="V55:Y55"/>
+    <mergeCell ref="V61:Y61"/>
+    <mergeCell ref="V67:Y67"/>
+    <mergeCell ref="R43:U43"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="R61:U61"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F43:I43"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
@@ -36365,51 +37038,11 @@
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="R25:U25"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="V55:Y55"/>
-    <mergeCell ref="V61:Y61"/>
-    <mergeCell ref="V67:Y67"/>
-    <mergeCell ref="R43:U43"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="R61:U61"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673E34D9-EBB2-416C-B7EE-247A30746B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5FE873-FFE0-4EC6-9DA6-5592199E8630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
   <sheets>
     <sheet name="SARIMAX" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3495" uniqueCount="388">
   <si>
     <t>Results</t>
   </si>
@@ -1155,9 +1155,21 @@
     <t>(9, 0, 1)</t>
   </si>
   <si>
+    <t>(4, 0, 1)</t>
+  </si>
+  <si>
+    <t>(7, 0, 2)</t>
+  </si>
+  <si>
+    <t>(6, 0, 1)</t>
+  </si>
+  <si>
     <t>(2, 0, 1)</t>
   </si>
   <si>
+    <t>(3, 0, 1)</t>
+  </si>
+  <si>
     <t>(12, 0, 1)</t>
   </si>
   <si>
@@ -1165,6 +1177,24 @@
   </si>
   <si>
     <t>(0, 0, 7)</t>
+  </si>
+  <si>
+    <t>(0, 0, 0)</t>
+  </si>
+  <si>
+    <t>(10, 0, 1)</t>
+  </si>
+  <si>
+    <t>(10, 0, 2)</t>
+  </si>
+  <si>
+    <t>(11, 0, 2)</t>
+  </si>
+  <si>
+    <t>(2, 0, 3)</t>
+  </si>
+  <si>
+    <t>(3, 0, 4)</t>
   </si>
 </sst>
 </file>
@@ -1756,10 +1786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F029C1F8-AD11-4A7F-989C-BC369991F6F8}">
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2001,7 +2031,7 @@
         <v>0.28288841643648499</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E9" s="3">
         <v>0.17832530733816401</v>
@@ -2291,7 +2321,7 @@
         <v>0.27975630828341402</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E19" s="3">
         <v>0.20675424571153</v>
@@ -2378,7 +2408,7 @@
         <v>0.308024171755025</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E22" s="3">
         <v>0.10808109217192199</v>
@@ -2401,13 +2431,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C23" s="3">
         <v>0.108840394147435</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E23" s="3">
         <v>0.108840394147435</v>
@@ -2429,10 +2459,18 @@
       <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.17432719204261801</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.190728281031812</v>
+      </c>
       <c r="F24" s="3" t="s">
         <v>284</v>
       </c>
@@ -2450,10 +2488,18 @@
       <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.18046760947672</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.15994650195108401</v>
+      </c>
       <c r="F25" s="3" t="s">
         <v>284</v>
       </c>
@@ -2471,10 +2517,18 @@
       <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.18163907803535401</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.19811796070402099</v>
+      </c>
       <c r="F26" s="3" t="s">
         <v>314</v>
       </c>
@@ -2492,10 +2546,18 @@
       <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.29327215833370501</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.190728281031812</v>
+      </c>
       <c r="F27" s="3" t="s">
         <v>283</v>
       </c>
@@ -2513,10 +2575,18 @@
       <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.17607986532658601</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.102763155453754</v>
+      </c>
       <c r="F28" s="3" t="s">
         <v>284</v>
       </c>
@@ -2534,10 +2604,18 @@
       <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.28053606369296802</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.194637672340329</v>
+      </c>
       <c r="F29" s="3" t="s">
         <v>316</v>
       </c>
@@ -2555,10 +2633,18 @@
       <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.161231575825421</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.11812041940369999</v>
+      </c>
       <c r="F30" s="3" t="s">
         <v>283</v>
       </c>
@@ -2576,10 +2662,18 @@
       <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.16065176757857699</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.11136132355128101</v>
+      </c>
       <c r="F31" s="3" t="s">
         <v>283</v>
       </c>
@@ -2597,10 +2691,18 @@
       <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.30133541432041699</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.131030649192032</v>
+      </c>
       <c r="F32" s="3" t="s">
         <v>283</v>
       </c>
@@ -2618,10 +2720,18 @@
       <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.28261925951884997</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.132875551514156</v>
+      </c>
       <c r="F33" s="3" t="s">
         <v>303</v>
       </c>
@@ -2639,10 +2749,18 @@
       <c r="A34" s="3">
         <v>31</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.29814506804572899</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.10706157262288001</v>
+      </c>
       <c r="F34" s="3" t="s">
         <v>303</v>
       </c>
@@ -2660,10 +2778,18 @@
       <c r="A35" s="3">
         <v>32</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.19831893013207599</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3.69948129331997E-2</v>
+      </c>
       <c r="F35" s="3" t="s">
         <v>283</v>
       </c>
@@ -2681,10 +2807,18 @@
       <c r="A36" s="3">
         <v>33</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.29185248360223998</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.12549676641600799</v>
+      </c>
       <c r="F36" s="3" t="s">
         <v>305</v>
       </c>
@@ -2702,10 +2836,18 @@
       <c r="A37" s="3">
         <v>34</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.152268844469751</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.15317690500046499</v>
+      </c>
       <c r="F37" s="3" t="s">
         <v>290</v>
       </c>
@@ -2723,10 +2865,18 @@
       <c r="A38" s="3">
         <v>35</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.16239180046511301</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.17352710570549401</v>
+      </c>
       <c r="F38" s="3" t="s">
         <v>310</v>
       </c>
@@ -2744,10 +2894,18 @@
       <c r="A39" s="3">
         <v>36</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.18017483256959299</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E39" s="3">
+        <v>9.1717519102990905E-2</v>
+      </c>
       <c r="F39" s="3" t="s">
         <v>316</v>
       </c>
@@ -2765,10 +2923,18 @@
       <c r="A40" s="3">
         <v>37</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.17929672123535001</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.11136132355128101</v>
+      </c>
       <c r="F40" s="3" t="s">
         <v>281</v>
       </c>
@@ -2786,10 +2952,18 @@
       <c r="A41" s="3">
         <v>38</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.19161848565811901</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.16234736187114701</v>
+      </c>
       <c r="F41" s="3" t="s">
         <v>311</v>
       </c>
@@ -2807,10 +2981,18 @@
       <c r="A42" s="3">
         <v>39</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.19220665682798099</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.16444757354012801</v>
+      </c>
       <c r="F42" s="3" t="s">
         <v>321</v>
       </c>
@@ -2828,10 +3010,18 @@
       <c r="A43" s="3">
         <v>40</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.18926702420281</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.161931092756887</v>
+      </c>
       <c r="F43" s="3" t="s">
         <v>279</v>
       </c>
@@ -2849,10 +3039,18 @@
       <c r="A44" s="3">
         <v>41</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.20015828875878999</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.11013269629604</v>
+      </c>
       <c r="F44" s="3" t="s">
         <v>306</v>
       </c>
@@ -2870,10 +3068,18 @@
       <c r="A45" s="3">
         <v>42</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.25924286148030801</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4.2949970963724202E-2</v>
+      </c>
       <c r="F45" s="3" t="s">
         <v>303</v>
       </c>
@@ -2891,10 +3097,18 @@
       <c r="A46" s="3">
         <v>43</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.33032779273699298</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.142999083266907</v>
+      </c>
       <c r="F46" s="3" t="s">
         <v>303</v>
       </c>
@@ -2912,10 +3126,18 @@
       <c r="A47" s="3">
         <v>44</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
+      <c r="B47" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.28653998104837197</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.13346291617245301</v>
+      </c>
       <c r="F47" s="3" t="s">
         <v>297</v>
       </c>
@@ -2933,10 +3155,18 @@
       <c r="A48" s="3">
         <v>45</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.25726844802600402</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4.8538270096569303E-2</v>
+      </c>
       <c r="F48" s="3" t="s">
         <v>322</v>
       </c>
@@ -2954,10 +3184,18 @@
       <c r="A49" s="3">
         <v>46</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C49" s="3">
+        <v>5.1051086458429797E-2</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2.0965219838255202E-2</v>
+      </c>
       <c r="F49" s="3" t="s">
         <v>290</v>
       </c>
@@ -2975,10 +3213,18 @@
       <c r="A50" s="3">
         <v>47</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="B50" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.27429604050601802</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.180101731138371</v>
+      </c>
       <c r="F50" s="3" t="s">
         <v>317</v>
       </c>
@@ -2996,10 +3242,18 @@
       <c r="A51" s="3">
         <v>48</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="B51" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.19073645649030699</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E51" s="3">
+        <v>7.4565984235522395E-2</v>
+      </c>
       <c r="F51" s="3" t="s">
         <v>306</v>
       </c>
@@ -3017,10 +3271,18 @@
       <c r="A52" s="3">
         <v>49</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.28683625731767998</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.106447427599522</v>
+      </c>
       <c r="F52" s="3" t="s">
         <v>310</v>
       </c>
@@ -3038,10 +3300,18 @@
       <c r="A53" s="3">
         <v>50</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="B53" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.29565191611679498</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.107675744822903</v>
+      </c>
       <c r="F53" s="3" t="s">
         <v>326</v>
       </c>
@@ -3059,10 +3329,18 @@
       <c r="A54" s="3">
         <v>51</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.288944915404797</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8.2523434994587405E-2</v>
+      </c>
       <c r="F54" s="3" t="s">
         <v>279</v>
       </c>
@@ -3080,10 +3358,18 @@
       <c r="A55" s="3">
         <v>52</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.29026537940048802</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.170966541183387</v>
+      </c>
       <c r="F55" s="3" t="s">
         <v>317</v>
       </c>
@@ -3101,10 +3387,18 @@
       <c r="A56" s="3">
         <v>53</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.29126927316011197</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E56" s="3">
+        <v>9.8466246714686706E-2</v>
+      </c>
       <c r="F56" s="3" t="s">
         <v>293</v>
       </c>
@@ -3122,10 +3416,18 @@
       <c r="A57" s="3">
         <v>54</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.17900409118421001</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7.3954385637604397E-2</v>
+      </c>
       <c r="F57" s="3" t="s">
         <v>328</v>
       </c>
@@ -3143,10 +3445,18 @@
       <c r="A58" s="3">
         <v>55</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.17082623609799799</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E58" s="3">
+        <v>7.7625145836917306E-2</v>
+      </c>
       <c r="F58" s="3" t="s">
         <v>316</v>
       </c>
@@ -3164,10 +3474,18 @@
       <c r="A59" s="3">
         <v>56</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="B59" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.16471462234117301</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E59" s="3">
+        <v>9.6011625489305599E-2</v>
+      </c>
       <c r="F59" s="3" t="s">
         <v>311</v>
       </c>
@@ -3185,10 +3503,18 @@
       <c r="A60" s="3">
         <v>57</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+      <c r="B60" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.16995194480338399</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8.7425535335239807E-2</v>
+      </c>
       <c r="F60" s="3" t="s">
         <v>282</v>
       </c>
@@ -3206,10 +3532,18 @@
       <c r="A61" s="3">
         <v>58</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.28868105673132499</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E61" s="3">
+        <v>8.8038534149620207E-2</v>
+      </c>
       <c r="F61" s="3" t="s">
         <v>283</v>
       </c>
@@ -3227,10 +3561,18 @@
       <c r="A62" s="3">
         <v>59</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+      <c r="B62" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.182518053565838</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0.11320444458250201</v>
+      </c>
       <c r="F62" s="3" t="s">
         <v>283</v>
       </c>
@@ -3248,10 +3590,18 @@
       <c r="A63" s="3">
         <v>60</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
+      <c r="B63" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.19073645649030699</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.10706157262288001</v>
+      </c>
       <c r="F63" s="3" t="s">
         <v>316</v>
       </c>
@@ -3269,10 +3619,18 @@
       <c r="A64" s="3">
         <v>61</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="B64" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.28499538133332603</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0.100921427195207</v>
+      </c>
       <c r="F64" s="3" t="s">
         <v>283</v>
       </c>
@@ -3290,10 +3648,18 @@
       <c r="A65" s="3">
         <v>62</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
+      <c r="B65" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.29556629196442202</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E65" s="3">
+        <v>6.7232737970754006E-2</v>
+      </c>
       <c r="F65" s="3" t="s">
         <v>284</v>
       </c>
@@ -3311,10 +3677,18 @@
       <c r="A66" s="3">
         <v>63</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
+      <c r="B66" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.32030495122400598</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0.10214921455478899</v>
+      </c>
       <c r="F66" s="3" t="s">
         <v>283</v>
       </c>
@@ -3332,10 +3706,18 @@
       <c r="A67" s="3">
         <v>64</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
+      <c r="B67" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.30420249049783898</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0.16151610414169801</v>
+      </c>
       <c r="F67" s="3" t="s">
         <v>311</v>
       </c>
@@ -3353,10 +3735,18 @@
       <c r="A68" s="3">
         <v>65</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
+      <c r="B68" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.136802099354665</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0.154667078717076</v>
+      </c>
       <c r="F68" s="3" t="s">
         <v>283</v>
       </c>
@@ -3374,10 +3764,18 @@
       <c r="A69" s="3">
         <v>66</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
+      <c r="B69" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.28957138388464099</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0.15042029304038301</v>
+      </c>
       <c r="F69" s="3" t="s">
         <v>332</v>
       </c>
@@ -3395,10 +3793,18 @@
       <c r="A70" s="3">
         <v>67</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
+      <c r="B70" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.29956127713276998</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0.16402504788716099</v>
+      </c>
       <c r="F70" s="3" t="s">
         <v>283</v>
       </c>
@@ -3416,10 +3822,18 @@
       <c r="A71" s="3">
         <v>68</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.30960739484855698</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0.150085172483885</v>
+      </c>
       <c r="F71" s="3" t="s">
         <v>303</v>
       </c>
@@ -3437,10 +3851,18 @@
       <c r="A72" s="3">
         <v>69</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
+      <c r="B72" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.31379946816495202</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0.171368029361852</v>
+      </c>
       <c r="F72" s="3" t="s">
         <v>316</v>
       </c>
@@ -3458,10 +3880,18 @@
       <c r="A73" s="3">
         <v>70</v>
       </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
+      <c r="B73" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.29052970483554402</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0.16743896448048501</v>
+      </c>
       <c r="F73" s="3" t="s">
         <v>331</v>
       </c>
@@ -3479,10 +3909,18 @@
       <c r="A74" s="3">
         <v>71</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
+      <c r="B74" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.32112050765182598</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0.10706157262288001</v>
+      </c>
       <c r="F74" s="3" t="s">
         <v>287</v>
       </c>
@@ -3500,10 +3938,18 @@
       <c r="A75" s="3">
         <v>72</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
+      <c r="B75" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.30223342720220597</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0.16276490165989799</v>
+      </c>
       <c r="F75" s="3" t="s">
         <v>309</v>
       </c>
@@ -3521,10 +3967,18 @@
       <c r="A76" s="3">
         <v>73</v>
       </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
+      <c r="B76" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.30330421391512902</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8.9877819841262904E-2</v>
+      </c>
       <c r="F76" s="3" t="s">
         <v>329</v>
       </c>
@@ -3542,10 +3996,18 @@
       <c r="A77" s="3">
         <v>74</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
+      <c r="B77" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.202339525338221</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E77" s="3">
+        <v>9.8114815437488706E-2</v>
+      </c>
       <c r="F77" s="3" t="s">
         <v>300</v>
       </c>
@@ -3563,10 +4025,18 @@
       <c r="A78" s="3">
         <v>75</v>
       </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
+      <c r="B78" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.217026208988571</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0.128922260024219</v>
+      </c>
       <c r="F78" s="3" t="s">
         <v>279</v>
       </c>
@@ -3584,10 +4054,18 @@
       <c r="A79" s="3">
         <v>76</v>
       </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
+      <c r="B79" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0.22074623543324901</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E79" s="3">
+        <v>3.6361552891530403E-2</v>
+      </c>
       <c r="F79" s="3" t="s">
         <v>298</v>
       </c>
@@ -3605,10 +4083,18 @@
       <c r="A80" s="3">
         <v>77</v>
       </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
+      <c r="B80" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.19345513828813399</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E80" s="3">
+        <v>2.7529085900907101E-2</v>
+      </c>
       <c r="F80" s="3" t="s">
         <v>283</v>
       </c>
@@ -3626,10 +4112,18 @@
       <c r="A81" s="3">
         <v>78</v>
       </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
+      <c r="B81" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.21187892477578499</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0.12716327501782401</v>
+      </c>
       <c r="F81" s="3" t="s">
         <v>311</v>
       </c>
@@ -3647,10 +4141,18 @@
       <c r="A82" s="3">
         <v>79</v>
       </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
+      <c r="B82" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0.20023253285561199</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E82" s="3">
+        <v>2.35168120313121E-2</v>
+      </c>
       <c r="F82" s="3" t="s">
         <v>335</v>
       </c>
@@ -3668,10 +4170,18 @@
       <c r="A83" s="3">
         <v>80</v>
       </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
+      <c r="B83" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.15805473172614201</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1.6649560158847099E-2</v>
+      </c>
       <c r="F83" s="3" t="s">
         <v>290</v>
       </c>
@@ -3689,10 +4199,18 @@
       <c r="A84" s="3">
         <v>81</v>
       </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
+      <c r="B84" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.209686868731738</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E84" s="3">
+        <v>9.6011625489305599E-2</v>
+      </c>
       <c r="F84" s="3" t="s">
         <v>290</v>
       </c>
@@ -3710,10 +4228,18 @@
       <c r="A85" s="3">
         <v>82</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
+      <c r="B85" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0.21345306679315099</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0.35960127487959898</v>
+      </c>
       <c r="F85" s="3" t="s">
         <v>320</v>
       </c>
@@ -3731,10 +4257,18 @@
       <c r="A86" s="3">
         <v>83</v>
       </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
+      <c r="B86" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.24074725325680499</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0.32798722224916999</v>
+      </c>
       <c r="F86" s="3" t="s">
         <v>281</v>
       </c>
@@ -3752,10 +4286,18 @@
       <c r="A87" s="3">
         <v>84</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
+      <c r="B87" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.21315711229294301</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E87" s="3">
+        <v>9.2131367433735303E-2</v>
+      </c>
       <c r="F87" s="3" t="s">
         <v>321</v>
       </c>
@@ -3773,10 +4315,18 @@
       <c r="A88" s="3">
         <v>85</v>
       </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
+      <c r="B88" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.28473272376902697</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E88" s="3">
+        <v>8.0686092644510807E-2</v>
+      </c>
       <c r="F88" s="3" t="s">
         <v>306</v>
       </c>
@@ -3794,10 +4344,18 @@
       <c r="A89" s="3">
         <v>86</v>
       </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
+      <c r="B89" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.20163301168539</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E89" s="3">
+        <v>8.0073770291673896E-2</v>
+      </c>
       <c r="F89" s="3" t="s">
         <v>309</v>
       </c>
@@ -3815,10 +4373,18 @@
       <c r="A90" s="3">
         <v>87</v>
       </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
+      <c r="B90" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.29876099431386</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E90" s="3">
+        <v>9.1717519102990905E-2</v>
+      </c>
       <c r="F90" s="3" t="s">
         <v>279</v>
       </c>
@@ -3836,10 +4402,18 @@
       <c r="A91" s="3">
         <v>88</v>
       </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
+      <c r="B91" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0.27067699383243599</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0.155444510995527</v>
+      </c>
       <c r="F91" s="3" t="s">
         <v>316</v>
       </c>
@@ -3857,10 +4431,18 @@
       <c r="A92" s="3">
         <v>89</v>
       </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
+      <c r="B92" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0.26864669531677698</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0.12954924218293001</v>
+      </c>
       <c r="F92" s="3" t="s">
         <v>311</v>
       </c>
@@ -3878,10 +4460,18 @@
       <c r="A93" s="3">
         <v>90</v>
       </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
+      <c r="B93" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0.16038118886185501</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E93" s="3">
+        <v>3.04458459849971E-2</v>
+      </c>
       <c r="F93" s="3" t="s">
         <v>317</v>
       </c>
@@ -3899,10 +4489,18 @@
       <c r="A94" s="3">
         <v>91</v>
       </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
+      <c r="B94" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.28711986520835903</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0.15427690024146601</v>
+      </c>
       <c r="F94" s="3" t="s">
         <v>303</v>
       </c>
@@ -3920,10 +4518,18 @@
       <c r="A95" s="3">
         <v>92</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
+      <c r="B95" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.16196329499179701</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E95" s="3">
+        <v>2.35168120313121E-2</v>
+      </c>
       <c r="F95" s="3" t="s">
         <v>283</v>
       </c>
@@ -3941,10 +4547,18 @@
       <c r="A96" s="3">
         <v>93</v>
       </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
+      <c r="B96" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C96" s="3">
+        <v>2.35168120313121E-2</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0.121808260462587</v>
+      </c>
       <c r="F96" s="3" t="s">
         <v>283</v>
       </c>
@@ -3962,10 +4576,18 @@
       <c r="A97" s="3">
         <v>94</v>
       </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
+      <c r="B97" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.13452960273029199</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0.12980078809384801</v>
+      </c>
       <c r="F97" s="3" t="s">
         <v>328</v>
       </c>
@@ -3983,10 +4605,18 @@
       <c r="A98" s="3">
         <v>95</v>
       </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
+      <c r="B98" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.18046760947672</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0.209203619254794</v>
+      </c>
       <c r="F98" s="3" t="s">
         <v>280</v>
       </c>
@@ -4004,10 +4634,18 @@
       <c r="A99" s="3">
         <v>96</v>
       </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
+      <c r="B99" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0.17432719204261801</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0.18703369600681799</v>
+      </c>
       <c r="F99" s="3" t="s">
         <v>344</v>
       </c>
@@ -4025,10 +4663,18 @@
       <c r="A100" s="3">
         <v>97</v>
       </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
+      <c r="B100" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0.18779837799436699</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0.18149216616092501</v>
+      </c>
       <c r="F100" s="3" t="s">
         <v>343</v>
       </c>
@@ -4046,10 +4692,18 @@
       <c r="A101" s="3">
         <v>98</v>
       </c>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
+      <c r="B101" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.277162920160759</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0.16363943360559499</v>
+      </c>
       <c r="F101" s="3" t="s">
         <v>298</v>
       </c>
@@ -4067,10 +4721,18 @@
       <c r="A102" s="3">
         <v>99</v>
       </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
+      <c r="B102" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0.16704049768506499</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0.22398630783362899</v>
+      </c>
       <c r="F102" s="3" t="s">
         <v>303</v>
       </c>
@@ -4088,10 +4750,18 @@
       <c r="A103" s="3">
         <v>100</v>
       </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
+      <c r="B103" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0.17228424063012299</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0.16917933945432001</v>
+      </c>
       <c r="F103" s="3" t="s">
         <v>289</v>
       </c>
@@ -4109,10 +4779,18 @@
       <c r="A104" s="3">
         <v>101</v>
       </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
+      <c r="B104" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0.17228424063012299</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0.16917933945432001</v>
+      </c>
       <c r="F104" s="3" t="s">
         <v>283</v>
       </c>
@@ -4130,10 +4808,18 @@
       <c r="A105" s="3">
         <v>102</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
+      <c r="B105" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0.28394524311261199</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0.11013269629604</v>
+      </c>
       <c r="F105" s="3" t="s">
         <v>309</v>
       </c>
@@ -4151,10 +4837,18 @@
       <c r="A106" s="3">
         <v>103</v>
       </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
+      <c r="B106" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0.18926702420281</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E106" s="3">
+        <v>9.4784538175443606E-2</v>
+      </c>
       <c r="F106" s="3" t="s">
         <v>283</v>
       </c>
@@ -4172,10 +4866,18 @@
       <c r="A107" s="3">
         <v>104</v>
       </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
+      <c r="B107" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C107" s="3">
+        <v>0.29238212862785501</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E107" s="3">
+        <v>8.6812586431038202E-2</v>
+      </c>
       <c r="F107" s="3" t="s">
         <v>279</v>
       </c>
@@ -4189,7 +4891,37 @@
         <v>0.16181230694028001</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="108" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B108" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C108" s="3">
+        <f>AVERAGE(C3:C107)</f>
+        <v>0.22539306520228725</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E108" s="3">
+        <f>AVERAGE(E3:E107)</f>
+        <v>0.13325298401182795</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G108" s="3">
+        <f>AVERAGE(G3:G107)</f>
+        <v>0.27903239393887908</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I108" s="3">
+        <f>AVERAGE(I3:I107)</f>
+        <v>0.19375988535509206</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:E1"/>
@@ -4203,7 +4935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E205C6-75C9-4A48-9727-53AED497EF04}">
   <dimension ref="A1:V140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H64" workbookViewId="0">
+    <sheetView topLeftCell="H64" workbookViewId="0">
       <selection activeCell="U77" sqref="U77"/>
     </sheetView>
   </sheetViews>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5FE873-FFE0-4EC6-9DA6-5592199E8630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF9F558-0FCA-4D79-9E27-74A4558F468B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
   <sheets>
     <sheet name="SARIMAX" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3495" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3515" uniqueCount="391">
   <si>
     <t>Results</t>
   </si>
@@ -1195,16 +1195,26 @@
   </si>
   <si>
     <t>(3, 0, 4)</t>
+  </si>
+  <si>
+    <t>Standard Deviation RMSE</t>
+  </si>
+  <si>
+    <t>Confidence Interval Lower</t>
+  </si>
+  <si>
+    <t>Confidence Interval Upper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1223,6 +1233,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1362,7 +1378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1421,8 +1437,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1442,6 +1468,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1449,15 +1478,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1469,8 +1489,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1786,38 +1809,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F029C1F8-AD11-4A7F-989C-BC369991F6F8}">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView topLeftCell="C93" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.06640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="27.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:11" ht="13.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>278</v>
       </c>
@@ -1846,7 +1869,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1865,17 +1888,17 @@
       <c r="F3" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="22">
         <v>0.28976493507770601</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="22">
         <v>0.193012219697659</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1894,17 +1917,17 @@
       <c r="F4" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="22">
         <v>0.31132351812463799</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="22">
         <v>0.33814184168231398</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1923,17 +1946,17 @@
       <c r="F5" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="22">
         <v>0.28448605350245698</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="22">
         <v>0.17189748768461599</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1952,17 +1975,17 @@
       <c r="F6" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="22">
         <v>0.313665804084658</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="22">
         <v>0.30779570094353198</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" ht="16.149999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1981,17 +2004,18 @@
       <c r="F7" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="22">
         <v>0.282307632174292</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="22">
         <v>0.17162338663827301</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.149999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2010,17 +2034,18 @@
       <c r="F8" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="22">
         <v>0.29162181994090303</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="22">
         <v>0.324525167183845</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.149999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2039,17 +2064,18 @@
       <c r="F9" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="22">
         <v>0.29058247259250602</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="22">
         <v>0.17841305916205299</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.149999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2068,17 +2094,18 @@
       <c r="F10" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="22">
         <v>0.28786129397552301</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="22">
         <v>0.21232972408801401</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2097,17 +2124,17 @@
       <c r="F11" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="22">
         <v>0.29235352105370899</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="22">
         <v>0.219245508813287</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2126,17 +2153,17 @@
       <c r="F12" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="22">
         <v>0.27473004551297903</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="22">
         <v>0.247153413869168</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2155,17 +2182,17 @@
       <c r="F13" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="22">
         <v>0.27200024239203702</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="22">
         <v>0.20406569854068499</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2184,17 +2211,17 @@
       <c r="F14" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="22">
         <v>0.271910071157419</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="22">
         <v>0.209297542692644</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2213,17 +2240,17 @@
       <c r="F15" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="22">
         <v>0.275400240754758</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="22">
         <v>0.224393163873983</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2242,13 +2269,13 @@
       <c r="F16" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="22">
         <v>0.26343427089013</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="22">
         <v>0.19799127425270799</v>
       </c>
     </row>
@@ -2271,13 +2298,13 @@
       <c r="F17" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="22">
         <v>0.27581389409059398</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="22">
         <v>0.22041052333945099</v>
       </c>
     </row>
@@ -2300,13 +2327,13 @@
       <c r="F18" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="22">
         <v>0.27616279359635298</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="22">
         <v>0.215888733184284</v>
       </c>
     </row>
@@ -2329,13 +2356,13 @@
       <c r="F19" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="22">
         <v>0.28145159222506899</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="22">
         <v>0.208490678399712</v>
       </c>
     </row>
@@ -2358,13 +2385,13 @@
       <c r="F20" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="22">
         <v>0.285399579136489</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="22">
         <v>0.20575932016524401</v>
       </c>
     </row>
@@ -2387,13 +2414,13 @@
       <c r="F21" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="22">
         <v>0.29195597645553101</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="22">
         <v>0.210433572208748</v>
       </c>
     </row>
@@ -2416,13 +2443,13 @@
       <c r="F22" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="22">
         <v>0.30618460002592202</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="22">
         <v>0.15578357948829399</v>
       </c>
     </row>
@@ -2445,13 +2472,13 @@
       <c r="F23" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="22">
         <v>0.17390950563202001</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="22">
         <v>0.172495776833896</v>
       </c>
     </row>
@@ -2474,13 +2501,13 @@
       <c r="F24" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="22">
         <v>0.29173231698386098</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="22">
         <v>0.25267256705007002</v>
       </c>
     </row>
@@ -2503,13 +2530,13 @@
       <c r="F25" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="22">
         <v>0.297162058411926</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="22">
         <v>0.21845953443323399</v>
       </c>
     </row>
@@ -2532,13 +2559,13 @@
       <c r="F26" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="22">
         <v>0.29728189279456502</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="22">
         <v>0.259213081526807</v>
       </c>
     </row>
@@ -2561,13 +2588,13 @@
       <c r="F27" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="22">
         <v>0.29713474828841302</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="22">
         <v>0.24451352924931799</v>
       </c>
     </row>
@@ -2590,13 +2617,13 @@
       <c r="F28" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="22">
         <v>0.293279771118024</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="22">
         <v>0.179920551019048</v>
       </c>
     </row>
@@ -2619,13 +2646,13 @@
       <c r="F29" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="22">
         <v>0.28705961361183102</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="22">
         <v>0.19799127425270799</v>
       </c>
     </row>
@@ -2648,13 +2675,13 @@
       <c r="F30" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="22">
         <v>0.280943259675278</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="22">
         <v>0.18646933621244699</v>
       </c>
     </row>
@@ -2677,13 +2704,13 @@
       <c r="F31" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="22">
         <v>0.28043532185089298</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="22">
         <v>0.18307393834538199</v>
       </c>
     </row>
@@ -2706,13 +2733,13 @@
       <c r="F32" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="22">
         <v>0.30260834673256098</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="22">
         <v>0.19163609204294799</v>
       </c>
     </row>
@@ -2735,13 +2762,13 @@
       <c r="F33" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="22">
         <v>0.28460344156415901</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="22">
         <v>0.19692089845444</v>
       </c>
     </row>
@@ -2764,13 +2791,13 @@
       <c r="F34" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="22">
         <v>0.29988012997018698</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="22">
         <v>0.17751202252360401</v>
       </c>
     </row>
@@ -2793,13 +2820,13 @@
       <c r="F35" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="22">
         <v>0.20361951735345599</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="22">
         <v>0.133511316918518</v>
       </c>
     </row>
@@ -2822,13 +2849,13 @@
       <c r="F36" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="22">
         <v>0.286863918035072</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="22">
         <v>0.19892951211666701</v>
       </c>
     </row>
@@ -2851,13 +2878,13 @@
       <c r="F37" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="22">
         <v>0.27129509888171099</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="22">
         <v>0.21383987301636301</v>
       </c>
     </row>
@@ -2880,13 +2907,13 @@
       <c r="F38" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="22">
         <v>0.27756438685073898</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="22">
         <v>0.17774551863653801</v>
       </c>
     </row>
@@ -2909,13 +2936,13 @@
       <c r="F39" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="22">
         <v>0.30202947188482898</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="22">
         <v>0.166888915286592</v>
       </c>
     </row>
@@ -2938,13 +2965,13 @@
       <c r="F40" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="22">
         <v>0.29604313600335103</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="22">
         <v>0.17975341549932</v>
       </c>
     </row>
@@ -2967,13 +2994,13 @@
       <c r="F41" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="22">
         <v>0.309633281195412</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="22">
         <v>0.165965005027223</v>
       </c>
     </row>
@@ -2996,13 +3023,13 @@
       <c r="F42" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="22">
         <v>0.30801381203561301</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="22">
         <v>0.16533132901657099</v>
       </c>
     </row>
@@ -3025,13 +3052,13 @@
       <c r="F43" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="22">
         <v>0.29327156016867301</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="22">
         <v>0.16647957331618601</v>
       </c>
     </row>
@@ -3054,13 +3081,13 @@
       <c r="F44" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="22">
         <v>0.31012151496618501</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="22">
         <v>0.18218289652087399</v>
       </c>
     </row>
@@ -3083,13 +3110,13 @@
       <c r="F45" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="22">
         <v>0.25997629473605999</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="22">
         <v>0.15089850077615399</v>
       </c>
     </row>
@@ -3112,13 +3139,13 @@
       <c r="F46" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="22">
         <v>0.33096043751735998</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="22">
         <v>0.148544852205612</v>
       </c>
     </row>
@@ -3141,13 +3168,13 @@
       <c r="F47" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="22">
         <v>0.288234093851235</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="22">
         <v>0.13851597814439401</v>
       </c>
     </row>
@@ -3170,13 +3197,13 @@
       <c r="F48" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="22">
         <v>0.25795967148633703</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="22">
         <v>0.152898354288107</v>
       </c>
     </row>
@@ -3199,13 +3226,13 @@
       <c r="F49" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="22">
         <v>0.17977939964652501</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="22">
         <v>0.12630520318834601</v>
       </c>
     </row>
@@ -3228,13 +3255,13 @@
       <c r="F50" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="22">
         <v>0.271324823682556</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="22">
         <v>0.18126508576296299</v>
       </c>
     </row>
@@ -3257,13 +3284,13 @@
       <c r="F51" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="22">
         <v>0.30150626619218401</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="22">
         <v>0.164303932348423</v>
       </c>
     </row>
@@ -3286,13 +3313,13 @@
       <c r="F52" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="22">
         <v>0.28352395650877898</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="22">
         <v>0.179998312556929</v>
       </c>
     </row>
@@ -3315,13 +3342,13 @@
       <c r="F53" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="22">
         <v>0.29303365094247202</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="22">
         <v>0.17785028723732199</v>
       </c>
     </row>
@@ -3344,13 +3371,13 @@
       <c r="F54" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="22">
         <v>0.27692058221074101</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="22">
         <v>0.160887555189171</v>
       </c>
     </row>
@@ -3373,13 +3400,13 @@
       <c r="F55" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="22">
         <v>0.28722860995185101</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="22">
         <v>0.182286266492073</v>
       </c>
     </row>
@@ -3402,13 +3429,13 @@
       <c r="F56" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="22">
         <v>0.29273059486688102</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="22">
         <v>0.171473502761333</v>
       </c>
     </row>
@@ -3431,13 +3458,13 @@
       <c r="F57" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="22">
         <v>0.293418181913075</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="22">
         <v>0.15557365408611301</v>
       </c>
     </row>
@@ -3460,13 +3487,13 @@
       <c r="F58" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="22">
         <v>0.29399979840475499</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="22">
         <v>0.165406067915223</v>
       </c>
     </row>
@@ -3489,13 +3516,13 @@
       <c r="F59" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="22">
         <v>0.286159001342492</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="22">
         <v>0.169789362636806</v>
       </c>
     </row>
@@ -3518,13 +3545,13 @@
       <c r="F60" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="22">
         <v>0.28682119803400102</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I60" s="22">
         <v>0.16362118756999999</v>
       </c>
     </row>
@@ -3547,13 +3574,13 @@
       <c r="F61" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="22">
         <v>0.28963689484247701</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="I61" s="3">
+      <c r="I61" s="22">
         <v>0.16402452161078199</v>
       </c>
     </row>
@@ -3576,13 +3603,13 @@
       <c r="F62" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="22">
         <v>0.29973675805661898</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="22">
         <v>0.18276639459915101</v>
       </c>
     </row>
@@ -3605,13 +3632,13 @@
       <c r="F63" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="22">
         <v>0.31117816381787</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I63" s="22">
         <v>0.17822149175027499</v>
       </c>
     </row>
@@ -3634,13 +3661,13 @@
       <c r="F64" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="22">
         <v>0.28604400004892</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I64" s="22">
         <v>0.173176383626435</v>
       </c>
     </row>
@@ -3663,13 +3690,13 @@
       <c r="F65" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="22">
         <v>0.29831028697794898</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="I65" s="3">
+      <c r="I65" s="22">
         <v>0.29831028697794898</v>
       </c>
     </row>
@@ -3692,13 +3719,13 @@
       <c r="F66" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="22">
         <v>0.32056219597383401</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="22">
         <v>0.174725671964996</v>
       </c>
     </row>
@@ -3721,13 +3748,13 @@
       <c r="F67" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="22">
         <v>0.30782093676119299</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="I67" s="3">
+      <c r="I67" s="22">
         <v>0.30782093676119299</v>
       </c>
     </row>
@@ -3750,13 +3777,13 @@
       <c r="F68" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="22">
         <v>0.25502032220364501</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I68" s="22">
         <v>0.25502032220364501</v>
       </c>
     </row>
@@ -3779,13 +3806,13 @@
       <c r="F69" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="22">
         <v>0.29368319228044898</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="I69" s="3">
+      <c r="I69" s="22">
         <v>0.15542012710537501</v>
       </c>
     </row>
@@ -3808,13 +3835,13 @@
       <c r="F70" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="22">
         <v>0.30025814195349398</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="22">
         <v>0.168129002285137</v>
       </c>
     </row>
@@ -3837,13 +3864,13 @@
       <c r="F71" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="22">
         <v>0.31463835761523801</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="I71" s="3">
+      <c r="I71" s="22">
         <v>0.15370432656101901</v>
       </c>
     </row>
@@ -3866,13 +3893,13 @@
       <c r="F72" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="22">
         <v>0.31811372791008502</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="22">
         <v>0.31811372791008502</v>
       </c>
     </row>
@@ -3895,13 +3922,13 @@
       <c r="F73" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" s="22">
         <v>0.28743888515011101</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I73" s="3">
+      <c r="I73" s="22">
         <v>0.17189748768461599</v>
       </c>
     </row>
@@ -3924,13 +3951,13 @@
       <c r="F74" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="22">
         <v>0.32098513692168701</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="I74" s="3">
+      <c r="I74" s="22">
         <v>0.17766787733916301</v>
       </c>
     </row>
@@ -3953,13 +3980,13 @@
       <c r="F75" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="22">
         <v>0.30482138826764399</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="I75" s="3">
+      <c r="I75" s="22">
         <v>0.16849053930954699</v>
       </c>
     </row>
@@ -3982,13 +4009,13 @@
       <c r="F76" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="22">
         <v>0.30433544926777301</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="I76" s="3">
+      <c r="I76" s="22">
         <v>0.30433544926777301</v>
       </c>
     </row>
@@ -4011,13 +4038,13 @@
       <c r="F77" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="22">
         <v>0.19867643770163601</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="I77" s="3">
+      <c r="I77" s="22">
         <v>0.145153024369437</v>
       </c>
     </row>
@@ -4040,13 +4067,13 @@
       <c r="F78" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="22">
         <v>0.20456778573658099</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="I78" s="3">
+      <c r="I78" s="22">
         <v>0.13181729499158901</v>
       </c>
     </row>
@@ -4069,13 +4096,13 @@
       <c r="F79" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="22">
         <v>0.22606887691182601</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="I79" s="3">
+      <c r="I79" s="22">
         <v>0.134088290232008</v>
       </c>
     </row>
@@ -4098,13 +4125,13 @@
       <c r="F80" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80" s="22">
         <v>0.19796827518444801</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="I80" s="3">
+      <c r="I80" s="22">
         <v>0.13158842645968399</v>
       </c>
     </row>
@@ -4127,13 +4154,13 @@
       <c r="F81" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="22">
         <v>0.219348027955105</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="22">
         <v>0.12982475890748099</v>
       </c>
     </row>
@@ -4156,13 +4183,13 @@
       <c r="F82" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82" s="22">
         <v>0.201963002006078</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="I82" s="3">
+      <c r="I82" s="22">
         <v>0.13084831038436201</v>
       </c>
     </row>
@@ -4185,13 +4212,13 @@
       <c r="F83" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="22">
         <v>0.191879325946335</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="22">
         <v>0.126342105109224</v>
       </c>
     </row>
@@ -4214,13 +4241,13 @@
       <c r="F84" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="22">
         <v>0.180784690885711</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="I84" s="3">
+      <c r="I84" s="22">
         <v>0.17491246379184899</v>
       </c>
     </row>
@@ -4243,13 +4270,13 @@
       <c r="F85" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85" s="22">
         <v>0.32972805769730201</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I85" s="3">
+      <c r="I85" s="22">
         <v>0.362431890912156</v>
       </c>
     </row>
@@ -4272,13 +4299,13 @@
       <c r="F86" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="22">
         <v>0.24052912954334199</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="I86" s="3">
+      <c r="I86" s="22">
         <v>0.32968016427026198</v>
       </c>
     </row>
@@ -4301,13 +4328,13 @@
       <c r="F87" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87" s="22">
         <v>0.32693101822701198</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="I87" s="3">
+      <c r="I87" s="22">
         <v>0.13861552574361599</v>
       </c>
     </row>
@@ -4330,13 +4357,13 @@
       <c r="F88" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G88" s="22">
         <v>0.27976054281807</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="I88" s="3">
+      <c r="I88" s="22">
         <v>0.159919770280052</v>
       </c>
     </row>
@@ -4359,13 +4386,13 @@
       <c r="F89" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="22">
         <v>0.31875088170078297</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="22">
         <v>0.158887950036076</v>
       </c>
     </row>
@@ -4388,13 +4415,13 @@
       <c r="F90" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90" s="22">
         <v>0.28680677219093098</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="I90" s="3">
+      <c r="I90" s="22">
         <v>0.16515884730265701</v>
       </c>
     </row>
@@ -4417,13 +4444,13 @@
       <c r="F91" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="22">
         <v>0.27729634906204798</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="22">
         <v>0.157838900716539</v>
       </c>
     </row>
@@ -4446,13 +4473,13 @@
       <c r="F92" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92" s="22">
         <v>0.27571991941652102</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="I92" s="3">
+      <c r="I92" s="22">
         <v>0.133511910120824</v>
       </c>
     </row>
@@ -4475,13 +4502,13 @@
       <c r="F93" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93" s="22">
         <v>0.15762650669672201</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="I93" s="3">
+      <c r="I93" s="22">
         <v>0.13889063459433601</v>
       </c>
     </row>
@@ -4504,13 +4531,13 @@
       <c r="F94" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="22">
         <v>0.291557086006341</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="22">
         <v>0.15912479890225301</v>
       </c>
     </row>
@@ -4533,13 +4560,13 @@
       <c r="F95" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95" s="22">
         <v>0.168548075896194</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I95" s="3">
+      <c r="I95" s="22">
         <v>0.13130988818116399</v>
       </c>
     </row>
@@ -4562,13 +4589,13 @@
       <c r="F96" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96" s="22">
         <v>0.29765448988885601</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I96" s="3">
+      <c r="I96" s="22">
         <v>0.188334224066561</v>
       </c>
     </row>
@@ -4591,13 +4618,13 @@
       <c r="F97" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G97" s="22">
         <v>0.25366062624679397</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="I97" s="3">
+      <c r="I97" s="22">
         <v>0.19688283320650299</v>
       </c>
     </row>
@@ -4620,13 +4647,13 @@
       <c r="F98" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98" s="22">
         <v>0.30178709559959199</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="I98" s="3">
+      <c r="I98" s="22">
         <v>0.26290731487680602</v>
       </c>
     </row>
@@ -4649,13 +4676,13 @@
       <c r="F99" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99" s="22">
         <v>0.29205455324455099</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="I99" s="3">
+      <c r="I99" s="22">
         <v>0.22951485176797801</v>
       </c>
     </row>
@@ -4678,13 +4705,13 @@
       <c r="F100" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="22">
         <v>0.30394463067115401</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="22">
         <v>0.238942846574347</v>
       </c>
     </row>
@@ -4707,13 +4734,13 @@
       <c r="F101" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="22">
         <v>0.27760297903630499</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="22">
         <v>0.27085250487248103</v>
       </c>
     </row>
@@ -4736,13 +4763,13 @@
       <c r="F102" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="22">
         <v>0.28639989675691402</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="22">
         <v>0.27357456032720101</v>
       </c>
     </row>
@@ -4765,13 +4792,13 @@
       <c r="F103" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G103" s="22">
         <v>0.28790122716806499</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="I103" s="3">
+      <c r="I103" s="22">
         <v>0.231882513473192</v>
       </c>
     </row>
@@ -4794,13 +4821,13 @@
       <c r="F104" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G104" s="3">
+      <c r="G104" s="22">
         <v>0.29066670750461099</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="I104" s="3">
+      <c r="I104" s="22">
         <v>0.22695310221352799</v>
       </c>
     </row>
@@ -4823,13 +4850,13 @@
       <c r="F105" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G105" s="3">
+      <c r="G105" s="22">
         <v>0.28702716719507998</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="I105" s="3">
+      <c r="I105" s="22">
         <v>0.18218289652087399</v>
       </c>
     </row>
@@ -4852,13 +4879,13 @@
       <c r="F106" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G106" s="3">
+      <c r="G106" s="22">
         <v>0.305751877973302</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="I106" s="3">
+      <c r="I106" s="22">
         <v>0.17140284881597501</v>
       </c>
     </row>
@@ -4881,13 +4908,13 @@
       <c r="F107" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="G107" s="3">
+      <c r="G107" s="22">
         <v>0.28038249060535197</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="I107" s="3">
+      <c r="I107" s="22">
         <v>0.16181230694028001</v>
       </c>
     </row>
@@ -4909,19 +4936,220 @@
       <c r="F108" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G108" s="3">
+      <c r="G108" s="22">
         <f>AVERAGE(G3:G107)</f>
         <v>0.27903239393887908</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="I108" s="3">
+      <c r="I108" s="22">
         <f>AVERAGE(I3:I107)</f>
         <v>0.19375988535509206</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="109" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B109" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C109" s="3">
+        <f>STDEV(C3:C107)</f>
+        <v>6.4495916018765226E-2</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E109" s="3">
+        <f>STDEV(E3:E107)</f>
+        <v>6.2505076945051918E-2</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G109" s="22">
+        <f>STDEV(G3:G107)</f>
+        <v>3.6779388162641091E-2</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="I109" s="22">
+        <f>STDEV(I3:I107)</f>
+        <v>5.191832812020656E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B110" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C110" s="22">
+        <f>C108-1.96*C109/SQRT(105)</f>
+        <v>0.21305651764935854</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E110" s="22">
+        <f>E108-1.96*E109/SQRT(105)</f>
+        <v>0.1212972370183633</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="G110" s="22">
+        <f>G108-1.96*G109/SQRT(105)</f>
+        <v>0.27199736445105799</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="I110" s="22">
+        <f>I108-1.96*I109/SQRT(105)</f>
+        <v>0.18382913371591647</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B111" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C111" s="22">
+        <f>C108+1.96*C109/SQRT(105)</f>
+        <v>0.23772961275521595</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E111" s="22">
+        <f>E108+1.96*E109/SQRT(105)</f>
+        <v>0.14520873100529261</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="G111" s="22">
+        <f>G108+1.96*G109/SQRT(105)</f>
+        <v>0.28606742342670016</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="I111" s="22">
+        <f>I108+1.96*I109/SQRT(105)</f>
+        <v>0.20369063699426765</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B112" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C112" s="1">
+        <f>COUNTIF(B3:B107, "(1, 0, 0)")</f>
+        <v>44</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E112" s="1">
+        <f>COUNTIF(D3:D107, "(1, 0, 0)")</f>
+        <v>70</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G112">
+        <f>MIN(G3:G107)</f>
+        <v>0.15762650669672201</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="I112">
+        <f>MIN(I3:I107)</f>
+        <v>0.12630520318834601</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B113" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C113" s="1">
+        <f>COUNTIF(B3:B107, "(11, 0, 1)")</f>
+        <v>21</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E113" s="1">
+        <f>COUNTIF(D3:D107, "(11, 0, 1)")</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C115">
+        <f>C109*100/C108</f>
+        <v>28.61486264490037</v>
+      </c>
+      <c r="E115">
+        <f>E109*100/E108</f>
+        <v>46.907074846071573</v>
+      </c>
+      <c r="G115">
+        <f>G109*100/G108</f>
+        <v>13.181045986616688</v>
+      </c>
+      <c r="I115">
+        <f>I109*100/I108</f>
+        <v>26.795189326758202</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="2:9" ht="29.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:E1"/>
@@ -4935,8 +5163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E205C6-75C9-4A48-9727-53AED497EF04}">
   <dimension ref="A1:V140"/>
   <sheetViews>
-    <sheetView topLeftCell="H64" workbookViewId="0">
-      <selection activeCell="U77" sqref="U77"/>
+    <sheetView tabSelected="1" topLeftCell="J46" workbookViewId="0">
+      <selection activeCell="T57" sqref="T57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4951,7 +5179,7 @@
     <col min="9" max="9" width="9.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.46484375" style="17" customWidth="1"/>
     <col min="13" max="15" width="12.1328125" style="17" customWidth="1"/>
     <col min="16" max="16" width="104.53125" style="17" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="9.06640625" style="2"/>
@@ -4985,21 +5213,21 @@
       <c r="A6" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="27" t="s">
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="26"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="30"/>
     </row>
     <row r="7" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
@@ -6996,10 +7224,18 @@
       <c r="R37" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="8"/>
+      <c r="S37" s="18">
+        <v>1.1379725980858</v>
+      </c>
+      <c r="T37" s="18">
+        <v>0.92252824770489805</v>
+      </c>
+      <c r="U37" s="18">
+        <v>0.124694971777547</v>
+      </c>
+      <c r="V37" s="8">
+        <v>0.51259492614407198</v>
+      </c>
     </row>
     <row r="38" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
@@ -8222,10 +8458,18 @@
       <c r="R56" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="S56" s="18"/>
-      <c r="T56" s="18"/>
-      <c r="U56" s="18"/>
-      <c r="V56" s="8"/>
+      <c r="S56" s="18">
+        <v>1.57081960688078</v>
+      </c>
+      <c r="T56" s="18">
+        <v>1.2460775932064501</v>
+      </c>
+      <c r="U56" s="18">
+        <v>0.12818639141378399</v>
+      </c>
+      <c r="V56" s="8">
+        <v>0.80264209885703297</v>
+      </c>
     </row>
     <row r="57" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
@@ -8284,10 +8528,18 @@
       <c r="R57" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="S57" s="18"/>
-      <c r="T57" s="18"/>
-      <c r="U57" s="18"/>
-      <c r="V57" s="8"/>
+      <c r="S57" s="18">
+        <v>2.1385128736563899</v>
+      </c>
+      <c r="T57" s="18">
+        <v>1.7914436259341899</v>
+      </c>
+      <c r="U57" s="18">
+        <v>0.153459516888517</v>
+      </c>
+      <c r="V57" s="8">
+        <v>0.63472717735008499</v>
+      </c>
     </row>
     <row r="58" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="4" t="s">
@@ -8346,10 +8598,18 @@
       <c r="R58" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="S58" s="18"/>
-      <c r="T58" s="18"/>
-      <c r="U58" s="18"/>
-      <c r="V58" s="8"/>
+      <c r="S58" s="18">
+        <v>2.6291492874157298</v>
+      </c>
+      <c r="T58" s="18">
+        <v>2.1865082346670501</v>
+      </c>
+      <c r="U58" s="18">
+        <v>0.20672568179267001</v>
+      </c>
+      <c r="V58" s="8">
+        <v>0.36421808985584703</v>
+      </c>
     </row>
     <row r="59" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
@@ -8408,10 +8668,18 @@
       <c r="R59" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="18"/>
-      <c r="V59" s="8"/>
+      <c r="S59" s="18">
+        <v>1.6015097897883099</v>
+      </c>
+      <c r="T59" s="18">
+        <v>1.2535014003534399</v>
+      </c>
+      <c r="U59" s="18">
+        <v>0.109878798407998</v>
+      </c>
+      <c r="V59" s="8">
+        <v>0.80227876463213998</v>
+      </c>
     </row>
     <row r="60" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
@@ -8470,10 +8738,18 @@
       <c r="R60" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="S60" s="18"/>
-      <c r="T60" s="18"/>
-      <c r="U60" s="18"/>
-      <c r="V60" s="8"/>
+      <c r="S60" s="18">
+        <v>1.95085521123411</v>
+      </c>
+      <c r="T60" s="18">
+        <v>1.66734680596981</v>
+      </c>
+      <c r="U60" s="18">
+        <v>0.11727603765347901</v>
+      </c>
+      <c r="V60" s="8">
+        <v>0.75300549472489398</v>
+      </c>
     </row>
     <row r="61" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
@@ -8532,10 +8808,18 @@
       <c r="R61" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="S61" s="18"/>
-      <c r="T61" s="18"/>
-      <c r="U61" s="18"/>
-      <c r="V61" s="8"/>
+      <c r="S61" s="18">
+        <v>1.8997062690248101</v>
+      </c>
+      <c r="T61" s="18">
+        <v>1.51222409450946</v>
+      </c>
+      <c r="U61" s="18">
+        <v>0.109552601126837</v>
+      </c>
+      <c r="V61" s="8">
+        <v>0.76525561804648801</v>
+      </c>
     </row>
     <row r="62" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
@@ -8594,10 +8878,18 @@
       <c r="R62" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="S62" s="18"/>
-      <c r="T62" s="18"/>
-      <c r="U62" s="18"/>
-      <c r="V62" s="8"/>
+      <c r="S62" s="18">
+        <v>2.8193357268749502</v>
+      </c>
+      <c r="T62" s="18">
+        <v>2.36281665293928</v>
+      </c>
+      <c r="U62" s="18">
+        <v>0.17861955783479</v>
+      </c>
+      <c r="V62" s="8">
+        <v>0.47056434522726198</v>
+      </c>
     </row>
     <row r="63" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
@@ -8656,10 +8948,18 @@
       <c r="R63" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="S63" s="18"/>
-      <c r="T63" s="18"/>
-      <c r="U63" s="18"/>
-      <c r="V63" s="8"/>
+      <c r="S63" s="18">
+        <v>2.54045350617469</v>
+      </c>
+      <c r="T63" s="18">
+        <v>2.04573324021516</v>
+      </c>
+      <c r="U63" s="18">
+        <v>0.162337533669527</v>
+      </c>
+      <c r="V63" s="8">
+        <v>0.55239244093287698</v>
+      </c>
     </row>
     <row r="64" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
@@ -10214,10 +10514,48 @@
       <c r="V87" s="8"/>
     </row>
     <row r="88" spans="1:22" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="K88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L88" s="17">
+        <f>AVERAGE(L8,L47)</f>
+        <v>4.7193718142807449E-2</v>
+      </c>
+      <c r="M88" s="17">
+        <f>AVERAGE(M8,M47)</f>
+        <v>6.8982420715454455E-3</v>
+      </c>
+      <c r="N88" s="17">
+        <f>L88-1.96*M88/SQRT(40)</f>
+        <v>4.505593077667383E-2</v>
+      </c>
+      <c r="O88" s="17">
+        <f>L88+1.96*M88/SQRT(40)</f>
+        <v>4.9331505508941068E-2</v>
+      </c>
       <c r="P88" s="2"/>
       <c r="U88" s="17"/>
     </row>
     <row r="89" spans="1:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L89" s="17">
+        <f>AVERAGE(L48,L87)</f>
+        <v>2.7776205725967854E-2</v>
+      </c>
+      <c r="M89" s="17">
+        <f>AVERAGE(M48,M87)</f>
+        <v>3.3338194585967752E-3</v>
+      </c>
+      <c r="N89" s="17">
+        <f>L89-1.96*M89/SQRT(40)</f>
+        <v>2.6743044371866243E-2</v>
+      </c>
+      <c r="O89" s="17">
+        <f>L89+1.96*M89/SQRT(40)</f>
+        <v>2.8809367080069464E-2</v>
+      </c>
       <c r="P89" s="2"/>
       <c r="U89" s="17"/>
     </row>
@@ -10225,21 +10563,21 @@
       <c r="A90" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L90" s="24" t="s">
+      <c r="L90" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="M90" s="25"/>
-      <c r="N90" s="25"/>
-      <c r="O90" s="25"/>
-      <c r="P90" s="26"/>
-      <c r="Q90" s="27" t="s">
+      <c r="M90" s="29"/>
+      <c r="N90" s="29"/>
+      <c r="O90" s="29"/>
+      <c r="P90" s="30"/>
+      <c r="Q90" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="R90" s="28"/>
-      <c r="S90" s="28"/>
-      <c r="T90" s="28"/>
-      <c r="U90" s="28"/>
-      <c r="V90" s="26"/>
+      <c r="R90" s="32"/>
+      <c r="S90" s="32"/>
+      <c r="T90" s="32"/>
+      <c r="U90" s="32"/>
+      <c r="V90" s="30"/>
     </row>
     <row r="91" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A91" s="4" t="s">
@@ -12259,8 +12597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64343250-72E9-47F4-9C5C-D7353A62510A}">
   <dimension ref="A1:N199"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12274,40 +12612,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -12428,22 +12766,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -12563,40 +12901,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="36"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -12764,22 +13102,22 @@
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -12946,40 +13284,40 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="36"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -13335,22 +13673,22 @@
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32" t="s">
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -13705,40 +14043,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="31"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="36"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32" t="s">
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -14352,22 +14690,22 @@
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32" t="s">
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -14980,40 +15318,40 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="30"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="31"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="36"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32" t="s">
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="32"/>
-      <c r="M74" s="32"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="33"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -16491,22 +16829,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="32" t="s">
+      <c r="B137" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="32"/>
-      <c r="D137" s="32"/>
-      <c r="E137" s="32"/>
-      <c r="F137" s="32"/>
-      <c r="G137" s="32"/>
-      <c r="H137" s="32" t="s">
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="33"/>
+      <c r="H137" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="32"/>
-      <c r="J137" s="32"/>
-      <c r="K137" s="32"/>
-      <c r="L137" s="32"/>
-      <c r="M137" s="32"/>
+      <c r="I137" s="33"/>
+      <c r="J137" s="33"/>
+      <c r="K137" s="33"/>
+      <c r="L137" s="33"/>
+      <c r="M137" s="33"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -17984,6 +18322,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A42:M42"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="A23:M23"/>
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="H74:M74"/>
     <mergeCell ref="B137:G137"/>
@@ -18000,15 +18347,6 @@
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="A10:M10"/>
     <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A42:M42"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="A23:M23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18034,40 +18372,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -18188,22 +18526,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -18323,40 +18661,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="36"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -18524,22 +18862,22 @@
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -18706,40 +19044,40 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="36"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -18975,22 +19313,22 @@
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32" t="s">
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -19225,40 +19563,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="31"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="36"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32" t="s">
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -19632,22 +19970,22 @@
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32" t="s">
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -20020,40 +20358,40 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="30"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="31"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="36"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32" t="s">
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="32"/>
-      <c r="M74" s="32"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="33"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -21531,22 +21869,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="32" t="s">
+      <c r="B137" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="32"/>
-      <c r="D137" s="32"/>
-      <c r="E137" s="32"/>
-      <c r="F137" s="32"/>
-      <c r="G137" s="32"/>
-      <c r="H137" s="32" t="s">
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="33"/>
+      <c r="H137" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="32"/>
-      <c r="J137" s="32"/>
-      <c r="K137" s="32"/>
-      <c r="L137" s="32"/>
-      <c r="M137" s="32"/>
+      <c r="I137" s="33"/>
+      <c r="J137" s="33"/>
+      <c r="K137" s="33"/>
+      <c r="L137" s="33"/>
+      <c r="M137" s="33"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -23024,11 +23362,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A73:M73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:M74"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:M137"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M6"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="B11:G11"/>
@@ -23043,12 +23382,11 @@
     <mergeCell ref="A42:M42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:M43"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:M137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23073,40 +23411,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -23227,22 +23565,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -23362,40 +23700,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="36"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -23563,22 +23901,22 @@
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -23745,40 +24083,40 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="36"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -24014,22 +24352,22 @@
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32" t="s">
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -24264,40 +24602,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="31"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="36"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32" t="s">
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -24671,22 +25009,22 @@
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32" t="s">
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -25059,40 +25397,40 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="30"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="31"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="36"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32" t="s">
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="32"/>
-      <c r="M74" s="32"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="33"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -26570,22 +26908,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="32" t="s">
+      <c r="B137" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="32"/>
-      <c r="D137" s="32"/>
-      <c r="E137" s="32"/>
-      <c r="F137" s="32"/>
-      <c r="G137" s="32"/>
-      <c r="H137" s="32" t="s">
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="33"/>
+      <c r="H137" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="32"/>
-      <c r="J137" s="32"/>
-      <c r="K137" s="32"/>
-      <c r="L137" s="32"/>
-      <c r="M137" s="32"/>
+      <c r="I137" s="33"/>
+      <c r="J137" s="33"/>
+      <c r="K137" s="33"/>
+      <c r="L137" s="33"/>
+      <c r="M137" s="33"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -28063,11 +28401,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A73:M73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:M74"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:M137"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M6"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="B11:G11"/>
@@ -28082,12 +28421,11 @@
     <mergeCell ref="A42:M42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:M43"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:M137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28112,40 +28450,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -28266,22 +28604,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -28401,40 +28739,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="31"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="36"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -28602,22 +28940,22 @@
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -28784,40 +29122,40 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="36"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -29053,22 +29391,22 @@
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32" t="s">
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -29303,40 +29641,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="31"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="36"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32" t="s">
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -29710,22 +30048,22 @@
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32" t="s">
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -30098,40 +30436,40 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="30"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="31"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="36"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="32" t="s">
+      <c r="B74" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32" t="s">
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="32"/>
-      <c r="M74" s="32"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="33"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -31609,22 +31947,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="32" t="s">
+      <c r="B137" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="32"/>
-      <c r="D137" s="32"/>
-      <c r="E137" s="32"/>
-      <c r="F137" s="32"/>
-      <c r="G137" s="32"/>
-      <c r="H137" s="32" t="s">
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="33"/>
+      <c r="H137" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="32"/>
-      <c r="J137" s="32"/>
-      <c r="K137" s="32"/>
-      <c r="L137" s="32"/>
-      <c r="M137" s="32"/>
+      <c r="I137" s="33"/>
+      <c r="J137" s="33"/>
+      <c r="K137" s="33"/>
+      <c r="L137" s="33"/>
+      <c r="M137" s="33"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -33102,11 +33440,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A73:M73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:M74"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:M137"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M6"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="B11:G11"/>
@@ -33121,12 +33460,11 @@
     <mergeCell ref="A42:M42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:M43"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:M137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33153,42 +33491,42 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="35" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="35" t="s">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="35" t="s">
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="35" t="s">
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="37"/>
-      <c r="AA2" s="35" t="s">
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="39"/>
+      <c r="AA2" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="37"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="39"/>
     </row>
     <row r="3" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
@@ -33283,16 +33621,16 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="41">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -33379,10 +33717,10 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
@@ -33467,10 +33805,10 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
@@ -33559,41 +33897,41 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="35" t="s">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="35" t="s">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="35" t="s">
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="35" t="s">
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="37"/>
-      <c r="AA7" s="34" t="s">
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="39"/>
+      <c r="AA7" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
       <c r="AD7" s="13">
         <f>AVERAGE(I73, M73, Q73, U73, Y73)</f>
         <v>1.5016363636363637</v>
@@ -33937,36 +34275,36 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="35" t="s">
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="35" t="s">
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="35" t="s">
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="35" t="s">
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="37"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="39"/>
     </row>
     <row r="14" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E14" s="3" t="s">
@@ -34306,36 +34644,36 @@
       </c>
     </row>
     <row r="19" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="35" t="s">
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="35" t="s">
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="35" t="s">
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="35" t="s">
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="37"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="39"/>
     </row>
     <row r="20" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E20" s="3" t="s">
@@ -34675,36 +35013,36 @@
       </c>
     </row>
     <row r="25" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="35" t="s">
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="35" t="s">
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="35" t="s">
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="35" t="s">
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="37"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="39"/>
     </row>
     <row r="26" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E26" s="3" t="s">
@@ -35046,36 +35384,36 @@
       </c>
     </row>
     <row r="31" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="35" t="s">
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="35" t="s">
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="35" t="s">
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="35" t="s">
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="37"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="39"/>
     </row>
     <row r="32" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E32" s="3" t="s">
@@ -35415,36 +35753,36 @@
       </c>
     </row>
     <row r="37" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="35" t="s">
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="35" t="s">
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="35" t="s">
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="S37" s="36"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="35" t="s">
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="37"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="39"/>
     </row>
     <row r="38" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E38" s="3" t="s">
@@ -35784,36 +36122,36 @@
       </c>
     </row>
     <row r="43" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F43" s="35" t="s">
+      <c r="F43" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="35" t="s">
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="35" t="s">
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="O43" s="36"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="35" t="s">
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="S43" s="36"/>
-      <c r="T43" s="36"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="35" t="s">
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="W43" s="36"/>
-      <c r="X43" s="36"/>
-      <c r="Y43" s="37"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="39"/>
     </row>
     <row r="44" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E44" s="3" t="s">
@@ -36153,36 +36491,36 @@
       </c>
     </row>
     <row r="49" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F49" s="35" t="s">
+      <c r="F49" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="35" t="s">
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="35" t="s">
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="35" t="s">
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="35" t="s">
+      <c r="S49" s="38"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="37"/>
+      <c r="W49" s="38"/>
+      <c r="X49" s="38"/>
+      <c r="Y49" s="39"/>
     </row>
     <row r="50" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E50" s="3" t="s">
@@ -36522,36 +36860,36 @@
       </c>
     </row>
     <row r="55" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F55" s="35" t="s">
+      <c r="F55" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="35" t="s">
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="35" t="s">
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="35" t="s">
+      <c r="O55" s="38"/>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="S55" s="36"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="37"/>
-      <c r="V55" s="35" t="s">
+      <c r="S55" s="38"/>
+      <c r="T55" s="38"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="W55" s="36"/>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="37"/>
+      <c r="W55" s="38"/>
+      <c r="X55" s="38"/>
+      <c r="Y55" s="39"/>
     </row>
     <row r="56" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E56" s="3" t="s">
@@ -36891,36 +37229,36 @@
       </c>
     </row>
     <row r="61" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F61" s="35" t="s">
+      <c r="F61" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="35" t="s">
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="35" t="s">
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="O61" s="36"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="35" t="s">
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="S61" s="36"/>
-      <c r="T61" s="36"/>
-      <c r="U61" s="37"/>
-      <c r="V61" s="35" t="s">
+      <c r="S61" s="38"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="39"/>
+      <c r="V61" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="W61" s="36"/>
-      <c r="X61" s="36"/>
-      <c r="Y61" s="37"/>
+      <c r="W61" s="38"/>
+      <c r="X61" s="38"/>
+      <c r="Y61" s="39"/>
     </row>
     <row r="62" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E62" s="3" t="s">
@@ -37260,36 +37598,36 @@
       </c>
     </row>
     <row r="67" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F67" s="35" t="s">
+      <c r="F67" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="35" t="s">
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="K67" s="36"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="35" t="s">
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="O67" s="36"/>
-      <c r="P67" s="36"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="35" t="s">
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="S67" s="36"/>
-      <c r="T67" s="36"/>
-      <c r="U67" s="37"/>
-      <c r="V67" s="35" t="s">
+      <c r="S67" s="38"/>
+      <c r="T67" s="38"/>
+      <c r="U67" s="39"/>
+      <c r="V67" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="36"/>
-      <c r="X67" s="36"/>
-      <c r="Y67" s="37"/>
+      <c r="W67" s="38"/>
+      <c r="X67" s="38"/>
+      <c r="Y67" s="39"/>
     </row>
     <row r="68" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E68" s="3" t="s">
@@ -37709,51 +38047,11 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="V55:Y55"/>
-    <mergeCell ref="V61:Y61"/>
-    <mergeCell ref="V67:Y67"/>
-    <mergeCell ref="R43:U43"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="R61:U61"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
@@ -37770,11 +38068,51 @@
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="R25:U25"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="V55:Y55"/>
+    <mergeCell ref="V61:Y61"/>
+    <mergeCell ref="V67:Y67"/>
+    <mergeCell ref="R43:U43"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="R61:U61"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="V2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF9F558-0FCA-4D79-9E27-74A4558F468B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAE1582-C485-4FD4-8C75-A6CD116C8121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="3" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
   <sheets>
     <sheet name="SARIMAX" sheetId="3" r:id="rId1"/>
@@ -1468,9 +1468,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1480,6 +1477,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1487,12 +1493,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5163,8 +5163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E205C6-75C9-4A48-9727-53AED497EF04}">
   <dimension ref="A1:V140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J46" workbookViewId="0">
-      <selection activeCell="T57" sqref="T57"/>
+    <sheetView topLeftCell="I46" workbookViewId="0">
+      <selection activeCell="S56" sqref="S56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8024,10 +8024,18 @@
       <c r="R49" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
-      <c r="V49" s="8"/>
+      <c r="S49" s="18">
+        <v>1.09001462098355</v>
+      </c>
+      <c r="T49" s="18">
+        <v>0.88092020333896903</v>
+      </c>
+      <c r="U49" s="18">
+        <v>0.13575567540789199</v>
+      </c>
+      <c r="V49" s="8">
+        <v>0.90402788418694602</v>
+      </c>
     </row>
     <row r="50" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
@@ -8272,10 +8280,18 @@
       <c r="R53" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="18"/>
-      <c r="V53" s="8"/>
+      <c r="S53" s="18">
+        <v>1.1486358711862601</v>
+      </c>
+      <c r="T53" s="18">
+        <v>0.96043785055704201</v>
+      </c>
+      <c r="U53" s="18">
+        <v>0.14884071114067199</v>
+      </c>
+      <c r="V53" s="8">
+        <v>0.87414492675011302</v>
+      </c>
     </row>
     <row r="54" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
@@ -8334,10 +8350,18 @@
       <c r="R54" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="8"/>
+      <c r="S54" s="18">
+        <v>1.3451117956040599</v>
+      </c>
+      <c r="T54" s="18">
+        <v>1.1143855702344201</v>
+      </c>
+      <c r="U54" s="18">
+        <v>0.18493266771050801</v>
+      </c>
+      <c r="V54" s="8">
+        <v>0.825968981928208</v>
+      </c>
     </row>
     <row r="55" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
@@ -8396,10 +8420,18 @@
       <c r="R55" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="8"/>
+      <c r="S55" s="18">
+        <v>1.1244181164656299</v>
+      </c>
+      <c r="T55" s="18">
+        <v>0.89481230431075398</v>
+      </c>
+      <c r="U55" s="18">
+        <v>0.13197542822848299</v>
+      </c>
+      <c r="V55" s="8">
+        <v>0.87518027268912901</v>
+      </c>
     </row>
     <row r="56" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
@@ -12612,40 +12644,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -12766,22 +12798,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -12901,40 +12933,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -13102,22 +13134,22 @@
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -13284,40 +13316,40 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="36"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="35"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -13673,22 +13705,22 @@
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -14043,40 +14075,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="36"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="35"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33" t="s">
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -14690,22 +14722,22 @@
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33" t="s">
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -15318,40 +15350,40 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="34" t="s">
+      <c r="A73" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="36"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="35"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33" t="s">
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -16829,22 +16861,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="33" t="s">
+      <c r="C137" s="36"/>
+      <c r="D137" s="36"/>
+      <c r="E137" s="36"/>
+      <c r="F137" s="36"/>
+      <c r="G137" s="36"/>
+      <c r="H137" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="33"/>
-      <c r="J137" s="33"/>
-      <c r="K137" s="33"/>
-      <c r="L137" s="33"/>
-      <c r="M137" s="33"/>
+      <c r="I137" s="36"/>
+      <c r="J137" s="36"/>
+      <c r="K137" s="36"/>
+      <c r="L137" s="36"/>
+      <c r="M137" s="36"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -18322,15 +18354,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A42:M42"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="A23:M23"/>
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="H74:M74"/>
     <mergeCell ref="B137:G137"/>
@@ -18347,6 +18370,15 @@
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="A10:M10"/>
     <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A42:M42"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="A23:M23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18357,8 +18389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438DC3B3-433A-4DB4-9173-231D0D51B37A}">
   <dimension ref="A1:N199"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18372,40 +18404,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -18526,22 +18558,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -18588,14 +18620,24 @@
       <c r="A8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21" t="e">
+      <c r="B8" s="21">
+        <v>0.85470537960074</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.69063366468371301</v>
+      </c>
+      <c r="D8" s="21">
+        <v>1.2738450152043299</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1.35844472398659</v>
+      </c>
+      <c r="F8" s="21">
+        <v>1.2724443214423999</v>
+      </c>
+      <c r="G8" s="21">
         <f>AVERAGE(B8:F8)</f>
-        <v>#DIV/0!</v>
+        <v>1.0900146209835546</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
@@ -18611,29 +18653,29 @@
       <c r="A9" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="21" t="e">
+      <c r="B9" s="21">
         <f t="shared" ref="B9:M9" si="1">AVERAGE(B8:B8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" s="21" t="e">
+        <v>0.85470537960074</v>
+      </c>
+      <c r="C9" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="21" t="e">
+        <v>0.69063366468371301</v>
+      </c>
+      <c r="D9" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="21" t="e">
+        <v>1.2738450152043299</v>
+      </c>
+      <c r="E9" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="21" t="e">
+        <v>1.35844472398659</v>
+      </c>
+      <c r="F9" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="21" t="e">
+        <v>1.2724443214423999</v>
+      </c>
+      <c r="G9" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.0900146209835546</v>
       </c>
       <c r="H9" s="21" t="e">
         <f t="shared" si="1"/>
@@ -18661,40 +18703,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -18750,14 +18792,24 @@
         <f>AVERAGE(B13:F13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21" t="e">
+      <c r="H13" s="21">
+        <v>0.57583363875746896</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0.774332832323264</v>
+      </c>
+      <c r="J13" s="21">
+        <v>0.85435759043529202</v>
+      </c>
+      <c r="K13" s="21">
+        <v>0.48810028609287498</v>
+      </c>
+      <c r="L13" s="21">
+        <v>0.78064437547976895</v>
+      </c>
+      <c r="M13" s="21">
         <f>AVERAGE(H13:L13)</f>
-        <v>#DIV/0!</v>
+        <v>0.69465374461773377</v>
       </c>
       <c r="N13" s="19"/>
     </row>
@@ -18774,14 +18826,24 @@
         <f t="shared" ref="G14:G15" si="2">AVERAGE(B14:F14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21" t="e">
+      <c r="H14" s="21">
+        <v>0.82663240323557996</v>
+      </c>
+      <c r="I14" s="21">
+        <v>0.99311578949343104</v>
+      </c>
+      <c r="J14" s="21">
+        <v>1.7050254598997101</v>
+      </c>
+      <c r="K14" s="21">
+        <v>2.0759458344168502</v>
+      </c>
+      <c r="L14" s="21">
+        <v>0.77788565476620997</v>
+      </c>
+      <c r="M14" s="21">
         <f t="shared" ref="M14:M15" si="3">AVERAGE(H14:L14)</f>
-        <v>#DIV/0!</v>
+        <v>1.2757210283623563</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -18797,14 +18859,24 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21" t="e">
+      <c r="H15" s="21">
+        <v>2.1501899892380099</v>
+      </c>
+      <c r="I15" s="21">
+        <v>0.62041800540840197</v>
+      </c>
+      <c r="J15" s="21">
+        <v>2.1872995886319999</v>
+      </c>
+      <c r="K15" s="21">
+        <v>1.0428333518940001</v>
+      </c>
+      <c r="L15" s="21">
+        <v>1.0136569469116301</v>
+      </c>
+      <c r="M15" s="21">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.4028795764168085</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -18835,49 +18907,49 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="21" t="e">
+      <c r="H16" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="21" t="e">
+        <v>1.1842186770770196</v>
+      </c>
+      <c r="I16" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="21" t="e">
+        <v>0.79595554240836563</v>
+      </c>
+      <c r="J16" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K16" s="21" t="e">
+        <v>1.5822275463223339</v>
+      </c>
+      <c r="K16" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="21" t="e">
+        <v>1.2022931574679083</v>
+      </c>
+      <c r="L16" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="21" t="e">
+        <v>0.85739565905253634</v>
+      </c>
+      <c r="M16" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.1244181164656328</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -18924,160 +18996,220 @@
       <c r="A19" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21" t="e">
+      <c r="B19" s="21">
+        <v>1.0804771793089001</v>
+      </c>
+      <c r="C19" s="21">
+        <v>1.0587269475269201</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0.79262981313582004</v>
+      </c>
+      <c r="E19" s="21">
+        <v>0.79577285326738501</v>
+      </c>
+      <c r="F19" s="21">
+        <v>0.41572833556682098</v>
+      </c>
+      <c r="G19" s="21">
         <f>AVERAGE(B19:F19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21" t="e">
+        <v>0.82866702576116924</v>
+      </c>
+      <c r="H19" s="21">
+        <v>0.97164594377701696</v>
+      </c>
+      <c r="I19" s="21">
+        <v>1.138445183407</v>
+      </c>
+      <c r="J19" s="21">
+        <v>1.2563173624644799</v>
+      </c>
+      <c r="K19" s="21">
+        <v>0.624391959728123</v>
+      </c>
+      <c r="L19" s="21">
+        <v>0.48918040643696598</v>
+      </c>
+      <c r="M19" s="21">
         <f>AVERAGE(H19:L19)</f>
-        <v>#DIV/0!</v>
+        <v>0.89599617116271713</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21" t="e">
+      <c r="B20" s="21">
+        <v>1.0081204486106401</v>
+      </c>
+      <c r="C20" s="21">
+        <v>0.93386296961140802</v>
+      </c>
+      <c r="D20" s="21">
+        <v>1.72921457879051</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1.1552270460773799</v>
+      </c>
+      <c r="F20" s="21">
+        <v>1.3506837800167899</v>
+      </c>
+      <c r="G20" s="21">
         <f t="shared" ref="G20:G21" si="5">AVERAGE(B20:F20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21" t="e">
+        <v>1.2354217646213457</v>
+      </c>
+      <c r="H20" s="21">
+        <v>0.95120795071950304</v>
+      </c>
+      <c r="I20" s="21">
+        <v>1.17480322402517</v>
+      </c>
+      <c r="J20" s="21">
+        <v>1.7920285234901201</v>
+      </c>
+      <c r="K20" s="21">
+        <v>1.9306547429410099</v>
+      </c>
+      <c r="L20" s="21">
+        <v>1.5077674600031099</v>
+      </c>
+      <c r="M20" s="21">
         <f t="shared" ref="M20:M21" si="6">AVERAGE(H20:L20)</f>
-        <v>#DIV/0!</v>
+        <v>1.4712923802357825</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21" t="e">
+      <c r="B21" s="21">
+        <v>0.88528562200225802</v>
+      </c>
+      <c r="C21" s="21">
+        <v>1.9462798749313801</v>
+      </c>
+      <c r="D21" s="21">
+        <v>2.11952994517896</v>
+      </c>
+      <c r="E21" s="21">
+        <v>1.1639856679801199</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0.79401300578858203</v>
+      </c>
+      <c r="G21" s="21">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21" t="e">
+        <v>1.3818188231762598</v>
+      </c>
+      <c r="H21" s="21">
+        <v>1.3015277185874301</v>
+      </c>
+      <c r="I21" s="21">
+        <v>2.4559577636671999</v>
+      </c>
+      <c r="J21" s="21">
+        <v>2.29276533068917</v>
+      </c>
+      <c r="K21" s="21">
+        <v>1.53623815906034</v>
+      </c>
+      <c r="L21" s="21">
+        <v>0.75374520506436204</v>
+      </c>
+      <c r="M21" s="21">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1.6680468354137001</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="21" t="e">
+      <c r="B22" s="21">
         <f t="shared" ref="B22:M22" si="7">AVERAGE(B19:B21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C22" s="21" t="e">
+        <v>0.99129441664059958</v>
+      </c>
+      <c r="C22" s="21">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="21" t="e">
+        <v>1.3129565973565693</v>
+      </c>
+      <c r="D22" s="21">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="21" t="e">
+        <v>1.5471247790350968</v>
+      </c>
+      <c r="E22" s="21">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="21" t="e">
+        <v>1.0383285224416283</v>
+      </c>
+      <c r="F22" s="21">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="21" t="e">
+        <v>0.85347504045739775</v>
+      </c>
+      <c r="G22" s="21">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="21" t="e">
+        <v>1.1486358711862581</v>
+      </c>
+      <c r="H22" s="21">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="21" t="e">
+        <v>1.0747938710279834</v>
+      </c>
+      <c r="I22" s="21">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="21" t="e">
+        <v>1.5897353903664566</v>
+      </c>
+      <c r="J22" s="21">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="21" t="e">
+        <v>1.780370405547923</v>
+      </c>
+      <c r="K22" s="21">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="21" t="e">
+        <v>1.3637616205764911</v>
+      </c>
+      <c r="L22" s="21">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="21" t="e">
+        <v>0.91689769050147929</v>
+      </c>
+      <c r="M22" s="21">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.3451117956040666</v>
       </c>
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="36"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="35"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -19124,211 +19256,331 @@
       <c r="A26" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21" t="e">
+      <c r="B26" s="21">
+        <v>1.1477809514095201</v>
+      </c>
+      <c r="C26" s="21">
+        <v>0.74832017448474997</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0.88438131401127396</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0.909953017644622</v>
+      </c>
+      <c r="F26" s="21">
+        <v>0.53208302660243101</v>
+      </c>
+      <c r="G26" s="21">
         <f>AVERAGE(B26:F26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21" t="e">
+        <v>0.8445036968305194</v>
+      </c>
+      <c r="H26" s="21">
+        <v>0.811963596373802</v>
+      </c>
+      <c r="I26" s="21">
+        <v>0.91994091666941702</v>
+      </c>
+      <c r="J26" s="21">
+        <v>1.1014767408064501</v>
+      </c>
+      <c r="K26" s="21">
+        <v>0.83530831748313195</v>
+      </c>
+      <c r="L26" s="21">
+        <v>0.83870811243933296</v>
+      </c>
+      <c r="M26" s="21">
         <f>AVERAGE(H26:L26)</f>
-        <v>#DIV/0!</v>
+        <v>0.90147953675442682</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21" t="e">
+      <c r="B27" s="21">
+        <v>1.5431541575654</v>
+      </c>
+      <c r="C27" s="21">
+        <v>1.86615945478161</v>
+      </c>
+      <c r="D27" s="21">
+        <v>1.9934512457326701</v>
+      </c>
+      <c r="E27" s="21">
+        <v>1.43027776255837</v>
+      </c>
+      <c r="F27" s="21">
+        <v>2.0798429762270398</v>
+      </c>
+      <c r="G27" s="21">
         <f t="shared" ref="G27:G31" si="8">AVERAGE(B27:F27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21" t="e">
+        <v>1.782577119373018</v>
+      </c>
+      <c r="H27" s="21">
+        <v>0.89469254959725397</v>
+      </c>
+      <c r="I27" s="21">
+        <v>0.88736279641031501</v>
+      </c>
+      <c r="J27" s="21">
+        <v>1.70403259550219</v>
+      </c>
+      <c r="K27" s="21">
+        <v>1.9341568650941801</v>
+      </c>
+      <c r="L27" s="21">
+        <v>1.0836611805966501</v>
+      </c>
+      <c r="M27" s="21">
         <f t="shared" ref="M27:M31" si="9">AVERAGE(H27:L27)</f>
-        <v>#DIV/0!</v>
+        <v>1.3007811974401178</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21" t="e">
+      <c r="B28" s="21">
+        <v>1.2021195543054</v>
+      </c>
+      <c r="C28" s="21">
+        <v>1.26943702934186</v>
+      </c>
+      <c r="D28" s="21">
+        <v>2.4715670670690901</v>
+      </c>
+      <c r="E28" s="21">
+        <v>1.15898559552071</v>
+      </c>
+      <c r="F28" s="21">
+        <v>0.73864794402341705</v>
+      </c>
+      <c r="G28" s="21">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21" t="e">
+        <v>1.3681514380520954</v>
+      </c>
+      <c r="H28" s="21">
+        <v>1.3866403183815601</v>
+      </c>
+      <c r="I28" s="21">
+        <v>0.87253751027093096</v>
+      </c>
+      <c r="J28" s="21">
+        <v>2.1523246842576098</v>
+      </c>
+      <c r="K28" s="21">
+        <v>1.17285159953581</v>
+      </c>
+      <c r="L28" s="21">
+        <v>0.78338304088000499</v>
+      </c>
+      <c r="M28" s="21">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1.2735474306651831</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21" t="e">
+      <c r="B29" s="21">
+        <v>1.06979550298545</v>
+      </c>
+      <c r="C29" s="21">
+        <v>1.51411472149938</v>
+      </c>
+      <c r="D29" s="21">
+        <v>2.4715869990961701</v>
+      </c>
+      <c r="E29" s="21">
+        <v>2.15464124839652</v>
+      </c>
+      <c r="F29" s="21">
+        <v>1.37757689277899</v>
+      </c>
+      <c r="G29" s="21">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21" t="e">
+        <v>1.7175430729513022</v>
+      </c>
+      <c r="H29" s="21">
+        <v>1.31112533221149</v>
+      </c>
+      <c r="I29" s="21">
+        <v>0.75638711193867703</v>
+      </c>
+      <c r="J29" s="21">
+        <v>3.0980465051903998</v>
+      </c>
+      <c r="K29" s="21">
+        <v>2.1145516965381499</v>
+      </c>
+      <c r="L29" s="21">
+        <v>0.98754998326705201</v>
+      </c>
+      <c r="M29" s="21">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1.6535321258291535</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21" t="e">
+      <c r="B30" s="21">
+        <v>0.83486582711825996</v>
+      </c>
+      <c r="C30" s="21">
+        <v>1.2372199833775199</v>
+      </c>
+      <c r="D30" s="21">
+        <v>2.9851574662593401</v>
+      </c>
+      <c r="E30" s="21">
+        <v>2.16349869910731</v>
+      </c>
+      <c r="F30" s="21">
+        <v>0.98142505496936505</v>
+      </c>
+      <c r="G30" s="21">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21" t="e">
+        <v>1.640433406166359</v>
+      </c>
+      <c r="H30" s="21">
+        <v>1.46712813168283</v>
+      </c>
+      <c r="I30" s="21">
+        <v>1.0282836996351501</v>
+      </c>
+      <c r="J30" s="21">
+        <v>3.7712797612486799</v>
+      </c>
+      <c r="K30" s="21">
+        <v>2.3137621569778002</v>
+      </c>
+      <c r="L30" s="21">
+        <v>1.1999853829477001</v>
+      </c>
+      <c r="M30" s="21">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1.956087826498432</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21" t="e">
+      <c r="B31" s="21">
+        <v>1.1352731468519399</v>
+      </c>
+      <c r="C31" s="21">
+        <v>1.78239471334077</v>
+      </c>
+      <c r="D31" s="21">
+        <v>3.1723799947584501</v>
+      </c>
+      <c r="E31" s="21">
+        <v>3.2674482983944602</v>
+      </c>
+      <c r="F31" s="21">
+        <v>1.0010483862113999</v>
+      </c>
+      <c r="G31" s="21">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21" t="e">
+        <v>2.0717089079114039</v>
+      </c>
+      <c r="H31" s="21">
+        <v>2.1887330371472902</v>
+      </c>
+      <c r="I31" s="21">
+        <v>1.09727240702882</v>
+      </c>
+      <c r="J31" s="21">
+        <v>4.95048633097724</v>
+      </c>
+      <c r="K31" s="21">
+        <v>2.7262791817400398</v>
+      </c>
+      <c r="L31" s="21">
+        <v>1.6553821508193201</v>
+      </c>
+      <c r="M31" s="21">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>2.5236306215425421</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="21" t="e">
+      <c r="B32" s="21">
         <f t="shared" ref="B32:M32" si="10">AVERAGE(B26:B31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C32" s="21" t="e">
+        <v>1.1554981900393284</v>
+      </c>
+      <c r="C32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="21" t="e">
+        <v>1.4029410128043149</v>
+      </c>
+      <c r="D32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="21" t="e">
+        <v>2.3297540144878326</v>
+      </c>
+      <c r="E32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="21" t="e">
+        <v>1.8474674369369986</v>
+      </c>
+      <c r="F32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="21" t="e">
+        <v>1.1184373801354404</v>
+      </c>
+      <c r="G32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="21" t="e">
+        <v>1.5708196068807829</v>
+      </c>
+      <c r="H32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="21" t="e">
+        <v>1.343380494232371</v>
+      </c>
+      <c r="I32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" s="21" t="e">
+        <v>0.926964073658885</v>
+      </c>
+      <c r="J32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" s="21" t="e">
+        <v>2.7962744363304282</v>
+      </c>
+      <c r="K32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L32" s="21" t="e">
+        <v>1.8494849695615185</v>
+      </c>
+      <c r="L32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32" s="21" t="e">
+        <v>1.0914449751583433</v>
+      </c>
+      <c r="M32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1.6015097897883093</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -19375,228 +19627,348 @@
       <c r="A35" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21" t="e">
+      <c r="B35" s="21">
+        <v>0.58744686383216904</v>
+      </c>
+      <c r="C35" s="21">
+        <v>0.98755931499677896</v>
+      </c>
+      <c r="D35" s="21">
+        <v>0.78227658594151595</v>
+      </c>
+      <c r="E35" s="21">
+        <v>1.1362108968879101</v>
+      </c>
+      <c r="F35" s="21">
+        <v>0.57912907499868604</v>
+      </c>
+      <c r="G35" s="21">
         <f>AVERAGE(B35:F35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21" t="e">
+        <v>0.81452454733141211</v>
+      </c>
+      <c r="H35" s="21">
+        <v>1.18934585246227</v>
+      </c>
+      <c r="I35" s="21">
+        <v>0.92163585646707802</v>
+      </c>
+      <c r="J35" s="21">
+        <v>1.04458380454473</v>
+      </c>
+      <c r="K35" s="21">
+        <v>1.3204570833665701</v>
+      </c>
+      <c r="L35" s="21">
+        <v>0.90962292526224897</v>
+      </c>
+      <c r="M35" s="21">
         <f>AVERAGE(H35:L35)</f>
-        <v>#DIV/0!</v>
+        <v>1.0771291044205793</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21" t="e">
+      <c r="B36" s="21">
+        <v>1.8602679022812201</v>
+      </c>
+      <c r="C36" s="21">
+        <v>2.2272203489546301</v>
+      </c>
+      <c r="D36" s="21">
+        <v>1.93309040404459</v>
+      </c>
+      <c r="E36" s="21">
+        <v>2.2562059600326299</v>
+      </c>
+      <c r="F36" s="21">
+        <v>0.91499700962802299</v>
+      </c>
+      <c r="G36" s="21">
         <f t="shared" ref="G36:G40" si="11">AVERAGE(B36:F36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21" t="e">
+        <v>1.8383563249882182</v>
+      </c>
+      <c r="H36" s="21">
+        <v>2.8660782035937098</v>
+      </c>
+      <c r="I36" s="21">
+        <v>3.49843097878257</v>
+      </c>
+      <c r="J36" s="21">
+        <v>2.8302686818920901</v>
+      </c>
+      <c r="K36" s="21">
+        <v>4.5501922454086197</v>
+      </c>
+      <c r="L36" s="21">
+        <v>3.2350840876141902</v>
+      </c>
+      <c r="M36" s="21">
         <f t="shared" ref="M36:M40" si="12">AVERAGE(H36:L36)</f>
-        <v>#DIV/0!</v>
+        <v>3.3960108394582358</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21" t="e">
+      <c r="B37" s="21">
+        <v>0.92147546529288504</v>
+      </c>
+      <c r="C37" s="21">
+        <v>1.8614924999198199</v>
+      </c>
+      <c r="D37" s="21">
+        <v>2.1184412003175201</v>
+      </c>
+      <c r="E37" s="21">
+        <v>2.2202506005508602</v>
+      </c>
+      <c r="F37" s="21">
+        <v>1.0978591123005299</v>
+      </c>
+      <c r="G37" s="21">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21" t="e">
+        <v>1.6439037756763231</v>
+      </c>
+      <c r="H37" s="21">
+        <v>1.11381346582872</v>
+      </c>
+      <c r="I37" s="21">
+        <v>1.8692980253459499</v>
+      </c>
+      <c r="J37" s="21">
+        <v>2.77841557855329</v>
+      </c>
+      <c r="K37" s="21">
+        <v>2.7264950000564201</v>
+      </c>
+      <c r="L37" s="21">
+        <v>1.54238992556365</v>
+      </c>
+      <c r="M37" s="21">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>2.0060823990696059</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21" t="e">
+      <c r="B38" s="21">
+        <v>1.5131995464897201</v>
+      </c>
+      <c r="C38" s="21">
+        <v>2.65745351396524</v>
+      </c>
+      <c r="D38" s="21">
+        <v>2.8237633133989699</v>
+      </c>
+      <c r="E38" s="21">
+        <v>3.3738247750644899</v>
+      </c>
+      <c r="F38" s="21">
+        <v>0.96197279670159097</v>
+      </c>
+      <c r="G38" s="21">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21" t="e">
+        <v>2.2660427891240023</v>
+      </c>
+      <c r="H38" s="21">
+        <v>1.3769380547663099</v>
+      </c>
+      <c r="I38" s="21">
+        <v>3.6001455964462199</v>
+      </c>
+      <c r="J38" s="21">
+        <v>3.05090577635668</v>
+      </c>
+      <c r="K38" s="21">
+        <v>2.4580726708240399</v>
+      </c>
+      <c r="L38" s="21">
+        <v>1.53799538125838</v>
+      </c>
+      <c r="M38" s="21">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>2.4048114959303257</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21" t="e">
+      <c r="B39" s="21">
+        <v>2.3835111270625902</v>
+      </c>
+      <c r="C39" s="21">
+        <v>2.44246278708325</v>
+      </c>
+      <c r="D39" s="21">
+        <v>3.18740141700364</v>
+      </c>
+      <c r="E39" s="21">
+        <v>3.6998894286689001</v>
+      </c>
+      <c r="F39" s="21">
+        <v>1.3963405392933299</v>
+      </c>
+      <c r="G39" s="21">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21" t="e">
+        <v>2.6219210598223421</v>
+      </c>
+      <c r="H39" s="21">
+        <v>1.86645047908057</v>
+      </c>
+      <c r="I39" s="21">
+        <v>5.0445066151297304</v>
+      </c>
+      <c r="J39" s="21">
+        <v>3.52840254455564</v>
+      </c>
+      <c r="K39" s="21">
+        <v>2.5522745565397802</v>
+      </c>
+      <c r="L39" s="21">
+        <v>1.4166550798434101</v>
+      </c>
+      <c r="M39" s="21">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>2.8816578550298262</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21" t="e">
+      <c r="B40" s="21">
+        <v>4.2368155021613996</v>
+      </c>
+      <c r="C40" s="21">
+        <v>3.75411545382488</v>
+      </c>
+      <c r="D40" s="21">
+        <v>3.7883560829281002</v>
+      </c>
+      <c r="E40" s="21">
+        <v>4.9522338412938298</v>
+      </c>
+      <c r="F40" s="21">
+        <v>1.5001228447720201</v>
+      </c>
+      <c r="G40" s="21">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21" t="e">
+        <v>3.6463287449960453</v>
+      </c>
+      <c r="H40" s="21">
+        <v>3.9804284056389498</v>
+      </c>
+      <c r="I40" s="21">
+        <v>4.7817984763674097</v>
+      </c>
+      <c r="J40" s="21">
+        <v>4.5593508383410803</v>
+      </c>
+      <c r="K40" s="21">
+        <v>3.91981672424496</v>
+      </c>
+      <c r="L40" s="21">
+        <v>2.8046257083366002</v>
+      </c>
+      <c r="M40" s="21">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>4.009204030585801</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B41" s="21" t="e">
+      <c r="B41" s="21">
         <f t="shared" ref="B41:M41" si="13">AVERAGE(B35:B40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C41" s="21" t="e">
+        <v>1.9171194011866639</v>
+      </c>
+      <c r="C41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D41" s="21" t="e">
+        <v>2.3217173197907663</v>
+      </c>
+      <c r="D41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E41" s="21" t="e">
+        <v>2.4388881672723897</v>
+      </c>
+      <c r="E41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F41" s="21" t="e">
+        <v>2.9397692504164366</v>
+      </c>
+      <c r="F41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G41" s="21" t="e">
+        <v>1.0750702296156966</v>
+      </c>
+      <c r="G41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H41" s="21" t="e">
+        <v>2.1385128736563908</v>
+      </c>
+      <c r="H41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="21" t="e">
+        <v>2.0655090768950881</v>
+      </c>
+      <c r="I41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J41" s="21" t="e">
+        <v>3.2859692580898265</v>
+      </c>
+      <c r="J41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="21" t="e">
+        <v>2.9653212040405847</v>
+      </c>
+      <c r="K41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L41" s="21" t="e">
+        <v>2.9212180467400644</v>
+      </c>
+      <c r="L41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="21" t="e">
+        <v>1.9077288513130799</v>
+      </c>
+      <c r="M41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>2.629149287415729</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="36"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="35"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33" t="s">
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -19643,349 +20015,589 @@
       <c r="A45" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21" t="e">
+      <c r="B45" s="21">
+        <v>0.96664622384975496</v>
+      </c>
+      <c r="C45" s="21">
+        <v>0.62992343824023</v>
+      </c>
+      <c r="D45" s="21">
+        <v>0.73028440480684098</v>
+      </c>
+      <c r="E45" s="21">
+        <v>0.51519974660852197</v>
+      </c>
+      <c r="F45" s="21">
+        <v>0.97394598350299399</v>
+      </c>
+      <c r="G45" s="21">
         <f>AVERAGE(B45:F45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21" t="e">
+        <v>0.76319995940166829</v>
+      </c>
+      <c r="H45" s="21">
+        <v>1.64313794575324</v>
+      </c>
+      <c r="I45" s="21">
+        <v>1.4591731650884801</v>
+      </c>
+      <c r="J45" s="21">
+        <v>1.16401334857959</v>
+      </c>
+      <c r="K45" s="21">
+        <v>1.31970785797788</v>
+      </c>
+      <c r="L45" s="21">
+        <v>0.89713093313696501</v>
+      </c>
+      <c r="M45" s="21">
         <f>AVERAGE(H45:L45)</f>
-        <v>#DIV/0!</v>
+        <v>1.2966326501072309</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21" t="e">
+      <c r="B46" s="21">
+        <v>1.3865779417020301</v>
+      </c>
+      <c r="C46" s="21">
+        <v>1.20292332543341</v>
+      </c>
+      <c r="D46" s="21">
+        <v>3.1930674008182902</v>
+      </c>
+      <c r="E46" s="21">
+        <v>2.0933067234904201</v>
+      </c>
+      <c r="F46" s="21">
+        <v>1.4165139140049701</v>
+      </c>
+      <c r="G46" s="21">
         <f t="shared" ref="G46:G56" si="14">AVERAGE(B46:F46)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21" t="e">
+        <v>1.858477861089824</v>
+      </c>
+      <c r="H46" s="21">
+        <v>2.61564881624638</v>
+      </c>
+      <c r="I46" s="21">
+        <v>2.4753202767623499</v>
+      </c>
+      <c r="J46" s="21">
+        <v>6.1014558130403804</v>
+      </c>
+      <c r="K46" s="21">
+        <v>4.2956980762728696</v>
+      </c>
+      <c r="L46" s="21">
+        <v>3.3183381505118001</v>
+      </c>
+      <c r="M46" s="21">
         <f t="shared" ref="M46:M56" si="15">AVERAGE(H46:L46)</f>
-        <v>#DIV/0!</v>
+        <v>3.7612922265667557</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21" t="e">
+      <c r="B47" s="21">
+        <v>0.91463259518995799</v>
+      </c>
+      <c r="C47" s="21">
+        <v>0.85703935277416099</v>
+      </c>
+      <c r="D47" s="21">
+        <v>1.9901918815528901</v>
+      </c>
+      <c r="E47" s="21">
+        <v>1.3495201812967199</v>
+      </c>
+      <c r="F47" s="21">
+        <v>2.4280297648206099</v>
+      </c>
+      <c r="G47" s="21">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21" t="e">
+        <v>1.5078827551268676</v>
+      </c>
+      <c r="H47" s="21">
+        <v>3.9215741097959702</v>
+      </c>
+      <c r="I47" s="21">
+        <v>1.70347390051991</v>
+      </c>
+      <c r="J47" s="21">
+        <v>2.94303341548882</v>
+      </c>
+      <c r="K47" s="21">
+        <v>2.4315183290123099</v>
+      </c>
+      <c r="L47" s="21">
+        <v>1.0047138330312599</v>
+      </c>
+      <c r="M47" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>2.400862717569654</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21" t="e">
+      <c r="B48" s="21">
+        <v>0.91226580617987496</v>
+      </c>
+      <c r="C48" s="21">
+        <v>0.869126243839216</v>
+      </c>
+      <c r="D48" s="21">
+        <v>2.93766564875127</v>
+      </c>
+      <c r="E48" s="21">
+        <v>2.5070242946024202</v>
+      </c>
+      <c r="F48" s="21">
+        <v>2.5679758025917301</v>
+      </c>
+      <c r="G48" s="21">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21" t="e">
+        <v>1.9588115591929021</v>
+      </c>
+      <c r="H48" s="21">
+        <v>2.1991878973057402</v>
+      </c>
+      <c r="I48" s="21">
+        <v>1.3068997806370399</v>
+      </c>
+      <c r="J48" s="21">
+        <v>2.6505711199130002</v>
+      </c>
+      <c r="K48" s="21">
+        <v>2.4286821193599799</v>
+      </c>
+      <c r="L48" s="21">
+        <v>1.1898613228117001</v>
+      </c>
+      <c r="M48" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.9550404480054919</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21" t="e">
+      <c r="B49" s="21">
+        <v>0.936826721369726</v>
+      </c>
+      <c r="C49" s="21">
+        <v>1.4016413317677401</v>
+      </c>
+      <c r="D49" s="21">
+        <v>3.71445705422936</v>
+      </c>
+      <c r="E49" s="21">
+        <v>2.23985221074423</v>
+      </c>
+      <c r="F49" s="21">
+        <v>2.6327186411458201</v>
+      </c>
+      <c r="G49" s="21">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21" t="e">
+        <v>2.1850991918513754</v>
+      </c>
+      <c r="H49" s="21">
+        <v>1.9177073507745399</v>
+      </c>
+      <c r="I49" s="21">
+        <v>1.8849435090414099</v>
+      </c>
+      <c r="J49" s="21">
+        <v>3.41549074949776</v>
+      </c>
+      <c r="K49" s="21">
+        <v>2.52728984970092</v>
+      </c>
+      <c r="L49" s="21">
+        <v>1.43621530895036</v>
+      </c>
+      <c r="M49" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>2.2363293535929976</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21" t="e">
+      <c r="B50" s="21">
+        <v>1.0214152141750299</v>
+      </c>
+      <c r="C50" s="21">
+        <v>1.38251099504814</v>
+      </c>
+      <c r="D50" s="21">
+        <v>3.3239233959713901</v>
+      </c>
+      <c r="E50" s="21">
+        <v>3.1689090500317199</v>
+      </c>
+      <c r="F50" s="21">
+        <v>3.1430945170809999</v>
+      </c>
+      <c r="G50" s="21">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21" t="e">
+        <v>2.407970634461456</v>
+      </c>
+      <c r="H50" s="21">
+        <v>2.4659393763634099</v>
+      </c>
+      <c r="I50" s="21">
+        <v>2.1890983129119999</v>
+      </c>
+      <c r="J50" s="21">
+        <v>5.15168531255497</v>
+      </c>
+      <c r="K50" s="21">
+        <v>3.9002119467213299</v>
+      </c>
+      <c r="L50" s="21">
+        <v>3.1073374607458901</v>
+      </c>
+      <c r="M50" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>3.3628544818595203</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21" t="e">
+      <c r="B51" s="21">
+        <v>1.0991244271810401</v>
+      </c>
+      <c r="C51" s="21">
+        <v>1.8348673788455201</v>
+      </c>
+      <c r="D51" s="21">
+        <v>3.07351740299397</v>
+      </c>
+      <c r="E51" s="21">
+        <v>3.6239776949449798</v>
+      </c>
+      <c r="F51" s="21">
+        <v>2.6728133490758101</v>
+      </c>
+      <c r="G51" s="21">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21" t="e">
+        <v>2.4608600506082636</v>
+      </c>
+      <c r="H51" s="21">
+        <v>2.321962019816</v>
+      </c>
+      <c r="I51" s="21">
+        <v>2.3843075547605102</v>
+      </c>
+      <c r="J51" s="21">
+        <v>5.5363466827684196</v>
+      </c>
+      <c r="K51" s="21">
+        <v>4.1885007365740199</v>
+      </c>
+      <c r="L51" s="21">
+        <v>3.3914658841618199</v>
+      </c>
+      <c r="M51" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>3.5645165756161541</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21" t="e">
+      <c r="B52" s="21">
+        <v>1.1699537346587701</v>
+      </c>
+      <c r="C52" s="21">
+        <v>2.35712209882929</v>
+      </c>
+      <c r="D52" s="21">
+        <v>3.1459463494265298</v>
+      </c>
+      <c r="E52" s="21">
+        <v>3.1494045839030602</v>
+      </c>
+      <c r="F52" s="21">
+        <v>2.2498561913413999</v>
+      </c>
+      <c r="G52" s="21">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21" t="e">
+        <v>2.4144565916318101</v>
+      </c>
+      <c r="H52" s="21">
+        <v>2.3740265231462399</v>
+      </c>
+      <c r="I52" s="21">
+        <v>2.3193020896017602</v>
+      </c>
+      <c r="J52" s="21">
+        <v>4.7785948264613998</v>
+      </c>
+      <c r="K52" s="21">
+        <v>3.6950233302394699</v>
+      </c>
+      <c r="L52" s="21">
+        <v>2.9651372000785399</v>
+      </c>
+      <c r="M52" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>3.2264167939054822</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21" t="e">
+      <c r="B53" s="21">
+        <v>1.3574078651596699</v>
+      </c>
+      <c r="C53" s="21">
+        <v>2.9328306965872399</v>
+      </c>
+      <c r="D53" s="21">
+        <v>2.5321214604767501</v>
+      </c>
+      <c r="E53" s="21">
+        <v>2.4813849309715899</v>
+      </c>
+      <c r="F53" s="21">
+        <v>1.9411727258576701</v>
+      </c>
+      <c r="G53" s="21">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21" t="e">
+        <v>2.2489835358105839</v>
+      </c>
+      <c r="H53" s="21">
+        <v>1.94973517897217</v>
+      </c>
+      <c r="I53" s="21">
+        <v>2.3445066559091798</v>
+      </c>
+      <c r="J53" s="21">
+        <v>3.77608564758328</v>
+      </c>
+      <c r="K53" s="21">
+        <v>2.9423200718084299</v>
+      </c>
+      <c r="L53" s="21">
+        <v>2.3401260345580899</v>
+      </c>
+      <c r="M53" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>2.6705547177662297</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21" t="e">
+      <c r="B54" s="21">
+        <v>1.16144753444496</v>
+      </c>
+      <c r="C54" s="21">
+        <v>2.6260198397230199</v>
+      </c>
+      <c r="D54" s="21">
+        <v>2.4332241731415198</v>
+      </c>
+      <c r="E54" s="21">
+        <v>1.6331868393789399</v>
+      </c>
+      <c r="F54" s="21">
+        <v>2.2135967641873702</v>
+      </c>
+      <c r="G54" s="21">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21" t="e">
+        <v>2.0134950301751617</v>
+      </c>
+      <c r="H54" s="21">
+        <v>1.51328923569677</v>
+      </c>
+      <c r="I54" s="21">
+        <v>1.2281872349788201</v>
+      </c>
+      <c r="J54" s="21">
+        <v>2.4188379148077099</v>
+      </c>
+      <c r="K54" s="21">
+        <v>2.4370358441256501</v>
+      </c>
+      <c r="L54" s="21">
+        <v>1.32818871078681</v>
+      </c>
+      <c r="M54" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.7851077880791522</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21" t="e">
+      <c r="B55" s="21">
+        <v>1.24367145819544</v>
+      </c>
+      <c r="C55" s="21">
+        <v>2.4360222193796299</v>
+      </c>
+      <c r="D55" s="21">
+        <v>2.2749709094134198</v>
+      </c>
+      <c r="E55" s="21">
+        <v>1.51984288887406</v>
+      </c>
+      <c r="F55" s="21">
+        <v>2.0769940135547098</v>
+      </c>
+      <c r="G55" s="21">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21" t="e">
+        <v>1.910300297883452</v>
+      </c>
+      <c r="H55" s="21">
+        <v>1.3628937611443499</v>
+      </c>
+      <c r="I55" s="21">
+        <v>1.4053928711377699</v>
+      </c>
+      <c r="J55" s="21">
+        <v>1.40689391244991</v>
+      </c>
+      <c r="K55" s="21">
+        <v>1.6772245600203499</v>
+      </c>
+      <c r="L55" s="21">
+        <v>0.89774682849785503</v>
+      </c>
+      <c r="M55" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.3500303866500469</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21" t="e">
+      <c r="B56" s="21">
+        <v>0.47494425309745297</v>
+      </c>
+      <c r="C56" s="21">
+        <v>1.7880644422709799</v>
+      </c>
+      <c r="D56" s="21">
+        <v>1.65771187064287</v>
+      </c>
+      <c r="E56" s="21">
+        <v>2.6116743308686798</v>
+      </c>
+      <c r="F56" s="21">
+        <v>1.8712304409997</v>
+      </c>
+      <c r="G56" s="21">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21" t="e">
+        <v>1.6807250675759366</v>
+      </c>
+      <c r="H56" s="21">
+        <v>3.3331301826636799</v>
+      </c>
+      <c r="I56" s="21">
+        <v>1.3416082137602801</v>
+      </c>
+      <c r="J56" s="21">
+        <v>3.41630080423595</v>
+      </c>
+      <c r="K56" s="21">
+        <v>3.7887616900515102</v>
+      </c>
+      <c r="L56" s="21">
+        <v>2.4992187811766602</v>
+      </c>
+      <c r="M56" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>2.8758039343776161</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B57" s="21" t="e">
+      <c r="B57" s="21">
         <f t="shared" ref="B57:M57" si="16">AVERAGE(B45:B56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C57" s="21" t="e">
+        <v>1.0537428146003089</v>
+      </c>
+      <c r="C57" s="21">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D57" s="21" t="e">
+        <v>1.6931742802282148</v>
+      </c>
+      <c r="D57" s="21">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E57" s="21" t="e">
+        <v>2.5839234960187585</v>
+      </c>
+      <c r="E57" s="21">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F57" s="21" t="e">
+        <v>2.2411069563096118</v>
+      </c>
+      <c r="F57" s="21">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G57" s="21" t="e">
+        <v>2.1823285090136486</v>
+      </c>
+      <c r="G57" s="21">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H57" s="21" t="e">
+        <v>1.9508552112341082</v>
+      </c>
+      <c r="H57" s="21">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I57" s="21" t="e">
+        <v>2.3015193664732072</v>
+      </c>
+      <c r="I57" s="21">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J57" s="21" t="e">
+        <v>1.8368511304257924</v>
+      </c>
+      <c r="J57" s="21">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K57" s="21" t="e">
+        <v>3.5632757956150996</v>
+      </c>
+      <c r="K57" s="21">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L57" s="21" t="e">
+        <v>2.9693312009887265</v>
+      </c>
+      <c r="L57" s="21">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M57" s="21" t="e">
+        <v>2.031290037370646</v>
+      </c>
+      <c r="M57" s="21">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>2.540453506174694</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33" t="s">
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -20032,366 +20644,606 @@
       <c r="A60" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21" t="e">
+      <c r="B60" s="21">
+        <v>0.77006486442625099</v>
+      </c>
+      <c r="C60" s="21">
+        <v>1.2411152717620999</v>
+      </c>
+      <c r="D60" s="21">
+        <v>1.18530665024094</v>
+      </c>
+      <c r="E60" s="21">
+        <v>1.55893486049472</v>
+      </c>
+      <c r="F60" s="21">
+        <v>0.82311817513428198</v>
+      </c>
+      <c r="G60" s="21">
         <f>AVERAGE(B60:F60)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21" t="e">
+        <v>1.1157079644116585</v>
+      </c>
+      <c r="H60" s="21">
+        <v>1.03334129982586</v>
+      </c>
+      <c r="I60" s="21">
+        <v>1.82507624787506</v>
+      </c>
+      <c r="J60" s="21">
+        <v>1.08710126880103</v>
+      </c>
+      <c r="K60" s="21">
+        <v>1.32823299761781</v>
+      </c>
+      <c r="L60" s="21">
+        <v>0.91208308111904501</v>
+      </c>
+      <c r="M60" s="21">
         <f>AVERAGE(H60:L60)</f>
-        <v>#DIV/0!</v>
+        <v>1.2371669790477609</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21" t="e">
+      <c r="B61" s="21">
+        <v>2.36020286047565</v>
+      </c>
+      <c r="C61" s="21">
+        <v>2.1238574028016299</v>
+      </c>
+      <c r="D61" s="21">
+        <v>1.7938949955109</v>
+      </c>
+      <c r="E61" s="21">
+        <v>2.31328342065295</v>
+      </c>
+      <c r="F61" s="21">
+        <v>1.7763694513020301</v>
+      </c>
+      <c r="G61" s="21">
         <f t="shared" ref="G61:G71" si="17">AVERAGE(B61:F61)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21" t="e">
+        <v>2.073521626148632</v>
+      </c>
+      <c r="H61" s="21">
+        <v>2.6672822867884198</v>
+      </c>
+      <c r="I61" s="21">
+        <v>2.9134537002165999</v>
+      </c>
+      <c r="J61" s="21">
+        <v>3.5467936911439999</v>
+      </c>
+      <c r="K61" s="21">
+        <v>3.8094011676723598</v>
+      </c>
+      <c r="L61" s="21">
+        <v>3.3004055627926898</v>
+      </c>
+      <c r="M61" s="21">
         <f t="shared" ref="M61:M71" si="18">AVERAGE(H61:L61)</f>
-        <v>#DIV/0!</v>
+        <v>3.2474672817228138</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21" t="e">
+      <c r="B62" s="21">
+        <v>1.12076960316262</v>
+      </c>
+      <c r="C62" s="21">
+        <v>1.7160986464291601</v>
+      </c>
+      <c r="D62" s="21">
+        <v>2.63954285294635</v>
+      </c>
+      <c r="E62" s="21">
+        <v>2.0210007287514502</v>
+      </c>
+      <c r="F62" s="21">
+        <v>1.3745778526627299</v>
+      </c>
+      <c r="G62" s="21">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21" t="e">
+        <v>1.7743979367904619</v>
+      </c>
+      <c r="H62" s="21">
+        <v>1.0332940171414899</v>
+      </c>
+      <c r="I62" s="21">
+        <v>2.7335052138659202</v>
+      </c>
+      <c r="J62" s="21">
+        <v>2.81558576569148</v>
+      </c>
+      <c r="K62" s="21">
+        <v>2.0818808328304201</v>
+      </c>
+      <c r="L62" s="21">
+        <v>1.34600120544985</v>
+      </c>
+      <c r="M62" s="21">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>2.0020534069958318</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21" t="e">
+      <c r="B63" s="21">
+        <v>1.1547964618709201</v>
+      </c>
+      <c r="C63" s="21">
+        <v>0.98262904560786302</v>
+      </c>
+      <c r="D63" s="21">
+        <v>2.5924149907647598</v>
+      </c>
+      <c r="E63" s="21">
+        <v>2.2008182066593802</v>
+      </c>
+      <c r="F63" s="21">
+        <v>1.17344200999672</v>
+      </c>
+      <c r="G63" s="21">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21" t="e">
+        <v>1.6208201429799285</v>
+      </c>
+      <c r="H63" s="21">
+        <v>1.6546518016745999</v>
+      </c>
+      <c r="I63" s="21">
+        <v>1.69705653915017</v>
+      </c>
+      <c r="J63" s="21">
+        <v>2.91620699150389</v>
+      </c>
+      <c r="K63" s="21">
+        <v>2.5911406719955501</v>
+      </c>
+      <c r="L63" s="21">
+        <v>1.1118607652914401</v>
+      </c>
+      <c r="M63" s="21">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>1.9941833539231297</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A64" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21" t="e">
+      <c r="B64" s="21">
+        <v>1.31223936014413</v>
+      </c>
+      <c r="C64" s="21">
+        <v>1.06837243855827</v>
+      </c>
+      <c r="D64" s="21">
+        <v>3.10615348412834</v>
+      </c>
+      <c r="E64" s="21">
+        <v>2.1414992639587198</v>
+      </c>
+      <c r="F64" s="21">
+        <v>1.7232167291643301</v>
+      </c>
+      <c r="G64" s="21">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21" t="e">
+        <v>1.8702962551907578</v>
+      </c>
+      <c r="H64" s="21">
+        <v>2.1430800912490899</v>
+      </c>
+      <c r="I64" s="21">
+        <v>1.81244026348404</v>
+      </c>
+      <c r="J64" s="21">
+        <v>3.6153117687840299</v>
+      </c>
+      <c r="K64" s="21">
+        <v>2.9233431388012199</v>
+      </c>
+      <c r="L64" s="21">
+        <v>1.3162072831687801</v>
+      </c>
+      <c r="M64" s="21">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>2.3620765090974318</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21" t="e">
+      <c r="B65" s="21">
+        <v>1.75374111737792</v>
+      </c>
+      <c r="C65" s="21">
+        <v>1.84547325715934</v>
+      </c>
+      <c r="D65" s="21">
+        <v>3.2395567040058202</v>
+      </c>
+      <c r="E65" s="21">
+        <v>3.2028922780036302</v>
+      </c>
+      <c r="F65" s="21">
+        <v>2.2040829086842502</v>
+      </c>
+      <c r="G65" s="21">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21" t="e">
+        <v>2.4491492530461918</v>
+      </c>
+      <c r="H65" s="21">
+        <v>3.5219342907144799</v>
+      </c>
+      <c r="I65" s="21">
+        <v>2.12219497761975</v>
+      </c>
+      <c r="J65" s="21">
+        <v>4.94098660518838</v>
+      </c>
+      <c r="K65" s="21">
+        <v>4.42880075503263</v>
+      </c>
+      <c r="L65" s="21">
+        <v>2.9752135662660901</v>
+      </c>
+      <c r="M65" s="21">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>3.5978260389642656</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21" t="e">
+      <c r="B66" s="21">
+        <v>1.8296080744410901</v>
+      </c>
+      <c r="C66" s="21">
+        <v>2.2700708185887999</v>
+      </c>
+      <c r="D66" s="21">
+        <v>2.6480116397661901</v>
+      </c>
+      <c r="E66" s="21">
+        <v>3.7606146418402799</v>
+      </c>
+      <c r="F66" s="21">
+        <v>1.80294265752227</v>
+      </c>
+      <c r="G66" s="21">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21" t="e">
+        <v>2.4622495664317254</v>
+      </c>
+      <c r="H66" s="21">
+        <v>3.6693058371802301</v>
+      </c>
+      <c r="I66" s="21">
+        <v>2.5701356695728901</v>
+      </c>
+      <c r="J66" s="21">
+        <v>4.6749480457003303</v>
+      </c>
+      <c r="K66" s="21">
+        <v>5.2226128312308102</v>
+      </c>
+      <c r="L66" s="21">
+        <v>3.3863588708266401</v>
+      </c>
+      <c r="M66" s="21">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>3.9046722509021805</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21" t="e">
+      <c r="B67" s="21">
+        <v>1.5591029273345101</v>
+      </c>
+      <c r="C67" s="21">
+        <v>2.2244120958213398</v>
+      </c>
+      <c r="D67" s="21">
+        <v>2.4964740748918901</v>
+      </c>
+      <c r="E67" s="21">
+        <v>3.2084910834700602</v>
+      </c>
+      <c r="F67" s="21">
+        <v>1.39666642603623</v>
+      </c>
+      <c r="G67" s="21">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21" t="e">
+        <v>2.1770293215108061</v>
+      </c>
+      <c r="H67" s="21">
+        <v>3.1167050483896599</v>
+      </c>
+      <c r="I67" s="21">
+        <v>2.4874494065833299</v>
+      </c>
+      <c r="J67" s="21">
+        <v>4.3785782098179302</v>
+      </c>
+      <c r="K67" s="21">
+        <v>4.9137752982512897</v>
+      </c>
+      <c r="L67" s="21">
+        <v>3.3656151783976198</v>
+      </c>
+      <c r="M67" s="21">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>3.652424628287966</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21" t="e">
+      <c r="B68" s="21">
+        <v>1.27786239786992</v>
+      </c>
+      <c r="C68" s="21">
+        <v>2.24134641073428</v>
+      </c>
+      <c r="D68" s="21">
+        <v>2.5383975705295398</v>
+      </c>
+      <c r="E68" s="21">
+        <v>2.4611546467302401</v>
+      </c>
+      <c r="F68" s="21">
+        <v>1.21135498443689</v>
+      </c>
+      <c r="G68" s="21">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21" t="e">
+        <v>1.9460232020601738</v>
+      </c>
+      <c r="H68" s="21">
+        <v>2.4904298819631099</v>
+      </c>
+      <c r="I68" s="21">
+        <v>3.3344421063859602</v>
+      </c>
+      <c r="J68" s="21">
+        <v>3.5458796635551502</v>
+      </c>
+      <c r="K68" s="21">
+        <v>4.62689384059611</v>
+      </c>
+      <c r="L68" s="21">
+        <v>2.8974682095638302</v>
+      </c>
+      <c r="M68" s="21">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>3.3790227404128315</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21" t="e">
+      <c r="B69" s="21">
+        <v>0.89791437691185405</v>
+      </c>
+      <c r="C69" s="21">
+        <v>1.2282959493776999</v>
+      </c>
+      <c r="D69" s="21">
+        <v>1.60016215996941</v>
+      </c>
+      <c r="E69" s="21">
+        <v>2.3513635259033498</v>
+      </c>
+      <c r="F69" s="21">
+        <v>1.1094266377617099</v>
+      </c>
+      <c r="G69" s="21">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21" t="e">
+        <v>1.4374325299848048</v>
+      </c>
+      <c r="H69" s="21">
+        <v>1.70925723438545</v>
+      </c>
+      <c r="I69" s="21">
+        <v>2.4057220572474098</v>
+      </c>
+      <c r="J69" s="21">
+        <v>2.4281462903409801</v>
+      </c>
+      <c r="K69" s="21">
+        <v>4.0474729727981398</v>
+      </c>
+      <c r="L69" s="21">
+        <v>2.46977261637885</v>
+      </c>
+      <c r="M69" s="21">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>2.6120742342301662</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21" t="e">
+      <c r="B70" s="21">
+        <v>1.1998661106196999</v>
+      </c>
+      <c r="C70" s="21">
+        <v>1.7714022664021201</v>
+      </c>
+      <c r="D70" s="21">
+        <v>2.0769969561655701</v>
+      </c>
+      <c r="E70" s="21">
+        <v>1.9182739130052699</v>
+      </c>
+      <c r="F70" s="21">
+        <v>1.0821939207226901</v>
+      </c>
+      <c r="G70" s="21">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="21" t="e">
+        <v>1.6097466333830699</v>
+      </c>
+      <c r="H70" s="21">
+        <v>2.3709796301339798</v>
+      </c>
+      <c r="I70" s="21">
+        <v>3.63573651824735</v>
+      </c>
+      <c r="J70" s="21">
+        <v>1.4219551895292499</v>
+      </c>
+      <c r="K70" s="21">
+        <v>4.9100868452906496</v>
+      </c>
+      <c r="L70" s="21">
+        <v>2.2542346759535001</v>
+      </c>
+      <c r="M70" s="21">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>2.9185985718309455</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21" t="e">
+      <c r="B71" s="21">
+        <v>1.4522321297185801</v>
+      </c>
+      <c r="C71" s="21">
+        <v>1.89764162130786</v>
+      </c>
+      <c r="D71" s="21">
+        <v>2.64079874661835</v>
+      </c>
+      <c r="E71" s="21">
+        <v>2.4914120718026198</v>
+      </c>
+      <c r="F71" s="21">
+        <v>2.8184194123503699</v>
+      </c>
+      <c r="G71" s="21">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="21" t="e">
+        <v>2.2601007963595556</v>
+      </c>
+      <c r="H71" s="21">
+        <v>1.2069304262331899</v>
+      </c>
+      <c r="I71" s="21">
+        <v>4.85452061116015</v>
+      </c>
+      <c r="J71" s="21">
+        <v>2.99965225627871</v>
+      </c>
+      <c r="K71" s="21">
+        <v>4.2591730148950599</v>
+      </c>
+      <c r="L71" s="21">
+        <v>1.3020373268535299</v>
+      </c>
+      <c r="M71" s="21">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>2.9244627270841277</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B72" s="21" t="e">
+      <c r="B72" s="21">
         <f t="shared" ref="B72:M72" si="19">AVERAGE(B60:B71)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C72" s="21" t="e">
+        <v>1.3907000236960958</v>
+      </c>
+      <c r="C72" s="21">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D72" s="21" t="e">
+        <v>1.7175596020458717</v>
+      </c>
+      <c r="D72" s="21">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E72" s="21" t="e">
+        <v>2.3798092354615048</v>
+      </c>
+      <c r="E72" s="21">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F72" s="21" t="e">
+        <v>2.4691448867727224</v>
+      </c>
+      <c r="F72" s="21">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G72" s="21" t="e">
+        <v>1.5413175971478752</v>
+      </c>
+      <c r="G72" s="21">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H72" s="21" t="e">
+        <v>1.8997062690248134</v>
+      </c>
+      <c r="H72" s="21">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I72" s="21" t="e">
+        <v>2.2180993204732968</v>
+      </c>
+      <c r="I72" s="21">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J72" s="21" t="e">
+        <v>2.6993111092840523</v>
+      </c>
+      <c r="J72" s="21">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K72" s="21" t="e">
+        <v>3.1975954788612633</v>
+      </c>
+      <c r="K72" s="21">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L72" s="21" t="e">
+        <v>3.7619011972510044</v>
+      </c>
+      <c r="L72" s="21">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M72" s="21" t="e">
+        <v>2.2197715285051554</v>
+      </c>
+      <c r="M72" s="21">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+        <v>2.819335726874955</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="34" t="s">
+      <c r="A73" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="36"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="35"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33" t="s">
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -21869,22 +22721,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="33" t="s">
+      <c r="C137" s="36"/>
+      <c r="D137" s="36"/>
+      <c r="E137" s="36"/>
+      <c r="F137" s="36"/>
+      <c r="G137" s="36"/>
+      <c r="H137" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="33"/>
-      <c r="J137" s="33"/>
-      <c r="K137" s="33"/>
-      <c r="L137" s="33"/>
-      <c r="M137" s="33"/>
+      <c r="I137" s="36"/>
+      <c r="J137" s="36"/>
+      <c r="K137" s="36"/>
+      <c r="L137" s="36"/>
+      <c r="M137" s="36"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -23362,12 +24214,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:M137"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="B11:G11"/>
@@ -23382,11 +24233,12 @@
     <mergeCell ref="A42:M42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:M43"/>
-    <mergeCell ref="A73:M73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:M74"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:M137"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23411,40 +24263,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -23565,22 +24417,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -23700,40 +24552,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -23901,22 +24753,22 @@
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -24083,40 +24935,40 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="36"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="35"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -24352,22 +25204,22 @@
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -24602,40 +25454,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="36"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="35"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33" t="s">
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -25009,22 +25861,22 @@
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33" t="s">
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -25397,40 +26249,40 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="34" t="s">
+      <c r="A73" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="36"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="35"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33" t="s">
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -26908,22 +27760,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="33" t="s">
+      <c r="C137" s="36"/>
+      <c r="D137" s="36"/>
+      <c r="E137" s="36"/>
+      <c r="F137" s="36"/>
+      <c r="G137" s="36"/>
+      <c r="H137" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="33"/>
-      <c r="J137" s="33"/>
-      <c r="K137" s="33"/>
-      <c r="L137" s="33"/>
-      <c r="M137" s="33"/>
+      <c r="I137" s="36"/>
+      <c r="J137" s="36"/>
+      <c r="K137" s="36"/>
+      <c r="L137" s="36"/>
+      <c r="M137" s="36"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -28401,12 +29253,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:M137"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="B11:G11"/>
@@ -28421,11 +29272,12 @@
     <mergeCell ref="A42:M42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:M43"/>
-    <mergeCell ref="A73:M73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:M74"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:M137"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28450,40 +29302,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="20"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20" t="s">
@@ -28604,22 +29456,22 @@
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="20"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="20" t="s">
@@ -28739,40 +29591,40 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="20"/>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
@@ -28940,22 +29792,22 @@
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="20"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="20" t="s">
@@ -29122,40 +29974,40 @@
       <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="36"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="35"/>
     </row>
     <row r="24" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
     </row>
     <row r="25" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="20" t="s">
@@ -29391,22 +30243,22 @@
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="20"/>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
     </row>
     <row r="34" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="20" t="s">
@@ -29641,40 +30493,40 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="36"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="35"/>
     </row>
     <row r="43" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="20"/>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33" t="s">
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
     </row>
     <row r="44" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="20" t="s">
@@ -30048,22 +30900,22 @@
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="20"/>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33" t="s">
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
     </row>
     <row r="59" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="20" t="s">
@@ -30436,40 +31288,40 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="34" t="s">
+      <c r="A73" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="36"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="35"/>
     </row>
     <row r="74" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="20"/>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33" t="s">
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
     </row>
     <row r="75" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="20" t="s">
@@ -31947,22 +32799,22 @@
     </row>
     <row r="137" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A137" s="20"/>
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="33" t="s">
+      <c r="C137" s="36"/>
+      <c r="D137" s="36"/>
+      <c r="E137" s="36"/>
+      <c r="F137" s="36"/>
+      <c r="G137" s="36"/>
+      <c r="H137" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="I137" s="33"/>
-      <c r="J137" s="33"/>
-      <c r="K137" s="33"/>
-      <c r="L137" s="33"/>
-      <c r="M137" s="33"/>
+      <c r="I137" s="36"/>
+      <c r="J137" s="36"/>
+      <c r="K137" s="36"/>
+      <c r="L137" s="36"/>
+      <c r="M137" s="36"/>
     </row>
     <row r="138" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A138" s="20" t="s">
@@ -33440,12 +34292,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="H137:M137"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="B11:G11"/>
@@ -33460,11 +34311,12 @@
     <mergeCell ref="A42:M42"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="H43:M43"/>
-    <mergeCell ref="A73:M73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:M74"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="H137:M137"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33491,42 +34343,42 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="37" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="37" t="s">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="37" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="37" t="s">
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="39"/>
-      <c r="AA2" s="37" t="s">
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="41"/>
+      <c r="AA2" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="39"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="41"/>
     </row>
     <row r="3" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
@@ -33621,16 +34473,16 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="37">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -33717,10 +34569,10 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
@@ -33805,10 +34657,10 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
@@ -33897,41 +34749,41 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="37" t="s">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="37" t="s">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="37" t="s">
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="37" t="s">
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="39"/>
-      <c r="AA7" s="40" t="s">
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="41"/>
+      <c r="AA7" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
       <c r="AD7" s="13">
         <f>AVERAGE(I73, M73, Q73, U73, Y73)</f>
         <v>1.5016363636363637</v>
@@ -34275,36 +35127,36 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="37" t="s">
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="37" t="s">
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="37" t="s">
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="37" t="s">
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="39"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="41"/>
     </row>
     <row r="14" spans="1:30" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E14" s="3" t="s">
@@ -34644,36 +35496,36 @@
       </c>
     </row>
     <row r="19" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="37" t="s">
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="37" t="s">
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="37" t="s">
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="37" t="s">
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="39"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="41"/>
     </row>
     <row r="20" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E20" s="3" t="s">
@@ -35013,36 +35865,36 @@
       </c>
     </row>
     <row r="25" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="37" t="s">
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="37" t="s">
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="37" t="s">
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="37" t="s">
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="39"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="41"/>
     </row>
     <row r="26" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E26" s="3" t="s">
@@ -35384,36 +36236,36 @@
       </c>
     </row>
     <row r="31" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="37" t="s">
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="37" t="s">
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="37" t="s">
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="37" t="s">
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="39"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="41"/>
     </row>
     <row r="32" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E32" s="3" t="s">
@@ -35753,36 +36605,36 @@
       </c>
     </row>
     <row r="37" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F37" s="37" t="s">
+      <c r="F37" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="37" t="s">
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="37" t="s">
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="37" t="s">
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="37" t="s">
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="39"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="41"/>
     </row>
     <row r="38" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E38" s="3" t="s">
@@ -36122,36 +36974,36 @@
       </c>
     </row>
     <row r="43" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F43" s="37" t="s">
+      <c r="F43" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="37" t="s">
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="37" t="s">
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="39"/>
-      <c r="R43" s="37" t="s">
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="S43" s="38"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="39"/>
-      <c r="V43" s="37" t="s">
+      <c r="S43" s="40"/>
+      <c r="T43" s="40"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="W43" s="38"/>
-      <c r="X43" s="38"/>
-      <c r="Y43" s="39"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="40"/>
+      <c r="Y43" s="41"/>
     </row>
     <row r="44" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E44" s="3" t="s">
@@ -36491,36 +37343,36 @@
       </c>
     </row>
     <row r="49" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F49" s="37" t="s">
+      <c r="F49" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="37" t="s">
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="37" t="s">
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="37" t="s">
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="37" t="s">
+      <c r="S49" s="40"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="41"/>
+      <c r="V49" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="W49" s="38"/>
-      <c r="X49" s="38"/>
-      <c r="Y49" s="39"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="41"/>
     </row>
     <row r="50" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E50" s="3" t="s">
@@ -36860,36 +37712,36 @@
       </c>
     </row>
     <row r="55" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F55" s="37" t="s">
+      <c r="F55" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="37" t="s">
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="37" t="s">
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="O55" s="38"/>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="37" t="s">
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="S55" s="38"/>
-      <c r="T55" s="38"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="37" t="s">
+      <c r="S55" s="40"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="41"/>
+      <c r="V55" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="W55" s="38"/>
-      <c r="X55" s="38"/>
-      <c r="Y55" s="39"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="41"/>
     </row>
     <row r="56" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E56" s="3" t="s">
@@ -37229,36 +38081,36 @@
       </c>
     </row>
     <row r="61" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F61" s="37" t="s">
+      <c r="F61" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="37" t="s">
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="37" t="s">
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="39"/>
-      <c r="R61" s="37" t="s">
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="41"/>
+      <c r="R61" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="S61" s="38"/>
-      <c r="T61" s="38"/>
-      <c r="U61" s="39"/>
-      <c r="V61" s="37" t="s">
+      <c r="S61" s="40"/>
+      <c r="T61" s="40"/>
+      <c r="U61" s="41"/>
+      <c r="V61" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="W61" s="38"/>
-      <c r="X61" s="38"/>
-      <c r="Y61" s="39"/>
+      <c r="W61" s="40"/>
+      <c r="X61" s="40"/>
+      <c r="Y61" s="41"/>
     </row>
     <row r="62" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E62" s="3" t="s">
@@ -37598,36 +38450,36 @@
       </c>
     </row>
     <row r="67" spans="5:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F67" s="37" t="s">
+      <c r="F67" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="37" t="s">
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="K67" s="38"/>
-      <c r="L67" s="38"/>
-      <c r="M67" s="39"/>
-      <c r="N67" s="37" t="s">
+      <c r="K67" s="40"/>
+      <c r="L67" s="40"/>
+      <c r="M67" s="41"/>
+      <c r="N67" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="O67" s="38"/>
-      <c r="P67" s="38"/>
-      <c r="Q67" s="39"/>
-      <c r="R67" s="37" t="s">
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="41"/>
+      <c r="R67" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="S67" s="38"/>
-      <c r="T67" s="38"/>
-      <c r="U67" s="39"/>
-      <c r="V67" s="37" t="s">
+      <c r="S67" s="40"/>
+      <c r="T67" s="40"/>
+      <c r="U67" s="41"/>
+      <c r="V67" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="38"/>
-      <c r="X67" s="38"/>
-      <c r="Y67" s="39"/>
+      <c r="W67" s="40"/>
+      <c r="X67" s="40"/>
+      <c r="Y67" s="41"/>
     </row>
     <row r="68" spans="5:25" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E68" s="3" t="s">
@@ -38047,11 +38899,51 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="V49:Y49"/>
+    <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="R31:U31"/>
+    <mergeCell ref="V55:Y55"/>
+    <mergeCell ref="V61:Y61"/>
+    <mergeCell ref="V67:Y67"/>
+    <mergeCell ref="R43:U43"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="R61:U61"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="N61:Q61"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N49:Q49"/>
+    <mergeCell ref="N55:Q55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F43:I43"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
@@ -38068,51 +38960,11 @@
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="R25:U25"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="N61:Q61"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N43:Q43"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="N55:Q55"/>
-    <mergeCell ref="R31:U31"/>
-    <mergeCell ref="V55:Y55"/>
-    <mergeCell ref="V61:Y61"/>
-    <mergeCell ref="V67:Y67"/>
-    <mergeCell ref="R43:U43"/>
-    <mergeCell ref="R49:U49"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="R61:U61"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="V49:Y49"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAE1582-C485-4FD4-8C75-A6CD116C8121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5CD04F-65E3-4322-8102-3299E4AA6A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="3" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
   <sheets>
     <sheet name="SARIMAX" sheetId="3" r:id="rId1"/>
@@ -5163,8 +5163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E205C6-75C9-4A48-9727-53AED497EF04}">
   <dimension ref="A1:V140"/>
   <sheetViews>
-    <sheetView topLeftCell="I46" workbookViewId="0">
-      <selection activeCell="S56" sqref="S56"/>
+    <sheetView tabSelected="1" topLeftCell="I58" workbookViewId="0">
+      <selection activeCell="S65" sqref="S65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7962,10 +7962,18 @@
       <c r="R48" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="18"/>
-      <c r="V48" s="8"/>
+      <c r="S48" s="18">
+        <v>1.1872990398476899</v>
+      </c>
+      <c r="T48" s="18">
+        <v>0.98211826956813897</v>
+      </c>
+      <c r="U48" s="18">
+        <v>0.14751126376614601</v>
+      </c>
+      <c r="V48" s="8">
+        <v>0.85024110631293903</v>
+      </c>
     </row>
     <row r="49" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
@@ -8094,10 +8102,18 @@
       <c r="R50" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="8"/>
+      <c r="S50" s="18">
+        <v>1.20216440088792</v>
+      </c>
+      <c r="T50" s="18">
+        <v>1.0519140396009701</v>
+      </c>
+      <c r="U50" s="18">
+        <v>0.163995160487834</v>
+      </c>
+      <c r="V50" s="8">
+        <v>0.87548836773180505</v>
+      </c>
     </row>
     <row r="51" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="4" t="s">
@@ -8156,10 +8172,18 @@
       <c r="R51" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="8"/>
+      <c r="S51" s="18">
+        <v>1.3526230670594701</v>
+      </c>
+      <c r="T51" s="18">
+        <v>1.1634316040819299</v>
+      </c>
+      <c r="U51" s="18">
+        <v>0.19764400938989901</v>
+      </c>
+      <c r="V51" s="8">
+        <v>0.86743183978457405</v>
+      </c>
     </row>
     <row r="52" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
@@ -8218,10 +8242,18 @@
       <c r="R52" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S52" s="18"/>
-      <c r="T52" s="18"/>
-      <c r="U52" s="18"/>
-      <c r="V52" s="8"/>
+      <c r="S52" s="18">
+        <v>2.5043384183098398</v>
+      </c>
+      <c r="T52" s="18">
+        <v>2.0813003233635001</v>
+      </c>
+      <c r="U52" s="18">
+        <v>0.26062844111182898</v>
+      </c>
+      <c r="V52" s="8">
+        <v>0.41830073318980798</v>
+      </c>
     </row>
     <row r="53" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
@@ -9050,10 +9082,18 @@
       <c r="R64" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="S64" s="18"/>
-      <c r="T64" s="18"/>
-      <c r="U64" s="18"/>
-      <c r="V64" s="8"/>
+      <c r="S64" s="18">
+        <v>3.9450865686139598</v>
+      </c>
+      <c r="T64" s="18">
+        <v>3.6108111481998599</v>
+      </c>
+      <c r="U64" s="18">
+        <v>1.32000007036705</v>
+      </c>
+      <c r="V64" s="8">
+        <v>8.6240959448623505E-2</v>
+      </c>
     </row>
     <row r="65" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
@@ -9174,10 +9214,18 @@
       <c r="R66" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="S66" s="18"/>
-      <c r="T66" s="18"/>
-      <c r="U66" s="18"/>
-      <c r="V66" s="8"/>
+      <c r="S66" s="18">
+        <v>3.6047015572499301</v>
+      </c>
+      <c r="T66" s="18">
+        <v>3.06830464105958</v>
+      </c>
+      <c r="U66" s="18">
+        <v>1.1278115225774199</v>
+      </c>
+      <c r="V66" s="8">
+        <v>0.219922509305777</v>
+      </c>
     </row>
     <row r="67" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" s="4" t="s">
@@ -9236,10 +9284,18 @@
       <c r="R67" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="S67" s="18"/>
-      <c r="T67" s="18"/>
-      <c r="U67" s="18"/>
-      <c r="V67" s="8"/>
+      <c r="S67" s="18">
+        <v>5.2446276215896397</v>
+      </c>
+      <c r="T67" s="18">
+        <v>4.99801760927045</v>
+      </c>
+      <c r="U67" s="18">
+        <v>1.9162955998549001</v>
+      </c>
+      <c r="V67" s="8">
+        <v>-0.45022785076364602</v>
+      </c>
     </row>
     <row r="68" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
@@ -18389,8 +18445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438DC3B3-433A-4DB4-9173-231D0D51B37A}">
   <dimension ref="A1:N199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18484,76 +18540,96 @@
       <c r="A4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21" t="e">
+      <c r="B4" s="21">
+        <v>0.94290269154443695</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1.6351442342040801</v>
+      </c>
+      <c r="D4" s="21">
+        <v>1.0098675379924</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1.3386135495051701</v>
+      </c>
+      <c r="F4" s="21">
+        <v>1.00996718599236</v>
+      </c>
+      <c r="G4" s="21">
         <f>AVERAGE(B4:F4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21" t="e">
+        <v>1.1872990398476895</v>
+      </c>
+      <c r="H4" s="21">
+        <v>1.2089152213146599</v>
+      </c>
+      <c r="I4" s="21">
+        <v>0.69561942209043703</v>
+      </c>
+      <c r="J4" s="21">
+        <v>1.2384795519331999</v>
+      </c>
+      <c r="K4" s="21">
+        <v>2.5301657365891401</v>
+      </c>
+      <c r="L4" s="21">
+        <v>1.08993540336995</v>
+      </c>
+      <c r="M4" s="21">
         <f>AVERAGE(H4:L4)</f>
-        <v>#DIV/0!</v>
+        <v>1.3526230670594774</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="21" t="e">
+      <c r="B5" s="21">
         <f t="shared" ref="B5:M5" si="0">AVERAGE(B4:B4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C5" s="21" t="e">
+        <v>0.94290269154443695</v>
+      </c>
+      <c r="C5" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D5" s="21" t="e">
+        <v>1.6351442342040801</v>
+      </c>
+      <c r="D5" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" s="21" t="e">
+        <v>1.0098675379924</v>
+      </c>
+      <c r="E5" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="21" t="e">
+        <v>1.3386135495051701</v>
+      </c>
+      <c r="F5" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="21" t="e">
+        <v>1.00996718599236</v>
+      </c>
+      <c r="G5" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="21" t="e">
+        <v>1.1872990398476895</v>
+      </c>
+      <c r="H5" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="21" t="e">
+        <v>1.2089152213146599</v>
+      </c>
+      <c r="I5" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="21" t="e">
+        <v>0.69561942209043703</v>
+      </c>
+      <c r="J5" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="21" t="e">
+        <v>1.2384795519331999</v>
+      </c>
+      <c r="K5" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="21" t="e">
+        <v>2.5301657365891401</v>
+      </c>
+      <c r="L5" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="21" t="e">
+        <v>1.08993540336995</v>
+      </c>
+      <c r="M5" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.3526230670594774</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -18639,14 +18715,24 @@
         <f>AVERAGE(B8:F8)</f>
         <v>1.0900146209835546</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21" t="e">
+      <c r="H8" s="21">
+        <v>1.17049805487511</v>
+      </c>
+      <c r="I8" s="21">
+        <v>1.03166395594396</v>
+      </c>
+      <c r="J8" s="21">
+        <v>1.31680792238193</v>
+      </c>
+      <c r="K8" s="21">
+        <v>1.5525410324917499</v>
+      </c>
+      <c r="L8" s="21">
+        <v>0.93931103874685096</v>
+      </c>
+      <c r="M8" s="21">
         <f>AVERAGE(H8:L8)</f>
-        <v>#DIV/0!</v>
+        <v>1.2021644008879204</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -18677,29 +18763,29 @@
         <f t="shared" si="1"/>
         <v>1.0900146209835546</v>
       </c>
-      <c r="H9" s="21" t="e">
+      <c r="H9" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="21" t="e">
+        <v>1.17049805487511</v>
+      </c>
+      <c r="I9" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="21" t="e">
+        <v>1.03166395594396</v>
+      </c>
+      <c r="J9" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" s="21" t="e">
+        <v>1.31680792238193</v>
+      </c>
+      <c r="K9" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="21" t="e">
+        <v>1.5525410324917499</v>
+      </c>
+      <c r="L9" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="21" t="e">
+        <v>0.93931103874685096</v>
+      </c>
+      <c r="M9" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.2021644008879204</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -18783,14 +18869,24 @@
       <c r="A13" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21" t="e">
+      <c r="B13" s="21">
+        <v>1.21638860830796</v>
+      </c>
+      <c r="C13" s="21">
+        <v>0.84656778299727198</v>
+      </c>
+      <c r="D13" s="21">
+        <v>1.21096308456128</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1.6865257643628</v>
+      </c>
+      <c r="F13" s="21">
+        <v>1.34161799791248</v>
+      </c>
+      <c r="G13" s="21">
         <f>AVERAGE(B13:F13)</f>
-        <v>#DIV/0!</v>
+        <v>1.2604126476283584</v>
       </c>
       <c r="H13" s="21">
         <v>0.57583363875746896</v>
@@ -18817,14 +18913,24 @@
       <c r="A14" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21" t="e">
+      <c r="B14" s="21">
+        <v>3.2605425541962201</v>
+      </c>
+      <c r="C14" s="21">
+        <v>2.7191868605240201</v>
+      </c>
+      <c r="D14" s="21">
+        <v>3.03157971321165</v>
+      </c>
+      <c r="E14" s="21">
+        <v>3.7878797116414198</v>
+      </c>
+      <c r="F14" s="21">
+        <v>3.5016968330392002</v>
+      </c>
+      <c r="G14" s="21">
         <f t="shared" ref="G14:G15" si="2">AVERAGE(B14:F14)</f>
-        <v>#DIV/0!</v>
+        <v>3.2601771345225017</v>
       </c>
       <c r="H14" s="21">
         <v>0.82663240323557996</v>
@@ -18850,14 +18956,24 @@
       <c r="A15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21" t="e">
+      <c r="B15" s="21">
+        <v>1.57047061340625</v>
+      </c>
+      <c r="C15" s="21">
+        <v>1.27307377139808</v>
+      </c>
+      <c r="D15" s="21">
+        <v>6.8937583103803499</v>
+      </c>
+      <c r="E15" s="21">
+        <v>2.3462313262993502</v>
+      </c>
+      <c r="F15" s="21">
+        <v>2.8785933424093502</v>
+      </c>
+      <c r="G15" s="21">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.9924254727786761</v>
       </c>
       <c r="H15" s="21">
         <v>2.1501899892380099</v>
@@ -18883,29 +18999,29 @@
       <c r="A16" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="21" t="e">
+      <c r="B16" s="21">
         <f t="shared" ref="B16:M16" si="4">AVERAGE(B13:B15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16" s="21" t="e">
+        <v>2.0158005919701432</v>
+      </c>
+      <c r="C16" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="21" t="e">
+        <v>1.612942804973124</v>
+      </c>
+      <c r="D16" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="21" t="e">
+        <v>3.7121003693844266</v>
+      </c>
+      <c r="E16" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="21" t="e">
+        <v>2.6068789341011898</v>
+      </c>
+      <c r="F16" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="21" t="e">
+        <v>2.5739693911203436</v>
+      </c>
+      <c r="G16" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2.5043384183098456</v>
       </c>
       <c r="H16" s="21">
         <f t="shared" si="4"/>
@@ -24248,8 +24364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1761DFC-5301-4070-9E0F-1B7FC4AEFC83}">
   <dimension ref="A1:N199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -25015,191 +25131,311 @@
       <c r="A26" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21" t="e">
+      <c r="B26" s="21">
+        <v>0.29164265072238899</v>
+      </c>
+      <c r="C26" s="21">
+        <v>0.38335210043172402</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0.473735263127047</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0.72242482542306596</v>
+      </c>
+      <c r="F26" s="21">
+        <v>0.37424497895037201</v>
+      </c>
+      <c r="G26" s="21">
         <f>AVERAGE(B26:F26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21" t="e">
+        <v>0.44907996373091957</v>
+      </c>
+      <c r="H26" s="21">
+        <v>0.29210327454067198</v>
+      </c>
+      <c r="I26" s="21">
+        <v>0.38474680476901202</v>
+      </c>
+      <c r="J26" s="21">
+        <v>0.6748842927309</v>
+      </c>
+      <c r="K26" s="21">
+        <v>0.60886841684524995</v>
+      </c>
+      <c r="L26" s="21">
+        <v>0.31793182547781201</v>
+      </c>
+      <c r="M26" s="21">
         <f>AVERAGE(H26:L26)</f>
-        <v>#DIV/0!</v>
+        <v>0.45570692287272924</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21" t="e">
+      <c r="B27" s="21">
+        <v>0.72016754067440103</v>
+      </c>
+      <c r="C27" s="21">
+        <v>0.478913783350713</v>
+      </c>
+      <c r="D27" s="21">
+        <v>1.0357219912951401</v>
+      </c>
+      <c r="E27" s="21">
+        <v>0.63340370145085001</v>
+      </c>
+      <c r="F27" s="21">
+        <v>1.0886632504650899</v>
+      </c>
+      <c r="G27" s="21">
         <f t="shared" ref="G27:G31" si="8">AVERAGE(B27:F27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21" t="e">
+        <v>0.79137405344723866</v>
+      </c>
+      <c r="H27" s="21">
+        <v>0.618607598209587</v>
+      </c>
+      <c r="I27" s="21">
+        <v>0.42512386517652101</v>
+      </c>
+      <c r="J27" s="21">
+        <v>1.5368524047983001</v>
+      </c>
+      <c r="K27" s="21">
+        <v>0.927379825667767</v>
+      </c>
+      <c r="L27" s="21">
+        <v>0.98458773920408504</v>
+      </c>
+      <c r="M27" s="21">
         <f t="shared" ref="M27:M31" si="9">AVERAGE(H27:L27)</f>
-        <v>#DIV/0!</v>
+        <v>0.89851028661125198</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21" t="e">
+      <c r="B28" s="21">
+        <v>1.5955169141016301</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0.71014742767128403</v>
+      </c>
+      <c r="D28" s="21">
+        <v>1.1203120902372501</v>
+      </c>
+      <c r="E28" s="21">
+        <v>0.87201190946282303</v>
+      </c>
+      <c r="F28" s="21">
+        <v>1.0940993241707699</v>
+      </c>
+      <c r="G28" s="21">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21" t="e">
+        <v>1.0784175331287513</v>
+      </c>
+      <c r="H28" s="21">
+        <v>1.03297164655897</v>
+      </c>
+      <c r="I28" s="21">
+        <v>0.64093298778019903</v>
+      </c>
+      <c r="J28" s="21">
+        <v>1.9360255054326501</v>
+      </c>
+      <c r="K28" s="21">
+        <v>1.63355237659521</v>
+      </c>
+      <c r="L28" s="21">
+        <v>0.76058689656729594</v>
+      </c>
+      <c r="M28" s="21">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1.2008138825868651</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21" t="e">
+      <c r="B29" s="21">
+        <v>1.2197703597089</v>
+      </c>
+      <c r="C29" s="21">
+        <v>0.73271566002797295</v>
+      </c>
+      <c r="D29" s="21">
+        <v>1.26808262071883</v>
+      </c>
+      <c r="E29" s="21">
+        <v>1.0515588302471399</v>
+      </c>
+      <c r="F29" s="21">
+        <v>1.5399426772153499</v>
+      </c>
+      <c r="G29" s="21">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21" t="e">
+        <v>1.1624140295836387</v>
+      </c>
+      <c r="H29" s="21">
+        <v>0.96919149214233502</v>
+      </c>
+      <c r="I29" s="21">
+        <v>0.79779345838784499</v>
+      </c>
+      <c r="J29" s="21">
+        <v>2.2666004389288199</v>
+      </c>
+      <c r="K29" s="21">
+        <v>2.2697821165929</v>
+      </c>
+      <c r="L29" s="21">
+        <v>0.74106965343486597</v>
+      </c>
+      <c r="M29" s="21">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1.408887431897353</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21" t="e">
+      <c r="B30" s="21">
+        <v>2.4952528702696899</v>
+      </c>
+      <c r="C30" s="21">
+        <v>1.37456725217017</v>
+      </c>
+      <c r="D30" s="21">
+        <v>2.3206159420142001</v>
+      </c>
+      <c r="E30" s="21">
+        <v>2.7681188717873999</v>
+      </c>
+      <c r="F30" s="21">
+        <v>2.3540873698398102</v>
+      </c>
+      <c r="G30" s="21">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21" t="e">
+        <v>2.2625284612162537</v>
+      </c>
+      <c r="H30" s="21">
+        <v>1.4918564561413601</v>
+      </c>
+      <c r="I30" s="21">
+        <v>1.4181044273838701</v>
+      </c>
+      <c r="J30" s="21">
+        <v>3.4412627716593902</v>
+      </c>
+      <c r="K30" s="21">
+        <v>3.2866864575469301</v>
+      </c>
+      <c r="L30" s="21">
+        <v>1.69791260031388</v>
+      </c>
+      <c r="M30" s="21">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>2.2671645426090863</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21" t="e">
+      <c r="B31" s="21">
+        <v>2.4977945510251698</v>
+      </c>
+      <c r="C31" s="21">
+        <v>0.88775658291150294</v>
+      </c>
+      <c r="D31" s="21">
+        <v>2.4652456465574502</v>
+      </c>
+      <c r="E31" s="21">
+        <v>3.9349383470832602</v>
+      </c>
+      <c r="F31" s="21">
+        <v>2.99431668173164</v>
+      </c>
+      <c r="G31" s="21">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21" t="e">
+        <v>2.5560103618618046</v>
+      </c>
+      <c r="H31" s="21">
+        <v>1.4002805470515001</v>
+      </c>
+      <c r="I31" s="21">
+        <v>0.88106253745761198</v>
+      </c>
+      <c r="J31" s="21">
+        <v>3.3488537364364199</v>
+      </c>
+      <c r="K31" s="21">
+        <v>4.9954240511668999</v>
+      </c>
+      <c r="L31" s="21">
+        <v>1.34334785110962</v>
+      </c>
+      <c r="M31" s="21">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>2.3937937446444102</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="21" t="e">
+      <c r="B32" s="21">
         <f t="shared" ref="B32:M32" si="10">AVERAGE(B26:B31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C32" s="21" t="e">
+        <v>1.4700241477503633</v>
+      </c>
+      <c r="C32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="21" t="e">
+        <v>0.76124213442722777</v>
+      </c>
+      <c r="D32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="21" t="e">
+        <v>1.4472855923249863</v>
+      </c>
+      <c r="E32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="21" t="e">
+        <v>1.6637427475757567</v>
+      </c>
+      <c r="F32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="21" t="e">
+        <v>1.5742257137288387</v>
+      </c>
+      <c r="G32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="21" t="e">
+        <v>1.3833040671614345</v>
+      </c>
+      <c r="H32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="21" t="e">
+        <v>0.96750183577407045</v>
+      </c>
+      <c r="I32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" s="21" t="e">
+        <v>0.75796068015917661</v>
+      </c>
+      <c r="J32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" s="21" t="e">
+        <v>2.2007465249977467</v>
+      </c>
+      <c r="K32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L32" s="21" t="e">
+        <v>2.2869488740691595</v>
+      </c>
+      <c r="L32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32" s="21" t="e">
+        <v>0.97423942768459304</v>
+      </c>
+      <c r="M32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1.4374794685369494</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -25266,191 +25502,311 @@
       <c r="A35" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21" t="e">
+      <c r="B35" s="21">
+        <v>0.33193370368412201</v>
+      </c>
+      <c r="C35" s="21">
+        <v>0.44897063598785703</v>
+      </c>
+      <c r="D35" s="21">
+        <v>0.55534973234089802</v>
+      </c>
+      <c r="E35" s="21">
+        <v>0.60492639090670097</v>
+      </c>
+      <c r="F35" s="21">
+        <v>0.31727714148396202</v>
+      </c>
+      <c r="G35" s="21">
         <f>AVERAGE(B35:F35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21" t="e">
+        <v>0.45169152088070802</v>
+      </c>
+      <c r="H35" s="21">
+        <v>0.34421469835838697</v>
+      </c>
+      <c r="I35" s="21">
+        <v>0.37962160502997</v>
+      </c>
+      <c r="J35" s="21">
+        <v>0.484234922831079</v>
+      </c>
+      <c r="K35" s="21">
+        <v>0.53900838134491202</v>
+      </c>
+      <c r="L35" s="21">
+        <v>0.36012219992880301</v>
+      </c>
+      <c r="M35" s="21">
         <f>AVERAGE(H35:L35)</f>
-        <v>#DIV/0!</v>
+        <v>0.42144036149863018</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21" t="e">
+      <c r="B36" s="21">
+        <v>0.60619854513248395</v>
+      </c>
+      <c r="C36" s="21">
+        <v>0.75610044877090798</v>
+      </c>
+      <c r="D36" s="21">
+        <v>1.3382671265716199</v>
+      </c>
+      <c r="E36" s="21">
+        <v>0.62827596480052395</v>
+      </c>
+      <c r="F36" s="21">
+        <v>0.92443478478871499</v>
+      </c>
+      <c r="G36" s="21">
         <f t="shared" ref="G36:G40" si="11">AVERAGE(B36:F36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21" t="e">
+        <v>0.85065537401285007</v>
+      </c>
+      <c r="H36" s="21">
+        <v>0.74220981550405996</v>
+      </c>
+      <c r="I36" s="21">
+        <v>0.494409568775113</v>
+      </c>
+      <c r="J36" s="21">
+        <v>1.1963919159613401</v>
+      </c>
+      <c r="K36" s="21">
+        <v>0.56126998790160398</v>
+      </c>
+      <c r="L36" s="21">
+        <v>0.98359670023889001</v>
+      </c>
+      <c r="M36" s="21">
         <f t="shared" ref="M36:M40" si="12">AVERAGE(H36:L36)</f>
-        <v>#DIV/0!</v>
+        <v>0.79557559767620134</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21" t="e">
+      <c r="B37" s="21">
+        <v>0.95112777695400896</v>
+      </c>
+      <c r="C37" s="21">
+        <v>1.12329542816533</v>
+      </c>
+      <c r="D37" s="21">
+        <v>1.07192923840428</v>
+      </c>
+      <c r="E37" s="21">
+        <v>0.52719417258742296</v>
+      </c>
+      <c r="F37" s="21">
+        <v>0.72743728141008501</v>
+      </c>
+      <c r="G37" s="21">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21" t="e">
+        <v>0.88019677950422537</v>
+      </c>
+      <c r="H37" s="21">
+        <v>1.5362217742803601</v>
+      </c>
+      <c r="I37" s="21">
+        <v>0.77742094937741002</v>
+      </c>
+      <c r="J37" s="21">
+        <v>1.5703903774680401</v>
+      </c>
+      <c r="K37" s="21">
+        <v>1.0324969837598701</v>
+      </c>
+      <c r="L37" s="21">
+        <v>0.98639416835941895</v>
+      </c>
+      <c r="M37" s="21">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>1.1805848506490197</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21" t="e">
+      <c r="B38" s="21">
+        <v>0.71724967440015597</v>
+      </c>
+      <c r="C38" s="21">
+        <v>1.08417515625217</v>
+      </c>
+      <c r="D38" s="21">
+        <v>1.1634884864400299</v>
+      </c>
+      <c r="E38" s="21">
+        <v>0.66601678584155599</v>
+      </c>
+      <c r="F38" s="21">
+        <v>0.697650539860318</v>
+      </c>
+      <c r="G38" s="21">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21" t="e">
+        <v>0.86571612855884594</v>
+      </c>
+      <c r="H38" s="21">
+        <v>1.19032713900117</v>
+      </c>
+      <c r="I38" s="21">
+        <v>0.73046168900959696</v>
+      </c>
+      <c r="J38" s="21">
+        <v>1.46751464461805</v>
+      </c>
+      <c r="K38" s="21">
+        <v>1.3116413840669701</v>
+      </c>
+      <c r="L38" s="21">
+        <v>0.74358341675763495</v>
+      </c>
+      <c r="M38" s="21">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>1.0887056546906844</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21" t="e">
+      <c r="B39" s="21">
+        <v>1.21791262939717</v>
+      </c>
+      <c r="C39" s="21">
+        <v>2.5306019776712101</v>
+      </c>
+      <c r="D39" s="21">
+        <v>2.08178587299949</v>
+      </c>
+      <c r="E39" s="21">
+        <v>1.6971370781583599</v>
+      </c>
+      <c r="F39" s="21">
+        <v>1.6359666650693101</v>
+      </c>
+      <c r="G39" s="21">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21" t="e">
+        <v>1.8326808446591081</v>
+      </c>
+      <c r="H39" s="21">
+        <v>2.34981195159363</v>
+      </c>
+      <c r="I39" s="21">
+        <v>1.6253615499881799</v>
+      </c>
+      <c r="J39" s="21">
+        <v>2.7928864027904701</v>
+      </c>
+      <c r="K39" s="21">
+        <v>2.3024797910180701</v>
+      </c>
+      <c r="L39" s="21">
+        <v>1.9013935676492399</v>
+      </c>
+      <c r="M39" s="21">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>2.1943866526079181</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21" t="e">
+      <c r="B40" s="21">
+        <v>1.2032884505132799</v>
+      </c>
+      <c r="C40" s="21">
+        <v>1.89043746515583</v>
+      </c>
+      <c r="D40" s="21">
+        <v>2.0478749613578602</v>
+      </c>
+      <c r="E40" s="21">
+        <v>3.0812595731034498</v>
+      </c>
+      <c r="F40" s="21">
+        <v>1.5116142543650899</v>
+      </c>
+      <c r="G40" s="21">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21" t="e">
+        <v>1.9468949408991023</v>
+      </c>
+      <c r="H40" s="21">
+        <v>2.4033186184656201</v>
+      </c>
+      <c r="I40" s="21">
+        <v>1.0618349416147601</v>
+      </c>
+      <c r="J40" s="21">
+        <v>2.5359112948984901</v>
+      </c>
+      <c r="K40" s="21">
+        <v>3.9729924419484899</v>
+      </c>
+      <c r="L40" s="21">
+        <v>1.55175406229461</v>
+      </c>
+      <c r="M40" s="21">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>2.3051622718443938</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B41" s="21" t="e">
+      <c r="B41" s="21">
         <f t="shared" ref="B41:M41" si="13">AVERAGE(B35:B40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C41" s="21" t="e">
+        <v>0.83795179668020348</v>
+      </c>
+      <c r="C41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D41" s="21" t="e">
+        <v>1.3055968520005508</v>
+      </c>
+      <c r="D41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E41" s="21" t="e">
+        <v>1.3764492363523633</v>
+      </c>
+      <c r="E41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F41" s="21" t="e">
+        <v>1.2008016608996688</v>
+      </c>
+      <c r="F41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G41" s="21" t="e">
+        <v>0.96906344449624671</v>
+      </c>
+      <c r="G41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H41" s="21" t="e">
+        <v>1.1379725980858066</v>
+      </c>
+      <c r="H41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="21" t="e">
+        <v>1.427683999533871</v>
+      </c>
+      <c r="I41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J41" s="21" t="e">
+        <v>0.84485171729917174</v>
+      </c>
+      <c r="J41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="21" t="e">
+        <v>1.6745549264279116</v>
+      </c>
+      <c r="K41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L41" s="21" t="e">
+        <v>1.6199814950066527</v>
+      </c>
+      <c r="L41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="21" t="e">
+        <v>1.0878073525380996</v>
+      </c>
+      <c r="M41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>1.3309758981611413</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -25534,14 +25890,16 @@
       <c r="A45" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="21"/>
+      <c r="B45" s="21">
+        <v>1.0504893771391299</v>
+      </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
-      <c r="G45" s="21" t="e">
+      <c r="G45" s="21">
         <f>AVERAGE(B45:F45)</f>
-        <v>#DIV/0!</v>
+        <v>1.0504893771391299</v>
       </c>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
@@ -25557,14 +25915,16 @@
       <c r="A46" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="21"/>
+      <c r="B46" s="21">
+        <v>1.97572077726475</v>
+      </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
-      <c r="G46" s="21" t="e">
+      <c r="G46" s="21">
         <f t="shared" ref="G46:G56" si="14">AVERAGE(B46:F46)</f>
-        <v>#DIV/0!</v>
+        <v>1.97572077726475</v>
       </c>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
@@ -25580,14 +25940,16 @@
       <c r="A47" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="21"/>
+      <c r="B47" s="21">
+        <v>1.24682155640508</v>
+      </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
-      <c r="G47" s="21" t="e">
+      <c r="G47" s="21">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>1.24682155640508</v>
       </c>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
@@ -25603,14 +25965,16 @@
       <c r="A48" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="B48" s="21"/>
+      <c r="B48" s="21">
+        <v>1.30158172439654</v>
+      </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
-      <c r="G48" s="21" t="e">
+      <c r="G48" s="21">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>1.30158172439654</v>
       </c>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
@@ -25626,14 +25990,16 @@
       <c r="A49" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="B49" s="21"/>
+      <c r="B49" s="21">
+        <v>2.05953700051443</v>
+      </c>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
-      <c r="G49" s="21" t="e">
+      <c r="G49" s="21">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>2.05953700051443</v>
       </c>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
@@ -25649,14 +26015,16 @@
       <c r="A50" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B50" s="21"/>
+      <c r="B50" s="21">
+        <v>0.88774107242449296</v>
+      </c>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
-      <c r="G50" s="21" t="e">
+      <c r="G50" s="21">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0.88774107242449296</v>
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
@@ -25672,14 +26040,16 @@
       <c r="A51" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="B51" s="21"/>
+      <c r="B51" s="21">
+        <v>1.10587398417115</v>
+      </c>
       <c r="C51" s="21"/>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
-      <c r="G51" s="21" t="e">
+      <c r="G51" s="21">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>1.10587398417115</v>
       </c>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
@@ -25695,14 +26065,16 @@
       <c r="A52" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="B52" s="21"/>
+      <c r="B52" s="21">
+        <v>1.1218295927703399</v>
+      </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
       <c r="F52" s="21"/>
-      <c r="G52" s="21" t="e">
+      <c r="G52" s="21">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>1.1218295927703399</v>
       </c>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
@@ -25718,14 +26090,16 @@
       <c r="A53" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="B53" s="21"/>
+      <c r="B53" s="21">
+        <v>1.4024918829622901</v>
+      </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
       <c r="F53" s="21"/>
-      <c r="G53" s="21" t="e">
+      <c r="G53" s="21">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>1.4024918829622901</v>
       </c>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
@@ -25741,14 +26115,16 @@
       <c r="A54" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B54" s="21"/>
+      <c r="B54" s="21">
+        <v>0.55816792788967595</v>
+      </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
       <c r="E54" s="21"/>
       <c r="F54" s="21"/>
-      <c r="G54" s="21" t="e">
+      <c r="G54" s="21">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0.55816792788967595</v>
       </c>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
@@ -25764,14 +26140,16 @@
       <c r="A55" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="B55" s="21"/>
+      <c r="B55" s="21">
+        <v>3.1429097731361302</v>
+      </c>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
-      <c r="G55" s="21" t="e">
+      <c r="G55" s="21">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>3.1429097731361302</v>
       </c>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
@@ -25787,14 +26165,16 @@
       <c r="A56" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="B56" s="21"/>
+      <c r="B56" s="21">
+        <v>2.46472668642713</v>
+      </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
       <c r="E56" s="21"/>
       <c r="F56" s="21"/>
-      <c r="G56" s="21" t="e">
+      <c r="G56" s="21">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>2.46472668642713</v>
       </c>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
@@ -25810,9 +26190,9 @@
       <c r="A57" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B57" s="21" t="e">
+      <c r="B57" s="21">
         <f t="shared" ref="B57:M57" si="16">AVERAGE(B45:B56)</f>
-        <v>#DIV/0!</v>
+        <v>1.5264909462917615</v>
       </c>
       <c r="C57" s="21" t="e">
         <f t="shared" si="16"/>
@@ -25830,9 +26210,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G57" s="21" t="e">
+      <c r="G57" s="21">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>1.5264909462917615</v>
       </c>
       <c r="H57" s="21" t="e">
         <f t="shared" si="16"/>
@@ -29287,8 +29667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924E6046-2364-4B60-882D-9DD37258C90A}">
   <dimension ref="A1:N199"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -30054,191 +30434,309 @@
       <c r="A26" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21" t="e">
+      <c r="B26" s="21">
+        <v>0.29077344683348499</v>
+      </c>
+      <c r="C26" s="21">
+        <v>0.460122442467153</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0.62275369400446201</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0.55914398636891904</v>
+      </c>
+      <c r="F26" s="21">
+        <v>0.1766246512014</v>
+      </c>
+      <c r="G26" s="21">
         <f>AVERAGE(B26:F26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21" t="e">
+        <v>0.42188364417508384</v>
+      </c>
+      <c r="H26" s="21">
+        <v>0.23971531797972201</v>
+      </c>
+      <c r="I26" s="21">
+        <v>0.30684922960727801</v>
+      </c>
+      <c r="J26" s="21">
+        <v>0.40024994689426202</v>
+      </c>
+      <c r="K26" s="21">
+        <v>0.31064989629452999</v>
+      </c>
+      <c r="L26" s="21">
+        <v>0.17865165752652801</v>
+      </c>
+      <c r="M26" s="21">
         <f>AVERAGE(H26:L26)</f>
-        <v>#DIV/0!</v>
+        <v>0.287223209660464</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21" t="e">
+      <c r="B27" s="21">
+        <v>0.84580001463341503</v>
+      </c>
+      <c r="C27" s="21">
+        <v>0.70552992136324</v>
+      </c>
+      <c r="D27" s="21">
+        <v>1.2527720086627001</v>
+      </c>
+      <c r="E27" s="21">
+        <v>0.604012119057181</v>
+      </c>
+      <c r="F27" s="21">
+        <v>0.74155294780844405</v>
+      </c>
+      <c r="G27" s="21">
         <f t="shared" ref="G27:G31" si="8">AVERAGE(B27:F27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21" t="e">
+        <v>0.82993340230499602</v>
+      </c>
+      <c r="H27" s="21">
+        <v>0.301036421355936</v>
+      </c>
+      <c r="I27" s="21">
+        <v>0.233339223662242</v>
+      </c>
+      <c r="J27" s="21">
+        <v>0.70934521423200803</v>
+      </c>
+      <c r="K27" s="21">
+        <v>0.28284223913963902</v>
+      </c>
+      <c r="L27" s="21">
+        <v>0.76866032324598199</v>
+      </c>
+      <c r="M27" s="21">
         <f t="shared" ref="M27:M31" si="9">AVERAGE(H27:L27)</f>
-        <v>#DIV/0!</v>
+        <v>0.45904468432716145</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21" t="e">
+      <c r="B28" s="21">
+        <v>1.5486472068280099</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0.83577775801807896</v>
+      </c>
+      <c r="D28" s="21">
+        <v>1.1055035316417401</v>
+      </c>
+      <c r="E28" s="21">
+        <v>0.660534636087307</v>
+      </c>
+      <c r="F28" s="21">
+        <v>1.0494902438929199</v>
+      </c>
+      <c r="G28" s="21">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21" t="e">
+        <v>1.0399906752936112</v>
+      </c>
+      <c r="H28" s="21">
+        <v>0.41499308213852698</v>
+      </c>
+      <c r="I28" s="21">
+        <v>0.68068914169868899</v>
+      </c>
+      <c r="J28" s="21">
+        <v>0.88325914480513701</v>
+      </c>
+      <c r="K28" s="21">
+        <v>0.52810917212101705</v>
+      </c>
+      <c r="L28" s="21">
+        <v>0.48599048143344598</v>
+      </c>
+      <c r="M28" s="21">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.59860820443936325</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21" t="e">
+      <c r="B29" s="21">
+        <v>1.3166264288237399</v>
+      </c>
+      <c r="C29" s="21">
+        <v>0.77115797446645495</v>
+      </c>
+      <c r="D29" s="21">
+        <v>1.57423128694848</v>
+      </c>
+      <c r="E29" s="21">
+        <v>0.81194642375126702</v>
+      </c>
+      <c r="F29" s="21">
+        <v>1.0063110016403101</v>
+      </c>
+      <c r="G29" s="21">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21" t="e">
+        <v>1.0960546231260504</v>
+      </c>
+      <c r="H29" s="21">
+        <v>0.52267176928446701</v>
+      </c>
+      <c r="I29" s="21">
+        <v>1.0199839490051601</v>
+      </c>
+      <c r="J29" s="21">
+        <v>1.15008977310293</v>
+      </c>
+      <c r="K29" s="21">
+        <v>0.62068011490141595</v>
+      </c>
+      <c r="L29" s="21">
+        <v>0.34079404965930998</v>
+      </c>
+      <c r="M29" s="21">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.7308439311906566</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21" t="e">
+      <c r="B30" s="21">
+        <v>2.2637514251966402</v>
+      </c>
+      <c r="C30" s="21">
+        <v>1.7470439382548899</v>
+      </c>
+      <c r="D30" s="21">
+        <v>2.9505796909632398</v>
+      </c>
+      <c r="E30" s="21">
+        <v>1.90640661016099</v>
+      </c>
+      <c r="F30" s="21">
+        <v>2.1302520321832499</v>
+      </c>
+      <c r="G30" s="21">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21" t="e">
+        <v>2.1996067393518022</v>
+      </c>
+      <c r="H30" s="21">
+        <v>0.44445003980965297</v>
+      </c>
+      <c r="I30" s="21">
+        <v>1.5998883769451899</v>
+      </c>
+      <c r="J30" s="21">
+        <v>1.7418419685005899</v>
+      </c>
+      <c r="K30" s="21">
+        <v>1.4082605837505899</v>
+      </c>
+      <c r="L30" s="21">
+        <v>1.01843572764558</v>
+      </c>
+      <c r="M30" s="21">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1.2425753393303203</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21" t="e">
+      <c r="B31" s="21">
+        <v>3.0454526966400102</v>
+      </c>
+      <c r="C31" s="21">
+        <v>1.1622689087531299</v>
+      </c>
+      <c r="D31" s="21">
+        <v>4.2816354132468302</v>
+      </c>
+      <c r="E31" s="21">
+        <v>3.4247059921590801</v>
+      </c>
+      <c r="F31" s="21">
+        <v>2.4508646505122198</v>
+      </c>
+      <c r="G31" s="21">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
+        <v>2.8729855322622542</v>
+      </c>
+      <c r="H31" s="21">
+        <v>0.69480041368300105</v>
+      </c>
+      <c r="I31" s="21">
+        <v>1.65349067581729</v>
+      </c>
+      <c r="J31" s="21">
+        <v>1.6778003904240599</v>
+      </c>
+      <c r="K31" s="21">
+        <v>1.69662829904349</v>
+      </c>
       <c r="L31" s="21"/>
-      <c r="M31" s="21" t="e">
+      <c r="M31" s="21">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1.4306799447419603</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="21" t="e">
+      <c r="B32" s="21">
         <f t="shared" ref="B32:M32" si="10">AVERAGE(B26:B31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C32" s="21" t="e">
+        <v>1.5518418698258836</v>
+      </c>
+      <c r="C32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="21" t="e">
+        <v>0.94698349055382447</v>
+      </c>
+      <c r="D32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="21" t="e">
+        <v>1.9645792709112422</v>
+      </c>
+      <c r="E32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="21" t="e">
+        <v>1.3277916279307906</v>
+      </c>
+      <c r="F32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="21" t="e">
+        <v>1.2591825878730907</v>
+      </c>
+      <c r="G32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="21" t="e">
+        <v>1.4100757694189661</v>
+      </c>
+      <c r="H32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="21" t="e">
+        <v>0.43627784070855097</v>
+      </c>
+      <c r="I32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" s="21" t="e">
+        <v>0.91570676612264146</v>
+      </c>
+      <c r="J32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" s="21" t="e">
+        <v>1.0937644063264977</v>
+      </c>
+      <c r="K32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L32" s="21" t="e">
+        <v>0.80786171754178027</v>
+      </c>
+      <c r="L32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32" s="21" t="e">
+        <v>0.5585064479021693</v>
+      </c>
+      <c r="M32" s="21">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>0.79149588561498752</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -30305,191 +30803,311 @@
       <c r="A35" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21" t="e">
+      <c r="B35" s="21">
+        <v>0.54156210790322901</v>
+      </c>
+      <c r="C35" s="21">
+        <v>0.37010288316656098</v>
+      </c>
+      <c r="D35" s="21">
+        <v>0.71013248731953005</v>
+      </c>
+      <c r="E35" s="21">
+        <v>0.30421546789316001</v>
+      </c>
+      <c r="F35" s="21">
+        <v>0.40667086013711801</v>
+      </c>
+      <c r="G35" s="21">
         <f>AVERAGE(B35:F35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21" t="e">
+        <v>0.46653676128391963</v>
+      </c>
+      <c r="H35" s="21">
+        <v>0.41506937430709301</v>
+      </c>
+      <c r="I35" s="21">
+        <v>0.57609777432457598</v>
+      </c>
+      <c r="J35" s="21">
+        <v>0.46749711575193797</v>
+      </c>
+      <c r="K35" s="21">
+        <v>0.61593337130079395</v>
+      </c>
+      <c r="L35" s="21">
+        <v>0.37123263256347599</v>
+      </c>
+      <c r="M35" s="21">
         <f>AVERAGE(H35:L35)</f>
-        <v>#DIV/0!</v>
+        <v>0.48916605364957533</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21" t="e">
+      <c r="B36" s="21">
+        <v>0.58176345343960201</v>
+      </c>
+      <c r="C36" s="21">
+        <v>0.30796351584200099</v>
+      </c>
+      <c r="D36" s="21">
+        <v>1.10570862907169</v>
+      </c>
+      <c r="E36" s="21">
+        <v>0.17369034635380101</v>
+      </c>
+      <c r="F36" s="21">
+        <v>0.71518218405753498</v>
+      </c>
+      <c r="G36" s="21">
         <f t="shared" ref="G36:G40" si="11">AVERAGE(B36:F36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21" t="e">
+        <v>0.57686162575292577</v>
+      </c>
+      <c r="H36" s="21">
+        <v>0.77988629501086604</v>
+      </c>
+      <c r="I36" s="21">
+        <v>1.0717068281364099</v>
+      </c>
+      <c r="J36" s="21">
+        <v>1.21436324598062</v>
+      </c>
+      <c r="K36" s="21">
+        <v>0.75724486778809597</v>
+      </c>
+      <c r="L36" s="21">
+        <v>1.0008197289854801</v>
+      </c>
+      <c r="M36" s="21">
         <f t="shared" ref="M36:M40" si="12">AVERAGE(H36:L36)</f>
-        <v>#DIV/0!</v>
+        <v>0.96480419318029453</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21" t="e">
+      <c r="B37" s="21">
+        <v>0.83235207363374397</v>
+      </c>
+      <c r="C37" s="21">
+        <v>0.483281332762386</v>
+      </c>
+      <c r="D37" s="21">
+        <v>1.3977683458104599</v>
+      </c>
+      <c r="E37" s="21">
+        <v>0.560891316959646</v>
+      </c>
+      <c r="F37" s="21">
+        <v>0.39727777524956998</v>
+      </c>
+      <c r="G37" s="21">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21" t="e">
+        <v>0.73431416888316114</v>
+      </c>
+      <c r="H37" s="21">
+        <v>1.5493702492061601</v>
+      </c>
+      <c r="I37" s="21">
+        <v>1.7740132139207301</v>
+      </c>
+      <c r="J37" s="21">
+        <v>1.1709542506486199</v>
+      </c>
+      <c r="K37" s="21">
+        <v>0.67007270451870005</v>
+      </c>
+      <c r="L37" s="21">
+        <v>0.99493908746795701</v>
+      </c>
+      <c r="M37" s="21">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>1.2318699011524334</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21" t="e">
+      <c r="B38" s="21">
+        <v>0.89685920438183298</v>
+      </c>
+      <c r="C38" s="21">
+        <v>1.0188959886327</v>
+      </c>
+      <c r="D38" s="21">
+        <v>1.38526134169847</v>
+      </c>
+      <c r="E38" s="21">
+        <v>0.44000796452237301</v>
+      </c>
+      <c r="F38" s="21">
+        <v>0.558335191082455</v>
+      </c>
+      <c r="G38" s="21">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21" t="e">
+        <v>0.85987193806356621</v>
+      </c>
+      <c r="H38" s="21">
+        <v>1.1349165369013099</v>
+      </c>
+      <c r="I38" s="21">
+        <v>1.60476611743062</v>
+      </c>
+      <c r="J38" s="21">
+        <v>1.2165025055949801</v>
+      </c>
+      <c r="K38" s="21">
+        <v>0.8434070361828</v>
+      </c>
+      <c r="L38" s="21">
+        <v>1.0872092088838401</v>
+      </c>
+      <c r="M38" s="21">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>1.17736028099871</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21" t="e">
+      <c r="B39" s="21">
+        <v>0.93335163713892699</v>
+      </c>
+      <c r="C39" s="21">
+        <v>0.804926126670785</v>
+      </c>
+      <c r="D39" s="21">
+        <v>2.28416503722194</v>
+      </c>
+      <c r="E39" s="21">
+        <v>1.24290269571699</v>
+      </c>
+      <c r="F39" s="21">
+        <v>0.81083947132012002</v>
+      </c>
+      <c r="G39" s="21">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21" t="e">
+        <v>1.2152369936137524</v>
+      </c>
+      <c r="H39" s="21">
+        <v>2.0669928977257799</v>
+      </c>
+      <c r="I39" s="21">
+        <v>3.4102772918106701</v>
+      </c>
+      <c r="J39" s="21">
+        <v>2.2353789968405802</v>
+      </c>
+      <c r="K39" s="21">
+        <v>1.84501476521501</v>
+      </c>
+      <c r="L39" s="21">
+        <v>2.1330930617259201</v>
+      </c>
+      <c r="M39" s="21">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>2.3381514026635921</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21" t="e">
+      <c r="B40" s="21">
+        <v>1.1146032344208801</v>
+      </c>
+      <c r="C40" s="21">
+        <v>1.3655725154006999</v>
+      </c>
+      <c r="D40" s="21">
+        <v>1.5178617672945001</v>
+      </c>
+      <c r="E40" s="21">
+        <v>1.7723063612088901</v>
+      </c>
+      <c r="F40" s="21">
+        <v>0.49239638536185598</v>
+      </c>
+      <c r="G40" s="21">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21" t="e">
+        <v>1.2525480527373651</v>
+      </c>
+      <c r="H40" s="21">
+        <v>1.9004221293525301</v>
+      </c>
+      <c r="I40" s="21">
+        <v>3.6601427078072599</v>
+      </c>
+      <c r="J40" s="21">
+        <v>2.5052058146460698</v>
+      </c>
+      <c r="K40" s="21">
+        <v>3.2621561368087599</v>
+      </c>
+      <c r="L40" s="21">
+        <v>1.82854528665813</v>
+      </c>
+      <c r="M40" s="21">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>2.6312944150545499</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B41" s="21" t="e">
+      <c r="B41" s="21">
         <f t="shared" ref="B41:M41" si="13">AVERAGE(B35:B40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C41" s="21" t="e">
+        <v>0.81674861848636915</v>
+      </c>
+      <c r="C41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D41" s="21" t="e">
+        <v>0.72512372707918882</v>
+      </c>
+      <c r="D41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E41" s="21" t="e">
+        <v>1.400149601402765</v>
+      </c>
+      <c r="E41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F41" s="21" t="e">
+        <v>0.74900235877581001</v>
+      </c>
+      <c r="F41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G41" s="21" t="e">
+        <v>0.56345031120144229</v>
+      </c>
+      <c r="G41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H41" s="21" t="e">
+        <v>0.8508949233891151</v>
+      </c>
+      <c r="H41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="21" t="e">
+        <v>1.3077762470839565</v>
+      </c>
+      <c r="I41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J41" s="21" t="e">
+        <v>2.016167322238378</v>
+      </c>
+      <c r="J41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="21" t="e">
+        <v>1.4683169882438014</v>
+      </c>
+      <c r="K41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L41" s="21" t="e">
+        <v>1.3323048136356932</v>
+      </c>
+      <c r="L41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="21" t="e">
+        <v>1.2359731677141339</v>
+      </c>
+      <c r="M41" s="21">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>1.4721077077831926</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5CD04F-65E3-4322-8102-3299E4AA6A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378EDBE3-128B-4E10-B9DA-0C6BA4A7FD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
@@ -5164,7 +5164,7 @@
   <dimension ref="A1:V140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I58" workbookViewId="0">
-      <selection activeCell="S65" sqref="S65"/>
+      <selection activeCell="U71" sqref="U71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9152,10 +9152,18 @@
       <c r="R65" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="S65" s="18"/>
-      <c r="T65" s="18"/>
-      <c r="U65" s="18"/>
-      <c r="V65" s="8"/>
+      <c r="S65" s="18">
+        <v>4.5154407638010499</v>
+      </c>
+      <c r="T65" s="18">
+        <v>4.0044353078332797</v>
+      </c>
+      <c r="U65" s="18">
+        <v>1.3685905995861201</v>
+      </c>
+      <c r="V65" s="8">
+        <v>-0.40828995064901602</v>
+      </c>
     </row>
     <row r="66" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="4" t="s">
@@ -24365,7 +24373,7 @@
   <dimension ref="A1:N199"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -25893,22 +25901,32 @@
       <c r="B45" s="21">
         <v>1.0504893771391299</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
+      <c r="C45" s="21">
+        <v>0.44923929838504001</v>
+      </c>
+      <c r="D45" s="21">
+        <v>0.46258411195829102</v>
+      </c>
+      <c r="E45" s="21">
+        <v>0.62396302457129105</v>
+      </c>
+      <c r="F45" s="21">
+        <v>0.40141883166245401</v>
+      </c>
       <c r="G45" s="21">
         <f>AVERAGE(B45:F45)</f>
-        <v>1.0504893771391299</v>
-      </c>
-      <c r="H45" s="21"/>
+        <v>0.59753892874324122</v>
+      </c>
+      <c r="H45" s="21">
+        <v>0.30382316914931001</v>
+      </c>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
-      <c r="M45" s="21" t="e">
+      <c r="M45" s="21">
         <f>AVERAGE(H45:L45)</f>
-        <v>#DIV/0!</v>
+        <v>0.30382316914931001</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -25918,13 +25936,21 @@
       <c r="B46" s="21">
         <v>1.97572077726475</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
+      <c r="C46" s="21">
+        <v>0.95761814834812398</v>
+      </c>
+      <c r="D46" s="21">
+        <v>1.77710913176873</v>
+      </c>
+      <c r="E46" s="21">
+        <v>1.4935840922189001</v>
+      </c>
+      <c r="F46" s="21">
+        <v>1.2895721452601701</v>
+      </c>
       <c r="G46" s="21">
         <f t="shared" ref="G46:G56" si="14">AVERAGE(B46:F46)</f>
-        <v>1.97572077726475</v>
+        <v>1.4987208589721348</v>
       </c>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
@@ -25943,13 +25969,21 @@
       <c r="B47" s="21">
         <v>1.24682155640508</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
+      <c r="C47" s="21">
+        <v>1.7362009307009201</v>
+      </c>
+      <c r="D47" s="21">
+        <v>1.34300043624895</v>
+      </c>
+      <c r="E47" s="21">
+        <v>1.55217955030302</v>
+      </c>
+      <c r="F47" s="21">
+        <v>1.46697835628872</v>
+      </c>
       <c r="G47" s="21">
         <f t="shared" si="14"/>
-        <v>1.24682155640508</v>
+        <v>1.4690361659893381</v>
       </c>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
@@ -25968,13 +26002,21 @@
       <c r="B48" s="21">
         <v>1.30158172439654</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
+      <c r="C48" s="21">
+        <v>0.91018185905530002</v>
+      </c>
+      <c r="D48" s="21">
+        <v>1.37290524109526</v>
+      </c>
+      <c r="E48" s="21">
+        <v>0.83066969672164603</v>
+      </c>
+      <c r="F48" s="21">
+        <v>1.6708785622820801</v>
+      </c>
       <c r="G48" s="21">
         <f t="shared" si="14"/>
-        <v>1.30158172439654</v>
+        <v>1.2172434167101653</v>
       </c>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
@@ -25993,13 +26035,21 @@
       <c r="B49" s="21">
         <v>2.05953700051443</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
+      <c r="C49" s="21">
+        <v>2.3531816082242298</v>
+      </c>
+      <c r="D49" s="21">
+        <v>2.3692821247433402</v>
+      </c>
+      <c r="E49" s="21">
+        <v>1.8366518214098799</v>
+      </c>
+      <c r="F49" s="21">
+        <v>2.6980294479670701</v>
+      </c>
       <c r="G49" s="21">
         <f t="shared" si="14"/>
-        <v>2.05953700051443</v>
+        <v>2.2633364005717898</v>
       </c>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
@@ -26018,13 +26068,21 @@
       <c r="B50" s="21">
         <v>0.88774107242449296</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
+      <c r="C50" s="21">
+        <v>1.1332586916826499</v>
+      </c>
+      <c r="D50" s="21">
+        <v>2.4792780140304802</v>
+      </c>
+      <c r="E50" s="21">
+        <v>3.3641026455051999</v>
+      </c>
+      <c r="F50" s="21">
+        <v>1.2037444571693801</v>
+      </c>
       <c r="G50" s="21">
         <f t="shared" si="14"/>
-        <v>0.88774107242449296</v>
+        <v>1.8136249761624406</v>
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
@@ -26043,13 +26101,21 @@
       <c r="B51" s="21">
         <v>1.10587398417115</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
+      <c r="C51" s="21">
+        <v>1.66136548949959</v>
+      </c>
+      <c r="D51" s="21">
+        <v>1.6130559519263801</v>
+      </c>
+      <c r="E51" s="21">
+        <v>2.9315944345510498</v>
+      </c>
+      <c r="F51" s="21">
+        <v>1.0414237317683399</v>
+      </c>
       <c r="G51" s="21">
         <f t="shared" si="14"/>
-        <v>1.10587398417115</v>
+        <v>1.670662718383302</v>
       </c>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
@@ -26068,13 +26134,21 @@
       <c r="B52" s="21">
         <v>1.1218295927703399</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
+      <c r="C52" s="21">
+        <v>0.81819298172905497</v>
+      </c>
+      <c r="D52" s="21">
+        <v>1.7372564803263699</v>
+      </c>
+      <c r="E52" s="21">
+        <v>3.5033878640397602</v>
+      </c>
+      <c r="F52" s="21">
+        <v>0.898840401938794</v>
+      </c>
       <c r="G52" s="21">
         <f t="shared" si="14"/>
-        <v>1.1218295927703399</v>
+        <v>1.6159014641608636</v>
       </c>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
@@ -26093,13 +26167,21 @@
       <c r="B53" s="21">
         <v>1.4024918829622901</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
+      <c r="C53" s="21">
+        <v>1.1722791272872499</v>
+      </c>
+      <c r="D53" s="21">
+        <v>1.3744442289574801</v>
+      </c>
+      <c r="E53" s="21">
+        <v>3.0688859078682298</v>
+      </c>
+      <c r="F53" s="21">
+        <v>1.2190523586309601</v>
+      </c>
       <c r="G53" s="21">
         <f t="shared" si="14"/>
-        <v>1.4024918829622901</v>
+        <v>1.6474307011412421</v>
       </c>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
@@ -26118,13 +26200,21 @@
       <c r="B54" s="21">
         <v>0.55816792788967595</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
+      <c r="C54" s="21">
+        <v>1.0503905844685</v>
+      </c>
+      <c r="D54" s="21">
+        <v>1.3894482701737401</v>
+      </c>
+      <c r="E54" s="21">
+        <v>2.10184006353541</v>
+      </c>
+      <c r="F54" s="21">
+        <v>1.1368255649004799</v>
+      </c>
       <c r="G54" s="21">
         <f t="shared" si="14"/>
-        <v>0.55816792788967595</v>
+        <v>1.2473344821935612</v>
       </c>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
@@ -26143,13 +26233,21 @@
       <c r="B55" s="21">
         <v>3.1429097731361302</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
+      <c r="C55" s="21">
+        <v>1.97328216794317</v>
+      </c>
+      <c r="D55" s="21">
+        <v>0.740330159135411</v>
+      </c>
+      <c r="E55" s="21">
+        <v>1.8965823672061499</v>
+      </c>
+      <c r="F55" s="21">
+        <v>1.7732940751236701</v>
+      </c>
       <c r="G55" s="21">
         <f t="shared" si="14"/>
-        <v>3.1429097731361302</v>
+        <v>1.9052797085089064</v>
       </c>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
@@ -26168,13 +26266,21 @@
       <c r="B56" s="21">
         <v>2.46472668642713</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
+      <c r="C56" s="21">
+        <v>2.0603584370583201</v>
+      </c>
+      <c r="D56" s="21">
+        <v>1.7057160380693499</v>
+      </c>
+      <c r="E56" s="21">
+        <v>0.88497910616804798</v>
+      </c>
+      <c r="F56" s="21">
+        <v>1.92213421281563</v>
+      </c>
       <c r="G56" s="21">
         <f t="shared" si="14"/>
-        <v>2.46472668642713</v>
+        <v>1.8075828961076958</v>
       </c>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
@@ -26194,29 +26300,29 @@
         <f t="shared" ref="B57:M57" si="16">AVERAGE(B45:B56)</f>
         <v>1.5264909462917615</v>
       </c>
-      <c r="C57" s="21" t="e">
+      <c r="C57" s="21">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D57" s="21" t="e">
+        <v>1.356295777031846</v>
+      </c>
+      <c r="D57" s="21">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E57" s="21" t="e">
+        <v>1.5303675157028154</v>
+      </c>
+      <c r="E57" s="21">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F57" s="21" t="e">
+        <v>2.0073683811748819</v>
+      </c>
+      <c r="F57" s="21">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>1.3935160121506458</v>
       </c>
       <c r="G57" s="21">
         <f t="shared" si="16"/>
-        <v>1.5264909462917615</v>
-      </c>
-      <c r="H57" s="21" t="e">
+        <v>1.5628077264703901</v>
+      </c>
+      <c r="H57" s="21">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>0.30382316914931001</v>
       </c>
       <c r="I57" s="21" t="e">
         <f t="shared" si="16"/>
@@ -26303,329 +26409,569 @@
       <c r="A60" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21" t="e">
+      <c r="B60" s="21">
+        <v>0.30643687649277801</v>
+      </c>
+      <c r="C60" s="21">
+        <v>0.38083097069101102</v>
+      </c>
+      <c r="D60" s="21">
+        <v>0.52067614076548396</v>
+      </c>
+      <c r="E60" s="21">
+        <v>0.54390600658036803</v>
+      </c>
+      <c r="F60" s="21">
+        <v>0.85836286418103203</v>
+      </c>
+      <c r="G60" s="21">
         <f>AVERAGE(B60:F60)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21" t="e">
+        <v>0.52204257174213464</v>
+      </c>
+      <c r="H60" s="21">
+        <v>0.606861986954634</v>
+      </c>
+      <c r="I60" s="21">
+        <v>0.45198171704914403</v>
+      </c>
+      <c r="J60" s="21">
+        <v>1.14353449140844</v>
+      </c>
+      <c r="K60" s="21">
+        <v>0.61666958816457196</v>
+      </c>
+      <c r="L60" s="21">
+        <v>0.370688610750393</v>
+      </c>
+      <c r="M60" s="21">
         <f>AVERAGE(H60:L60)</f>
-        <v>#DIV/0!</v>
+        <v>0.63794727886543656</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21" t="e">
+      <c r="B61" s="21">
+        <v>0.71592310343707799</v>
+      </c>
+      <c r="C61" s="21">
+        <v>0.65967805606374297</v>
+      </c>
+      <c r="D61" s="21">
+        <v>1.4148855243432701</v>
+      </c>
+      <c r="E61" s="21">
+        <v>0.57870593238716905</v>
+      </c>
+      <c r="F61" s="21">
+        <v>1.0924527167862501</v>
+      </c>
+      <c r="G61" s="21">
         <f t="shared" ref="G61:G71" si="17">AVERAGE(B61:F61)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21" t="e">
+        <v>0.89232906660350209</v>
+      </c>
+      <c r="H61" s="21">
+        <v>1.24088620660712</v>
+      </c>
+      <c r="I61" s="21">
+        <v>0.90455108577168397</v>
+      </c>
+      <c r="J61" s="21">
+        <v>2.1150521351791101</v>
+      </c>
+      <c r="K61" s="21">
+        <v>0.59828700132789403</v>
+      </c>
+      <c r="L61" s="21">
+        <v>1.01280678733137</v>
+      </c>
+      <c r="M61" s="21">
         <f t="shared" ref="M61:M71" si="18">AVERAGE(H61:L61)</f>
-        <v>#DIV/0!</v>
+        <v>1.1743166432434358</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21" t="e">
+      <c r="B62" s="21">
+        <v>1.4762479371850199</v>
+      </c>
+      <c r="C62" s="21">
+        <v>0.84939845291871396</v>
+      </c>
+      <c r="D62" s="21">
+        <v>1.1611042679146</v>
+      </c>
+      <c r="E62" s="21">
+        <v>0.83213974221800502</v>
+      </c>
+      <c r="F62" s="21">
+        <v>1.7975251310585401</v>
+      </c>
+      <c r="G62" s="21">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21" t="e">
+        <v>1.2232831062589757</v>
+      </c>
+      <c r="H62" s="21">
+        <v>0.86678022894558704</v>
+      </c>
+      <c r="I62" s="21">
+        <v>1.5364587798365399</v>
+      </c>
+      <c r="J62" s="21">
+        <v>2.5257443475533199</v>
+      </c>
+      <c r="K62" s="21">
+        <v>1.0009214926023999</v>
+      </c>
+      <c r="L62" s="21">
+        <v>0.75379084812987696</v>
+      </c>
+      <c r="M62" s="21">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>1.3367391394135448</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21" t="e">
+      <c r="B63" s="21">
+        <v>1.02596225532894</v>
+      </c>
+      <c r="C63" s="21">
+        <v>0.79127636826325398</v>
+      </c>
+      <c r="D63" s="21">
+        <v>1.21431722445832</v>
+      </c>
+      <c r="E63" s="21">
+        <v>1.00366874026662</v>
+      </c>
+      <c r="F63" s="21">
+        <v>1.5067944634346699</v>
+      </c>
+      <c r="G63" s="21">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21" t="e">
+        <v>1.1084038103503608</v>
+      </c>
+      <c r="H63" s="21">
+        <v>1.2677335583809499</v>
+      </c>
+      <c r="I63" s="21">
+        <v>2.01786847273612</v>
+      </c>
+      <c r="J63" s="21">
+        <v>1.6864915264318301</v>
+      </c>
+      <c r="K63" s="21">
+        <v>1.1931095448309801</v>
+      </c>
+      <c r="L63" s="21">
+        <v>0.64509442834866804</v>
+      </c>
+      <c r="M63" s="21">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>1.3620595061457095</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A64" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21" t="e">
+      <c r="B64" s="21">
+        <v>1.7702200958129</v>
+      </c>
+      <c r="C64" s="21">
+        <v>1.8543815598629201</v>
+      </c>
+      <c r="D64" s="21">
+        <v>2.3164298551687299</v>
+      </c>
+      <c r="E64" s="21">
+        <v>2.1378301918320002</v>
+      </c>
+      <c r="F64" s="21">
+        <v>2.8947377832814198</v>
+      </c>
+      <c r="G64" s="21">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21" t="e">
+        <v>2.194719897191594</v>
+      </c>
+      <c r="H64" s="21">
+        <v>1.1645612336314</v>
+      </c>
+      <c r="I64" s="21">
+        <v>2.7354724715480598</v>
+      </c>
+      <c r="J64" s="21">
+        <v>3.4044881250811798</v>
+      </c>
+      <c r="K64" s="21">
+        <v>1.7559761077807099</v>
+      </c>
+      <c r="L64" s="21">
+        <v>1.38675270368919</v>
+      </c>
+      <c r="M64" s="21">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>2.0894501283461078</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21" t="e">
+      <c r="B65" s="21">
+        <v>1.5768599250661</v>
+      </c>
+      <c r="C65" s="21">
+        <v>1.17717834454516</v>
+      </c>
+      <c r="D65" s="21">
+        <v>2.4559271072501598</v>
+      </c>
+      <c r="E65" s="21">
+        <v>4.0935692969981101</v>
+      </c>
+      <c r="F65" s="21">
+        <v>2.5061279749595702</v>
+      </c>
+      <c r="G65" s="21">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21" t="e">
+        <v>2.3619325297638203</v>
+      </c>
+      <c r="H65" s="21">
+        <v>1.2207489394803701</v>
+      </c>
+      <c r="I65" s="21">
+        <v>2.41612047634688</v>
+      </c>
+      <c r="J65" s="21">
+        <v>3.6503790763799402</v>
+      </c>
+      <c r="K65" s="21">
+        <v>3.1560893771044798</v>
+      </c>
+      <c r="L65" s="21">
+        <v>0.991200622764005</v>
+      </c>
+      <c r="M65" s="21">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>2.2869076984151349</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21" t="e">
+      <c r="B66" s="21">
+        <v>1.6088628461652099</v>
+      </c>
+      <c r="C66" s="21">
+        <v>1.06536733202848</v>
+      </c>
+      <c r="D66" s="21">
+        <v>1.7012840866193</v>
+      </c>
+      <c r="E66" s="21">
+        <v>3.8438642968731198</v>
+      </c>
+      <c r="F66" s="21">
+        <v>1.7054497128069599</v>
+      </c>
+      <c r="G66" s="21">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21" t="e">
+        <v>1.9849656548986139</v>
+      </c>
+      <c r="H66" s="21">
+        <v>1.99460034798793</v>
+      </c>
+      <c r="I66" s="21">
+        <v>1.48297106622582</v>
+      </c>
+      <c r="J66" s="21">
+        <v>3.47702827067392</v>
+      </c>
+      <c r="K66" s="21">
+        <v>2.8469389401871101</v>
+      </c>
+      <c r="L66" s="21">
+        <v>1.11228352564348</v>
+      </c>
+      <c r="M66" s="21">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>2.182764430143652</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21" t="e">
+      <c r="B67" s="21">
+        <v>1.4156318801238099</v>
+      </c>
+      <c r="C67" s="21">
+        <v>1.2657054342154801</v>
+      </c>
+      <c r="D67" s="21">
+        <v>1.8772525982552399</v>
+      </c>
+      <c r="E67" s="21">
+        <v>4.3719755857969496</v>
+      </c>
+      <c r="F67" s="21">
+        <v>1.10958020840267</v>
+      </c>
+      <c r="G67" s="21">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21" t="e">
+        <v>2.00802914135883</v>
+      </c>
+      <c r="H67" s="21">
+        <v>1.6152591207611999</v>
+      </c>
+      <c r="I67" s="21">
+        <v>1.6150141513882199</v>
+      </c>
+      <c r="J67" s="21">
+        <v>3.3079561752605202</v>
+      </c>
+      <c r="K67" s="21">
+        <v>3.45146705550337</v>
+      </c>
+      <c r="L67" s="21">
+        <v>1.2570101624546599</v>
+      </c>
+      <c r="M67" s="21">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>2.2493413330735939</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21" t="e">
+      <c r="B68" s="21">
+        <v>1.5553448874901099</v>
+      </c>
+      <c r="C68" s="21">
+        <v>1.1245917677977399</v>
+      </c>
+      <c r="D68" s="21">
+        <v>1.0406358170148899</v>
+      </c>
+      <c r="E68" s="21">
+        <v>3.0889082025222101</v>
+      </c>
+      <c r="F68" s="21">
+        <v>1.00215111376064</v>
+      </c>
+      <c r="G68" s="21">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21" t="e">
+        <v>1.562326357717118</v>
+      </c>
+      <c r="H68" s="21">
+        <v>0.92824453259361706</v>
+      </c>
+      <c r="I68" s="21">
+        <v>2.0499113698692701</v>
+      </c>
+      <c r="J68" s="21">
+        <v>3.4300261919218298</v>
+      </c>
+      <c r="K68" s="21">
+        <v>2.44310747581893</v>
+      </c>
+      <c r="L68" s="21">
+        <v>1.9716854921728899</v>
+      </c>
+      <c r="M68" s="21">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>2.1645950124753073</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21" t="e">
+      <c r="B69" s="21">
+        <v>0.82735666973508903</v>
+      </c>
+      <c r="C69" s="21">
+        <v>1.13612080153246</v>
+      </c>
+      <c r="D69" s="21">
+        <v>1.4878546301925</v>
+      </c>
+      <c r="E69" s="21">
+        <v>2.7034309631765399</v>
+      </c>
+      <c r="F69" s="21">
+        <v>1.0543603978434699</v>
+      </c>
+      <c r="G69" s="21">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21" t="e">
+        <v>1.4418246924960116</v>
+      </c>
+      <c r="H69" s="21">
+        <v>0.99672442083837898</v>
+      </c>
+      <c r="I69" s="21">
+        <v>2.1003724557157901</v>
+      </c>
+      <c r="J69" s="21">
+        <v>1.96171660769129</v>
+      </c>
+      <c r="K69" s="21">
+        <v>2.0488212215955302</v>
+      </c>
+      <c r="L69" s="21">
+        <v>0.78029734766226999</v>
+      </c>
+      <c r="M69" s="21">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>1.5775864107006519</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21" t="e">
+      <c r="B70" s="21">
+        <v>0.40501905342496403</v>
+      </c>
+      <c r="C70" s="21">
+        <v>0.53649470911015396</v>
+      </c>
+      <c r="D70" s="21">
+        <v>0.93185907400170498</v>
+      </c>
+      <c r="E70" s="21">
+        <v>0.74608343707918701</v>
+      </c>
+      <c r="F70" s="21">
+        <v>0.80437923334144601</v>
+      </c>
+      <c r="G70" s="21">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="21" t="e">
+        <v>0.68476710139149122</v>
+      </c>
+      <c r="H70" s="21">
+        <v>3.9171122434594401</v>
+      </c>
+      <c r="I70" s="21">
+        <v>3.52195292083199</v>
+      </c>
+      <c r="J70" s="21">
+        <v>0.97508296697159402</v>
+      </c>
+      <c r="K70" s="21">
+        <v>1.04210627893996</v>
+      </c>
+      <c r="L70" s="21">
+        <v>0.62776883081481905</v>
+      </c>
+      <c r="M70" s="21">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>2.0168046482035606</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21" t="e">
+      <c r="B71" s="21">
+        <v>2.2785921251415902</v>
+      </c>
+      <c r="C71" s="21">
+        <v>1.7505435142147501</v>
+      </c>
+      <c r="D71" s="21">
+        <v>1.96239778338628</v>
+      </c>
+      <c r="E71" s="21">
+        <v>0.96756714469832406</v>
+      </c>
+      <c r="F71" s="21">
+        <v>2.3471769831507001</v>
+      </c>
+      <c r="G71" s="21">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="21" t="e">
+        <v>1.861255510118329</v>
+      </c>
+      <c r="H71" s="21">
+        <v>2.2053170748934101</v>
+      </c>
+      <c r="I71" s="21">
+        <v>4.07297461179986</v>
+      </c>
+      <c r="J71" s="21">
+        <v>4.25539660262932</v>
+      </c>
+      <c r="K71" s="21">
+        <v>0.80834366874614305</v>
+      </c>
+      <c r="L71" s="21">
+        <v>1.86585318990798</v>
+      </c>
+      <c r="M71" s="21">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>2.6415770295953429</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B72" s="21" t="e">
+      <c r="B72" s="21">
         <f t="shared" ref="B72:M72" si="19">AVERAGE(B60:B71)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C72" s="21" t="e">
+        <v>1.2468714712836322</v>
+      </c>
+      <c r="C72" s="21">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D72" s="21" t="e">
+        <v>1.0492972759369887</v>
+      </c>
+      <c r="D72" s="21">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E72" s="21" t="e">
+        <v>1.5070520091142063</v>
+      </c>
+      <c r="E72" s="21">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F72" s="21" t="e">
+        <v>2.0759707950357167</v>
+      </c>
+      <c r="F72" s="21">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G72" s="21" t="e">
+        <v>1.5565915485839472</v>
+      </c>
+      <c r="G72" s="21">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H72" s="21" t="e">
+        <v>1.4871566199908985</v>
+      </c>
+      <c r="H72" s="21">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I72" s="21" t="e">
+        <v>1.5020691578778365</v>
+      </c>
+      <c r="I72" s="21">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J72" s="21" t="e">
+        <v>2.0754707982599481</v>
+      </c>
+      <c r="J72" s="21">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K72" s="21" t="e">
+        <v>2.6610747097651912</v>
+      </c>
+      <c r="K72" s="21">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L72" s="21" t="e">
+        <v>1.7468198127168402</v>
+      </c>
+      <c r="L72" s="21">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M72" s="21" t="e">
+        <v>1.0646027124724669</v>
+      </c>
+      <c r="M72" s="21">
         <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+        <v>1.8100074382184566</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378EDBE3-128B-4E10-B9DA-0C6BA4A7FD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1C2409-0231-4CD6-B89E-850FB1DC1922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3515" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3515" uniqueCount="395">
   <si>
     <t>Results</t>
   </si>
@@ -1205,6 +1205,18 @@
   <si>
     <t>Confidence Interval Upper</t>
   </si>
+  <si>
+    <t>No GHI *</t>
+  </si>
+  <si>
+    <t>All *</t>
+  </si>
+  <si>
+    <t>No SA *</t>
+  </si>
+  <si>
+    <t>No ONI *</t>
+  </si>
 </sst>
 </file>
 
@@ -5164,7 +5176,7 @@
   <dimension ref="A1:V140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I58" workbookViewId="0">
-      <selection activeCell="U71" sqref="U71"/>
+      <selection activeCell="S71" sqref="S71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10413,15 +10425,23 @@
         <v>101</v>
       </c>
       <c r="Q84" s="4" t="s">
-        <v>38</v>
+        <v>392</v>
       </c>
       <c r="R84" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="S84" s="18"/>
-      <c r="T84" s="18"/>
-      <c r="U84" s="18"/>
-      <c r="V84" s="8"/>
+      <c r="S84" s="18">
+        <v>1.8997780989241699</v>
+      </c>
+      <c r="T84" s="18">
+        <v>1.60546446152274</v>
+      </c>
+      <c r="U84" s="18">
+        <v>1.83061188945535</v>
+      </c>
+      <c r="V84" s="8">
+        <v>-5.553851719458E-2</v>
+      </c>
     </row>
     <row r="85" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" s="4" t="s">
@@ -10475,15 +10495,23 @@
         <v>97</v>
       </c>
       <c r="Q85" s="4" t="s">
-        <v>6</v>
+        <v>393</v>
       </c>
       <c r="R85" s="4">
         <v>60</v>
       </c>
-      <c r="S85" s="18"/>
-      <c r="T85" s="18"/>
-      <c r="U85" s="18"/>
-      <c r="V85" s="8"/>
+      <c r="S85" s="18">
+        <v>1.96960855043035</v>
+      </c>
+      <c r="T85" s="18">
+        <v>1.7831689980394201</v>
+      </c>
+      <c r="U85" s="18">
+        <v>1.78097788568562</v>
+      </c>
+      <c r="V85" s="8">
+        <v>-0.94023665976148696</v>
+      </c>
     </row>
     <row r="86" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86" s="4" t="s">
@@ -10537,15 +10565,23 @@
         <v>98</v>
       </c>
       <c r="Q86" s="4" t="s">
-        <v>24</v>
+        <v>391</v>
       </c>
       <c r="R86" s="4">
         <v>60</v>
       </c>
-      <c r="S86" s="18"/>
-      <c r="T86" s="18"/>
-      <c r="U86" s="18"/>
-      <c r="V86" s="8"/>
+      <c r="S86" s="18">
+        <v>1.4026443977223899</v>
+      </c>
+      <c r="T86" s="18">
+        <v>1.17073212551064</v>
+      </c>
+      <c r="U86" s="18">
+        <v>1.1232000068377499</v>
+      </c>
+      <c r="V86" s="8">
+        <v>0.352721790026986</v>
+      </c>
     </row>
     <row r="87" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87" s="4" t="s">
@@ -10599,15 +10635,23 @@
         <v>113</v>
       </c>
       <c r="Q87" s="4" t="s">
-        <v>67</v>
+        <v>394</v>
       </c>
       <c r="R87" s="4">
         <v>60</v>
       </c>
-      <c r="S87" s="18"/>
-      <c r="T87" s="18"/>
-      <c r="U87" s="18"/>
-      <c r="V87" s="8"/>
+      <c r="S87" s="18">
+        <v>2.04581994813404</v>
+      </c>
+      <c r="T87" s="18">
+        <v>1.71925153821334</v>
+      </c>
+      <c r="U87" s="18">
+        <v>1.8876137860296101</v>
+      </c>
+      <c r="V87" s="8">
+        <v>-0.218482713483242</v>
+      </c>
     </row>
     <row r="88" spans="1:22" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="K88" s="2" t="s">
@@ -24372,8 +24416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1761DFC-5301-4070-9E0F-1B7FC4AEFC83}">
   <dimension ref="A1:N199"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -25920,13 +25964,21 @@
       <c r="H45" s="21">
         <v>0.30382316914931001</v>
       </c>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
+      <c r="I45" s="21">
+        <v>0.37735395249495401</v>
+      </c>
+      <c r="J45" s="21">
+        <v>0.46829515844505398</v>
+      </c>
+      <c r="K45" s="21">
+        <v>0.57125102761283797</v>
+      </c>
+      <c r="L45" s="21">
+        <v>0.33736572933078002</v>
+      </c>
       <c r="M45" s="21">
         <f>AVERAGE(H45:L45)</f>
-        <v>0.30382316914931001</v>
+        <v>0.41161780740658721</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -25952,14 +26004,24 @@
         <f t="shared" ref="G46:G56" si="14">AVERAGE(B46:F46)</f>
         <v>1.4987208589721348</v>
       </c>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21" t="e">
+      <c r="H46" s="21">
+        <v>0.87083396318359096</v>
+      </c>
+      <c r="I46" s="21">
+        <v>0.55921517369459095</v>
+      </c>
+      <c r="J46" s="21">
+        <v>1.06263003196575</v>
+      </c>
+      <c r="K46" s="21">
+        <v>0.57619963624910198</v>
+      </c>
+      <c r="L46" s="21">
+        <v>0.93907014590200399</v>
+      </c>
+      <c r="M46" s="21">
         <f t="shared" ref="M46:M56" si="15">AVERAGE(H46:L46)</f>
-        <v>#DIV/0!</v>
+        <v>0.80158979019900767</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -25985,14 +26047,24 @@
         <f t="shared" si="14"/>
         <v>1.4690361659893381</v>
       </c>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21" t="e">
+      <c r="H47" s="21">
+        <v>0.99778914008161701</v>
+      </c>
+      <c r="I47" s="21">
+        <v>0.64357813633410499</v>
+      </c>
+      <c r="J47" s="21">
+        <v>1.10441179732253</v>
+      </c>
+      <c r="K47" s="21">
+        <v>0.63287347463378496</v>
+      </c>
+      <c r="L47" s="21">
+        <v>0.65574900315760598</v>
+      </c>
+      <c r="M47" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.80688031030592866</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -26018,14 +26090,24 @@
         <f t="shared" si="14"/>
         <v>1.2172434167101653</v>
       </c>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21" t="e">
+      <c r="H48" s="21">
+        <v>0.66553230303988997</v>
+      </c>
+      <c r="I48" s="21">
+        <v>0.86358983615141505</v>
+      </c>
+      <c r="J48" s="21">
+        <v>1.2618441758396299</v>
+      </c>
+      <c r="K48" s="21">
+        <v>0.82018245070669604</v>
+      </c>
+      <c r="L48" s="21">
+        <v>0.46615474598037998</v>
+      </c>
+      <c r="M48" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.81546070234360213</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -26051,14 +26133,24 @@
         <f t="shared" si="14"/>
         <v>2.2633364005717898</v>
       </c>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21" t="e">
+      <c r="H49" s="21">
+        <v>1.16568641531136</v>
+      </c>
+      <c r="I49" s="21">
+        <v>1.4319805366263101</v>
+      </c>
+      <c r="J49" s="21">
+        <v>2.3013006766770698</v>
+      </c>
+      <c r="K49" s="21">
+        <v>1.9818135714840801</v>
+      </c>
+      <c r="L49" s="21">
+        <v>1.37132637971515</v>
+      </c>
+      <c r="M49" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.650421515962794</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -26084,14 +26176,24 @@
         <f t="shared" si="14"/>
         <v>1.8136249761624406</v>
       </c>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21" t="e">
+      <c r="H50" s="21">
+        <v>0.887199538803919</v>
+      </c>
+      <c r="I50" s="21">
+        <v>1.26621814529345</v>
+      </c>
+      <c r="J50" s="21">
+        <v>2.7047453248224</v>
+      </c>
+      <c r="K50" s="21">
+        <v>3.46055879499374</v>
+      </c>
+      <c r="L50" s="21">
+        <v>0.99249274290110501</v>
+      </c>
+      <c r="M50" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.8622429093629225</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -26117,14 +26219,24 @@
         <f t="shared" si="14"/>
         <v>1.670662718383302</v>
       </c>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21" t="e">
+      <c r="H51" s="21">
+        <v>0.81907369724006696</v>
+      </c>
+      <c r="I51" s="21">
+        <v>0.81582290376128397</v>
+      </c>
+      <c r="J51" s="21">
+        <v>1.6932036522087699</v>
+      </c>
+      <c r="K51" s="21">
+        <v>3.01753731165104</v>
+      </c>
+      <c r="L51" s="21">
+        <v>1.03185501278516</v>
+      </c>
+      <c r="M51" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.4754985155292641</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -26150,14 +26262,24 @@
         <f t="shared" si="14"/>
         <v>1.6159014641608636</v>
       </c>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21" t="e">
+      <c r="H52" s="21">
+        <v>0.76169107236326195</v>
+      </c>
+      <c r="I52" s="21">
+        <v>0.98447899443485998</v>
+      </c>
+      <c r="J52" s="21">
+        <v>1.91682413320971</v>
+      </c>
+      <c r="K52" s="21">
+        <v>3.7538676693028101</v>
+      </c>
+      <c r="L52" s="21">
+        <v>0.87207870177858005</v>
+      </c>
+      <c r="M52" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.6577881142178446</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -26183,14 +26305,24 @@
         <f t="shared" si="14"/>
         <v>1.6474307011412421</v>
       </c>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21" t="e">
+      <c r="H53" s="21">
+        <v>0.89136507890116701</v>
+      </c>
+      <c r="I53" s="21">
+        <v>0.80601537301215498</v>
+      </c>
+      <c r="J53" s="21">
+        <v>1.3551116639513701</v>
+      </c>
+      <c r="K53" s="21">
+        <v>2.5652903336678299</v>
+      </c>
+      <c r="L53" s="21">
+        <v>0.95169447969722698</v>
+      </c>
+      <c r="M53" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.3138953858459497</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -26216,14 +26348,24 @@
         <f t="shared" si="14"/>
         <v>1.2473344821935612</v>
       </c>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21" t="e">
+      <c r="H54" s="21">
+        <v>0.96290993101092603</v>
+      </c>
+      <c r="I54" s="21">
+        <v>1.0731499615058799</v>
+      </c>
+      <c r="J54" s="21">
+        <v>1.63732232082007</v>
+      </c>
+      <c r="K54" s="21">
+        <v>1.9126853125724299</v>
+      </c>
+      <c r="L54" s="21">
+        <v>0.78518523271363905</v>
+      </c>
+      <c r="M54" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.274250551724589</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -26249,14 +26391,24 @@
         <f t="shared" si="14"/>
         <v>1.9052797085089064</v>
       </c>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21" t="e">
+      <c r="H55" s="21">
+        <v>0.61584125686040103</v>
+      </c>
+      <c r="I55" s="21">
+        <v>0.97239144429352897</v>
+      </c>
+      <c r="J55" s="21">
+        <v>0.93939742513949698</v>
+      </c>
+      <c r="K55" s="21">
+        <v>1.05963188075675</v>
+      </c>
+      <c r="L55" s="21">
+        <v>0.56919384997851696</v>
+      </c>
+      <c r="M55" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>0.83129117140573894</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -26282,14 +26434,24 @@
         <f t="shared" si="14"/>
         <v>1.8075828961076958</v>
       </c>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21" t="e">
+      <c r="H56" s="21">
+        <v>1.7508710892686501</v>
+      </c>
+      <c r="I56" s="21">
+        <v>1.5444855435342599</v>
+      </c>
+      <c r="J56" s="21">
+        <v>1.69072486640043</v>
+      </c>
+      <c r="K56" s="21">
+        <v>0.82735817938615297</v>
+      </c>
+      <c r="L56" s="21">
+        <v>1.1765354948469</v>
+      </c>
+      <c r="M56" s="21">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+        <v>1.3979950346872787</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -26322,27 +26484,27 @@
       </c>
       <c r="H57" s="21">
         <f t="shared" si="16"/>
-        <v>0.30382316914931001</v>
-      </c>
-      <c r="I57" s="21" t="e">
+        <v>0.89105138793451333</v>
+      </c>
+      <c r="I57" s="21">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J57" s="21" t="e">
+        <v>0.94485666676139923</v>
+      </c>
+      <c r="J57" s="21">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K57" s="21" t="e">
+        <v>1.5113176022335233</v>
+      </c>
+      <c r="K57" s="21">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L57" s="21" t="e">
+        <v>1.7649374702514378</v>
+      </c>
+      <c r="L57" s="21">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M57" s="21" t="e">
+        <v>0.84572512656558729</v>
+      </c>
+      <c r="M57" s="21">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>1.1915776507492923</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -30013,7 +30175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924E6046-2364-4B60-882D-9DD37258C90A}">
   <dimension ref="A1:N199"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1C2409-0231-4CD6-B89E-850FB1DC1922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B825E67-368B-418F-A44B-F44345A4CAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15796" activeTab="1" xr2:uid="{7384FCF0-787A-44F0-985C-50EF4258F3F9}"/>
   </bookViews>
@@ -1823,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F029C1F8-AD11-4A7F-989C-BC369991F6F8}">
   <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView topLeftCell="C93" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5175,8 +5175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E205C6-75C9-4A48-9727-53AED497EF04}">
   <dimension ref="A1:V140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I58" workbookViewId="0">
-      <selection activeCell="S71" sqref="S71"/>
+    <sheetView tabSelected="1" topLeftCell="I13" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6417,7 +6417,7 @@
         <v>105</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>38</v>
+        <v>392</v>
       </c>
       <c r="R24" s="4" t="s">
         <v>70</v>
@@ -6484,10 +6484,18 @@
       <c r="R25" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="8"/>
+      <c r="S25" s="18">
+        <v>5.6768941274403302</v>
+      </c>
+      <c r="T25" s="18">
+        <v>5.1989356565323703</v>
+      </c>
+      <c r="U25" s="18">
+        <v>1.88962965674212</v>
+      </c>
+      <c r="V25" s="8">
+        <v>-0.83036371922891306</v>
+      </c>
     </row>
     <row r="26" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
@@ -7726,10 +7734,18 @@
       <c r="R44" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="8"/>
+      <c r="S44" s="18">
+        <v>1.88441647665034</v>
+      </c>
+      <c r="T44" s="18">
+        <v>1.5500394817199501</v>
+      </c>
+      <c r="U44" s="18">
+        <v>1.65194906068285</v>
+      </c>
+      <c r="V44" s="8">
+        <v>5.73353237453516E-2</v>
+      </c>
     </row>
     <row r="45" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
@@ -9374,10 +9390,18 @@
       <c r="R68" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S68" s="18"/>
-      <c r="T68" s="18"/>
-      <c r="U68" s="18"/>
-      <c r="V68" s="8"/>
+      <c r="S68" s="18">
+        <v>0.29820989806475101</v>
+      </c>
+      <c r="T68" s="18">
+        <v>0.29820989806475101</v>
+      </c>
+      <c r="U68" s="18">
+        <v>6.5826197464093503E-2</v>
+      </c>
+      <c r="V68" s="8">
+        <v>0.96005124343230597</v>
+      </c>
     </row>
     <row r="69" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
@@ -9436,10 +9460,18 @@
       <c r="R69" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S69" s="18"/>
-      <c r="T69" s="18"/>
-      <c r="U69" s="18"/>
-      <c r="V69" s="8"/>
+      <c r="S69" s="18">
+        <v>0.54966769053406095</v>
+      </c>
+      <c r="T69" s="18">
+        <v>0.45292373696240501</v>
+      </c>
+      <c r="U69" s="18">
+        <v>0.104614083056826</v>
+      </c>
+      <c r="V69" s="8">
+        <v>0.85317659209757701</v>
+      </c>
     </row>
     <row r="70" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="4" t="s">
@@ -9498,10 +9530,18 @@
       <c r="R70" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S70" s="18"/>
-      <c r="T70" s="18"/>
-      <c r="U70" s="18"/>
-      <c r="V70" s="8"/>
+      <c r="S70" s="18">
+        <v>0.30022042236318303</v>
+      </c>
+      <c r="T70" s="18">
+        <v>0.243343818239867</v>
+      </c>
+      <c r="U70" s="18">
+        <v>6.20133573197744E-2</v>
+      </c>
+      <c r="V70" s="8">
+        <v>0.95968074899584599</v>
+      </c>
     </row>
     <row r="71" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71" s="4" t="s">
@@ -9560,10 +9600,18 @@
       <c r="R71" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S71" s="18"/>
-      <c r="T71" s="18"/>
-      <c r="U71" s="18"/>
-      <c r="V71" s="8"/>
+      <c r="S71" s="18">
+        <v>0.485663673825938</v>
+      </c>
+      <c r="T71" s="18">
+        <v>0.37491296203028002</v>
+      </c>
+      <c r="U71" s="18">
+        <v>8.7352969440431305E-2</v>
+      </c>
+      <c r="V71" s="8">
+        <v>0.88910603037918701</v>
+      </c>
     </row>
     <row r="72" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="4" t="s">
@@ -9622,10 +9670,18 @@
       <c r="R72" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S72" s="18"/>
-      <c r="T72" s="18"/>
-      <c r="U72" s="18"/>
-      <c r="V72" s="8"/>
+      <c r="S72" s="18">
+        <v>0.59627807698144497</v>
+      </c>
+      <c r="T72" s="18">
+        <v>0.52232116266375905</v>
+      </c>
+      <c r="U72" s="18">
+        <v>0.129592088257662</v>
+      </c>
+      <c r="V72" s="8">
+        <v>0.76195480754216605</v>
+      </c>
     </row>
     <row r="73" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A73" s="4" t="s">
@@ -9684,10 +9740,18 @@
       <c r="R73" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S73" s="18"/>
-      <c r="T73" s="18"/>
-      <c r="U73" s="18"/>
-      <c r="V73" s="8"/>
+      <c r="S73" s="18">
+        <v>0.79534921707419204</v>
+      </c>
+      <c r="T73" s="18">
+        <v>0.65246940823983002</v>
+      </c>
+      <c r="U73" s="18">
+        <v>0.136674488514721</v>
+      </c>
+      <c r="V73" s="8">
+        <v>0.65384653490961697</v>
+      </c>
     </row>
     <row r="74" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
@@ -9746,10 +9810,18 @@
       <c r="R74" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S74" s="18"/>
-      <c r="T74" s="18"/>
-      <c r="U74" s="18"/>
-      <c r="V74" s="8"/>
+      <c r="S74" s="18">
+        <v>0.77009236672821302</v>
+      </c>
+      <c r="T74" s="18">
+        <v>0.61049838719765304</v>
+      </c>
+      <c r="U74" s="18">
+        <v>0.12272515504937399</v>
+      </c>
+      <c r="V74" s="8">
+        <v>0.69460931318921404</v>
+      </c>
     </row>
     <row r="75" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
@@ -9808,10 +9880,18 @@
       <c r="R75" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18"/>
-      <c r="U75" s="18"/>
-      <c r="V75" s="8"/>
+      <c r="S75" s="18">
+        <v>0.823880715051587</v>
+      </c>
+      <c r="T75" s="18">
+        <v>0.66734719294219302</v>
+      </c>
+      <c r="U75" s="18">
+        <v>0.129396832789067</v>
+      </c>
+      <c r="V75" s="8">
+        <v>0.45297592084250499</v>
+      </c>
     </row>
     <row r="76" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="4" t="s">
@@ -30176,7 +30256,7 @@
   <dimension ref="A1:N199"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -30270,76 +30350,96 @@
       <c r="A4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21" t="e">
+      <c r="B4" s="21">
+        <v>0.22991296682034901</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0.38238020028036601</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.316772729333612</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0.319113515541112</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0.242870078348318</v>
+      </c>
+      <c r="G4" s="21">
         <f>AVERAGE(B4:F4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21" t="e">
+        <v>0.2982098980647514</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0.46091266474450399</v>
+      </c>
+      <c r="I4" s="21">
+        <v>0.37971040075847901</v>
+      </c>
+      <c r="J4" s="21">
+        <v>0.48448361693066599</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0.63138786230808797</v>
+      </c>
+      <c r="L4" s="21">
+        <v>0.471823824387955</v>
+      </c>
+      <c r="M4" s="21">
         <f>AVERAGE(H4:L4)</f>
-        <v>#DIV/0!</v>
+        <v>0.48566367382593845</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="21" t="e">
+      <c r="B5" s="21">
         <f t="shared" ref="B5:M5" si="0">AVERAGE(B4:B4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C5" s="21" t="e">
+        <v>0.22991296682034901</v>
+      </c>
+      <c r="C5" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D5" s="21" t="e">
+        <v>0.38238020028036601</v>
+      </c>
+      <c r="D5" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" s="21" t="e">
+        <v>0.316772729333612</v>
+      </c>
+      <c r="E5" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="21" t="e">
+        <v>0.319113515541112</v>
+      </c>
+      <c r="F5" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="21" t="e">
+        <v>0.242870078348318</v>
+      </c>
+      <c r="G5" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="21" t="e">
+        <v>0.2982098980647514</v>
+      </c>
+      <c r="H5" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="21" t="e">
+        <v>0.46091266474450399</v>
+      </c>
+      <c r="I5" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="21" t="e">
+        <v>0.37971040075847901</v>
+      </c>
+      <c r="J5" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="21" t="e">
+        <v>0.48448361693066599</v>
+      </c>
+      <c r="K5" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="21" t="e">
+        <v>0.63138786230808797</v>
+      </c>
+      <c r="L5" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="21" t="e">
+        <v>0.471823824387955</v>
+      </c>
+      <c r="M5" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.48566367382593845</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -30406,76 +30506,96 @@
       <c r="A8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21" t="e">
+      <c r="B8" s="21">
+        <v>0.59539785574497595</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.39580970455407699</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.62325278302609399</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0.575362929923661</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0.55851517942149898</v>
+      </c>
+      <c r="G8" s="21">
         <f>AVERAGE(B8:F8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21" t="e">
+        <v>0.54966769053406128</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0.25112878687831702</v>
+      </c>
+      <c r="I8" s="21">
+        <v>0.31776313049497101</v>
+      </c>
+      <c r="J8" s="21">
+        <v>0.31977581961944002</v>
+      </c>
+      <c r="K8" s="21">
+        <v>0.35589093623428097</v>
+      </c>
+      <c r="L8" s="21">
+        <v>0.25654343858890599</v>
+      </c>
+      <c r="M8" s="21">
         <f>AVERAGE(H8:L8)</f>
-        <v>#DIV/0!</v>
+        <v>0.30022042236318303</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="21" t="e">
+      <c r="B9" s="21">
         <f t="shared" ref="B9:M9" si="1">AVERAGE(B8:B8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" s="21" t="e">
+        <v>0.59539785574497595</v>
+      </c>
+      <c r="C9" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="21" t="e">
+        <v>0.39580970455407699</v>
+      </c>
+      <c r="D9" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="21" t="e">
+        <v>0.62325278302609399</v>
+      </c>
+      <c r="E9" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="21" t="e">
+        <v>0.575362929923661</v>
+      </c>
+      <c r="F9" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="21" t="e">
+        <v>0.55851517942149898</v>
+      </c>
+      <c r="G9" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="21" t="e">
+        <v>0.54966769053406128</v>
+      </c>
+      <c r="H9" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="21" t="e">
+        <v>0.25112878687831702</v>
+      </c>
+      <c r="I9" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="21" t="e">
+        <v>0.31776313049497101</v>
+      </c>
+      <c r="J9" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" s="21" t="e">
+        <v>0.31977581961944002</v>
+      </c>
+      <c r="K9" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="21" t="e">
+        <v>0.35589093623428097</v>
+      </c>
+      <c r="L9" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="21" t="e">
+        <v>0.25654343858890599</v>
+      </c>
+      <c r="M9" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.30022042236318303</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -30559,23 +30679,43 @@
       <c r="A13" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21" t="e">
+      <c r="B13" s="21">
+        <v>0.30547930957932501</v>
+      </c>
+      <c r="C13" s="21">
+        <v>0.29671517141179199</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0.38608664105482798</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.77493506811865498</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.41423679997721402</v>
+      </c>
+      <c r="G13" s="21">
         <f>AVERAGE(B13:F13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21" t="e">
+        <v>0.43549059802836282</v>
+      </c>
+      <c r="H13" s="21">
+        <v>0.46480240450395899</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0.402020327243088</v>
+      </c>
+      <c r="J13" s="21">
+        <v>0.47191390734466299</v>
+      </c>
+      <c r="K13" s="21">
+        <v>0.70998165388802703</v>
+      </c>
+      <c r="L13" s="21">
+        <v>0.30803363635861603</v>
+      </c>
+      <c r="M13" s="21">
         <f>AVERAGE(H13:L13)</f>
-        <v>#DIV/0!</v>
+        <v>0.47135038586767058</v>
       </c>
       <c r="N13" s="19"/>
     </row>
@@ -30583,99 +30723,139 @@
       <c r="A14" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21" t="e">
+      <c r="B14" s="21">
+        <v>0.50146764320834303</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0.15808596850718501</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0.734342937725324</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0.90949135692244798</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0.761584049059715</v>
+      </c>
+      <c r="G14" s="21">
         <f t="shared" ref="G14:G15" si="2">AVERAGE(B14:F14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21" t="e">
+        <v>0.61299439108460307</v>
+      </c>
+      <c r="H14" s="21">
+        <v>1.1752916757001199</v>
+      </c>
+      <c r="I14" s="21">
+        <v>0.411144331442725</v>
+      </c>
+      <c r="J14" s="21">
+        <v>1.0849470174759099</v>
+      </c>
+      <c r="K14" s="21">
+        <v>0.78268124750582702</v>
+      </c>
+      <c r="L14" s="21">
+        <v>0.93033754021894099</v>
+      </c>
+      <c r="M14" s="21">
         <f t="shared" ref="M14:M15" si="3">AVERAGE(H14:L14)</f>
-        <v>#DIV/0!</v>
+        <v>0.87688036246870449</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21" t="e">
+      <c r="B15" s="21">
+        <v>0.46633325098598899</v>
+      </c>
+      <c r="C15" s="21">
+        <v>0.53164927700737297</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0.63850139288685603</v>
+      </c>
+      <c r="E15" s="21">
+        <v>1.7643581092013301</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0.30090417907529199</v>
+      </c>
+      <c r="G15" s="21">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21" t="e">
+        <v>0.74034924183136797</v>
+      </c>
+      <c r="H15" s="21">
+        <v>2.3433267063471099</v>
+      </c>
+      <c r="I15" s="21">
+        <v>0.68894307405754396</v>
+      </c>
+      <c r="J15" s="21">
+        <v>1.1591996622109</v>
+      </c>
+      <c r="K15" s="21">
+        <v>0.70974098038565403</v>
+      </c>
+      <c r="L15" s="21">
+        <v>0.715846561090692</v>
+      </c>
+      <c r="M15" s="21">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.1234113968183801</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="21" t="e">
+      <c r="B16" s="21">
         <f t="shared" ref="B16:M16" si="4">AVERAGE(B13:B15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16" s="21" t="e">
+        <v>0.42442673459121899</v>
+      </c>
+      <c r="C16" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="21" t="e">
+        <v>0.32881680564211663</v>
+      </c>
+      <c r="D16" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="21" t="e">
+        <v>0.58631032388900273</v>
+      </c>
+      <c r="E16" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="21" t="e">
+        <v>1.1495948447474778</v>
+      </c>
+      <c r="F16" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="21" t="e">
+        <v>0.49224167603740704</v>
+      </c>
+      <c r="G16" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="21" t="e">
+        <v>0.59627807698144464</v>
+      </c>
+      <c r="H16" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="21" t="e">
+        <v>1.3278069288503962</v>
+      </c>
+      <c r="I16" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="21" t="e">
+        <v>0.50070257758111902</v>
+      </c>
+      <c r="J16" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K16" s="21" t="e">
+        <v>0.90535352901049093</v>
+      </c>
+      <c r="K16" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="21" t="e">
+        <v>0.73413462725983603</v>
+      </c>
+      <c r="L16" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="21" t="e">
+        <v>0.65140591255608304</v>
+      </c>
+      <c r="M16" s="21">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.823880715051585</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -30742,122 +30922,182 @@
       <c r="A19" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21" t="e">
+      <c r="B19" s="21">
+        <v>0.31347803287470799</v>
+      </c>
+      <c r="C19" s="21">
+        <v>0.38905770782642801</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0.546419422863618</v>
+      </c>
+      <c r="E19" s="21">
+        <v>0.54863573177676905</v>
+      </c>
+      <c r="F19" s="21">
+        <v>0.370153307112913</v>
+      </c>
+      <c r="G19" s="21">
         <f>AVERAGE(B19:F19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21" t="e">
+        <v>0.43354884049088727</v>
+      </c>
+      <c r="H19" s="21">
+        <v>0.30298812620099602</v>
+      </c>
+      <c r="I19" s="21">
+        <v>0.38919164453733601</v>
+      </c>
+      <c r="J19" s="21">
+        <v>0.58889396493185897</v>
+      </c>
+      <c r="K19" s="21">
+        <v>0.590925664985952</v>
+      </c>
+      <c r="L19" s="21">
+        <v>0.30848371481190701</v>
+      </c>
+      <c r="M19" s="21">
         <f>AVERAGE(H19:L19)</f>
-        <v>#DIV/0!</v>
+        <v>0.43609662309360997</v>
       </c>
     </row>
     <row r="20" spans="1:14